--- a/Game simulations/Week 16/Buccaneers at Panthers.xlsx
+++ b/Game simulations/Week 16/Buccaneers at Panthers.xlsx
@@ -57,16 +57,16 @@
     <t>PanthersAvg. FPTS</t>
   </si>
   <si>
-    <t>NIG(44.87576585344391, 2.9688685112969555, -0.45675210369680674, 81.61931144669595)</t>
-  </si>
-  <si>
-    <t>14 -3 -13 -11 22 -14 20 11 18 -6 11 -3 3 0 18 16 10 6 3 -20 -7 2 26 8 4 21 12 -23 7 -3 17 3 14 6 9 22 17 -5 -20 4 -26 -3 3 8 -20 34 39 -9 15 20 23 -6 17 -3 17 -4 -5 -21 -7 36 4 28 -3 7 -3 22 4 -5 16 -3 -2 14 4 7 24 32 -1 11 5 10 3 4 4 14 -6 3 18 6 34 -3 8 -3 -8 -23 -3 24 13 3 10 12 -4 -12 10 17 -14 -4 21 3 -17 6 4 10 12 19 14 9 -7 11 10 -5 -3 4 3 10 29 16 -9 17 6 -10 8 -1 22 -16 23 1 30 -10 -14 -10 20 -7 12 33 12 10 10 4 12 22 15 -3 11 -3 -9 8 2 -4 -14 -9 -3 6 4 5 17 32 6 4 21 10 22 14 -12 14 5 7 10 3 11 -10 8 -13 3 3 -3 3 7 14 7 -7 3 14 11 -2 7 3 11 -23 31 8 7 13 6 4 19 30 -3 -21 4 12 17 -15 -19 6 16 6 -3 14 22 -4 -3 4 14 12 -27 5 -3 7 23 9 14 7 19 6 14 -3 -8 -5 4 4 -4 19 29 6 -3 8 -3 14 -4 -16 3 -14 18 -7 -21 25 23 14 5 -9 -13 28 -9 3 7 6 5 8 -7 14 -2 -22 27 14 26 25 18 3 -13 -17 -2 11 13 26 2 17 -1 -20 -6 12 -16 -7 -18 -6 13 15 14 15 30 13 10 -7 10 11 16 -15 9 -2 14 16 -4 10 18 11 -15 3 -2 9 6 30 5 -8 -5 14 3 14 3 7 8 22 6 1 24 -18 15 -5 0 23 -15 7 3 13 13 19 3 -6 21 -10 21 -4 -11 -18 -15 3 13 -3 -4 -17 3 6 -14 4 3 24 6 -26 7 11 -3 11 1 -3 8 11 13 -3 -7 6 2 -13 10 10 3 6 16 25 9 7 -4 -10 7 -10 10 -7 17 22 -9 6 4 -4 -8 3 3 6 -8 7 4 -2 3 -10 -6 17 3 8 7 -10 15 3 19 -27 14 13 14 -7 14 -11 -2 14 14 14 31 4 6 11 -17 -12 30 0 26 15 17 4 -20 -15 3 19 10 7 -11 -4 3 11 -1 8 11 -7 3 6 -3 -6 3 5 7 -18 -10 18 8 21 10 1 -3 21 11 26 26 11 6 6 -15 -5 24 11 3 21 3 -3 6 28 10 14 18 7 4 6 -9 -2 -6 7 -9 21 13 38 20 4 19 4 12 33 23 3 5 -4 26 3 9 22 9 -8 -7 18 17 12 14 3 3 -12 -17 -20 -6 4 -3 -6 17 14 -7 -10 5 12 -2 -5 16 11 -19 6 15 14 -4 -3 8 -1 6 17 -10 -17 18 12 14 -20 -3 24 3 -14 11 -16 -7 21 0 14 3 3 6 14 -4 32 -14 -6 4 17 4 9 -9 17 29 12 29 25 6 -21 7 18 22 7 7 -7 14 24 0 4 -7 -30 13 13 -27 3 6 3 10 -14 25 1 7 11 17 15 11 -11 -19 17 6 22 10 -11 1 28 -7 7 21 2 -31 -6 3 3 3 13 10 24 3 5 -6 14 7 -3 6 13 13 -3 7 14 -4 -11 3 21 10 -4 -9 32 -6 -6 -2 -14 -21 -23 12 24 28 -1 16 4 10 -4 4 7 -4 10 3 6 10 5 -3 12 14 -3 8 4 7 -3 7 24 -7 1 -24 3 -3 9 -1 3 24 -5 -10 -3 -1 -5 2 22 8 -5 10 -10 -3 0 -7 1 -5 -15 5 0 4 32 -4 -9 14 13 5 4 -8 6 -8 21 4 10 10 3 3 14 4 9 20 3 7 10 35 31 -8 14 -9 10 14 5 3 14 6 8 10 6 6 21 5 5 -4 4 -2 6 23 4 24 -3 21 8 10 -17 -11 9 -4 23 -3 15 10 -6 1 1 11 11 31 31 41 -21 3 -16 9 -17 3 3 -3 27 -7 11 7 26 9 14 5 25 -7 -14 6 -5 11 7 14 25 5 10 14 -7 16 21 4 1 7 12 19 3 -15 10 -4 4 9 3 7 14 -7 5 -16 -1 -17 -3 -6 7 -13 0 9 -17 10 6 -1 5 21 -3 18 -8 5 21 2 7 20 10 -10 20 3 7 3 -3 -13 6 5 -3 -3 -14 6 -4 4 7 -3 4 7 1 19 -10 6 -2 -10 -3 3 23 8 10 20 -11 -6 1 -2 9 21 20 -2 0 18 -8 20 13 -20 -6 17 14 0 17 -10 18 2 -5 17 -2 6 -7 11 -3 1 12 27 17 -6 -7 3 -13 7 -3 9 14 3 9 -10 -13 11 15 3 -4 -13 -13 17 3 6 16 12 20 14 3 -18 17 6 11 6 14 3 -1 -6 -21 -14 1 -5 21 10 -2 8 -8 7 3 7 -2 -3 21 16 13 4 7 21 7 18 -9 -16 6 18 11 -1 -17 -4 13 10 -3 -3 3 -9 6 -11 15 -4 11 -17 10 15 -4 12 -12 7 28 11 10 21 7 -3 -5 -3 -3 -7 3 -7 17 3 -11 5 3 -11 7 9 24 14 -17 -13 -3 -15 7 -4 22 24 18 30 15 -22 10 5 3 17 2 3 19 27 10 15 28 -7 31 10 -3 -18 31 21 17 7 3 -20 -11 16 6 15 16 9 18 -10 17 -10 -3 -5 4 -7 -3 4 -27 22 -14 6 14 -25 31 6 2 12 21 11 3 -7 4 2 17 20 4 19 11 4 -8 6 -14 10 10 21 -3 13 -11 -2 -4 24 -9 3 11 1 10 14 18 -2 14 6 6 3 3 20 -7 -10 14 26 13 7 8 3 -5 16 -3 17 7 7 -5 4 5 -4 -18 -9 -17 7 3 -6 3 21 -12 1 7 17 -9 -3 3 34 21 14 6 21 4 4 -6 25 1 6 -16 12 -18 -10 18 -4 3 -10 -25 19 24 28 34 -11 -16 -1 11 22 11 11 11 8 -1 1 14 16 3 -5 26 11 21 6 8 3 15 18 15 1 -10 -8 11 -18 12 -17 7 4 -11 -1 7 7 25 7 -6 -14 3 5 38 7 -18 -2 14 7 3 17 -11 3 11 -11 11 7 35 10 -36 18 26 -7 -10 9 -6 7 -23 -11 24 7 4 -21 -4 39 -17 -3 3 21 20 14 4 -7 3 15 6 4 -14 17 1 -4 9 8 -11 6 11 -19 -3 3 15 9 32 -3 1 10 7 -3 21 -10 4 7 -24 -4 -3 1 -2 3 -2 1 -5 -16 15 5 12 -10 -6 -9 2 -1 7 -4 -1 -15 6 -3 9 -6 17 -10 15 -7 -8 -3 6 -9 -7 18 -4 13 3 -1 -7 10 2 -14 -6 -15 -10 5 11 6 -10 -4 -3 3 6 -10 2 -6 -16 24 0 6 23 6 16 -14 -20 19 14 29 -1 14 -1 6 -3 4 5 -4 30 -3 -7 3 5 7 8 28 10 12 7 -8 -24 -2 -7 35 17 -27 -17 -8 3 9 -10 4 -11 -17 -9 25 -5 -14 -8 -7 4 10 4 12 -3 24 12 14 -2 9 3 19 2 3 3 5 12 17 7 -13 -6 9 -3 3 3 23 9 -12 14 6 -3 -3 13 -8 10 6 -10 11 16 20 6 10 -5 3 11 -10 33 17 29 4 -6 10 4 7 3 15 4 -10 -6 13 10 20 -18 -3 2 12 -4 -8 4 -3 3 3 -1 9 18 14 -7 -2 18 19 1 15 28 27 -3 -14 3 -8 10 1 28 22 26 16 18 7 15 14 13 -5 14 11 19 3 -4 15 -15 7 5 1 -8 4 14 -7 3 -9 7 -3 -13 -13 -14 16 10 4 -4 -7 -5 13 26 -6 -3 -7 -7 -4 9 1 -13 3 6 -3 2 -21 -7 2 6 5 10 11 -6 35 -20 11 6 -3 4 23 -13 -3 18 7 7 -15 -3 7 24 26 21 10 12 1 27 4 -9 12 -3 -7 -31 13 10 17 27 5 7 -7 11 -13 14 3 7 -11 -16 -2 -2 5 6 7 17 10 4 -3 -1 13 -3 -7 8 -9 6 2 -14 13 3 7 -3 3 13 -3 10 18 14 19 7 0 10 -5 -12 -1 -17 24 3 -8 19 -1 3 22 2 -4 11 7 -3 6 -3 22 21 -3 -16 0 3 4 17 1 20 -3 23 16 -7 13 14 -1 3 14 10 -7 23 -3 22 7 -3 4 17 14 20 6 3 -7 6 9 1 7 -7 3 4 -8 3 -6 -1 19 9 3 14 -14 -20 3 3 17 4 -7 -18 -6 6 -13 3 -11 22 18 6 4 2 -1 21 11 -16 -3 4 -2 6 13 -21 -2 4 21 15 2 -10 18 10 -5 -28 4 -9 -7 2 16 3 9 -3 -14 -6 7 3 -4 8 18 24 -4 21 15 10 -4 10 34 -35 10 -3 2 -6 7 4 6 -3 14 -3 -2 4 -8 -7 13 -12 7 15 -1 14 9 6 -7 26 -29 24 10 -11 -6 -3 25 23 -7 21 -4 24 -7 3 21 5 -3 -2 -3 4 14 -3 9 8 9 25 -16 2 5 10 2 3 1 -18 -5 17 10 7 15 24 -5 20 -1 27 -3 -18 7 3 14 -3 15 10 -9 -1 24 5 -3 3 23 -2 25 30 -3 15 4 28 -13 3 5 -15 3 3 35 -5 4 10 10 -9 -4 -7 17 -4 3 8 -7 -7 17 14 35 -24 -12 19 -3 -3 -12 6 3 -6 23 -1 19 1 -14 31 9 -4 8 -3 2 -10 3 -11 7 10 12 -6 9 25 4 -7 -1 17 -2 27 26 10 17 -25 -12 28 1 16 20 8 27 6 18 -9 7 14 17 -5 18 -1 7 4 26 -12 -3 7 -4 3 -14 13 7 7 -9 -10 8 10 -10 -2 -13 -3 3 -18 4 20 3 23 4 13 -2 32 13 9 -4 6 18 18 4 -8 -11 16 24 10 -7 -10 -15 4 25 0 4 6 -18 17 18 -14 -4 21 1 21 8 6 -14 7 10 -3 32 12 9 -16 13 10 -5 10 -2 14 -14 11 3 14 11 5 -1 33 -1 22 14 25 -3 8 6 27 -9 18 -4 3 14 3 -7 14 10 8 11 -3 3 6 7 -4 -6 -3 11 -3 21 10 22 3 2 6 4 17 7 -8 7 7 3 19 20 -12 -6 9 -6 -10 21 7 7 24 -2 3 2 -5 18 7 22 -4 2 11 3 4 15 23 25 -2 -8 18 7 6 -9 34 9 -6 15 8 -7 -6 15 -5 27 24 13 15 3 6 -11 2 24 3 1 10 7 -7 -20 7 21 6 1 13 6 12 15 19 -6 1 -21 13 -3 1 -3 -2 8 -3 -10 4 -6 6 23 28 5 35 35 7 10 27 -6 -9 -3 40 -10 -7 3 17 26 20 -2 2 6 9 20 2 4 3 -18 -13 -10 -15 -5 -9 1 13 17 18 8 10 10 7 3 -17 3 10 6 3 2 -15 4 -14 0 -20 6 7 8 10 -2 -12 -12 10 3 -3 2 4 14 3 -8 20 20 7 -6 21 3 14 -2 -13 22 -6 1 5 -1 9 20 -4 6 6 8 25 4 -13 -20 24 10 3 -14 2 -3 -5 3 4 6 3 19 9 -7 9 -14 18 -3 -3 6 11 22 20 14 -6 45 24 6 6 12 6 -4 12 -11 3 20 -7 10 -11 -22 3 8 11 -44 -10 -7 5 -7 -17 -10 7 7 6 2 -19 15 34 -14 1 11 14 6 17 -11 -4 -4 4 20 -7 -21 -1 20 -17 20 -10 12 4 -9 38 4 17 -3 27 -6 -2 32 14 18 -4 4 5 -3 -14 8 13 -28 1 -6 10 -10 12 -7 18 -13 -9 10 -18 18 14 27 -6 7 21 -3 3 -3 13 14 -27 21 17 -6 0 -3 -7 -5 24 20 7 -27 24 -3 3 -1 3 -2 -3 13 14 4 -10 -4 8 12 4 -3 6 -27 7 -17 -17 6 17 0 14 -4 21 17 -13 -7 -4 31 21 -22 16 -1 3 2 31 8 10 14 8 -4 30 6 0 8 1 -3 -3 -5 -11 -6 -6 -10 41 7 -11 8 -3 -19 -3 3 21 7 7 12 32 -3 3 2 14 14 -12 21 10 1 -3 24 3 10 -14 15 7 6 31 -10 -5 -15 24 -7 17 27 -3 5 10 -4 7 5 40 14 -5 2 7 6 14 17 11 11 15 -3 3 -11 3 -7 11 -7 3 7 -3 -4 7 7 1 -6 7 -7 11 -18 14 25 3 6 3 11 11 -14 23 14 4 -10 -14 12 -2 -4 4 6 -22 -3 3 -11 10 6 6 10 -12 -5 -7 19 6 13 15 -3 3 5 17 14 8 -21 -16 -10 14 -3 6 -15 6 3 3 -11 -9 -3 8 15 21 3 21 11 8 3 -6 0 10 0 10 -7 3 21 15 8 14 5 3 -20 18 4 4 18 12 10 -5 6 -5 1 4 -1 7 -7 6 -2 -14 -12 3 36 27 3 20 22 -17 3 -3 1 7 3 -2 -14 11 -28 -12 -6 3 7 -4 10 7 -6 8 28 10 -14 0 6 5 4 13 9 -7 -2 -7 4 19 -2 -11 -10 -10 -1 -8 7 15 13 4 32 -18 31 15 6 -1 25 -3 -14 5 14 10 18 -3 -8 -3 10 7 12 -3 4 5 11 28 9 17 -5 17 8 -6 7 11 4 7 -12 13 14 4 21 -3 -11 20 20 10 -17 6 24 14 -20 -20 22 15 3 -6 3 21 -11 -7 9 17 8 1 6 17 3 7 4 6 -14 3 10 8 14 -3 -10 13 -4 21 -5 -7 8 -7 10 6 2 20 23 -3 -3 -3 12 11 3 33 -6 -3 3 -3 27 14 5 -20 18 31 -5 3 -3 8 -5 -12 21 22 14 11 -14 10 10 -2 4 -22 2 10 5 -3 7 2 -3 13 -6 10 -14 7 28 -37 9 12 11 -8 -1 6 12 12 8 7 5 12 -10 -4 14 10 7 31 -3 -6 23 7 21 -4 3 12 -12 -1 6 19 34 -4 -8 10 6 32 -12 8 4 24 -13 -1 -6 -8 6 -6 1 4 -4 -3 2 -9 -20 -14 31 -9 7 18 10 -5 -13 8 7 8 14 17 10 29 -4 5 -8 3 37 3 14 17 -21 -13 3 -3 -8 11 -3 -5 -3 -2 8 1 12 6 7 -5 3 32 11 -6 10 -18 3 26 17 -4 4 20 15 -8 4 3 -7 22 3 -14 -16 3 1 -3 5 27 1 18 -5 17 10 3 24 3 17 7 4 -3 3 -21 5 13 3 14 -4 -10 17 5 -6 11 -17 17 8 6 4 22 19 3 3 -11 17 5 -18 -1 29 15 19 31 11 8 -7 31 9 17 3 14 -3 6 -4 7 5 15 3 -5 -6 10 10 14 3 -3 4 -10 20 6 -13 27 -2 4 33 15 4 29 6 31 17 -16 3 13 2 3 17 8 -11 -6 3 -35 10 -14 8 -22 22 20 3 17 11 24 7 -9 16 9 32 3 -6 11 -11 8 -3 -1 -17 4 20 3 0 26 -7 1 -5 -3 2 2 11 6 9 -6 15 23 25 28 -1 15 -21 1 6 8 -4 -4 -20 -15 28 17 13 14 15 -5 5 14 -13 4 -13 7 -24 -3 -12 12 9 7 12 8 -6 10 11 7 -2 -1 17 14 -2 9 19 11 5 10 -6 3 34 12 -3 24 10 4 -7 9 -3 10 11 33 4 18 4 3 -5 9 -10 -17 -14 -5 -3 13 15 -3 -21 3 24 7 -3 4 -12 -18 14 2 10 6 14 6 10 13 -6 -2 13 6 10 -5 22 -9 2 11 -3 -10 19 15 27 28 -9 18 7 6 2 -21 3 -3 18 -3 -21 2 16 3 28 22 19 -1 4 12 11 17 -7 8 -10 27 12 15 -3 24 -6 7 -2 -7 1 -3 -10 7 5 11 -7 15 7 22 8 19 14 8 40 4 10 -3 -2 -3 11 17 17 10 -10 16 2 16 24 21 10 8 13 6 6 21 9 -10 11 -5 -4 11 14 -3 4 -6 14 7 17 13 18 13 -14 -11 12 3 3 8 3 -6 10 9 -7 12 16 -7 21 -13 16 -4 3 7 21 4 28 5 10 -7 3 15 10 -12 7 -14 18 -13 9 18 10 3 9 -27 18 2 -7 13 11 0 -11 8 3 10 7 4 4 14 -4 7 -13 6 6 34 24 4 13 25 22 -3 -13 42 7 21 6 18 1 7 -17 -3 6 18 3 -8 0 8 8 -13 32 8 -7 -2 11 -3 35 -16 7 8 -3 -3 -15 4 -5 17 -3 -3 -3 23 22 5 13 20 33 -15 4 -5 -14 21 7 -5 4 22 4 18 8 -17 4 3 19 -3 11 21 13 -10 2 6 1 10 -3 -7 3 -5 23 12 0 -3 13 17 -8 4 12 7 7 7 -12 -3 -3 -6 3 -8 34 5 3 3 31 -3 -3 3 20 4 -3 7 16 5 -25 10 17 -10 -14 14 26 4 7 20 2 6 30 21 -9 31 24 -15 5 11 8 21 1 18 6 -28 7 27 25 -17 -8 12 15 -21 12 3 28 15 15 -2 2 4 -10 19 34 -23 12 -3 -4 23 -5 3 -2 8 -3 26 -3 28 -4 6 -17 8 28 -3 -3 28 9 -7 -11 -7 7 7 18 -6 19 7 4 10 -3 10 -6 -2 -2 4 24 3 7 -9 -9 11 7 10 -8 17 6 10 -14 -27 7 21 -3 -7 -8 6 8 14 -12 33 -16 -6 14 7 10 -4 10 11 21 3 18 -10 -10 9 17 -12 9 4 4 -3 7 3 5 18 -7 -12 18 -17 14 -3 11 0 10 17 -3 -1 1 -2 17 -2 11 4 -6 22 28 -18 3 -30 15 17 15 3 -7 3 4 12 0 2 14 3 6 3 6 -1 16 19 1 -4 6 4 -15 6 -7 -3 -17 -7 2 -8 -10 -14 -9 -17 15 31 -8 14 9 8 -6 15 24 -11 8 7 21 7 18 3 7 28 10 -7 2 24 -4 -17 23 14 15 11 -9 12 14 -7 3 23 7 10 11 23 -6 20 35 -5 -14 3 -4 16 7 -10 6 3 11 11 14 -11 15 12 3 7 10 39 -5 -17 24 20 -3 8 -13 -5 -15 7 3 3 -9 16 14 10 -3 2 15 -8 -10 8 32 -14 7 -22 7 22 13 10 5 -18 -8 -7 23 -3 -2 10 12 23 3 -3 -7 -11 10 -3 3 14 8 -2 -7 -19 21 -3 8 2 -3 3 1 17 -6 20 -14 -12 4 -22 -9 -10 -17 3 4 7 3 21 -4 5 -15 11 -4 3 16 -6 -11 14 3 6 32 -6 -6 14 10 -8 11 18 -6 -13 21 4 9 6 16 14 12 -6 18 -9 18 4 -13 -3 5 7 13 31 5 21 -10 -11 21 7 2 -25 22 0 33 8 -2 -7 10 1 -3 2 7 -2 -10 -8 -1 -3 -3 -3 3 3 11 1 17 14 10 28 8 17 12 -21 -6 6 11 11 3 3 -8 -7 10 -4 -10 25 10 -5 3 18 7 14 3 -5 -6 3 10 11 3 13 16 23 10 -10 -20 -7 29 -2 11 13 17 -13 8 20 4 -2 -10 22 7 17 -2 -1 2 16 4 35 3 -4 9 11 -16 9 -7 18 -24 -3 14 8 9 7 -21 9 1 -11 -15 7 4 6 13 28 6 -8 15 -3 20 5 5 -11 10 18 7 20 -2 -10 -8 -1 -8 9 1 -14 28 10 21 19 8 3 -14 19 6 -6 14 -3 20 2 -17 2 -1 3 7 -6 -7 6 18 -3 22 7 -7 28 4 -1 20 -3 8 -5 11 -7 7 5 19 7 24 8 32 8 2 -7 11 23 23 -18 25 9 -11 16 -4 5 -3 20 3 -6 15 13 -3 15 3 -9 16 8 16 -4 7 3 15 3 -24 -1 29 4 3 3 0 17 22 6 17 14 13 -9 2 14 6 -3 4 7 11 10 -6 27 6 11 22 20 8 4 -12 11 -18 -18 14 3 8 -4 -17 -10 5 12 2 2 2 -3 -14 21 12 6 -5 -7 -7 3 -6 -31 -3 8 18 -8 -4 -7 -11 34 -4 -24 11 -14 29 4 -4 -7 1 -3 -7 -15 -3 12 3 17 -7 22 18 -3 -5 -3 -10 2 22 11 24 18 5 -18 1 14 -7 3 7 27 3 17 1 -7 13 -4 2 11 -6 3 10 4 3 12 -7 -3 13 -18 -8 17 -3 6 14 3 20 3 -16 22 20 6 13 23 17 4 16 17 -3 22 8 9 3 10 -3 32 -7 4 6 -9 17 8 -5 -11 4 21 5 3 -17 23 17 22 15 -3 7 5 -7 -8 -5 -1 27 6 10 19 -4 -4 2 -4 17 -8 11 1 5 34 34 5 -6 7 30 18 -3 24 10 17 14 9 7 10 4 -14 -9 5 10 26 0 11 28 2 -12 4 -8 4 2 18 9 21 1 24 4 3 1 -3 15 4 -7 -9 3 14 17 24 13 7 14 3 13 -3 31 14 14 -1 4 22 13 18 11 27 -18 11 13 -5 2 -18 9 39 4 18 -13 6 -5 11 11 -17 17 -30 16 -17 6 7 15 -2 6 -4 4 21 -3 5 -7 6 9 25 -13 10 21 -2 28 -8 -7 6 13 -16 3 11 26 14 9 17 -18 -6 6 6 32 -16 -18 -3 -3 22 17 1 -3 3 4 -5 6 7 -1 7 6 15 -3 24 14 -7 2 14 7 8 1 1 -17 -2 -3 4 -12 3 1 -3 -2 14 14 8 -18 11 11 17 21 -5 -3 10 11 10 7 -16 -10 3 15 -12 3 23 7 29 7 1 9 26 11 7 -3 7 1 4 2 10 -7 19 3 12 -7 4 14 17 26 3 7 18 -3 -7 14 15 -6 -6 -3 -15 -5 3 20 8 4 19 -10 9 15 6 13 15 -7 2 18 10 -6 -6 10 24 3 23 1 -3 13 13 16 5 3 1 18 17 19 3 -7 6 11 -3 4 15 -1 5 12 3 -6 -19 -14 11 5 3 -5 -4 -6 14 17 -10 -10 5 19 3 31 10 9 -3 -5 19 13 -8 -20 14 -9 -14 7 -18 20 11 5 10 -13 10 -5 11 8 4 23 -3 11 3 20 -6 18 6 3 21 -4 5 7 14 3 -7 7 -3 -10 21 19 33 27 11 1 -9 -14 7 4 7 8 -4 -4 2 24 3 -3 10 7 5 18 -3 5 4 21 -13 4 14 18 3 17 -7 13 -7 -3 5 15 -24 12 15 20 1 -4 21 15 10 5 -10 25 -1 20 18 7 27 9 11 -4 5 1 17 -13 3 -2 -2 6 -31 20 5 16 14 7 3 5 24 11 15 -9 4 8 25 -6 13 -4 -10 14 -5 11 10 3 -8 6 18 4 6 -12 13 -16 22 -16 28 17 2 38 -13 -15 18 -3 9 13 18 25 3 17 -18 7 21 7 24 27 17 4 12 -20 3 4 12 -1 3 -1 11 6 17 13 -5 -3 7 33 -6 9 17 28 3 -4 3 30 3 -4 14 4 21 3 14 20 11 7 7 10 25 13 8 -13 13 -3 14 3 11 3 -6 -4 17 28 -7 5 2 17 -6 -3 28 7 -7 14 -3 10 11 4 2 3 -14 21 9 14 9 -5 2 -1 11 11 -14 -3 16 -7 -10 -1 5 32 -6 4 -13 15 1 3 -11 -10 -5 4 10 3 22 42 -23 17 12 3 11 3 16 2 3 18 -9 14 -2 15 8 17 -2 26 -9 -1 22 9 3 2 -19 -3 -8 6 24 9 14 4 3 3 9 14 13 8 -9 7 6 -3 -8 20 25 -14 -6 10 -20 7 10 -5 3 -3 -3 7 13 28 14 17 13 0 6 10 -4 17 10 17 8 14 -6 -23 -3 8 -4 9 17 -3 -16 8 -14 -7 25 13 -7 7 30 7 14 13 6 4 9 19 7 4 7 14 29 3 15 23 -25 -11 13 8 14 24 4 -13 7 -3 1 10 -2 -9 7 17 7 -15 -11 17 -10 1 4 18 6 3 -4 7 10 2 -1 -10 23 25 24 -10 -6 10 22 11 2 10 12 13 -22 25 7 -6 6 5 -2 -9 14 6 13 6 5 7 -2 4 -8 -5 33 8 14 -4 -7 25 -20 -3 3 -7 3 7 4 16 10 13 -1 -19 24 2 17 3 -5 6 -4 4 3 -4 23 -7 -8 10 19 -3 4 -6 35 10 8 -4 -3 3 -6 -3 14 11 29 -9 6 5 3 -6 2 -5 21 -2 10 2 12 9 5 -3 17 -8 7 6 -3 1 15 9 13 10 -7 6 6 6 3 11 -9 4 17 4 -18 21 -9 13 -10 15 -3 10 35 6 -1 -3 10 25 9 8 4 15 3 13 -23 14 3 -11 3 9 8 6 20 -16 -3 3 31 20 -14 21 1 -20 14 -1 6 19 11 4 5 9 6 15 16 3 7 1 7 14 7 -3 -2 -3 21 27 5 9 -9 -20 6 -19 9 14 11 -10 20 10 1 28 -2 -3 -6 1 -21 15 -24 -6 13 3 -31 -23 3 6 10 13 7 19 -3 -7 21 -3 7 14 6 -1 18 20 -14 -6 1 4 -18 -6 17 24 -7 7 11 -28 14 28 1 -6 25 -2 -6 15 19 19 -20 18 -3 -6 -7 -8 -15 -5 -3 -9 13 8 38 14 26 17 -8 36 2 -6 12 -6 -3 18 -1 9 -10 -6 13 -8 -10 0 -7 13 13 21 -4 10 -5 14 5 7 22 6 14 6 -3 -21 5 15 14 -10 -3 -7 7 18 -19 9 7 3 14 10 3 -3 3 27 -3 4 6 -18 3 -15 -3 13 14 3 -14 -3 -8 29 4 -1 3 -3 -3 17 9 -10 -4 -16 4 10 10 4 -7 -6 34 -14 0 -10 14 1 4 -13 -3 -33 -15 2 9 4 26 -7 -31 -17 14 -11 6 -11 17 13 36 -3 4 10 19 6 0 19 22 1 15 -4 17 19 3 3 1 7 6 6 45 6 -3 13 16 4 5 14 23 6 5 23 4 -3 3 -3 -19 3 17 3 7 8 17 3 4 3 -8 10 29 36 17 -24 3 18 8 6 -13 -13 27 32 17 -3 20 17 -2 -1 14 21 9 32 8 17 20 -6 7 -9 7 2 -6 20 -6 29 18 -6 0 37 -1 7 17 10 28 3 -3 4 -15 21 25 -9 13 7 31 3 5 -28 20 25 -9 12 21 21 -17 -3 -3 -5 -2 9 -13 3 3 3 3 31 -2 10 3 9 -7 7 23 -7 -28 8 7 -3 7 -3 -5 13 2 13 -3 2 3 13 9 -9 -18 12 21 29 -10 -21 2 2 5 3 -8 -10 27 23 -7 -3 14 -24 -19 -6 11 3 25 7 -14 -21 -15 7 16 6 -6 3 29 14 -15 2 -3 -6 -6 3 14 10 14 -7 -4 -7 6 -3 8 1 -7 -24 -11 22 4 6 24 4 12 3 24 9 3 34 17 -13 8 29 6 3 4 20 37 -8 1 3 -12 9 -4 4 7 20 -7 2 -5 3 13 3 21 -1 9 17 -5 -6 -3 3 4 15 -4 1 1 -17 -10 3 21 27 -10 1 -12 27 4 3 14 32 27 -6 -1 31 3 3 2 10 -6 -7 30 8 10 28 1 7 -14 16 28 11 -12 21 6 -9 14 -7 -3 4 15 11 14 8 19 -9 4 -7 7 15 6 -4 18 14 10 5 12 -17 17 1 -3 16 3 2 21 -15 -4 23 3 6 16 0 -13 9 -3 10 10 -23 5 24 14 2 -8 -21 -3 -10 17 3 10 14 28 34 -3 -4 29 -3 -21 24 -31 3 -20 -6 -17 -1 3 7 24 44 -5 4 -2 4 7 -7 22 6 28 3 -7 -2 14 -3 -17 12 8 10 10 15 1 1 6 7 11 -6 7 9 4 5 -6 27 12 6 -3 -2 3 21 -14 7 16 -7 -8 5 -10 -15 3 17 16 -12 23 14 17 11 1 9 13 10 7 -10 -13 -2 8 10 28 4 -11 6 6 18 21 -9 -2 -11 15 10 -3 21 -14 11 3 6 9 5 11 -3 10 -3 7 -3 -4 -11 10 3 0 14 -7 6 10 34 10 13 -8 -8 -3 -2 24 -4 -4 13 -3 14 -11 -21 15 7 -19 24 4 -10 -6 20 20 -7 -3 -9 -16 1 3 14 -5 -4 3 28 16 6 25 3 3 3 3 6 -10 13 -2 8 10 -7 8 2 8 14 -8 -7 -3 3 7 31 27 -10 3 10 3 10 7 24 -21 19 -12 7 35 6 -11 34 10 -1 6 6 6 10 1 -3 -3 17 4 23 -6 24 10 -6 -4 -13 -3 -2 18 -7 -16 -14 6 3 11 -3 0 -9 -16 14 13 -6 11 5 -3 -2 -10 3 -14 5 21 4 -10 15 8 -15 -6 -34 11 7 7 -6 14 5 22 6 9 19 31 -14 5 -13 22 17 29 6 -20 21 13 23 14 3 12 12 -11 27 11 19 6 4 7 10 1 -1 12 3 -6 10 -23 15 30 11 -24 -3 26 6 7 -3 8 7 -3 10 3 12 -6 1 3 5 21 3 3 21 17 5 -3 5 -13 -15 -14 21 18 -2 20 10 27 -5 10 3 -3 -5 25 6 24 16 11 19 20 -16 17 -10 -13 -4 13 -2 31 11 25 -13 -14 3 10 17 29 17 9 -3 17 25 -16 -17 -17 3 -3 28 21 18 7 10 12 -1 -23 3 2 -3 4 7 3 3 15 16 25 17 -9 -18 7 -1 7 -2 17 -3 -10 8 -1 -3 5 -13 37 32 14 15 22 7 6 14 10 10 16 24 -10 -6 -4 -7 13 10 -7 21 11 19 27 18 29 -30 11 6 -7 10 3 -3 3 14 17 2 9 23 3 -2 -6 11 8 -3 -17 14 13 -10 11 17 8 -4 -3 -4 -3 3 -15 14 18 -6 -13 -3 6 10 -11 24 8 4 -7 -5 -28 -4 -6 30 11 21 -3 8 11 -1 -13 4 26 -21 11 -6 6 -6 -5 23 6 -18 18 16 3 28 15 8 27 15 7 11 12 -11 3 -5 22 26 8 15 -2 -3 3 7 -7 -9 -2 20 3 4 17 7 -3 29 -3 8 7 25 -13 9 -9 3 -11 3 11 5 -4 11 9 27 15 15 27 14 -12 6 8 13 -11 -25 14 -3 11 5 6 0 -17 -7 4 12 23 31 -6 -1 -2 20 2 3 -16 7 3 6 17 16 -3 3 17 4 -4 16 0 4 4 18 5 6 11 20 -7 3 10 5 8 16 25 30 23 -28 -3 3 -7 21 -28 -6 13 15 -3 32 19 9 -4 25 14 10 5 14 17 10 6 10 21 38 6 -2 -7 -1 -3 3 6 -4 1 24 -4 4 10 11 -3 -3 17 10 -3 6 10 9 10 -10 -7 -9 7 17 24 3 -3 17 7 -6 -13 11 5 -2 8 -35 6 -17 -12 11 10 8 -6 10 2 -10 4 7 12 3 -11 -3 6 6 8 14 23 12 15 -1 -10 25 -1 -10 -11 3 17 5 -1 6 3 16 2 15 10 -13 22 18 -6 4 4 12 10 13 19 4 10 1 11 21 3 -3 7 7 -10 -6 4 21 21 -11 4 4 -3 -3 -4 4 -8 8 20 19 -4 -7 13 3 6 -1 4 12 -11 7 1 11 28 12 10 26 -8 6 -13 -7 21 -11 10 4 -12 -3 -7 7 3 12 -3 -23 -9 -3 3 14 -13 4 7 0 -5 12 8 -17 3 20 -3 20 -7 5 3 18 6 6 9 -3 29 6 -7 7 -13 -2 12 13 3 11 12 9 0 -17 22 6 -3 10 17 3 24 3 -10 -3 27 14 16 -17 1 3 3 20 19 0 5 1 10 7 2 14 4 6 9 24 24 -3 23 -3 6 21 20 8 14 7 20 29 3 8 -7 -1 -10 3 4 6 31 21 8 3 6 10 0 -4 8 -8 7 13 -7 -13 4 -17 17 14 -16 -7 3 4 11 -6 8 19 12 -6 -15 -3 -20 -3 11 6 -3 -3 10 -4 -4 31 20 -11 15 7 30 4 19 -13 -10 33 39 24 21 -2 6 6 -2 18 27 0 3 -4 3 7 -12 28 -2 4 7 -14 -17 3 8 23 13 13 35 -6 13 3 3 -4 8 13 -7 21 14 -6 25 -6 3 25 26 -3 -20 -3 18 -3 16 7 28 21 15 13 7 0 -12 10 -3 -14 -2 6 -1 23 -2 15 -2 -15 3 24 2 11 16 -6 11 -16 -3 21 -1 -3 23 -7 -4 17 0 17 17 10 2 -7 10 1 11 12 12 13 3 -16 8 2 11 13 4 -23 14 10 14 6 8 -21 -4 -8 -3 7 24 17 14 14 -11 -3 8 -10 13 -3 -2 4 18 14 -6 44 17 17 24 -2 14 3 12 -6 19 4 -41 -12 16 -17 4 14 14 -14 18 -14 1 13 6 20 -25 9 3 3 -11 3 1 -17 4 -3 -9 3 -3 -21 14 5 -5 6 -1 -6 -17 2 10 -3 6 -11 3 10 1 12 -16 10 -14 -6 18 -7 -15 -11 3 11 8 13 -6 -6 -18 10 -8 3 -3 2 4 17 6 -14 24 20 5 8 29 15 -7 -3 7 6 12 -23 24 10 -3 18 37 1 7 4 -10 14 -6 -3 20 7 8 5 -3 3 9 -9 -3 18 -4 9 4 13 -18 -10 3 10 -12 12 -23 -7 8 4 18 5 3 -11 -13 14 13 -2 14 6 -6 -2 10 35 -3 27 -4 -10 3 8 -19 -3 4 4 -6 -3 -13 7 24 -3 5 11 14 -17 12 18 4 8 16 11 11 -14 -2 14 23 7 -3 13 4 6 4 8 4 -3 -3 7 1 14 -13 6 10 -1 -11 15 -15 42 16 7 20 -4 15 14 15 2 2 11 -3 13 20 -3 2 3 3 1 24 5 -3 1 3 10 14 16 35 21 28 1 10 -6 19 18 2 3 -17 3 8 9 -7 7 -12 -6 -2 -2 21 -17 -6 11 1 -7 -7 4 -4 10 -9 5 -1 4 6 17 -7 -4 2 6 3 3 6 12 14 18 -2 3 28 -9 20 -6 -8 3 9 -6 4 -8 3 -4 17 24 -7 7 -3 8 7 9 -19 10 22 24 -18 2 11 16 -2 -5 22 -7 6 -9 3 4 -7 21 17 -7 7 8 4 3 3 0 5 14 20 3 19 -13 -11 17 -11 3 13 6 6 5 8 14 18 21 11 4 15 1 10 9 25 -5 3 -3 14 14 -18 4 14 13 -4 5 13 -3 6 9 31 3 3 -2 14 -2 4 20 8 14 12 -18 24 4 4 -3 30 4 12 31 6 -17 18 -1 -12 12 17 -5 3 16 28 5 10 13 -3 14 5 7 -1 3 8 -5 -12 21 21 -7 -9 24 -3 -5 -2 25 -3 3 7 -6 -7 -10 32 38 15 2 13 14 -7 4 24 4 8 26 -7 26 9 -1 33 14 20 10 21 -4 -1 22 -8 9 13 -17 15 14 -11 14 7 22 7 6 13 3 7 18 34 -8 15 34 16 13 -14 21 -7 -3 17 -1 10 7 0 3 5 13 7 21 17 6 -4 17 -6 -8 7 34 -12 21 1 -10 10 6 -2 23 7 3 9 4 6 4 7 12 -11 14 -5 14 -3 1 17 -3 17 28 17 2 -4 -7 3 18 10 -19 14 6 -7 2 -4 -3 -6 17 -4 -18 -7 9 14 -3 6 6 -3 6 4 -26 -11 10 11 11 3 7 21 7 -6 19 13 25 21 -2 6 11 -4 19 -3 10 8 4 -4 10 8 -4 -3 -6 -3 7 26 -4 -3 10 20 6 20 9 2 -6 18 9 -7 1 14 5 8 -4 -3 4 -6 17 -4 -3 5 6 -3 -2 -6 6 2 -20 3 -8 -4 5 -2 -18 5 26 -11 11 14 -16 -6 10 14 14 1 8 4 -5 -3 7 9 17 3 -9 -3 -4 6 -3 13 3 15 11 -3 4 -7 -14 -7 3 -3 -8 -18 13 -21 32 -4 10 14 -12 7 -11 28 1 -3 24 12 24 14 13 -14 6 1 7 23 23 -4 -6 12 -17 18 -5 -6 29 20 17 14 -5 4 7 3 -9 -18 2 8 -3 2 6 14 -3 6 -2 12 -25 7 22 8 5 9 11 17 6 13 -13 3 11 1 3 -20 9 -2 4 18 1 -9 18 30 -20 -3 -3 -8 13 17 -6 -3 -5 -7 7 -3 7 22 -8 1 7 -10 7 -19 17 8 -5 -3 3 -3 7 16 8 14 -4 15 -8 12 3 14 2 -6 15 -14 7 7 -3 -3 -7 3 -1 -30 31 -11 -3 -1 -3 -13 22 8 8 7 -3 6 -6 -18 3 17 -2 -6 4 -3 10 3 3 6 11 21 -6 -8 -1 3 -6 13 6 23 14 4 13 3 3 -3 10 -3 11 14 -7 26 -15 8 -14 4 23 -6 14 -8 -2 18 14 13 -9 8 -7 12 14 3 24 28 10 -3 18 -6 -12 -3 3 -7 31 -8 15 3 10 -4 15 8 -3 -3 14 -1 -6 -7 3 -6 -13 -21 6 -3 14 14 21 6 17 -11 -14 7 3 12 -3 14 -10 6 15 -11 14 6 7 10 -3 6 11 14 0 3 5 -10 10 -7 11 9 10 8 6 -5 10 1 0 13 1 2 13 -4 -3 -3 -13 18 38 13 21 -12 -3 3 -6 -6 -1 15 18 8 3 -7 -6 27 -3 18 -6 -5 -3 13 29 -14 -9 11 10 5 32 18 -14 -12 7 6 11 -12 9 11 -21 5 22 -24 35 -4 -6 11 10 -1 2 14 2 -6 -3 28 -7 27 -10 15 5 2 13 7 16 -22 6 24 15 4 11 -9 11 24 -10 4 6 6 21 -3 16 -7 -7 -10 11 13 22 -3 10 14 -8 7 -7 6 3 10 23 32 4 -2 3 5 1 21 -11 -7 -10 3 23 4 -2 7 -12 -5 -17 9 -18 -3 6 17 13 3 13 7 -16 10 7 11 -17 10 -6 -7 -6 20 -7 11 13 -3 14 14 11 26 2 6 2 17 5 -4 10 7 22 3 -3 1 -11 -3 6 21 3 -3 -11 10 24 17 -13 4 -17 7 14 10 17 15 -9 -30 11 -7 3 10 21 14 -13 9 -3 -7 7 13 27 16 6 29 19 16 -5 9 -3 9 11 -6 15 -1 -4 6 7 9 20 -4 6 20 -14 24 15 -3 7 6 11 -3 10 -25 3 -4 9 5 -2 -10 3 -31 7 14 -5 3 3 17 8 -11 -9 -5 9 -14 -3 15 19 19 -6 5 11 -3 20 12 5 -3 8 8 -13 3 4 22 26 29 -13 4 27 -3 28 6 9 -3 4 11 9 13 -8 -14 14 4 20 4 8 18 9 39 14 -13 34 7 -11 3 2 2 17 35 7 3 -2 9 -3 14 -19 21 -4 -8 6 21 3 -3 13 15 7 3 19 -18 6 19 17 14 14 7 14 10 17 17 -19 -4 6 12 -14 4 31 -9 -3 -5 4 -10 -6 -17 4 -2 17 1 24 -3 -7 -3 16 22 11 -3 17 -4 -1 8 -11 34 25 8 -8 7 18 27 -1 31 8 3 14 6 8 9 -3 8 -15 0 9 3 3 1 -10 1 5 19 -3 25 15 4 4 2 1 10 3 4 17 -10 13 20 14 -1 4 6 3 17 16 -21 -3 12 3 6 21 3 4 0 7 12 9 25 8 31 23 -1 7 20 -3 32 20 -5 3 11 -3 -13 -3 4 18 4 6 13 6 13 1 -6 7 10 13 7 24 6 3 -14 39 6 -2 4 18 26 0 -8 -7 7 -1 12 3 -6 10 -3 3 11 -3 24 10 -5 14 4 12 22 3 28 -7 8 24 6 17 -7 6 -18 -1 18 10 24 -9 3 -17 4 -11 -28 14 11 9 15 3 10 -11 19 -28 20 8 7 17 -5 18 2 22 3 30 6 40 -7 40 -6 5 4 -1 24 -5 -3 10 31 14 -3 9 28 -3 -16 2 11 -3 17 27 18 -25 19 -5 13 28 7 7 10 3 14 10 11 -6 4 13 23 11 7 17 17 -28 10 30 3 10 -1 17 -9 -7 3 -4 2 4 -10 -7 -1 -15 1 16 4 -16 -3 21 21 -4 4 18 -3 4 12 3 16 30 3 10 3 3 -6 7 -22 3 -3 11 3 -3 4 7 11 1 1 18 4 -3 14 -10 10 17 -14 -1 12 13 27 4 -6 3 -10 -14 7 15 5 21 1 -5 13 3 17 3 24 3 -10 3 -4 -1 21 -12 4 -21 1 -3 3 -4 7 -3 3 21 -5 22 15 6 0 16 -6 1 -3 11 3 11 18 -8 -7 11 -3 14 22 -3 -13 -2 -10 11 -20 25 5 57 14 4 12 15 10 18 -5 9 1 -10 -20 7 18 -7 14 7 16 -3 -3 -14 -20 0 -20 8 -16 -11 31 5 5 -9 13 -2 4 42 10 10 6 -7 24 14 7 21 20 4 -3 15 20 6 -2 6 20 11 6 -4 24 -11 -14 17 -8 16 18 1 7 14 -11 -7 -10 -5 18 0 7 19 10 -4 17 10 31 7 18 7 7 10 17 -14 0 -3 -11 -4 7 7 5 -20 22 -7 10 22 14 24 -14 -3 8 17 7 -7 8 3 -3 -3 -3 -31 3 7 25 10 5 -5 18 12 -3 -13 21 7 -6 -3 -17 -5 7 -6 24 -3 -7 17 -4 3 3 -2 4 27 4 -6 -2 -6 -6 -14 3 0 3 7 -11 14 -17 9 17 -20 30 -6 12 20 8 31 10 -3 7 26 -6 3 -3 7 -3 -7 31 -3 15 14 -12 1 31 19 23 -12 37 -18 4 11 8 23 14 -3 14 5 -20 14 -3 14 -3 -16 -13 4 9 7 -4 21 4 -3 1 -6 10 -9 4 12 3 -13 4 7 -3 13 18 -4 12 -9 -14 8 2 4 10 -12 14 10 7 10 -24 10 6 2 -15 10 4 -10 -4 2 9 4 3 8 17 3 -5 -7 5 10 10 -16 7 30 5 4 20 11 21 -3 18 19 -14 -2 3 10 -3 23 -5 31 20 -4 17 -18 -4 4 5 -12 7 22 7 15 -11 7 3 3 17 6 10 11 6 -17 18 10 3 -10 3 14 4 -2 21 -2 17 14 6 -3 6 6 3 -30 -6 -17 7 -4 11 -6 7 6 7 -2 18 8 14 -7 -7 20 7 4 14 11 -9 47 13 -7 32 25 2 14 -3 14 -3 -15 -24 10 11 6 2 16 12 -6 -8 28 20 10 -18 11 -19 9 7 3 -15 -4 -3 -6 11 1 24 3 8 15 6 3 -6 5 -11 17 22 5 13 7 -15 3 -4 -6 11 2 -7 -3 -22 39 6 36 11 22 7 25 8 -13 18 -19 12 26 -8 7 1 18 -4 20 -11 -1 -17 -7 17 11 19 -3 -13 -3 -25 -3 8 3 25 12 20 14 -4 29 31 3 -17 23 17 4 -24 3 20 8 14 -5 13 10 5 10 -14 7 -2 19 20 -12 -3 -12 18 -16 -17 -10 8 -28 -15 10 4 -7 11 -18 -13 3 -5 -3 -11 -10 14 6 4 -7 -11 16 29 21 15 -13 7 17 -5 -14 10 5 11 13 -11 26 -7 -17 7 11 -21 -7 7 12 3 10 20 13 7 3 23 9 30 3 -4 4 24 -6 -8 -3 10 -6 18 4 11 -3 13 -1 9 -8 26 15 15 8 13 2 13 14 7 -3 -2 -3 15 7 -14 4 24 14 13 4 -5 8 25 -4 11 -6 -8 -3 -3 -5 14 3 -11 14 -14 8 3 3 7 24 3 -20 -16 20 -17 15 -10 1 10 -25 16 14 2 3 -3 14 27 19 14 -7 5 4 -6 7 31 -13 -2 21 -12 -6 -20 10 -11 13 5 10 17 38 7 18 -4 -20 14 4 7 3 -5 17 13 3 -2 13 17 10 3 -21 3 16 4 28 13 8 25 4 3 24 -19 3 4 14 -9 -6 7 3 -4 -1 -4 23 -3 22 2 10 8 -3 -8 17 -5 -4 17 5 16 8 4 -3 -7 -10 -21 -3 -20 -10 8 -5 3 29 12 9 -10 -9 -17 -5 -3 -3 14 -13 22 47 4 21 7 6 14 15 14 11 37 7 32 -10 -7 24 24 21 29 7 7 11 12 22 11 -1 6 5 -8 14 -14 -8 4 -2 13 -2 18 6 19 17 -6 3 8 27 23 1 24 0 3 13 -4 -3 -3 4 -3 14 -3 -27 -3 22 2 2 16 7 6 3 -4 -3 -2 -9 -5 16 -10 18 15 13 -17 9 6 13 13 1 1 -1 7 -7 28 14 6 28 8 -13 10 2 17 6 5 2 32 6 -32 -3 9 6 -2 -1 -10 10 7 15 -4 3 -31 -3 14 12 3 10 22 -6 14 6 -7 14 18 -9 -6 11 16 -10 26 29 12 14 16 3 15 -4 8 -1 12 10 22 6 6 -7 14 3 7 1 -10 23 3 10 -17 3 -6 6 17 -1 10 -36 14 1 21 -20 12 7 8 -17 7 17 3 0 10 8 33 -14 26 15 20 5 34 3 11 -24 18 -18 17 25 3 25 19 28 3 26 -14 14 8 3 11 18 -3 -6 1 -13 0 16 3 9 6 39 -2 27 -10 6 3 17 4 4 10 2 6 14 3 -4 27 4 8 5 -6 8 -17 13 17 4 7 4 -2 -3 27 3 -23 18 11 -28 10 2 5 21 24 -12 -3 9 6 4 4 11 20 9 4 24 7 -2 7 4 -17 5 -7 4 -21 2 3 24 17 27 2 3 5 13 21 11 6 2 -17 12 -13 -13 -3 3 -3 15 6 32 9 17 10 -5 6 22 0 3 14 17 32 4 15 -7 11 18 9 1 -10 10 21 9 -13 23 7 10 -3 1 2 3 17 -7 -9 20 -7 2 3 6 -14 -2 2 -2 6 -6 3 1 -6 11 -14 11 36 4 22 30 25 7 -2 1 -8 -7 7 6 4 10 -7 3 5 -9 15 -7 0 11 10 -8 2 10 12 6 -22 -5 -7 0 3 7 16 -1 -7 16 -14 5 26 7 6 10 18 -2 5 7 12 17 18 -5 -6 6 9 6 -4 17 22 -2 -8 7 1 21 -4 -3 35 15 2 -21 15 -3 1 -3 14 2 1 1 3 -5 17 16 27 7 -10 -15 11 -7 -4 7 2 -7 21 4 -4 14 13 27 -14 -20 13 -18 4 -14 -6 11 18 4 17 5 4 3 -3 2 2 3 5 7 24 7 -3 3 -1 7 7 -3 22 3 4 3 14 -4 3 6 -16 17 21 -12 17 6 6 -20 11 16 3 7 4 17 4 17 -4 19 -15 -6 23 -9 6 -24 10 10 24 6 11 -5 17 -3 20 6 -4 -12 10 13 9 21 -17 4 36 12 3 31 8 7 23 14 3 -3 -13 20 3 7 -18 -17 6 14 15 -1 17 -7 20 3 8 18 17 7 7 4 4 2 6 -14 6 2 3 -20 -7 14 21 4 14 1 2 3 17 6 24 7 -11 -7 -3 11 3 -7 -3 10 12 -5 8 27 -1 -7 6 32 -4 3 4 -14 17 29 9 -8 3 -12 -1 -2 27 14 15 -3 18 21 38 14 -20 18 -3 7 7 -3 20 21 13 4 -6 10 -3 3 16 10 13 -10 4 -5 7 15 -2 -4 -3 23 -3 12 13 -6 -6 21 6 5 7 37 15 -6 15 4 37 4 -6 -10 -1 8 10 11 17 2 -11 13 -2 14 -3 14 -25 15 -2 -25 10 -7 3 -6 6 17 7 6 42 28 5 -6 2 -5 -26 7 -10 -11 6 12 -3 -3 5 22 20 8 27 -11 -11 -2 29 -11 31 6 9 4 -1 30 18 21 13 -20 13 8 15 -3 -7 3 18 21 -10 -10 18 14 5 18 3 -2 9 17 -6 10 -8 -7 -6 20 -4 13 -3 -4 17 6 41 26 10 8 1 7 -5 -6 28 5 4 5 -20 13 17 3 4 6 5 3 -15 3 6 -13 29 16 41 18 -18 20 1 5 5 3 14 15 -28 -20 -21 3 6 7 -15 31 -3 8 6 4 13 26 8 30 12 2 -6 16 29 13 -5 -10 -5 -16 -2 14 7 12 5 -4 -7 10 24 14 22 14 -7 7 23 1 0 -1 3 29 10 1 3 9 23 17 1 -7 5 -5 -3 14 3 -4 -3 -11 17 -17 4 21 6 -8 8 6 10 3 -3 13 3 3 6 -21 -9 15 3 17 10 13 17 31 7 1 -27 5 11 28 3 3 -13 6 -3 -17 17 -11 3 7 -9 21 34 7 1 5 6 -17 1 -6 -6 -8 -13 15 18 28 7 -10 24 4 -30 -3 -9 9 -20 6 10 3 18 -6 -10 2 8 14 11 7 -1 15 -3 -16 6 -1 3 8 14 6 6 4 -3 -3 -1 -4 3 33 33 14 -5 31 22 -7 14 -3 -12 -12 -7 3 10 10 -10 -3 2 7 -14 20 -5 14 22 11 5 -3 25 4 7 -1 1 10 -3 21 6 -11 8 -20 13 9 7 23 8 -7 -15 11 13 -19 18 19 7 7 4 14 28 -3 -14 -6 -10 -14 9 2 23 13 11 7 28 -1 10 18 6 10 18 16 14 3 6 7 -11 21 4 6 26 -6 -2 -3 10 1 9 -4 -22 -6 -1 -2 10 14 2 -17 20 -2 6 8 -12 7 14 -13 6 7 -14 7 4 7 11 4 -14 1 15 -3 3 -4 1 24 -10 14 -5 3 15 -11 -4 -1 -7 7 -6 0 -3 7 -3 27 10 -15 8 -2 -6 14 14 18 -5 16 3 -3 4 15 20 -22 11 20 8 7 -21 -7 -10 -6 16 3 1 -5 -3 -19 7 3 34 -6 18 -5 10 4 4 13 -6 -13 -3 5 13 18 -3 -3 11 3 -4 23 4 -16 7 8 9 11 15 19 -2 -19 11 20 24 11 -10 11 16 -1 -4 5 7 12 3 -19 -24 25 3 13 -9 11 10 -13 -10 17 -14 -3 13 3 28 -18 -5 11 14 11 7 6 -4 -3 11 14 4 -10 20 6 -12 -1 -2 17 28 13 5 -8 3 -6 0 -17 7 -6 13 -19 -20 -3 -1 5 -1 5 45 10 15 -17 11 3 3 -7 25 10 11 25 7 3 -21 21 13 7 -3 -10 2 -8 18 -10 5 9 6 19 4 -8 6 3 -11 37 -7 -6 -16 3 7 5 27 12 -22 -9 14 11 27 17 10 -14 9 7 -5</t>
-  </si>
-  <si>
-    <t>JSB(1.5976116735395656, 4.154204831050722, -33.66154683420232, 176.89094466769325)</t>
-  </si>
-  <si>
-    <t>34 37 33 45 50 34 70 23 36 36 57 29 31 42 30 16 30 26 23 50 41 50 42 34 16 41 54 23 35 37 37 57 26 40 29 34 45 33 46 38 26 51 45 40 40 48 45 31 43 56 51 50 43 23 37 44 43 47 27 48 50 40 37 27 29 46 36 43 56 45 30 68 24 47 30 44 43 29 33 10 51 44 22 34 46 9 44 34 34 43 54 41 54 43 65 50 55 23 44 50 36 32 36 29 40 36 55 37 37 28 36 38 30 43 28 29 27 29 58 39 35 22 45 38 45 56 29 31 60 36 40 39 34 54 23 33 58 30 36 52 62 27 30 33 36 44 36 16 46 44 55 43 45 23 49 52 32 30 26 37 21 20 28 37 31 44 34 52 47 46 40 40 38 42 51 51 30 17 17 38 40 43 31 33 45 29 39 48 33 13 37 28 29 30 41 37 59 23 37 40 45 27 42 22 33 30 51 41 30 44 31 51 35 18 46 48 57 54 54 50 37 24 34 44 39 37 57 25 23 37 40 35 51 32 26 49 26 33 36 44 44 25 47 40 31 40 43 40 38 32 17 32 28 39 27 43 29 34 43 31 33 48 31 43 47 54 33 28 41 34 22 62 33 32 44 51 38 31 41 43 16 31 55 42 30 37 25 34 42 26 30 41 50 48 33 45 68 39 30 47 30 27 36 37 30 35 23 28 42 42 30 30 24 17 43 31 36 23 26 30 41 32 19 40 37 46 37 39 40 28 34 33 52 50 33 19 48 35 25 35 51 25 33 37 45 40 33 46 47 30 43 24 41 57 33 43 22 29 51 40 28 24 45 50 40 62 35 37 37 45 27 43 34 37 33 37 55 26 16 33 38 50 45 26 22 45 51 27 30 30 21 30 30 61 43 48 51 50 44 30 34 45 45 40 40 33 38 50 43 52 46 45 45 12 39 30 47 37 55 55 46 27 32 41 54 37 38 48 40 42 37 30 26 17 37 54 46 40 32 49 17 38 34 37 29 51 30 41 47 52 37 23 39 22 31 33 43 34 49 46 43 39 33 44 52 30 34 27 42 33 31 41 37 54 40 23 40 18 39 23 36 45 31 33 9 29 36 48 44 42 38 33 22 56 55 30 48 41 37 41 41 38 48 28 33 44 54 51 51 37 41 44 32 29 43 40 23 48 41 30 37 36 46 45 59 58 31 42 52 10 51 40 29 34 63 36 37 26 44 51 50 29 39 48 21 34 52 43 40 41 50 39 36 45 44 44 40 40 43 36 51 46 31 30 13 47 40 40 59 43 18 42 44 50 34 40 30 35 28 31 37 37 61 44 47 31 26 39 61 38 58 33 53 33 26 38 36 38 41 36 33 41 39 29 48 59 38 48 45 27 39 31 35 45 31 37 33 29 48 42 38 51 39 42 41 21 27 50 37 34 37 43 43 43 38 44 51 51 40 46 25 45 32 55 39 31 41 48 16 35 31 33 52 22 49 58 48 38 38 48 41 35 30 36 48 33 36 42 36 38 44 27 50 50 37 48 44 29 45 42 40 41 54 32 55 43 49 36 41 25 30 39 39 53 43 43 36 43 44 35 11 31 34 44 36 43 22 16 59 40 47 53 45 27 37 42 44 32 30 41 20 41 29 36 46 26 32 33 38 30 24 37 29 26 30 47 56 45 25 44 41 59 32 46 23 50 40 33 35 34 24 26 30 56 40 33 29 29 42 30 50 38 37 22 36 51 55 40 38 31 29 53 44 51 37 33 24 26 25 47 23 31 45 37 47 55 29 28 23 37 17 37 29 45 19 45 33 40 35 20 29 31 41 48 26 29 37 21 46 37 31 44 34 41 46 41 38 47 33 42 37 37 45 38 38 28 37 53 57 40 41 39 36 39 43 31 34 61 41 48 23 23 24 34 47 43 39 43 30 46 43 33 46 47 20 38 50 48 65 27 21 33 57 48 47 37 45 34 26 38 24 55 15 44 13 39 57 44 32 30 50 17 37 29 40 38 48 39 32 47 26 25 33 34 36 26 38 26 26 33 38 34 41 40 26 59 52 36 52 31 37 56 40 33 29 29 47 30 39 39 40 43 33 27 35 47 29 20 53 25 24 25 45 41 45 36 27 47 45 43 34 38 46 40 54 23 38 45 36 25 26 26 45 33 38 21 34 67 35 39 44 30 20 40 49 35 27 46 37 61 30 33 52 33 35 27 50 37 38 28 36 41 33 51 30 27 16 31 43 37 29 40 45 41 42 31 23 36 33 16 44 32 27 34 45 44 47 61 43 23 37 51 41 37 27 45 37 51 25 37 31 33 43 50 20 37 33 31 33 41 44 40 36 36 52 39 22 28 43 43 31 36 43 47 41 38 47 66 47 37 44 23 36 51 53 23 35 29 46 37 28 50 67 30 47 52 30 59 16 43 47 36 45 43 16 33 34 46 20 40 43 31 40 22 40 39 29 31 39 50 40 51 40 28 71 17 36 20 28 34 30 38 37 51 13 45 42 52 52 37 31 37 19 44 26 30 42 42 34 12 51 43 54 21 36 34 32 19 19 52 37 47 44 55 37 31 39 61 24 43 48 38 29 49 21 45 32 43 33 44 55 41 23 37 45 43 46 47 26 54 39 38 38 34 37 39 46 52 36 38 58 52 16 29 38 51 49 30 52 62 51 30 47 51 40 17 31 51 40 41 47 42 50 29 33 44 17 55 34 34 37 55 42 47 39 44 62 21 52 32 65 51 36 35 41 49 41 43 33 34 20 31 35 44 41 36 34 34 41 37 35 43 37 37 43 29 41 41 60 54 48 48 47 36 37 20 27 43 31 30 43 10 47 44 51 37 37 37 25 42 34 30 39 59 55 48 30 44 31 55 36 37 34 37 32 37 57 37 23 45 35 66 37 31 38 27 29 47 30 44 41 42 30 53 33 44 51 44 55 33 50 31 37 44 38 26 51 36 47 27 22 33 33 22 45 49 44 37 44 33 41 54 37 34 39 47 30 44 41 43 27 41 30 36 40 32 33 30 33 43 28 36 36 37 37 34 30 36 26 58 60 40 46 29 24 30 42 20 37 26 55 39 32 39 40 29 30 43 50 44 37 39 29 19 49 26 46 42 12 21 44 44 28 19 55 23 27 45 40 51 21 22 36 23 37 59 31 47 20 48 13 42 30 36 40 45 38 36 40 44 23 37 37 38 43 29 39 48 45 39 41 48 51 43 29 29 39 39 32 42 20 65 37 25 34 22 48 24 37 44 20 32 30 67 37 43 28 63 45 29 50 42 30 30 33 45 45 50 50 40 27 38 34 40 37 42 32 36 26 24 37 45 45 27 37 50 20 13 58 52 37 35 43 54 33 45 26 41 34 52 47 34 50 46 42 42 41 41 34 41 43 32 37 39 37 36 45 33 39 53 41 48 44 28 47 45 35 41 29 33 41 20 52 30 50 44 41 25 47 70 34 37 41 27 44 31 19 27 23 50 51 40 33 41 40 28 33 58 23 32 47 38 65 46 37 36 45 41 37 30 27 35 61 37 19 38 32 47 52 42 25 27 44 29 18 23 39 51 61 24 37 63 33 27 25 31 61 40 37 19 39 30 30 40 39 38 31 39 30 30 51 41 19 37 35 36 51 54 46 32 33 37 47 37 51 43 37 30 44 44 39 41 38 30 49 42 27 23 36 37 40 41 41 29 48 34 30 37 41 51 46 45 22 41 29 40 34 45 52 45 39 42 45 45 38 41 47 42 43 37 32 16 47 37 37 54 41 31 24 51 54 26 40 43 47 24 25 13 47 35 29 16 34 51 20 33 51 31 39 42 32 40 37 37 43 30 41 34 48 26 27 43 35 34 36 48 30 28 33 35 45 30 37 30 30 52 33 41 58 30 33 41 58 38 44 44 25 54 24 53 41 46 30 29 37 51 46 34 55 37 30 40 58 38 44 41 33 24 52 66 34 55 32 29 36 34 25 36 26 37 42 45 44 36 26 33 41 62 39 33 47 34 27 34 33 44 55 30 24 29 26 51 31 51 49 47 44 30 35 37 47 43 57 44 23 10 48 43 43 46 39 31 40 26 35 22 32 31 47 40 33 47 24 33 41 48 43 56 25 33 37 50 27 29 14 29 25 24 59 33 58 37 45 35 51 30 39 30 45 43 44 34 53 59 31 41 43 37 53 23 30 28 52 51 36 55 31 28 31 40 41 33 23 32 41 58 26 51 31 37 32 32 31 32 39 27 43 27 14 37 37 38 64 51 54 50 37 37 33 30 54 34 51 51 44 41 27 31 46 33 40 24 39 43 26 56 59 30 48 38 41 34 38 51 41 28 45 29 18 29 41 16 34 18 43 41 44 39 34 19 43 27 43 44 20 50 44 48 27 21 35 38 30 40 43 37 38 19 36 50 33 51 36 42 44 36 44 34 35 50 52 44 33 30 47 30 43 34 22 34 44 45 52 40 22 49 19 55 48 42 32 33 50 31 38 30 51 44 25 38 33 38 24 34 26 51 43 40 57 37 33 49 27 40 20 45 17 32 34 39 35 42 22 35 32 51 21 26 36 44 37 23 37 32 41 30 46 37 57 37 27 44 44 35 42 40 36 41 19 34 53 47 31 35 40 40 34 67 40 38 27 41 33 36 42 45 40 31 36 31 22 30 54 23 59 40 59 37 49 44 54 38 27 26 29 62 33 40 47 32 55 28 39 31 49 44 27 51 57 26 29 44 38 43 25 24 49 47 32 35 41 40 45 33 34 32 33 49 56 13 41 55 29 33 31 30 26 23 44 58 32 48 39 48 19 47 41 27 36 49 46 57 37 40 44 41 63 29 48 34 36 52 32 47 40 22 30 37 44 33 38 35 37 47 33 33 53 52 48 24 30 33 37 45 23 30 60 25 50 59 24 48 40 54 44 27 50 16 36 32 36 46 45 51 34 36 62 51 48 32 40 33 34 27 45 26 48 27 40 20 19 53 51 37 32 50 48 18 46 31 36 47 40 52 38 57 34 42 31 33 35 38 26 51 33 23 41 21 34 44 27 29 50 45 52 34 40 34 51 36 32 34 30 28 30 40 41 31 54 41 36 37 40 39 48 23 58 30 41 33 19 29 38 45 19 46 42 37 39 34 34 27 59 48 62 59 35 24 38 52 48 33 41 57 26 29 34 52 42 28 39 52 16 31 51 47 20 50 44 26 36 30 44 19 53 34 40 39 60 41 34 22 30 30 35 44 19 23 50 30 38 40 45 32 21 27 45 29 45 31 62 33 39 43 48 40 45 13 33 44 34 41 39 38 57 51 33 29 36 51 47 34 52 30 36 40 42 36 51 42 57 27 35 37 42 31 34 34 22 39 37 39 49 16 57 33 36 30 37 45 48 43 34 30 40 54 36 60 20 32 50 41 31 41 29 37 54 48 36 41 33 43 38 49 47 29 31 27 47 41 26 38 37 29 46 34 54 28 33 30 27 43 38 31 36 34 31 33 40 43 54 35 35 30 33 23 41 51 33 50 16 21 39 64 34 19 30 27 26 20 43 31 31 41 35 37 31 43 41 35 41 21 13 51 16 49 27 41 40 33 35 29 42 34 37 45 42 37 23 29 32 59 28 30 44 48 30 30 24 10 48 34 31 43 37 36 32 20 36 40 25 49 55 44 41 41 35 53 43 37 34 32 27 46 44 48 37 46 57 52 23 29 51 53 37 20 43 27 37 47 51 34 37 42 48 44 20 44 19 43 41 35 40 56 51 45 20 36 30 36 42 30 22 43 54 35 47 44 39 35 33 44 44 54 36 51 44 33 35 26 34 45 51 37 33 41 43 44 34 51 34 38 46 45 27 38 44 27 26 20 40 38 34 32 40 43 30 39 29 47 50 35 28 51 48 37 44 36 39 34 41 49 33 44 52 58 51 33 48 43 45 23 28 37 42 38 42 45 46 37 52 45 42 51 36 33 17 54 39 37 47 37 26 26 33 31 42 27 46 31 26 48 41 37 29 54 26 24 37 40 44 34 32 26 40 51 43 34 29 35 37 55 39 45 34 35 20 43 29 35 52 38 34 31 24 26 34 37 50 75 36 41 39 41 40 41 16 44 44 40 37 65 41 51 44 37 51 33 54 51 37 37 33 34 33 38 30 37 43 45 29 34 33 62 41 40 54 23 32 42 44 24 44 50 28 22 25 31 27 30 51 41 20 16 54 35 40 37 29 58 29 48 19 46 38 40 54 33 33 38 24 42 34 30 41 31 23 40 29 33 41 38 37 42 58 35 26 43 60 38 46 24 26 50 40 34 38 58 33 55 54 54 40 56 29 30 38 23 32 37 60 54 59 41 19 36 28 49 33 52 33 52 34 31 44 49 36 25 48 37 51 23 32 29 35 33 9 49 46 31 45 31 45 36 46 33 30 18 35 47 31 38 29 32 30 48 47 44 57 44 44 46 33 34 72 37 49 34 43 48 38 23 33 31 29 45 41 58 33 55 36 45 30 31 31 19 30 51 15 41 49 45 31 40 36 36 23 37 34 43 45 17 20 56 22 38 37 51 31 39 45 47 58 35 43 47 47 37 29 36 41 31 37 43 53 40 29 32 30 19 29 41 35 47 28 36 44 42 45 37 16 66 56 20 33 41 44 36 47 55 38 41 20 37 17 52 45 39 32 39 43 24 51 34 43 55 16 26 40 46 58 40 37 45 37 44 21 43 50 39 32 51 40 59 51 40 25 13 23 70 40 43 34 56 47 45 33 37 36 28 37 52 39 26 27 51 31 48 37 47 41 25 40 20 38 30 48 47 28 29 41 40 39 25 37 34 39 36 55 19 30 25 40 50 15 27 26 46 48 52 45 47 16 25 37 34 22 29 47 31 27 66 26 43 62 30 47 24 44 30 49 23 31 30 31 51 42 44 30 57 39 21 44 51 26 53 21 33 33 21 27 29 52 35 31 36 56 36 26 46 30 32 34 48 44 61 20 30 33 40 22 39 48 37 36 23 23 36 39 27 33 34 31 44 33 54 22 33 29 37 38 37 53 40 50 31 42 26 25 25 30 42 31 45 27 26 44 41 44 33 51 24 34 27 30 41 29 51 30 49 29 37 41 37 47 48 40 39 40 40 46 30 56 23 46 37 31 29 17 30 36 46 40 44 36 61 42 22 41 32 26 35 41 30 45 29 30 31 26 29 44 52 48 33 43 53 30 39 48 23 32 29 37 40 23 48 30 51 35 56 44 21 41 39 22 22 51 47 39 16 48 29 38 33 29 53 44 36 47 40 38 41 51 38 38 31 53 33 30 28 41 41 21 40 37 42 37 38 35 22 34 56 42 41 27 34 40 40 30 30 55 57 48 37 27 42 33 33 38 30 33 41 37 37 34 24 31 40 34 52 26 39 44 34 27 46 37 33 41 44 19 32 31 51 47 30 57 23 37 23 51 37 40 49 33 50 55 25 22 47 46 41 47 35 38 40 30 42 40 29 44 29 33 29 35 33 41 24 40 40 63 30 49 35 45 57 43 30 34 49 55 37 28 44 30 41 41 55 40 65 37 48 51 34 34 41 35 17 53 43 51 35 26 38 29 47 38 51 43 30 59 22 62 42 38 22 27 34 44 34 44 39 37 43 30 33 51 43 46 39 27 38 34 42 47 41 45 37 46 40 27 41 48 43 40 27 29 30 44 44 38 25 48 45 48 49 42 45 47 45 22 34 37 62 45 34 44 32 59 40 42 31 37 34 37 55 37 55 33 49 38 52 37 39 30 38 37 50 32 40 58 24 38 23 27 47 33 51 41 16 48 73 50 30 28 41 25 41 31 41 44 48 34 28 40 33 42 40 28 25 30 30 22 43 41 23 44 24 22 43 43 36 43 24 38 43 33 37 23 38 41 52 52 37 56 37 39 32 38 45 23 33 27 44 65 42 37 52 42 44 34 24 51 44 47 37 55 31 41 53 38 12 46 26 42 45 54 45 40 39 30 39 45 38 54 30 47 20 41 17 53 33 42 22 50 34 33 17 41 45 34 54 29 34 34 29 36 51 20 33 41 33 30 31 33 34 30 41 46 36 30 23 37 42 45 43 23 30 46 49 43 37 51 28 29 43 48 50 47 53 34 35 24 28 25 38 48 21 47 29 48 37 45 30 37 47 44 45 39 23 24 40 37 34 27 25 27 41 43 39 33 46 34 36 51 36 45 54 38 26 58 34 47 44 35 52 39 38 23 34 38 25 37 71 40 30 40 53 57 23 25 29 38 31 51 34 46 28 19 33 55 45 34 36 31 37 33 65 32 32 40 32 36 44 23 38 45 43 52 33 35 47 58 57 29 57 38 37 56 32 25 28 51 20 38 54 54 32 38 44 45 38 40 13 55 24 23 32 44 34 32 26 50 45 44 22 35 43 33 41 41 43 47 41 30 23 27 33 56 43 38 34 53 32 30 35 10 51 51 44 19 40 42 26 33 51 37 35 45 45 31 55 37 20 30 34 34 45 26 41 34 36 35 37 37 29 46 27 16 38 24 31 30 33 45 36 47 40 51 23 50 43 50 37 43 47 16 43 30 38 46 33 51 30 41 41 51 41 48 34 24 50 36 34 27 43 36 33 36 22 36 41 45 32 39 17 22 73 39 50 58 17 34 26 29 41 33 33 27 43 27 41 30 40 61 48 54 40 53 57 34 31 51 37 44 30 55 34 34 42 26 33 26 35 27 42 28 30 47 37 34 31 26 49 20 20 28 31 46 56 37 22 31 51 41 48 47 46 36 43 40 35 41 34 36 47 42 49 32 39 37 41 19 37 31 41 38 26 44 20 56 23 37 43 23 44 37 29 29 16 24 35 37 26 45 34 41 35 23 33 43 29 30 40 52 44 47 43 37 43 30 39 29 52 43 29 44 37 36 34 29 20 47 43 40 34 56 59 44 27 35 30 46 27 34 37 40 26 48 36 40 57 56 48 26 59 48 38 17 36 33 46 58 48 42 51 20 41 32 40 47 33 19 51 46 51 31 34 30 34 52 41 51 34 30 58 37 34 41 30 30 27 27 45 33 35 51 26 29 37 33 48 40 37 33 29 52 30 34 35 30 44 43 48 19 26 33 57 41 39 51 17 27 45 25 30 36 23 48 43 44 36 37 56 39 59 27 42 32 47 45 40 34 35 40 37 42 40 26 40 27 45 29 24 40 45 35 40 48 21 37 42 43 58 19 44 34 37 39 40 39 23 44 41 29 37 45 47 51 54 39 31 47 53 35 34 31 19 27 34 44 39 46 30 42 22 37 48 37 13 37 34 34 39 26 39 52 44 17 36 46 51 26 51 41 30 36 20 37 29 24 48 40 31 34 22 42 24 26 30 44 50 67 39 39 30 22 49 55 45 41 24 41 39 31 40 51 30 55 33 32 55 39 43 43 20 34 35 36 34 19 50 23 33 24 37 33 35 58 44 39 51 16 50 33 26 47 31 55 29 37 46 36 29 26 33 33 30 34 58 30 27 51 11 27 40 29 37 33 50 41 30 34 40 41 32 39 58 31 51 40 34 21 37 44 54 42 62 32 36 30 29 37 46 37 37 23 23 44 49 46 27 39 19 40 27 35 36 34 55 54 42 41 34 43 27 23 42 37 30 36 53 41 43 42 48 26 40 22 23 45 23 27 19 51 44 29 24 33 36 34 41 55 44 23 37 27 43 27 29 39 46 29 33 23 33 41 28 28 30 19 43 43 30 47 44 32 39 56 49 47 44 43 49 34 41 34 48 43 41 21 43 32 32 52 49 16 51 61 34 41 41 35 30 52 52 48 60 52 30 45 43 43 45 33 45 38 33 37 31 52 29 43 31 35 32 31 29 30 41 39 33 30 51 24 43 20 29 37 23 25 38 32 54 39 36 44 29 37 45 37 30 23 23 33 33 55 38 34 46 23 34 27 44 34 37 53 34 47 38 43 49 48 24 43 35 31 35 48 52 30 26 31 41 58 33 41 28 49 47 41 37 52 47 41 63 53 37 39 29 56 27 44 27 42 44 34 42 38 37 29 16 27 43 44 23 23 38 55 47 16 48 54 37 45 35 43 39 17 35 29 44 26 47 26 39 24 35 33 30 25 52 37 47 42 30 51 27 25 37 32 39 27 37 33 43 44 58 40 53 56 43 26 48 19 23 29 36 35 55 47 44 40 51 44 33 44 22 28 27 31 38 37 26 46 30 30 26 26 47 36 40 42 40 43 54 52 33 27 38 43 33 43 36 37 43 37 44 33 33 33 24 27 51 30 44 40 37 30 44 47 51 19 45 40 37 25 43 35 31 57 34 39 57 48 51 44 43 54 55 30 48 44 41 45 34 56 45 47 41 30 41 55 34 41 47 37 48 31 23 35 34 36 45 48 49 37 22 17 40 29 48 33 41 56 45 28 51 36 58 37 28 35 37 32 31 23 38 19 51 31 40 49 30 33 50 27 31 58 26 30 33 59 33 45 57 24 47 22 24 43 40 48 29 43 46 37 31 51 50 44 45 38 37 40 38 43 46 39 42 58 29 33 50 45 53 32 33 37 36 46 24 47 42 30 37 37 39 20 33 26 33 19 18 31 40 40 51 34 34 38 48 19 38 39 31 23 43 27 47 54 26 29 39 42 46 28 22 65 36 29 38 42 48 65 31 40 52 45 51 51 30 20 34 37 59 47 27 47 30 41 34 27 32 44 43 49 39 24 27 34 39 43 33 29 37 45 27 40 40 44 36 57 25 43 13 44 36 41 27 31 47 45 37 45 58 27 38 44 26 53 38 47 36 48 47 46 37 43 38 22 52 30 46 49 36 36 32 27 34 37 39 38 44 47 30 45 48 40 41 48 29 41 28 46 20 47 39 26 40 56 25 31 40 51 43 49 45 49 16 46 38 45 53 33 36 42 49 43 23 40 36 38 17 30 41 41 32 44 39 31 36 52 41 16 26 44 23 29 54 45 28 51 29 35 38 33 29 26 46 75 47 36 38 34 40 23 51 51 17 52 47 40 29 29 47 45 33 22 27 32 20 36 37 45 31 36 37 16 44 35 35 19 38 33 21 50 59 60 47 41 10 45 39 26 30 35 45 49 37 40 51 29 21 43 40 12 40 44 43 37 31 34 38 41 41 46 34 25 48 47 31 44 33 47 46 27 46 43 35 33 35 40 21 51 50 43 27 41 25 39 21 40 46 35 33 48 37 38 48 44 33 70 30 45 40 33 33 29 58 34 47 45 37 29 37 40 36 41 41 37 17 27 41 45 47 34 18 41 44 26 42 40 27 30 50 40 37 48 27 25 23 48 48 46 41 42 51 22 6 39 47 37 40 44 35 40 35 38 35 53 37 49 33 26 38 28 58 37 40 48 44 62 58 46 37 36 27 43 52 20 47 34 46 32 41 25 59 39 24 24 43 40 19 41 54 18 48 54 43 47 51 53 40 24 29 49 35 38 33 39 33 23 14 52 43 47 43 39 59 52 32 38 35 33 43 33 40 43 14 37 32 51 22 33 23 29 37 59 43 30 30 38 38 30 30 52 27 34 52 20 26 50 48 47 38 19 45 33 47 36 39 30 56 47 43 45 26 29 26 45 35 27 54 43 44 30 35 54 46 31 46 47 33 44 31 33 45 45 13 39 32 48 45 40 47 27 46 42 43 34 45 26 51 29 36 37 9 37 47 43 49 37 27 48 37 15 50 37 44 22 51 48 43 52 37 44 40 26 33 41 27 44 31 29 42 51 40 19 54 33 35 52 46 31 44 40 33 23 31 46 40 26 26 47 44 34 48 49 53 33 37 24 48 37 23 38 31 47 37 23 27 31 45 31 37 46 34 31 25 36 35 41 31 35 37 49 36 23 39 45 37 45 37 45 26 30 29 31 57 41 37 33 34 20 41 37 49 37 65 47 30 47 45 24 45 33 35 23 44 28 33 61 30 41 38 22 49 31 34 24 33 29 39 31 34 50 33 54 41 37 37 47 48 33 39 27 22 40 26 31 41 26 33 46 43 20 46 43 48 48 20 41 44 25 38 45 26 31 47 36 37 34 58 32 66 38 32 51 30 39 37 34 31 27 20 55 44 37 30 38 51 34 41 43 38 23 30 44 35 40 25 26 53 37 29 61 49 47 35 37 47 42 37 37 30 47 36 49 39 37 44 39 41 33 30 33 34 33 16 39 20 52 53 46 27 31 23 37 26 44 26 63 42 26 22 48 19 47 20 36 34 37 36 39 34 31 28 33 53 58 41 29 40 48 39 29 44 27 27 41 36 38 38 68 44 57 40 37 37 35 45 42 47 36 49 29 44 29 37 38 42 54 41 55 29 42 60 29 43 24 40 32 54 47 23 50 31 67 58 40 54 40 51 38 53 37 53 30 37 29 34 48 43 33 55 45 44 44 27 22 44 64 33 33 46 34 54 27 41 36 34 29 43 30 40 52 36 39 39 27 30 21 29 34 55 31 50 43 12 55 44 34 35 44 23 69 40 21 60 41 26 23 36 39 43 43 50 26 41 34 23 29 31 45 33 30 35 52 55 36 26 52 34 24 31 40 38 48 27 29 36 45 29 38 37 33 20 37 29 54 33 37 31 45 30 45 27 37 24 37 42 37 34 34 33 26 16 40 30 33 32 34 51 44 30 30 38 41 29 56 45 41 29 33 33 42 60 44 28 20 46 35 35 35 44 45 45 20 33 30 37 48 38 50 31 31 37 43 23 48 38 47 26 26 36 25 26 38 32 34 36 41 37 45 41 53 27 46 43 36 23 24 41 38 33 35 40 39 41 24 31 54 24 57 50 34 28 38 37 43 29 31 30 51 20 44 46 40 44 55 31 52 24 25 44 44 54 43 43 35 54 45 38 20 27 40 31 37 31 58 38 23 34 37 41 46 36 45 48 47 54 48 65 33 41 48 34 41 54 34 23 55 59 34 65 33 48 59 31 40 34 41 47 29 34 45 30 30 51 41 35 55 34 30 41 30 27 33 32 15 36 36 43 41 60 45 30 45 48 26 31 35 54 19 45 52 37 40 60 25 39 47 47 35 51 41 57 43 37 37 25 57 48 33 38 42 34 42 33 47 30 37 23 33 57 20 44 46 43 33 34 32 45 44 33 42 33 40 45 31 37 19 40 45 38 37 43 37 33 29 41 43 44 29 43 31 23 40 41 38 33 46 26 47 35 57 30 37 50 41 45 43 47 44 51 53 37 44 33 41 39 32 41 21 30 40 25 23 19 27 37 44 48 41 40 41 34 62 30 30 52 24 38 48 36 39 19 44 41 55 29 33 33 44 43 30 37 48 41 30 51 29 35 28 45 40 29 59 51 44 48 37 54 37 43 54 41 38 37 29 20 24 51 36 49 45 31 40 36 34 27 23 40 36 45 38 26 50 43 31 28 38 40 58 51 27 45 34 23 31 41 42 64 33 45 62 40 32 33 43 28 42 30 42 29 34 29 32 33 55 33 37 32 29 37 71 54 46 32 33 36 37 37 43 27 33 36 34 45 52 23 41 51 41 23 40 47 27 41 43 43 23 23 37 37 39 50 31 57 47 47 55 33 40 50 40 48 47 39 37 38 37 29 37 48 66 45 47 44 40 47 31 46 49 34 38 16 37 28 55 37 48 51 50 37 59 37 44 36 40 40 50 44 30 33 48 55 34 35 45 38 47 26 58 51 52 23 28 43 55 41 47 34 26 41 39 43 48 41 43 24 43 40 30 53 40 37 38 46 36 47 50 40 40 41 41 35 49 26 30 49 44 44 24 30 31 37 35 31 58 23 34 38 37 38 58 21 37 27 23 36 37 57 31 21 32 41 37 33 36 40 49 32 45 36 57 24 40 40 38 46 38 30 27 30 23 37 31 46 26 34 20 59 42 31 51 52 59 41 30 37 35 51 37 47 38 29 44 22 33 38 45 22 30 50 30 64 32 44 31 57 36 36 25 29 33 43 37 41 33 22 34 16 33 27 49 52 52 59 35 52 30 46 44 26 25 30 41 27 37 46 25 36 40 29 47 35 35 34 36 30 50 40 20 33 55 33 51 66 38 40 29 33 47 23 28 43 51 43 51 31 34 33 36 19 42 53 36 34 45 59 36 31 34 61 37 45 44 32 40 45 45 55 32 27 33 47 22 32 27 37 51 36 37 40 39 60 52 35 44 29 59 24 43 38 15 33 28 16 51 39 43 43 56 47 20 53 29 52 13 28 48 38 48 33 42 44 51 53 23 26 41 20 34 40 49 40 41 43 48 47 49 44 23 42 46 37 35 40 29 48 30 42 30 44 26 49 41 27 47 38 23 23 46 22 33 43 38 31 48 40 37 34 34 45 37 40 29 51 34 37 45 38 14 44 37 26 31 51 39 42 48 39 19 52 33 59 24 41 30 34 34 36 44 47 32 49 44 45 19 26 34 30 44 41 34 45 45 26 29 33 41 41 48 39 37 35 24 54 39 27 33 34 38 37 54 45 37 42 47 34 43 30 31 50 27 40 47 41 39 41 40 54 30 37 48 54 40 39 23 28 27 46 29 43 30 42 43 30 50 37 58 43 33 27 29 49 55 30 37 40 17 37 44 44 27 44 43 43 40 50 27 53 42 34 40 45 41 30 51 46 38 34 24 46 35 30 26 31 41 38 59 40 54 45 37 40 24 47 51 36 22 44 32 32 44 23 51 30 30 34 37 42 36 39 38 55 40 52 37 22 40 40 34 36 34 33 45 28 48 37 33 29 51 43 23 39 17 30 45 49 29 43 33 20 29 39 34 29 40 37 32 44 39 62 51 43 44 25 26 30 36 20 20 58 41 37 51 45 37 44 39 40 26 36 36 40 35 37 42 34 51 40 40 60 34 37 54 55 33 33 31 53 20 44 23 52 30 37 50 51 53 13 22 30 34 34 51 34 35 38 19 45 37 61 37 33 50 36 47 30 33 52 22 37 44 40 32 29 41 26 38 30 53 23 51 27 48 53 44 20 62 26 42 30 47 29 27 30 42 45 54 61 21 44 24 40 23 55 33 44 37 25 51 34 45 42 24 30 32 36 31 37 28 32 40 51 25 51 25 44 38 42 26 44 23 49 33 51 28 13 34 50 43 31 47 29 62 28 27 46 50 55 56 55 32 28 45 31 47 32 43 38 29 37 35 44 49 29 41 37 44 20 52 41 49 54 39 36 38 57 58 46 37 23 37 40 23 55 33 44 44 30 36 33 23 42 37 47 41 19 44 44 44 29 39 39 36 26 51 41 30 22 54 31 37 42 44 42 44 32 31 34 15 20 26 44 41 33 54 16 30 43 30 37 44 47 33 29 26 39 47 41 30 50 52 50 16 31 56 44 19 40 47 24 47 29 42 55 27 35 41 39 20 36 31 31 34 39 34 32 23 43 33 29 43 51 39 33 26 48 33 46 34 58 33 45 24 47 59 24 31 51 39 39 37 48 56 66 34 26 47 24 23 27 35 34 35 43 45 29 44 48 44 34 34 36 20 50 30 30 38 36 37 36 46 18 53 68 29 36 49 30 36 51 29 45 16 56 35 44 41 51 40 37 41 19 45 32 33 26 41 33 27 43 58 17 47 30 45 51 51 19 34 19 30 48 44 27 36 27 62 25 44 30 30 68 50 19 40 35 33 33 34 62 44 33 16 19 38 46 37 33 37 43 34 29 46 41 46 49 28 41 45 41 36 34 20 41 48 38 41 48 41 35 45 43 53 52 27 28 37 53 33 41 55 59 34 28 45 48 34 19 40 44 33 41 30 44 48 30 43 27 23 37 30 32 52 33 26 43 40 61 34 35 13 43 31 45 46 37 54 52 41 43 24 30 61 28 48 41 34 36 45 26 31 30 38 27 33 32 45 42 26 29 54 16 32 31 28 37 29 37 41 39 27 64 43 33 37 47 54 46 37 22 33 29 44 40 24 16 22 28 38 43 46 29 19 40 44 37 24 42 34 56 43 56 32 44 43 47 29 40 43 46 24 43 36 48 37 44 23 53 40 51 22 34 52 50 34 29 54 24 43 30 24 35 40 29 37 18 22 26 42 28 34 27 38 50 47 43 35 33 31 37 39 45 44 40 49 39 31 45 45 37 50 33 40 33 45 45 24 56 39 47 44 44 24 26 48 49 37 42 41 33 30 26 38 28 41 34 54 27 49 37 37 38 26 44 43 50 29 40 45 40 59 34 33 36 49 25 45 62 30 40 23 32 26 54 53 48 28 38 57 61 48 46 39 45 37 37 30 47 53 49 29 33 31 40 37 60 30 58 47 37 38 44 40 37 35 40 27 43 36 59 41 47 41 37 41 48 40 33 19 24 19 41 29 36 37 35 31 45 27 44 34 42 30 43 52 36 31 34 36 48 41 48 53 41 31 49 19 51 33 58 37 23 57 27 59 41 36 42 54 41 37 40 34 44 31 37 36 54 38 43 36 43 31 34 23 33 34 58 49 31 48 55 34 47 32 66 33 51 37 37 36 31 23 20 33 64 53 34 48 52 51 34 46 54 52 44 40 33 51 46 39 56 54 51 58 48 30 45 44 20 46 37 23 27 37 44 33 33 22 38 55 46 43 27 28 37 40 47 31 54 47 47 32 35 34 62 49 48 29 31 40 33 29 44 37 48 30 38 47 45 42 46 27 24 29 48 31 28 40 27 65 30 38 21 31 47 38 26 42 37 22 61 40 27 45 44 33 44 45 37 55 40 52 41 41 32 39 43 46 34 27 39 38 24 49 41 46 39 27 24 38 39 59 41 43 56 45 23 36 57 44 44 34 40 49 34 17 26 51 35 39 29 40 52 55 38 54 29 42 33 42 34 46 36 43 34 49 27 36 33 47 22 47 33 44 46 48 50 25 38 29 29 17 44 38 52 32 50 63 43 30 55 39 42 37 35 34 45 44 40 40 21 19 64 29 38 29 38 38 36 37 43 33 39 57 41 24 57 43 30 50 47 26 35 43 31 44 43 26 43 25 45 53 41 30 34 53 43 37 16 46 43 20 26 33 23 27 29 54 32 37 78 44 66 50 37 37 16 30 35 34 57 45 33 51 43 40 49 51 43 45 44 52 57 33 50 37 63 28 24 45 27 39 36 31 19 37 36 39 34 33 37 37 25 27 33 41 44 50 45 49 44 25 65 59 31 37 34 47 33 36 26 33 37 20 40 48 32 48 50 41 37 41 44 49 37 36 37 35 24 35 29 30 38 45 45 33 34 37 41 31 31 26 37 43 35 39 40 37 27 31 43 54 37 45 43 52 34 39 45 34 34 33 29 16 34 42 35 39 42 49 43 40 48 29 31 22 37 39 33 34 42 48 44 46 16 34 36 47 57 26 27 70 19 37 23 26 46 45 35 33 45 36 43 29 28 35 27 30 54 34 41 43 37 33 47 35 51 49 38 34 37 45 40 42 45 34 36 59 37 37 24 46 40 48 52 45 29 45 39 50 38 20 45 50 44 51 31 38 29 53 51 30 48 43 45 31 30 29 58 35 48 43 40 20 53 30 27 27 37 26 27 46 34 40 31 37 48 61 56 51 35 31 39 58 33 31 39 23 49 43 52 30 50 31 38 43 28 37 30 33 54 34 19 44 48 31 45 36 27 35 38 37 20 41 37 50 40 21 30 45 57 20 51 29 53 27 40 37 44 20 29 39 37 43 41 27 44 36 44 34 33 18 39 33 52 47 16 27 13 44 42 45 34 45 26 32 50 36 26 54 20 49 47 27 42 43 36 36 53 59 43 43 52 30 25 40 44 50 34 35 52 41 26 24 54 31 27 34 38 25 36 44 36 43 37 43 24 43 56 44 37 15 39 23 44 23 39 48 38 46 13 45 19 58 44 46 51 44 40 64 49 46 34 33 24 41 30 33 45 24 51 34 31 37 48 45 30 36 23 51 37 47 24 45 43 65 47 40 47 33 52 37 40 24 45 40 32 39 51 51 19 45 37 34 36 58 45 24 13 43 29 41 17 30 22 30 52 33 39 15 33 30 36 48 29 47 27 30 46 30 51 38 40 35 36 50 43 36 51 37 28 27 22 51 37 45 45 31 44 19 45 39 13 30 36 35 34 50 36 37 34 29 36 41 41 44 54 23 30 40 33 55 57 41 39 43 27 45 37 37 44 45 24 37 38 29 49 32 36 39 49 37 15 44 27 37 23 35 37 42 27 54 50 30 6 53 45 45 51 45 36 34 13 73 37 54 34 57 41 22 24 31 34 51 29 57 34 44 36 41 24 38 61 47 19 36 34 33 36 31 58 47 30 23 31 34 26 32 26 20 46 39 31 37 39 31 41 42 30 48 24 30 32 35 30 34 27 41 48 38 41 47 40 40 30 50 48 31 42 24 38 37 34 51 54 24 38 39 55 52 51 35 28 37 52 48 33 39 36 36 43 42 45 39 50 21 27 50 37 32 40 29 37 42 55 41 31 64 54 27 38 46 46 36 34 45 26 37 27 33 30 17 31 37 45 43 45 47 57 30 23 51 24 66 51 25 33 41 26 31 45 47 27 46 50 51 33 31 16 37 51 42 44 47 10 34 30 26 40 46 23 42 45 41 31 40 43 49 45 64 44 40 38 42 26 37 22 51 35 44 46 37 37 19 31 33 43 45 39 20 32 39 51 67 23 36 37 38 38 37 54 43 48 37 48 47 48 48 37 34 29 38 69 24 37 47 52 41 46 43 41 26 38 29 38 44 23 33 42 27 31 41 36 30 40 37 34 48 26 38 44 54 42 30 25 38 50 52 48 26 27 16 30 36 30 44 39 16 37 46 45 45 33 41 37 30 30 44 41 30 47 44 48 17 41 51 50 51 62 46 43 34 37 37 31 31 32 58 45 44 16 30 39 24 33 42 47 59 31 55 43 39 37 32 16 37 30 37 44 16 51 38 31 32 44 30 37 42 37 54 48 41 28 26 49 52 48 59 55 32 31 26 41 34 13 50 50 38 62 47 33 40 41 44 48 37 59 61 39 47 44 31 54 46 45 34 35 57 44 38 31 36 30 46 44 26 52 48 32 36 30 51 39 25 35 37 41 28 45 40 37 35 44 45 26 39 62 45 60 29 49 37 46 33 41 39 33 37 38 34 45 54 47 57 38 51 48 62 37 22 13 51 26 19 44 33 40 42 26 41 43 30 38 34 37 33 35 27 23 45 33 37 13 37 51 29 54 31 51 38 40 34 28 43 43 35 35 35 37 38 44 43 62 34 34 33 33 30 33 44 32 33 30 39 48 44 23 40 24 44 49 22 46 34 41 44 58 33 23 38 33 37 57 45 45 58 20 38 50 27 45 30 47 27 41 39 19 53 33 40 30 21 37 33 43 54 27 37 41 51 41 41 49 36 37 30 40 47 39 23 39 35 46 37 30 22 44 46 34 45 36 40 38 10 31 47 19 25 37 40 54 49 39 40 33 44 55 28 27 29 30 37 57 41 34 36 44 56 33 28 53 46 51 50 29 40 52 45 51 57 48 31 23 56 32 40 17 31 19 30 23 40 52 26 29 43 16 45 36 43 30 34 36 37 37 26 27 49 48 47 33 28 40 33 57 47 16 41 36 52 26 60 29 33 35 52 29 38 25 42 44 34 20 50 51 43 43 57 27 35 36 25 23 50 43 33 33 46 28 48 19 34 45 44 29 46 49 43 30 26 45 54 41 43 36 25 30 53 43 40 40 72 36 37 36 43 47 24 17 23 36 34 30 59 59 44 39 45 34 24 22 33 55 43 18 41 46 37 31 39 29 31 34 27 38 59 44 63 33 42 40 41 40 29 49 35 46 50 27 38 36 33 47 27 33 37 32 40 37 45 60 43 54 48 46 26 22 30 43 30 30 32 25 29 40 51 40 41 23 33 30 40 37 47 22 43 59 58 29 48 31 55 43 54 30 58 36 33 42 29 36 37 46 37 29 20 42 44 41 19 31 33 26 33 33 39 33 27 45 33 34 56 62 40 40 27 16 46 37 18 43 40 38 34 32 57 51 34 44 31 24 44 27 45 28 45 51 29 44 46 21 30 34 34 48 20 47 34 52 43 38 29 16 24 40 55 46 26 44 45 51 24 48 33 40 50 50 40 38 41 34 47 27 35 52 39 51 22 59 23 44 48 29 41 44 48 34 19 35 46 38 55 32 37 41 45 23 40 46 36 47 34 40 41 40 51 46 37 45 36 30 38 45 37 31 49 43 52 17 54 42 56 26 51 43 36 37 40 41 33 34 52 37 23 48 45 28 49 30 26 37 45 30 38 30 44 20 34 37 50 33 30 26 25 34 34 43 33 31 30 49 44 60 51 41 37 23 44 31 48 38 30 29 33 58 40 29 51 50 30 30 17 40 47 46 36 27 44 19 52 31 51 21 30 45 58 31 38 51 33 28 23 37 47 41 43 48 36 45 44 33 13 51 35 49 39 24 50 19 37 50 47 62 22 70 9 40 45 44 42 25 21 49 58 31 41 38 38 37 29 19 37 33 52 51 33 32 45 29 33 47 54 27 30 23 40 32 44 28 42 54 32 31 33 46 29 34 37 54 36 34 52 45 39 18 61 52 41 41 40 44 30 41 37 47 29 45 49 40 37 30 22 54 22 46 38 40 39 47 26 41 37 30 51 41 44 40 47 42 47 20 44 30 30 31 21 32 37 66 39 34 48 23 26 22 45 52 42 50 47 33 27 50 37 35 31 44 33 33 23 41 29 46 32 39 19 51 39 43 38 33 49 32 47 29 33 30 35 30 41 41 38 52 54 27 47 40 40 39 40 30 48 32 37 38 44 17 47 32 31 45 16 46 37 51 33 44 53 35 29 33 41 39 31 34 37 36 29 48 52 43 40 16 31 35 40 35 34 34 32 37 32 31 41 50 31 42 37 38 43 45 40 37 51 40 44 36 36 44 42 31 43 17 31 38 40 36 54 52 27 43 47 37 24 54 58 29 43 38 33 23 40 37 49 47 26 37 33 34 37 54 54 41 47 39 31 32 35 38 44 45 21 41 24 58 44 46 42 28 44 37 34 41 32 67 32 26 27 48 37 43 48 50 27 37 25 29 37 43 27 31 36 44 47 32 33 41 49 32 38 24 51 30 48 29 41 45 54 37 26 25 50 27 32 27 23 24 39 38 40 48 44 31 49 33 51 68 33 47 38 62 30 31 43 30 38 49 16 44 37 47 45 64 44 43 43 43 44 27 34 20 55 26 47 25 51 55 42 53 24 43 24 36 28 33 30 30 43 37 22 37 41 60 34 45 40 37 55 44 37 48 33 29 48 20 39 41 40 42 42 25 40 28 29 44 41 30 39 40 40 43 59 39 58 26 40 45 29 17 44 47 37 57 40 45 36 39 44 44 41 49 60 27 40 33 37 41 43 36 55 52 44 42 32 29 38 37 36 25 37 26 42 34 35 40 40 36 27 37 38 51 32 41 44 38 40 25 49 47 40 48 53 44 29 40 33 37 43 24 28 51 59 31 21 40 33 29 36 47 30 42 42 41 23 33 51 32 47 60 42 33 43 50 41 29 59 31 28 34 38 39 50 34 36 36 30 52 34 41 33 37 44 19 36 50 40 47 38 29 52 25 16 38 20 42 40 49 13 43 27 34 41 51 61 38 25 37 23 29 29 47 41 39 23 43 34 37 28 37 35 23 45 16 21 54 36 40 26 44 51 37 47 31 37 26 53 29 33 29 51 22 33 43 51 55 33 55 37 23 34 29 51 55 32 31 45 45 29 23 41 29 33 40 35 33 37 40 37 33 60 38 38 39 41 44 34 27 30 46 30 30 51 37 49 48 36 38 45 36 34 42 22 22 26 51 41 47 57 43 36 28 69 37 58 34 40 54 36 37 31 59 30 29 49 51 34 29 59 40 27 20 29 42 40 19 45 44 24 16 31 62 49 62 20 29 34 54 29 37 37 31 38 41 49 45 52 37 47 34 31 40 54 31 37 63 35 26 33 41 31 45 79 52 33 35 53 30 48 40 35 26 48 42 54 29 50 49 41 37 47 34 25 38 34 42 58 30 30 34 43 60 25 31 41 58 40 50 40 30 45 36 27 53 44 54 40 43 44 36 54 36 43 40 36 40 26 40 41 54 33 22 47 34 19 44 33 45 50 26 33 39 35 29 22 33 52 38 20 57 45 39 45 24 33 47 19 34 40 29 47 57 39 38 27 46 36 34 56 26 44 33 40 43 29 30 55 64 40 31 40 34 63 27 41 58 42 44 37 33 23 31 25 19 31 40 50 30 33 28 36 30 47 26 27 37 33 13 30 23 51 29 37 30 65 36 44 27 40 33 23 47 49 36 39 29 54 38 27 30 37 44 33 36 33 35 26 45 49 36 31 51 27 43 43 44 33 58 37 40 23 41 45 42 44 35 37 42 57 25 42 44 23 35 34 30 22 34 28 32 47 58 23 46 41 29 38 49 20 40 43 41 52 29 57 26 35 33 47 33 37 51 22 45 45 45 51 39 55 51 36 51 31 41 29 35 63 53 41 37 50 26 62 24 38 43 65 32 35 52 40 34 45 17 57 35 32 36 43 47 37 33 40 34 37 26 37 27 37 40 40 43 27 43</t>
+    <t>FTL(0.023644104773007733, -507.21140277347786, 512.2351568453012)</t>
+  </si>
+  <si>
+    <t>3 6 18 -18 10 3 11 17 5 5 7 14 4 -3 17 -7 12 17 14 -11 -4 5 -8 11 -12 -2 -5 2 -8 13 7 13 -21 10 11 6 6 -5 6 5 21 6 28 3 -10 -7 -10 7 18 -6 18 1 35 13 3 15 -6 -3 8 8 19 -7 3 6 -21 18 23 11 7 14 -6 21 -1 14 7 -10 10 28 13 17 14 -4 5 6 -7 17 -6 8 17 -3 -7 -7 3 10 5 14 11 -10 1 -3 7 3 13 11 9 7 -7 41 3 0 31 -18 7 10 20 21 19 10 20 6 22 14 4 26 -7 12 25 -7 10 13 -6 -5 -6 -2 3 -7 4 10 13 10 19 15 -11 17 4 31 -2 4 6 14 14 -3 22 11 17 8 -24 16 -6 -24 15 -24 26 -6 23 -11 7 -4 11 -2 -14 3 11 -9 7 14 -3 -11 1 11 6 1 12 2 7 1 23 -3 10 -4 13 -21 3 10 14 7 -3 -10 0 21 17 7 14 -3 1 3 17 20 4 17 3 10 10 -9 -24 -7 -17 17 32 5 15 -4 21 -10 -6 17 -10 17 -5 -10 11 -6 -18 -11 6 5 -23 4 -8 -5 18 -14 4 -3 3 -20 4 31 -16 4 11 5 27 -8 4 -10 14 3 17 0 -6 6 6 21 6 14 10 20 -10 3 9 -10 -5 -4 -15 -3 3 25 5 -10 -13 7 2 10 -10 28 21 6 25 7 4 17 14 28 -26 24 56 4 -11 7 13 9 3 6 -20 -3 -5 -17 -3 5 14 3 -17 -2 15 14 17 -13 15 14 11 7 -5 3 -3 12 12 3 -10 -9 -1 -3 15 12 15 24 -13 -11 -15 -3 12 21 -3 7 -10 -12 -6 5 -5 4 4 28 -21 3 -7 9 17 -8 3 -2 12 21 19 -3 3 -14 37 -7 11 6 7 3 29 1 18 9 10 2 4 2 14 -13 -21 -7 -4 16 -7 -3 -3 18 10 -3 13 -16 17 -7 -33 20 3 8 -6 -3 15 3 10 1 10 7 -5 -5 10 2 8 8 6 14 -3 3 4 -12 7 -6 6 3 -8 17 34 2 6 21 -6 8 -8 6 -1 -10 3 -13 25 11 19 -3 4 -1 21 3 28 -41 6 6 1 4 25 21 8 3 3 11 -4 7 13 -4 14 18 -3 7 -7 21 12 22 -3 4 11 21 7 13 18 7 -11 12 6 3 4 10 3 -11 3 8 0 21 21 -11 14 17 11 22 -10 4 23 8 -1 -2 16 -9 18 -15 -3 7 -6 11 -1 11 -3 13 -15 4 -2 -7 3 7 -10 20 5 -2 -3 11 23 14 19 -3 5 -7 -12 -11 8 20 7 11 4 25 14 -17 24 1 -3 -7 17 3 22 17 7 32 27 10 11 3 5 31 21 -13 17 10 11 12 -25 23 -10 14 3 3 6 7 3 4 3 7 25 3 -11 6 -7 9 3 3 3 27 -16 4 21 -6 6 21 -3 28 -3 14 21 28 14 12 -7 -5 13 11 28 17 3 -3 27 19 -18 13 8 6 7 -18 -11 11 -5 21 7 20 16 -3 17 25 31 -17 19 9 21 23 -7 -10 1 -1 7 -3 20 24 8 -5 -1 12 -20 -10 14 10 5 10 7 -7 7 6 31 27 10 3 -18 7 -6 7 -14 17 5 -10 -3 11 6 20 -9 -18 9 -3 2 11 23 3 18 8 1 -18 10 3 -9 3 16 8 -27 3 9 11 17 25 10 -5 8 -11 -1 1 1 7 -18 13 18 3 6 24 21 -7 -21 -3 3 1 21 -9 14 -6 13 31 -3 -5 16 -4 -7 24 -4 10 3 9 -6 5 21 -14 16 12 10 20 9 -15 13 -3 -4 -6 11 -19 15 24 -3 11 6 -21 32 7 -6 5 22 2 -3 -2 -3 -11 7 6 3 -17 17 -5 21 3 3 14 2 -7 -5 24 39 -4 17 -7 13 14 -10 10 20 24 -14 17 16 3 6 18 -12 4 5 -5 0 8 13 16 -3 9 6 13 18 20 19 -10 12 3 -5 -3 28 6 3 -31 14 -16 15 1 2 -14 14 10 -2 -22 12 -18 5 -26 11 7 -17 35 3 11 -2 -4 12 1 3 -12 5 22 -10 4 9 12 14 32 -6 20 14 6 -4 -2 8 -6 4 -31 20 -7 2 14 -7 -11 16 10 -8 -26 16 13 3 3 -4 -17 -2 15 5 15 0 5 4 -3 6 17 19 8 -1 1 -7 -13 -2 6 11 3 21 11 4 -20 4 7 10 14 -5 -10 14 7 -4 3 6 -17 21 21 3 -5 0 -18 10 11 -9 16 21 25 10 3 19 -14 32 4 -6 -11 2 8 19 3 6 9 -7 3 4 20 21 -7 -7 34 -20 6 18 17 6 15 14 13 19 -5 14 3 6 19 3 3 -3 26 7 -7 6 -3 1 -3 -2 -19 6 10 -7 12 13 16 15 5 -2 -12 -7 24 -7 24 -4 4 3 -15 -12 3 6 6 11 -3 -6 20 -12 17 2 4 -10 9 10 7 8 7 1 -3 -6 -7 7 -2 -17 -3 -3 32 19 5 4 25 -7 -3 -7 -9 7 -3 20 7 31 -6 12 3 -11 18 27 10 -5 -3 7 -3 0 19 -3 7 12 -3 11 -7 14 -5 -3 -3 13 7 8 27 -30 -3 17 11 -6 6 6 -7 9 -4 10 24 19 8 14 24 -4 4 20 3 9 12 7 -4 -6 1 12 8 6 31 10 -3 -10 15 5 -1 7 6 19 7 21 4 6 34 3 4 6 -1 3 7 2 17 1 -14 -1 -18 14 8 3 12 -3 1 5 -4 -1 10 8 -15 -6 5 31 -5 5 20 8 6 -5 -14 42 4 -14 -14 19 3 -9 14 -31 26 -16 -13 2 13 24 -6 -1 7 13 -8 3 6 -3 -1 -14 -5 22 3 4 -13 6 18 8 7 21 3 -5 -5 -1 -3 -4 29 27 -3 13 25 3 18 3 15 -2 3 -23 9 -14 18 -18 -20 -8 -9 -3 27 3 1 13 14 10 -3 -27 11 13 21 8 6 7 13 12 18 4 2 20 13 -5 1 -11 -24 -2 -3 28 -6 -4 14 -3 5 10 1 16 22 13 3 42 -21 -2 -13 21 -3 31 5 -4 10 19 -6 6 -6 11 8 14 6 19 8 10 -3 17 -3 -13 3 -14 -4 -3 -5 12 14 38 -3 11 1 10 6 -13 20 18 8 13 -3 -8 14 21 17 -3 15 11 2 4 3 18 -9 16 -3 14 7 3 -4 -9 -17 24 4 -4 9 2 -6 -10 -5 3 3 -9 -7 22 6 -3 -6 18 -3 20 8 14 -8 5 7 18 18 6 3 7 -3 3 11 -6 -8 11 -6 9 15 3 8 12 -23 15 -12 5 25 -4 3 12 14 -14 4 -11 -3 14 -8 3 -10 6 -17 -7 12 8 8 7 -5 -2 4 10 -13 10 31 11 9 12 -10 -7 22 5 14 14 4 14 10 -3 13 21 23 8 25 7 6 -20 4 -5 1 -6 9 7 6 6 7 -4 -8 3 6 14 6 17 -2 5 6 8 17 2 -23 7 7 -8 11 26 -7 35 10 -2 14 3 18 7 4 18 21 15 4 25 -5 6 3 10 6 28 -6 35 1 23 16 -6 13 19 -3 -4 20 16 -3 -10 6 3 18 15 5 10 -2 14 -19 10 11 -18 -10 17 8 25 12 -3 -4 -3 -15 -3 28 -6 -7 9 -14 21 -7 -6 9 -2 3 3 -7 7 -7 28 -20 -31 -30 -3 -16 10 13 8 18 -11 2 -7 -14 20 17 -14 17 19 9 10 -16 4 7 -8 12 6 -6 24 -6 -30 3 40 27 3 6 15 19 -4 3 3 6 -4 -2 17 7 21 17 17 10 19 9 5 -12 14 -14 4 6 18 6 11 4 -8 4 -16 -6 28 34 4 3 34 5 1 3 15 33 -7 14 30 -9 3 0 10 14 -3 6 -3 26 17 -3 4 2 8 -24 7 3 -17 21 -3 -25 -9 -7 8 12 21 -1 7 -15 -10 -7 3 13 8 3 7 7 17 -14 -1 22 -18 20 11 10 3 13 4 -3 25 -4 17 3 -11 -2 11 17 -2 20 20 10 13 24 -3 8 3 13 -18 7 11 -13 -11 -1 26 16 -10 -20 7 -14 11 6 7 3 14 22 -14 6 2 6 2 -7 1 7 -8 14 23 15 -3 15 16 -31 4 10 -6 12 -14 4 -20 12 1 0 -17 15 -7 1 26 5 11 -3 -8 20 -14 -10 -3 13 -4 -3 -12 23 -2 3 -6 10 10 -3 17 12 4 14 5 -6 -4 12 7 14 -5 18 14 7 3 12 25 -2 9 6 8 18 -6 -17 -1 -3 5 14 4 -20 8 12 25 6 11 14 16 -10 -3 6 16 7 12 17 -25 9 3 16 20 -11 -1 3 -3 23 14 -3 -16 -3 -24 -4 -9 -3 3 -5 7 13 -3 27 8 -6 -3 3 3 -2 17 -7 -3 9 -11 -12 -2 -1 -6 7 25 38 14 4 -11 3 -1 27 5 4 3 11 10 -10 -17 -3 -5 5 4 17 14 9 1 -10 24 14 7 12 -13 10 4 -14 3 19 13 6 17 -6 24 -6 23 -17 -7 3 -1 12 4 -1 -6 4 4 3 -13 11 7 14 9 5 14 17 -3 5 -7 -9 7 8 -2 18 3 3 27 34 20 -4 22 20 22 28 10 -22 -11 2 -7 2 6 -11 10 23 -4 14 20 5 7 0 14 -35 4 -22 10 20 11 4 29 3 13 -14 6 -14 13 16 4 8 11 17 30 8 2 3 0 5 13 10 6 -9 -3 27 4 -6 22 6 13 4 1 10 -5 6 -13 13 -5 5 11 -4 28 10 -3 -11 9 2 1 -3 -5 -10 9 -13 -5 4 9 3 -19 -3 4 10 11 4 3 1 18 -3 17 3 -11 2 21 -1 15 -3 19 14 19 3 -21 -9 3 -7 0 -3 -7 -10 -10 7 8 10 -2 25 -10 -3 11 23 14 -5 -3 4 -12 3 -6 -10 5 3 10 17 3 28 14 8 12 3 -9 11 -31 13 3 21 -5 7 17 14 7 10 22 11 15 14 3 -3 13 15 -17 5 -3 5 6 20 11 -12 -4 3 14 -31 -15 8 9 18 24 6 0 -4 14 17 8 -3 3 1 28 7 14 13 21 11 30 27 8 7 -3 14 20 -6 -14 -1 -3 -6 -10 -4 -7 29 38 -7 -11 8 16 -7 4 -21 2 32 3 -7 3 17 10 5 11 -18 10 -3 -4 -6 13 15 -3 3 6 -6 21 8 10 -12 6 16 -13 3 7 6 5 9 6 14 7 30 -3 8 -8 8 7 16 -20 6 15 7 -7 7 -3 -8 5 14 -3 -15 24 17 -11 5 3 7 -28 3 -8 -8 11 13 -11 -10 -24 8 -24 -7 9 -1 34 14 9 -6 3 17 -6 7 -8 18 -4 11 11 -6 11 25 0 28 -18 -3 22 10 13 12 -3 -14 21 -20 26 22 3 3 11 4 20 7 3 27 2 11 3 -2 3 -3 13 -11 -9 8 -3 -15 -13 -7 5 3 27 7 4 -8 -3 -1 14 12 35 13 0 7 20 3 8 3 13 2 -5 6 8 -6 24 8 6 -3 -10 4 27 18 -9 14 0 -1 17 -7 14 32 -4 8 10 -10 6 20 11 3 -2 4 27 1 10 15 -5 10 5 5 12 -3 -3 28 27 1 -3 9 4 10 -5 25 10 15 3 -4 3 8 -8 -23 -6 26 6 3 9 17 3 6 3 4 -10 24 9 0 1 -11 19 11 -3 7 26 3 10 11 7 10 14 1 -1 21 -17 -16 3 0 0 8 -7 -10 3 11 -3 4 -9 3 4 -17 25 4 1 -3 3 -3 24 23 24 -2 -7 4 15 10 14 13 2 22 17 17 -24 -2 -15 24 -4 7 -10 -3 10 3 13 -19 -8 25 6 -3 7 -18 14 17 22 15 4 13 -8 3 7 1 7 3 10 -3 3 13 -1 3 18 -23 35 11 13 -14 14 4 -3 3 -1 8 3 24 24 7 -13 -14 7 -9 14 4 27 17 -1 16 6 3 29 4 -3 41 9 6 19 3 27 19 3 5 -2 27 20 -7 -13 2 8 -15 8 3 -6 14 -7 7 -13 9 -29 4 -1 4 21 -7 -14 -1 24 -10 1 -8 10 8 14 -11 14 5 15 -6 3 -7 6 14 -8 3 3 13 2 -15 -11 -3 6 7 -12 30 -3 -4 12 25 22 -4 -6 -16 -3 -7 -4 13 -1 20 7 -1 10 -3 -3 14 -10 31 1 31 6 0 -3 -3 8 3 14 12 -5 -3 -4 3 27 10 -3 3 10 10 11 -15 7 0 23 9 -3 12 -4 25 10 7 6 -13 7 21 -14 -2 4 3 5 6 2 3 -5 -4 -18 10 4 -8 -7 4 17 7 -3 -21 -7 25 21 5 -2 10 -3 20 7 7 21 -3 0 15 17 2 5 12 15 2 7 10 -24 10 6 7 4 12 3 -8 -3 14 6 -3 29 -2 -3 19 -3 -4 3 3 14 21 -3 -10 11 17 1 4 6 3 11 -17 -4 -24 18 -3 -14 20 20 42 17 3 15 3 -17 6 13 4 15 4 17 -17 -13 13 7 14 8 -11 22 -16 10 -3 4 15 -3 -3 30 -3 -16 20 20 -1 2 -5 -3 17 -6 -5 12 9 7 20 24 -4 -3 -3 -30 -8 -2 8 11 -7 17 -9 0 38 8 6 -17 25 -4 15 16 22 -3 14 -3 17 3 8 -11 14 -20 -3 6 -14 19 22 -3 5 -11 6 -4 14 -1 -2 -12 6 6 15 3 10 17 3 7 0 24 17 38 6 14 -14 9 24 1 6 35 -6 25 -3 8 10 3 -17 20 9 21 -2 2 -17 14 6 4 23 15 3 5 4 -8 19 -3 20 -21 8 3 -16 4 -7 8 -7 15 5 9 -1 5 -17 -13 -1 1 8 8 -13 3 2 8 6 3 4 -5 -3 -6 24 14 3 28 6 3 -17 20 -24 -16 14 17 9 2 -10 17 0 -14 9 -6 14 9 -3 -16 -6 24 10 20 9 2 27 18 -6 -11 12 8 10 10 35 4 17 -6 3 -3 13 -10 -8 12 1 2 21 6 17 10 17 -18 10 -5 3 13 6 3 -12 -14 9 14 27 6 6 7 3 26 14 6 -3 11 22 -6 1 -1 9 -1 -8 14 14 11 4 21 13 3 14 -13 -6 21 -4 12 13 3 4 0 4 -6 11 8 -11 31 -14 3 24 8 -5 18 13 -7 -4 -25 -7 6 -21 -10 20 8 11 6 7 17 -17 15 -18 -4 13 9 20 12 8 -14 4 21 16 15 6 6 5 -3 -3 8 -1 27 -5 10 20 12 -19 6 38 4 14 17 -5 -7 1 7 5 -7 17 -3 -3 0 14 -1 6 4 -1 18 11 18 10 -7 -19 -6 7 -4 14 20 7 -17 -3 -3 8 3 18 -10 7 4 18 -8 11 10 -22 -1 -9 -21 10 -8 3 -8 10 16 21 16 4 6 -15 6 9 22 3 -11 -3 -3 -21 5 -3 5 17 13 7 14 41 23 -5 -21 1 7 14 4 -3 1 -6 10 4 -5 16 28 13 -27 6 11 4 17 5 -3 -1 -10 -6 -2 7 -3 3 3 17 -6 11 -3 2 24 3 -10 -11 21 -10 16 28 11 3 22 7 17 3 -10 14 -13 11 11 -6 -14 1 -7 9 8 -3 3 7 21 1 -7 7 -16 -17 -2 2 23 11 11 4 -9 10 35 8 10 -4 12 11 10 18 2 14 -6 -5 20 11 11 -3 19 -9 -9 11 -7 -6 28 -8 4 11 11 1 9 20 15 -3 13 10 7 21 -6 7 -16 24 -3 -3 -7 10 -18 -6 15 -5 -6 6 3 -6 18 14 -5 -7 -14 14 18 10 0 13 2 -2 3 9 -16 -14 -14 -3 4 9 31 -7 -6 3 3 0 1 16 11 15 8 6 8 -14 7 29 -7 30 10 -3 -3 15 10 -1 -13 4 -7 4 -19 -3 25 -12 20 7 21 1 4 10 13 4 19 44 -3 3 17 9 3 10 14 11 21 28 -4 -2 1 -4 19 -7 -7 4 1 33 -17 13 4 3 -2 1 6 6 15 9 -7 -10 -1 -2 7 -1 13 -17 -6 -17 16 15 -6 20 11 3 9 -4 25 -9 18 -2 -3 -13 -4 6 11 0 -5 -13 3 2 7 14 6 17 3 23 12 25 10 6 -8 -13 7 6 15 -3 35 3 7 3 -9 22 -13 -3 5 -1 13 21 -7 -3 13 24 25 -3 -5 16 1 24 -10 4 -1 2 13 11 -3 27 13 0 10 3 -12 4 -7 23 24 7 7 -3 -3 6 17 -7 29 -9 8 -3 4 -7 0 -3 26 27 -26 -31 1 16 11 4 3 19 17 20 3 3 -1 -2 -1 20 11 10 17 3 11 3 -10 7 17 16 4 3 -16 -4 25 23 -13 4 -7 5 1 9 6 -18 4 -11 22 -11 18 7 14 2 -17 15 11 24 -7 -18 18 11 11 28 4 3 -7 -11 21 -1 3 1 -15 18 7 21 -4 10 24 -13 -12 7 21 -6 10 23 37 -10 -7 21 10 -5 21 -5 3 20 15 11 4 2 -6 -3 15 -10 21 -4 20 -3 3 -3 -3 14 -9 17 -9 5 0 -4 14 3 11 10 5 14 -2 20 -7 13 -7 -3 -3 7 20 7 11 -10 -5 -3 -15 -10 -6 3 5 1 7 37 10 4 -11 -1 8 19 -7 14 12 15 16 5 7 6 6 -3 12 10 15 23 -3 19 3 22 11 20 29 8 21 -4 8 22 34 -3 14 23 1 8 -6 -6 14 7 46 17 -6 -23 6 21 5 -3 9 5 -4 13 -7 23 25 -4 -2 10 -6 -7 11 -35 -25 23 -11 -6 26 -3 11 22 -13 9 6 7 3 -2 19 21 -12 16 4 21 7 -3 13 6 4 18 12 3 16 27 -15 19 45 21 8 1 3 14 14 10 1 -7 -6 4 3 -9 -10 -11 -3 21 -9 4 6 -17 -6 34 -1 2 -6 -2 -31 -3 4 18 17 25 17 19 7 3 3 -3 -2 7 18 -17 6 28 27 -3 7 14 2 30 13 4 -13 12 10 24 -4 5 14 3 -11 8 -7 21 -10 8 1 19 20 8 3 5 28 -14 -11 27 11 16 7 12 25 27 -16 4 3 3 -3 3 18 7 -14 27 15 13 28 14 -34 31 -4 11 -14 3 -4 3 23 13 5 4 -8 14 7 -3 -2 5 8 -3 -1 39 9 9 34 7 11 31 24 17 -28 3 3 22 -13 29 4 4 9 7 4 -6 -7 -1 -14 13 20 -3 4 14 11 21 3 8 17 -1 -4 -4 26 -4 11 13 -11 8 7 -2 -7 3 -3 3 4 2 1 -8 9 17 1 21 1 -3 24 18 12 -6 17 38 -3 -16 -4 12 -11 -9 14 -17 7 -2 14 6 3 3 -14 4 7 4 19 12 24 9 4 14 24 7 18 -3 -8 13 13 17 -2 -5 2 -2 9 12 15 28 -10 1 -7 -1 -2 3 -7 -7 -7 14 7 4 -3 6 -7 7 0 5 2 20 -6 11 -3 3 -6 -3 11 28 2 27 12 14 14 -21 3 -7 8 12 7 15 6 3 -5 4 4 7 -8 1 -8 -16 18 16 -11 1 3 16 8 20 -3 -12 7 14 -5 2 -3 8 3 24 -19 7 3 -6 10 3 6 -4 -21 11 19 15 5 11 -18 -7 -11 24 4 6 14 -6 14 19 -1 -1 14 9 11 29 19 30 24 17 15 1 -3 7 10 -16 -7 -3 7 -12 15 6 13 27 3 3 12 -6 -8 -2 7 10 -18 1 3 -3 -1 7 12 9 -14 15 18 6 -11 10 14 7 16 3 1 9 8 26 -3 24 21 -11 -3 -3 -14 2 -12 22 23 14 9 8 -11 11 -3 -8 15 -5 5 10 -3 31 13 -5 21 15 4 5 -3 5 3 -4 -10 -18 17 3 11 17 22 11 -15 -3 13 -3 -21 -6 -3 10 7 8 -10 -14 -2 -6 17 4 -3 28 -7 14 11 -17 -10 12 35 -3 7 -8 -15 -7 2 28 7 23 10 28 -5 2 20 2 5 1 -3 17 1 9 7 31 21 -8 11 20 27 7 19 -10 -3 -6 3 24 3 -9 -8 1 11 3 7 24 11 12 -7 -3 10 17 7 -3 -7 3 -12 28 21 -3 -5 -5 -4 4 21 -1 14 8 1 -4 -5 -3 7 14 3 24 10 -7 -14 6 14 20 8 4 22 -13 11 -24 6 3 -3 -11 3 -3 7 6 -21 16 41 3 4 13 13 -10 -10 -3 9 2 6 -3 -1 14 -10 -18 -15 -3 3 5 3 6 -2 9 39 6 6 22 6 4 27 13 29 1 7 10 11 3 16 20 3 5 8 13 3 22 -13 -1 10 8 -15 8 2 3 22 15 22 -7 15 13 8 0 -5 7 22 25 -1 18 4 4 6 -7 -6 21 -9 33 21 -13 0 2 11 -1 8 -2 6 28 -4 7 23 3 11 -3 -6 39 12 4 17 11 -11 -6 4 7 21 11 11 -6 9 10 3 5 -10 8 14 -3 28 -5 23 18 -3 -6 -2 4 6 32 -4 2 10 6 3 26 20 14 19 8 -1 -4 35 -6 17 4 10 8 6 6 -17 30 2 8 3 17 -3 -1 25 -6 -1 -8 -9 -1 -4 7 6 22 0 -21 8 3 3 4 7 9 9 0 3 22 14 -3 12 16 -11 14 37 2 8 -13 -3 3 8 -3 3 5 11 16 -6 -29 14 8 -2 14 -3 -3 -4 14 21 -5 -3 7 20 8 16 4 5 22 -19 -7 16 -3 -8 28 -6 19 13 8 3 32 -14 -10 -12 13 8 -3 24 8 10 5 11 -2 -12 -4 21 27 22 14 7 4 -15 4 -1 -1 -6 16 28 4 2 -17 10 7 7 -3 3 25 -7 -3 5 -6 34 5 -7 -2 3 3 3 4 -7 3 20 17 12 -14 3 33 -8 -7 4 23 -6 -7 4 21 -11 21 15 -3 18 10 -4 -15 -4 25 11 5 -10 7 8 20 12 -7 10 25 11 5 15 -3 14 2 0 12 21 3 15 11 -7 -3 -4 11 5 -16 -5 -14 -7 11 -1 10 3 28 1 28 5 3 25 12 -6 16 21 13 22 -16 -3 28 -3 17 25 24 24 22 3 3 23 7 -13 17 3 14 15 -1 -1 11 6 14 12 6 14 12 11 12 -2 -3 -19 4 -6 1 7 7 -20 5 -16 0 14 11 3 -14 22 17 3 18 5 -3 -4 10 6 -4 5 10 14 -10 18 33 6 10 -4 11 4 -13 -1 17 -3 4 6 21 -10 -6 10 -7 -3 -3 20 -1 -10 -10 -10 -3 8 -5 -2 -5 28 -3 -4 4 -1 -7 7 23 10 -18 21 20 -15 3 -1 14 26 1 27 3 3 -10 -6 -14 -39 -6 -7 -3 27 9 27 7 -1 -6 -4 13 17 -11 8 6 9 18 4 4 2 7 3 -20 -4 11 7 7 25 -1 -3 4 14 -2 33 -4 -10 -4 25 3 -3 -4 7 -5 3 14 12 28 -10 -4 11 -18 13 6 8 0 3 3 10 4 8 -7 11 -3 -5 9 3 3 10 6 16 -1 8 3 3 23 -5 17 -13 -17 1 6 -12 9 -8 -2 3 3 3 7 -9 14 18 32 -7 3 7 7 11 24 8 27 -9 -3 -3 -18 37 6 5 -8 -3 5 -3 7 3 -6 15 4 -7 -11 7 7 3 -5 24 8 13 15 17 13 -7 8 21 11 -16 17 3 -10 12 -6 7 17 7 -15 15 -14 5 13 1 -5 6 3 3 -3 9 8 -6 -6 -20 25 6 -10 9 21 6 3 4 14 18 17 3 11 -3 18 21 -2 1 -2 44 10 -6 -16 8 7 9 14 21 -3 15 11 3 27 4 6 -6 10 27 9 -4 -3 -3 2 17 3 -4 18 3 9 -16 7 -24 5 9 -6 7 10 31 21 -3 -3 11 10 22 42 -9 11 -13 -18 -3 14 -14 17 -5 3 -3 -2 29 7 13 -9 -41 1 16 26 18 -24 13 14 7 -8 10 11 -14 3 -20 6 20 13 6 3 7 -3 11 -2 -3 5 -10 -6 -10 -6 7 8 4 -5 28 -9 -1 -4 16 0 5 10 3 -2 -4 7 6 31 -10 14 12 -9 9 -7 4 6 25 9 10 18 -2 11 6 1 -3 6 -3 4 2 -1 24 24 -8 14 4 21 3 21 -7 26 0 3 -17 -4 3 6 3 12 -4 5 2 -3 -5 -11 14 8 -6 11 -3 -1 6 -15 -16 23 31 14 4 -6 -3 17 -7 14 -10 -22 -11 -24 -4 -10 -2 6 11 -3 22 4 4 7 -7 14 8 -7 11 21 -8 8 19 11 1 -3 -32 14 11 6 -18 -7 -3 0 -10 -3 10 3 23 10 28 15 -2 6 12 -4 17 3 9 7 4 8 -2 14 -12 -6 7 3 4 -28 18 17 31 9 24 -14 15 -16 11 8 14 4 1 17 -7 3 37 -5 -10 3 -8 -3 10 5 10 -2 12 28 -3 6 7 -7 -16 24 -9 -8 -17 13 33 3 5 30 4 31 33 7 -3 20 -13 9 28 -8 29 24 17 -7 7 -3 11 -5 14 -3 5 16 4 6 -7 -4 -17 -11 27 -15 4 -3 3 6 20 7 26 3 9 7 11 15 10 1 2 -5 6 -5 -24 4 16 2 -13 6 -2 -25 7 -4 3 2 -4 -6 19 10 -3 -7 -7 15 2 9 1 -3 27 -7 2 14 8 -4 6 2 38 3 -11 13 28 9 4 17 7 7 -7 1 3 30 -5 3 -3 -9 21 14 10 -5 -3 -3 1 22 -14 18 -9 -3 28 -32 7 27 13 13 -18 14 9 -9 6 8 -13 3 9 10 -5 -14 5 6 17 17 14 11 14 -7 13 -6 21 -5 1 19 4 -7 11 7 -12 3 -7 -3 8 -10 5 11 -3 -3 12 4 -3 4 13 -3 12 3 -7 5 18 -13 3 5 -8 -3 4 -30 1 -7 4 4 3 11 24 -7 1 10 32 -4 -13 8 12 -17 20 -16 3 11 -6 26 -3 -2 4 21 6 28 3 7 -5 -5 9 2 -13 -13 2 -7 -1 -3 15 7 2 13 13 5 6 -14 6 7 -5 7 7 5 7 -11 -4 -2 13 13 5 31 14 -6 -2 8 13 -3 -14 10 -6 12 5 11 4 1 3 -20 4 -2 -14 19 -14 3 7 18 3 12 11 26 7 -5 -3 8 12 2 18 7 -1 0 18 -3 10 14 10 5 -9 6 7 -7 1 16 -7 5 -10 -6 4 -1 6 10 1 7 -2 14 -10 11 -1 3 6 7 -2 -21 -4 6 4 5 28 -3 3 -5 5 -3 -6 7 -16 -7 13 8 -8 6 3 -2 1 8 -11 -3 -10 6 18 -5 32 3 3 9 10 -1 7 3 0 40 30 -3 10 -6 -3 24 4 14 24 -1 11 4 15 8 17 7 14 11 -4 9 26 -4 10 3 7 0 3 28 -5 -21 7 34 16 7 -1 2 4 -20 3 11 -1 15 3 8 -3 4 34 -17 -11 4 -9 -13 -8 13 -5 3 38 1 3 9 13 11 29 23 4 18 7 27 20 6 31 29 -3 7 3 -10 -5 -2 20 4 3 -3 0 13 25 1 5 18 -3 -2 -5 22 -16 -3 5 1 -6 3 44 14 12 15 -8 24 -1 5 6 11 2 5 -18 3 17 24 3 -9 -6 13 -6 0 -11 7 6 -10 14 1 -7 26 -3 -3 -1 -9 11 10 20 14 27 -10 14 20 -4 11 -14 18 18 -6 35 10 18 9 19 28 17 18 17 3 11 3 38 17 6 3 5 7 9 -19 -7 6 24 -14 -3 -10 12 9 28 3 7 0 10 17 13 28 -5 4 10 9 7 34 -11 3 3 -20 -8 37 -1 16 9 18 18 1 32 5 9 -1 21 -15 3 -3 23 20 11 -17 -10 13 6 8 -21 15 6 9 20 3 37 42 3 3 -3 -6 -9 20 6 -6 7 5 -13 25 -18 3 -8 6 6 3 -31 6 -14 15 12 21 15 -4 22 12 -10 15 20 28 7 23 11 10 6 -1 8 -3 15 -13 -14 3 17 10 3 11 -2 8 -26 8 4 -23 15 30 -7 6 -17 -3 17 15 3 20 18 20 18 0 4 8 3 -10 10 7 14 11 -6 10 12 9 0 7 3 4 2 16 18 5 14 -3 21 -13 2 -3 6 -11 7 27 3 -10 11 13 7 7 -34 9 14 10 -14 3 10 2 4 15 -12 13 -7 7 5 4 3 0 -17 -2 -1 6 20 32 -20 -10 -5 7 9 12 -2 19 12 4 -3 -11 -3 4 -18 14 6 6 9 18 -7 7 -10 21 2 -6 4 22 14 16 -10 3 17 20 10 -2 2 4 -5 21 22 4 11 14 6 23 22 -14 -4 3 20 3 13 7 15 -3 -6 4 18 -7 -14 7 -6 -3 -21 -4 14 7 -5 30 -20 20 8 26 -10 10 17 7 7 1 13 7 15 17 5 -10 11 3 -4 12 3 13 4 -3 4 11 3 21 -5 20 -18 11 4 16 -6 4 7 -6 -1 -6 11 21 24 15 5 20 -3 4 6 6 28 22 3 16 7 6 3 25 -16 -3 7 -6 9 3 12 10 3 -7 1 22 -22 7 -3 10 1 -4 5 13 26 7 11 -3 6 -8 6 11 7 -11 3 -13 -15 3 13 6 17 5 -3 8 -10 2 23 -3 -1 -2 -5 17 3 -21 6 4 10 10 21 7 17 14 1 1 22 12 21 6 6 10 3 -9 7 14 -10 14 -3 15 -5 -3 32 34 -6 6 3 15 -6 14 9 13 24 -18 -10 10 -18 12 10 17 6 10 10 0 27 -3 -3 6 -7 22 33 -7 -3 -3 -2 14 7 18 12 6 -3 -8 4 14 -3 24 14 28 -10 -11 -21 -6 5 3 3 3 -1 17 10 39 14 7 14 -8 6 4 15 12 5 7 9 -6 -6 -1 3 -1 3 12 17 3 3 4 13 14 24 11 2 11 -2 17 5 6 -4 26 21 11 12 -3 -17 6 39 13 13 3 15 12 5 25 16 28 22 2 -7 14 13 27 -1 19 4 8 -16 -10 -8 8 4 9 -19 14 7 11 -26 -17 8 3 -8 3 -7 -1 -11 7 15 12 1 18 14 -20 5 12 7 13 2 19 3 15 1 24 -13 -8 -9 5 -10 23 -2 13 -10 18 13 17 -6 0 13 14 13 4 18 -3 3 27 -20 27 14 4 -3 11 7 14 -18 3 6 -19 10 0 -1 -21 1 -12 -6 -3 15 13 13 25 8 47 5 -8 -8 5 17 -10 3 18 10 1 18 3 11 2 3 -8 -14 -2 7 9 13 6 38 11 -14 2 6 12 16 1 -2 9 -6 11 9 -1 5 -3 -1 10 -3 33 -3 12 -3 6 6 14 15 25 3 -3 -5 6 -7 16 17 17 25 13 -15 0 10 3 9 -10 4 -6 17 11 -3 9 8 11 -7 -3 2 -4 3 10 -9 7 20 7 -7 18 8 14 -4 4 -3 3 2 -2 -28 5 3 3 1 18 11 6 -8 21 -3 25 -3 22 3 -16 14 5 4 7 -9 20 -11 12 -5 4 17 -3 7 2 20 4 10 -10 26 -12 14 -20 6 4 4 -13 2 13 21 4 12 -3 -10 38 14 9 -14 15 -5 13 12 -2 13 -8 -6 -30 6 -5 27 4 -7 17 3 17 16 18 -8 8 21 7 6 4 8 2 28 3 3 24 8 -7 18 23 -2 15 26 -17 20 17 -11 -6 7 25 12 14 -3 -14 -3 3 -7 4 22 -5 -4 3 17 22 -17 7 3 3 28 14 6 12 8 9 5 10 22 23 24 15 14 11 18 6 3 17 -3 13 -5 5 -4 -24 17 7 2 4 -3 10 6 6 17 -2 35 -7 -3 11 20 12 18 -3 15 11 -24 -24 6 4 4 11 -3 -3 7 28 -2 -5 20 14 -23 9 9 -17 -6 3 12 -1 -10 7 20 -3 28 -10 21 -19 -1 -9 5 32 -15 3 -8 19 4 -21 2 20 9 -3 14 -7 28 31 3 -8 35 -5 11 -9 6 18 3 27 -22 20 5 3 4 -3 25 18 -13 14 -3 10 -5 5 -3 8 9 17 8 4 -7 4 -4 -8 3 -13 4 32 9 7 7 10 -5 24 -16 13 17 4 6 9 -9 14 3 -14 9 -3 13 -6 20 -25 7 14 -12 -14 4 4 6 11 -8 35 7 -14 -12 -4 -10 27 10 13 15 10 -3 -11 -9 -8 11 34 6 -3 6 7 27 12 13 3 -4 25 27 -2 6 4 17 -3 21 -23 11 7 -3 5 20 10 -14 -2 7 12 -3 17 -6 40 22 -3 24 13 7 -23 19 5 -6 -10 -3 -2 15 -8 5 7 18 2 -3 -6 14 -8 -6 -8 4 3 19 18 -7 4 -6 3 10 -3 10 3 -14 12 22 -3 4 11 -5 -14 -14 4 4 9 -17 -9 20 -14 8 3 30 16 7 7 21 17 6 25 7 4 -19 -10 10 -21 -9 3 20 -4 3 8 7 3 23 18 3 16 3 33 -11 -2 5 21 -11 8 14 4 -3 -3 1 28 -21 3 -8 11 3 16 -4 -3 17 5 46 -30 9 -3 -4 -20 12 -4 35 8 39 -3 4 -6 3 5 -7 -3 35 8 18 5 6 -10 8 8 6 -7 5 8 1 34 -6 21 8 -3 38 -7 17 -21 -14 -3 -3 10 10 10 -2 -4 -1 -6 2 -7 3 18 22 7 -6 18 4 -4 16 11 3 11 -8 3 -8 -11 -3 5 -25 10 5 -7 7 8 -15 7 6 17 -22 10 37 10 -6 14 -5 10 13 -3 7 -1 7 14 9 7 8 -8 14 -21 18 29 -7 15 15 3 11 -14 -11 10 -3 3 17 -4 21 7 5 17 9 21 5 14 -7 -9 6 4 -6 -7 10 3 20 23 -25 6 -7 -8 17 -11 -2 -6 24 2 10 26 11 29 8 -17 11 13 16 -10 -17 17 -10 2 3 39 -10 2 -5 -3 -6 4 -6 7 18 -7 22 18 17 23 2 22 7 1 2 -11 -19 -6 15 1 -22 4 14 16 13 26 3 18 -8 10 -16 7 13 -13 21 26 9 17 2 -8 -6 -3 -10 -10 0 9 -9 -16 24 4 -12 13 -7 6 -14 3 3 17 10 4 19 20 -10 20 -6 16 36 -13 -6 16 24 7 -6 15 -3 3 -3 12 20 9 26 10 4 -10 14 17 -2 0 0 2 1 16 8 1 -9 11 -2 32 4 -9 3 8 8 21 -10 17 27 3 -15 2 6 -7 21 -9 17 4 8 13 24 10 8 0 -1 11 7 10 10 -10 26 11 -1 -11 13 -19 -7 25 0 -11 -19 -1 4 6 6 -10 -3 14 12 15 9 3 15 -5 1 -14 23 2 3 -11 11 -1 3 -4 3 12 -8 0 -16 6 3 3 3 -12 5 -9 -11 11 2 -3 15 -14 11 13 -8 10 -22 8 10 -8 4 -3 5 3 8 7 -3 8 6 5 14 -7 -3 -1 -11 12 -2 -10 8 12 7 24 -2 27 -5 -5 1 3 14 42 4 10 13 11 -15 -2 17 -3 -13 6 3 3 -26 5 7 18 -5 2 -5 6 24 9 -13 1 -1 -3 -1 -14 10 15 22 7 -3 13 -3 5 23 1 15 -3 -3 -1 -9 7 17 16 -3 25 24 -3 3 6 -3 7 5 4 5 2 17 5 7 13 24 19 21 8 24 7 -3 -11 27 28 19 10 2 -20 7 -10 -6 1 23 10 14 19 -16 14 18 -4 8 6 -7 2 5 3 25 18 30 -12 -20 3 10 -2 14 23 15 16 28 3 27 -2 8 6 4 -6 16 3 3 10 1 -2 11 20 -13 -16 1 26 -2 1 1 -2 14 6 12 10 8 14 -10 -4 19 -14 10 10 -2 21 31 -9 21 1 -5 7 13 7 13 4 13 15 10 5 5 -24 -14 31 3 -14 5 8 -3 6 16 7 -9 7 11 3 -13 -14 7 -17 -5 30 -1 17 -10 6 11 -3 11 14 7 -7 15 7 8 3 29 10 9 -1 16 13 14 28 6 10 7 6 4 4 -7 2 3 12 -3 -6 6 7 6 -5 7 3 6 22 49 11 21 14 22 2 29 -7 5 23 10 -3 15 8 -2 14 -7 3 21 35 12 -5 -14 14 3 22 6 12 -3 -14 3 10 -2 3 13 6 26 6 -9 3 -1 31 16 3 -4 3 -5 7 -24 4 -11 2 13 3 -3 24 10 5 1 17 -4 5 21 1 10 4 14 30 17 -7 7 6 39 -2 3 4 32 5 5 13 11 -4 -9 -3 5 -29 15 -7 28 -3 7 -23 4 13 -8 7 -19 -6 11 3 10 -10 6 11 -6 39 20 -12 6 14 3 11 2 34 6 13 -6 15 11 -3 -6 -3 13 17 -20 3 25 6 20 4 -11 3 3 -5 -10 7 -10 -17 -11 -5 -10 -21 14 7 20 -5 24 12 4 -6 11 11 -2 -10 22 -12 8 -8 -3 6 -3 4 6 13 3 32 6 9 3 18 28 -7 -12 -3 -4 10 11 3 -6 1 -3 1 1 2 4 -6 10 20 -18 -1 18 2 12 -3 13 5 -8 22 9 11 -6 16 14 3 17 3 -3 2 15 22 -3 21 41 17 -8 -6 4 17 24 5 13 -3 -20 28 15 -3 6 4 13 -4 14 2 24 -14 9 -11 8 1 7 12 -7 -14 11 12 9 15 18 -4 10 -1 -8 16 16 -10 -15 11 18 -3 20 30 1 12 20 10 -7 6 3 -13 -6 -2 10 -15 10 2 2 22 8 7 13 20 11 -20 10 6 4 16 3 11 6 -6 16 20 -20 -7 33 3 1 17 9 2 13 -7 -12 -6 25 -7 19 16 24 3 17 5 14 -7 26 6 -8 18 -13 2 3 10 -1 4 10 17 6 26 7 20 35 9 -4 -4 -18 9 -14 -6 6 14 -3 4 3 15 9 9 2 6 -3 2 -18 12 -10 18 32 13 3 10 18 7 -9 -15 19 6 12 31 -7 0 8 -11 7 -20 1 -10 6 -7 4 1 8 16 10 -3 5 -7 -7 4 -4 -4 -13 -3 4 11 4 3 -3 16 10 -3 7 3 -3 10 30 5 17 -15 17 3 1 -5 13 19 1 7 -8 22 11 -1 7 17 10 -21 18 6 -16 3 25 31 11 12 10 33 5 -21 -3 6 19 -6 17 11 14 6 5 10 6 7 -9 6 -12 -17 10 15 3 10 -1 15 6 4 24 -10 -5 -3 -6 11 1 8 27 13 -4 35 4 31 7 -3 10 11 -5 -20 -15 -4 -1 7 -13 1 3 8 -25 3 14 3 23 13 -20 3 26 -10 -3 5 7 10 3 -3 3 -3 1 15 21 14 -6 7 32 6 14 12 -3 -8 14 20 6 -14 25 7 -2 -14 7 -20 -15 11 14 18 23 -7 21 -3 10 20 4 1 8 -2 13 17 24 -3 -11 4 -3 3 -3 -6 10 1 -16 3 24 2 6 8 -2 10 13 -16 -14 12 -11 1 2 6 -13 -5 1 7 -3 7 10 -3 35 -5 21 10 7 4 6 -3 -4 27 7 -3 3 16 9 14 21 24 3 7 24 21 18 -3 8 -6 31 7 18 25 4 26 25 12 7 32 7 -3 -7 -10 2 -3 11 3 -6 25 9 7 5 18 25 -19 -10 -13 -3 -21 -3 18 9 13 23 22 1 16 3 7 1 20 7 34 -1 10 10 -6 -3 -10 19 7 7 24 7 21 -17 -11 7 15 1 10 15 4 -7 3 -10 21 8 14 -3 10 17 6 -16 -13 -3 1 -8 10 1 28 -7 5 34 13 -9 -3 11 4 -6 10 -6 -3 15 19 5 23 10 -3 -11 4 -5 -10 -1 2 -4 2 2 18 3 12 4 20 -17 -9 3 24 24 -5 17 11 10 6 3 3 14 2 -4 -4 3 19 8 20 -7 14 -4 17 20 24 3 3 15 -3 3 2 2 11 -4 -24 -3 -3 18 -7 -11 -7 14 -1 7 3 -4 27 -2 4 3 11 -3 10 1 14 7 -15 17 21 -14 -14 -10 4 8 30 18 3 14 7 4 -7 3 -18 -11 20 -24 27 5 7 10 -2 7 30 -5 15 10 14 10 -4 -27 17 7 10 9 30 5 -19 13 -17 -14 -3 -14 15 9 11 26 13 6 23 3 22 10 -21 -6 -3 -9 -3 8 -20 20 7 14 5 -15 4 10 -4 -1 -3 7 -3 -10 7 -12 11 14 1 1 31 13 -12 -6 19 0 1 10 -3 -3 3 -6 8 -3 -3 27 16 19 15 0 -14 8 4 6 15 13 5 -9 -4 6 6 9 3 -30 13 2 3 -7 14 -7 -2 42 -12 -10 5 4 25 -3 21 -2 18 -1 -6 10 4 -2 1 -3 -15 10 -5 -7 3 -7 35 11 9 26 -10 9 8 3 3 11 -13 3 10 15 20 16 37 16 4 7 10 -9 4 8 5 -8 14 17 15 7 -8 6 -4 -5 7 2 12 10 27 -3 -18 -3 -3 -2 -27 10 -8 30 8 14 20 -10 11 16 10 13 12 3 3 17 -13 7 -17 -3 21 7 17 -7 18 16 12 -9 -7 3 5 4 21 -14 3 11 4 3 52 21 1 6 6 3 4 25 -2 2 4 3 -3 3 -6 13 13 17 6 -16 -2 30 -17 16 6 14 -9 25 10 28 15 18 -2 6 4 -7 10 21 30 -14 -11 13 18 7 7 -3 -10 6 21 7 11 10 3 3 16 22 17 -10 -12 3 4 5 4 -3 -10 -13 -26 30 14 -2 -12 34 17 10 17 -4 8 13 -18 35 -16 21 7 -5 9 10 -7 -10 6 13 -10 -14 17 6 -4 -4 -3 17 -6 -7 30 -1 8 -9 10 -3 -10 34 7 1 8 11 -11 34 6 -9 -7 24 3 -1 -4 7 3 17 23 4 27 -4 -18 17 4 14 36 17 4 -6 -14 19 8 16 6 -2 6 14 17 13 -7 -3 -11 -10 -7 2 3 11 18 15 -3 2 21 -1 4 10 7 40 14 7 12 5 14 20 34 -35 38 21 -9 -10 -21 13 -4 24 -1 19 9 28 11 -6 -12 11 3 -6 20 -13 -12 -14 29 3 1 10 8 -6 11 15 -18 -4 -10 -17 5 -14 24 24 -27 -3 -3 -4 6 -6 11 3 13 3 33 -13 2 -3 11 4 -11 6 16 4 10 -10 11 3 -4 17 -7 7 0 13 7 19 10 14 16 11 31 7 4 3 -3 -3 14 8 4 18 3 23 19 -18 11 19 -1 -7 4 3 6 11 3 5 -18 -11 3 -4 -7 4 8 -7 4 17 8 10 6 3 14 12 -20 4 25 21 8 3 12 4 -7 -38 -5 -4 4 -8 -14 -3 18 40 -5 4 -3 11 2 14 -3 4 22 3 7 -5 -10 23 -4 3 -6 14 16 3 1 7 -3 7 -3 12 -6 13 -1 11 8 10 31 6 -5 16 7 14 3 -1 19 6 11 3 18 4 13 14 -6 4 -10 12 17 26 20 17 -11 3 -8 11 3 8 -4 -7 3 -1 2 -11 13 8 3 1 -12 6 1 -17 1 4 -10 3 15 3 13 2 13 2 3 -6 10 11 11 35 -14 15 21 6 3 3 4 -12 14 4 4 5 3 16 7 -7 -7 9 22 16 6 -10 21 36 -6 -15 -1 14 17 4 3 17 -4 16 16 20 5 14 -12 6 20 3 3 5 14 -3 0 -13 -5 -6 17 9 17 5 6 -3 14 24 7 -2 20 -1 -13 6 1 14 -5 -13 18 17 -3 -3 -6 7 28 14 4 -2 13 -1 -6 5 -20 7 13 20 0 3 -3 -14 3 5 -14 10 5 -16 6 14 12 -3 10 -9 -10 18 11 2 -7 20 16 -6 23 -3 6 15 7 -6 -24 6 -6 9 17 22 8 12 -7 -4 -3 17 -7 10 6 14 -42 7 28 20 -3 4 23 16 21 26 3 28 -22 15 -3 28 27 3 14 22 11 7 -10 7 3 15 -3 6 26 3 24 12 -19 0 -3 15 7 -4 38 17 11 13 15 -21 25 24 25 1 1 20 23 6 38 -7 7 -5 3 -6 8 35 -24 14 18 21 7 17 10 25 8 -3 8 10 12 1 8 19 -5 3 11 8 -7 -3 -14 21 -7 13 4 17 -3 3 12 -18 14 5 1 16 -9 -8 -10 10 3 8 7 7 -5 17 -18 13 3 17 -6 16 7 -1 -5 6 13 -3 -14 19 -13 -13 -10 -7 -4 11 4 5 11 7 20 2 14 -10 13 -31 31 7 3 -15 -2 7 3 3 -13 -17 16 6 8 4 3 13 -5 -4 7 -27 -21 9 4 -7 3 -10 6 15 0 -26 1 -24 14 11 32 -4 16 -10 2 -2 21 18 8 4 14 -3 11 11 17 -3 -7 11 11 15 10 11 14 6 5 3 -12 -8 6 33 6 13 18 -6 1 17 25 3 38 -5 0 7 -12 -1 7 7 -9 0 -18 24 6 7 -9 4 21 29 7 36 28 -13 -4 2 4 18 8 -11 11 13 11 17 10 8 3 10 -2 11 3 3 -6 9 -6 7 -6 -4 25 24 4 -7 10 21 -3 30 -7 3 -3 13 3 -5 -7 -21 3 3 10 -6 -4 12 3 10 17 11 -18 21 4 -4 13 19 6 5 -5 -6 24 14 -6 -14 -5 -2 -1 7 24 6 -18 3 10 19 25 11 3 28 -7 17 30 4 -7 18 1 -4 20 10 -3 7 7 8 13 19 21 7 -7 7 3 -8 24 16 24 -21 30 24 -3 14 -3 6 10 3 10 3 3 -4 3 18 21 -22 11 -3 14 9 6 18 8 7 -11 -10 3 28 -6 -6 12 3 -3 6 -5 14 14 1 14 4 -21 -31 6 -12 7 15 13 -10 3 8 17 4 -12 39 -9 7 -7 -3 10 3 3 19 -20 7 -2 11 4 11 14 24 -3 3 6 22 22 1 6 19 -26 -3 -7 3 24 22 7 -8 6 2 18 3 13 -6 3 13 -1 7 3 -7 -17 -10 7 2 7 3 4 -5 21 2 -3 -14 3 18 16 3 6 3 18 1 31 -7 -2 -14 19 17 -14 -25 9 23 8 -1 -3 17 4 -11 24 14 -6 24 21 10 6 -4 -17 -20 10 23 -12 20 6 -3 20 -5 3 29 8 7 10 -6 14 3 4 14 21 16 17 7 27 18 -10 -6 11 15 3 -6 -4 41 21 3 5 6 12 6 15 -3 -18 -3 5 9 -3 5 18 2 17 9 20 -4 1 7 15 22 -16 6 1 3 -6 38 -6 -9 21 20 -10 -22 14 -14 -14 -3 6 3 13 -14 2 4 4 6 7 12 -13 -4 -11 -7 9 3 -13 6 11 -13 -10 3 24 7 -12 15 -3 3 10 3 -3 3 3 6 24 -2 6 11 17 7 16 -11 8 -4 -3 22 5 -27 4 17 11 12 3 11 -20 27 26 4 3 -7 11 5 28 19 3 4 -13 6 -4 7 -6 11 7 -5 27 15 6 17 -6 8 -14 3 8 13 -15 8 14 22 6 15 15 -3 7 17 -2 3 16 -7 -6 9 8 0 -10 1 6 7 -4 -3 -3 6 27 7 18 -13 7 -3 -14 22 14 -7 6 4 15 5 18 -6 18 7 10 -2 -3 15 -5 5 -6 3 -6 3 25 8 5 17 14 7 8 -3 1 -22 19 -2 0 -3 3 25 38 -25 13 11 34 1 3 -3 28 -2 7 -9 -14 -12 0 6 9 6 12 15 4 -4 6 20 -7 -6 6 6 31 -7 -3 -6 6 26 3 13 -3 -4 28 17 -8 3 14 -2 10 -4 21 9 14 14 -8 -8 -4 -6 -14 -3 14 -6 17 25 11 14 5 33 -3 -6 14 8 11 11 -6 -7 -4 7 13 30 4 20 15 14 3 6 -3 -13 3 -8 7 24 7 12 20 4 1 19 -16 8 14 7 12 3 6 6 -5 26 10 17 11 13 8 17 -8 1 -8 14 -13 10 19 7 3 12 7 6 -3 1 23 14 7 15 7 -21 6 14 8 16 6 4 -15 4 4 8 4 -6 4 3 9 3 -4 1 18 -13 -4 -28 -4 8 3 7 17 14 15 10 24 6 28 7 13 21 -13 11 -2 38 6 25 -18 -5 12 -17 5 13 -3 11 -6 4 -16 12 10 15 3 4 22 4 10 14 -3 -3 8 13 -6 31 14 -10 9 -4 3 -7 -6 21 13 26 11 -2 4 11 -10 -3 13 5 12 24 7 3 -3 3 26 -14 -24 -22 -7 16 12 13 4 -12 1 9 15 8 23 23 -3 12 14 21 21 6 3 3 22 28 -3 11 10 -2 15 -7 13 13 3 20 6 7 3 -17 2 -8 44 25 -6 2 -12 4 4 -3 12 7 7 14 -3 -28 -25 14 12 13 26 1 -2 1 14 -13 14 -7 4 8 1 3 24 20 4 1 3 11 4 12 24 3 14 15 -18 4 -7 -7 4 5 -14 3 9 24 -10 8 -3 21 -3 -6 20 6 1 -3 -10 32 -3 3 13 18 4 -12 1 22 14 -1 -9 -13 32 17 6 5 -16 -28 7 -6 17 3 -18 7 -23 11 24 -9 -17 6 7 23 14 3 13 5 -20 14 29 9 10 14 2 7 6 21 17 5 19 2 8 21 -3 20 4 -1 4 11 13 13 -5 10 3 3 -10 32 22 21 5 20 12 3 10 10 -6 3 38 6 6 -3 -6 18 1 23 6 -9 8 -10 24 16 -6 -1 12 7 -5 -10 18 13 10 -17 14 32 -2 -3 20 13 -11 17 14 7 -7 8 17 -10 10 3 16 4 7 2 22 -3 4 1 17 3 9 13 2 10 -3 -9 24 -11 -7 14 -24 6 24 3 -2 3 -10 3 15 -7 -3 18 -2 3 -15 7 7 -6 -2 -9 -7 7 18 -3 -3 -17 17 5 -28 3 -3 -10 -6 4 -27 0 19 4 -4 -4 8 3 1 -20 16 5 20 -9 -3 6 14 10 4 11 -9 -3 -1 -15 -3</t>
+  </si>
+  <si>
+    <t>EXN(0.3694495647814673, 34.623580962872595, 9.492304369297294)</t>
+  </si>
+  <si>
+    <t>37 42 44 44 44 31 43 51 33 39 39 48 30 37 37 27 34 37 34 37 30 49 48 29 26 30 33 40 48 57 47 47 41 30 45 34 40 33 34 35 41 48 48 31 42 41 36 27 24 28 44 25 55 29 31 53 20 31 38 48 41 47 37 52 27 30 35 51 33 40 32 35 41 48 27 50 56 48 45 45 34 30 37 42 13 37 40 40 23 31 41 49 59 44 47 56 23 44 33 45 39 59 33 37 37 27 41 47 43 26 51 42 33 54 34 41 33 52 44 40 48 70 24 32 41 44 37 27 38 27 48 33 54 36 49 55 44 30 47 30 35 27 59 37 24 45 30 44 40 46 48 43 40 31 43 34 56 46 40 42 33 60 46 38 49 29 35 24 23 30 42 17 37 23 33 46 45 37 53 37 34 33 36 40 55 25 43 43 16 30 47 35 45 44 40 19 37 42 26 41 37 33 34 43 27 29 59 40 30 37 35 50 30 37 36 35 45 39 38 55 41 50 27 58 34 37 38 43 47 36 23 30 44 37 54 43 37 30 20 35 24 48 58 41 37 48 38 43 44 30 43 47 33 32 30 50 40 37 57 18 42 40 62 41 32 34 16 26 30 37 33 36 43 38 29 37 29 31 31 38 33 49 42 26 52 48 47 40 37 47 24 37 48 34 36 36 68 36 49 49 25 29 45 50 40 57 37 29 51 57 20 45 29 38 29 20 37 55 29 40 37 33 39 29 37 42 40 37 24 37 45 63 41 44 27 60 39 43 27 33 40 55 29 35 38 40 34 35 33 36 16 54 27 31 41 21 23 26 37 46 42 39 39 51 45 20 57 33 45 34 41 37 41 19 44 39 36 22 30 40 40 33 47 41 30 34 41 37 49 30 36 31 33 36 31 39 47 46 37 26 60 37 33 51 44 19 38 41 43 47 52 68 20 40 20 34 35 51 30 32 27 54 40 43 40 65 48 30 38 27 32 34 32 26 39 30 73 33 59 37 61 43 36 27 33 43 40 55 42 28 43 22 45 41 40 37 37 37 52 33 41 38 34 44 31 27 41 53 40 40 47 30 31 33 55 27 36 27 43 26 26 37 44 28 45 17 17 34 48 27 47 59 34 45 37 46 52 16 29 34 47 22 42 35 38 41 29 25 40 45 13 43 45 41 29 36 26 41 37 31 38 20 37 36 17 23 35 40 35 15 33 33 38 37 26 64 25 43 36 43 34 35 44 39 37 41 37 23 48 29 33 44 39 50 37 37 39 45 39 31 51 24 45 40 43 51 52 34 37 51 28 41 37 38 31 13 65 29 23 32 27 35 45 47 43 39 32 46 41 48 40 27 23 40 31 32 41 48 32 32 41 37 49 37 40 31 43 43 27 35 44 33 20 34 39 38 57 37 29 33 27 34 22 37 43 43 53 51 57 53 49 45 41 44 27 45 33 23 40 24 48 35 31 54 46 30 60 30 43 38 41 33 47 32 51 27 10 43 50 35 26 49 42 23 37 36 37 37 52 54 45 44 37 37 58 23 29 15 52 48 53 58 58 37 39 35 44 48 27 45 37 37 37 57 44 39 32 31 33 27 27 41 36 41 36 51 40 24 47 33 33 43 65 33 33 41 46 32 41 51 53 35 16 44 31 52 30 30 51 23 48 29 41 48 72 30 30 46 23 43 41 37 16 54 35 57 55 44 59 79 40 33 44 35 48 29 36 46 29 36 51 37 33 34 21 43 43 19 41 29 37 34 58 41 37 30 51 44 25 27 33 26 16 42 26 44 40 29 40 37 38 44 30 24 29 43 32 34 31 26 21 45 20 39 24 26 47 52 18 63 49 45 48 40 37 45 42 36 27 47 30 34 32 60 28 68 32 30 33 32 51 47 37 41 37 31 50 38 40 39 51 40 35 54 38 38 37 26 34 38 42 40 34 32 42 34 46 20 44 51 40 55 40 54 47 31 36 36 34 44 30 39 31 31 58 53 44 33 43 49 38 37 22 37 34 51 37 40 55 25 25 41 38 44 29 35 21 45 38 26 16 27 24 48 47 58 34 41 28 57 54 43 33 55 43 37 20 30 50 37 37 40 49 43 38 43 49 46 52 30 26 41 30 26 33 57 42 37 47 23 38 42 47 41 41 48 48 46 38 45 34 41 34 33 39 43 28 51 54 43 43 39 29 56 27 41 54 43 47 37 42 33 62 58 41 48 25 44 27 35 36 32 33 30 33 48 44 22 31 41 50 37 46 34 41 57 40 34 44 37 26 30 36 15 36 27 34 49 33 37 32 47 55 30 23 23 35 44 55 43 38 37 47 19 63 59 35 45 54 47 45 40 38 37 43 50 47 42 39 43 47 43 54 37 23 35 40 35 23 41 28 57 49 37 61 41 24 41 44 41 23 45 40 28 20 55 37 10 42 44 41 40 26 36 24 36 36 49 39 44 55 42 34 47 40 38 26 51 58 23 30 31 27 41 27 40 31 49 47 38 48 54 35 30 46 55 49 33 40 37 49 26 27 38 42 34 43 50 43 33 49 36 51 16 32 47 46 43 37 37 39 60 40 32 39 34 48 42 40 20 25 63 23 20 31 54 30 33 44 41 30 40 5 33 47 30 49 40 39 47 40 29 54 45 30 47 26 36 32 35 41 23 35 19 39 39 44 55 33 23 27 31 43 44 31 33 32 35 29 37 42 54 42 54 26 29 33 39 37 19 25 34 52 37 47 37 39 41 40 26 33 33 30 24 36 40 40 41 37 33 23 38 44 51 40 46 44 26 23 29 30 41 42 48 47 43 48 53 58 33 47 37 51 37 40 34 47 32 32 40 29 40 40 40 39 40 30 23 21 29 25 57 42 30 31 31 36 38 58 23 51 39 30 40 33 34 30 40 31 45 40 34 47 29 37 51 37 26 42 35 30 53 30 23 48 41 37 30 45 37 52 36 36 15 38 34 30 33 45 39 23 25 34 44 31 34 30 29 48 40 34 20 37 27 30 30 48 21 39 43 43 29 26 38 37 32 37 33 51 20 36 39 27 40 41 45 52 43 32 48 42 44 49 51 40 34 23 44 34 29 35 40 40 40 47 33 32 30 44 61 56 43 37 35 32 36 33 46 37 40 34 30 48 36 37 39 35 47 38 53 35 26 40 36 53 41 42 29 27 26 38 25 22 34 23 46 20 32 43 36 53 40 20 17 40 53 35 41 34 45 40 27 47 44 30 40 43 44 35 44 30 33 41 30 31 35 32 59 50 48 44 48 41 35 37 30 34 33 47 37 36 32 36 31 52 26 63 50 47 19 48 54 34 25 30 37 36 38 29 26 49 40 37 36 23 57 23 54 20 47 35 42 27 41 34 29 30 43 35 53 35 49 40 48 37 44 53 36 30 59 44 58 45 30 41 48 60 37 26 43 37 39 44 22 44 41 34 26 40 26 46 46 36 31 40 47 39 20 47 27 44 29 43 20 38 36 29 41 41 43 29 30 19 35 25 32 48 26 58 38 30 34 37 38 40 16 58 48 28 34 30 23 40 33 33 57 35 33 47 34 30 35 17 40 38 42 59 60 49 38 37 29 22 44 50 44 27 45 51 41 45 51 37 41 32 32 41 53 47 47 44 41 23 41 48 37 21 33 37 42 39 46 36 34 17 38 45 27 30 29 43 44 51 51 23 44 55 21 46 48 56 44 27 38 39 54 37 41 34 41 51 47 31 49 40 50 42 54 49 40 37 48 35 37 32 40 20 40 34 38 44 33 33 53 34 20 37 33 37 47 30 31 30 24 22 36 26 22 48 42 33 48 41 41 63 27 42 39 45 37 62 38 48 22 45 55 46 37 44 43 36 23 32 52 50 37 49 46 30 20 25 46 28 40 41 54 49 50 48 35 23 26 41 30 43 38 26 50 26 37 55 29 45 40 52 34 26 44 39 62 51 34 30 30 23 20 42 33 42 29 43 29 31 44 40 45 33 29 43 67 26 37 30 37 44 42 23 45 41 23 41 55 37 33 34 34 45 31 25 42 49 55 29 37 37 32 30 45 56 27 43 38 46 30 31 23 47 33 35 24 43 47 44 38 37 51 37 39 24 23 48 29 47 24 38 56 27 40 41 52 44 48 45 37 53 40 17 46 44 48 47 29 41 37 51 44 24 39 20 56 30 43 13 37 33 42 35 33 40 45 45 61 21 43 41 34 52 50 23 39 41 56 44 22 34 40 38 40 36 48 37 48 39 30 30 37 38 43 30 46 40 37 25 40 34 67 36 60 30 34 59 52 45 35 39 40 48 20 27 44 16 32 37 37 44 38 36 23 48 37 27 52 54 23 43 33 30 62 48 48 39 48 47 22 35 34 55 39 37 39 31 46 48 24 45 31 23 44 55 43 31 30 23 41 33 42 29 37 43 29 30 50 45 22 29 41 48 37 23 31 37 44 27 41 33 31 37 32 37 41 41 37 37 35 34 23 35 36 22 19 50 44 46 35 38 27 37 37 20 43 37 50 56 31 40 16 37 73 52 35 31 56 34 26 40 37 35 37 45 45 21 41 47 41 31 46 25 56 48 29 39 40 51 21 19 37 43 47 45 37 60 32 43 50 30 37 40 45 27 38 41 36 30 48 54 58 28 37 54 51 23 39 28 13 34 27 47 57 30 27 32 41 37 34 34 34 56 27 43 38 50 38 19 47 50 27 43 34 52 33 16 27 36 32 45 41 45 35 24 37 51 54 44 23 44 18 41 33 37 39 40 26 27 48 22 32 38 60 41 37 49 40 29 37 40 34 33 36 35 34 40 40 39 36 40 34 27 41 27 35 43 18 57 34 51 33 30 37 31 29 29 49 40 43 36 48 29 27 37 38 52 42 44 33 53 25 48 34 35 26 51 31 34 41 22 30 16 31 37 26 45 37 48 48 36 73 34 30 39 36 43 34 33 34 44 60 55 23 37 30 40 25 43 27 22 45 29 30 33 31 41 51 37 32 23 59 45 27 37 43 33 47 30 40 43 47 20 54 35 41 34 55 26 45 40 57 47 44 39 54 48 32 46 34 32 45 50 30 41 50 37 40 26 47 31 19 34 52 22 40 38 52 34 40 43 31 50 44 47 27 42 51 51 44 29 43 54 49 31 56 27 33 37 29 24 24 33 51 44 41 23 30 35 34 38 37 46 32 28 37 37 37 55 26 43 30 44 50 45 40 33 41 55 59 29 33 46 45 42 37 41 38 28 41 33 35 23 22 37 48 40 46 47 38 59 43 35 36 37 37 36 31 31 52 33 27 51 31 36 37 30 30 47 28 35 58 46 57 56 46 37 31 44 50 15 38 38 39 30 31 24 59 33 45 26 31 48 43 27 48 26 45 40 47 22 41 26 29 27 39 21 43 30 37 45 47 27 17 50 29 47 31 39 34 34 22 43 23 33 54 31 30 52 47 33 20 33 37 42 16 39 23 49 40 34 29 43 30 43 55 47 26 43 23 41 39 65 49 40 33 34 35 41 46 52 47 32 31 36 34 13 33 27 23 41 36 39 38 61 19 26 49 44 60 55 34 16 24 34 45 40 47 55 48 37 35 20 54 44 29 37 41 42 27 59 39 48 55 40 44 39 22 36 37 42 28 36 30 29 33 30 33 41 50 41 33 44 37 41 22 24 45 31 45 48 26 37 31 34 25 26 58 61 31 30 37 33 36 43 43 28 52 49 45 33 40 55 29 57 40 36 31 42 27 48 47 27 47 26 36 24 43 33 50 36 51 25 30 46 36 10 34 25 22 29 41 51 21 21 57 33 33 40 44 37 48 41 27 39 43 34 41 67 22 31 30 43 30 41 52 58 36 34 39 16 44 37 44 39 32 40 37 71 36 37 43 35 16 17 43 40 55 43 52 45 45 47 66 46 37 29 43 58 42 50 31 48 48 54 42 49 23 29 37 23 40 27 10 41 36 29 49 39 27 27 42 22 29 40 22 38 31 44 33 37 35 30 31 46 50 26 25 30 37 37 41 26 23 26 43 35 40 44 22 37 43 44 40 40 46 37 33 59 47 34 44 40 60 35 51 38 27 46 48 45 26 31 37 23 48 37 26 26 37 32 34 47 48 45 37 45 26 36 40 13 30 32 34 6 55 43 44 29 37 49 34 44 29 44 32 14 34 33 30 33 40 35 34 37 23 46 36 57 31 26 45 55 44 44 17 40 34 22 29 33 29 39 30 48 53 37 40 33 32 23 66 24 49 26 35 35 33 45 43 33 31 33 53 33 26 34 47 37 44 28 32 29 42 33 39 40 52 20 45 40 54 31 45 40 38 30 34 51 37 40 44 35 26 26 25 42 40 39 53 42 26 30 30 20 29 36 63 44 20 17 50 46 30 36 41 44 31 46 37 37 19 44 40 46 25 58 33 34 37 50 51 42 30 45 29 47 54 17 40 40 45 32 41 54 42 33 37 42 26 20 29 23 46 52 33 25 37 43 40 20 48 59 42 55 47 37 28 41 48 27 30 38 33 29 32 26 50 36 37 36 23 43 40 37 54 48 43 36 33 35 30 37 33 42 33 30 40 40 45 34 33 41 29 37 38 44 33 35 40 44 20 42 44 47 22 47 34 20 25 23 31 54 35 47 29 52 32 26 49 40 52 24 28 43 33 45 41 61 31 35 45 31 29 42 28 43 56 36 31 44 57 64 50 35 39 42 27 44 34 46 13 31 37 45 34 37 44 16 61 22 44 40 43 64 44 41 25 41 42 26 51 20 38 36 33 22 42 34 41 26 23 40 59 53 45 35 41 33 31 33 29 27 35 42 41 49 29 21 47 41 34 44 43 39 40 22 30 43 22 40 27 27 42 29 22 35 25 31 31 36 42 36 47 29 29 31 17 34 37 45 28 24 37 30 31 27 44 30 34 43 43 48 33 17 65 34 32 39 43 49 34 40 13 27 33 40 37 43 37 27 33 69 35 46 37 50 40 43 23 43 38 43 36 41 40 50 16 30 43 22 44 36 48 32 37 34 23 37 45 35 59 23 43 19 18 40 54 30 37 23 33 39 26 27 37 47 44 27 49 12 27 30 30 51 53 47 58 48 40 27 27 54 38 41 62 36 34 43 49 42 40 30 36 32 47 26 48 49 53 36 40 30 37 36 29 45 27 34 9 59 62 61 44 31 21 48 48 32 26 41 47 55 52 22 31 17 41 36 25 27 36 33 22 45 51 43 32 40 41 39 45 30 24 47 28 37 50 49 45 37 49 23 28 40 51 33 34 38 28 19 30 51 33 19 36 39 57 37 41 38 39 30 33 26 48 37 37 41 50 33 42 35 29 27 51 48 45 36 29 34 48 63 17 33 52 37 37 50 16 23 55 58 26 37 40 47 41 37 30 45 48 12 23 47 43 50 51 52 32 50 41 33 64 43 43 49 43 49 45 59 42 25 39 39 47 31 39 33 37 41 42 31 37 41 42 27 50 36 30 25 30 47 43 31 41 39 48 28 43 54 44 39 51 54 33 39 53 37 42 45 47 47 29 26 23 36 49 34 31 40 27 42 37 27 36 17 44 35 47 37 40 45 37 31 46 19 48 51 44 23 51 55 35 34 49 49 52 38 45 44 30 37 35 41 38 25 19 33 21 34 30 38 31 40 29 36 29 48 38 57 41 43 30 41 44 30 29 33 34 38 43 47 43 47 27 45 27 39 38 41 39 30 24 36 33 46 35 33 44 52 37 49 30 41 55 30 29 41 45 31 20 39 51 30 40 70 57 33 44 33 24 56 43 47 37 29 46 51 29 29 21 48 38 60 49 29 38 43 54 16 40 41 27 55 45 23 41 34 33 37 16 29 31 53 44 26 15 57 27 61 43 38 30 57 27 36 47 27 42 30 43 58 49 41 48 34 31 28 50 47 51 59 35 37 42 43 40 53 34 41 44 36 40 34 43 48 23 43 38 18 32 52 39 66 37 48 43 40 27 33 37 39 35 58 19 33 45 37 30 40 44 12 13 31 45 47 23 31 48 26 37 17 40 47 39 42 41 37 36 19 47 30 30 38 41 39 15 33 34 38 44 42 43 52 51 41 51 65 41 26 45 43 34 40 44 19 27 32 30 39 45 30 45 37 27 45 38 48 37 34 48 31 40 32 28 43 37 30 38 37 37 37 41 47 29 59 17 22 53 50 43 54 34 61 59 47 34 46 30 43 16 33 40 50 30 30 29 48 17 29 26 19 55 30 26 41 43 26 34 29 51 46 28 51 47 45 50 33 30 31 33 28 24 43 47 23 31 30 33 62 55 41 33 28 48 34 37 38 51 42 25 24 51 35 27 43 30 48 34 47 37 54 53 40 43 45 51 39 33 40 25 29 51 38 31 48 37 37 54 33 49 52 24 43 27 44 32 35 25 34 19 34 31 36 42 57 41 51 34 43 47 36 24 26 38 45 27 33 40 37 22 47 31 59 43 42 24 61 30 47 59 19 33 35 23 30 66 40 20 23 38 45 22 36 38 23 29 42 51 55 46 34 26 35 45 34 44 27 16 51 40 36 29 52 34 30 27 36 59 22 25 33 17 26 41 38 44 45 46 27 46 30 33 41 41 44 37 33 27 27 48 35 24 37 42 41 21 26 43 44 26 50 49 57 37 26 29 43 28 42 33 56 26 20 41 41 47 20 36 47 41 34 23 39 28 38 27 28 61 40 44 58 40 43 47 9 22 46 34 25 42 27 40 19 30 45 36 25 44 39 53 51 48 30 57 38 24 47 43 35 41 49 31 38 41 29 36 44 54 42 48 42 39 33 35 34 41 17 47 37 36 24 37 33 41 37 33 58 36 39 37 35 40 55 42 27 33 45 49 48 42 26 32 41 30 24 33 29 29 25 39 36 37 28 53 58 28 43 22 56 25 32 29 53 33 34 40 43 30 33 51 51 45 40 26 30 34 49 28 29 34 39 37 23 26 49 43 39 36 43 59 53 39 33 33 38 37 37 19 49 32 30 30 45 23 23 31 40 29 29 37 47 45 49 40 37 38 43 48 36 62 22 20 51 50 51 62 41 48 29 31 16 32 49 39 47 54 15 33 40 40 41 29 38 34 35 32 40 30 43 27 37 43 27 37 47 51 53 24 23 26 27 27 37 38 37 40 31 44 47 43 22 47 37 37 39 44 17 54 33 29 44 41 47 27 41 29 26 60 49 63 53 49 30 30 27 47 34 46 43 24 25 17 33 20 43 30 16 35 34 38 34 46 40 30 34 33 45 44 42 31 31 43 43 51 33 26 27 36 41 57 16 27 33 36 36 65 43 26 42 49 33 40 36 50 33 37 31 29 31 42 44 29 45 40 24 34 26 22 41 27 75 41 33 38 37 37 36 36 65 33 34 47 45 46 55 47 30 62 41 30 42 39 42 41 48 55 29 49 48 32 61 13 52 37 47 38 44 30 20 41 50 33 23 51 55 47 40 42 43 41 46 32 38 28 30 45 43 31 31 43 34 51 50 24 43 37 37 32 16 41 49 49 37 40 53 52 49 57 36 26 48 51 28 19 39 36 51 40 36 28 40 52 30 44 24 60 31 40 54 20 39 48 33 32 47 26 27 38 30 48 34 62 31 36 40 32 23 51 45 25 57 40 27 40 31 49 22 39 48 40 34 35 40 37 23 30 33 29 47 34 37 52 34 37 48 30 37 54 43 38 60 55 51 43 46 43 29 29 45 28 46 59 34 38 30 20 37 51 24 26 33 39 51 47 20 58 44 36 29 40 33 55 30 45 40 34 32 65 43 26 53 44 20 28 40 39 34 43 24 40 30 53 31 30 44 30 47 33 46 60 47 44 53 44 41 41 38 22 34 30 42 31 30 33 33 23 37 51 33 37 29 34 46 53 41 44 21 43 57 30 55 29 62 29 32 40 65 47 26 65 24 51 34 47 30 41 17 47 43 23 38 38 16 33 36 59 37 51 36 41 26 40 42 25 36 43 45 43 35 43 34 36 34 44 39 51 21 43 27 37 24 45 35 16 29 40 33 51 39 30 29 48 47 40 33 37 45 46 40 50 41 43 48 16 37 34 41 57 51 36 24 46 29 31 23 33 41 37 43 20 33 39 33 23 40 40 36 26 34 36 35 36 30 29 49 30 40 39 19 41 48 33 22 48 40 43 37 48 22 43 45 30 37 29 30 46 32 30 29 30 40 52 40 33 20 44 22 31 30 27 13 37 35 30 24 41 42 18 38 33 45 37 48 27 30 38 44 43 36 23 28 19 42 37 22 38 41 19 13 53 24 66 27 26 53 17 47 40 40 25 47 31 35 36 40 40 53 42 41 37 47 15 43 35 43 40 38 27 31 29 40 34 47 58 36 50 58 35 43 34 52 43 41 41 59 13 9 24 34 32 47 52 46 22 57 29 45 44 33 51 45 42 50 54 42 36 37 50 27 40 36 46 45 15 22 16 22 27 29 43 53 37 9 53 30 54 22 27 48 39 43 53 37 37 39 37 41 38 32 53 34 36 59 35 31 13 45 46 44 38 55 53 39 25 31 24 40 53 39 57 51 30 43 48 51 42 31 37 29 41 29 42 53 30 21 31 19 33 47 43 38 14 19 53 29 61 41 40 47 35 52 23 53 28 44 26 19 29 49 41 33 36 37 39 33 39 48 17 37 37 45 40 40 32 38 43 20 16 23 21 18 51 36 32 44 17 43 31 23 30 41 30 33 34 44 38 20 28 48 41 43 46 41 37 47 31 51 39 36 24 40 44 39 39 22 31 35 46 37 43 36 36 37 57 44 13 30 29 65 42 47 30 45 27 37 51 37 38 46 42 29 51 55 30 17 20 34 31 19 31 3 50 41 41 47 39 55 33 36 32 38 52 39 42 55 32 30 29 42 43 26 54 40 27 36 51 41 37 51 46 37 39 50 48 44 32 49 28 30 37 28 29 25 16 30 48 29 50 37 44 30 33 34 43 24 54 18 23 29 47 42 38 39 39 36 52 54 23 36 55 43 40 37 16 44 33 52 36 30 48 16 33 41 27 33 48 38 51 51 44 23 34 17 36 30 37 44 17 65 45 34 20 48 43 43 41 50 45 36 53 43 34 22 40 51 37 19 40 52 52 43 30 36 22 40 42 31 29 54 30 50 47 41 20 50 49 23 35 32 44 37 31 41 35 44 34 37 58 42 41 31 40 30 43 44 57 43 22 34 43 30 40 40 36 31 31 33 61 36 40 44 40 48 48 27 51 30 42 58 51 31 47 50 26 49 30 37 32 34 50 41 49 27 37 37 39 36 23 40 37 36 53 22 30 26 48 37 40 47 41 36 60 29 40 35 39 39 29 33 44 48 51 33 27 43 40 33 23 40 32 41 30 65 41 53 51 31 51 42 43 25 44 30 26 29 30 45 51 55 33 38 31 37 48 26 27 46 45 47 25 23 37 28 55 16 47 56 39 38 30 40 46 33 40 40 37 33 50 29 22 30 40 41 44 17 55 27 29 36 39 41 37 33 39 30 40 52 44 26 30 38 15 37 25 40 35 22 31 59 27 39 33 37 38 37 37 23 51 51 42 44 43 49 31 27 54 34 42 53 33 40 64 27 27 39 27 58 56 37 29 34 50 27 51 53 30 35 40 31 18 37 37 40 31 42 35 39 12 33 37 39 51 44 41 43 21 12 43 35 37 40 38 23 49 39 9 18 52 49 44 33 39 36 31 41 43 30 33 31 33 32 21 52 50 39 55 36 38 31 29 50 41 33 64 38 44 33 40 48 45 60 36 31 37 40 46 31 32 42 55 46 48 45 51 35 49 51 36 47 27 50 27 43 15 55 21 46 19 41 47 46 40 38 47 33 25 21 35 49 43 16 22 47 27 33 45 48 42 36 32 43 23 40 44 20 58 53 35 44 27 37 50 30 36 32 37 26 43 33 44 47 30 31 42 27 37 43 36 30 54 30 41 43 58 30 45 36 40 34 39 31 26 25 13 25 32 41 29 10 40 16 27 34 44 39 49 36 18 16 43 43 55 48 35 44 41 36 46 42 43 40 45 43 33 35 45 40 49 42 27 39 32 54 34 45 32 27 40 41 51 44 34 58 37 58 49 31 23 52 41 41 43 40 60 30 29 36 34 51 44 52 40 44 33 37 30 41 34 51 41 32 51 38 51 32 16 36 37 33 26 37 40 33 37 55 48 44 41 19 34 44 26 37 31 55 25 31 20 37 30 46 39 37 36 29 41 42 49 39 29 58 27 17 37 47 43 49 45 30 30 41 27 40 34 37 41 23 33 37 52 39 36 50 38 31 45 40 39 45 33 37 38 43 16 29 48 38 29 39 27 20 37 44 26 58 27 34 42 49 29 56 31 36 33 30 45 29 38 59 29 32 19 54 30 37 41 40 44 48 39 33 56 37 23 25 39 29 44 34 26 33 52 34 62 24 37 48 30 24 44 55 30 46 23 37 48 51 24 31 31 45 45 44 29 40 23 47 39 37 47 27 42 44 26 29 36 54 45 62 37 47 26 24 37 41 48 35 38 24 37 33 40 57 37 37 34 40 49 29 58 25 52 50 41 56 51 37 35 55 41 23 23 29 42 51 59 44 41 46 40 47 33 40 47 26 45 37 48 37 51 29 70 59 42 50 38 27 33 25 37 30 29 38 38 26 37 59 20 42 41 44 47 41 60 40 26 38 27 34 40 33 51 37 38 46 33 32 29 29 33 34 51 37 24 59 45 30 34 40 48 22 23 41 44 47 32 45 37 29 47 49 38 38 54 30 34 38 42 23 30 50 39 46 51 40 32 18 53 40 49 37 38 32 30 30 39 34 15 39 53 54 41 34 37 27 47 39 30 23 39 33 19 48 37 34 52 40 43 42 28 38 33 30 27 39 33 51 52 45 40 37 32 33 34 56 58 40 36 45 55 37 46 30 51 40 28 43 31 23 30 30 34 20 36 37 36 39 41 36 61 40 54 42 54 34 44 52 37 29 26 38 42 36 24 39 27 28 50 45 40 34 37 62 20 38 53 46 43 43 47 53 45 44 36 58 35 34 19 36 37 55 30 42 27 43 30 50 46 40 44 66 30 59 27 47 39 47 35 41 51 39 52 39 45 22 30 37 25 36 51 44 23 59 55 33 40 38 43 56 36 40 16 45 54 53 50 23 33 30 41 23 42 17 10 48 12 48 36 55 50 49 34 45 51 36 21 19 26 43 49 42 22 51 19 39 36 52 33 37 28 39 30 29 27 42 41 43 23 50 44 48 43 27 37 29 33 45 43 55 40 37 51 29 38 30 22 51 45 41 46 25 31 31 47 28 36 44 24 35 39 37 32 33 33 36 30 47 44 44 24 45 39 19 40 44 20 43 47 37 17 52 40 40 52 43 39 34 40 51 27 38 38 38 36 30 60 36 37 40 38 46 38 39 65 43 48 55 34 47 33 23 45 30 34 41 30 42 18 23 26 30 26 33 38 48 34 36 41 47 34 43 23 29 43 47 45 30 45 28 39 56 22 40 32 41 50 49 41 41 48 32 47 37 33 43 44 31 23 49 30 41 40 24 37 22 43 26 23 29 20 42 48 27 43 46 29 37 32 45 39 47 37 33 30 43 31 50 40 44 26 41 20 33 41 39 43 48 20 30 36 24 26 30 45 41 34 41 43 46 17 40 17 62 35 35 33 51 27 41 26 33 54 28 40 51 36 35 33 22 55 31 15 41 36 25 34 59 29 50 35 42 41 56 30 41 45 46 40 55 48 41 30 44 43 57 47 42 47 40 22 33 31 53 54 42 53 54 39 38 48 39 27 47 56 46 45 33 41 45 37 40 47 41 50 40 37 23 30 31 44 24 47 30 23 43 50 45 30 48 40 45 47 47 6 50 37 48 42 26 30 46 27 46 37 50 45 19 33 67 37 33 24 37 75 51 44 53 50 46 46 41 37 37 51 33 32 33 36 45 57 25 39 39 52 30 43 45 38 30 40 29 51 37 47 48 49 41 29 36 16 37 22 31 41 34 39 47 36 22 40 30 30 45 45 30 22 40 47 37 45 43 36 45 26 30 41 53 37 35 40 45 30 26 43 30 47 37 46 37 32 35 30 31 45 31 32 34 36 16 52 26 38 34 26 34 38 66 55 36 27 33 36 50 23 30 44 46 23 48 47 25 41 42 32 39 34 20 42 6 43 33 24 19 63 37 31 36 50 34 46 47 27 40 38 50 36 40 45 29 44 26 35 24 39 44 43 50 43 56 31 51 54 49 31 32 20 37 40 45 23 27 38 40 39 24 57 37 48 43 53 29 37 54 14 18 32 26 15 39 58 48 29 30 27 42 37 38 42 29 45 43 47 51 33 30 24 51 35 30 52 23 30 40 40 17 30 61 27 31 31 26 30 50 37 33 51 38 44 26 30 50 31 23 39 33 46 44 23 32 28 59 43 43 29 40 35 44 27 42 49 26 51 52 44 33 43 25 29 29 38 33 43 48 37 30 21 50 54 29 47 40 43 34 37 37 26 49 33 51 39 26 50 49 27 26 48 37 43 30 43 37 30 27 40 23 50 33 47 37 20 33 31 48 30 31 52 52 48 51 47 38 44 29 13 27 30 23 30 22 43 35 22 48 55 37 20 51 34 35 37 41 46 26 57 45 32 50 28 44 30 46 51 40 35 53 42 40 28 30 27 30 41 45 50 37 31 45 40 51 48 46 37 26 41 41 40 41 27 30 37 33 52 34 36 51 41 47 37 43 25 17 37 48 30 34 22 35 50 23 23 26 64 48 37 44 43 13 35 35 51 42 38 23 16 47 34 39 33 24 18 45 48 42 52 40 34 50 43 45 52 13 38 26 43 36 39 50 37 50 44 36 35 10 23 19 30 26 28 50 47 31 39 26 40 40 31 52 36 55 19 35 45 50 37 49 42 49 30 44 49 35 55 26 22 37 40 13 37 45 44 51 44 37 39 33 30 43 33 65 48 40 30 45 29 33 48 21 27 40 37 39 36 58 43 45 25 52 36 61 23 30 54 40 30 35 36 39 37 24 38 31 37 47 23 35 32 38 49 38 38 38 48 30 47 37 46 27 50 48 47 48 37 38 33 45 55 28 49 37 30 46 46 16 22 35 34 46 39 65 36 40 41 54 48 36 30 36 23 57 43 34 51 46 23 29 35 37 50 51 55 33 32 45 19 32 43 34 36 49 36 32 40 39 52 13 37 33 55 41 52 29 27 40 48 54 33 30 35 37 33 53 29 45 48 29 44 59 57 37 44 33 25 53 45 45 33 25 48 25 37 48 36 20 27 16 37 40 43 37 50 47 36 23 35 54 48 42 30 38 50 51 47 22 31 37 13 30 22 31 37 16 22 29 51 34 22 35 47 20 30 42 41 52 21 36 24 49 51 42 58 35 25 38 35 57 38 41 19 28 42 48 30 57 44 37 30 24 24 46 33 31 39 33 48 37 49 36 52 40 57 44 16 42 35 45 36 44 44 40 55 13 42 48 45 39 35 30 36 27 48 22 56 48 50 54 47 54 66 36 27 48 33 31 23 37 36 48 37 40 38 30 16 42 23 30 32 40 36 27 36 50 33 25 29 42 46 36 43 21 46 34 33 30 51 41 43 21 46 38 33 47 31 37 22 34 33 36 46 32 34 41 17 47 36 38 52 26 37 49 37 33 19 49 25 60 23 33 35 38 52 32 50 23 34 34 33 37 31 45 23 55 48 39 46 51 45 43 39 45 16 51 50 26 52 30 46 67 43 37 36 43 51 45 45 40 51 41 20 37 41 34 42 60 42 24 34 28 29 37 45 48 19 57 36 26 37 32 33 25 41 31 44 22 30 54 46 47 24 36 47 33 43 31 31 40 48 30 66 19 51 41 36 51 37 41 54 23 43 54 49 27 30 47 30 37 34 60 33 41 19 27 51 49 56 44 39 48 21 55 33 37 17 45 27 33 51 23 39 45 39 49 30 35 55 58 51 51 28 49 19 39 44 49 42 39 37 19 41 38 37 33 42 46 21 41 37 33 48 33 58 36 26 33 38 32 33 61 56 44 43 60 34 44 16 32 40 33 46 43 37 59 44 30 26 34 35 30 36 34 51 69 56 40 37 47 40 40 52 36 18 30 45 41 24 47 50 35 48 27 52 31 54 44 19 19 30 14 36 40 30 38 34 36 44 19 48 30 22 44 41 51 35 41 27 39 47 49 41 39 44 41 27 50 27 65 36 48 37 43 26 33 36 51 46 30 13 37 33 45 45 27 34 13 37 33 36 25 29 36 40 23 49 37 34 21 19 33 41 26 23 41 38 43 33 22 47 32 46 42 44 55 40 36 38 27 42 27 44 37 34 68 41 40 33 27 29 52 40 55 37 47 34 62 44 55 27 49 23 52 43 33 40 16 20 41 43 35 49 26 51 46 40 37 44 42 26 35 26 59 58 40 51 43 34 44 48 53 31 25 45 42 65 36 29 57 35 30 36 37 42 47 23 51 44 30 33 41 43 38 57 35 31 30 38 42 44 37 47 41 34 51 30 51 36 52 33 33 39 51 36 51 35 47 41 35 41 56 37 55 23 36 25 40 35 47 38 37 17 22 44 36 37 40 45 48 30 52 20 45 45 30 50 46 19 26 29 31 37 40 37 33 43 26 35 43 52 26 38 37 51 45 29 36 33 44 37 35 19 38 41 40 41 34 47 30 32 22 26 37 37 30 30 62 40 34 46 23 40 51 38 48 55 43 38 26 45 37 30 42 27 36 39 50 42 31 43 26 47 45 17 39 38 30 46 28 36 52 33 34 42 32 37 19 47 34 46 43 23 40 36 20 37 31 51 37 38 37 48 37 41 41 31 46 40 24 31 36 37 71 43 26 34 33 23 36 22 33 32 42 32 24 26 31 37 54 41 33 44 45 48 31 32 35 33 46 32 38 31 48 22 44 52 47 43 44 43 48 60 27 46 26 38 13 26 39 19 34 30 54 47 36 36 34 54 50 27 33 34 49 46 38 54 58 44 27 45 34 40 46 20 46 41 33 37 29 45 53 44 41 25 46 40 43 47 37 44 24 37 45 43 40 19 58 48 34 36 33 32 37 52 33 56 24 29 38 44 13 56 35 23 50 38 30 39 32 26 62 34 29 44 39 31 47 37 16 48 51 32 46 48 16 38 52 19 53 50 36 33 29 29 39 48 46 37 35 46 34 37 35 40 33 30 48 33 36 11 38 36 44 37 33 49 49 50 44 30 33 37 50 37 24 45 49 28 34 37 27 39 21 30 52 43 37 41 45 43 41 37 49 41 41 13 48 38 45 31 33 23 30 27 36 12 36 35 59 31 37 50 42 61 29 55 31 40 55 48 23 37 26 26 43 24 32 63 35 50 40 51 38 41 37 44 33 41 70 44 58 44 33 31 62 17 43 54 39 47 22 61 38 51 33 47 22 43 23 26 53 58 45 19 33 33 49 40 51 35 32 45 47 33 32 43 44 36 59 51 33 22 23 43 31 37 35 41 33 34 46 41 44 48 48 34 43 48 28 54 34 48 51 35 28 34 39 26 19 35 28 30 23 55 55 37 30 32 30 55 38 46 33 37 44 45 37 38 59 29 45 40 30 47 52 29 24 46 32 52 36 36 27 50 20 32 29 33 36 34 31 29 27 55 57 25 50 55 55 29 47 22 61 36 12 45 44 61 33 45 43 30 37 34 27 30 51 33 52 47 30 23 34 26 37 33 50 37 30 58 45 36 35 50 33 23 39 36 34 37 45 29 34 37 29 13 43 44 37 33 30 27 59 27 31 58 39 33 43 54 49 34 43 27 33 34 33 34 61 24 44 26 29 36 43 39 39 30 39 33 31 29 33 39 33 30 25 44 53 53 30 41 32 48 29 36 23 48 30 33 23 21 24 36 47 34 27 49 48 41 29 37 51 38 34 44 26 37 47 49 35 37 38 37 45 36 39 28 33 46 36 40 30 44 43 30 30 32 49 29 43 50 50 57 43 45 36 36 29 51 34 46 36 36 45 35 34 34 27 26 52 29 64 52 35 29 47 51 37 40 32 53 24 60 37 31 38 35 37 35 34 47 33 37 38 41 40 52 49 31 37 16 39 40 27 31 31 33 34 28 58 50 38 30 24 23 34 41 38 33 45 36 23 48 30 41 29 27 50 30 27 30 45 41 36 48 30 54 27 45 39 36 47 36 25 37 41 43 46 49 48 47 31 51 42 33 34 43 31 34 30 41 42 31 19 55 48 40 48 53 48 33 39 16 28 22 47 35 27 31 52 33 40 23 40 27 33 43 27 40 24 51 40 39 50 39 43 57 42 40 17 45 33 30 33 29 34 34 30 30 54 41 27 51 23 44 56 28 23 51 50 41 26 31 27 26 33 30 48 54 36 71 28 37 57 33 30 42 33 32 38 44 42 41 37 27 30 39 19 31 41 53 37 33 26 24 33 48 37 43 39 41 51 24 47 40 30 43 46 16 41 24 33 44 40 37 26 26 37 33 39 30 54 50 37 27 44 48 36 55 45 56 43 45 26 41 40 26 42 32 48 34 54 23 30 36 27 38 43 29 51 19 33 45 29 33 49 29 33 34 36 40 23 27 37 37 36 33 46 43 43 52 43 52 39 39 48 40 37 28 49 46 42 36 35 37 23 40 27 39 37 40 44 30 36 49 36 34 46 37 37 36 34 39 38 52 34 24 33 38 41 42 40 43 47 48 47 33 3 44 70 47 35 51 16 37 23 48 52 29 28 32 37 66 43 30 43 38 31 54 44 56 44 54 46 45 30 79 36 26 39 36 41 28 41 33 37 33 24 39 30 54 33 28 34 37 48 52 50 59 45 40 55 44 33 34 43 38 23 38 40 47 27 40 37 31 48 32 23 39 66 37 33 30 35 45 45 43 50 33 44 44 45 22 34 54 45 28 40 40 43 26 50 26 38 52 42 49 27 35 37 51 30 55 26 37 45 44 47 23 38 33 43 36 22 27 40 34 49 26 35 34 34 40 35 38 35 51 68 49 27 28 44 33 49 39 40 23 48 32 43 23 46 38 19 44 54 47 37 39 52 34 48 49 27 52 32 38 51 33 48 30 44 33 35 29 24 40 40 47 45 47 45 47 39 54 37 17 44 29 32 36 30 36 44 31 37 30 37 27 45 54 39 13 43 30 32 32 31 45 47 50 23 37 23 54 34 44 44 45 29 33 58 43 49 27 41 44 23 56 45 35 33 44 45 23 36 33 30 40 41 30 45 40 22 32 51 34 38 20 44 63 41 38 31 40 44 47 38 43 30 50 46 48 45 36 40 43 30 31 17 30 48 31 42 54 57 33 25 30 23 30 49 34 42 36 35 33 33 31 41 43 56 62 25 47 37 46 44 45 62 49 30 31 40 51 29 55 46 43 43 44 46 47 40 48 44 44 50 37 50 36 35 23 23 34 37 43 30 42 25 37 33 44 45 19 40 31 41 30 20 61 37 49 24 36 37 41 23 13 58 33 36 23 28 38 31 31 47 26 27 27 40 29 43 30 46 40 36 52 19 51 38 19 41 33 51 40 44 54 38 35 48 38 15 47 26 29 36 43 35 44 36 44 40 33 62 54 12 34 37 53 37 26 51 56 37 33 32 37 29 35 39 48 23 58 52 47 44 34 19 41 26 25 40 57 33 52 37 37 57 36 41 48 40 30 36 19 53 20 25 48 39 41 20 42 65 29 48 37 43 48 30 31 46 34 62 54 31 24 47 30 44 43 42 21 34 44 40 43 17 26 33 41 28 42 62 12 39 17 34 40 46 27 38 37 31 27 36 26 40 60 41 42 34 29 58 51 22 39 68 35 54 46 21 23 54 47 31 34 48 37 33 38 19 57 43 23 38 54 37 60 40 37 68 37 41 41 36 44 31 51 27 33 33 37 50 57 55 47 34 29 20 44 49 27 19 33 48 34 41 38 56 30 47 41 35 28 55 40 59 54 44 40 35 40 47 51 23 51 66 41 39 54 41 41 19 44 51 29 31 32 58 40 37 47 30 43 32 22 38 43 46 33 41 47 23 42 25 43 23 38 44 27 27 23 34 33 37 32 39 33 47 30 47 44 35 36 39 55 33 46 44 34 44 27 51 31 27 57 41 32 39 51 17 41 31 46 48 24 16 45 53 33 50 33 45 47 51 38 39 53 38 40 33 34 46 41 52 34 37 50 36 46 28 32 30 39 44 48 42 32 59 45 37 31 51 13 29 23 27 52 31 42 38 49 57 50 26 26 37 32 35 58 32 27 53 43 51 38 65 48 39 46 47 49 41 37 60 34 38 42 41 43 36 27 41 19 48 40 33 30 30 30 44 34 37 49 27 45 23 52 34 37 38 30 31 31 35 56 33 40 39 12 22 59 38 22 41 46 41 43 36 33 37 37 33 29 43 21 33 39 49 16 42 44 30 39 52 31 37 44 33 22 44 27 33 46 37 47 54 44 34 28 26 55 40 39 35 36 48 44 29 44 43 37 23 31 48 41 45 30 30 45 36 33 28 32 38 39 45 49 38 47 63 27 25 41 41 43 54 44 30 38 35 46 58 23 40 35 36 38 29 52 37 29 38 43 36 41 40 51 15 34 37 42 44 32 27 29 22 37 42 40 46 42 31 37 36 53 26 34 33 42 28 33 31 34 30 35 27 39 36 37 26 23 36 32 55 23 47 27 31 36 37 37 37 40 39 28 51 58 49 40 40 31 31 36 40 40 53 40 41 38 23 35 57 36 40 27 40 48 40 44 37 25 32 37 39 43 33 35 33 31 30 33 42 41 37 42 37 41 46 37 26 37 44 42 59 34 37 50 33 31 41 44 42 49 51 48 45 31 41 40 39 45 35 24 51 38 34 40 38 63 36 20 44 31 48 30 37 40 56 36 59 26 29 41 41 48 33 30 26 38 51 56 38 45 38 47 49 39 44 30 48 51 21 45 32 22 61 33 45 63 34 40 48 33 31 52 43 51 51 51 19 24 50 37 57 34 44 39 21 33 48 38 40 39 37 48 50 36 43 41 20 52 54 26 40 48 45 48 51 33 28 30 36 64 44 33 36 25 36 37 13 61 31 33 48 43 27 30 37 38 39 34 41 31 39 52 37 23 23 45 34 36 38 56 29 43 33 50 23 40 30 37 40 37 39 38 39 51 30 29 51 38 39 42 30 45 27 37 33 42 33 23 50 41 60 44 27 34 31 41 29 27 27 40 37 38 40 34 43 54 33 39 54 40 48 36 49 35 37 27 43 40 37 38 35 62 35 34 34 38 27 40 49 30 23 43 54 39 13 54 39 19 37 46 34 40 21 12 16 33 39 44 52 50 19 38 36 45 35 47 29 40 31 50 37 51 40 55 51 42 35 34 37 47 40 39 32 34 37 37 45 50 41 33 29 40 19 37 23 34 30 33 45 48 26 34 46 41 40 44 53 44 42 32 26 19 32 20 44 37 49 31 34 40 26 43 33 43 16 54 51 54 43 34 28 38 44 47 49 40 48 52 48 36 34 48 37 46 26 23 47 51 42 33 39 37 48 28 46 37 23 46 47 50 35 47 50 30 40 47 40 23 26 29 33 37 30 35 38 27 40 42 38 27 31 36 40 46 49 44 37 52 48 37 40 44 31 23 41 40 37 20 19 40 28 41 44 43 35 45 40 39 40 43 47 37 42 41 15 33 41 34 34 32 22 48 38 47 36 58 34 44 38 28 31 39 51 46 31 36 39 28 42 38 36 29 41 51 48 39 30 44 40 48 33 25 53 47 45 32 52 34 45 48 29 36 31 43 43 43 37 26 16 30 36 42 57 45 50 28 50 60 34 51 35 40 39 26 31 34 50 53 24 9 41 42 41 31 32 31 30 56 37 38 35 41 23 32 30 63 37 37 39 40 28 38 40 21 36 30 41 22 40 39 43 41 46 59 53 51 54 20 53 39 28 51 49 36 34 31 31 52 38 41 19 41 41 51 60 58 33 37 45 26 46 44 37 52 38 50 44 36 37 40 63 41 34 29 48 37 34 26 47 46 29 36 41 34 33 34 41 30 34 39 45 42 32 36 49 39 37 30 48 42 37 34 27 38 44 35 33 38 41 40 37 37 38 30 54 51 35 43 34 40 34 27 35 38 44 37 31 27 30 44 46 45 60 44 41 41 33 44 51 42 43 30 48 33 32 37 45 36 25 51 43 30 23 51 34 49 59 48 43 41 35 26 62 47 37 38 32 40 41 20 27 17 39 49 66 54 41 37 32 38 41 38 37 55 27 31 10 37 37 58 44 40 41 49 34 30 37 24 30 26 43 78 34 54 49 54 52 33 39 48 45 32 30 30 44 38 39 36 55 23 38 64 41 38 33 48 38 30 29 64 27 47 29 34 27 47 32 17 38 30 45 32 36 47 36 36 47 30 19 23 29 37 27 62 44 31 43 36 31 33 26 38 26 36 31 42 37 30 35 43 27 25 24 28 51 55 49 49 40 30 29 41 49 38 43 37 35 55 51 48 23 37 44 46 30 27 18 49 42 22 50 26 43 33 26 46 43 26 47 23 26 48 44 44 35 29 29 33 29 45</t>
   </si>
   <si>
     <t>PTS</t>
@@ -102,52 +102,52 @@
     <t>List</t>
   </si>
   <si>
-    <t>JSB(4.635011986340562, 4.7789151926428906, -33.19450762866215, 197.87563487258063)</t>
-  </si>
-  <si>
-    <t>24 17 10 17 36 10 45 17 27 15 34 13 17 21 24 16 20 16 13 15 17 26 34 21 10 31 33 0 21 17 27 30 20 23 19 28 31 14 13 21 0 24 24 24 10 41 42 11 29 38 37 22 30 10 27 20 19 13 10 42 27 34 17 17 13 34 20 19 36 21 14 41 14 27 27 38 21 20 19 10 27 24 13 24 20 6 31 20 34 20 31 19 23 10 31 37 34 13 27 31 16 10 23 23 13 16 38 20 10 17 20 24 21 31 21 19 10 20 34 17 16 13 24 24 37 36 10 24 33 13 24 19 28 19 23 17 44 10 11 21 41 10 21 33 24 27 23 10 29 33 35 20 28 10 20 30 17 13 6 14 9 13 16 21 24 38 20 28 34 28 31 27 13 28 28 29 20 10 14 14 24 15 17 18 21 16 23 31 20 3 20 21 20 14 24 20 35 0 34 24 26 20 24 13 26 30 24 10 17 28 24 18 8 12 31 27 27 34 38 23 17 14 24 28 6 21 27 16 23 23 27 21 35 19 20 23 9 14 20 24 20 22 38 23 14 24 20 27 17 8 10 9 23 16 3 34 26 24 24 11 10 38 11 23 27 30 19 18 17 24 10 20 30 23 35 38 28 17 14 13 7 21 34 34 16 27 12 7 18 19 7 17 16 21 23 30 41 27 30 30 20 10 23 24 23 10 16 13 28 29 13 20 21 14 14 17 17 16 16 30 23 12 7 27 20 30 20 23 24 25 20 17 38 16 24 7 24 29 5 21 27 19 23 28 24 17 27 18 34 13 16 3 13 30 23 20 9 6 27 23 7 14 24 37 23 18 21 24 17 28 14 20 21 24 23 17 24 16 9 10 24 30 24 16 19 35 30 17 13 10 14 10 20 27 30 35 21 28 24 13 13 24 24 23 16 20 21 24 23 21 20 31 24 10 23 10 31 20 37 14 30 20 23 17 34 13 18 31 27 28 34 17 16 14 10 21 38 20 29 32 17 21 7 11 16 35 20 24 18 24 20 17 19 15 21 13 23 20 23 20 23 22 20 13 21 24 21 24 26 17 14 31 24 40 33 17 23 12 12 9 30 28 17 27 6 13 21 38 27 28 28 20 13 31 23 14 21 24 14 31 27 38 34 16 26 24 33 42 37 20 23 20 29 16 26 31 16 20 17 24 27 24 30 24 31 23 7 11 23 7 24 17 23 24 28 13 21 19 21 23 33 20 10 27 18 24 24 20 24 20 28 28 13 14 31 28 27 10 20 30 27 16 21 7 3 34 20 27 31 23 12 28 20 41 10 17 17 26 16 20 14 27 45 28 38 28 16 9 34 28 40 20 30 13 20 31 18 21 17 3 23 27 6 16 27 31 24 17 35 14 23 21 26 30 21 13 7 23 27 32 24 20 20 35 17 14 24 26 3 14 20 23 23 28 24 34 27 28 17 30 16 21 19 34 26 14 24 31 6 12 17 27 31 9 20 45 21 16 18 17 10 6 21 30 38 16 26 23 23 17 24 17 23 30 20 27 27 17 21 27 27 19 31 18 31 20 28 30 17 13 3 21 18 31 21 23 30 19 17 16 5 13 18 33 22 19 16 3 28 20 20 27 20 6 21 21 24 32 13 16 17 27 17 20 19 16 12 27 21 20 17 20 16 20 17 28 38 24 16 27 38 45 12 30 7 30 27 19 19 24 15 17 20 31 23 27 17 17 19 17 24 22 30 13 30 24 38 24 24 7 9 31 20 37 17 24 17 10 13 24 17 21 38 34 44 17 16 6 16 10 10 20 13 36 6 28 20 33 22 17 17 28 17 17 16 12 24 14 30 31 18 27 24 17 31 31 21 24 20 27 28 20 15 24 17 16 23 28 32 27 17 22 10 19 13 14 14 34 14 24 16 3 17 20 23 24 30 20 24 19 24 27 24 27 20 24 20 34 34 17 12 15 22 27 26 17 21 10 16 17 14 31 6 24 10 20 38 17 19 14 20 7 20 26 24 24 34 14 13 24 12 17 27 27 17 13 28 9 23 23 9 14 29 27 13 38 21 27 27 13 27 27 23 13 20 13 24 21 33 28 17 18 18 7 21 22 19 17 28 17 7 6 28 28 24 16 7 17 31 23 20 27 29 30 34 13 10 31 21 18 16 20 24 16 16 0 10 34 15 30 27 14 14 16 28 19 17 22 17 41 23 23 28 20 28 17 34 14 11 17 27 26 16 17 13 20 13 14 20 20 10 23 17 28 19 21 3 23 24 6 28 10 17 31 28 27 34 34 20 9 17 24 17 20 10 31 20 20 15 20 10 20 26 37 17 10 10 14 9 24 20 31 30 27 41 27 0 19 24 23 24 19 23 33 34 24 31 47 20 34 27 10 9 41 37 20 21 16 13 13 22 28 41 23 28 35 10 38 3 20 21 20 19 20 10 3 28 16 13 27 9 31 23 12 26 30 20 17 16 27 21 34 30 16 45 14 20 6 17 10 20 24 29 24 13 17 20 24 38 14 17 24 10 27 20 24 20 28 20 9 27 23 37 7 13 24 29 16 13 30 20 21 30 26 27 19 23 28 14 24 22 10 10 16 14 24 13 23 27 16 28 24 20 14 21 23 40 34 20 30 30 21 21 14 31 20 26 18 24 10 24 35 6 16 14 13 34 27 40 48 20 7 23 31 31 14 21 31 24 20 24 28 33 16 14 35 14 38 20 21 20 35 30 31 20 17 27 16 17 22 24 29 20 12 20 28 24 34 20 14 3 17 20 41 24 9 16 24 24 20 26 16 20 24 16 20 24 38 35 9 33 37 20 13 23 7 17 10 10 27 25 7 13 20 45 10 17 20 23 31 24 17 16 31 35 27 17 15 24 28 16 23 21 13 19 24 19 17 13 30 22 49 17 16 24 17 13 34 10 24 24 9 13 25 17 21 27 21 28 14 17 23 21 28 14 10 21 19 23 17 9 16 9 14 21 29 19 27 17 24 17 23 17 20 15 20 24 20 27 23 13 17 20 19 13 13 9 10 19 27 17 13 16 17 20 20 10 19 10 21 42 20 26 26 15 23 14 0 28 20 42 19 23 19 23 13 17 24 23 37 17 16 16 12 28 17 37 26 12 14 18 10 13 6 45 20 0 14 16 27 15 6 20 6 10 25 28 21 3 20 3 23 20 20 26 21 31 24 27 21 16 20 28 20 23 16 22 30 31 23 14 21 30 20 16 16 31 24 10 28 13 31 17 19 13 16 27 7 24 30 20 19 20 31 20 27 9 48 31 29 27 18 20 17 20 24 30 27 20 17 20 24 27 11 17 22 22 16 9 14 17 24 24 13 23 34 17 3 28 35 28 18 29 41 30 21 6 22 13 31 24 31 36 36 29 30 24 28 24 27 19 23 24 29 20 16 30 9 23 29 21 20 24 21 20 24 13 24 13 10 14 3 34 20 27 20 17 10 30 48 14 17 17 10 20 20 10 7 13 28 24 21 6 17 21 17 19 34 17 13 41 9 38 26 17 20 34 14 17 24 17 21 23 17 13 31 29 34 31 27 13 27 24 10 15 10 16 10 37 17 27 45 19 17 9 21 24 27 20 13 14 7 14 19 22 22 19 28 20 17 24 20 16 17 14 22 21 30 24 9 23 20 27 17 27 28 17 20 31 29 29 24 19 20 22 15 13 3 30 20 16 30 20 16 35 18 13 24 24 24 26 21 22 31 13 12 17 24 28 31 20 31 21 34 27 17 30 28 21 20 23 13 20 30 17 38 24 14 14 34 34 23 23 23 20 15 17 7 27 14 16 10 13 27 7 16 35 20 21 28 9 10 20 20 30 17 17 8 21 16 7 23 12 28 27 27 17 15 16 28 28 7 17 17 14 29 23 10 28 17 27 28 30 14 31 27 10 13 14 22 17 24 23 16 23 24 16 14 31 20 13 24 38 31 20 31 24 17 24 38 34 10 21 13 19 14 16 20 16 17 28 21 21 20 9 13 27 25 23 24 23 24 18 20 13 35 13 27 17 9 10 24 28 37 21 34 20 27 14 20 34 24 27 21 10 7 31 20 26 27 24 28 12 14 20 16 17 17 24 11 14 32 17 20 28 36 19 38 12 30 17 16 17 16 14 13 20 17 25 16 41 21 21 19 37 14 32 30 21 29 24 31 20 31 18 13 23 20 44 9 17 19 31 21 16 24 24 12 17 24 17 13 20 23 38 17 7 35 14 17 10 19 17 13 31 13 31 14 0 34 23 17 36 24 28 20 20 13 20 20 33 14 30 38 24 17 13 24 22 30 33 17 28 9 7 42 30 23 34 23 34 20 28 21 24 21 31 12 18 14 24 10 30 3 20 24 20 21 10 16 25 17 17 17 14 30 17 23 7 9 19 10 17 30 23 30 21 16 17 41 23 30 16 24 31 27 24 13 12 33 38 27 13 10 16 17 34 17 13 20 13 31 35 13 9 35 10 38 28 24 9 20 30 14 35 21 30 14 19 24 14 24 11 24 6 31 23 27 34 21 16 41 13 31 17 35 7 20 20 33 13 30 9 19 23 27 7 20 23 26 24 10 20 19 24 13 20 17 34 17 24 27 33 19 22 23 20 29 13 13 30 27 17 27 30 14 14 38 17 14 24 24 20 30 20 24 21 13 27 19 22 13 28 17 31 22 37 30 37 21 23 28 17 16 10 48 21 17 31 20 24 11 27 13 38 34 20 33 30 16 9 23 31 23 13 17 28 20 6 21 31 23 23 23 20 22 24 34 25 7 10 34 13 17 14 14 17 10 17 31 13 27 31 38 12 41 38 17 23 38 20 24 17 40 17 17 33 23 37 27 17 27 19 28 30 12 17 20 13 10 14 10 16 19 17 23 35 35 28 17 20 20 20 14 13 20 33 14 26 22 14 17 20 17 25 17 29 13 17 10 12 28 24 24 18 20 38 27 20 26 30 20 14 24 24 20 23 7 31 7 10 29 25 23 26 23 27 12 27 28 20 17 10 38 24 30 10 22 14 14 19 21 16 27 26 16 17 15 10 31 12 13 28 28 37 27 27 14 48 30 19 20 21 17 13 26 15 17 37 17 23 13 9 21 28 17 7 10 17 19 6 6 14 26 13 26 22 9 27 34 10 14 35 31 34 38 12 10 17 28 34 13 10 28 23 6 27 21 27 16 15 45 10 24 24 37 7 24 38 20 27 13 24 12 25 10 24 26 16 21 14 16 10 21 14 31 3 7 30 6 28 27 36 13 14 24 21 16 21 22 38 3 30 30 21 20 21 3 14 34 27 24 6 31 27 27 16 16 17 24 30 24 28 10 16 24 27 20 24 24 15 17 9 10 24 24 17 24 9 30 27 13 21 6 44 27 7 23 18 24 25 37 21 20 27 31 16 45 13 16 29 21 14 19 12 13 24 21 13 41 20 16 23 23 14 13 17 24 27 24 19 35 17 16 24 24 34 8 27 20 14 20 31 17 23 10 23 20 23 37 22 15 10 27 13 20 34 24 19 30 6 14 22 52 24 7 16 17 16 17 30 21 21 28 16 20 10 23 17 23 17 12 10 24 6 28 17 21 17 20 14 20 12 24 31 24 24 20 17 20 9 41 21 17 17 17 21 14 10 7 27 6 14 23 13 23 19 13 23 14 10 21 37 25 27 28 16 28 24 27 24 20 3 15 17 31 17 26 21 29 13 16 20 22 17 14 29 24 20 34 31 21 20 18 24 27 10 27 6 23 31 25 24 35 28 24 0 27 17 20 30 21 16 19 30 15 24 24 19 21 13 25 21 20 12 27 40 30 19 23 28 14 27 17 17 24 23 21 10 31 3 13 20 24 17 17 27 17 10 14 34 24 10 16 23 24 17 26 19 20 24 14 16 35 23 13 17 13 19 13 24 32 23 24 42 20 41 24 27 21 35 10 7 21 28 24 30 21 19 17 31 26 27 24 20 19 14 41 24 27 21 27 17 10 20 21 23 17 17 22 20 26 31 17 9 37 23 17 10 23 34 24 6 3 31 33 23 14 16 28 13 24 24 31 21 18 13 30 16 21 28 22 10 17 17 17 24 17 20 44 16 31 17 17 24 17 13 25 23 30 30 31 19 24 28 24 27 33 24 24 20 17 30 24 19 9 24 34 19 24 13 21 14 25 31 31 34 17 9 26 27 11 24 14 15 16 15 14 17 16 24 27 7 13 20 21 34 0 19 35 20 20 9 26 25 26 31 20 19 25 7 19 24 20 24 31 10 17 26 20 31 17 20 27 23 17 16 31 47 17 19 17 16 41 14 21 21 41 10 27 24 23 23 25 15 17 17 10 17 14 20 20 45 16 13 27 19 22 10 30 20 30 24 24 27 39 16 15 20 20 44 13 23 23 7 10 6 23 19 21 21 13 21 17 27 17 21 12 21 21 17 35 20 13 20 15 25 35 37 20 24 33 24 13 38 20 21 28 23 17 11 13 17 14 17 36 21 38 14 36 23 24 27 17 24 13 17 24 9 10 27 29 17 27 16 13 20 21 14 27 14 17 14 31 13 30 28 27 17 14 31 26 20 17 36 31 33 34 20 22 17 31 23 30 28 27 13 19 13 13 17 28 19 21 11 23 27 28 24 17 10 28 38 13 10 34 21 20 40 35 21 35 13 34 17 18 24 26 17 21 30 16 20 14 23 10 13 6 24 12 40 30 20 31 24 34 14 17 33 24 32 27 17 35 20 24 11 6 3 37 30 23 17 41 20 23 14 17 19 15 24 29 24 10 21 37 28 38 18 31 10 13 23 14 17 13 14 16 28 23 27 27 27 10 21 24 13 20 21 13 3 11 14 31 12 17 19 27 21 31 28 27 7 12 27 24 10 19 33 21 16 38 10 23 48 21 22 24 27 17 21 16 14 20 21 42 23 31 17 30 17 15 17 17 6 24 9 23 24 9 3 16 38 21 14 20 22 9 20 24 20 19 24 27 27 37 7 14 23 23 16 17 35 14 19 17 10 13 29 21 30 31 11 31 20 30 12 6 16 17 28 17 16 21 33 17 35 24 22 12 17 27 21 31 10 17 17 34 28 24 24 24 14 17 14 17 15 24 10 28 17 24 17 26 27 35 24 29 27 24 43 17 33 10 22 17 21 23 17 20 13 31 21 30 30 41 26 15 27 19 16 28 25 10 28 12 13 21 20 13 24 23 31 20 30 33 24 26 17 6 22 16 20 24 13 21 20 30 14 34 30 7 31 13 19 9 27 27 30 10 38 17 24 13 16 34 27 12 27 13 28 14 30 28 24 17 31 3 24 15 17 27 16 20 13 25 20 24 21 13 19 35 19 24 7 20 23 37 27 17 34 41 35 17 7 42 20 27 22 24 17 24 10 17 20 21 17 16 17 30 17 13 38 21 10 22 24 15 38 14 13 20 14 24 16 17 26 20 17 10 24 30 31 27 23 35 44 5 13 21 16 31 27 15 21 31 17 30 24 6 24 16 26 13 23 27 27 7 21 23 32 20 23 14 24 26 33 21 17 23 34 27 10 24 21 24 24 31 14 31 17 21 27 13 34 23 19 10 42 20 24 19 23 21 13 27 27 28 9 20 38 6 24 28 32 13 17 27 23 20 37 30 14 37 27 9 28 27 27 30 14 28 20 7 27 34 35 10 19 26 21 10 30 23 34 21 22 14 23 24 14 22 41 11 30 23 19 34 21 24 10 21 17 44 21 31 20 19 21 24 35 14 17 31 23 24 13 24 20 28 28 23 28 23 17 24 17 30 13 19 28 14 31 13 17 19 12 31 24 13 20 45 28 20 7 7 16 31 14 17 18 27 21 21 14 33 13 17 21 16 20 13 16 27 31 13 31 7 6 26 30 12 26 14 21 20 20 20 14 28 17 20 35 10 35 17 25 16 24 31 10 16 14 21 41 20 24 28 18 33 31 3 27 7 31 27 35 17 17 28 21 12 23 14 28 24 30 24 23 19 23 29 23 17 30 17 16 13 17 7 18 13 22 7 20 10 12 0 28 38 13 34 19 21 14 22 30 20 14 20 31 20 24 17 20 31 20 17 24 30 13 3 30 28 30 27 7 21 30 21 23 30 29 19 20 33 21 35 41 24 10 19 10 22 16 14 27 12 29 20 31 13 30 21 20 27 27 42 17 3 24 30 17 21 7 10 6 24 23 21 12 31 24 23 24 19 30 23 14 17 45 10 27 11 21 37 26 24 14 8 15 9 30 34 19 20 26 38 30 10 9 9 24 14 27 24 27 13 6 7 38 21 21 19 14 20 17 41 13 26 13 10 20 11 7 14 14 23 28 20 19 34 27 31 7 34 17 20 36 13 7 21 27 13 35 24 24 23 24 18 28 28 17 0 38 14 16 19 30 24 22 10 34 18 31 13 11 20 19 24 27 37 26 31 10 6 24 20 29 9 30 17 43 20 14 14 10 26 24 23 13 19 16 9 16 24 17 16 24 24 21 28 27 17 20 31 21 31 19 10 14 21 23 24 20 16 19 10 13 17 7 28 20 14 24 27 27 27 27 9 22 23 30 24 23 30 16 33 20 14 13 13 40 14 26 27 34 14 28 27 14 24 13 28 17 30 17 16 19 19 20 38 24 14 24 14 3 41 16 34 17 7 24 17 19 24 6 21 14 16 6 24 17 23 37 38 30 16 34 27 27 18 28 13 27 24 31 27 16 16 9 16 9 22 14 14 28 20 34 28 21 17 6 34 13 7 21 14 33 29 10 12 15 27 24 21 20 26 27 20 31 21 17 31 20 23 31 23 20 17 24 17 13 21 25 24 31 17 38 14 29 8 24 33 23 13 31 19 9 16 10 20 17 23 24 14 28 24 10 24 23 10 23 24 34 20 27 23 26 23 3 19 29 28 23 16 22 27 29 20 23 17 30 17 21 24 31 28 24 17 23 20 20 27 20 24 31 23 28 20 14 34 19 15 20 31 28 17 0 13 19 29 30 25 22 24 3 31 22 23 21 13 6 27 20 10 14 21 24 13 24 17 20 34 13 17 24 10 35 17 13 10 14 21 13 10 24 19 16 27 13 35 29 17 14 13 21 16 28 23 27 31 24 15 10 20 13 30 24 33 27 17 14 19 19 13 19 17 21 23 27 20 20 34 16 28 20 12 12 32 21 23 24 19 30 20 13 31 23 23 20 34 23 14 28 31 16 31 28 15 20 26 20 45 6 24 20 14 28 24 17 6 24 31 17 20 14 35 34 38 27 14 27 29 14 13 13 9 27 20 27 29 21 13 22 9 27 20 24 7 21 34 34 22 10 23 41 31 7 30 28 34 20 30 24 20 20 3 14 17 17 37 20 21 31 12 15 14 9 17 23 34 38 30 20 27 13 26 28 21 28 14 17 15 17 27 34 27 34 20 23 29 26 20 37 17 24 17 20 28 16 34 17 30 3 24 23 15 30 13 24 45 10 34 10 16 21 21 33 6 27 8 26 6 16 20 24 14 20 27 17 24 24 8 10 23 19 31 10 30 31 14 31 16 17 19 26 21 17 31 33 24 15 27 13 24 24 34 32 10 6 13 17 34 27 19 10 13 24 22 26 17 19 13 23 21 16 30 24 24 28 28 24 21 22 14 3 20 17 17 12 28 21 20 20 31 20 24 2 17 28 20 24 7 24 27 20 17 20 10 12 22 35 16 13 30 17 36 17 15 24 36 20 20 10 20 21 16 15 20 6 31 23 21 20 24 23 28 41 26 27 31 20 21 24 28 14 21 20 13 8 23 26 20 28 34 3 30 38 20 27 28 14 16 35 31 21 27 31 27 24 33 22 21 23 29 27 19 20 16 35 23 31 17 14 19 21 13 17 28 19 19 21 27 9 12 3 20 21 13 10 17 13 34 28 13 17 17 28 24 34 20 16 10 14 26 34 15 7 30 7 10 17 13 27 24 29 22 17 24 19 30 28 14 33 16 21 19 34 23 24 16 17 31 27 19 24 21 26 20 24 17 21 34 30 48 40 24 20 10 21 17 24 17 25 20 15 22 31 20 13 13 17 24 31 10 14 21 38 17 10 31 36 20 31 14 28 16 7 20 22 10 19 31 23 20 10 28 24 20 15 21 31 23 31 24 29 27 17 24 14 22 14 27 10 23 21 28 23 11 38 24 21 31 13 13 17 30 23 35 19 24 24 38 19 23 20 6 21 11 21 24 20 9 26 24 17 16 7 30 10 31 13 34 30 28 45 10 6 28 20 21 28 27 31 23 27 13 20 27 20 24 27 34 17 28 10 20 17 28 23 27 9 28 23 27 19 19 16 19 45 14 24 37 38 27 20 23 42 29 13 31 24 31 24 24 38 28 27 24 20 33 34 21 14 30 17 31 17 17 19 14 16 31 38 21 21 12 17 17 13 38 20 17 35 21 19 31 20 30 20 7 28 23 23 20 9 20 9 31 21 13 23 23 13 20 13 18 45 10 17 10 37 17 24 23 7 21 13 17 23 31 45 3 30 29 20 21 27 33 23 24 28 14 27 18 29 27 28 20 42 10 16 36 27 28 17 7 17 14 26 24 28 28 17 20 20 24 17 23 17 12 13 12 14 16 30 38 10 14 24 14 13 24 17 17 10 20 17 30 41 20 23 26 21 26 19 9 41 23 23 23 28 21 21 14 24 24 27 34 24 7 14 10 15 42 30 10 27 30 24 24 20 19 24 26 34 23 14 17 24 34 23 24 26 6 17 20 24 27 34 20 22 16 20 7 27 17 16 17 24 27 15 13 31 24 14 21 31 16 28 17 27 23 25 23 18 30 34 31 6 23 20 34 30 19 23 22 20 6 31 23 16 25 26 14 18 31 23 27 27 17 24 13 25 6 21 36 17 27 26 9 28 10 24 23 21 24 28 10 31 24 29 26 7 30 22 33 23 9 23 16 21 10 13 32 17 12 27 29 14 20 23 38 13 17 20 10 16 24 21 21 31 29 13 22 19 16 10 24 35 34 17 24 18 26 16 28 24 17 22 27 23 13 15 31 27 23 16 10 19 13 21 20 28 11 20 27 10 13 28 13 16 14 24 9 30 47 33 23 19 10 35 24 17 17 25 24 31 7 27 27 9 12 26 24 9 30 14 20 20 31 27 12 31 21 13 24 12 27 33 21 24 19 28 26 21 31 23 21 17 21 27 14 24 24 20 24 34 15 24 6 10 26 8 21 31 24 14 34 27 17 49 14 21 17 17 6 22 17 14 30 24 3 3 20 23 23 27 24 28 7 10 31 21 27 24 12 20 31 23 14 17 14 17 16 17 27 36 10 16 17 10 31 37 21 18 38 10 0 27 33 28 10 31 16 17 14 15 10 24 17 20 23 17 38 21 42 27 16 42 23 28 35 20 17 27 13 26 21 7 30 13 18 16 17 19 36 30 10 17 19 27 12 24 38 12 31 30 20 13 28 34 27 7 13 21 21 28 7 24 20 13 14 31 23 22 23 33 28 28 19 10 19 9 20 23 27 23 0 17 12 40 13 16 13 13 17 38 26 10 13 11 21 20 20 28 10 14 43 3 13 20 31 24 21 3 21 0 16 19 24 17 41 20 6 14 20 9 16 17 26 20 45 20 24 20 27 30 23 25 34 24 24 20 24 26 24 24 7 23 19 27 45 23 22 20 31 23 24 24 34 16 28 26 20 17 6 17 14 23 33 20 17 28 27 9 27 20 18 16 40 42 30 14 20 31 24 16 10 14 27 38 24 13 31 34 19 9 34 27 22 42 27 24 32 17 20 7 19 24 17 23 10 38 31 14 24 43 26 20 27 17 38 20 10 21 8 34 31 7 20 19 38 17 21 9 27 28 8 24 28 31 7 16 17 22 17 16 13 24 20 24 20 38 12 20 16 20 25 24 30 13 3 14 24 17 28 17 30 30 16 30 21 13 24 23 22 7 13 20 27 45 10 10 20 12 27 17 13 7 30 26 16 14 24 13 7 24 26 20 31 27 17 6 12 17 19 23 10 17 35 20 9 24 20 7 20 23 31 29 17 17 20 9 22 21 17 16 20 6 13 28 31 19 45 21 22 27 27 24 20 34 24 7 14 42 25 20 17 29 44 13 21 23 13 16 13 24 21 30 9 14 24 20 21 32 35 23 22 27 21 18 17 20 17 31 16 25 20 10 17 21 31 30 10 17 11 30 10 21 17 42 40 20 13 31 13 20 14 27 10 28 36 17 16 38 10 27 3 26 31 24 12 30 20 11 21 13 25 31 28 20 27 28 29 10 24 10 17 28 21 17 28 41 27 31 26 10 27 18 21 29 25 19 35 7 20 26 20 22 29 27 14 32 13 26 35 3 24 24 27 17 23 13 10 20 24 35 34 27 41 37 24 17 41 17 16 27 3 16 7 21 13 16 29 26 34 44 11 13 21 34 20 13 34 20 41 15 17 17 24 13 13 21 24 31 23 27 20 14 18 14 20 14 31 20 27 24 3 41 28 20 16 21 13 45 13 14 38 17 9 14 13 12 23 30 33 7 32 24 20 20 16 27 23 20 21 21 21 17 17 31 31 14 10 23 22 33 24 10 17 17 22 24 17 27 3 24 16 30 21 21 21 21 20 21 17 17 10 13 26 20 17 24 13 16 13 37 20 23 12 13 24 21 27 13 17 27 13 35 17 10 22 20 7 33 32 17 11 20 33 14 16 13 14 23 24 17 14 13 20 38 27 28 28 17 20 23 13 27 14 30 12 17 23 9 17 20 20 24 14 17 17 24 24 42 27 18 23 23 13 17 24 31 6 27 14 23 38 15 10 44 17 28 28 20 17 24 19 20 13 24 17 37 7 34 28 17 20 21 14 25 21 9 14 15 30 23 27 16 27 18 11 17 20 17 21 21 14 28 14 13 10 21 31 25 13 30 28 16 24 7 38 20 24 21 24 23 38 20 16 37 45 10 35 10 35 38 30 23 7 31 30 26 24 24 21 21 20 34 23 37 20 17 24 20 14 16 22 9 15 23 10 28 45 28 3 21 37 16 19 16 31 13 21 31 20 26 27 13 21 26 34 19 27 31 37 24 17 21 6 21 17 27 28 20 27 26 30 21 20 20 10 14 41 13 34 31 27 26 27 8 31 17 10 19 23 19 38 21 31 3 13 24 24 27 36 27 21 13 29 34 14 6 13 17 10 34 31 28 20 28 19 23 6 30 16 17 27 24 24 23 31 30 38 35 14 13 20 20 23 15 29 9 10 24 12 10 12 7 37 38 31 28 31 24 20 38 20 20 34 24 14 21 16 16 16 27 17 38 20 26 30 31 36 0 24 27 17 20 27 13 19 21 31 21 19 41 27 21 21 24 31 17 13 34 27 14 24 23 14 10 24 16 23 24 8 27 27 14 7 10 23 23 17 31 17 27 18 13 0 17 17 44 31 24 21 21 17 15 14 23 45 6 28 28 23 13 14 33 17 12 24 29 16 31 22 20 30 35 20 24 22 9 20 33 38 36 20 24 17 17 20 25 10 12 17 27 24 28 20 24 24 35 10 24 27 26 14 26 17 13 6 20 24 22 23 21 33 37 31 35 30 27 19 23 28 30 14 6 26 17 20 21 27 33 14 20 24 26 35 31 20 24 16 29 9 20 6 31 20 27 34 33 17 31 27 24 16 28 20 27 24 24 19 27 33 27 14 24 24 26 17 37 38 41 23 0 20 29 17 34 3 10 27 27 20 40 30 26 10 34 27 20 29 27 27 24 26 23 34 44 23 19 17 20 16 26 16 13 25 34 20 14 20 21 17 16 24 34 10 20 24 23 24 24 7 14 17 20 30 20 27 24 14 13 14 24 19 17 24 7 19 14 12 34 17 24 17 24 24 14 17 17 21 13 13 14 26 16 21 17 41 27 23 25 21 42 20 10 13 19 34 21 23 22 16 30 12 24 24 16 22 24 22 17 34 22 27 22 38 20 23 13 20 27 23 17 24 20 6 14 10 27 24 19 28 28 28 16 24 17 19 26 23 22 13 17 20 20 26 12 20 26 9 27 18 23 31 24 20 38 16 13 10 24 27 20 38 21 14 13 13 27 13 20 20 14 17 24 17 24 10 20 13 21 24 24 21 14 31 28 14 27 27 21 24 31 19 23 27 21 42 19 10 20 17 10 22 20 20 31 24 23 20 11 41 29 16 27 23 31 24 23 14 6 30 21 16 17 20 23 23 38 33 10 29 15 31 10 15 31 21 27 21 33 34 24 38 10 16 31 20 21 27 28 30 35 23 28 20 24 17 13 23 26 34 28 24 16 27 20 21 13 26 9 28 27 10 17 21 3 20 30 3 13 23 21 21 21 24 28 23 14 15 17 10 13 31 20 17 21 24 5 20 34 23 10 33 23 36 26 29 3 21 33 49 24 31 14 20 20 17 31 37 16 26 20 24 13 7 31 14 24 24 10 14 24 17 26 23 27 38 21 26 20 19 10 31 26 10 27 24 16 31 24 24 31 34 22 7 20 24 14 33 17 34 34 28 26 24 20 21 20 17 17 26 23 19 23 13 21 22 7 23 27 22 27 23 22 24 21 20 27 13 13 36 24 13 27 20 17 27 27 23 10 27 22 27 26 31 20 28 13 21 21 28 27 17 14 30 24 24 15 27 7 13 9 14 24 31 38 27 34 17 17 24 7 30 24 17 13 31 23 13 44 20 34 27 14 24 20 27 15 29 21 7 14 34 10 13 27 27 10 27 10 17 29 17 34 6 21 16 27 16 13 20 0 17 21 20 16 20 6 17 17 17 20 14 17 10 17 27 18 34 20 23 27 13 19 7 23 3 7 38 17 11 20 24 24 26 26 17 10 9 23 16 19 17 22 19 34 23 13 42 27 21 31 42 24 13 14 30 13 28 0 38 20 17 34 44 27 10 13 10 24 14 24 27 21 23 12 21 20 35 14 15 34 16 28 17 23 17 6 20 27 14 22 3 17 17 21 24 29 13 20 7 31 33 21 17 34 10 20 20 41 13 27 13 16 24 31 21 9 24 14 17 10 21 20 34 17 15 31 24 14 27 21 17 20 26 21 24 7 15 27 37 16 24 19 24 22 23 17 24 10 23 20 26 21 0 20 30 21 10 31 7 52 22 17 33 23 35 35 35 17 15 28 14 30 26 20 20 16 20 18 34 27 13 21 20 27 17 34 38 35 41 20 23 16 38 38 24 20 3 20 24 16 24 20 16 19 14 17 27 3 18 24 24 17 6 24 20 27 10 22 19 20 16 34 17 13 12 30 17 20 24 28 28 31 15 17 31 3 20 10 18 22 21 24 10 11 23 13 27 34 20 20 13 17 23 28 11 20 36 38 16 9 21 36 21 7 31 20 15 19 16 23 24 24 26 17 23 14 20 17 17 17 22 24 26 13 31 10 9 30 20 21 23 16 27 19 27 24 38 27 28 14 31 30 17 20 38 17 21 17 31 35 24 19 20 30 10 14 20 16 20 22 37 24 16 21 31 21 19 27 22 17 31 6 27 21 20 17 33 25 15 42 37 6 27 24 9 24 34 12 24 16 42 20 27 27 24 27 21 24 9 24 20 14 7 31 27 10 17 41 7 21 14 35 24 27 13 14 6 10 40 41 21 19 20 38 9 24 27 17 38 38 6 33 22 16 33 24 41 27 27 6 9 30 19 23 23 10 29 24 9 30 24 34 28 17 27 24 24 27 34 6 28 41 27 27 17 31 14 21 30 26 31 17 14 20 29 23 24 38 38 20 12 31 21 13 13 37 16 27 21 10 27 27 14 33 17 13 23 17 19 28 20 19 16 27 28 24 16 7 30 14 31 37 27 28 24 17 23 21 20 21 21 27 17 18 16 21 10 24 13 10 10 21 23 21 24 16 13 30 10 3 10 19 24 20 20 24 30 17 29 31 23 31 34 26 26 24 9 26 13 27 24 14 6 16 18 17 20 20 13 13 33 20 17 17 31 20 38 26 29 13 31 26 20 15 27 24 27 10 20 20 21 27 20 10 29 23 24 10 14 29 26 7 16 23 10 24 14 3 20 33 9 24 16 3 10 26 21 24 14 23 27 21 20 21 21 24 20 15 21 20 23 23 26 17 30 28 17 27 13 13 13 24 21 8 19 26 13 38 20 17 20 18 28 13 35 21 15 27 19 31 21 27 10 30 14 28 30 30 17 10 28 13 34 12 17 37 30 38 24 14 20 28 14 18 22 16 24 10 17 16 34 25 27 13 25 16 34 35 27 22 27 24 27 18 30 20 26 20 17 17 10 23 29 17 38 24 14 28 37 10 17 16 16 20 30 15 28 18 20 24 17 24 35 16 17 13 7 13 11 23 22 16 16 17 21 17 30 21 28 13 29 22 24 17 24 19 21 28 17 30 24 14 23 6 27 16 14 34 6 27 13 28 14 29 25 31 24 17 23 14 13 17 27 17 24 21 20 23 23 17 20 17 27 14 25 24 17 21 34 20 35 23 35 23 27 20 17 23 14 17 17 13 45 19 21 17 28 37 14 30 23 25 31 27 23 21 27 16 34 34 27 41 38 20 21 31 7 17 17 13 10 34 18 24 18 16 17 35 27 20 12 21 18 17 20 17 24 17 13 19 16 24 38 35 27 23 10 13 20 16 28 17 31 10 22 31 17 28 26 17 17 13 27 21 21 20 15 35 10 24 7 21 28 24 17 24 16 16 31 20 20 23 23 23 20 21 17 21 29 45 27 31 10 18 23 20 14 13 27 28 16 26 17 20 33 12 21 16 17 28 27 36 21 18 17 23 31 38 31 10 14 28 20 14 7 30 23 9 17 31 14 45 17 24 20 26 16 22 24 24 15 20 31 21 27 13 24 26 12 30 20 30 12 27 37 20 21 20 10 14 34 14 28 19 28 42 20 23 24 16 16 24 24 28 21 27 27 16 14 6 35 16 24 26 35 21 17 20 24 17 30 23 17 7 30 33 17 24 27 7 15 13 20 13 20 16 30 19 24 33 24 7 22 30 27 10 13 20 18 7 23 13 17 20 13 34 23 24 52 23 36 26 27 21 6 20 21 28 30 21 17 20 20 23 35 27 20 17 27 38 37 10 27 10 35 21 17 31 21 15 3 21 6 20 23 30 24 10 23 17 9 17 23 34 30 28 37 34 30 10 37 28 20 24 14 31 16 16 16 20 23 20 18 27 26 17 37 28 17 24 25 30 17 23 6 19 10 22 17 14 14 24 7 20 24 16 22 17 24 17 13 17 15 24 13 17 21 25 31 24 21 28 20 36 23 22 21 21 21 10 16 10 28 34 32 13 23 38 20 34 27 19 14 13 24 24 23 13 14 31 24 33 10 21 27 28 48 20 7 52 13 13 13 14 24 31 35 20 24 17 26 13 21 8 24 13 23 20 31 23 17 23 31 21 27 34 10 20 28 31 27 28 26 24 23 38 27 9 10 26 26 17 28 38 10 21 17 27 14 7 14 27 21 34 16 31 13 23 24 23 35 27 21 24 13 14 33 12 41 34 24 6 30 24 27 13 34 17 15 30 20 24 20 17 28 23 28 30 19 17 20 24 17 18 29 10 37 29 28 17 26 16 24 23 16 27 10 23 37 24 9 24 27 17 31 26 3 16 25 20 13 31 20 27 20 14 21 27 41 14 41 26 26 17 30 17 38 20 12 21 24 20 14 12 24 27 24 20 23 12 26 17 23 27 13 20 10 34 24 24 10 42 16 15 27 27 26 27 6 21 27 13 27 23 15 23 25 31 27 20 38 20 10 27 24 31 28 19 40 17 17 24 30 24 10 20 10 12 27 27 30 17 20 13 14 16 14 29 24 12 27 13 27 6 29 10 29 27 10 31 7 38 23 34 27 37 23 52 21 43 14 19 14 20 27 14 21 17 41 24 14 23 38 21 7 19 17 24 27 37 21 10 31 30 30 34 27 20 31 20 27 17 28 17 18 26 37 31 13 31 27 3 23 44 24 17 6 30 10 17 10 13 12 17 21 13 19 0 17 23 20 16 13 34 24 13 25 24 24 21 26 19 26 40 23 23 27 20 11 17 0 27 17 28 24 14 24 13 28 20 7 24 20 16 24 20 23 27 10 14 24 27 34 24 24 13 10 13 20 35 31 31 20 19 20 24 27 20 34 24 7 20 17 14 35 10 20 9 25 17 9 20 17 17 13 28 16 32 21 30 25 23 0 27 21 28 27 28 27 13 3 42 17 34 28 27 14 10 7 21 7 38 17 57 24 24 24 28 17 28 28 28 10 13 7 20 27 12 36 27 23 10 14 10 3 16 3 14 15 14 31 21 22 11 27 20 17 45 17 20 19 14 27 24 17 31 34 21 19 31 30 23 14 28 34 21 24 10 31 13 10 34 23 20 28 20 31 33 20 14 9 16 35 24 20 29 23 16 30 26 38 23 34 14 17 30 27 9 20 13 13 19 31 24 18 22 38 10 24 34 30 30 10 21 17 27 17 13 19 10 14 17 21 6 24 27 41 20 14 23 21 39 24 6 27 24 10 14 14 21 17 20 37 24 13 24 6 20 27 20 24 37 7 14 14 10 17 16 13 21 24 24 10 27 13 29 31 22 37 17 25 31 17 34 16 24 21 35 20 20 17 13 14 13 37 21 27 17 10 20 41 43 23 12 37 10 21 24 31 33 31 17 31 26 14 31 17 24 13 11 28 14 23 27 24 31 25 20 21 10 24 10 21 28 13 10 23 17 14 27 27 13 26 14 10 28 14 21 27 21 28 20 16 24 13 31 27 14 6 13 17 13 13 23 24 10 20 27 31 24 14 17 21 20 20 14 24 30 26 24 34 14 31 24 34 35 24 22 23 22 17 30 13 31 26 27 31 13 6 17 22 6 20 32 27 37 10 31 23 21 27 19 13 24 18 10 31 13 27 14 17 23 24 14 29 20 27 34 27 19 17 16 26 11 21 21 31 14 21 10 24 20 10 24 34 23 38 20 13 30 24 24 31 24 25 54 26 20 38 28 28 30 21 24 16 21 10 24 21 21 16 31 28 10 22 38 26 23 6 31 10 17 21 20 13 12 21 17 24 18 34 24 17 27 34 24 27 17 19 27 34 19 27 23 9 20 17 14 28 28 20 27 8 45 27 49 24 22 10 38 17 3 31 7 26 34 9 24 22 24 17 27 13 16 9 10 20 28 26 17 0 17 13 13 31 17 38 25 30 24 12 36 37 19 9 29 27 21 10 23 41 21 24 14 23 20 19 27 9 20 14 29 34 16 10 14 21 14 16 6 27 3 13 27 31 13 17 10 10 20 26 21 17 24 17 22 27 10 17 23 38 24 28 13 13 35 14 13 20 13 24 23 16 40 10 10 24 31 10 17 28 24 20 20 30 30 23 13 31 22 38 20 13 13 34 20 13 21 23 17 28 7 21 22 16 12 23 16 40 32 27 24 23 23 34 21 17 13 14 17 36 24 10 20 34 35 23 16 24 27 38 23 20 17 22 21 24 26 31 17 6 35 9 24 10 17 13 27 13 10 18 23 6 29 3 23 23 9 23 24 19 20 17 20 27 34 31 20 19 16 17 20 44 17 7 31 12 23 3 35 9 23 20 31 23 38 16 30 20 7 17 27 29 23 19 37 20 19 17 19 20 30 23 6 18 31 16 38 16 21 35 24 16 35 15 23 17 20 18 24 24 23 16 12 13 38 20 31 21 41 22 17 14 30 21 10 17 14 26 21 17 28 26 17 9 21 7 7 15 14 29 36 15 25 18 14 7 17 13 14 24 7 30 53 24 42 20 24 27 28 27 20 43 21 39 20 10 31 30 27 38 17 20 24 22 31 24 22 33 24 23 31 16 9 13 14 28 14 24 19 22 23 17 27 24 34 23 17 27 20 20 30 9 20 28 31 13 31 14 14 20 38 16 30 26 20 24 16 16 17 22 14 12 18 16 31 28 16 7 21 16 23 23 20 17 13 26 13 31 35 34 34 24 7 13 24 27 12 24 21 35 20 0 27 30 20 21 15 7 27 17 30 12 24 10 13 29 29 12 20 28 14 31 13 20 24 35 17 16 20 16 7 33 42 29 20 30 24 33 10 28 16 26 30 36 23 22 17 24 25 17 18 21 31 27 16 21 13 19 27 23 20 27 6 24 10 28 13 25 31 20 10 24 31 13 20 28 22 40 10 33 28 30 28 40 20 28 6 24 10 31 31 17 37 31 40 10 40 14 35 17 27 27 27 17 17 21 10 17 34 20 16 27 42 13 38 10 16 20 31 17 21 20 23 13 24 20 23 30 17 17 15 14 21 13 23 24 17 28 24 29 24 34 20 0 31 21 10 24 16 17 27 41 14 13 30 28 17 17 14 30 28 25 30 17 21 13 28 7 28 7 17 12 30 17 31 34 30 15 13 21 30 31 27 27 19 14 28 10 0 24 19 23 27 15 41 14 27 30 21 34 22 35 6 27 31 38 23 20 7 30 38 20 21 14 24 29 19 3 30 20 31 24 17 17 24 23 13 19 37 10 16 13 23 9 21 15 20 30 13 17 17 20 20 10 24 45 20 28 41 35 23 8 31 22 17 24 23 24 20 17 20 26 10 30 21 20 24 20 7 28 16 29 22 9 17 20 13 22 22 23 25 17 30 13 26 34 27 13 27 24 14 18 14 22 27 42 17 14 27 16 16 9 31 37 20 21 27 17 24 23 17 35 23 23 6 24 10 21 13 30 17 20 10 27 17 30 27 30 28 11 16 20 13 13 21 16 17 31 21 24 34 20 37 13 10 26 11 17 17 13 24 28 24 17 26 18 17 21 9 24 20 28 20 34 30 16 16 16 24 23 14 28 20 20 16 31 24 23 23 0 24 28 14 26 20 20 6 24 24 17 24 27 24 23 27 17 31 15 17 30 21 23 10 23 23 34 24 21 19 17 14 29 23 16 21 31 20 26 34 10 14 45 35 16 37 23 20 23 27 20 23 17 23 20 20 8 10 30 34 28 23 28 12 26 19 23 31 31 14 24 14 31 23 26 14 17 23 20 7 17 23 44 18 20 14 25 20 30 27 37 17 13 9 13 24 23 10 14 23 28 21 20 30 20 21 19 35 10 27 17 17 23 35 27 23 20 7 12 24 27 23 21 10 21 30 38 27 14 31 14 28 20 24 44 27 30 21 28 20 14 23 23 24 31 3 24 16 27 30 31 20 20 33 20 28 20 14 7 38 16 26 16 44 35 18 34 14 40 14 15 9 16 19 20 27 27 12 13 27 29 24 21 27 6 35 21 6 29 13 16 21 13 28 24 23 42 35 15 17 15 12 9 24 10 14 23 26 20 28 22 40 23 24 36 9 3 21 38 13 44 23 27 20 19 37 31 31 31 20 20 24 24 17 17 23 27 38 21 17 30 23 17 28 20 17 17 27 10 26 13 14 17 30 16 20 17 17 34 19 41 35 24 24 13 28 21 17 38 29 24 17 10 23 27 23 14 17 28 31 8 12 23 10 29 26 44 24 12 31 21 14 19 27 23 31 16 11 6 23 28 24 7 45 14 18 20 21 26 38 21 33 24 16 23 25 35 23 16 17 7 10 24 27 27 25 17 24 9 13 31 17 32 27 21 10 33 14 17 20 27 45 24 13 20 16 26 23 24 17 22 9 20 24 20 12 17 12 20 14 10 21 30 14 24 16 27 27 17 30 17 20 16 16 10 24 16 34 16 23 30 41 31 17 14 21 17 31 16 27 21 19 14 14 31 9 13 24 10 27 37 21 17 21 23 10 17 27 16 15 13 28 31 31 17 10 35 17 0 24 14 29 14 21 24 24 27 14 16 12 15 20 31 24 23 36 20 10 17 34 20 33 24 23 30 20 17 14 29 13 16 41 42 24 12 45 31 10 17 13 15 14 6 24 27 17 3 14 32 28 24 20 12 24 38 20 21 17 28 21 24 24 23 31 17 34 20 10 24 17 22 23 35 29 17 13 13 21 29 30 35 26 21 30 17 31 34 16 6 21 16 20 19 26 36 27 24 27 31 12 24 26 24 34 24 23 24 23 33 16 10 31 31 23 38 17 14 21 23 14 31 20 16 17 21 21 23 34 19 13 30 17 23 17 14 24 34 10 14 27 10 13 24 20 28 27 6 17 27 16 16 9 17 38 14 17 26 24 27 17 10 16 20 13 14 20 13 27 27 33 24 6 27 17 14 35 20 31 14 28 23 13 17 35 42 9 21 30 21 35 3 17 24 18 30 20 17 9 14 3 13 17 37 22 24 14 19 20 17 30 10 7 17 19 13 24 10 24 20 20 13 44 20 14 17 24 21 17 31 34 17 10 20 37 31 19 10 24 30 16 16 19 21 19 24 15 6 28 27 20 17 27 27 10 24 27 13 10 27 24 35 13 15 24 28 34 16 24 20 10 23 24 17 6 27 17 10 23 28 20 37 27 17 15 26 7 20 13 24 23 21 19 3 16 16 26 16 21 48 16 30 14 28 27 21 24 38 23 31 28 24 16 7 42 33 24 17 20 14 27 21 14 24 37 19 27 28 16 20 24 3 47 14 13 10 23 27 21 30 26 6 14 20 24 27 27 25 13 26 17 19</t>
-  </si>
-  <si>
-    <t>EXN(0.387909361354766, 23.04714528773514, 4.124035837512316)</t>
-  </si>
-  <si>
-    <t>28 30 21 23 27 20 31 18 21 28 28 22 25 33 26 23 30 23 16 21 25 28 24 23 23 27 26 18 24 31 26 27 27 24 27 26 31 25 22 18 21 34 30 32 23 35 36 33 30 37 37 24 29 24 19 19 23 27 19 29 22 30 17 21 22 27 26 22 32 29 18 30 21 29 26 25 22 21 23 15 26 20 30 34 21 18 26 25 31 19 27 26 29 19 31 30 22 22 27 30 25 26 23 22 16 30 29 27 27 26 31 24 28 25 26 29 24 26 24 22 28 12 26 25 31 22 24 25 26 27 22 20 24 23 24 29 32 18 30 24 26 24 29 31 25 22 22 17 30 29 28 25 21 22 31 27 23 19 25 21 24 28 24 25 27 35 20 30 32 29 24 27 24 26 27 25 26 10 20 24 18 30 24 27 30 26 23 28 22 20 18 27 25 20 22 28 22 17 33 27 27 28 25 22 25 22 19 28 27 26 25 21 23 20 22 26 31 19 35 23 26 22 27 33 28 26 28 24 29 22 26 19 25 31 31 27 17 25 24 26 27 27 27 20 26 22 23 24 25 32 21 24 28 22 28 28 25 28 28 26 25 29 15 28 24 26 20 24 24 27 18 25 26 24 29 29 21 31 31 28 17 32 30 32 23 28 20 25 27 27 19 31 26 29 28 31 33 32 31 26 21 27 22 29 23 23 26 18 28 21 17 24 25 24 20 28 22 25 26 22 15 16 15 21 19 29 22 25 19 26 26 21 26 18 30 22 27 20 18 18 32 31 26 27 23 25 25 24 23 22 25 20 23 31 21 18 28 24 26 18 21 25 19 32 24 28 24 21 25 28 22 28 27 23 20 20 25 23 18 21 32 27 23 30 23 26 33 26 25 18 19 17 29 26 30 28 30 27 20 18 29 25 29 30 22 30 17 23 33 24 22 23 16 16 27 22 26 21 25 21 23 24 23 27 22 22 27 23 28 19 28 25 16 20 17 30 28 19 25 24 27 25 15 25 24 29 25 22 26 20 32 27 30 25 26 23 26 24 19 30 23 32 29 24 23 27 23 30 29 20 25 27 24 33 26 19 32 20 19 20 32 23 21 28 29 27 23 34 26 27 27 24 22 29 32 19 20 23 23 28 28 35 32 23 29 31 32 33 35 18 26 17 25 25 19 25 29 23 29 24 30 25 27 27 25 33 22 24 23 23 23 24 23 21 20 33 25 22 20 26 27 26 24 19 20 24 24 22 24 24 27 31 27 28 24 22 27 21 23 30 35 24 19 20 15 31 25 27 29 23 16 26 26 29 16 16 24 36 24 24 22 26 32 25 24 32 20 31 28 28 31 23 29 28 25 30 28 20 24 21 24 28 22 22 25 25 26 18 29 22 29 26 26 28 24 26 20 29 29 25 28 32 18 28 22 30 22 22 26 20 27 27 28 25 31 36 27 29 30 28 24 23 35 26 23 20 27 23 22 24 23 21 32 26 21 32 26 22 29 30 22 24 23 26 30 24 28 21 21 26 22 21 27 22 20 31 22 19 24 23 23 22 30 34 29 33 24 23 16 24 26 19 21 24 30 23 29 25 29 19 22 22 32 32 21 30 21 21 25 25 24 22 25 27 29 24 26 34 19 20 19 24 22 25 25 20 16 28 31 26 21 35 20 29 21 23 36 22 20 28 27 35 22 27 18 26 27 19 26 26 21 30 24 27 24 25 26 20 24 22 19 27 20 24 30 30 29 17 23 23 23 29 24 33 21 24 28 23 19 28 29 20 30 29 36 24 17 20 23 20 19 23 23 35 18 25 26 26 21 20 20 27 28 26 20 22 24 21 24 31 20 28 28 19 27 23 28 22 26 25 25 29 27 26 25 25 17 27 27 18 21 25 23 19 26 25 20 22 30 29 23 21 27 23 26 24 27 23 27 19 26 26 25 28 27 28 24 33 26 25 22 31 31 28 26 22 31 21 24 19 22 26 30 23 18 25 32 25 31 24 25 27 30 29 23 28 36 28 26 21 22 25 28 21 28 28 27 24 30 22 21 22 29 35 28 32 31 26 23 19 29 30 25 20 19 21 29 22 30 25 17 23 22 17 27 26 22 22 20 18 20 25 29 28 24 24 18 27 28 19 19 31 32 26 25 14 22 23 24 25 25 21 23 21 34 17 18 23 24 24 31 24 31 26 26 13 22 30 22 27 26 22 20 16 23 16 29 23 29 29 18 20 22 26 30 27 25 18 20 30 21 18 29 20 27 18 21 25 24 29 25 23 27 32 24 28 26 30 29 17 26 26 22 25 20 35 26 25 26 28 31 19 22 28 24 22 25 23 26 27 29 21 21 28 33 35 22 25 22 33 27 22 30 27 28 25 25 29 23 28 27 27 30 26 24 26 29 22 24 29 30 26 28 25 21 30 25 27 20 24 22 24 21 28 26 20 23 24 24 26 18 26 29 25 26 27 23 26 18 29 28 29 25 20 32 24 31 21 23 14 20 28 30 30 24 20 26 23 28 15 14 24 23 26 17 30 24 23 25 25 28 27 28 18 15 30 30 23 15 25 20 24 28 25 30 15 27 29 15 23 23 15 22 26 21 19 22 22 23 26 30 29 24 29 33 28 28 25 27 21 30 26 34 27 34 17 27 32 25 18 22 25 23 23 19 23 32 28 29 26 25 20 23 25 24 27 18 26 24 26 29 21 26 21 29 33 15 25 25 22 24 24 29 25 27 21 22 24 26 26 30 22 18 22 21 28 29 27 21 23 18 27 24 26 20 20 16 22 22 20 25 26 27 27 23 23 28 26 22 20 29 20 23 22 24 21 29 25 19 24 16 21 27 27 36 21 22 27 23 28 23 30 28 31 26 27 17 28 25 27 24 22 20 18 24 24 25 25 23 27 29 34 24 24 22 24 22 27 27 26 21 21 24 29 21 25 23 17 38 24 22 27 21 30 22 26 23 25 27 17 28 26 16 26 26 27 26 22 27 26 18 26 30 15 26 26 29 24 24 33 27 21 23 22 23 18 22 17 24 27 21 19 24 27 26 32 21 26 25 30 30 29 32 26 19 25 30 23 27 25 30 23 20 28 30 18 18 22 23 28 30 23 22 22 30 18 29 19 23 23 21 22 21 22 37 31 26 23 20 29 25 23 20 20 23 29 27 27 31 22 21 24 24 29 28 27 30 21 25 21 35 24 24 23 29 26 22 22 20 17 15 36 23 26 27 19 28 28 25 25 29 26 25 27 14 22 25 19 26 27 30 36 30 29 17 25 23 33 22 29 25 26 23 24 18 32 19 23 24 22 29 27 27 25 31 29 24 20 24 22 17 25 25 21 31 26 29 29 27 30 34 26 25 32 27 21 24 22 21 30 23 26 30 25 29 29 27 33 30 34 24 21 17 25 22 26 21 18 25 26 24 33 24 22 20 19 23 23 16 18 24 17 24 21 24 24 21 21 31 34 38 19 21 23 21 20 22 16 25 22 24 22 20 25 29 22 23 21 21 22 31 33 31 32 25 26 29 24 25 29 20 21 33 29 22 25 27 26 28 23 21 29 18 14 21 24 22 21 25 22 30 28 23 23 24 25 24 25 15 19 22 16 18 21 24 24 25 30 19 26 23 24 17 28 21 25 26 32 22 25 27 18 27 25 28 23 22 21 26 25 27 24 31 27 23 30 28 24 25 23 23 24 24 23 23 29 17 27 31 28 24 21 28 34 22 22 27 23 26 28 28 28 23 24 25 26 20 24 26 28 25 16 26 28 24 27 30 24 22 27 27 31 23 20 25 24 30 20 24 23 28 21 24 26 23 34 24 24 20 20 18 25 31 19 22 25 22 17 30 25 22 20 19 28 26 17 25 32 20 33 20 19 22 20 18 25 26 22 24 30 31 41 31 22 23 24 22 28 17 30 25 24 34 25 26 31 26 24 27 30 20 20 22 34 26 29 33 17 27 31 32 29 19 22 28 31 21 25 22 24 30 24 22 31 12 22 29 24 28 19 26 23 25 31 21 29 25 20 20 19 16 27 33 32 26 32 19 29 24 29 31 22 32 20 21 29 30 26 22 24 24 23 31 20 21 22 21 19 23 35 21 23 22 24 24 26 24 28 29 27 30 26 13 25 21 18 27 18 29 27 32 21 22 22 26 17 30 22 23 23 24 32 27 29 23 20 19 28 38 27 19 27 28 26 25 23 29 27 26 28 24 24 20 27 33 22 12 32 22 20 14 18 29 18 20 26 25 24 26 30 20 28 30 31 19 29 29 24 23 21 26 18 24 23 20 16 19 27 16 27 25 31 30 22 16 27 28 26 28 19 29 26 19 24 32 19 26 30 24 22 22 13 24 20 24 27 21 24 24 22 29 17 22 23 13 29 25 30 20 17 24 26 20 30 25 26 26 27 22 35 30 22 22 29 29 31 25 24 19 20 26 21 22 23 29 25 31 18 15 22 30 31 30 17 21 26 14 28 29 23 19 22 20 28 31 17 24 28 19 22 25 25 29 21 11 25 25 24 25 25 24 25 23 28 28 26 20 16 20 28 21 34 15 26 22 28 24 25 24 26 24 24 31 18 21 16 19 23 29 22 27 22 28 15 25 21 24 25 21 27 27 23 20 28 22 18 22 29 21 18 27 25 24 26 22 28 24 22 25 23 22 28 22 25 28 28 30 25 27 25 23 23 27 17 23 28 17 20 22 23 25 20 29 16 25 33 21 26 21 28 23 22 26 19 21 28 25 21 23 29 25 23 24 25 27 26 25 26 23 17 26 27 22 19 28 25 23 20 21 23 18 31 30 27 23 27 28 23 23 31 30 21 20 29 27 22 24 29 32 30 21 26 28 30 21 15 22 23 20 21 30 24 26 26 21 24 29 30 21 30 19 21 19 30 25 27 28 25 27 28 26 23 23 20 27 21 31 26 19 18 18 26 25 24 19 26 26 29 21 24 31 23 24 25 29 23 30 34 25 20 16 28 28 24 21 23 25 22 27 25 23 26 22 24 29 28 23 19 24 19 28 23 25 23 31 24 18 30 20 33 24 22 27 27 29 28 29 18 30 28 21 21 29 28 23 28 20 18 27 24 21 24 26 22 26 21 22 24 17 20 28 23 19 23 25 17 24 23 26 40 26 27 24 28 27 24 26 17 28 27 28 20 19 25 17 21 28 26 21 23 19 33 25 30 22 31 24 18 27 29 23 25 31 22 24 20 28 22 22 24 23 18 22 23 26 36 10 16 20 27 27 30 28 25 22 23 23 27 23 27 27 18 29 27 25 22 28 19 25 26 25 26 28 27 24 24 21 25 29 23 27 29 25 26 21 21 25 28 31 29 24 19 20 24 22 26 25 29 28 31 31 17 18 23 34 29 24 25 23 23 23 33 24 27 27 23 26 29 25 27 28 25 21 27 23 27 25 31 18 33 26 24 32 33 33 29 21 24 21 25 26 28 28 21 30 25 33 21 24 20 23 13 29 23 23 22 34 27 25 27 30 18 17 29 17 20 34 28 28 20 29 25 25 27 27 18 17 24 17 21 30 25 20 31 27 27 24 28 25 27 24 19 21 25 24 25 24 26 26 24 28 20 26 24 28 29 24 28 20 21 22 29 23 19 22 31 23 22 28 19 28 18 23 28 26 23 20 20 24 26 22 18 25 17 25 27 23 25 25 24 26 27 22 29 22 30 23 21 27 30 23 25 28 31 23 16 21 27 21 29 26 24 22 30 33 25 34 33 19 33 28 21 26 30 25 28 18 25 25 18 25 25 22 29 25 23 22 29 28 28 24 29 25 20 23 25 28 28 20 27 30 29 27 28 21 27 19 22 18 28 16 20 22 32 19 23 28 23 22 21 31 27 16 24 22 25 22 24 19 18 23 22 21 24 21 19 24 20 24 18 24 34 27 22 28 30 31 15 31 24 28 26 22 22 27 24 30 22 20 23 29 27 21 24 20 20 22 35 23 24 20 22 19 14 21 23 27 23 28 21 22 22 29 25 12 36 26 29 22 21 27 24 22 22 27 27 20 26 19 30 21 27 22 25 29 24 18 29 23 20 24 23 27 25 25 19 29 23 24 23 19 31 21 20 27 21 29 29 29 28 28 29 21 16 32 20 25 31 19 29 25 24 24 29 32 30 36 29 26 22 21 23 20 27 38 27 28 23 24 27 19 24 22 16 25 14 21 18 21 26 18 28 23 23 35 28 26 15 26 25 22 28 26 27 29 25 25 17 21 19 17 18 24 24 24 26 19 20 27 16 28 17 21 25 24 33 17 28 26 21 25 28 25 25 28 24 23 26 29 24 27 32 22 33 29 24 26 25 21 24 22 25 34 29 27 25 23 23 20 25 28 25 33 21 23 34 25 30 22 21 32 17 19 33 18 19 29 30 24 21 23 23 18 20 22 24 16 22 15 27 22 31 27 23 23 19 31 22 23 26 21 31 28 23 32 19 25 33 25 22 18 19 24 28 28 33 16 31 26 20 22 30 29 21 27 24 28 34 24 18 26 24 17 28 18 16 24 29 16 30 25 22 19 28 21 28 24 19 23 27 24 28 31 21 27 31 35 28 25 28 26 34 26 20 27 30 19 21 22 21 25 21 23 24 23 28 28 21 26 26 22 30 32 29 17 26 25 27 32 29 25 32 23 32 24 23 22 26 26 27 29 23 18 24 21 18 21 21 24 33 40 21 18 33 22 29 16 25 34 24 29 33 25 24 26 29 27 19 26 29 29 20 29 27 29 23 22 15 16 14 26 30 24 20 26 25 31 27 23 27 24 19 28 20 17 22 22 24 25 30 21 29 25 17 22 31 20 22 21 27 18 18 19 25 20 22 28 24 26 20 28 28 19 19 21 26 24 23 37 23 20 25 29 34 32 23 23 28 29 20 26 16 28 23 27 35 19 35 19 27 18 21 22 18 21 27 20 27 25 19 24 16 35 29 22 20 27 17 27 18 19 20 27 27 26 19 21 18 28 29 26 20 23 27 30 23 24 18 23 22 32 29 30 30 19 27 17 24 26 20 27 21 28 25 28 15 30 22 30 22 18 29 31 21 22 25 32 19 22 30 26 27 19 21 17 22 30 31 24 22 20 21 23 25 28 24 15 26 25 21 28 24 25 24 21 29 22 28 29 23 24 32 21 25 31 29 29 20 28 23 40 24 21 21 24 24 22 23 25 24 26 30 27 23 28 24 28 21 30 17 25 23 25 27 22 28 24 25 22 31 34 16 22 24 19 20 29 24 25 19 23 31 26 21 20 32 25 22 26 26 33 25 22 32 20 16 27 20 24 20 15 31 28 26 19 19 30 31 29 23 18 33 24 23 26 27 31 37 28 21 24 28 23 21 25 34 27 22 21 21 25 22 17 24 22 28 25 30 29 27 17 20 23 27 32 20 23 24 34 24 22 23 29 31 22 20 30 25 28 23 30 30 27 30 18 36 35 14 25 20 27 27 28 24 18 26 25 32 27 20 16 22 28 12 22 26 28 23 28 28 19 23 26 23 23 24 25 31 27 29 30 21 18 28 20 23 27 23 23 30 22 25 26 31 34 27 23 25 28 27 27 28 22 21 21 26 32 21 24 22 27 22 25 32 25 22 26 29 21 22 28 29 18 30 27 20 18 18 16 22 18 24 22 21 29 31 30 22 20 21 27 20 23 32 21 24 24 20 24 19 21 25 36 26 27 25 22 24 25 22 20 27 26 30 22 31 26 18 30 24 30 26 26 29 21 26 29 24 21 27 25 25 27 19 27 24 26 24 18 28 20 24 33 22 24 27 23 27 29 25 27 28 28 22 21 28 26 22 28 21 23 26 27 20 24 31 26 19 25 15 23 26 25 30 28 21 24 27 19 20 26 28 25 18 28 25 28 24 28 26 21 24 26 19 24 20 24 16 24 24 16 23 22 19 27 18 26 32 18 26 35 22 28 23 24 23 32 21 23 27 26 31 23 15 24 26 31 23 21 27 29 27 22 25 32 16 20 16 20 21 30 19 30 17 32 28 27 22 25 30 35 23 24 26 23 24 30 24 29 22 31 26 18 22 27 20 24 25 24 28 24 17 25 27 27 19 23 30 30 23 17 37 24 26 20 29 30 25 39 23 26 26 26 24 24 21 22 24 29 27 29 18 31 26 29 31 24 28 24 22 30 23 32 24 23 22 28 27 23 19 30 24 20 23 22 23 32 32 20 21 34 21 26 23 27 33 30 18 30 19 24 20 18 27 27 22 23 28 16 24 21 21 24 25 30 18 26 19 21 15 33 23 26 22 21 23 29 27 20 27 28 20 23 22 26 25 19 22 28 23 21 26 31 23 26 16 27 22 28 18 20 28 23 21 32 30 29 21 25 19 24 29 21 15 31 13 31 33 30 24 23 13 30 25 25 30 23 25 26 31 31 32 29 26 20 20 27 21 24 24 30 25 35 17 25 21 21 27 28 26 29 23 21 23 23 27 22 26 31 27 26 22 26 24 23 21 27 31 18 19 28 20 27 28 22 17 27 18 21 22 25 18 32 22 23 29 21 23 24 23 21 33 20 17 29 22 24 29 24 21 24 20 33 28 20 26 34 13 26 33 25 22 25 26 27 24 27 23 24 20 22 27 34 26 24 18 17 29 23 27 23 22 24 21 25 23 23 19 23 27 27 29 23 26 27 27 28 25 22 29 28 24 27 21 23 28 25 24 18 27 24 18 21 22 17 30 31 20 20 27 24 22 18 35 26 24 28 20 24 33 22 29 24 24 25 23 28 28 20 18 29 26 21 25 28 20 30 28 20 21 18 25 25 28 26 27 29 29 31 25 26 22 27 26 22 24 27 24 30 22 29 22 21 31 22 18 27 22 20 30 23 19 28 16 29 26 26 30 29 23 27 31 30 26 28 30 29 25 32 21 23 17 23 30 25 28 32 23 22 23 25 19 20 26 22 25 23 21 24 23 18 28 32 22 23 21 23 16 25 21 20 29 22 22 22 24 19 17 21 18 29 21 22 28 19 23 25 25 36 20 23 22 30 33 25 25 21 25 25 20 17 20 22 28 17 21 23 21 19 22 19 32 33 21 21 17 24 29 23 23 20 31 25 21 19 23 22 19 22 27 28 19 26 20 19 20 30 23 22 29 27 21 23 23 18 24 27 24 17 28 19 24 23 24 24 27 28 27 36 26 30 27 26 21 28 25 22 34 22 14 20 27 30 40 21 21 16 24 28 30 19 24 15 28 18 30 25 31 32 28 25 27 21 29 23 15 26 17 29 31 31 25 27 30 20 15 32 32 23 19 26 27 25 26 21 21 30 28 28 34 21 27 26 24 21 28 20 20 23 21 21 25 26 27 29 22 29 17 27 23 28 23 25 23 24 25 21 34 25 28 27 26 24 24 18 22 25 37 17 23 25 31 22 22 28 26 23 18 24 26 21 29 21 33 16 21 29 23 25 13 31 34 17 35 15 24 31 18 26 17 25 28 22 17 21 21 24 18 31 26 28 25 24 18 16 26 25 29 18 25 23 26 28 30 27 28 23 21 18 19 33 19 26 33 31 27 33 26 30 27 20 14 24 26 30 23 18 30 24 24 29 31 18 22 16 15 24 29 22 22 25 24 30 27 25 17 25 19 22 23 21 27 33 19 22 19 18 21 20 29 30 30 30 25 28 21 23 22 21 29 9 22 24 25 23 25 24 37 16 20 26 32 24 17 31 21 21 23 28 31 21 24 19 29 17 27 22 29 33 25 28 25 31 23 26 33 24 29 28 23 31 23 22 27 20 23 29 27 31 23 22 17 31 17 25 27 26 25 26 30 32 26 29 28 21 26 29 27 26 21 21 25 27 19 18 35 22 17 24 26 25 22 28 25 24 20 15 24 16 21 17 29 24 23 20 28 31 24 21 29 23 18 28 27 21 26 27 25 23 24 25 27 27 19 26 20 33 25 22 31 20 23 23 19 22 24 24 23 24 17 30 23 26 31 23 31 26 29 32 24 29 29 25 27 28 34 26 23 23 24 26 22 22 19 29 25 20 21 22 25 23 21 20 25 24 30 25 20 30 22 25 26 27 27 23 23 28 24 26 25 26 24 18 29 32 27 23 26 24 29 15 34 32 22 28 29 26 35 23 22 24 28 18 26 21 25 18 25 21 25 29 25 24 22 20 24 18 22 33 32 24 28 24 28 27 18 27 18 27 16 24 25 23 20 32 26 23 23 26 27 23 24 25 31 25 26 26 22 24 28 23 18 20 29 22 21 27 29 17 32 21 26 31 26 18 28 16 24 15 22 25 26 27 26 26 19 21 29 25 17 32 23 28 30 30 29 30 18 35 20 30 31 26 29 25 28 30 24 29 24 26 33 24 25 18 22 29 30 18 17 22 27 24 32 31 26 25 19 23 24 20 32 15 20 30 23 22 28 20 28 20 20 27 21 20 23 20 23 16 26 25 23 26 19 24 27 26 16 37 18 24 26 20 24 23 27 25 34 21 25 22 24 27 13 27 32 22 29 21 29 32 27 25 30 27 22 34 29 34 22 39 20 21 27 20 22 21 18 21 21 28 31 25 36 23 26 28 22 19 20 20 24 17 24 23 25 30 33 19 22 26 22 25 23 20 21 21 22 19 32 29 25 26 25 31 26 26 24 22 22 34 24 28 23 26 30 22 24 29 19 26 20 29 18 20 29 25 17 25 30 25 25 18 28 20 27 32 23 13 22 28 23 25 22 26 23 31 26 27 30 25 17 25 18 29 23 27 13 33 20 31 25 31 21 30 37 20 23 29 25 31 20 26 19 24 30 31 34 22 21 21 24 21 31 25 20 21 28 30 35 27 28 21 24 24 23 30 26 32 21 24 27 14 21 23 14 24 31 24 15 31 21 31 30 26 25 20 21 35 20 29 27 29 23 16 33 23 27 23 16 24 26 24 27 18 27 26 17 30 31 15 22 23 34 26 25 30 23 24 33 25 27 26 30 22 17 21 19 19 26 28 28 22 29 16 19 24 27 29 22 28 23 25 24 15 26 22 24 31 23 17 22 24 30 23 24 18 24 20 26 25 26 24 27 25 25 21 36 32 21 32 18 27 27 22 26 27 28 29 19 19 23 25 23 22 26 26 29 20 27 26 29 36 24 32 23 27 25 23 28 33 23 22 28 26 21 33 25 22 24 24 27 25 23 35 28 25 26 27 17 19 16 22 28 31 24 19 31 29 26 21 17 33 31 25 21 22 20 25 24 26 20 29 15 20 29 27 29 28 22 34 26 19 27 27 23 28 20 19 30 30 14 24 21 22 28 25 22 23 22 20 26 23 26 25 26 24 27 28 21 21 23 32 20 31 34 16 22 25 25 22 23 26 25 25 35 26 27 31 31 28 19 31 32 19 18 31 16 20 27 19 21 19 28 21 17 21 19 27 24 22 20 25 20 20 18 26 28 24 25 21 26 26 25 25 15 21 22 36 16 27 24 18 19 24 27 24 22 31 29 31 19 20 28 29 21 20 20 28 18 15 29 26 14 29 23 32 19 30 28 16 22 28 23 21 25 22 23 29 32 22 29 22 34 19 23 22 33 16 25 17 25 16 22 23 23 20 19 21 20 26 18 24 37 25 31 17 29 26 34 25 32 27 27 28 29 32 25 26 17 19 20 22 33 22 32 18 29 21 24 24 31 22 26 31 22 18 15 28 30 23 28 28 27 27 32 22 26 29 21 28 36 33 22 27 29 21 31 20 21 28 23 23 23 22 31 30 28 17 20 25 19 40 25 20 26 25 29 21 29 30 23 27 21 31 25 23 28 30 26 26 24 24 28 25 21 24 23 29 32 18 31 27 33 20 19 23 26 26 24 20 29 25 25 26 32 21 22 20 20 26 24 15 24 34 23 18 25 20 31 23 23 20 23 21 20 27 23 25 26 27 27 28 25 19 24 24 25 13 18 25 33 35 27 28 18 24 26 21 24 24 29 28 22 22 29 20 17 19 22 30 28 27 32 21 25 22 30 22 18 22 30 28 21 23 30 17 26 17 26 24 23 15 28 25 22 25 20 26 18 29 23 23 29 23 28 26 28 22 23 31 27 38 32 22 19 34 24 25 22 29 31 29 23 22 22 21 24 27 29 30 16 22 26 18 32 28 33 25 24 29 23 26 22 25 16 32 27 22 26 18 19 23 29 20 22 25 28 27 25 27 23 31 28 22 27 28 28 28 20 25 15 21 27 15 16 32 22 30 18 29 33 28 20 26 21 22 20 24 25 23 21 19 28 29 23 18 25 29 21 23 23 20 26 26 25 20 32 23 23 21 21 26 29 30 29 22 27 22 25 16 21 26 22 24 19 20 29 19 21 27 28 27 27 32 22 26 22 32 26 30 28 27 26 26 25 16 32 28 23 19 23 29 29 16 27 18 32 33 28 24 27 27 19 22 22 28 24 26 22 17 21 20 30 31 26 26 23 25 29 24 19 18 19 25 29 23 17 23 16 28 29 25 25 28 24 31 16 18 32 21 14 23 24 25 23 22 31 17 29 22 30 24 24 27 28 24 21 30 28 28 24 27 25 14 25 29 25 26 29 24 27 12 24 31 19 21 19 26 16 25 21 25 24 15 30 21 20 26 16 21 17 22 25 23 23 21 19 31 25 22 30 24 21 24 25 19 26 28 25 27 25 29 24 27 23 29 26 24 23 28 34 29 23 20 25 28 24 23 24 18 27 27 27 24 32 32 27 27 21 29 24 30 27 25 28 24 20 23 19 22 22 18 24 25 23 33 24 24 21 27 16 19 28 25 19 17 28 21 38 23 19 34 27 23 22 17 29 30 22 24 25 36 21 28 28 31 24 21 23 27 17 25 20 20 21 23 22 29 24 28 28 23 26 28 22 30 22 22 24 29 22 22 25 25 28 25 21 24 23 20 24 20 29 20 30 29 28 20 25 23 28 29 33 22 26 23 25 27 28 28 24 30 24 28 29 21 23 24 25 28 23 32 21 29 26 19 21 28 23 19 12 27 27 26 22 26 31 23 27 29 22 19 28 17 24 23 28 24 23 28 29 24 24 23 33 29 23 24 18 16 19 23 24 26 26 24 33 22 35 24 34 21 25 20 30 17 22 30 26 22 22 24 25 30 19 28 21 22 24 18 35 21 23 22 25 26 32 22 21 17 20 31 25 15 23 25 25 31 21 25 25 31 28 29 18 38 22 26 23 25 23 29 24 27 37 29 25 32 27 18 24 19 25 20 20 19 21 25 23 18 29 31 30 30 22 30 30 28 29 18 28 30 24 21 18 24 29 23 25 26 21 23 33 15 27 20 22 19 20 24 33 20 21 19 32 20 22 36 29 23 20 25 30 24 25 28 22 30 24 32 26 23 25 26 25 24 25 18 26 20 31 23 25 26 30 32 25 29 21 18 20 22 26 27 22 29 26 25 28 23 20 26 35 23 24 34 29 25 25 25 25 27 25 32 27 31 24 21 22 25 29 26 23 8 16 28 35 31 22 18 22 19 26 28 21 19 27 30 29 25 32 29 26 18 17 21 25 31 20 16 26 25 20 24 34 31 25 26 30 31 32 25 21 22 34 27 31 23 23 21 20 21 22 26 28 29 19 16 27 26 32 30 24 22 20 30 19 29 23 23 22 31 29 26 14 24 28 24 22 25 28 24 16 32 25 30 25 25 17 23 25 28 25 25 32 33 28 23 30 31 20 27 26 20 28 22 21 33 29 26 29 26 27 23 26 24 23 23 30 23 25 33 24 30 24 25 21 22 20 24 26 27 27 21 19 21 24 19 28 28 18 28 23 29 33 20 28 27 20 24 29 18 24 20 21 22 21 31 29 22 25 23 27 14 18 26 17 22 23 21 22 24 20 19 22 20 25 23 29 26 26 27 28 24 25 27 22 19 26 25 25 27 32 25 25 25 22 25 32 27 32 27 20 30 21 22 31 17 26 22 28 19 26 18 27 23 26 26 22 21 22 21 18 29 27 26 24 19 29 19 26 26 22 26 28 31 25 25 23 29 22 18 25 23 25 25 17 19 27 34 26 21 26 11 21 24 24 23 22 21 23 23 21 21 19 21 30 23 28 28 25 24 21 29 20 33 18 20 23 22 32 30 17 31 26 21 23 34 31 19 21 23 27 27 18 24 31 21 24 20 27 26 25 21 21 26 27 23 23 26 26 20 25 21 26 24 30 25 24 34 25 25 29 27 26 26 25 20 25 17 25 25 22 24 19 30 29 29 24 20 21 30 31 22 22 21 27 25 25 20 17 19 24 19 21 26 37 23 23 26 36 18 34 27 31 21 25 28 23 28 23 23 26 29 24 17 21 25 19 28 17 25 24 20 26 25 27 21 26 22 17 22 22 23 28 30 28 20 23 24 25 30 24 25 28 30 33 24 27 25 25 25 21 34 29 35 28 25 23 25 20 34 26 26 28 22 28 26 17 31 27 26 25 30 30 28 22 27 26 25 24 23 22 24 27 22 18 30 27 25 19 21 23 30 17 22 23 25 24 18 27 25 28 18 22 21 28 28 19 25 24 19 31 19 34 21 27 25 23 22 19 26 29 23 17 26 24 26 25 16 31 28 30 27 23 17 26 26 26 25 22 29 22 21 26 21 27 24 20 30 25 27 22 22 18 18 27 27 26 25 27 32 29 31 25 23 30 22 24 19 23 16 27 26 20 31 24 33 30 19 23 22 22 26 24 25 20 23 30 22 24 27 31 22 29 25 21 27 21 27 19 20 24 28 21 25 27 14 20 28 20 28 17 26 29 30 25 22 29 30 28 20 21 22 35 36 20 24 20 21 26 27 16 22 24 20 26 25 20 28 24 23 22 20 19 19 22 27 27 30 27 26 18 30 22 23 23 25 25 23 26 28 21 24 25 22 32 31 29 33 32 30 17 22 29 21 27 19 25 30 25 18 25 18 28 34 19 27 23 26 23 22 26 19 23 30 21 23 12 21 19 25 25 20 24 35 29 24 31 19 21 32 22 19 22 32 19 31 21 23 24 29 29 23 23 18 24 20 31 21 22 22 31 20 22 29 34 26 27 20 26 25 21 24 27 24 35 25 21 20 25 20 23 25 28 26 28 24 28 24 21 21 28 24 20 26 23 42 22 28 34 23 22 20 23 21 18 24 29 24 19 22 20 24 25 26 35 25 23 21 23 26 27 31 31 25 31 19 20 22 30 24 17 28 22 28 19 19 21 28 23 23 25 18 31 25 23 24 30 29 17 37 22 27 24 26 29 23 26 32 22 18 31 20 22 25 19 28 36 28 20 20 23 20 28 21 36 27 21 24 19 19 25 23 28 34 26 25 24 26 25 22 19 19 33 31 27 16 24 25 26 20 29 26 22 22 22 25 18 27 25 24 21 22 23 19 25 31 23 25 24 18 32 20 37 25 29 26 23 29 18 16 24 22 29 28 27 26 32 30 25 28 25 20 18 23 27 26 32 21 25 32 22 23 25 19 25 22 34 33 33 25 25 16 25 17 25 26 26 22 24 20 29 24 30 26 16 32 26 21 20 15 28 26 25 21 26 25 31 25 21 21 24 25 25 22 23 29 25 18 19 29 27 28 25 24 23 24 22 24 30 24 18 24 30 23 29 25 24 26 25 39 19 20 29 28 29 33 26 23 25 17 27 28 28 26 28 23 19 24 22 25 26 24 26 29 22 26 21 28 26 23 28 32 31 24 32 21 23 23 20 27 28 27 25 17 23 27 24 24 31 21 25 16 17 30 32 24 18 23 27 26 22 29 27 22 19 24 20 21 17 29 22 27 23 21 20 28 19 28 33 32 24 24 22 28 22 18 30 27 23 26 27 18 26 21 22 29 24 18 31 28 25 22 21 20 19 23 20 28 26 28 21 31 30 32 25 21 18 26 28 23 25 24 36 20 25 27 19 29 33 19 21 21 23 24 21 24 25 16 26 24 22 28 23 24 22 28 20 21 29 27 27 26 27 23 25 20 23 29 22 20 25 21 32 19 21 20 21 24 23 17 26 17 24 18 23 30 21 18 18 24 18 25 19 25 22 35 18 25 23 15 18 33 25 25 24 23 23 27 21 26 19 25 28 25 29 27 28 19 27 10 27 31 28 21 22 18 23 28 24 22 23 27 31 27 31 23 20 19 24 27 28 23 27 26 25 23 26 25 28 32 22 20 29 24 26 23 22 22 20 23 22 36 24 29 23 13 32 31 24 25 26 24 23 25 22 23 24 23 23 22 23 25 26 27 20 24 22 20 22 19 31 23 32 29 20 20 18 28 27 27 30 24 25 33 26 21 23 30 29 30 22 27 23 24 24 26 17 20 26 19 20 20 24 20 28 23 28 28 22 19 21 29 33 16 30 18 27 25 26 26 24 24 22 34 19 32 25 22 24 15 21 22 17 28 21 31 25 27 28 28 26 33 24 29 28 26 30 16 20 30 31 19 25 21 28 26 20 25 21 27 31 17 15 25 27 24 26 21 31 20 28 29 22 28 23 28 26 17 30 36 25 21 20 24 24 25 22 25 26 23 33 25 25 30 21 34 31 26 34 27 31 23 16 30 27 23 17 38 27 29 28 22 17 22 29 25 22 22 24 31 16 22 28 24 18 22 26 24 24 27 30 25 31 19 21 19 24 27 24 22 34 34 30 29 29 18 20 24 32 22 24 28 28 23 25 26 25 28 27 25 24 23 26 30 27 25 25 28 21 24 21 25 17 25 34 32 23 29 17 26 15 24 27 28 26 25 29 15 15 26 28 23 27 18 27 24 20 26 25 23 34 24 22 34 30 25 21 24 28 18 24 26 19 19 24 31 16 33 24 25 29 20 26 25 27 22 19 19 32 25 24 24 30 32 17 23 21 32 33 24 30 27 21 25 25 26 23 21 25 32 21 29 28 25 28 28 25 30 26 26 30 25 28 24 19 21 23 18 28 35 25 18 21 25 27 22 32 25 24 21 29 22 32 24 18 19 21 20 29 27 28 28 34 15 24 23 27 17 28 25 23 30 23 22 23 21 25 20 24 24 27 25 29 24 34 28 24 28 34 17 20 29 27 25 25 28 22 23 25 23 29 20 21 22 23 30 28 20 25 17 27 31 29 25 22 30 28 18 16 25 25 26 21 24 22 24 17 17 23 36 30 26 25 29 28 26 25 25 17 26 23 28 22 22 21 27 29 28 22 25 29 33 24 28 25 21 23 18 18 21 14 24 23 31 25 24 20 23 21 20 19 17 24 26 23 16 23 25 23 26 28 27 25 30 27 27 26 29 29 31 27 24 30 19 22 19 23 18 26 27 33 22 25 34 25 29 25 21 18 20 31 26 26 29 23 28 26 25 23 24 24 24 30 27 27 34 26 21 18 24 24 31 31 27 23 17 28 25 31 30 27 25 20 26 26 24 20 24 26 20 27 30 25 24 23 29 24 25 24 28 26 29 25 27 25 25 24 28 16 28 19 30 23 24 29 21 23 24 21 22 22 31 20 27 27 30 26 25 26 26 20 21 29 24 33 23 25 25 23 20 23 21 27 19 15 21 24 24 24 27 21 31 32 23 24 28 22 24 23 27 22 18 26 29 29 20 28 22 25 23 26 28 27 23 25 23 19 25 33 26 24 20 21 25 23 22 25 26 27 21 28 19 24 20 30 26 24 24 23 20 17 24 35 34 27 19 18 26 19 25 20 22 25 20 27 19 22 29 29 25 21 25 21 26 19 22 19 26 27 27 32 25 34 32 21 16 19 18 28 28 14 22 22 23 24 16 28 23 21 23 16 22 27 27 39 20 22 27 25 20 25 27 25 20 22 24 25 17 21 23 19 25 22 31 23 23 30 24 25 24 31 22 30 26 21 21 21 30 25 25 25 30 28 30 27 37 25 19 25 22 26 27 28 26 25 36 19 26 30 24 25 24 25 24 25 32 19 18 34 31 26 27 21 33 23 21 25 20 31 28 24 25 25 20 19 28 20 19 23 24 23 21 20 26 17 31 22 21 20 28 24 22 31 20 21 17 24 17 19 26 30 19 24 23 24 21 24 34 28 33 23 30 21 25 23 25 21 32 21 29 21 25 27 25 26 17 21 19 23 31 22 29 25 27 25 22 25 24 31 28 22 25 18 24 22 31 29 25 23 28 26 32 30 28 26 25 24 25 26 25 28 28 22 23 24 23 23 25 19 27 18 27 19 33 28 26 30 24 19 27 28 28 19 21 27 20 25 26 20 29 26 32 18 21 23 21 18 32 26 41 15 28 24 21 26 23 28 29 19 26 19 23 18 16 27 27 23 25 23 21 19 23 23 21 36 26 26 26 28 23 29 23 25 21 24 33 20 23 29 28 19 31 30 19 26 33 25 35 18 21 28 30 26 28 34 29 20 30 25 30 25 23 18 27 31 24 14 31 23 25 22 22 28 22 34 23 37 25 24 26 14 22 25 27 24 23 21 28 27 22 23 20 29 24 19 23 25 22 28 25 24 23 22 26 28 21 23 23 27 22 22 29 33 27 13 22 21 30 32 21 25 27 18 28 26 26 21 27 31 28 21 32 28 29 24 24 19 37 20 16 24 17 20 32 31 31 28 24 18 19 20 28 22 23 29 18 19 28 21 32 19 27 26 23 24 16 24 18 24 22 28 24 29 29 26 20 26 30 22 26 30 17 28 21 23 27 24 23 29 27 25 24 23 22 21 25 25 18 28 24 39 27 26 19 23 23 20 21 18 23 25 27 23 25 24 21 20 26 30 23 21 27 18 25 21 30 27 21 22 24 22 24 28 21 18 23 26 25 24 23 25 26 21 19 25 23 22 22 22 31 27 20 20 25 23 20 23 25 31 26 29 28 27 27 19 19 21 29 14 29 27 22 22 20 22 28 24 21 26 32 30 24 13 31 24 25 30 25 22 24 19 23 22 18 21 22 27 20 17 16 23 20 22 29 28 28 23 27 24 26 33 23 31 24 24 25 28 27 24 21 33 33 27 20 19 27 17 15 30 21 28 33 28 24 36 22 27 24 29 27 24 27 29 30 23 29 21 31 21 22 26 27 27 23 14 27 17 27 24 27 23 21 27 23 22 23 28 20 24 17 31 24 28 22 27 26 28 20 30 23 20 18 23 27 22 22 17 26 21 26 32 27 18 22 21 33 29 26 28 19 25 29 22 24 26 23 18 29 22 23 15 22 25 28 28 24 26 29 19 20 24 21 28 21 23 34 21 27 34 30 22 22 23 23 26 26 37 33 22 12 24 26 26 26 21 21 24 23 28 27 21 18 29 19 25 21 25 31 27 24 29 20 22 25 21 26 31 25 27 29 23 24 26 16 21 32 29 27 26 20 24 27 29 19 27 25 23 19 25 27 18 25 23 26 21 25 30 23 20 25 31 22 25 24 26 23 28 23 25 20 28 23 21 25 20 18 31 22 26 23 25 21 23 19 27 36 20 19 29 20 29 24 21 27 24 22 28 23 25 18 33 31 18 27 15 28 32 22 27 30 26 30 19 26 21 23 20 22 24 26 29 17 26 30 19 24 26 32 29 16 30 20 24 23 26 22 28 24 23 19 33 30 31 25 26 25 22 24 27 28 16 33 31 24 19 28 21 25 22 24 25 35 17 20 25 18 23 31 24 24 26 35 18 26 23 22 22 23 26 16 22 26 30 31 20 22 27 26 21 28 25 25 27 30 36 30 21 25 27 20 22 24 27 27 19 35 35 26 16 27 23 24 30 22 26 26 22 34 22 25 20 20 22 17 27 18 25 26 24 18 29 21 24 30 22 21 23 25 22 36 26 33 20 23 28 29 27 20 27 18 32 27 20 28 33 27 26 26 21 27 21 31 27 27 27 31 28 28 26 24 24 23 20 14 20 25 32 28 21 29 21 26 31 24 23 19 30 34 20 23 31 34 26 25 17 20 30 28 22 19 28 22 15 25 21 20 22 21 30 25 21 28 23 22 20 26 23 28 25 25 19 17 21 28 24 16 24 26 27 28 24 19 22 24 24 24 32 20 23 27 20 20 28 16 18 27 23 30 25 28 30 23 26 29 27 28 25 26 29 22 24 28 35 26 19 21 23 30 33 35 23 30 29 23 24 18 18 18 26 18 31 21 26 25 34 24 26 29 21 25 28 18 31 24 20 27 27 29 22 16 34 22 31 21 26 21 16 26 21 28 17 22 27 27 29 19 19 30 26 25 33 22 24 22 30 30 30 28 17 33 30 31 17 32 27 23 18 28 22 23 22 24 22 15 24 31 25 23 19 33 20 39 20 19 21 27 19 23 17 23 22 20 26 24 29 19 25 21 25 21 27 29 34 23 17 28 31 31 26 32 18 25 26 17 29 24 21 23 35 23 27 30 26 26 25 19 27 26 20 29 27 26 13 22 15 27 26 18 18 30 33 28 29 34 24 20 23 35 33 26 27 29 21 28 24 19 16 24 18 23 33 33 24 32 26 21 24 22 30 24 21 23 28 18 27 17 29 30 22 22 22 24 36 18 16 26 23 24 25 32 23 21 25 19 21 30 23 25 19 22 17 18 23 29 34 27 23 25 25 20 22 24 32 29 19 34 29 23 22 24 23 20 23 20 27 17 23 15 26 28 30 30 26 25 25 22 28 25 29 25 23 26 23 28 22 24 25 24 29 19 21 27 30 21 15 30 28 19 22 21 26 29 25 25 21 20 32 15 32 29 30 20 27 28 23 22 21 27 33 27 27 29 29 18 24 21 30 19 25 19 25 23 22 20 27 26 28 20 25 25 25 23 19 22 23 29 24 25 23 28 26 20 27 23 24 28 22 20 26 26 25 24 23 20 24 12 20 21 27 26 28 23 23 23 23 20 30 27 28 22 24 31 28 33 22 24 21 23 28 25 31 25 26 24 29 26 23 21 26 27 27 22 24 21 31 27 22 32 29 26 18 25 26 21 25 20 32 18 22 29 20 26 20 30 20 22 18 18 30 21 28 21 22 19 26 24 25 23 26 29 26 26 23 22 23 25 22 21 31 24 25 30 26 33 27 19 22 25 24 24 20 20 20 21 24 26 22 28 32 22 21 20 27 25 27 26 26 29 21 25 23 25 25 29 26 24 26 22 28 29 29 28 20 26 22 27 19 31 24 38 23 28 21 19 19 28 32 27 20 21 25 26 22 21 21 33 28 27 23 24 26 27 25 23 34 25 17 28 25 20 24 21 28 26 26 27 28 34 27 28 23 24 19 21 21 30 30 22 21 33 33 30 30 29 26 21 29 21 22 31 21 28 21 28 18 24 21 20 27 29 21 24 21 25 26 25 22 25 29 22 23 19 40 23 17 21 25 22 22 21 22 25 27 27 27 28 23 32 25 17 22 30 23 20 34 28 36 25 29 19 17 27 26 33 28 32 22 24 23 18 20 36 19 22 21 29 29 22 21 26 24 26 22 32 16 18 22 21 23 26 23 20 26 28 23 28 36 24 20 18 25 19 29 21 27 28 31 26 21 22 32 30 23 21 19 25 25 21 25 25 33 21 29 23 22 24 27 23 23 29 30 24 27 19 23 24 25 27 20 34 20 20 28 25 34 26 18 31 24 24 21 26 29 25 23 31 25 28 23 25 32 26 25 32 21 26 21 22 30 25 23 22 29 25 23 21 31 33 29 21 21 25 33 27 18 29 25 29 25 21 26 22 19 19 30 20 22 25 24 17 28 15 22 20 34 22 30 22 21 26 28 28 18 25 20 23 33 32 25 18 16 19 26 27 28 17 30 34 23 31 20 23 18 24 22 27 26 20 27 24 23 28 22 32 25 19 21 20 26 31 13 22 34 26 23 26 24 24 30 22 26 23 28 25 18 20 20 26 33 25 27 24 26 21 21 29 25 25 21 28 30 26 31 27 25 27 24 31 31 33 25 28 22 19 28 24 27 25 30 17 30 21 23 20 30 19 27 25 28 24 30 19 24 26 31 19 24 24 25 23 19 29 25 30 21 25 29 22 31 34 26 25 21 24 24 26 29 31 27 25 29 22 29 24 17 30 26 30 16 20 28 26 24 22 27 14 28 26 29 31 28 20 25 31 25 18 20 26 23 32 31 28 18 29 19 21 20 26 18 26 16 24 24 24 19 22 28 30 30 19 26 22 32 20 20 26 24 20 27 20 27 26 22 23 17 23 24 21 21 29 27 26 21 23 25 25 20 25 19 19 22 31 17 28 31 27 29 28 28 26 20 31 21 23 22 23 21 21 17 28 29 21 23 20 24 27 15 19 25 19 28 28 25 27 26 17 25 14 23 22 31 25 21 22 18 35 19 28 19 30 25 21 25 26 20 22 27 23 27 24 18 26 20 24 30 25 16 22 23 28 33 24 23 30 27 22 20 33 30 27 21 28 18 31 32 22 23 28 29 22 18 30 27 26 10 28 29 29 21 23 24 33 21 24 27 21 23 23 21 17 32 26 22 25 26 25 29 28 22 26 25 15 27 31 22 26 24 26 17 32 19 32 17 13 29 24 26 23 29 26 22 20 28 26 31 21 23 21 21 28 26 28 23 30 23 25 30 21 27 34 32 27 27 26 28 27 21 28 22 16 20 21 23 24 27 25 26 30 23 26 30 24 21 25 33 21 27</t>
-  </si>
-  <si>
-    <t>JSB(13.106791145028012, 10.222334084984077, -37.56810176700133, 335.485485043199)</t>
-  </si>
-  <si>
-    <t>39 40 35 32 38 37 36 26 31 41 37 43 35 44 36 28 39 34 23 38 37 33 32 30 30 34 37 35 33 43 35 41 38 31 34 39 42 37 40 29 42 48 41 40 41 46 39 42 45 44 43 37 39 37 28 26 36 36 31 43 34 39 23 32 35 38 37 35 38 40 29 44 27 36 36 36 37 33 32 21 36 31 49 51 35 27 38 34 46 27 36 38 42 32 46 42 33 31 42 34 41 38 31 37 29 47 41 39 41 36 38 30 41 34 39 36 40 38 31 38 43 22 35 37 41 35 38 39 37 45 27 28 36 44 34 40 40 37 40 30 37 38 42 40 37 33 35 25 39 47 37 37 31 36 51 38 32 30 37 34 38 38 31 32 38 50 31 41 45 34 34 39 41 30 35 32 35 14 29 38 28 51 28 45 38 41 31 40 39 33 30 40 41 36 31 37 29 32 41 42 38 44 31 32 38 33 30 32 35 34 34 40 38 28 26 39 44 28 45 35 38 37 35 41 47 34 48 42 38 34 37 31 35 41 42 32 37 31 37 30 39 40 35 33 32 33 32 37 38 47 31 44 40 32 37 36 34 39 40 41 40 40 28 45 31 37 33 36 36 33 28 35 35 36 40 41 25 47 45 46 26 39 42 40 35 39 27 47 42 38 38 39 40 45 44 44 42 41 49 42 31 39 35 37 37 42 41 33 38 36 31 30 37 34 32 40 34 40 36 38 30 34 24 26 25 33 37 40 25 37 33 35 36 35 36 34 41 29 29 32 36 48 34 39 43 40 33 36 33 35 32 35 35 44 31 28 41 45 31 27 28 37 27 43 36 46 34 37 38 39 33 40 41 34 28 30 36 32 33 28 43 35 27 43 32 37 41 39 38 23 27 29 45 35 40 36 39 32 31 30 41 34 37 39 32 43 27 27 48 41 33 36 31 25 36 32 37 32 39 29 37 34 27 40 37 35 38 41 36 32 40 35 20 30 33 45 39 31 40 33 34 34 33 46 34 37 38 31 46 30 40 40 44 34 36 35 37 31 32 41 36 43 38 39 36 36 33 40 37 27 38 38 35 47 36 29 47 38 31 37 46 35 30 40 46 38 46 42 33 42 35 36 40 39 43 30 36 31 30 42 37 45 46 32 39 42 41 42 45 25 37 32 36 37 28 39 41 39 43 35 44 38 35 39 34 48 35 40 28 31 31 36 35 28 29 42 36 30 27 35 39 35 40 26 28 34 38 37 36 36 39 39 38 44 32 28 36 42 37 42 49 39 29 30 29 44 36 39 43 34 28 39 34 41 28 22 36 46 32 34 37 40 38 29 29 40 30 53 43 33 41 30 37 34 34 37 45 32 32 30 30 39 36 32 29 34 41 28 41 28 36 37 41 37 37 35 31 35 40 39 36 44 32 35 32 43 28 31 40 29 36 37 39 33 47 49 39 38 51 35 32 36 46 31 32 33 36 30 33 39 38 31 41 42 31 37 38 36 40 49 33 36 35 36 43 31 38 32 28 35 33 35 39 28 25 47 29 29 32 28 33 34 39 45 32 44 31 38 27 33 45 25 40 31 40 31 43 37 46 26 37 34 45 38 31 43 30 35 41 32 35 32 32 37 37 30 36 43 39 34 31 36 28 36 33 31 19 34 34 35 30 43 32 36 33 35 45 25 35 44 38 43 32 32 29 42 36 30 35 33 31 44 34 40 32 31 36 30 35 31 27 44 35 40 45 39 36 25 32 35 37 40 31 45 29 35 34 36 28 40 37 33 37 36 48 36 26 36 34 26 26 35 34 42 33 32 34 38 32 28 24 43 40 40 28 31 34 29 29 42 26 34 36 29 36 35 35 31 35 33 36 39 36 38 34 36 25 38 38 28 33 31 35 26 36 38 31 31 42 39 36 40 37 31 32 39 42 36 34 29 36 33 29 37 43 33 35 43 39 33 35 46 50 38 35 33 47 33 36 32 33 40 46 30 31 35 37 42 43 32 35 41 50 38 28 35 44 43 43 37 38 32 36 29 37 41 34 32 39 31 43 38 44 48 40 43 40 39 33 26 35 44 32 30 32 34 39 33 45 30 31 36 37 25 33 36 27 28 29 28 33 41 38 37 36 34 23 32 37 25 26 43 41 31 37 23 38 28 28 37 39 31 30 30 49 30 37 32 38 31 42 34 38 32 36 19 31 45 37 43 42 30 34 25 33 18 41 36 48 39 29 31 35 42 48 40 31 30 33 47 33 35 40 26 40 24 37 38 29 41 38 35 34 41 31 37 37 43 45 30 40 41 38 38 26 44 42 36 38 38 48 30 30 38 37 32 41 33 34 36 44 29 28 34 44 44 34 37 34 41 35 29 39 42 38 41 30 37 33 41 40 43 41 39 29 36 38 28 35 38 38 30 37 36 34 37 44 37 34 38 34 33 43 44 41 36 31 33 32 36 30 39 43 41 37 39 35 36 32 40 38 39 33 26 45 34 44 31 35 24 29 40 37 41 39 34 35 34 39 19 23 32 33 42 31 42 35 32 30 40 38 33 33 31 27 44 45 34 23 37 31 30 40 40 40 24 39 38 24 34 40 28 36 43 32 29 35 29 36 36 41 44 38 35 47 39 39 35 32 34 49 33 40 34 43 25 41 44 36 36 33 38 35 37 32 36 44 40 34 47 36 36 32 31 34 36 24 34 36 33 38 28 34 34 37 44 24 31 37 32 36 34 37 34 39 39 27 29 41 39 41 39 27 34 34 39 35 35 26 31 29 36 31 34 34 30 28 40 33 27 30 44 38 39 33 33 35 35 34 32 36 32 32 37 34 35 37 39 43 43 26 31 38 39 49 43 33 37 31 39 34 47 39 47 37 31 19 35 32 41 40 31 30 30 36 31 37 33 34 35 39 41 36 33 36 33 33 37 47 38 28 39 33 46 28 37 34 22 52 36 34 35 31 41 32 38 36 35 37 32 41 40 36 36 36 41 37 38 38 34 31 32 43 25 35 39 34 35 35 48 37 30 29 35 45 33 40 28 35 36 30 27 39 39 28 48 30 36 42 38 34 39 45 36 32 38 40 33 38 43 39 33 26 38 41 33 25 29 39 35 35 33 30 37 34 27 41 27 35 33 33 37 30 33 43 40 45 35 31 43 40 35 28 37 37 42 37 38 50 33 32 31 35 40 34 36 49 32 34 26 48 39 34 33 39 40 34 31 38 31 26 51 31 43 40 27 41 42 40 33 33 32 32 37 28 38 37 39 40 35 47 47 43 39 25 35 36 45 29 40 35 35 32 34 31 37 30 29 39 37 35 42 45 45 41 36 41 29 41 30 28 35 36 30 39 35 39 43 35 34 46 37 32 40 34 32 38 33 36 43 32 34 40 36 39 39 36 45 36 46 38 34 22 36 31 34 34 29 31 40 34 44 31 33 32 27 37 32 32 32 33 31 30 30 34 32 32 31 40 46 46 30 35 34 28 31 28 31 36 37 36 27 33 34 37 29 34 32 29 31 39 49 37 37 38 42 38 34 41 39 29 30 48 39 31 34 33 34 38 33 27 40 34 28 33 32 34 32 38 31 38 38 31 34 34 34 36 36 25 33 35 21 27 31 33 31 36 38 23 34 30 37 33 40 36 36 50 40 34 39 34 25 37 35 43 35 28 41 39 39 35 33 44 36 37 37 43 43 34 34 40 32 40 33 30 41 29 37 43 37 27 27 41 48 32 34 35 31 33 37 37 37 32 38 38 36 37 33 36 36 39 24 37 35 35 35 35 36 32 40 41 42 34 34 37 32 37 24 34 31 39 29 40 31 37 46 35 31 26 26 32 40 41 27 30 37 28 32 42 39 29 31 26 35 47 24 41 44 31 45 29 30 27 28 28 47 34 36 35 46 37 57 41 35 32 32 32 51 25 44 40 29 48 34 36 40 49 36 29 40 36 30 36 49 36 36 43 26 36 39 44 44 29 39 37 49 29 33 30 34 39 43 27 46 21 37 41 36 38 28 40 31 37 48 34 37 41 37 30 29 26 43 41 45 35 49 34 45 34 37 33 31 45 32 36 35 33 35 30 29 33 32 37 33 34 34 34 28 33 53 29 30 33 34 34 43 36 36 41 37 51 39 24 40 33 26 37 30 40 44 43 30 35 29 28 24 42 29 36 37 33 37 42 39 41 34 31 32 47 38 25 38 43 39 34 36 37 34 37 38 37 34 31 40 44 31 25 36 35 37 22 30 40 26 29 38 30 39 39 40 35 45 44 43 28 41 36 35 35 28 35 29 38 31 26 24 28 40 27 38 32 46 40 34 31 35 31 38 37 28 38 36 31 31 41 30 36 42 44 33 35 30 39 33 36 40 32 35 37 31 38 25 33 38 17 35 35 40 33 34 38 36 29 46 38 36 30 41 29 42 44 32 38 35 35 39 36 30 31 35 36 33 31 36 43 33 39 27 30 36 45 39 40 34 31 38 25 35 36 33 28 33 36 41 44 26 33 43 32 32 38 34 41 29 19 38 42 31 29 35 39 38 30 37 37 34 30 27 31 41 32 40 35 38 32 43 38 37 35 34 33 47 43 24 28 24 34 32 40 26 36 33 38 22 37 28 34 36 31 36 42 30 28 33 33 25 42 37 33 32 41 43 31 44 36 38 36 35 35 36 37 39 27 36 39 41 40 39 33 27 33 32 40 29 36 38 26 25 31 38 38 29 40 36 37 43 30 40 30 35 38 31 36 25 36 40 38 35 44 37 30 37 34 40 33 42 32 32 35 28 42 29 33 24 39 39 37 32 34 31 30 37 37 36 38 36 37 32 33 40 42 31 32 38 39 33 31 38 45 37 34 38 39 39 30 25 34 38 33 35 48 34 40 41 30 36 39 37 29 39 33 33 24 49 41 42 32 33 35 43 37 39 35 33 40 28 44 38 31 30 31 36 41 34 27 38 36 35 32 39 42 27 36 38 40 37 38 47 33 32 34 38 37 33 28 40 35 40 34 39 30 41 37 30 36 39 39 30 29 30 39 32 36 32 44 30 30 40 35 45 39 35 33 35 38 34 41 26 43 32 32 27 36 33 32 32 30 34 34 35 33 37 41 33 32 27 40 36 31 30 46 45 36 32 33 24 37 39 35 47 38 35 32 39 33 38 33 30 39 35 36 31 30 38 31 30 43 42 32 31 33 41 39 40 34 42 36 26 37 43 30 40 37 31 35 33 40 31 34 30 35 28 38 27 46 46 28 28 29 41 38 44 37 33 33 40 32 36 27 40 37 28 39 41 38 41 43 29 38 34 38 36 43 39 34 37 35 37 43 34 40 44 36 39 33 25 37 39 37 37 37 32 35 37 36 34 38 38 37 38 41 28 29 31 49 37 35 39 34 28 36 46 28 42 37 29 37 37 34 49 33 35 35 34 38 40 46 40 34 43 38 31 44 45 43 46 31 31 23 32 44 42 39 28 43 35 44 41 35 33 30 21 39 29 34 34 49 35 33 31 47 26 31 42 32 31 38 40 44 25 42 33 31 38 38 29 28 34 32 36 40 36 28 43 47 36 37 36 39 37 36 32 27 40 40 35 41 34 42 33 40 33 39 33 36 44 32 45 31 30 32 36 30 32 37 43 30 33 41 33 37 35 27 39 42 35 35 33 31 35 34 25 33 24 38 37 32 31 36 34 35 33 34 43 41 36 33 30 43 38 31 37 42 41 38 28 28 42 28 38 30 33 28 47 46 33 41 39 33 50 36 34 35 37 32 36 36 37 30 28 36 35 36 39 39 38 28 39 40 36 42 35 38 25 38 42 42 41 37 40 38 55 42 40 29 38 27 30 32 36 27 41 35 40 30 33 35 36 34 30 42 34 26 52 38 29 31 36 30 24 40 31 36 32 33 34 40 32 38 29 31 41 38 34 33 40 41 24 37 34 37 40 41 28 38 33 36 35 31 38 34 38 30 35 29 37 28 42 30 34 31 33 28 26 32 34 35 31 41 32 41 33 36 38 31 52 34 39 27 30 37 36 42 29 34 37 32 32 29 38 28 35 28 33 44 31 29 39 29 32 30 32 42 37 33 31 39 40 37 33 27 37 32 25 35 32 44 41 44 41 32 39 35 24 42 34 34 37 32 48 33 27 33 38 46 41 45 42 42 27 34 31 31 40 54 41 36 37 35 43 27 37 32 27 36 31 28 27 28 40 25 35 37 34 53 37 38 24 42 32 35 37 38 39 37 33 34 27 30 31 23 35 37 41 34 38 27 33 34 28 40 24 31 35 38 40 27 40 32 34 35 41 41 36 50 32 35 38 40 30 34 47 32 44 43 36 39 36 29 32 40 40 42 49 40 41 35 33 30 33 37 35 43 36 31 53 34 47 32 28 36 29 27 43 28 35 42 43 36 33 34 39 31 33 33 32 28 32 23 36 37 48 37 35 30 26 49 25 36 35 27 41 42 32 41 25 39 41 32 36 35 28 37 37 37 42 26 39 37 27 37 38 37 36 39 37 40 46 35 32 37 37 29 35 31 27 30 34 23 44 42 32 30 39 35 42 30 31 31 37 35 38 49 33 34 42 44 35 34 39 38 45 38 25 36 35 35 39 35 30 32 27 35 33 36 38 40 28 37 38 33 47 42 41 29 35 34 36 46 40 38 49 36 44 38 30 35 37 30 33 42 35 38 35 34 30 34 38 34 50 52 35 34 42 30 38 21 37 47 36 48 39 37 33 43 41 37 28 41 38 37 40 41 32 32 28 29 23 34 26 40 36 35 29 37 33 38 34 41 33 48 25 35 33 29 37 38 40 34 37 31 38 40 29 32 45 31 32 31 38 34 30 34 38 33 32 36 37 45 29 33 34 29 31 35 35 34 41 48 30 26 32 46 43 41 35 33 38 39 30 33 28 37 28 39 47 34 49 38 35 29 31 33 36 29 38 30 37 33 28 36 25 43 45 27 27 39 25 37 32 32 33 33 38 34 28 31 28 35 42 34 27 29 40 33 31 37 28 37 34 45 40 40 39 28 30 32 44 38 27 33 38 43 35 40 29 36 28 48 32 32 41 37 29 31 34 42 33 24 43 35 33 33 36 26 38 40 40 38 25 30 32 33 38 38 34 22 35 35 30 37 38 32 37 29 39 24 39 36 35 32 43 31 40 43 40 42 35 48 35 48 34 35 31 30 37 37 33 32 34 33 43 38 30 40 30 38 30 46 31 36 37 31 42 32 39 30 36 34 39 38 26 33 35 30 30 35 32 35 39 29 41 37 35 34 38 32 45 37 42 45 42 31 44 30 27 35 36 37 34 24 37 35 47 40 34 44 46 40 35 23 40 34 38 36 35 44 46 41 34 38 34 27 32 37 44 36 32 31 30 32 37 36 31 33 37 35 36 37 35 27 35 37 40 42 28 33 37 41 39 30 34 45 44 42 32 42 38 36 35 39 42 48 36 31 44 50 29 34 33 37 34 36 29 28 36 36 44 37 38 21 35 41 27 38 33 37 39 36 46 29 27 39 30 35 38 36 39 43 41 40 26 32 37 31 30 41 35 34 38 35 37 35 39 43 39 29 37 31 38 35 43 34 26 30 39 39 35 42 33 38 29 35 40 36 35 35 40 33 29 42 43 26 41 38 38 23 36 26 32 23 43 32 33 40 46 37 36 35 35 35 32 33 45 32 34 33 35 35 33 33 31 49 37 40 41 39 40 37 33 33 34 35 43 34 44 40 29 46 35 40 37 38 35 31 33 42 35 31 38 36 36 34 27 39 34 41 30 28 40 30 34 47 34 35 45 33 33 35 38 41 37 35 31 38 44 36 32 37 36 31 37 38 27 37 44 40 32 35 28 34 36 31 40 33 28 33 35 28 34 34 42 32 29 34 34 39 33 38 33 31 37 35 34 37 34 33 27 33 32 23 36 31 25 34 32 37 44 36 43 42 38 39 35 31 34 38 29 35 38 32 44 37 25 31 34 43 31 29 42 36 37 41 32 49 25 32 21 32 33 39 29 44 26 54 42 43 31 31 40 48 33 32 34 36 32 39 37 40 32 39 38 30 32 37 28 39 38 37 41 30 26 33 37 36 28 33 41 41 37 24 47 36 32 29 39 39 31 50 38 40 37 31 35 33 26 28 40 42 49 41 36 43 34 36 32 35 36 32 31 40 31 47 28 38 36 49 41 39 30 57 32 25 37 37 39 47 44 29 28 45 32 31 37 38 48 42 23 36 27 39 31 25 39 41 31 29 32 21 34 31 33 29 35 39 37 35 34 31 24 42 33 34 31 34 33 37 36 34 35 43 36 34 37 39 39 28 38 38 28 35 33 42 31 32 26 36 32 37 31 36 41 32 31 45 40 40 38 31 31 33 37 34 25 38 20 39 44 44 34 37 19 37 44 32 42 41 44 34 41 38 41 41 32 29 37 39 30 27 38 36 40 42 28 36 32 34 39 43 33 43 34 33 28 32 32 29 42 40 37 33 39 35 36 34 27 39 44 28 38 43 33 35 38 33 21 45 31 26 35 40 23 44 29 33 42 34 36 28 34 31 39 31 22 36 32 36 46 36 29 48 28 41 36 31 39 45 30 33 43 34 33 36 38 39 32 40 30 28 28 37 38 48 36 35 27 30 37 37 34 34 33 36 27 34 33 34 25 33 37 42 42 40 41 36 34 33 34 32 39 39 32 38 30 33 36 36 34 28 39 35 31 35 32 25 49 46 29 27 35 31 32 27 52 40 37 39 35 28 43 35 43 36 35 31 31 36 40 27 22 38 32 38 39 41 30 43 36 27 32 25 33 32 37 37 37 49 40 43 35 32 37 38 36 36 36 42 31 43 27 40 36 32 40 27 27 31 32 28 43 34 30 37 24 44 41 36 43 40 30 44 42 44 37 42 37 44 33 44 29 31 24 34 46 41 34 42 30 33 37 34 31 32 38 40 41 31 30 33 31 29 38 50 35 30 29 32 23 42 27 38 36 33 30 37 34 36 25 30 30 32 36 39 39 27 36 38 34 46 31 33 35 50 41 37 39 27 38 39 31 34 27 28 51 29 32 37 34 34 29 27 41 46 31 30 33 33 38 35 35 33 37 35 29 28 39 36 28 32 33 35 32 40 33 29 32 45 28 34 47 40 29 30 36 35 33 40 34 26 39 27 34 32 31 32 40 36 34 46 38 38 39 35 32 37 35 39 39 26 32 30 43 45 46 33 32 27 30 44 41 27 33 26 40 26 43 36 37 42 36 31 37 31 38 34 31 42 28 40 43 41 36 39 39 27 26 41 46 30 29 34 35 31 39 34 34 38 38 48 47 25 35 38 29 30 36 33 34 37 29 29 33 36 37 36 28 42 26 43 32 41 34 31 37 34 35 33 46 32 37 35 41 36 36 26 28 33 44 30 33 31 39 31 29 35 32 35 26 31 35 31 37 30 44 30 27 43 38 31 25 40 43 34 44 25 38 40 26 41 27 36 46 33 24 28 29 33 34 41 37 41 43 33 26 30 31 31 35 33 36 35 33 36 37 37 43 34 30 28 26 41 31 37 43 46 39 46 38 44 36 28 34 43 34 42 35 26 46 33 33 44 45 37 32 26 26 31 42 34 40 35 36 39 38 38 30 38 27 37 36 37 41 47 28 31 26 30 27 36 36 38 34 40 34 38 27 34 30 33 40 22 34 30 36 28 33 36 44 26 33 33 44 33 29 41 26 34 33 39 40 30 31 26 40 24 38 31 41 44 36 39 33 45 32 27 36 32 39 36 33 40 32 33 41 28 30 40 38 40 29 34 25 46 22 28 39 38 37 33 46 43 36 40 37 32 40 42 42 37 32 29 36 38 33 28 46 27 28 36 34 37 35 43 41 30 36 26 33 29 30 27 38 36 32 22 42 45 37 28 33 31 26 39 39 29 35 34 38 36 35 41 34 39 30 30 36 47 33 32 42 32 36 29 27 32 34 34 30 36 25 40 30 34 44 33 38 37 39 40 37 47 38 40 36 35 43 38 35 32 39 39 27 36 31 41 42 32 27 30 32 29 33 28 34 32 52 33 28 38 33 33 38 35 40 33 36 34 41 37 40 36 34 26 38 42 40 35 37 28 40 26 47 42 32 38 44 34 44 37 32 38 39 31 39 36 36 32 36 28 37 43 28 35 31 32 32 35 34 51 37 35 41 36 40 38 27 41 38 35 22 32 32 30 32 43 35 35 32 34 36 33 34 34 43 34 34 33 39 34 35 34 24 39 40 27 37 39 45 26 46 30 35 37 35 34 33 27 34 25 27 38 36 36 30 36 31 31 45 37 27 40 37 36 38 39 36 44 32 42 26 40 43 38 35 39 36 35 34 37 38 33 44 36 33 31 27 36 42 27 26 33 38 38 44 41 32 37 27 31 35 29 50 27 34 36 31 37 38 29 36 26 32 39 37 28 35 32 33 27 35 30 42 35 30 39 34 37 26 42 32 38 38 26 29 31 44 35 45 34 38 31 31 33 24 34 43 34 40 29 43 41 37 37 47 37 35 45 38 44 36 47 33 33 36 26 33 31 32 31 36 37 41 34 46 31 38 38 26 29 28 32 38 25 31 32 31 41 43 27 27 47 39 39 28 28 39 34 33 30 35 42 34 34 35 47 37 34 36 27 37 45 35 45 31 42 35 34 34 43 34 32 39 40 32 31 39 36 25 32 44 36 40 25 42 28 39 43 37 18 27 33 32 29 28 36 37 36 33 37 40 36 28 38 33 36 35 38 24 52 29 41 34 42 33 40 48 27 36 45 35 36 34 36 29 40 38 42 46 35 32 36 35 28 48 34 28 29 40 45 50 31 38 35 32 36 38 39 36 49 30 42 43 21 28 33 29 36 42 29 22 44 25 43 42 37 39 30 27 41 29 37 34 45 35 26 44 35 35 30 24 30 39 30 32 25 35 37 33 42 41 22 32 37 48 36 39 41 35 31 52 39 37 41 41 35 31 31 32 31 37 37 38 32 49 27 29 37 40 41 31 38 29 31 34 25 38 31 38 41 35 27 36 32 46 35 36 30 35 29 41 38 38 34 44 39 39 34 47 42 32 47 28 38 38 34 34 36 37 39 32 29 36 40 34 30 39 38 39 41 47 36 34 45 40 38 31 42 37 41 39 36 30 31 39 40 32 38 28 35 33 29 35 27 31 48 42 32 39 41 31 26 33 41 39 40 32 28 39 50 34 32 28 37 43 39 24 33 28 35 34 47 31 39 31 30 42 38 36 36 31 43 39 30 39 41 36 41 32 26 36 39 24 36 34 34 43 36 33 37 37 27 34 37 32 39 35 35 40 46 35 29 36 40 34 44 45 23 35 39 37 40 31 41 35 38 43 34 36 40 41 32 31 46 40 33 27 36 28 34 45 26 30 36 45 32 28 30 27 41 34 34 31 33 37 26 26 33 40 29 37 35 36 35 37 37 19 36 35 46 28 41 33 22 27 30 40 36 33 40 38 36 30 34 41 41 31 34 24 41 33 23 37 39 26 39 31 42 29 38 40 26 36 48 35 29 33 31 39 38 44 37 49 31 44 28 31 30 49 31 42 25 37 26 32 36 39 38 30 38 35 40 28 39 47 36 44 24 40 34 51 37 42 36 40 36 36 42 37 30 27 35 38 31 42 35 40 32 40 27 34 30 46 30 39 36 33 23 21 41 43 40 47 44 37 37 49 41 28 36 30 41 49 42 32 41 37 30 44 33 27 47 42 34 33 33 37 45 40 28 26 31 31 52 35 31 36 43 40 34 40 36 43 34 34 47 32 32 38 39 36 35 33 33 33 34 30 36 45 42 40 32 42 39 40 29 30 40 34 35 37 27 41 34 32 38 39 30 39 32 37 34 34 22 32 46 37 33 33 29 43 32 30 32 38 30 25 37 33 37 43 30 36 37 35 30 35 38 36 26 38 35 41 39 37 42 26 35 38 32 36 40 39 44 33 31 44 33 29 27 37 42 35 39 42 36 39 37 38 31 27 33 41 38 33 30 41 29 36 32 31 28 36 28 39 36 29 39 26 34 29 42 32 38 43 32 42 40 39 39 31 35 35 50 44 35 29 42 38 30 35 40 41 35 28 36 36 39 39 37 43 37 31 27 42 28 42 36 39 31 33 39 33 38 32 35 28 43 46 39 38 34 31 35 36 27 31 30 36 39 37 34 40 44 36 32 43 37 37 38 32 34 30 31 37 27 29 37 31 41 25 37 41 35 32 36 26 34 29 40 34 30 32 32 40 40 35 28 35 36 28 36 30 34 36 35 33 28 38 33 32 33 31 33 39 41 36 34 37 39 37 24 30 34 39 35 37 27 39 34 24 37 39 38 40 53 30 36 33 39 35 36 38 36 32 37 34 23 44 39 37 26 34 40 46 33 34 28 42 44 38 35 38 33 26 33 31 43 36 38 29 25 27 29 46 43 38 32 36 32 41 34 29 36 32 43 42 33 25 37 27 35 39 37 39 35 31 35 33 24 37 29 21 32 39 39 36 35 44 32 39 31 40 31 28 35 35 30 35 46 37 31 31 33 35 21 37 41 37 38 40 36 38 21 35 42 30 29 31 35 29 38 30 33 31 22 38 32 26 40 27 38 26 30 39 30 34 35 32 44 41 37 43 33 34 30 36 31 35 41 34 37 39 42 30 33 37 43 34 33 43 47 42 39 38 35 36 40 36 35 38 32 40 42 38 30 38 42 38 34 32 39 39 39 37 31 39 40 32 34 35 27 32 29 36 42 32 42 33 43 28 33 25 34 36 29 32 28 35 35 54 33 29 45 38 36 35 27 42 40 31 37 30 47 37 41 43 39 31 33 31 38 28 32 30 28 35 34 34 41 32 39 40 37 39 41 38 45 34 27 39 38 42 34 41 35 33 36 32 33 28 35 35 39 39 29 42 43 39 35 31 34 42 40 44 32 32 32 34 36 41 38 41 42 33 42 45 30 31 32 40 40 31 39 33 44 38 29 29 35 39 35 27 37 45 40 31 32 44 34 34 36 33 32 36 32 34 29 42 36 28 39 32 35 37 36 48 39 37 34 33 27 30 29 34 35 36 32 48 33 46 35 44 31 34 34 42 24 32 38 30 32 30 37 35 54 37 36 33 33 30 26 51 34 39 37 38 46 44 33 25 25 34 44 38 22 34 34 42 43 31 32 39 39 36 41 32 49 32 37 35 37 33 41 31 38 43 34 33 52 34 30 34 29 34 34 28 27 31 33 32 28 31 41 41 40 30 46 41 38 45 27 35 49 35 34 31 32 38 31 37 39 31 34 40 30 42 27 25 23 29 35 45 33 32 30 40 27 35 46 41 33 31 36 44 38 36 34 27 44 35 40 33 34 39 39 38 33 38 28 48 31 43 36 40 45 43 43 30 40 32 29 43 34 36 37 34 42 32 35 35 41 33 33 40 42 33 44 42 36 31 36 34 41 34 41 50 39 37 33 34 33 40 33 33 24 29 37 39 47 28 28 30 33 35 37 37 29 38 39 39 35 43 41 35 27 32 30 29 41 26 26 39 35 30 35 42 46 41 37 37 37 37 36 32 33 48 40 38 30 41 33 26 34 36 37 43 40 31 29 31 35 46 37 35 37 31 38 27 47 39 34 34 36 42 42 25 35 44 31 30 38 38 38 27 43 36 40 35 35 34 37 32 33 35 33 38 38 39 40 38 45 34 37 43 31 41 32 32 40 38 38 38 32 41 34 38 39 33 35 40 32 29 44 36 40 34 41 33 37 28 36 37 37 35 29 27 29 32 28 43 39 21 41 38 45 40 29 39 35 32 30 37 31 31 35 32 38 34 39 39 32 37 30 38 29 38 33 30 31 41 33 32 35 33 24 30 37 41 35 41 36 31 36 38 37 35 33 35 29 39 36 35 37 40 33 38 29 38 38 41 35 42 38 30 39 31 33 45 25 36 34 37 26 36 26 41 36 39 36 31 33 38 33 33 39 38 42 33 37 42 27 38 40 31 36 36 44 39 33 31 43 34 27 36 32 39 41 30 27 36 46 36 29 37 20 32 39 35 31 31 30 35 33 31 27 29 35 46 38 38 36 38 31 37 41 30 48 31 28 34 30 43 44 26 41 34 37 35 41 39 30 27 31 38 34 32 37 48 37 34 31 34 36 35 27 33 39 38 34 30 34 33 31 32 33 38 37 40 32 39 49 36 41 39 35 31 38 39 31 33 29 37 39 37 37 29 41 40 37 32 33 31 42 45 35 35 32 44 36 39 24 38 28 36 26 28 32 47 38 31 38 46 29 39 36 41 33 37 37 36 55 33 34 41 37 39 28 36 36 27 42 32 37 37 29 39 36 43 29 30 38 32 38 29 40 36 42 42 33 34 39 38 47 34 35 46 35 39 34 37 39 36 37 35 47 36 42 37 33 30 38 31 44 38 34 30 29 35 38 26 38 38 36 40 35 40 36 35 37 36 38 35 34 28 34 36 28 31 40 39 35 39 34 28 36 24 34 28 35 31 25 37 40 39 35 28 36 40 44 30 35 32 30 38 36 46 26 41 36 40 31 31 37 42 29 26 39 31 39 38 27 45 42 36 36 39 29 34 32 35 34 31 42 31 34 38 35 38 33 39 41 34 33 29 30 28 36 43 39 32 37 34 39 36 36 33 28 35 40 37 28 34 27 32 40 33 38 39 44 36 34 33 28 31 39 34 39 39 40 40 31 34 32 41 35 38 36 31 39 33 40 33 28 44 42 32 39 33 29 32 38 31 37 32 44 38 44 32 35 39 46 39 32 30 32 50 49 27 33 30 28 42 41 31 36 28 30 44 43 29 37 37 36 34 32 32 32 33 39 42 43 38 41 35 44 27 39 33 34 35 34 37 44 27 35 35 27 40 43 40 39 42 41 24 30 39 31 39 30 40 41 38 31 37 32 35 45 30 38 31 36 31 32 42 28 32 40 31 37 22 29 31 36 37 35 38 57 36 27 45 30 32 46 32 30 31 46 36 43 34 35 34 38 35 37 28 21 36 33 43 35 37 32 41 23 28 46 44 35 36 28 38 34 34 40 39 36 44 34 36 29 35 27 27 39 38 34 39 32 36 37 38 30 38 36 30 36 42 48 29 40 45 37 27 23 30 35 33 30 38 37 26 32 30 36 41 44 37 36 34 35 38 37 39 39 45 34 45 27 31 36 37 35 25 32 31 40 29 34 33 43 35 31 38 25 46 35 34 34 39 45 29 45 31 37 38 34 41 33 45 38 34 25 43 27 33 33 30 33 51 35 28 26 34 29 40 35 48 49 29 33 30 29 38 34 37 45 31 32 41 36 37 33 32 25 40 41 45 28 30 33 42 23 41 33 30 37 32 32 33 38 43 35 28 31 32 29 41 43 32 34 38 33 42 34 53 34 41 42 37 38 27 28 30 35 35 44 35 33 39 42 35 32 38 33 25 38 36 36 48 33 34 40 32 27 37 29 33 40 43 44 46 36 37 24 33 29 40 36 37 32 32 32 37 34 36 36 25 43 39 35 25 22 45 36 35 32 38 32 39 38 36 28 34 30 35 32 30 37 38 25 25 42 36 40 40 33 38 40 33 31 42 36 26 46 45 40 43 37 36 44 42 47 33 27 39 41 38 37 43 33 34 28 39 37 40 36 36 34 31 34 30 38 37 33 35 37 35 34 30 38 31 33 39 46 41 38 46 37 32 32 26 32 41 35 43 31 33 43 31 31 44 34 39 27 24 40 49 40 30 30 41 39 35 42 40 36 27 35 29 30 28 41 34 42 33 30 38 32 28 38 50 46 37 34 33 40 31 27 37 40 34 33 38 27 36 31 32 41 38 28 43 37 34 30 34 33 33 45 29 41 33 39 27 44 45 43 34 30 31 39 33 31 33 30 48 24 41 36 26 40 42 27 28 30 36 38 31 34 34 23 36 38 38 41 33 41 39 38 33 32 45 35 39 33 35 31 32 35 35 41 32 34 36 29 42 28 36 29 33 33 34 32 39 34 37 29 31 46 30 26 30 38 25 34 27 36 28 44 31 37 35 26 30 43 34 38 32 33 30 31 28 36 24 34 37 34 40 42 34 26 37 21 42 40 38 36 34 30 32 38 40 32 33 38 36 45 41 40 36 29 29 40 38 31 42 36 35 37 32 39 47 41 26 27 34 35 43 38 29 30 29 33 31 47 32 33 31 27 44 43 37 41 41 37 31 38 29 39 30 32 29 32 36 39 31 34 30 36 32 25 35 24 39 33 45 36 28 30 28 36 36 38 41 31 37 42 39 37 34 43 47 41 35 44 32 39 31 36 28 32 34 28 28 35 33 31 42 39 38 39 38 33 28 40 45 26 40 29 42 40 41 32 36 31 30 40 28 44 32 31 35 26 26 41 28 43 35 45 35 36 48 36 42 41 36 40 41 40 45 20 33 40 38 30 44 33 39 42 35 35 32 40 44 26 29 36 43 25 35 24 47 37 34 37 32 36 33 36 33 35 41 48 36 29 34 33 31 29 30 31 37 32 44 42 32 45 25 44 38 37 42 40 47 30 25 41 39 34 28 50 39 37 48 35 29 29 35 34 30 35 34 41 25 31 42 30 33 36 39 32 33 38 39 35 44 30 31 28 32 36 31 35 49 46 41 40 39 23 26 39 41 31 30 36 35 29 36 34 40 39 33 38 31 32 36 36 40 35 31 44 27 32 33 33 28 38 49 41 31 38 29 44 30 38 45 36 35 34 38 27 26 37 44 37 36 31 41 33 28 35 31 37 47 32 31 41 40 39 29 36 34 26 35 32 29 31 33 42 33 45 33 38 37 28 42 34 36 28 29 30 44 36 31 37 47 41 27 30 35 42 50 36 43 34 31 36 37 35 34 30 36 50 28 36 40 34 42 41 37 40 40 39 38 32 32 32 32 29 36 31 37 45 31 27 32 34 32 32 40 37 38 32 38 38 39 39 31 31 37 30 40 38 41 40 44 24 31 30 38 24 38 36 32 39 36 33 35 32 41 31 32 33 36 33 39 35 46 46 31 45 41 29 28 38 37 35 33 38 31 37 45 30 40 30 39 39 30 37 38 39 39 30 37 42 36 34 26 38 54 27 32 31 35 33 30 37 33 31 27 26 28 44 47 37 39 37 32 35 35 37 28 41 33 34 27 32 31 35 43 39 34 35 40 48 32 34 41 37 32 25 26 32 31 42 36 37 37 32 31 34 30 34 31 27 33 34 29 26 40 42 35 37 41 42 43 41 41 35 39 46 42 46 33 35 50 31 31 36 31 33 34 36 45 27 37 46 39 34 33 28 27 28 43 30 35 42 37 37 38 33 39 33 36 35 41 41 50 42 32 34 25 33 39 39 42 38 30 27 40 35 42 47 32 40 29 42 35 33 25 32 29 24 39 42 41 35 32 35 36 36 34 39 34 44 38 42 38 39 34 41 20 32 28 44 35 35 43 30 31 35 28 29 32 37 30 36 40 39 31 30 35 41 33 31 44 36 45 35 31 38 34 38 33 39 44 28 21 28 27 28 35 34 29 43 44 29 36 38 31 37 36 37 34 25 32 51 45 29 38 39 38 38 42 35 39 32 36 31 29 30 44 34 31 31 30 36 34 26 34 32 36 28 41 31 37 31 41 35 31 37 35 29 25 37 52 39 39 28 33 34 29 37 25 31 40 30 35 29 29 34 41 37 35 40 37 36 27 28 31 37 35 40 48 37 44 41 27 25 36 27 44 40 24 26 38 33 30 29 38 37 30 32 28 28 33 40 49 30 32 33 35 41 38 38 39 27 34 37 39 28 34 38 27 41 35 40 29 33 43 32 40 45 42 30 40 34 30 30 34 37 35 37 44 45 43 36 41 48 37 32 37 32 38 38 39 36 41 47 30 39 38 35 37 33 36 33 39 46 23 27 42 40 35 39 32 39 29 37 35 27 40 37 34 35 38 23 27 37 27 38 27 36 33 30 33 33 29 40 34 36 28 38 34 37 38 31 30 24 34 27 34 33 35 29 32 35 30 31 40 44 34 46 35 41 30 41 35 35 37 43 29 37 24 39 35 34 35 26 34 23 37 43 30 41 36 33 34 33 33 30 36 43 31 34 28 34 29 34 48 31 39 40 41 39 38 33 37 29 39 35 33 32 43 33 33 36 34 35 36 39 27 39 24 36 28 43 34 32 38 37 38 38 36 40 32 30 37 37 40 26 28 38 40 40 30 32 45 34 32 37 37 52 25 39 29 28 35 36 40 39 29 39 32 30 29 34 36 34 36 33 37 31 32 39 35 31 60 39 42 35 47 36 44 33 35 28 35 43 33 39 41 41 23 46 46 25 42 45 37 50 35 28 37 39 38 41 40 42 32 38 33 43 33 31 31 36 50 35 23 40 31 38 26 36 43 30 45 33 49 36 30 33 24 31 34 40 42 31 34 40 34 35 33 38 37 39 29 35 29 30 37 35 32 30 31 33 39 28 38 35 39 42 33 38 42 38 26 36 35 36 43 31 36 38 25 41 39 34 33 48 41 37 38 35 38 38 38 35 29 44 27 30 37 29 34 49 36 45 34 39 26 32 31 38 40 40 43 31 25 37 26 44 31 34 35 33 35 22 34 26 29 36 40 37 36 44 42 28 31 42 34 43 42 25 39 29 31 35 31 33 43 37 38 36 32 36 29 42 33 26 37 35 50 32 41 31 30 34 26 30 25 29 39 48 38 31 37 31 27 41 44 39 41 41 31 31 31 37 36 28 32 33 39 35 38 26 35 32 32 35 34 27 34 42 30 24 37 32 28 41 33 39 40 37 29 38 37 34 35 31 38 38 37 35 35 41 27 26 34 42 24 40 41 33 32 32 32 37 34 32 35 47 41 34 24 40 35 34 37 37 35 32 26 34 30 29 29 37 37 28 26 24 34 29 38 40 41 42 34 45 34 40 49 41 37 28 32 39 38 33 34 33 41 46 37 37 27 35 29 25 36 29 37 40 37 32 45 33 34 34 39 34 32 39 40 40 27 44 29 39 30 36 38 33 42 32 28 34 32 35 39 37 34 29 39 36 34 32 39 31 29 30 36 32 37 30 42 38 33 29 39 39 34 28 26 36 34 26 35 35 32 30 38 39 21 30 32 38 40 39 37 32 38 48 36 29 44 36 25 40 41 36 34 32 29 34 42 30 47 48 27 40 32 28 38 32 32 41 37 35 49 43 34 35 28 26 44 39 47 47 31 19 29 36 37 42 29 29 35 30 35 41 34 26 38 31 39 33 33 48 43 32 32 34 29 37 33 34 44 27 38 43 31 39 33 27 28 43 34 33 34 29 30 35 37 33 36 33 30 29 35 42 30 34 31 29 33 35 38 26 33 36 47 29 38 35 36 32 38 36 36 38 34 36 34 34 34 24 40 39 36 35 34 32 33 30 35 48 28 29 34 30 37 33 30 43 39 35 42 29 36 23 49 37 26 36 22 34 39 31 36 44 47 44 31 40 29 39 31 32 40 38 41 30 39 42 29 35 33 47 39 26 45 28 34 39 36 29 35 31 33 28 42 41 41 37 39 36 27 38 35 43 23 43 49 36 30 31 38 36 32 31 31 42 31 24 33 33 37 47 34 31 32 43 29 42 27 31 26 30 35 29 30 37 40 38 33 30 32 32 31 39 47 38 32 46 48 42 33 34 39 28 29 31 42 41 26 43 45 35 24 40 29 36 44 32 38 34 29 51 33 38 35 33 34 25 38 27 35 35 39 32 48 35 39 38 38 32 34 39 30 48 35 41 29 33 40 40 40 31 40 31 41 39 32 40 42 37 36 35 31 39 26 38 43 37 35 40 38 36 43 34 36 34 27 22 34 36 48 38 31 36 32 37 40 33 37 31 44 46 33 36 43 46 41 32 29 29 44 36 31 32 35 31 21 37 40 30 32 35 45 43 30 37 32 28 35 41 33 33 31 36 29 28 32 43 33 17 32 32 34 39 32 24 31 34 37 30 41 31 36 39 36 33 35 27 29 38 29 36 35 38 52 34 33 38 37 48 33 37 40 34 37 33 48 46 27 31 30 45 47 42 30 41 39 35 36 28 22 31 31 23 40 33 39 32 38 33 36 39 34 38 33 28 46 38 35 38 35 39 34 28 48 27 39 34 39 31 23 39 36 38 24 35 37 35 39 27 30 43 35 37 42 31 32 35 40 40 37 35 32 40 42 39 25 43 35 43 26 40 32 32 29 34 27 40 35 39 35 36 35 38 26 50 33 33 30 39 31 35 26 33 34 27 37 33 44 29 37 28 38 35 45 41 45 35 25 34 41 48 35 44 37 36 34 33 41 33 26 31 45 38 34 41 31 33 38 29 34 33 30 35 36 40 26 32 26 38 40 29 37 41 39 36 32 45 36 24 33 48 40 36 39 39 35 37 43 34 23 34 30 32 52 41 38 39 34 33 30 37 38 38 33 30 40 28 40 30 42 37 30 37 34 33 46 25 28 34 29 33 30 43 38 33 32 28 30 41 35 34 31 28 29 30 34 36 44 40 34 35 35 27 38 34 43 38 25 50 37 35 32 31 33 32 30 28 35 28 27 34 32 43 45 48 39 33 33 32 37 34 36 36 40 41 32 38 30 34 37 34 35 28 33 33 37 32 28 38 41 25 28 35 32 40 34 41 27 29 40 24 49 39 43 29 38 36 35 29 31 43 41 38 41 40 37 30 31 33 40 35 29 29 30 35 29 29 37 41 46 37 37 32 37 26 27 27 33 36 33 38 40 39 40 35 37 29 38 41 39 33 37 38 42 34 34 31 34 24 27 32 39 40 33 31 33 33 32 26 45 37 39 31 33 43 33 48 28 33 38 33 41 44 45 38 34 42 39 35 32 30 36 40 35 32 32 26 41 36 30 43 39 40 30 35 35 28 34 28 50 23 35 37 27 37 31 41 33 34 32 27 37 25 42 35 36 31 38 32 34 27 36 40 37 34 31 36 31 31 31 27 43 36 37 42 38 41 32 33 30 33 33 30 27 29 24 26 35 38 28 42 47 32 34 29 39 40 39 37 35 47 41 39 36 41 40 33 37 36 39 33 40 41 41 37 37 38 34 38 29 43 36 52 33 39 35 29 31 42 43 44 30 30 36 38 34 28 27 41 33 37 38 38 34 36 34 32 45 33 30 41 34 32 34 43 37 40 35 41 38 47 40 43 40 29 34 32 28 44 40 30 30 44 38 45 41 45 43 32 35 36 38 43 30 36 35 40 29 29 29 30 35 38 34 37 39 43 37 30 33 34 39 34 34 29 54 31 29 30 31 30 33 30 34 38 37 36 36 44 37 45 42 28 36 40 42 25 39 44 43 33 38 25 27 37 32 42 38 45 31 33 32 30 27 57 26 32 35 47 38 33 23 40 41 36 34 49 27 32 36 34 32 40 35 33 39 44 34 40 43 33 28 22 36 31 37 34 42 36 44 42 34 36 46 41 36 36 28 34 43 34 35 40 48 30 36 33 37 34 41 35 35 37 43 37 39 32 37 30 33 38 30 45 29 29 38 33 45 38 25 38 32 31 33 35 38 34 35 42 39 42 35 37 41 38 39 48 30 38 28 31 40 41 34 36 39 31 39 33 39 40 38 29 30 36 39 35 26 41 43 35 40 34 40 30 30 33 41 30 32 39 36 24 39 23 32 35 51 33 47 37 32 39 42 45 28 30 30 34 41 45 30 28 31 25 35 33 43 25 43 52 34 42 32 34 30 37 31 35 35 30 35 37 40 41 32 41 37 30 32 31 36 41 22 36 41 30 42 33 39 35 46 33 37 26 40 33 31 33 37 39 37 38 39 33 42 36 24 41 36 36 31 37 35 39 44 44 30 36 38 43 43 46 35 39 32 29 34 34 40 38 38 24 36 29 43 33 41 26 37 36 32 33 43 29 42 37 40 30 34 31 34 29 31 39 34 45 32 35 39 33 38 46 38 37 33 31 31 38 37 41 42 39 37 33 35 32 28 39 41 41 23 30 38 30 31 30 36 26 50 36 39 44 37 29 39 46 33 35 34 37 30 47 39 37 28 43 30 31 28 36 30 35 26 32 40 39 28 33 42 39 44 24 41 31 39 38 29 37 39 31 33 33 32 36 38 34 27 36 34 32 31 39 33 34 29 31 33 32 27 37 34 29 41 42 30 35 38 41 40 43 42 38 34 38 33 32 31 31 30 33 25 32 39 35 30 35 38 37 30 31 35 28 39 39 32 40 40 29 34 29 33 29 44 38 28 36 27 40 30 41 32 43 42 29 41 35 30 35 41 35 33 42 25 43 34 29 37 32 27 37 28 41 41 41 40 41 39 33 32 40 45 35 30 37 33 43 44 32 38 40 40 41 28 39 42 36 22 36 39 39 35 29 37 41 29 30 36 28 34 30 34 30 40 36 40 33 36 37 42 41 30 35 38 33 42 44 32 35 33 43 33 46 34 37 26 23 37 36 33 36 33 37 27 30 36 42 34 29 34 35 31 37 36 41 35 44 39 31 46 30 38 47 41 42 36 32 38 34 39 46 24 28 29 27 34 35 39 34 45 41 38 37 47 36 32 38 45 33 36</t>
-  </si>
-  <si>
-    <t>GAM(188.1788014632849, -407.8651584526294, 3.529291502125015)</t>
-  </si>
-  <si>
-    <t>291 271 242 262 245 198 332 219 211 260 303 240 283 360 259 221 295 258 164 217 275 288 261 265 232 282 273 161 252 288 275 319 318 241 274 269 375 254 204 173 207 347 313 321 267 365 395 305 312 415 405 234 307 266 199 179 236 298 186 266 210 321 193 230 244 286 248 222 329 274 165 351 210 262 242 281 234 211 213 169 256 219 316 333 234 170 279 242 318 212 253 271 290 227 305 333 241 217 258 301 263 281 225 240 161 393 308 298 298 271 352 260 310 257 279 320 243 245 270 228 300 128 253 256 320 221 252 262 291 278 240 205 243 238 278 277 334 204 258 256 262 229 298 295 274 229 250 221 341 324 302 239 234 256 350 268 211 201 260 252 265 284 247 248 311 375 187 328 352 274 255 297 274 300 330 263 263 97 213 264 195 301 259 264 307 253 240 268 245 219 199 302 263 222 238 298 253 200 331 265 280 272 252 240 239 243 205 296 248 288 243 201 261 193 246 279 304 176 359 255 284 236 258 344 266 312 334 235 305 219 258 222 292 314 302 285 166 226 234 288 262 241 260 226 251 200 246 261 252 299 217 252 315 224 291 279 280 340 280 264 260 309 151 327 245 257 210 235 204 264 199 261 274 249 295 294 239 318 284 318 178 322 347 316 207 266 182 221 269 240 186 313 239 297 309 314 300 278 357 265 190 271 215 294 231 231 277 174 319 256 160 281 260 279 224 304 231 275 277 234 160 162 149 224 221 288 227 253 213 280 270 174 264 198 293 213 270 243 172 226 353 301 273 265 226 232 270 233 220 259 264 213 255 352 191 201 320 231 291 193 256 262 215 311 233 310 228 204 250 301 226 303 276 241 223 211 244 244 192 210 315 291 250 299 236 236 376 229 299 171 190 180 301 243 330 310 314 284 230 204 291 268 320 297 233 300 169 235 321 232 234 217 179 145 302 202 295 195 273 257 260 259 244 260 226 206 293 253 320 225 300 222 213 194 206 329 288 240 252 257 262 228 162 285 255 318 259 229 235 195 324 294 298 293 284 232 243 252 161 295 242 348 325 213 209 267 221 306 283 193 257 299 274 410 263 175 336 233 163 187 341 254 208 291 310 279 247 383 262 288 278 267 233 321 318 169 233 262 212 278 293 354 307 234 308 308 346 365 363 193 286 206 269 248 257 276 289 261 300 231 310 251 316 293 276 319 213 244 257 236 247 246 223 222 182 325 292 243 201 252 290 258 235 236 196 239 281 209 265 251 288 276 274 272 253 225 295 230 247 289 376 235 190 228 160 338 286 294 328 262 154 240 257 312 163 162 246 378 253 241 259 280 336 243 291 307 244 319 304 340 312 247 319 270 245 295 240 188 258 212 276 298 242 238 294 270 282 222 316 214 288 277 287 271 229 286 209 257 298 257 327 299 221 314 208 292 263 261 286 206 280 275 278 247 339 359 260 327 289 312 243 225 380 273 240 200 296 236 211 241 213 253 344 252 238 337 267 205 296 281 244 243 227 275 296 224 302 225 224 272 244 184 302 234 184 323 242 197 224 274 252 231 257 355 298 329 218 263 165 234 244 214 212 243 298 234 291 259 307 195 225 220 325 328 237 325 208 226 235 251 227 230 237 245 310 250 256 367 210 237 200 283 213 263 259 203 184 301 278 301 227 332 211 305 260 231 380 227 211 318 288 397 204 250 194 299 285 212 287 263 193 290 230 273 233 283 260 179 249 230 253 312 188 228 302 331 303 177 242 264 220 326 240 372 246 280 263 230 235 266 275 218 278 326 366 256 170 202 238 200 202 288 222 372 168 285 282 274 217 203 249 292 271 274 205 208 230 232 287 302 238 273 283 187 296 244 317 231 265 257 291 285 273 283 264 280 175 278 311 186 239 269 257 203 273 252 177 225 297 315 209 193 266 227 252 273 247 214 263 185 285 272 275 312 286 287 237 379 278 252 274 291 325 255 221 256 350 211 232 211 229 259 293 187 184 260 335 265 343 234 282 211 298 299 255 268 376 256 214 235 199 277 302 252 268 260 299 237 286 224 210 227 313 352 336 362 332 291 254 212 297 296 264 214 214 232 285 209 288 240 190 219 233 157 278 263 224 256 185 183 180 272 289 259 235 257 197 311 281 232 215 325 362 277 265 148 256 229 260 234 279 212 271 198 351 186 178 280 276 270 351 235 331 277 297 165 242 303 212 269 297 240 218 136 229 186 306 256 269 333 212 218 253 279 271 276 253 168 226 327 198 170 290 233 305 213 220 241 234 276 272 258 267 328 250 318 291 317 277 189 255 287 244 285 182 404 252 281 232 334 288 193 231 317 246 222 279 207 276 268 318 188 216 287 349 308 222 283 225 350 251 222 335 286 284 242 282 343 225 304 305 239 266 282 229 264 283 213 262 274 336 253 333 264 230 319 252 333 206 283 220 274 225 302 248 197 243 256 234 274 206 249 302 270 271 282 221 239 178 276 270 323 247 200 366 251 323 217 237 135 211 253 295 275 244 212 255 242 281 160 143 274 264 242 170 317 280 270 259 286 312 275 326 199 148 316 340 258 141 296 215 256 283 258 303 172 284 300 130 249 235 156 265 283 279 212 253 259 242 244 317 323 245 290 352 295 325 308 251 218 320 257 335 285 370 195 232 328 259 184 252 225 217 219 201 266 309 309 307 266 239 203 268 296 266 299 178 292 220 254 286 181 303 224 287 363 173 271 263 228 259 306 254 265 300 217 261 241 283 275 300 222 190 227 221 272 295 298 206 278 184 277 253 298 239 203 180 259 235 230 310 277 299 247 267 227 295 281 254 192 322 231 206 209 243 211 291 252 224 234 178 222 282 295 387 208 229 291 206 299 192 354 286 324 279 272 168 281 240 280 269 236 227 199 257 250 282 273 225 276 313 324 244 259 198 247 246 294 269 266 241 215 236 307 197 270 208 164 352 238 256 276 205 312 232 277 246 250 235 158 267 256 161 286 236 304 270 249 265 277 191 275 260 191 270 290 270 295 256 360 239 235 209 271 220 214 189 180 258 283 231 201 242 262 295 310 232 281 255 339 324 279 345 289 193 267 291 253 283 276 301 240 217 277 296 195 212 236 240 261 283 241 222 220 292 245 280 243 222 228 191 259 199 224 375 328 301 227 209 299 242 243 255 194 256 301 308 284 326 222 200 243 217 286 323 283 314 239 254 207 367 247 218 228 298 268 241 219 222 190 149 324 225 272 291 202 293 270 268 244 320 280 295 277 166 226 246 215 261 282 299 372 330 308 188 242 238 342 189 320 257 256 218 255 189 315 215 232 245 251 283 291 282 259 299 319 237 220 240 248 179 251 236 209 341 298 318 270 288 293 350 271 259 343 274 217 239 208 200 325 248 286 309 280 301 294 326 350 295 352 261 220 195 285 222 263 218 176 242 285 274 359 257 238 213 227 234 244 150 201 249 173 283 205 272 261 220 220 305 376 350 184 213 213 234 231 203 190 266 228 225 232 223 255 286 241 231 219 199 197 310 326 299 327 253 269 298 261 242 318 212 201 333 266 203 267 312 269 312 263 233 297 194 114 219 226 223 212 284 279 325 310 263 238 217 235 239 281 177 204 216 185 172 203 266 249 238 343 219 287 240 263 178 284 208 227 285 303 224 224 258 174 261 271 271 218 260 200 275 278 268 237 319 285 228 332 294 233 289 241 224 231 268 242 285 300 151 256 359 314 257 210 305 379 212 225 285 228 259 276 269 275 227 249 254 263 229 236 262 296 272 165 299 289 233 290 284 254 255 295 257 295 236 211 231 247 296 204 256 224 288 199 273 293 199 378 256 235 167 191 235 250 320 165 217 257 222 165 325 258 188 207 192 310 326 193 283 314 209 301 229 189 224 224 187 277 286 227 245 312 316 427 302 215 224 246 238 351 179 307 273 259 367 251 214 306 255 242 274 336 224 201 255 357 302 295 338 184 289 304 342 308 213 254 296 276 220 244 229 245 324 263 196 312 125 258 288 247 307 189 263 245 272 323 225 273 280 240 196 179 156 282 331 326 273 354 216 277 258 333 331 216 300 228 241 320 335 247 237 220 232 272 315 207 194 243 239 206 251 372 207 253 249 261 247 259 238 303 328 275 328 267 120 246 198 189 276 192 310 285 339 212 200 204 296 199 289 253 217 254 279 342 281 295 276 207 203 297 387 268 213 265 330 274 246 216 348 318 285 282 256 254 211 271 357 217 120 307 232 204 157 156 285 163 191 239 274 235 261 368 212 328 299 321 225 278 296 246 252 221 307 251 282 245 192 162 153 277 145 271 308 308 322 237 160 280 277 259 316 202 321 264 193 210 352 203 242 280 260 241 250 147 238 204 244 296 211 235 253 225 274 163 239 234 128 295 287 311 186 177 223 226 216 302 263 238 265 248 215 364 327 286 228 292 306 329 231 275 194 183 295 239 248 261 302 255 335 165 173 218 325 295 336 165 225 298 136 285 311 258 189 232 258 303 339 201 247 281 192 233 239 263 310 235 112 285 251 259 283 272 256 252 252 277 287 288 223 163 212 292 236 331 141 281 248 284 222 267 267 273 244 232 295 175 242 161 189 250 330 214 272 241 303 172 272 228 222 303 241 289 325 253 186 271 232 169 224 319 220 165 298 270 278 280 217 259 219 227 263 237 211 306 229 276 297 328 279 265 286 280 267 244 316 156 228 264 172 177 239 253 252 159 287 174 242 339 204 301 236 332 216 220 294 180 245 310 249 242 224 285 256 250 255 266 283 272 267 285 252 170 293 280 220 169 213 279 259 215 219 264 177 349 307 311 230 308 279 242 226 302 318 207 201 338 285 240 280 325 335 273 227 292 230 284 241 140 236 276 186 247 300 246 239 283 231 251 336 280 212 317 224 210 208 283 276 264 326 234 281 328 251 257 265 204 279 238 311 232 193 164 194 313 249 246 215 271 263 257 211 232 328 217 254 293 300 264 343 331 262 188 151 243 355 240 262 233 297 214 298 270 238 299 245 228 274 288 227 204 209 169 295 247 264 210 355 236 197 311 191 382 248 255 274 273 322 319 309 178 344 291 243 227 288 262 233 307 229 190 315 222 198 242 263 240 259 213 245 252 169 159 275 278 181 244 250 162 250 243 269 457 253 280 255 267 263 261 264 179 294 282 285 207 205 267 168 222 310 220 202 235 177 412 287 304 245 353 274 196 254 304 241 242 319 237 256 200 234 187 199 285 202 216 221 217 272 349 122 175 209 292 276 264 240 275 221 281 231 283 242 273 272 169 309 289 269 230 307 170 222 252 263 293 253 286 238 256 241 243 309 261 296 285 262 251 233 250 278 276 321 275 255 216 209 231 194 241 242 330 281 328 315 181 191 245 406 299 264 230 259 241 240 357 249 262 282 232 257 289 271 251 257 274 214 314 254 290 240 315 194 341 283 253 329 349 314 282 202 214 240 259 280 316 275 198 302 275 352 218 248 211 248 139 308 192 239 216 357 258 264 263 293 164 184 297 171 192 338 256 300 185 286 244 222 264 252 180 171 225 180 222 286 218 220 331 308 273 243 282 251 285 246 187 210 279 238 263 259 262 280 265 299 219 263 234 292 317 243 328 214 226 242 329 217 190 256 320 230 201 275 201 312 174 284 304 233 242 194 229 274 286 219 180 248 164 283 269 261 310 263 265 283 297 251 271 246 268 233 243 283 326 222 278 267 314 191 165 216 289 224 307 291 251 222 291 351 260 355 343 190 398 311 231 263 354 271 292 167 284 236 201 279 265 221 304 259 255 258 315 284 300 255 305 248 192 266 258 308 281 201 291 345 279 281 272 238 289 158 198 173 326 135 204 215 336 195 222 284 255 220 220 315 276 157 262 258 231 218 229 213 183 289 217 205 316 233 214 235 195 242 172 237 349 275 230 240 293 326 165 304 254 297 258 255 243 267 261 280 210 230 218 327 261 230 271 216 207 251 372 241 254 192 207 215 138 217 191 299 253 292 222 196 226 294 261 127 372 262 279 266 251 259 257 228 236 326 244 208 302 201 316 207 290 249 286 290 262 173 289 242 230 284 259 246 263 264 180 334 235 246 259 226 348 231 240 272 196 285 304 307 302 309 290 258 164 343 232 293 309 215 316 286 257 235 316 352 293 375 286 279 236 205 217 193 295 393 303 300 212 245 328 221 233 212 166 263 148 245 184 213 270 211 279 246 220 359 297 275 146 312 268 257 309 264 253 277 279 297 151 229 219 173 182 262 241 270 272 222 214 286 149 303 173 224 273 199 295 159 302 300 203 220 287 255 228 260 235 242 275 285 254 261 358 259 327 280 247 289 259 230 250 244 245 353 327 248 263 229 255 212 248 273 270 335 218 278 357 245 322 232 217 322 166 204 296 180 213 268 279 239 208 231 221 197 237 221 233 219 199 164 264 215 332 278 244 245 169 343 251 247 248 216 326 310 238 309 200 247 329 236 231 209 194 234 255 286 338 153 317 274 224 244 272 271 207 280 247 304 317 224 178 269 252 185 272 176 152 235 278 153 321 251 189 225 311 248 313 239 213 229 273 269 301 355 264 274 320 367 287 269 274 280 310 263 203 275 316 178 216 286 207 248 235 275 253 233 241 298 234 262 292 269 340 352 282 184 275 269 278 343 314 254 318 245 316 246 234 241 295 269 280 327 219 190 226 232 175 206 216 230 333 421 226 181 339 235 296 146 264 380 251 308 315 268 247 261 295 262 225 272 324 281 215 287 280 294 241 238 184 168 162 247 366 262 211 291 287 325 304 232 263 262 194 299 223 149 255 224 281 247 294 268 326 239 161 210 330 236 240 203 270 190 200 176 223 225 209 303 268 277 264 312 315 180 213 244 263 250 240 360 252 200 284 270 383 366 231 236 272 285 214 282 176 275 233 268 363 209 384 185 295 188 192 226 179 217 299 221 293 251 179 219 160 353 290 230 222 286 146 269 208 197 224 307 277 272 219 214 181 286 278 266 186 215 254 324 218 240 189 274 244 332 284 294 338 204 309 156 246 247 197 308 237 248 254 284 185 297 215 325 256 209 321 338 198 215 261 279 223 248 292 306 307 190 242 193 207 330 327 232 239 189 237 253 266 316 239 144 245 276 238 307 235 229 266 203 316 236 314 289 253 242 340 192 269 323 319 269 191 287 231 410 237 209 221 233 259 237 235 238 264 256 304 251 229 301 246 281 235 287 188 273 236 238 312 221 264 238 299 205 278 369 184 251 275 205 226 308 280 276 198 253 313 248 210 162 355 270 254 253 279 325 284 251 304 180 169 282 184 281 219 189 357 303 269 168 203 339 316 246 279 152 346 239 226 289 292 293 381 307 249 310 287 255 210 246 372 289 237 195 225 276 238 145 270 260 295 257 298 269 294 165 219 242 267 308 240 231 250 353 247 232 236 306 340 232 176 282 273 279 259 358 293 283 290 159 399 362 167 249 190 286 290 325 243 197 281 242 322 315 215 169 216 277 138 223 247 323 246 283 274 180 246 268 254 262 258 255 282 296 303 338 229 176 269 208 238 305 256 213 361 242 240 280 309 372 292 209 243 283 280 269 270 251 235 227 282 288 227 228 233 281 210 268 352 253 202 290 321 235 237 321 289 181 342 308 224 162 212 152 214 192 302 239 185 328 335 322 224 208 199 262 214 223 343 228 231 260 232 248 188 200 254 404 257 261 263 249 264 306 272 155 250 314 272 245 351 258 189 323 263 289 245 229 298 209 288 300 234 208 280 266 238 263 185 305 222 272 264 173 303 234 251 330 240 261 272 221 257 283 291 274 341 298 195 215 285 271 231 277 219 216 290 279 230 248 354 292 200 293 167 219 304 280 301 289 213 272 252 180 225 271 286 256 182 293 268 277 246 295 244 202 269 274 198 255 217 247 191 241 308 159 237 209 195 326 179 285 356 202 282 387 220 318 240 260 249 337 234 248 295 253 297 277 172 270 281 330 215 229 281 284 307 213 240 325 172 205 164 215 233 318 207 274 170 318 296 282 232 259 298 352 242 195 272 199 226 359 248 316 218 310 277 177 243 277 192 263 277 248 296 246 213 248 276 302 225 225 329 295 197 169 377 247 305 192 334 315 278 386 251 283 255 286 256 244 217 241 254 303 272 287 169 297 300 290 296 230 299 241 249 320 222 316 251 259 214 273 269 233 195 302 274 237 232 227 251 321 325 187 193 334 194 252 211 242 339 301 158 290 206 255 173 205 273 267 216 254 326 201 259 211 235 239 247 286 197 319 189 236 165 377 250 262 225 231 264 305 238 222 315 310 232 242 259 255 244 209 241 287 224 227 324 315 279 264 174 309 219 269 220 202 280 298 208 314 275 315 218 276 213 255 307 221 127 312 108 334 321 317 232 278 132 320 254 267 317 243 247 253 301 318 305 263 258 213 196 268 192 229 245 298 258 386 194 304 249 181 281 308 294 307 249 191 219 236 286 222 254 315 279 272 236 275 239 270 222 298 284 195 166 283 196 287 276 247 178 272 178 199 218 246 156 349 230 250 295 235 228 272 194 187 314 172 184 343 230 250 325 233 222 285 221 400 319 188 285 341 125 224 356 256 253 280 324 286 242 268 243 234 192 226 282 289 263 275 191 174 308 225 283 241 229 235 178 213 231 232 189 220 276 276 290 255 290 263 332 315 270 242 306 259 258 291 235 222 333 220 271 208 277 255 196 227 232 186 325 311 184 235 290 251 236 194 383 257 223 291 191 227 374 208 274 212 267 259 229 264 284 213 210 278 289 196 306 282 236 360 248 196 206 198 223 255 318 286 273 338 295 329 238 269 224 288 250 219 262 275 248 302 245 286 205 189 326 205 179 262 243 194 304 292 225 303 166 305 315 278 280 292 255 250 277 282 269 301 323 309 245 335 236 264 189 246 344 298 279 315 250 254 232 257 192 194 271 248 228 255 231 277 229 174 299 347 233 289 252 212 152 250 184 224 317 244 223 209 230 202 170 225 199 299 214 267 287 223 222 255 259 357 223 207 217 319 393 248 254 217 286 282 177 219 184 223 264 168 219 219 188 215 200 200 303 349 219 258 160 264 293 225 246 237 311 254 220 175 212 223 197 254 260 254 194 255 210 183 212 320 247 254 281 260 224 237 248 224 233 281 264 171 293 181 247 239 244 233 310 287 300 363 282 274 313 255 237 303 240 193 301 237 142 203 318 320 404 223 218 154 235 274 302 177 240 125 285 195 332 274 298 323 271 262 275 283 266 255 145 246 185 253 288 318 260 291 304 216 151 355 335 252 185 244 275 274 255 191 269 311 372 304 356 243 302 251 257 206 264 207 207 211 226 198 247 284 272 289 223 277 188 267 256 299 267 256 255 235 269 187 321 285 308 303 254 254 249 156 192 290 435 174 226 230 330 208 234 297 288 277 173 265 299 211 309 207 309 180 221 297 231 248 156 327 365 196 401 168 278 312 204 277 171 224 263 208 188 216 219 263 186 336 294 287 269 256 193 161 286 245 321 184 261 257 226 258 293 257 289 220 214 182 177 288 193 246 360 343 299 364 256 298 268 191 126 266 304 304 266 165 296 213 249 282 347 215 207 157 170 233 332 270 227 271 309 334 249 244 182 252 175 237 266 197 319 354 202 244 208 191 230 207 319 331 294 330 253 270 241 229 234 232 274 130 229 273 246 260 296 222 397 171 200 273 396 242 180 318 205 250 220 276 346 171 274 170 297 184 301 237 270 321 302 271 274 335 247 246 317 233 334 287 251 327 228 197 241 220 261 288 280 313 241 235 160 301 185 265 285 268 276 298 320 297 278 339 276 241 327 344 267 260 229 270 286 306 201 170 378 244 187 218 304 249 231 311 275 269 203 190 293 187 250 156 303 223 267 206 293 316 243 200 289 230 148 258 272 230 285 261 250 250 242 244 300 283 203 284 203 319 228 202 330 200 226 280 199 240 222 274 207 284 173 314 217 253 324 206 314 274 299 326 240 263 304 271 284 269 309 281 228 236 243 277 207 221 189 285 266 205 234 268 240 207 223 180 241 228 292 264 188 316 220 248 263 293 277 224 269 282 238 246 265 261 255 171 300 322 270 250 287 279 370 162 357 339 229 308 322 267 365 249 244 262 293 188 292 223 262 209 277 220 265 324 296 255 249 214 260 176 221 293 324 231 287 225 318 296 191 269 203 307 174 254 260 229 221 310 255 236 230 263 304 249 233 269 332 285 285 261 233 278 329 231 199 228 262 247 223 301 249 183 285 216 284 298 277 202 257 176 250 176 195 246 252 272 254 242 222 231 281 250 193 371 248 281 257 294 341 332 170 331 229 314 303 257 284 262 324 295 283 261 258 237 328 276 252 178 230 272 299 150 192 228 262 235 363 335 291 251 236 230 264 202 334 171 233 310 237 224 278 215 329 210 209 246 237 200 244 199 233 158 237 278 232 279 203 279 238 274 175 408 180 301 250 225 231 265 281 259 364 254 310 256 221 332 158 247 306 232 290 231 321 326 247 238 318 301 209 352 272 342 218 394 173 213 282 171 244 213 179 189 235 314 309 270 341 251 262 301 267 229 209 198 239 153 228 222 256 288 342 206 237 297 223 281 240 235 216 213 235 207 290 292 258 275 254 325 259 250 248 245 264 340 235 323 241 256 280 219 240 310 223 259 188 316 150 241 281 254 182 263 355 257 252 177 245 220 282 348 225 126 205 333 228 254 245 263 253 318 282 274 304 309 163 256 173 288 248 283 169 310 195 320 257 305 190 342 382 174 279 266 248 305 206 279 194 228 292 294 330 253 264 198 250 225 339 245 247 221 336 327 360 249 285 226 247 250 274 298 278 358 224 306 281 133 228 259 168 239 356 242 172 287 211 287 298 265 243 218 247 320 201 302 254 318 236 188 357 245 274 247 161 252 290 245 290 182 260 260 155 324 340 167 230 241 398 288 279 336 212 264 404 276 276 294 346 212 172 251 204 173 253 284 328 231 292 168 214 214 289 342 198 313 254 267 235 149 292 213 249 312 226 181 243 228 337 242 258 190 278 209 249 279 268 254 256 264 275 232 373 339 244 344 171 273 300 227 274 242 287 316 195 216 277 229 260 228 274 228 243 237 277 257 292 370 219 344 225 259 243 245 285 324 275 218 285 277 193 312 268 250 235 226 267 261 236 349 313 280 304 278 167 195 137 240 285 304 277 223 278 296 265 208 176 355 309 214 219 225 199 279 225 311 223 324 157 197 313 298 351 280 225 312 293 188 272 267 248 308 189 208 292 303 136 247 218 241 284 237 183 263 219 205 277 263 292 259 290 278 287 309 245 229 237 360 218 309 321 169 206 245 230 213 231 285 238 265 325 277 279 288 305 284 224 309 335 186 185 311 163 207 309 202 214 216 309 208 207 224 236 299 231 228 191 235 206 197 184 311 346 252 272 216 275 321 278 246 169 228 235 346 176 313 243 198 190 245 273 244 240 310 307 294 221 205 274 235 223 240 206 269 191 148 241 294 134 303 217 294 218 309 295 158 201 284 258 221 293 274 257 280 361 221 306 251 307 189 266 205 332 150 227 194 282 155 223 236 236 188 178 230 204 280 192 227 369 266 326 164 332 269 335 293 363 292 282 336 286 335 282 248 152 228 220 232 363 263 323 199 309 216 265 225 354 229 260 299 231 205 143 278 318 252 295 288 260 281 347 231 260 315 228 257 394 358 243 246 333 216 323 244 182 253 245 254 218 199 326 361 283 177 245 295 189 430 242 203 246 281 329 211 311 258 239 259 182 298 269 236 289 360 284 281 276 248 290 259 221 258 208 313 298 203 325 278 354 201 224 263 278 296 251 203 300 261 270 268 289 210 246 200 221 258 274 149 268 344 258 177 244 204 321 250 244 200 249 194 182 308 227 232 303 299 259 273 283 212 220 239 248 129 160 279 321 351 278 247 182 260 282 223 241 213 304 295 247 212 251 199 156 157 232 311 317 333 332 193 284 237 313 194 175 202 301 278 226 240 319 153 277 172 245 252 272 138 267 235 271 263 192 264 199 295 234 240 309 219 332 281 268 207 254 329 311 405 337 247 199 313 240 287 250 301 380 296 241 256 246 192 276 260 293 343 153 243 304 181 327 285 300 258 233 292 237 269 213 251 158 309 276 271 278 161 189 197 299 215 209 283 306 297 250 247 273 319 270 267 258 261 292 309 203 267 212 241 297 139 167 364 211 330 196 302 359 268 201 246 207 199 226 259 307 245 192 230 301 293 280 162 268 300 182 214 235 225 284 250 273 203 348 194 238 226 209 309 296 296 315 202 273 213 270 185 235 301 215 241 188 191 293 191 235 287 285 278 286 377 260 305 229 307 282 282 304 272 271 299 222 148 285 264 204 208 288 317 276 149 304 185 352 392 271 234 279 301 196 207 254 316 270 285 217 163 214 197 320 326 267 285 212 240 268 254 192 163 176 250 267 210 195 260 161 312 307 275 261 295 236 327 169 192 319 209 161 249 230 266 265 228 322 184 298 240 311 264 256 279 340 297 250 279 284 257 266 312 266 147 270 268 259 293 288 239 262 134 228 340 207 200 182 283 166 242 212 248 244 151 258 216 223 246 183 216 174 260 257 246 239 220 213 319 216 214 311 243 271 250 257 197 260 306 271 320 252 348 248 277 236 304 275 267 237 334 357 296 265 213 253 286 265 239 239 191 251 304 291 214 308 330 281 239 238 285 304 305 307 257 303 258 203 221 196 204 224 191 280 259 229 321 226 263 233 295 161 204 304 295 183 185 261 217 381 243 191 340 268 235 223 171 354 341 209 226 253 364 238 323 279 300 235 234 251 294 197 231 209 200 216 246 273 282 249 295 307 213 263 316 249 329 270 228 254 333 220 195 248 233 278 272 203 228 224 218 277 204 318 213 276 272 307 194 272 231 306 316 360 219 274 228 258 289 249 282 254 315 278 325 285 240 239 230 240 305 227 322 220 314 273 201 219 293 229 183 112 281 263 261 239 247 302 252 301 293 229 227 262 193 240 261 278 247 270 288 281 240 256 238 316 307 213 238 209 167 219 234 250 282 266 241 341 212 321 269 358 204 285 210 303 176 269 318 269 246 248 235 282 295 183 277 260 248 240 183 304 201 218 244 263 253 329 240 280 185 233 356 272 141 202 251 258 314 214 270 248 340 306 315 175 439 241 297 217 267 216 309 281 319 340 249 265 356 263 193 260 218 255 203 174 199 211 246 268 165 309 325 336 304 235 309 321 340 276 200 286 332 255 252 184 267 304 231 238 246 218 231 353 200 263 214 242 174 224 251 313 225 215 200 285 211 245 414 311 265 172 253 283 229 234 311 247 320 274 305 277 261 317 269 240 252 251 212 299 227 307 211 262 276 317 348 282 280 217 229 212 230 221 294 209 297 271 234 282 222 221 273 385 239 238 332 292 294 247 255 267 272 257 350 262 304 280 193 204 269 326 261 241 68 175 283 399 344 253 173 215 206 278 341 244 207 305 316 326 232 330 288 263 214 180 201 260 358 212 207 262 238 209 209 335 340 262 257 266 321 345 267 192 207 351 269 326 237 244 212 207 223 222 266 293 331 209 183 298 297 300 297 216 228 207 321 214 274 245 241 237 264 312 294 155 252 254 216 251 231 298 234 176 310 277 312 262 253 186 243 266 290 252 251 291 329 312 227 317 311 193 275 263 204 283 210 205 349 314 284 283 261 275 239 263 240 224 278 291 225 278 347 285 305 243 282 226 226 188 228 258 288 264 184 198 223 224 204 308 305 196 267 222 293 283 230 266 294 196 271 320 206 256 184 195 208 196 290 254 251 228 213 309 154 181 268 186 222 276 210 233 220 204 194 242 216 283 208 314 287 254 297 298 267 285 304 221 202 275 245 264 267 301 251 280 286 234 278 310 259 331 304 201 300 216 271 334 182 289 250 284 201 252 175 276 253 241 259 198 204 220 211 213 271 262 277 223 179 281 205 245 270 224 262 274 305 273 249 240 314 224 170 260 265 244 236 170 173 299 339 257 202 270 119 219 217 215 274 243 243 253 220 168 228 213 239 319 232 306 274 269 246 222 276 217 345 183 220 240 246 305 302 190 344 269 211 212 336 317 180 224 276 266 282 187 229 323 215 265 227 302 272 217 227 223 233 266 220 266 254 276 202 251 238 256 242 335 234 283 345 232 235 278 294 274 253 263 205 284 166 276 251 270 229 183 292 326 284 279 204 233 329 316 235 247 221 324 264 250 204 171 196 232 168 247 275 397 209 201 247 365 163 348 233 353 208 253 323 238 286 249 241 261 310 256 200 242 270 190 304 210 236 285 207 279 245 270 226 261 200 187 291 218 258 259 304 252 228 271 217 242 311 286 251 333 301 378 250 292 234 265 256 225 381 291 344 326 238 242 251 193 335 238 275 261 241 305 222 160 271 275 287 266 298 288 308 217 266 250 265 246 259 210 269 258 250 177 300 255 288 194 215 230 291 166 220 241 254 259 219 261 241 280 209 242 200 292 270 208 298 260 215 316 203 339 218 301 255 252 222 210 284 294 289 163 240 245 272 262 213 335 302 340 281 258 178 260 269 267 282 208 276 232 226 240 231 278 253 191 290 261 286 221 229 186 187 293 280 237 289 257 330 288 350 251 227 364 228 236 225 250 171 285 236 196 304 252 341 283 211 226 239 231 240 228 304 217 214 285 247 248 309 317 272 312 244 237 280 190 300 187 226 229 310 233 270 334 181 233 273 220 301 178 242 300 269 241 239 296 320 253 188 230 254 363 369 221 236 223 230 262 281 193 223 269 199 278 279 235 283 241 248 210 191 186 208 264 298 251 310 246 290 212 308 241 241 270 298 266 219 286 233 234 236 269 198 355 324 294 299 341 293 162 231 269 228 299 214 246 327 258 187 258 194 276 330 201 312 240 293 226 223 256 226 279 294 209 247 110 188 178 257 254 175 250 350 311 267 325 216 205 325 208 219 224 352 211 348 225 241 244 313 365 217 237 191 242 211 304 252 238 231 312 235 253 353 317 284 254 201 270 249 235 242 276 278 343 283 199 215 232 213 228 269 271 275 282 247 303 246 231 225 276 265 233 295 267 416 227 288 373 208 230 217 251 215 185 238 270 263 159 266 207 259 244 250 316 250 236 251 235 238 242 326 321 267 297 187 178 230 334 244 195 287 237 303 209 200 202 291 245 217 293 185 308 229 274 285 317 271 183 363 255 313 234 270 278 252 276 358 226 175 310 220 247 256 227 280 405 318 194 171 208 184 266 249 370 296 196 238 189 198 251 229 269 353 255 233 260 261 290 250 181 215 364 330 258 196 243 280 260 215 311 270 236 226 250 269 198 259 258 255 188 203 255 215 209 309 255 257 279 204 312 231 406 247 308 239 236 304 210 158 246 217 316 287 271 277 351 279 233 271 267 197 229 260 284 256 368 210 226 361 219 239 238 177 244 207 362 330 338 280 272 205 245 193 262 234 297 225 280 221 333 272 331 300 168 339 264 255 200 162 327 288 279 183 295 233 297 271 186 251 231 260 245 235 224 339 219 197 199 306 277 286 231 242 236 247 178 229 261 211 195 228 302 277 291 262 266 276 267 410 195 209 311 275 323 334 285 285 244 177 265 285 306 245 299 253 201 289 265 254 260 227 281 341 215 274 201 307 258 249 308 281 353 235 309 200 251 256 221 303 315 286 254 168 226 279 244 263 318 225 274 165 165 320 362 247 171 239 274 273 218 301 269 224 211 253 213 226 189 285 249 271 268 193 202 303 217 287 346 355 238 231 229 275 252 198 326 287 211 278 290 198 256 235 216 303 229 178 332 307 238 238 245 209 176 225 200 321 283 247 239 277 307 329 229 188 203 258 274 253 254 249 385 215 228 274 194 295 387 213 207 242 250 231 184 224 252 141 250 225 280 259 229 224 235 285 214 221 312 260 241 234 301 260 236 189 248 322 230 239 267 239 337 189 273 191 213 230 250 176 284 189 234 210 222 345 205 205 193 242 163 257 197 259 221 334 187 298 262 158 223 330 250 252 244 269 240 261 255 267 211 258 281 244 301 300 272 190 317 117 289 340 270 204 204 204 237 298 254 206 229 287 360 269 323 243 210 211 260 265 312 231 273 247 269 228 218 265 297 325 205 244 317 271 265 263 202 279 242 220 231 375 237 306 223 167 311 343 244 244 243 248 261 297 233 229 245 216 251 215 244 273 278 265 217 209 208 205 208 216 315 254 334 279 196 203 224 275 312 337 317 228 254 318 276 198 211 284 296 264 221 279 227 283 246 271 176 211 255 188 185 223 237 174 241 227 298 292 224 171 207 278 341 188 285 168 304 256 263 288 274 246 217 364 197 367 276 237 245 161 217 201 171 315 204 338 258 268 288 310 275 321 274 267 279 244 303 159 190 265 321 174 241 191 258 272 216 269 226 259 306 219 156 260 291 228 295 216 308 213 332 299 213 249 220 318 275 204 305 360 246 258 232 223 222 250 239 248 255 241 334 266 263 292 212 312 318 255 353 286 322 218 161 286 270 206 166 398 294 316 286 231 188 216 294 277 205 235 288 322 141 209 295 285 172 240 257 244 249 254 320 275 281 174 230 205 259 264 304 235 375 354 268 276 284 217 218 256 306 208 251 296 304 211 285 263 285 291 263 243 263 248 230 297 289 259 234 301 205 277 221 274 186 249 362 360 263 306 197 264 185 264 254 301 259 261 304 168 151 263 278 257 286 187 273 282 211 279 279 251 288 260 228 350 324 260 209 239 296 165 274 286 216 205 227 329 178 347 239 270 300 173 297 253 320 245 188 193 328 240 264 246 323 316 175 212 218 386 347 267 325 306 222 241 268 280 215 210 259 368 231 302 276 264 291 281 218 298 269 268 279 288 275 220 238 243 234 181 276 322 242 163 248 251 312 218 327 314 234 202 329 208 278 283 178 199 221 214 281 288 299 270 310 155 236 247 271 223 318 263 279 297 261 238 233 240 268 189 205 259 241 220 354 275 370 308 239 296 370 164 212 267 281 258 280 254 290 249 267 223 304 190 240 254 219 297 260 195 279 127 264 320 299 261 247 279 264 198 169 283 245 268 203 239 270 233 188 225 238 339 330 296 248 326 261 281 280 272 172 284 240 262 237 217 236 278 336 295 255 263 303 316 278 248 230 233 242 195 177 195 146 271 241 288 245 259 242 256 220 216 187 158 277 265 238 155 235 225 243 299 275 283 273 266 275 281 267 333 304 329 273 237 306 201 256 205 246 177 279 278 317 264 283 319 269 298 230 209 162 209 329 254 272 294 249 280 288 260 239 230 251 247 335 307 282 387 267 224 213 287 245 349 304 283 243 201 335 276 316 277 261 258 180 274 268 223 231 238 248 210 261 317 227 219 246 296 241 229 276 289 267 307 235 310 232 225 249 298 196 304 211 248 267 273 288 192 245 246 248 238 240 315 219 277 273 271 253 256 305 295 205 213 295 233 330 211 239 272 276 197 267 195 295 174 183 237 264 261 265 268 268 307 322 225 242 298 257 246 220 310 207 164 273 312 291 206 310 253 231 247 279 252 251 228 252 238 191 242 356 286 262 206 228 249 228 218 266 264 273 216 275 196 242 207 304 230 252 215 239 203 195 276 383 306 297 228 183 258 195 231 215 265 270 237 287 191 178 301 287 251 205 260 230 297 192 208 207 260 264 336 341 261 332 338 229 142 177 166 282 284 170 269 229 241 242 168 248 218 256 229 179 243 269 279 391 211 206 306 286 204 256 277 226 223 209 244 278 162 191 230 206 256 265 334 244 242 307 245 263 214 296 183 325 308 212 246 220 356 302 247 249 376 277 272 273 388 262 191 277 235 279 239 282 253 261 366 168 267 298 207 232 242 265 259 247 307 210 187 336 368 264 297 217 359 224 246 265 199 282 269 254 224 262 229 193 293 232 190 249 248 209 195 214 233 193 310 245 221 199 310 260 231 320 178 214 194 263 198 218 260 295 224 216 236 228 221 245 338 269 333 219 314 253 277 229 253 222 351 245 343 224 227 262 287 288 173 214 195 222 324 247 306 267 277 265 208 259 274 288 308 232 254 176 222 209 339 300 237 248 267 240 360 288 279 258 259 220 268 264 258 305 249 240 239 234 244 236 275 203 296 195 278 161 339 293 300 284 261 159 289 273 275 185 220 286 197 229 270 216 328 288 337 188 244 203 193 165 384 246 431 153 260 235 240 275 232 320 303 212 274 189 256 173 169 269 297 253 280 225 216 200 267 231 203 328 268 285 265 296 233 287 246 255 220 250 322 223 236 280 286 202 316 325 180 279 327 233 341 167 193 291 341 249 259 325 296 204 274 223 326 257 269 180 287 291 257 119 303 257 264 248 239 311 208 383 219 358 242 265 279 158 220 278 287 223 219 231 284 244 199 274 230 329 229 183 260 256 246 298 240 262 217 231 263 278 189 271 198 263 210 233 273 380 248 127 225 220 315 319 2</t>
-  </si>
-  <si>
-    <t>MIE(0.6166713230867975, 3.768339973636704, -1.8268188562748275e-26, 2.522727118039163)</t>
-  </si>
-  <si>
-    <t>3 2 1 2 3 1 2 1 2 2 2 1 1 0 2 1 2 1 1 0 1 1 2 1 1 2 3 0 2 2 2 3 2 1 1 2 3 2 0 2 0 1 2 2 1 5 5 1 3 3 4 1 3 1 2 1 1 1 1 6 2 2 2 1 0 3 1 1 3 2 2 3 2 2 1 2 3 1 1 1 2 1 0 2 2 0 3 2 4 1 2 1 3 1 2 3 2 0 2 3 1 1 1 0 0 0 2 2 1 0 1 2 1 2 1 0 0 2 2 1 1 0 3 1 1 2 1 3 1 1 2 2 3 2 1 1 4 0 1 3 4 1 1 4 2 2 1 1 3 2 3 0 3 1 2 1 1 0 0 2 1 1 1 3 2 4 2 3 3 2 3 3 1 3 2 2 2 1 2 1 2 1 0 0 1 1 2 2 1 0 1 2 1 2 1 1 4 0 4 3 2 1 1 1 3 1 0 1 0 4 1 2 1 0 2 3 2 3 3 2 2 1 1 3 0 1 2 1 3 2 2 2 3 2 1 2 1 2 2 2 1 2 3 1 1 3 1 3 1 1 1 0 1 1 0 2 2 0 2 1 1 3 1 1 3 1 2 1 1 1 0 2 2 1 3 3 3 1 2 2 0 1 2 4 0 2 1 1 2 1 1 2 1 3 1 3 4 3 3 4 2 1 2 2 2 1 1 0 2 2 1 1 3 1 0 2 2 0 1 2 0 0 1 3 1 3 0 1 1 1 1 2 4 1 3 1 1 2 0 1 1 0 1 2 2 1 2 1 3 1 0 0 0 3 2 0 0 1 1 2 0 2 2 3 1 1 2 2 1 2 2 2 3 2 0 1 2 1 0 1 3 3 3 1 1 3 4 1 2 0 0 1 1 3 3 2 3 1 2 0 1 2 1 2 1 0 2 2 2 2 2 2 0 1 2 1 1 2 4 2 3 2 0 2 1 1 1 3 3 1 1 1 1 1 0 2 5 2 2 3 2 2 1 1 1 2 1 3 2 3 2 2 2 0 2 0 1 2 3 3 1 2 2 1 2 2 3 2 2 2 1 2 2 2 4 1 3 0 0 0 2 3 2 2 0 1 2 2 2 2 3 2 1 4 1 2 2 1 1 3 2 4 2 1 2 3 2 5 4 0 2 1 3 1 1 2 1 1 1 0 2 2 2 2 3 2 1 1 3 0 3 1 2 3 2 1 3 1 2 2 0 1 1 2 1 2 0 2 1 1 1 3 0 1 3 3 1 1 1 3 1 1 3 1 0 4 2 0 3 2 1 2 2 3 1 2 2 2 0 2 1 1 5 2 3 2 1 1 3 3 4 1 2 1 2 3 2 1 1 0 2 1 1 1 3 2 2 1 3 1 2 3 2 2 3 1 0 2 2 0 1 3 1 2 2 1 2 1 0 1 1 1 2 3 2 5 0 2 2 3 1 2 0 2 3 1 2 3 0 0 2 2 3 0 2 5 2 1 2 2 1 1 2 2 3 0 1 2 0 1 2 1 2 1 2 2 1 1 2 4 1 0 4 2 2 2 2 2 0 1 0 1 0 3 3 1 3 2 1 0 0 1 0 4 1 2 1 0 2 1 2 1 2 0 2 1 3 1 1 1 1 1 2 3 3 1 1 1 3 0 0 2 0 0 1 1 5 2 1 3 4 5 1 4 1 1 2 0 1 1 1 1 2 3 2 3 0 2 2 1 1 2 3 0 2 0 5 1 1 0 0 4 1 3 0 2 2 1 1 3 2 3 4 1 4 2 1 0 1 1 0 2 0 1 0 3 2 1 1 1 1 1 2 2 1 1 1 2 2 3 0 3 1 1 2 3 2 2 2 4 3 3 2 3 2 2 1 2 2 2 1 2 1 0 0 2 2 1 2 2 1 0 2 1 3 0 4 2 2 1 2 1 2 2 0 3 1 2 1 2 0 0 2 2 2 2 2 1 0 1 2 4 0 3 0 1 3 2 1 0 2 1 1 1 3 2 3 1 1 1 0 2 2 1 2 1 2 1 1 2 0 1 2 3 0 2 2 1 3 0 2 2 2 0 1 1 2 3 3 4 0 2 0 0 1 1 2 1 1 1 1 0 3 3 2 1 0 2 1 1 1 3 2 2 1 0 0 2 3 1 1 1 2 0 2 0 0 1 1 2 1 2 1 0 2 1 0 1 2 4 1 2 2 1 1 0 3 2 1 2 1 3 1 2 1 2 0 1 2 0 1 1 2 1 0 1 0 1 2 0 3 1 2 4 4 1 3 3 2 0 1 2 1 2 1 3 2 3 1 2 0 1 0 3 0 1 1 2 1 2 1 4 1 2 3 3 0 1 2 1 2 0 2 2 3 2 1 4 1 2 1 1 1 3 0 2 2 0 1 2 1 4 3 2 3 3 1 4 0 1 2 2 1 2 1 0 3 1 1 2 0 2 2 1 2 1 1 2 2 3 3 2 2 1 5 2 2 0 1 0 0 3 3 3 0 2 2 2 3 2 1 2 1 1 0 2 3 2 2 0 1 2 3 1 1 3 1 1 1 2 2 1 2 2 2 1 2 3 0 2 2 1 1 2 2 3 1 1 2 2 2 3 2 2 3 2 2 2 2 1 2 1 3 1 4 2 2 1 1 1 2 3 0 1 1 1 3 1 4 3 2 1 1 3 2 2 2 4 2 2 3 4 3 1 1 3 2 4 1 0 1 3 2 1 2 1 4 1 0 2 2 1 2 1 2 3 3 3 1 2 0 1 2 2 1 0 1 2 3 1 0 2 2 3 1 2 3 4 2 1 3 2 1 1 1 0 1 0 1 3 1 1 0 2 2 1 1 0 3 1 2 0 2 2 2 1 1 1 2 3 0 1 2 1 2 1 1 2 0 4 2 3 1 1 2 2 1 3 1 2 3 1 0 3 0 3 2 3 3 1 0 2 2 2 1 1 3 1 2 1 0 1 0 1 2 2 0 1 1 1 0 3 2 2 1 2 2 1 2 1 1 0 2 1 1 1 0 0 2 3 2 0 0 2 2 1 1 0 1 3 2 2 1 1 1 1 1 0 4 2 5 1 2 2 2 0 0 1 2 4 1 0 2 0 3 2 5 0 0 2 2 1 0 0 3 2 0 2 2 3 1 0 1 0 1 1 1 1 0 2 0 2 1 2 1 1 3 2 3 1 1 2 2 1 2 2 2 1 2 2 2 3 1 2 1 1 2 2 1 2 1 1 0 0 1 1 1 0 1 1 1 0 1 3 2 1 1 5 2 2 1 2 2 1 0 2 1 0 2 2 2 2 2 0 2 2 2 0 0 1 0 2 2 0 2 0 1 0 1 2 4 0 2 2 2 0 0 1 0 3 1 1 2 3 3 2 2 3 3 3 2 2 1 1 1 1 2 0 2 2 2 3 3 1 1 2 0 3 0 1 1 0 2 1 1 2 2 1 4 3 1 1 1 1 1 0 1 1 1 1 2 2 0 2 3 2 1 0 0 1 2 1 5 2 2 2 4 2 1 3 2 1 2 2 1 4 2 1 2 3 1 3 2 1 1 0 1 1 3 2 1 3 1 1 0 1 1 4 2 1 2 0 1 3 2 0 1 1 1 1 3 2 0 2 1 2 2 2 2 0 1 1 2 2 2 3 1 1 4 2 3 0 2 2 0 1 1 0 3 2 2 3 1 0 4 0 1 3 2 3 2 1 2 3 1 1 1 2 3 3 2 2 2 3 2 2 1 1 3 3 2 1 1 1 1 4 2 1 0 2 2 2 2 1 2 1 2 1 1 2 1 1 2 3 1 1 3 1 2 2 0 1 1 2 2 2 0 1 3 1 1 1 1 2 3 0 1 1 1 2 3 0 1 1 1 1 2 1 3 1 3 4 0 1 3 3 0 2 2 3 1 3 2 0 3 3 2 2 0 1 1 3 4 3 1 2 2 1 3 4 3 1 1 1 0 0 0 0 1 1 0 0 2 2 0 1 2 2 2 2 1 2 0 2 1 4 2 3 1 0 1 0 2 3 3 4 2 1 2 2 3 2 2 2 0 0 3 2 1 3 2 3 1 0 1 0 0 1 1 1 2 1 2 2 4 2 2 3 0 0 2 1 2 2 2 1 1 0 3 0 4 1 2 1 0 0 4 2 2 2 2 2 1 4 0 1 1 2 5 1 1 0 3 3 1 1 2 1 2 1 1 1 1 2 2 0 0 4 1 1 1 1 1 1 1 0 4 2 0 2 1 2 4 2 3 1 1 2 2 1 2 2 1 2 2 2 1 3 1 0 3 2 3 0 1 6 3 1 2 2 2 2 3 1 1 0 4 0 1 0 1 0 3 0 1 3 1 2 1 0 0 1 1 2 1 3 1 1 0 0 1 1 1 1 2 3 2 1 2 4 2 3 0 3 3 3 2 1 1 2 4 1 1 1 2 1 1 1 0 0 1 4 3 0 0 1 0 1 2 1 1 2 2 2 3 2 0 2 0 1 0 2 0 2 0 2 1 2 2 3 0 2 1 2 2 3 0 1 2 2 0 3 0 1 2 3 1 2 2 1 3 1 1 1 1 0 1 1 2 1 3 3 3 1 3 1 1 2 1 1 1 2 1 2 2 1 1 3 0 2 3 2 1 3 2 2 3 2 2 1 0 1 3 1 2 1 4 1 4 2 2 1 2 0 0 2 2 2 1 1 3 1 2 1 3 3 2 2 0 0 0 1 3 3 0 2 2 1 0 2 3 1 3 0 2 3 2 4 2 1 1 3 1 2 2 1 2 1 2 2 1 2 3 3 1 4 3 1 2 3 3 2 2 0 1 0 2 2 4 2 1 2 1 2 1 0 2 1 2 1 2 1 2 1 0 1 4 4 3 0 0 1 1 1 1 2 2 2 2 2 0 0 1 2 2 2 2 1 0 1 0 1 1 3 0 2 3 2 1 1 1 2 1 1 2 2 0 1 3 0 0 4 2 2 1 1 3 1 3 3 1 1 1 3 2 3 1 2 2 1 1 2 0 1 2 0 1 1 0 3 1 1 3 4 3 2 3 2 5 0 0 1 1 2 1 1 1 2 3 2 0 2 1 1 3 1 1 1 1 1 0 0 1 2 1 2 0 0 1 2 0 2 4 3 0 2 1 1 1 4 1 0 1 2 1 0 0 3 1 1 2 3 0 2 3 3 1 2 3 2 2 1 2 0 2 0 3 1 2 2 2 0 1 1 1 3 0 1 2 0 2 2 4 1 1 1 3 1 2 2 5 0 3 2 3 2 3 0 1 3 2 3 1 1 3 3 1 1 1 2 2 2 2 1 1 1 2 1 2 2 2 2 0 1 1 3 0 2 0 1 3 0 1 0 3 2 1 2 0 1 2 4 3 1 2 4 0 6 0 0 3 2 2 3 1 1 3 2 2 4 1 2 2 2 2 1 2 2 2 3 0 3 2 1 3 2 3 0 1 1 0 1 2 2 1 1 1 2 2 1 3 1 0 2 1 1 1 2 0 3 0 2 0 4 3 0 1 2 1 1 2 2 1 3 0 2 1 2 1 2 2 0 1 2 0 3 0 2 1 2 1 0 1 3 4 2 3 1 0 2 0 4 3 2 1 2 3 2 0 1 2 0 2 1 1 0 2 1 1 1 0 3 4 3 2 2 0 1 1 1 2 1 0 2 1 3 2 1 2 2 1 1 2 3 1 2 1 3 1 3 2 0 0 2 2 1 1 2 0 2 2 2 3 3 3 2 0 1 1 2 3 0 0 2 4 1 2 2 1 2 1 3 2 1 1 3 3 2 1 1 3 1 2 1 1 2 2 3 1 4 0 1 0 2 1 1 2 2 1 0 1 1 1 1 1 3 1 2 0 1 2 0 0 2 2 2 2 2 1 1 3 3 2 3 5 3 2 2 2 2 4 1 0 2 1 3 1 1 2 2 3 2 1 3 2 2 0 5 2 2 3 1 2 1 1 1 1 2 1 1 2 0 4 2 0 4 1 1 1 0 3 2 0 0 2 2 2 1 1 3 0 3 2 2 2 1 0 2 1 1 2 2 1 1 2 2 3 0 1 3 2 3 0 1 1 1 1 2 1 2 2 4 0 1 3 2 1 4 1 2 1 2 2 3 2 1 3 3 2 3 1 2 1 1 3 3 3 2 0 2 1 1 1 2 0 1 0 1 1 0 2 2 1 1 3 2 3 0 1 3 1 2 0 3 2 0 2 2 1 2 1 2 0 2 2 3 0 2 1 0 3 0 1 2 2 2 1 2 3 2 2 2 0 2 1 3 3 5 1 3 2 2 2 3 1 1 1 1 2 2 1 1 2 2 1 2 2 1 0 3 2 2 3 1 1 3 1 1 2 2 3 0 1 2 1 0 0 2 1 0 2 0 2 0 3 2 2 0 2 2 1 3 2 1 2 1 2 3 4 1 2 1 2 1 5 1 2 3 2 1 1 1 1 2 1 2 1 3 0 1 2 3 2 1 3 1 2 2 0 1 2 1 1 3 0 1 2 3 1 2 2 2 1 2 2 1 4 3 1 2 2 1 2 1 4 4 4 3 1 1 1 2 2 2 4 1 1 1 0 0 2 1 1 2 1 1 3 1 1 1 0 3 1 0 0 4 0 2 1 4 1 1 1 2 2 2 1 1 1 2 3 1 1 1 2 1 1 0 3 1 5 2 1 2 2 3 1 1 3 3 1 3 0 3 3 1 0 0 0 3 3 1 0 3 0 0 2 1 1 1 0 2 2 1 1 3 2 4 1 1 1 1 1 2 1 1 1 0 3 2 0 3 3 0 3 2 1 1 2 1 0 0 1 2 1 1 1 1 2 2 2 1 1 0 0 2 1 2 4 2 2 2 1 2 3 1 1 3 2 1 3 1 2 2 2 4 1 2 2 1 2 1 1 1 0 2 1 1 3 0 0 0 3 0 1 1 2 1 0 1 1 2 2 2 1 2 1 1 2 2 1 2 4 2 2 1 0 1 0 2 2 2 1 3 0 2 0 1 0 1 0 2 2 3 2 1 3 2 0 1 0 1 3 2 0 2 2 2 2 2 3 2 2 0 1 1 0 3 1 1 2 2 1 1 3 3 1 2 2 0 4 1 2 1 1 2 1 2 2 2 2 2 1 1 2 3 2 0 2 1 1 1 1 1 2 1 0 2 2 1 3 1 1 2 2 1 3 1 2 0 1 1 0 1 1 1 2 3 1 3 2 1 4 1 0 0 2 1 3 0 1 2 3 1 1 4 3 0 1 1 4 2 3 4 2 1 4 0 2 1 0 2 1 2 0 1 2 3 2 1 2 3 1 3 1 2 2 4 3 1 1 3 4 2 0 4 2 1 3 2 2 2 0 0 1 2 2 2 1 1 0 1 2 2 1 2 3 2 3 1 1 1 2 1 1 2 1 1 2 1 3 1 2 3 0 5 5 0 2 3 1 2 1 1 3 2 1 3 2 0 0 1 2 0 1 3 1 0 2 2 0 1 3 1 2 3 2 2 2 1 2 3 1 1 1 1 3 3 2 3 1 2 1 2 3 1 0 1 4 1 3 0 1 1 0 3 3 3 1 2 1 1 2 2 3 1 0 2 0 0 2 2 0 4 1 0 2 1 2 3 2 1 0 1 3 1 4 1 1 2 3 0 1 1 3 1 2 1 2 2 2 1 3 1 3 1 2 3 1 1 1 2 1 3 2 2 1 2 3 1 4 1 2 3 2 3 1 2 1 1 3 1 4 2 2 2 1 2 0 1 4 2 0 0 1 2 0 2 3 0 2 3 1 1 1 1 0 1 2 2 2 2 2 2 1 2 0 2 1 0 1 1 0 2 3 1 2 1 0 1 2 2 2 0 2 1 2 2 2 3 1 2 3 1 1 1 1 0 1 2 1 0 2 2 4 1 2 3 2 3 3 0 2 0 1 1 5 1 2 4 2 0 2 2 4 3 2 1 1 1 2 1 3 2 2 2 1 1 2 1 2 1 2 0 2 1 1 0 2 5 1 3 1 3 1 1 2 2 0 2 3 1 2 1 1 2 2 1 2 1 1 0 2 1 1 1 1 2 3 3 2 3 2 2 1 1 2 4 5 2 1 1 1 1 1 2 1 1 1 1 2 1 3 1 2 3 2 6 2 0 2 2 1 2 1 1 0 2 2 3 1 2 1 1 1 2 2 2 2 1 5 1 4 1 2 3 2 2 1 1 1 0 4 4 1 1 2 2 3 1 0 1 2 2 2 2 2 0 0 1 2 1 2 1 2 1 2 4 1 2 1 0 1 1 1 1 2 2 2 2 2 3 2 2 1 3 1 2 3 1 1 2 2 0 3 1 3 1 0 2 3 3 2 0 4 2 1 1 3 2 1 1 3 1 2 1 1 1 2 3 2 4 2 2 1 0 3 1 3 1 3 1 5 1 1 1 0 2 1 0 1 1 1 0 1 1 1 1 3 3 3 3 3 2 2 3 2 2 1 1 2 1 2 2 0 1 2 1 1 2 1 2 2 1 2 2 3 1 3 0 2 0 2 2 1 1 1 1 2 1 0 1 4 1 2 1 3 1 1 2 2 1 1 2 1 3 2 1 0 1 1 2 3 2 1 1 0 2 1 2 0 1 2 2 1 2 0 1 1 2 0 3 2 1 3 5 3 1 3 2 3 1 3 0 3 2 2 3 0 1 0 0 0 0 2 2 4 2 1 4 2 1 0 3 0 1 2 2 3 2 1 0 0 2 1 2 3 0 2 1 3 1 1 1 2 1 4 2 2 1 1 2 0 3 2 1 1 2 4 0 1 0 2 4 2 1 2 2 1 1 1 2 2 0 2 2 2 2 0 2 2 1 2 3 2 2 2 3 2 2 0 1 2 3 1 0 2 3 2 2 2 0 2 0 2 3 2 2 2 2 1 0 1 0 2 2 1 0 1 2 1 3 1 2 1 3 4 0 0 0 1 1 1 0 0 3 0 2 2 2 3 1 0 4 0 1 1 3 2 1 2 2 3 2 1 1 2 0 2 2 1 0 2 1 1 1 2 1 0 1 0 3 2 1 1 0 1 1 2 2 2 2 2 1 0 2 1 2 0 2 3 1 2 1 1 1 1 2 1 1 3 1 1 3 0 4 1 2 0 3 1 2 2 2 2 0 1 3 1 2 2 1 1 1 2 3 1 3 1 1 1 1 2 3 0 1 1 0 4 1 0 0 1 1 1 2 1 5 3 4 2 1 1 3 0 1 2 0 2 2 2 3 3 1 2 0 3 2 1 1 2 3 2 1 1 2 3 2 1 3 3 1 1 2 3 3 1 0 1 1 1 4 1 2 3 0 1 2 0 1 2 2 5 2 1 2 0 2 0 3 2 2 1 2 2 2 2 4 2 1 1 3 1 2 2 2 2 2 1 4 1 2 0 1 0 3 2 1 3 1 3 3 1 4 1 2 3 2 2 0 1 1 2 0 1 1 2 0 1 1 1 1 1 0 1 3 0 2 1 3 3 0 2 2 0 0 0 1 0 0 4 1 1 2 1 3 3 2 2 1 0 1 2 2 1 2 1 0 2 2 3 1 0 1 3 2 0 1 1 2 3 2 3 1 1 2 0 2 2 2 1 1 3 1 1 1 0 2 0 1 3 2 3 0 2 1 0 1 2 1 0 0 2 1 1 3 2 2 0 0 2 5 2 1 1 1 2 0 1 2 0 3 1 2 1 1 1 4 3 3 2 3 2 1 2 3 1 3 0 1 0 2 0 2 3 2 0 2 2 1 0 1 2 1 3 4 1 2 1 1 2 2 2 1 0 3 2 1 2 0 4 1 2 2 2 2 1 1 2 2 1 0 2 0 0 1 0 1 2 2 1 1 1 1 2 1 2 2 2 2 2 1 1 1 1 0 3 2 0 2 1 1 2 1 2 1 3 2 2 3 1 1 3 1 2 2 3 2 2 1 2 1 2 3 3 2 1 2 2 1 2 1 1 2 2 6 3 2 2 0 3 1 2 2 1 2 0 2 3 2 1 0 2 1 2 1 1 2 3 2 1 3 3 1 2 2 3 1 1 2 1 0 1 2 2 2 0 1 1 1 1 3 2 1 3 2 0 3 1 2 1 2 1 3 1 1 1 3 0 1 3 2 0 3 2 0 0 2 2 5 1 3 3 1 1 0 1 0 3 0 0 2 1 0 3 3 1 1 1 3 1 2 1 4 1 3 2 1 0 0 1 2 1 2 1 2 2 0 2 3 2 2 2 2 2 2 1 0 2 1 1 2 0 3 1 2 1 2 0 2 4 1 2 2 3 2 1 1 4 2 1 3 2 3 1 3 4 3 4 3 2 4 2 2 2 2 2 4 0 1 1 2 1 2 3 2 2 0 1 1 1 4 1 2 5 2 2 4 2 2 0 1 3 2 1 1 1 3 0 3 1 1 2 2 1 3 1 2 3 0 1 0 4 1 2 1 1 3 1 2 2 3 3 0 4 2 2 3 1 2 2 3 1 2 3 1 3 2 1 1 6 1 1 2 3 4 1 1 2 1 1 3 2 4 1 1 2 3 1 2 2 1 0 1 0 2 2 2 1 2 2 2 0 1 2 1 0 1 2 2 5 3 1 2 2 1 0 0 3 0 2 2 3 3 3 2 1 2 2 3 3 1 1 1 2 4 2 1 1 2 2 2 2 1 3 1 2 1 1 1 3 1 2 1 2 0 1 2 1 3 3 1 3 1 1 1 1 0 1 2 0 3 1 1 1 2 2 1 4 1 4 0 3 2 0 2 2 3 2 1 0 1 1 4 3 1 1 2 2 0 2 0 0 2 2 2 1 1 3 2 1 0 0 0 2 0 3 3 0 2 2 1 2 1 1 1 2 1 3 0 3 2 2 2 0 1 0 2 1 0 3 0 3 1 0 2 2 1 1 1 2 1 1 3 1 0 2 1 0 3 3 2 1 2 1 3 0 0 1 1 2 3 2 3 1 2 1 2 1 2 3 3 2 1 0 1 3 2 0 1 1 0 2 1 2 1 1 0 0 2 3 1 2 2 2 0 3 3 3 1 2 0 3 3 1 2 2 1 3 0 1 2 1 0 3 2 0 3 2 1 1 3 3 0 4 2 1 3 0 2 2 2 2 2 2 2 2 2 2 3 1 3 4 1 2 2 2 2 4 0 2 0 0 3 1 2 2 3 1 2 3 1 3 2 1 1 2 0 2 2 0 2 3 0 0 2 0 1 2 1 3 1 0 2 2 2 2 0 1 4 1 2 2 1 1 2 2 1 3 1 2 1 1 2 3 3 0 1 1 0 2 2 3 0 2 1 1 2 1 1 0 2 1 2 1 3 2 5 2 2 3 0 2 3 1 2 3 1 2 2 1 1 1 2 1 0 1 3 2 1 1 1 1 1 1 2 1 3 3 1 2 4 3 2 1 0 3 3 2 0 2 2 1 2 1 2 1 1 4 3 4 2 1 2 1 1 0 3 2 0 1 1 4 0 1 1 1 0 4 0 1 1 1 2 1 1 3 0 2 4 0 1 0 3 2 3 0 1 0 2 1 3 1 2 1 0 0 1 0 2 1 2 1 3 0 2 1 1 3 2 1 2 3 2 1 2 1 1 3 0 0 1 1 2 1 2 0 2 2 1 2 2 1 3 0 1 0 0 2 1 2 3 2 2 3 2 1 3 1 1 1 2 3 3 2 2 1 3 0 1 2 2 4 0 1 4 4 2 0 1 1 2 6 2 2 2 0 3 0 1 2 2 2 1 4 1 1 2 1 1 2 2 1 3 2 1 0 1 2 2 1 2 1 2 0 2 1 3 3 1 1 2 2 1 2 2 1 2 0 0 1 0 0 1 3 1 1 1 1 3 2 2 0 0 1 2 2 1 2 2 2 1 2 2 1 3 1 1 1 0 2 2 2 1 1 1 0 2 2 1 0 1 1 0 2 3 2 0 3 3 0 4 2 1 0 0 0 1 2 1 2 3 2 0 3 2 1 0 1 1 3 2 2 1 0 3 3 2 1 1 0 2 2 4 0 3 3 2 3 1 2 2 4 2 1 2 5 3 2 0 3 3 1 2 2 1 2 0 1 2 1 1 2 2 1 2 1 4 2 1 2 3 2 2 0 2 4 1 1 1 1 1 2 2 3 1 2 1 2 0 1 1 6 3 2 0 3 1 1 0 1 0 3 3 1 1 3 1 2 0 2 3 3 0 2 1 1 2 1 3 4 2 1 2 2 1 1 2 1 2 3 3 2 3 3 2 3 1 0 2 2 1 0 2 1 3 0 1 1 2 3 2 3 1 3 0 3 4 0 3 2 3 1 3 1 0 3 3 3 3 2 3 3 1 2 3 2 2 3 0 0 0 2 0 0 2 3 4 5 0 2 3 4 2 1 3 2 1 0 2 1 3 1 1 2 3 1 2 2 2 0 2 0 1 1 2 2 0 2 0 3 2 2 1 3 1 5 1 1 4 1 0 1 0 1 2 1 3 1 2 3 2 1 2 3 2 0 1 1 2 1 2 3 3 1 1 2 3 4 1 0 0 0 0 3 1 2 0 2 1 2 2 2 1 3 2 1 1 2 0 1 1 1 1 3 1 0 0 4 2 1 1 1 2 3 1 1 2 3 1 3 2 1 3 2 1 3 1 1 0 1 2 2 0 1 2 2 1 1 1 1 1 3 2 3 2 1 0 2 1 1 1 3 1 0 2 0 2 3 1 2 2 2 1 2 3 5 2 1 1 1 0 1 2 3 0 1 2 1 4 0 0 3 2 4 1 1 2 2 2 2 1 2 1 1 1 5 3 2 2 3 1 3 0 0 2 1 1 2 2 1 2 1 1 2 0 2 2 2 1 3 2 1 0 2 1 2 0 3 3 1 2 1 2 0 3 3 1 1 3 0 0 3 3 1 4 1 2 2 2 3 1 2 2 1 1 0 3 3 1 4 2 4 1 2 2 0 2 0 2 0 1 1 1 1 3 4 0 1 3 0 2 0 3 1 3 2 2 1 2 2 0 2 0 1 3 2 3 1 1 2 0 1 1 1 4 1 2 3 2 3 0 1 1 1 3 0 2 2 3 1 0 1 1 2 0 1 2 2 2 2 4 0 0 2 1 2 2 2 3 1 2 4 2 1 1 2 1 4 2 2 1 2 1 1 0 3 0 2 3 3 2 2 3 1 4 4 1 0 1 1 0 1 3 0 1 3 0 1 1 1 4 3 3 3 1 2 2 2 1 1 2 0 2 1 1 0 1 1 1 2 1 2 3 2 2 0 3 2 1 0 3 0 0 2 2 1 1 4 2 1 2 1 1 2 2 4 2 1 2 2 2 0 3 1 1 2 1 1 1 1 1 0 2 1 2 2 0 4 2 0 0 2 2 2 2 3 2 1 2 0 2 1 4 0 1 3 3 1 1 3 2 1 2 2 1 0 1 1 2 4 2 3 2 0 1 3 4 3 1 3 2 1 1 1 0 1 2 2 3 2 0 3 3 2 1 3 4 4 2 1 2 1 0 1 2 1 1 1 3 1 2 1 1 2 2 2 3 4 1 0 2 2 2 3 2 1 1 1 1 2 3 3 2 3 2 1 0 1 0 2 2 1 1 2 1 3 1 3 0 3 0 2 1 2 2 2 3 2 1 1 1 2 2 3 3 3 2 0 2 2 2 3 0 1 2 2 2 3 1 3 1 3 2 2 2 3 3 3 2 2 4 3 2 1 0 2 0 2 1 0 1 3 1 2 1 0 1 0 1 3 1 2 3 2 2 1 0 2 2 2 2 1 3 1 1 1 2 3 1 2 3 1 0 2 1 2 2 2 2 2 2 1 1 2 1 1 2 0 1 1 1 2 4 4 2 2 2 4 2 1 0 2 4 1 0 2 1 1 0 2 3 2 0 2 1 1 2 1 2 2 4 2 2 1 2 1 3 2 2 1 1 1 1 3 2 2 3 4 2 0 2 2 3 1 3 1 1 2 2 1 2 1 1 3 0 3 0 1 2 2 2 3 1 1 1 2 3 0 2 2 1 1 1 1 0 1 1 1 1 2 1 1 1 3 0 1 2 1 3 2 3 4 1 2 1 1 1 4 2 0 2 1 4 0 0 2 2 1 2 1 1 2 2 1 1 1 5 4 1 2 2 2 3 1 2 0 2 3 0 2 2 2 2 2 1 1 3 1 2 0 0 3 2 2 3 2 1 2 2 1 1 2 2 2 1 1 3 4 1 3 2 1 0 1 1 0 3 3 3 0 3 1 2 1 2 0 3 2 1 2 3 0 1 2 0 1 1 2 1 3 1 4 1 1 1 1 1 1 1 1 1 0 2 0 1 4 1 1 4 1 1 1 2 0 1 3 2 0 3 2 1 0 0 4 3 1 0 1 1 1 1 3 0 1 2 0 2 3 1 2 2 3 2 3 2 1 1 1 1 0 1 2 3 1 2 1 3 3 3 2 0 1 1 2 1 1 2 2 4 2 2 1 2 0 2 2 4 1 1 1 2 0 3 1 2 3 1 2 2 1 1 2 2 2 1 0 3 2 1 2 2 2 2 2 0 0 3 2 3 2 3 2 2 1 2 2 2 3 1 2 3 3 2 2 2 1 1 0 2 2 4 3 2 3 1 2 1 1 1 1 1 1 2 1 0 4 2 3 2 2 2 0 0 1 1 1 1 2 1 0 0 2 3 1 2 1 0 2 0 1 0 2 1 2 0 0 1 0 1 1 2 2 1 0 2 1 2 1 1 1 0 2 1 2 5 2 2 4 0 0 1 1 0 1 2 1 1 1 2 1 2 3 2 1 1 1 1 0 1 2 2 3 2 1 1 3 2 3 3 2 0 2 1 1 2 0 3 1 2 4 5 3 1 1 0 2 1 2 1 1 2 1 3 1 3 1 0 2 0 2 0 2 2 0 2 3 2 0 0 2 2 3 2 3 1 3 1 2 3 3 2 4 0 1 2 5 0 2 1 2 3 3 2 0 2 0 2 1 3 1 1 0 0 3 3 2 2 1 2 1 2 1 1 1 0 1 3 0 2 2 2 1 1 1 2 1 2 2 2 2 0 1 3 2 0 2 0 6 2 1 4 2 3 1 2 1 1 2 2 2 3 0 2 1 0 1 3 2 0 2 0 3 1 3 3 3 3 1 2 1 4 3 1 2 0 2 2 1 2 2 0 1 0 2 3 0 2 3 2 2 0 2 2 2 0 1 2 1 1 4 2 0 1 2 0 1 0 2 2 2 0 2 1 0 0 0 2 1 3 1 0 1 1 1 2 3 2 1 1 2 2 2 1 0 2 3 1 0 3 1 2 1 2 1 0 0 1 2 0 2 2 1 2 1 1 2 1 2 0 0 0 1 3 1 1 2 2 2 1 1 1 1 2 2 2 2 3 1 3 2 1 2 3 2 2 1 2 4 3 2 2 1 1 2 2 0 1 2 3 2 1 1 4 2 1 2 1 1 2 0 2 2 2 0 2 3 1 4 4 0 1 2 0 2 4 1 2 2 4 2 2 2 2 2 3 2 0 2 2 1 1 4 1 1 1 3 1 2 2 1 3 3 1 2 0 1 3 3 1 1 2 4 0 1 3 2 2 3 0 2 1 1 3 0 2 2 3 0 0 2 0 1 2 0 2 2 0 4 1 1 3 1 2 3 1 0 2 0 2 4 1 2 2 1 1 2 2 2 3 1 1 1 2 1 1 4 3 1 0 4 2 1 1 3 2 3 2 0 1 2 1 3 1 0 1 1 0 1 2 1 2 3 3 1 1 0 1 2 4 4 1 3 1 1 1 1 0 2 2 1 1 1 1 3 1 2 1 1 0 1 3 3 2 1 1 3 1 0 1 1 2 1 1 2 1 1 4 0 0 3 1 2 1 3 1 2 1 2 1 1 1 1 1 2 2 1 1 1 3 1 2 2 1 0 4 3 3 1 3 3 2 1 2 2 4 1 2 1 2 2 1 1 2 2 3 0 1 3 2 1 1 2 0 0 1 0 2 4 0 1 0 0 1 1 2 2 2 2 3 1 1 3 1 1 0 1 3 2 2 2 3 1 1 2 2 1 0 0 1 3 1 0 2 2 2 3 2 1 0 2 2 0 2 2 1 3 2 4 1 0 1 4 2 2 2 2 1 1 1 2 2 1 1 4 2 2 2 0 2 2 0 2 1 0 1 0 1 2 3 2 0 0 0 1 3 3 1 2 1 2 2 1 4 2 3 1 1 1 1 2 3 2 2 2 0 3 1 1 1 1 2 0 2 2 4 2 2 1 2 3 3 1 1 1 0 1 1 1 1 2 0 2 2 1 2 1 2 0 2 1 2 1 1 1 3 0 2 3 2 2 3 0 1 1 0 1 0 0 1 2 1 2 1 2 1 1 2 2 1 0 2 2 1 1 1 2 2 1 1 2 3 2 3 1 1 0 0 1 3 1 2 0 3 1 2 2 2 2 1 1 3 2 3 2 3 3 2 3 3 3 3 2 2 3 1 0 2 2 2 2 3 2 2 4 1 2 2 1 1 3 2 2 1 1 0 1 2 1 1 3 0 2 1 2 2 1 1 1 2 1 1 5 1 1 1 1 1 0 3 2 1 1 1 3 1 3 1 0 1 0 2 3 3 1 0 3 1 2 0 2 1 2 1 3 2 0 3 2 1 2 1 1 2 3 1 3 3 6 2 2 0 2 1 2 2 1 2 1 1 0 1 1 1 1 1 1 2 1 1 2 3 1 2 1 3 4 3 1 1 2 2 2 1 2 2 0 1 3 2 3 1 3 1 0 1 1 1 2 1 1 2 3 1 1 2 2 0 2 1 3 1 2 1 1 2 2 1 1 3 1 3 2 2 5 2 2 1 1 1 3 2 2 3 2 3 2 0 0 4 0 3 2 2 3 0 2 3 2 3 1 2 0 2 1 2 1 1 0 0 0 1 0 2 1 3 0 1 2 3 1 2 4 1 1 0 2 1 1 1 1 1 2 1 1 1 3 3 0 1 1 3 2 0 1 1 2 2 3 2 2 2 1 2 2 1 1 2 4 5 1 2 1 4 2 2 3 1 2 0 1 0 2 2 1 3 0 1 1 0 2 1 4 3 2 1 3 3 1 3 2 2 2 2 3 0 1 1 1 2 2 2 2 1 2 4 2 2 2 3 2 1 0 0 1 0 2 1 1 2 2 1 1 3 1 1 2 2 1 1 2 1 1 1 0 2 2 4 3 1 3 2 3 2 1 1 3 2 1 0 1 2 4 3 1 1 3 1 2 2 1 2 0 3 2 2 0 1 4 3 2 1 2 0 4 6 1 1 4 0 1 1 2 3 2 3 1 1 0 2 1 2 1 2 1 0 1 4 1 0 1 4 2 1 3 1 1 3 3 2 3 1 3 1 1 3 0 1 2 3 2 1 4 1 3 1 3 2 1 2 1 2 1 2 2 1 2 2 3 4 2 2 3 1 2 2 1 4 2 3 1 3 2 1 1 3 2 2 1 1 1 2 1 1 3 3 1 0 1 1 1 1 0 2 1 2 3 3 1 2 0 2 2 1 3 1 2 2 3 0 3 2 0 3 1 0 2 2 2 2 1 1 3 1 2 2 2 3 2 4 1 2 0 1 1 5 2 0 1 0 1 1 0 2 2 3 2 1 1 2 1 3 2 1 2 1 2 2 2 0 3 1 1 3 2 2 2 0 1 1 0 1 2 2 1 2 3 3 1 4 1 0 2 0 2 1 1 3 2 2 1 2 1 1 2 1 1 2 2 3 2 2 1 2 1 2 2 2 0 3 1 2 0 0 1 1 1 1 2 0 4 2 3 1 2 2 3 3 5 1 1 1 3 2 1 2 2 2 3 0 3 4 1 1 0 0 2 2 4 1 0 3 2 2 1 2 2 3 0 1 0 2 1 1 2 2 2 1 3 1 0 2 4 2 1 0 2 1 1 0 1 0 1 3 1 2 0 1 1 1 1 1 1 1 1 3 3 2 1 1 1 1 2 1 2 2 0 1 0 0 2 0 2 1 2 1 0 4 2 1 2 2 1 2 2 0 2 1 1 2 2 1 1 2 1 0 1 2 2 3 4 2 1 2 1 3 2 2 1 0 1 2 2 3 1 0 1 1 1 0 2 1 1 1 2 1 2 3 2 2 2 0 3 2 2 1 2 2 0 0 5 1 4 4 2 1 0 0 2 1 3 2 5 0 1 3 4 2 3 2 2 0 1 1 0 3 0 1 2 2 1 1 0 0 1 0 1 1 1 3 2 2 1 2 2 2 2 2 1 0 1 3 1 1 2 1 3 1 4 1 2 1 3 3 2 3 0 3 1 1 3 3 2 3 0 2 3 3 1 0 1 3 2 2 2 2 2 2 2 5 2 4 2 0 3 3 1 1 2 0 1 3 2 1 2 4 1 2 1 3 1 0 1 1 1 1 1 2 0 1 2 2 0 2 2 4 2 2 3 1 4 3 0 1 2 0 1 0 2 0 2 3 2 1 2 0 1 2 2 2 2 1 1 2 1 1 1 1 1 3 1 1 1 2 0 0 2 2 0 2 3 0 4 1 1 2 3 3 0 2 1 1 1 3 1 1 1 1 2 3 3 1 1 2 0 1 2 4 2 3 1 3 1 2 3 1 1 1 1 3 1 2 2 3 2 3 1 2 0 1 0 1 4 0 1 2 2 2 1 2 0 1 2 1 0 1 3 2 3 2 0 0 0 1 1 3 1 0 1 0 2 0 2 3 1 1 1 4 1 1 1 2 1 2 1 1 1 0 3 2 0 4 1 2 4 1 1 2 2 2 2 1 4 1 1 2 1 0 2 2 1 1 2 3 2 1 3 2 3 3 1 2 1 1 1 2 0 2 1 1 1 2 2 0 1 3 3 2 1 2 1 2 1 2 2 3 1 2 1 3 2 1 1 2 0 3 1 0 2 0 2 1 3 1 4 2 2 2 4 4 3 2 2 1 2 1 2 2 2 1 2 3 1 3 3 3 1 0 4 0 2 1 2 1 0 3 1 1 2 3 0 1 2 3 1 3 2 1 2 3 1 0 1 0 1 0 1 2 4 2 2 1 5 4 4 1 1 0 3 2 0 4 1 2 3 0 1 0 0 1 1 1 0 1 0 1 3 2 1 0 2 1 1 2 1 4 1 2 2 0 3 1 1 0 2 2 1 1 1 5 3 2 1 2 2 2 2 0 1 2 1 3 1 1 0 2 2 2 0 1 0 1 3 3 1 0 1 1 2 2 2 1 3 2 2 3 0 2 2 2 1 4 0 1 2 2 1 1 1 2 2 2 2 1 0 1 4 1 2 3 3 0 1 2 3 1 1 3 1 4 1 1 1 3 2 0 2 0 1 3 0 2 3 0 0 1 0 0 2 2 1 2 1 2 2 1 0 2 2 3 3 1 1 4 2 1 2 1 2 4 0 2 2 3 3 2 1 3 2 0 3 1 3 1 1 1 1 1 0 2 3 0 2 0 3 1 1 1 0 2 0 2 2 3 3 3 2 1 0 2 2 3 0 1 2 1 1 0 3 0 1 2 2 1 5 0 0 2 1 0 2 2 1 1 3 0 2 1 1 1 2 1 0 1 4 1 4 0 2 3 1 1 2 2 2 2 2 2 3 1 2 2 1 1 2 1 0 1 4 2 2 2 4 2 0 2 1 1 3 2 4 2 1 0 2 0 1 0 2 0 3 1 2 2 1 1 1 1 2 0 1 1 6 1 3 0 2 2 3 1 2 3 1 2 2 1 2 1 3 4 0 1 2 1 4 2 1 4 2 3 2 1 1 1 1 4 1 1 1 1 1 2 1 1 2 1 2 1 2 1 3 0 1 4 3 0 3 2 2 2 2 1 2 3 2 2 0 1 1 2 0 1 0 2 2 3 1 0 2 1 1 1 2 0 1 2 2 2 3 3 1 2 1 0 3 0 0 2 3 3 2 0 1 2 1 2 1 1 2 1 4 1 0 1 1 2 1 0 2 2 1 2 1 2 3 3 1 1 2 0 1 2 4 2 2 4 3 1 0 1 0 2 1 3 2 2 1 1 1 2 1 2 3 2 1 2 1 0 1 1 1 0 0 2 1 3 1 0 3 1 1 2 3 0 1 2 1 4 1 3 2 2 2 4 2 2 0 3 1 2 1 2 4 3 3 0 3 2 2 2 1 2 2 1 1 2 1 2 4 1 0 2 3 1 5 1 1 2 2 1 1 1 2 1 1 2 1 0 2 2 0 2 3 2 2 2 1 1 2 3 3 2 1 0 2 2 0 2 1 2 3 3 0 0 4 4 2 1 0 3 4 2 3 2 3 0 1 1 0 1 1 1 2 2 3 3 3 0 0 2 3 4 2 3 0 1 3 0 0 2 1 2 2 2 4 0 1 3 2 3 1 3 0 3 3 2 1 0 1 3 3 1 2 1 2 3 0 0 2 1 1 1 0 1 1 2 1 2 2 1 1 1 2 0 1 2 3 2 1 1 0 2 2 0 2 2 1 1 3 4 1 0 1 1 1 2 0 3 1 2 1 1 1 1 3 1 3 2 1 2 1 3 2 0 2 1 0 1 3 2 1 2 1 0 3 1 2 0 3 2 2 1 2 0 2 3 2 1 2 2 1 0 3 3 1 3 3 2 2 2 2 3 2 1 1 2 0 3 1 2 1 1 0 1 0 2 1 3 2 1 1 1 1 0 1 1 2 1 1 1 4 2 2 1 1 0 1 1 2 1 2 2 2 2 1 2 2 1 0 1 1 4 1 2 2 1 0 0 1 2 2 3 1 1 0 2 2 2 2 0 1 4 1 1 2 1 0 0 1 1 2 3 1 2 2 2 2 2 1 2 3 1 1 0 1 1 2 2 2 2 2 2 1 2 3 3 1 2 2 1 2 3 4 1 3 1 2 2 2 2 2 1 2 2 2 1 1 3 3 3 2 3 0 1 1 1 4 1 2 2 1 3 0 3 1 2 1 1 0 0 2 4 1 2 2 2 1 3 3 2 2 1 0 0 2 1 0 2 0 3 3 1 3 1 3 0 4 0 2 2 2 2 2 2 3 1 1 0 2 2 0 0 1 2 2 1 1 2 3 1 3 1 3 3 1 0 1 2 2 1 1 2 0 2 0 3 1 2 2 2 2 2 2 1 2 0 2 0 3 0 2 1 3 4 1 4 1 3 1 2 1 0 2 1 3 2 1 1 1 1 3 1 2 1 4 2 0 1 1 1 1 1 2 1 1 5 3 1 2 1 1 0 0 1 1 3 1 2 1 2 2 2 2 2 1 0 3 3 1 2 1 2 1 1 3 2 3 4 1 2 1 2 2 1 1 2 3 2 2 1 1 0 3 1 1 2 3 0 2 1 1 0 3 0 2 0 1 3 2 3 5 2 2 1 2 2 1 3 3 2 1 1 2 2 2 0 0 2 3 1 0 2 0 1 0 4 3 1 4 2 1 2 2 1 2 1 1 0 1 4 2 1 5 2 1 1 3 3 4 2 2 3 0 2 1 4 1 0 2 1 1 2 2 0 1 1 2 0 1 1 1 2 2 3 0 3 2 1 0 2 5 1 0 0 1 3 1 1 2 1 0 1 1 1 1 2 0 1 2 1 2 1 2 2 0 3 2 2 2 2 1 0 1 1 1 1 2 0 1 3 5 1 0 2 3 1 2 1 2 2 2 1 2 3 1 1 3 1 2 2 2 1 2 0 1 1 3 2 1 1 3 3 2 1 0 4 0 0 2 1 3 2 2 3 2 2 1 1 1 0 2 3 2 2 2 1 1 1 3 2 2 3 2 1 2 0 2 4 1 0 3 3 3 1 4 1 0 1 1 1 2 0 1 3 2 0 1 3 2 3 2 0 0 3 2 3 2 3 2 2 2 2 2 2 2 1 1 1 1 2 2 4 2 2 1 1 3 1 4 4 3 2 0 0 3 4 1 0 1 2 1 0 0 3 2 1 1 4 1 3 2 3 3 2 2 1 3 0 1 1 3 2 3 4 1 1 2 0 1 2 1 1 1 1 3 2 3 1 0 2 1 1 2 2 1 2 1 2 2 0 0 2 2 2 3 0 0 2 1 1 0 2 4 2 1 1 3 1 2 1 1 1 1 2 2 0 2 3 3 2 0 2 0 1 2 1 3 1 3 0 1 2 5 4 0 2 0 0 4 0 1 3 1 1 2 2 0 1 0 1 1 2 1 2 2 1 2 0 2 0 1 1 2 1 1 1 1 1 0 1 3 2 2 0 2 0 1 4 1 2 1 0 2 2 2 1 3 2 1 0 1 2 1 2 2 0 3 1 1 2 3 3 1 3 2 0 1 1 3 3 0 1 2 0 3 2 1 1 1 0 2 2 0 2 0 1 0 4 2 4 1 2 2 2 1 2 1 3 1 3 2 0 2 1 2 1 2 3 1 2 1 3 3 1 2 3 2 2 1 2 0 1 3 2 3 0 2 2 2 2 0 1 4 1 3 2 2 1 3 0 3 2 1 1 3 3 1 3 2 0 0 1 3 1 2 1 0 2 2 2</t>
-  </si>
-  <si>
-    <t>MIE(0.6943811433079476, 2.809366114905447, -1.30160006672604e-30, 0.5202166987572459)</t>
-  </si>
-  <si>
-    <t>0 1 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 1 0 0 2 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 2 0 0 0 1 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 2 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 2 1 0 0 1 0 0 1 1 0 2 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 2 0 0 1 0 1 0 0 0 2 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 2 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 2 0 1 1 0 0 0 2 0 1 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 1 2 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 2 1 0 1 1 0 0 0 0 0 0 3 1 2 0 0 0 0 0 0 2 0 1 1 0 1 0 3 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 1 1 1 0 0 0 0 1 1 2 1 0 0 0 2 0 0 0 0 0 2 0 0 0 0 1 1 0 0 1 2 0 3 0 0 0 0 0 1 1 1 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 2 0 0 1 0 0 0 0 1 0 2 0 1 0 0 1 2 0 0 2 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 2 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 2 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 2 1 1 2 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 2 1 0 1 1 0 0 0 0 1 1 0 1 0 0 0 0 2 0 0 0 1 1 2 0 1 2 0 1 0 0 0 1 0 1 0 2 0 0 0 1 1 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 1 0 1 2 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 1 2 1 1 0 0 2 0 1 0 1 1 0 1 0 0 1 1 0 0 1 0 1 0 0 0 2 1 1 1 1 0 0 0 1 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 1 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 1 0 1 0 0 0 1 1 0 1 0 0 0 1 1 1 0 0 1 0 0 0 2 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 1 2 1 0 1 1 1 0 0 0 0 1 1 0 0 0 0 0 0 1 1 1 2 1 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 2 0 0 0 0 0 1 0 0 1 0 0 0 2 0 1 1 2 0 0 0 1 0 0 1 0 0 0 0 0 0 1 2 0 0 0 2 0 0 0 0 0 1 1 1 0 0 2 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 2 1 0 1 1 0 0 0 1 1 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 0 2 1 0 0 0 0 0 2 0 1 1 0 2 0 1 1 0 0 1 2 2 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 1 0 0 1 0 2 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 2 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 2 0 2 0 0 1 0 0 1 0 0 1 0 0 0 3 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 1 2 1 1 1 0 1 0 0 0 2 1 0 0 0 0 0 1 0 3 0 1 0 0 0 1 1 2 0 0 0 1 2 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 1 1 0 0 1 1 0 0 1 1 1 0 1 1 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 2 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 2 0 1 0 0 0 1 0 1 0 0 2 1 0 0 2 0 1 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 1 2 0 0 1 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 2 1 0 0 0 2 1 0 0 0 2 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 2 1 1 0 1 0 1 1 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 2 2 1 3 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 1 1 3 0 1 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 1 0 0 2 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 2 0 0 0 0 0 0 1 1 0 1 0 1 1 0 1 0 0 0 0 2 0 0 0 1 0 1 0 0 0 2 0 0 0 0 1 0 0 0 2 2 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 1 0 0 2 1 0 0 0 0 0 0 1 0 2 2 0 2 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 2 1 1 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 1 1 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 1 1 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 1 0 1 0 2 0 1 1 0 2 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 2 1 0 2 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 2 1 0 0 0 0 2 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 2 1 0 0 1 0 0 0 0 0 1 0 0 1 2 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 2 1 3 0 1 0 0 1 0 0 0 0 1 1 1 1 0 0 0 0 0 0 2 1 0 0 0 1 0 1 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 1 2 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 2 1 1 0 1 0 2 0 0 0 0 0 0 0 0 1 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 2 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 1 0 0 1 1 0 3 0 0 2 1 0 1 2 1 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 2 2 1 0 1 1 1 1 0 0 0 0 2 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 2 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 2 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 2 0 3 1 1 0 2 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 1 0 1 0 0 1 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 1 0 1 0 0 1 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 2 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 1 2 1 0 1 0 2 0 0 0 0 0 0 3 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 2 1 1 0 0 0 1 0 0 1 1 1 1 0 2 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 1 2 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 1 0 0 0 0 3 1 0 1 0 0 1 0 1 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 2 0 0 0 0 0 1 0 0 0 0 1 0 0 1 3 2 0 0 1 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 2 2 0 0 0 1 0 1 0 1 2 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 2 1 0 0 0 1 1 0 0 0 0 0 0 0 2 1 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 2 0 1 0 0 0 0 0 0 2 0 0 1 0 0 1 0 0 0 2 0 1 0 0 0 2 0 0 0 2 0 0 1 0 1 0 0 1 0 0 2 0 0 1 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 2 0 1 0 1 1 0 0 0 0 1 2 0 1 1 0 0 2 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 1 1 5 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 2 0 1 2 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 2 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 2 0 0 1 0 0 2 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 1 0 0 1 1 0 1 0 0 0 1 1 0 1 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 1 2 1 0 2 0 0 0 0 0 2 0 0 2 1 0 1 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 3 1 0 1 1 0 0 0 1 0 0 1 2 0 0 0 0 0 1 0 0 0 0 1 0 1 1 2 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 0 0 1 0 0 2 0 2 1 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 2 1 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 1 1 0 1 1 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 2 3 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 2 1 1 1 0 0 1 0 1 0 2 1 1 0 0 0 1 0 0 1 1 0 0 1 2 0 0 0 0 1 0 1 0 1 2 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 2 0 0 0 1 1 1 2 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 2 0 0 0 1 1 0 0 0 0 2 0 0 0 0 0 0 1 1 1 0 1 0 0 0 1 1 3 1 0 0 1 1 0 0 0 0 1 0 3 0 1 0 0 1 0 0 0 0 0 2 0 0 0 1 0 1 1 0 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 2 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 2 0 0 1 0 0 0 1 1 0 1 1 0 0 0 0 0 2 0 2 0 0 0 0 1 1 1 1 1 1 0 0 0 0 1 1 1 0 0 0 0 1 1 0 2 0 0 0 1 0 0 1 0 1 1 1 1 0 1 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 2 0 1 0 2 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 2 0 0 0 2 0 0 0 0 0 0 1 0 0 2 1 1 0 0 1 0 0 0 1 1 0 0 0 1 2 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 1 3 0 0 0 0 1 1 0 1 1 0 0 0 1 0 0 0 1 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 2 1 1 0 0 0 0 0 1 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 1 1 1 1 0 1 0 0 3 0 0 0 0 0 1 0 1 0 0 1 0 1 1 0 1 0 2 0 0 1 0 1 0 0 3 1 0 0 2 0 0 0 1 2 0 0 0 0 0 1 1 0 1 1 1 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 2 0 1 1 1 1 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 2 1 0 1 0 1 0 1 1 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 0 1 1 2 1 1 1 0 1 0 0 0 1 0 0 0 0 2 0 0 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 2 1 0 1 0 2 1 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 1 1 0 0 1 0 0 0 2 0 2 0 1 0 0 0 1 1 1 0 0 0 0 0 1 2 1 0 1 0 0 2 2 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 2 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 2 0 0 0 1 0 0 2 0 0 1 1 1 1 0 0 0 2 0 0 1 0 0 1 0 2 1 0 2 0 1 0 0 0 1 0 0 2 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 0 1 0 0 1 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 2 0 1 0 0 0 0 0 1 0 0 1 1 0 2 1 1 0 0 1 0 0 1 0 0 0 1 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 1 0 1 0 0 1 0 0 2 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 2 1 0 1 1 0 2 0 0 0 0 0 2 0 0 0 0 0 1 0 0 2 0 0 0 0 1 2 0 1 0 0 0 0 1 0 1 0 3 0 0 0 0 1 0 0 2 0 1 0 0 0 0 0 0 0 1 1 2 0 0 0 0 1 0 1 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 2 1 1 1 0 0 0 1 0 1 0 0 1 1 0 1 0 0 0 0 0 1 2 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 1 0 1 0 0 3 0 0 1 1 0 0 0 1 2 1 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 0 0 1 1 1 0 0 0 0 1 1 0 0 0 0 0 0 1 3 0 1 1 1 1 1 0 1 0 0 1 0 0 1 0 0 0 0 1 1 1 1 1 1 0 1 0 0 2 0 0 0 1 1 0 0 0 0 0 0 1 2 0 1 0 0 0 0 1 0 0 0 1 1 1 0 0 1 1 0 0 1 1 0 1 0 0 1 0 3 1 1 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 1 0 1 1 0 0 1 1 0 2 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 2 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 1 0 1 1 0 1 0 0 0 1 0 2 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 2 1 0 0 0 0 1 0 0 0 0 0 0 1 2 1 0 0 0 0 0 2 0 1 0 0 0 0 1 1 0 1 0 1 1 0 0 1 0 1 3 2 1 0 0 0 1 0 1 1 0 0 1 0 0 2 3 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 2 1 1 1 1 0 0 0 2 0 0 0 0 0 1 0 1 0 0 0 2 0 0 2 0 1 0 0 1 1 0 2 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 0 0 1 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 0 1 0 0 1 2 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 2 0 1 0 0 0 2 0 0 1 1 1 0 1 0 0 0 1 0 1 1 1 1 0 1 0 0 1 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 1 0 2 0 1 0 1 0 0 0 2 0 0 1 1 0 1 1 0 0 0 0 1 1 0 1 0 1 0 0 1 0 0 0 0 1 1 0 2 0 0 0 0 0 0 1 0 0 0 2 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 2 0 0 1 1 1 0 0 1 0 0 0 1 0 1 0 1 2 0 2 0 0 1 0 1 0 2 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 1 0 1 0 2 0 0 0 0 1 0 0 0 1 0 0 1 1 1 0 0 0 1 0 0 1 1 0 0 1 1 0 0 0 0 1 0 1 1 0 0 0 1 2 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 1 1 0 1 1 0 1 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 2 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 1 1 0 0 0 0 0 1 2 1 1 0 3 1 0 1 1 0 1 1 0 0 1 0 0 0 0 1 2 2 0 0 0 2 1 0 0 0 0 0 0 0 0 0 1 1 0 0 2 0 2 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 1 2 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 1 1 0 0 1 1 0 2 2 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 2 1 1 1 2 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 2 0 0 0 1 0 0 0 1 1 1 1 0 2 1 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 3 0 0 0 2 1 0 2 0 1 1 0 0 1 0 1 2 0 0 0 1 0 0 1 0 1 1 0 0 0 1 3 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 1 0 1 0 1 0 2 1 1 0 0 2 1 0 0 0 0 0 0 0 3 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 2 0 0 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 1 1 1 1 0 0 0 1 1 0 1 0 0 0 0 2 0 1 0 1 0 0 1 0 0 1 0 1 0 1 1 0 1 0 0 2 0 0 2 1 1 1 0 2 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 1 1 0 1 0 3 0 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 1 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 2 1 1 0 0 1 1 0 0 0 2 0 0 1 1 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 1 2 1 0 2 0 1 1 0 1 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 2 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 1 1 0 1 1 1 2 0 0 1 0 0 1 0 0 0 0 0 2 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 2 2 0 1 0 0 0 0 0 0 0 1 0 2 0 0 0 0 1 2 0 0 1 1 0 1 0 0 1 1 0 0 0 0 0 1 0 1 1 2 2 0 1 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 2 1 0 0 0 0 0 0 1 0 0 0 1 1 0 2 0 0 0 2 0 0 0 1 0 1 2 0 0 0 0 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 2 0 0 1 0 1 0 0 0 1 1 0 0 0 1 0 0 1 1 1 0 1 1 1 2 1 0 1 0 0 0 1 0 2 1 0 0 0 1 0 0 1 1 0 2 0 2 0 0 0 2 0 1 0 0 1 0 0 1 0 1 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 2 1 1 0 0 1 0 0 0 0 1 0 1 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 1 2 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 1 0 0 0 0 0 2 0 0 0 1 0 3 1 0 1 0 0 1 0 0 0 1 0 0 1 0 0 2 1 1 0 0 1 1 2 0 0 0 1 1 0 0 0 0 0 2 1 0 0 1 0 0 1 1 1 0 0 2 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 1 1 0 1 0 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 1 1 0 0 0 1 0 0 0 1 1 1 1 2 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 2 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 2 0 1 0 0 0 1 1 1 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 2 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 1 1 0 0 0 0 1 0 2 0 0 0 2 1 0 0 2 0 0 0 1 0 0 0 0 0 0 2 0 1 0 1 1 1 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 1 1 1 0 0 0 0 0 1 0 1 1 0 0 0 2 1 0 2 0 1 0 0 0 0 0 2 0 0 1 1 0 0 0 1 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 2 1 1 1 0 0 0 0 1 0 0 1 0 0 0 2 1 0 0 0 0 0 0 0 2 1 1 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 1 1 0 1 1 1 0 1 1 0 0 2 0 0 0 0 0 1 0 1 1 0 0 0 0 1 1 0 0 0 2 0 1 0 1 0 0 1 0 0 0 0 0 2 1 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 1 0 0 1 1 0 0 0 1 2 0 0 0 1 0 0 0 0 0 1 1 2 0 0 0 0 1 1 0 1 1 1 0 0 0 1 0 0 0 0 2 1 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 2 0 0 0 0 0 0 0 1 0 1 0 1 2 1 0 0 0 1 0 2 1 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 1 0 0 1 0 1 1 1 0 1 0 2 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 3 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 2 2 0 1 0 0 0 0 1 0 0 1 0 0 1 0 3 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 2 1 0 0 0 0 0 0 0 0 0 1 0 3 0 0 2 0 0 0 0 0 1 1 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 1 0 1 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 1 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 2 2 2 0 0 0 0 1 2 1 2 0 0 2 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 2 0 0 0 0 0 0 2 1 0 0 0 1 0 0 1 2 0 2 0 0 0 1 2 0 0 1 0 2 0 2 0 0 0 2 1 2 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 2 0 0 1 1 0 0 3 0 0 0 0 1 1 0 0 0 0 1 1 1 1 0 2 0 1 0 1 0 1 0 0 0 1 1 1 0 2 0 3 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 2 1 1 0 1 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 0 1 3 1 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 2 1 1 1 0 0 0 0 0 0 1 0 0 3 3 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 2 0 1 0 0 0 0 0 1 0 1 0 0 0 1 1 0 1 0 0 2 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 0 1 1 2 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 1 1 2 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 4 0 1 0 0 0 0 0 2 0 2 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 3 0 0 0 0 1 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 2 0 2 0 0 0 1 1 1 0 1 0 0 0 3 0 0 0 1 0 0 0 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0 2 1 0 0 1 0 0 2 1 1 1 0 1 0 2 0 0 0 1 1 0 2 1 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 1 1 1 1 1 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 2 0 0 1 0 0 3 0 0 0 1 1 0 0 0 0 3 1 1 2 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 2 0 2 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 1 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 2 1 0 0 1 1 1 0 0 0 0 0 0 0 1 0 1 2 3 1 0 0 0 2 0 0 1 1 2 1 1 0 2 0 0 0 1 0 0 1 1 0 1 0 0 0 0 2 0 0 1 0 1 0 0 1 0 1 0 0 0 1 1 0 0 3 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 2 0 0 1 0 1 0 3 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 2 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 3 1 0 1 0 0 2 0 1 1 0 0 1 0 1 0 0 2 0 0 0 0 1 0 0 1 2 1 0 1 0 2 0 1 0 0 0 0 0 1 2 1 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 1 0 0 1 0 1 0 0 2 1 0 2 1 0 1 2 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 2 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 2 1 2 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 1 1 0 0 1 0 0 0 1 0 1 0 1 1 0 0 1 0 3 2 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 2 1 0 1 1 0 1 1 0 0 0 0 1 0 1 0 1 1 0 2 0 0 0 0 0 0 0 2 1 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 2 0 0 0 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 2 2 0 0 0 0 0 0 0 1 1 1 0 2 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 4 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 0 1 0 0 0 0 1 1 2 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 2 0 2 1 0 1 0 0 0 0 0 1 0 0 2 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 1 1 0 0 2 1 0 0 0 1 1 0 1 0 1 0 3 0 0 1 0 0 0 1 0 0 0 2 0 0 1 0 1 0 0 0 0 0 0 0 2 0 0 2 0 2 1 0 1 0 1 0 0 0 0 2 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 1 0 3 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 1 0 1 0 0 0 1 0 2 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 1 0 0 0 1 1 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 1 0 0 0 2 0 0 0 0 0 2 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 1 0 0 0 2 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 2 0 1 0 1 1 0 0 1 0 0 1 1 0 0 0 0 2 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 1 2 0 1 0 0 1 0 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 2 0 0 1 1 0 0 0 1 0 0 1 0 0 1 3 0 0 0 0 1 2 0 0 0 4 0 0 0 0 0 0 0 0 1 1 0 1 1 2 0 1 1 1 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 1 0 2 1 0 0 0 0 0 1 1 0 0 1 0 1 2 0 1 1 0 1 0 0 1 0 0 0 2 2 0 1 0 0 0 1 0 1 1 1 0 0 0 0 1 0 1 0 0 1 1 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 3 1 1 0 0 1 1 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 2 0 1 0 1 1 0 0 1 3 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 2 2 0 0 0 1 0 2 0 0 0 0 2 2 0 0 0 0 0 0 2 0 0 1 0 0 0 1 0 1 0 0 0 1 1 1 0 0 1 0 0 0 1 0 1 1 0 0 1 0 1 1 0 1 2 2 0 1 0 0 0 0 0 0 0 1 0 1 1 0 2 1 1 0 1 0 0 0 1 1 1 2 0 1 0 0 0 1 0 0 1 1 0 1 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 2 0 1 1 0 0 1 0 2 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 1 1 1 1 1 1 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 2 0 1 1 0 0 1 0 0 0 1 0 0 1 0 0 0 1 3 1 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 2 0 0 0 0 2 0 1 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0</t>
-  </si>
-  <si>
-    <t>JSB(4.35165523967529, 4.26382684723087, -97.70185322775833, 757.9361206397512)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91 95 27 76 129 76 138 125 132 57 130 88 138 116 90 180 107 41 118 92 57 131 141 102 73 116 111 29 67 52 138 129 107 114 110 103 102 99 110 90 40 98 105 137 87 143 143 86 118 127 91 98 97 106 131 159 95 63 91 154 56 174 123 90 63 135 131 88 144 96 118 107 90 99 130 127 90 154 127 86 146 105 88 63 78 85 139 58 97 109 134 70 114 55 82 76 73 62 87 71 44 60 102 161 97 89 127 57 20 136 94 112 139 154 112 68 50 105 132 81 56 100 86 113 163 95 68 94 115 83 90 88 141 117 123 108 116 135 102 81 207 67 109 99 77 70 97 51 65 111 123 96 81 83 35 149 105 72 48 48 61 122 71 116 103 106 151 68 110 96 118 129 108 137 67 119 93 166 94 79 156 15 142 93 110 74 106 104 69 111 120 112 92 126 103 101 157 27 107 81 135 83 129 91 150 141 109 50 103 144 135 59 77 67 116 86 106 140 177 74 14 68 127 124 44 85 66 66 162 102 119 67 86 117 84 104 74 77 62 52 104 99 163 99 97 130 85 79 92 74 121 105 74 74 36 184 123 132 100 37 62 143 86 94 120 165 103 127 90 110 92 90 112 119 140 133 88 118 74 37 124 93 103 152 82 120 168 44 70 142 27 82 46 108 128 111 137 86 97 91 73 104 74 77 108 74 39 58 137 128 126 92 132 86 66 45 76 110 94 148 99 114 74 163 113 128 93 110 105 98 146 101 163 71 105 134 125 222 91 151 82 79 89 93 129 120 149 127 180 94 90 36 71 122 143 164 91 34 97 117 144 81 110 118 101 37 141 137 49 101 128 101 68 130 113 84 90 98 154 73 117 78 132 53 108 104 95 100 126 91 95 114 82 131 133 142 60 100 130 96 103 91 74 115 157 73 143 120 128 77 61 144 166 66 78 133 83 93 137 59 86 100 113 86 200 42 52 95 40 191 146 88 144 95 136 87 154 119 122 129 52 98 28 52 79 84 89 50 58 121 140 115 73 147 83 72 86 73 55 94 139 91 119 82 95 160 86 98 103 102 85 126 114 89 144 107 93 61 84 95 116 122 86 165 88 103 89 125 51 116 144 78 96 121 98 71 77 114 109 109 86 172 97 124 72 143 123 91 118 160 65 83 139 124 150 142 71 85 91 128 87 115 89 39 81 107 70 59 80 127 72 98 151 149 161 63 66 166 76 107 117 136 82 112 81 123 148 76 105 47 127 147 85 43 132 132 166 61 79 100 64 67 150 115 118 89 138 89 157 83 93 113 49 145 95 79 97 129 126 97 85 152 115 126 147 146 46 33 115 181 167 122 160 70 127 120 148 118 56 52 140 103 49 95 120 121 40 122 131 137 120 93 91 168 106 157 49 132 119 139 102 28 107 133 90 75 105 150 49 73 99 159 138 140 106 81 95 120 68 64 154 102 143 157 97 127 62 144 87 71 104 128 102 75 77 116 66 94 48 25 100 57 106 108 115 86 67 118 89 121 57 60 99 173 150 92 156 112 76 132 146 137 82 106 105 77 153 149 147 102 53 104 112 125 77 135 50 68 93 98 80 81 120 127 216 58 117 77 105 104 117 89 69 57 123 121 75 105 106 108 99 160 119 124 35 96 91 119 88 106 160 137 119 100 68 89 122 114 61 78 80 121 121 128 64 99 101 89 113 179 104 100 95 91 64 156 79 109 44 94 97 82 168 40 119 98 115 94 159 67 131 101 74 196 119 101 136 94 73 133 147 79 135 155 148 35 78 63 106 84 88 77 41 60 86 168 89 131 119 78 120 55 110 50 93 89 142 131 101 110 76 136 101 137 151 114 55 71 101 94 95 100 58 70 156 68 116 101 123 106 98 83 63 123 88 87 54 126 17 148 151 64 131 111 129 116 90 109 152 148 128 111 139 108 64 119 157 116 198 97 119 78 64 144 92 78 77 61 117 124 33 79 113 63 95 86 61 65 139 54 125 63 115 117 87 110 97 47 55 129 152 135 92 164 34 112 71 80 97 61 51 88 142 89 128 124 97 106 57 119 134 61 139 91 111 55 130 112 155 98 133 87 186 29 117 91 156 73 142 129 71 74 90 115 114 97 70 57 159 85 137 122 91 152 139 136 86 123 100 109 108 109 147 85 73 59 84 166 90 129 92 100 142 66 104 95 108 70 86 55 53 110 140 98 144 76 121 41 43 106 145 50 64 55 117 79 77 76 97 98 76 115 126 180 66 131 45 93 116 95 73 60 134 82 126 88 125 77 106 130 123 73 89 112 130 88 136 70 101 97 80 90 162 92 75 102 75 82 98 105 112 192 106 76 172 74 90 81 82 64 95 129 110 117 138 86 81 154 73 142 140 100 71 149 151 103 183 91 27 34 117 96 204 127 74 162 36 90 64 59 141 87 106 128 110 40 134 79 93 94 51 159 107 62 104 164 130 69 104 111 88 141 145 76 99 89 86 88 142 125 104 107 158 130 97 94 92 82 80 67 135 79 74 88 157 90 85 121 103 151 98 80 87 125 104 92 104 87 56 157 61 134 156 112 131 113 94 114 157 102 98 64 74 43 86 99 121 138 111 66 50 93 113 93 70 153 190 124 84 231 112 60 77 99 71 109 149 112 86 67 89 69 30 189 47 52 118 179 101 206 76 44 132 120 126 67 198 70 126 113 86 156 173 140 66 126 138 135 101 137 129 118 101 82 78 57 64 104 78 95 76 211 131 66 102 73 86 140 79 84 90 106 99 135 131 40 105 113 118 115 106 42 92 71 89 172 113 205 111 59 110 201 93 79 160 91 97 69 65 118 201 89 15 100 152 71 82 138 64 176 157 70 96 119 130 168 161 78 130 87 82 118 146 43 100 116 83 56 94 144 131 205 61 72 65 67 99 125 61 154 128 24 51 67 66 82 150 113 83 60 69 87 139 103 82 95 64 95 134 145 112 55 99 131 164 84 51 129 106 124 143 69 39 131 163 65 88 50 151 106 132 93 124 75 62 90 75 60 111 147 91 151 168 66 94 127 92 108 51 63 161 167 100 123 113 74 87 106 125 115 126 75 95 109 163 77 103 108 128 231 91 75 106 166 114 67 139 116 115 88 110 81 160 100 145 68 60 56 139 103 109 46 152 35 101 100 131 53 45 75 45 111 135 52 99 77 141 130 119 142 92 88 91 107 90 129 114 93 140 113 95 60 185 83 104 162 142 69 56 153 120 102 70 114 82 124 157 68 102 110 133 138 96 76 82 152 79 114 186 86 130 86 101 126 103 83 193 154 82 71 137 124 79 98 77 84 78 187 117 90 119 165 110 147 120 91 94 79 79 115 87 98 152 150 142 135 71 127 63 97 174 85 91 144 96 95 63 84 127 81 110 144 102 101 95 63 159 107 122 120 134 45 70 151 120 62 115 115 126 91 82 86 70 129 131 111 65 74 138 220 54 94 142 48 74 126 88 53 60 96 89 136 44 87 34 105 105 133 132 99 158 35 131 173 56 66 123 109 83 139 82 124 45 78 70 114 79 86 115 129 128 68 72 104 152 82 73 35 68 95 95 191 82 184 99 122 97 82 146 84 33 80 139 70 76 131 85 160 136 72 74 105 112 63 86 95 89 106 103 97 169 110 132 102 117 114 108 100 77 140 178 108 88 115 176 80 78 54 128 121 47 140 78 120 158 129 93 134 40 103 125 88 79 70 61 92 79 72 122 117 92 173 130 141 107 97 137 112 53 95 96 134 107 109 134 101 121 171 128 104 122 88 125 174 86 97 82 69 121 148 55 108 47 118 101 57 124 116 151 138 42 21 49 155 121 136 118 52 105 71 59 127 75 114 74 152 147 91 46 159 209 62 105 142 87 112 60 68 91 74 100 91 100 65 116 112 73 22 97 52 101 70 101 150 119 88 27 114 117 74 77 120 171 117 91 125 90 121 108 58 105 63 148 54 75 96 53 65 126 108 88 99 115 67 118 144 76 67 65 114 100 113 116 59 77 159 28 117 76 75 141 70 157 138 80 121 74 94 62 82 95 138 98 123 90 48 84 103 121 127 90 95 51 130 145 81 151 94 169 16 126 135 136 91 113 141 90 152 109 118 73 59 123 70 102 143 162 147 72 94 125 96 108 178 132 97 112 189 110 74 133 120 74 131 132 55 107 83 124 86 111 121 112 88 95 96 169 43 92 99 145 99 77 54 145 139 49 122 164 101 101 140 130 82 185 96 84 137 58 139 148 84 95 100 147 97 114 82 152 105 137 57 204 175 112 92 153 100 108 154 112 72 67 55 86 161 106 155 93 144 125 79 66 80 66 81 148 86 88 72 134 55 166 46 138 117 83 90 78 134 96 188 109 131 104 111 104 78 94 47 112 41 88 172 133 133 74 129 83 149 80 110 70 80 124 126 135 88 68 116 93 141 74 143 91 70 82 142 137 95 36 103 148 113 52 129 77 174 72 168 112 86 132 73 77 122 171 34 176 92 78 132 63 105 83 110 135 165 123 128 118 137 84 174 110 136 92 118 135 138 82 74 97 134 88 77 138 80 66 91 154 61 115 131 201 111 65 114 127 144 118 101 86 114 88 119 105 183 77 80 107 87 113 138 110 121 123 145 97 84 126 96 64 104 102 93 112 66 115 154 112 104 109 175 145 113 128 155 144 85 84 168 99 108 113 161 115 96 165 81 87 126 89 74 141 106 154 146 107 75 136 101 123 138 69 71 128 82 59 102 148 146 60 130 120 75 118 123 86 93 66 89 167 108 83 87 95 112 82 125 39 93 142 134 107 163 127 119 122 131 59 54 112 166 57 111 89 107 114 141 154 68 117 165 123 96 83 148 83 84 51 46 45 64 165 97 130 106 171 115 133 124 172 92 38 83 188 62 66 94 121 110 76 64 73 72 129 94 61 100 123 110 98 66 117 87 123 168 103 145 118 160 69 70 105 136 67 32 103 76 126 109 92 88 110 115 104 127 82 165 137 70 25 192 110 131 89 112 145 62 123 107 65 158 95 157 99 85 72 83 113 88 131 64 156 115 88 126 140 123 71 91 88 106 74 119 70 102 96 53 129 41 42 164 87 139 34 131 100 124 70 95 100 131 97 134 197 17 68 113 73 107 99 122 88 114 109 106 139 100 127 138 87 105 169 62 147 16 151 163 70 142 84 151 112 89 58 107 125 111 70 105 62 99 92 92 112 147 101 89 104 83 79 135 128 68 82 68 108 57 164 83 120 87 56 142 111 79 127 88 149 110 161 147 66 158 65 46 61 146 175 62 48 152 166 187 121 111 80 121 97 123 104 92 127 138 161 91 101 70 115 104 49 61 131 184 141 121 72 116 134 93 104 148 81 115 36 115 108 111 102 92 113 118 125 82 93 186 84 111 140 68 96 49 94 76 50 70 94 131 112 87 68 59 30 70 109 136 103 109 87 124 172 144 104 116 124 80 115 89 139 168 186 161 135 55 86 127 104 120 80 122 68 117 113 102 115 52 143 179 107 63 60 162 103 72 133 66 82 56 123 88 125 63 46 87 63 59 62 124 70 134 129 35 96 65 97 101 71 56 111 90 97 117 118 71 142 97 125 105 68 98 123 92 108 75 82 98 86 131 75 48 41 105 68 153 120 124 67 57 82 138 155 159 117 81 101 95 104 62 118 92 76 63 91 167 102 122 61 89 121 114 59 74 129 153 90 129 81 115 107 124 120 67 149 142 121 104 110 99 124 143 108 94 61 81 37 112 124 99 124 92 180 103 61 87 124 123 53 71 59 41 88 105 104 99 157 98 144 114 63 55 88 123 99 79 105 105 115 62 47 40 74 87 71 122 119 80 92 91 104 87 107 77 67 77 56 75 163 93 80 143 129 101 132 56 47 75 126 96 55 118 139 82 210 92 108 155 111 93 119 102 113 144 141 105 188 128 95 45 68 93 151 82 103 112 72 99 144 98 101 108 115 82 133 94 57 105 77 142 145 83 118 67 101 101 119 89 64 116 125 146 51 30 118 121 91 71 73 154 63 148 80 88 79 110 144 142 124 129 65 112 86 153 151 141 76 117 71 153 93 95 123 91 91 159 149 118 65 143 86 63 96 199 92 72 92 150 60 87 97 74 145 90 67 53 83 131 39 92 113 108 97 85 114 97 118 128 96 105 132 70 133 60 112 147 145 63 149 89 130 130 50 122 38 71 95 52 91 145 101 99 83 128 81 161 105 122 109 168 76 151 116 70 87 105 99 66 171 129 162 95 136 133 89 106 136 107 194 77 73 71 98 235 76 74 49 180 64 122 136 68 109 31 106 55 147 158 125 23 96 77 196 75 85 112 80 139 45 115 104 129 136 128 161 129 95 83 106 122 169 84 123 115 109 80 104 89 67 173 80 66 71 92 126 91 65 96 165 117 120 89 84 66 94 117 106 166 61 66 90 152 103 120 98 109 89 154 102 119 24 112 79 150 79 105 186 123 50 227 173 81 153 103 119 82 104 79 86 64 130 197 100 104 89 115 132 116 100 120 71 124 63 127 86 95 130 129 166 48 138 72 58 89 131 120 92 104 92 151 74 129 117 182 98 83 141 65 62 110 92 136 129 95 105 132 123 169 116 100 65 50 75 123 119 139 108 98 134 132 111 94 81 111 95 60 99 76 65 113 161 132 79 86 64 67 96 108 122 23 60 143 157 112 150 122 166 95 47 68 96 82 65 124 103 109 59 61 76 119 159 163 171 185 137 95 87 121 72 82 135 119 145 85 142 152 108 98 66 135 64 60 96 42 140 153 61 91 204 147 126 110 113 136 104 84 103 142 92 61 24 88 73 134 92 100 82 129 57 91 87 87 71 99 129 120 98 112 106 94 104 117 78 139 145 92 86 100 118 85 102 142 130 133 67 70 102 97 126 87 84 90 127 73 47 68 56 107 90 120 99 150 137 88 121 164 136 157 118 142 190 92 106 70 158 164 119 147 73 74 74 88 75 33 152 102 69 90 114 139 113 146 88 71 117 115 96 55 128 129 165 87 32 104 126 110 133 110 105 138 133 77 63 185 84 67 40 95 144 123 78 124 72 177 90 138 53 140 67 120 124 140 66 131 114 117 149 122 102 135 89 113 136 100 154 115 98 75 81 110 70 126 162 110 134 142 56 70 99 80 104 108 78 120 68 84 53 110 135 67 97 71 101 125 99 139 108 125 59 64 100 93 170 79 60 119 86 71 96 98 108 83 93 93 154 107 92 121 133 65 158 76 178 125 122 124 121 45 135 65 134 56 51 68 115 128 93 57 90 72 119 47 84 145 88 124 104 62 105 109 110 67 120 131 44 122 111 111 122 78 119 166 146 103 56 135 130 142 122 138 78 130 78 115 100 138 129 46 108 54 149 67 146 106 90 127 107 41 128 92 98 111 77 99 56 145 145 36 126 100 112 82 143 79 135 94 114 112 56 109 75 97 126 182 125 137 84 80 121 67 100 148 88 91 77 139 139 51 122 150 181 119 119 93 113 91 162 105 109 199 109 138 58 126 86 136 160 86 122 84 63 113 94 80 151 52 95 109 156 137 64 98 94 88 133 99 80 133 57 87 90 55 59 84 172 82 138 121 119 126 82 85 119 157 127 53 165 134 165 179 91 111 68 71 80 98 183 53 83 195 65 41 122 46 163 133 99 131 127 134 49 110 70 25 136 98 65 190 104 97 94 96 46 130 147 124 71 104 38 101 125 89 94 101 174 114 48 184 147 150 119 123 119 95 79 149 125 135 94 153 140 59 134 80 112 80 112 127 148 110 64 125 76 160 122 65 114 139 53 91 78 137 121 89 82 92 90 100 75 135 153 142 122 116 120 83 207 57 77 178 47 54 117 180 112 106 116 131 110 101 84 18 118 50 144 112 94 187 115 133 131 113 115 159 172 89 117 122 108 91 64 45 63 20 131 183 190 186 135 108 90 120 122 110 115 113 108 132 125 84 123 99 118 105 132 68 81 136 167 102 35 43 138 97 40 21 87 46 138 156 34 106 85 102 57 136 126 54 95 165 117 75 132 138 89 151 133 114 94 114 78 37 109 125 103 128 96 104 80 127 159 105 92 86 166 172 73 87 157 143 89 179 94 76 106 114 173 93 95 98 147 71 175 143 110 108 137 110 105 52 86 151 153 119 27 126 59 106 124 76 76 189 119 90 141 116 121 9 77 119 129 83 113 49 94 92 94 147 83 45 112 58 174 146 111 118 82 92 181 82 86 68 129 115 135 91 124 65 86 72 92 82 75 104 119 129 66 179 107 119 94 56 57 33 68 89 68 118 99 108 130 99 92 135 77 175 69 84 76 85 111 135 106 112 124 95 61 74 124 56 125 109 86 104 142 145 100 96 85 116 110 113 92 55 126 72 51 96 104 68 120 224 117 94 27 92 67 106 124 39 124 106 57 119 110 75 127 108 79 91 112 110 101 122 97 70 61 106 69 109 114 79 87 69 105 140 93 91 154 53 69 204 93 120 99 170 56 59 138 62 82 162 72 83 129 123 76 87 101 107 110 147 113 92 76 94 78 67 138 134 53 106 107 60 123 91 107 62 144 86 93 127 53 146 97 116 60 109 112 155 69 111 209 78 114 137 65 148 101 112 69 93 62 103 94 104 100 172 100 58 53 136 80 119 121 98 105 110 143 86 111 43 86 159 108 84 128 140 65 107 77 127 138 157 106 100 84 137 123 92 74 103 97 118 103 100 151 149 131 99 73 40 127 169 114 106 88 85 124 70 132 88 71 102 80 157 136 166 115 103 123 116 62 73 196 128 97 64 169 120 124 86 119 134 147 55 124 71 53 115 61 113 113 115 156 116 170 206 56 119 130 39 78 214 98 62 110 60 91 79 56 128 106 151 77 101 113 68 107 162 77 122 141 104 101 134 88 113 121 64 113 137 122 163 48 118 116 128 94 86 51 116 59 64 74 170 93 119 30 109 181 127 83 123 66 129 102 193 131 115 13 58 88 67 115 33 77 137 124 79 95 97 53 124 83 31 124 111 101 68 91 82 144 92 121 69 122 94 82 156 102 133 100 105 80 134 98 55 99 133 154 135 110 91 98 101 133 146 86 177 136 166 130 83 131 82 117 164 109 165 99 80 108 148 97 90 81 28 79 138 161 112 97 129 111 139 89 85 98 87 77 146 116 151 75 136 97 111 164 123 78 134 46 98 147 104 152 123 121 70 62 76 181 69 70 117 46 139 105 165 241 86 150 111 76 74 65 67 112 128 77 108 91 89 97 65 83 38 140 82 57 232 154 87 93 139 106 65 122 70 139 80 137 159 154 121 109 79 110 87 105 159 112 44 103 146 50 65 83 63 61 141 191 99 133 114 80 85 101 65 172 99 49 54 127 112 126 79 177 138 111 67 144 140 132 86 176 54 44 112 106 138 118 108 64 112 141 129 98 77 107 118 96 44 107 123 69 138 153 104 176 27 150 54 119 101 149 93 121 146 141 94 72 142 76 91 113 125 91 114 159 144 126 69 108 135 117 72 125 191 95 108 91 67 69 134 46 130 86 58 58 121 105 79 142 95 33 136 90 103 97 127 113 111 186 132 111 102 161 123 91 111 79 121 108 140 71 108 93 159 93 127 45 91 108 129 111 105 55 88 153 122 121 110 130 170 62 95 125 99 95 110 110 72 113 150 127 133 163 113 93 44 158 117 52 137 106 147 87 85 96 142 136 52 118 104 90 103 106 82 72 88 111 94 134 63 73 76 81 106 94 126 136 103 123 163 27 93 105 89 109 204 82 105 106 93 78 100 136 125 145 146 130 69 140 119 113 115 53 112 125 97 96 104 58 119 100 69 94 91 149 206 78 82 81 47 94 89 128 85 125 119 105 157 171 50 29 106 186 91 148 131 90 67 103 175 132 96 85 159 62 81 56 97 178 83 74 82 69 87 133 116 109 146 140 98 112 130 189 108 30 87 66 141 70 135 105 114 123 81 107 60 46 79 108 114 148 120 123 27 75 150 107 97 110 82 83 161 121 85 74 128 92 113 163 91 75 84 120 78 155 103 200 139 139 119 107 96 65 120 179 101 105 77 89 127 72 124 80 69 150 68 87 189 154 110 103 72 66 70 78 143 75 93 101 122 111 70 114 35 124 116 141 140 49 88 112 115 72 131 108 77 56 181 103 131 106 98 109 96 108 105 87 113 127 167 51 88 70 177 43 85 113 104 100 129 178 48 72 75 99 95 161 186 105 73 125 104 99 49 121 93 81 164 61 142 71 113 122 207 137 108 80 168 109 88 105 112 73 112 135 115 103 160 167 134 72 141 83 143 100 67 151 119 104 79 154 119 131 160 82 132 133 148 84 109 94 112 253 129 133 141 99 101 101 108 83 117 176 92 87 142 116 109 140 116 97 119 165 115 104 64 135 113 124 145 95 104 81 108 95 42 111 147 107 52 86 169 107 88 120 73 150 106 109 97 51 82 53 88 139 162 148 87 102 154 117 111 126 111 88 120 134 38 106 129 79 120 132 122 93 98 70 167 126 137 174 46 73 93 108 131 93 79 127 150 96 115 100 125 58 34 158 118 120 98 142 144 75 89 86 77 79 103 125 55 83 95 56 129 103 173 132 90 96 152 141 94 157 130 112 89 109 55 31 96 93 113 114 152 118 64 134 64 64 159 127 85 95 115 124 111 102 110 86 141 78 115 144 85 62 168 162 149 116 45 82 98 147 95 111 97 68 70 78 106 91 108 44 155 117 117 80 117 104 50 88 65 102 119 95 101 119 145 134 80 80 96 147 149 101 84 123 136 146 136 112 88 56 73 148 130 106 103 188 112 59 109 96 122 83 121 151 64 94 70 92 118 123 148 175 104 88 70 140 142 109 59 77 103 127 110 99 120 56 85 99 156 114 118 69 89 150 70 129 127 95 109 124 92 76 120 122 157 94 99 71 114 126 93 93 79 111 98 101 78 96 117 118 120 206 165 56 125 39 112 68 63 112 130 99 138 148 76 154 86 164 157 92 86 147 89 136 116 163 51 86 103 105 70 83 111 96 63 117 121 182 180 89 115 81 94 143 94 81 89 100 146 132 48 122 137 97 78 89 142 151 177 57 153 98 182 149 70 120 111 68 151 115 111 81 108 135 106 83 122 102 126 53 138 116 72 61 97 87 63 89 126 144 92 102 129 50 96 51 56 156 119 52 154 123 72 111 67 79 137 72 115 102 79 95 147 100 52 69 102 98 95 189 121 122 69 54 107 113 98 65 135 111 103 120 116 102 80 109 41 79 120 81 69 109 138 37 177 187 70 104 135 65 47 149 119 86 59 66 82 83 57 89 76 145 64 93 129 78 171 81 226 128 61 148 72 85 113 116 92 97 136 144 60 72 121 98 66 124 56 75 146 56 73 107 91 195 79 131 146 44 116 121 97 23 104 88 62 26 55 144 106 115 100 162 90 151 153 144 137 56 93 147 118 107 134 87 99 103 146 99 100 141 95 146 108 153 64 80 97 68 97 61 141 141 121 35 142 170 91 65 34 41 115 100 139 67 117 127 115 59 70 36 108 86 110 71 214 122 30 53 105 104 101 43 135 109 145 118 127 128 120 113 92 58 84 74 139 118 71 128 97 85 82 87 81 142 140 123 166 125 99 130 74 103 99 81 104 110 103 113 144 107 49 76 142 80 145 109 57 102 137 70 60 108 103 119 131 59 118 201 89 115 65 36 105 158 155 64 138 98 100 144 151 135 140 77 106 114 75 109 115 80 72 85 112 151 117 76 125 135 107 151 110 90 98 79 145 56 117 68 99 154 156 59 133 83 91 104 117 19 104 108 57 146 137 129 63 96 23 109 66 86 59 91 110 182 117 74 69 109 90 83 33 122 202 75 48 220 86 96 192 99 103 81 79 117 71 96 125 98 71 138 87 101 96 136 94 76 100 78 54 106 113 90 180 103 104 88 64 133 94 163 131 147 139 63 49 98 69 161 106 143 116 115 188 113 72 62 33 51 75 157 86 69 102 178 79 61 62 50 165 86 150 71 115 122 53 136 113 99 59 97 128 129 103 112 53 117 133 114 69 100 76 150 134 68 68 99 28 81 116 181 63 104 74 61 112 109 63 145 67 93 92 107 108 89 137 137 135 124 81 113 85 75 92 112 113 202 65 128 68 90 134 64 33 125 207 93 112 139 65 95 114 118 49 144 142 94 96 116 65 95 70 90 152 91 65 174 149 67 108 75 102 110 150 125 105 73 117 79 72 93 120 139 103 129 102 120 157 109 91 77 93 155 125 98 116 59 143 64 47 118 93 100 135 70 42 152 67 68 174 78 30 161 102 73 34 42 93 102 136 107 123 101 95 106 132 77 114 139 49 87 41 111 40 65 62 112 83 154 93 137 69 73 121 118 115 89 212 62 88 109 86 122 135 166 41 91 153 120 153 178 110 98 93 99 84 72 115 118 161 94 56 130 124 95 122 56 95 139 78 116 162 135 76 90 90 77 164 125 94 120 86 178 104 99 74 81 70 89 71 127 98 134 126 127 127 78 88 153 73 210 122 73 103 148 124 95 88 162 115 64 93 175 120 95 88 127 90 135 112 95 149 51 220 82 167 56 74 95 111 149 89 101 54 47 79 68 147 66 106 93 73 100 66 52 179 96 47 114 78 45 66 64 127 74 87 52 45 67 103 46 69 80 137 118 155 130 123 75 107 101 84 122 68 122 112 125 147 44 108 122 74 60 76 120 98 86 77 95 166 48 114 178 116 108 65 144 116 163 40 144 132 93 148 152 110 79 111 160 89 118 66 92 84 76 95 161 63 151 112 101 97 57 109 107 124 95 86 65 119 131 100 84 127 48 99 155 76 63 112 167 71 54 86 114 59 78 110 75 86 164 168 110 95 40 107 140 126 70 91 87 127 126 58 114 141 94 173 43 109 124 138 75 83 147 75 61 74 93 95 109 61 150 119 120 150 82 63 101 78 140 105 101 88 69 29 84 122 121 34 102 104 132 91 136 92 113 105 135 107 150 71 62 91 109 147 100 80 137 166 110 96 138 36 86 85 134 96 84 97 89 105 64 85 103 66 82 224 101 123 105 159 103 111 79 131 66 180 106 73 50 183 148 94 62 100 124 98 116 194 149 119 76 91 87 19 28 87 63 65 105 148 128 124 102 95 77 49 100 75 77 120 80 148 66 87 118 120 103 66 42 140 87 140 137 161 117 80 145 78 79 123 59 139 157 78 135 144 82 74 142 89 167 83 86 110 42 142 66 122 135 103 85 98 104 91 106 161 40 120 194 156 174 102 98 143 135 181 97 105 105 121 50 160 86 88 171 64 157 145 70 125 99 98 88 67 137 130 143 34 165 114 113 39 41 126 133 39 112 115 109 36 115 20 91 119 133 122 109 82 131 148 76 71 105 105 88 157 91 84 42 84 130 102 27 107 66 182 83 88 94 165 106 79 106 129 99 125 91 108 124 109 127 104 132 82 102 85 86 71 89 73 130 104 77 87 178 96 129 106 135 106 140 101 58 107 96 79 89 69 67 88 116 77 155 231 142 49 90 83 200 113 81 130 105 132 79 112 122 80 69 75 100 169 135 108 100 36 88 157 89 53 109 118 105 170 108 64 108 123 84 104 99 69 116 131 85 69 127 77 75 56 113 133 127 99 128 158 136 89 47 97 93 90 129 14 87 99 89 132 114 123 104 68 133 107 132 146 52 202 101 120 110 140 139 81 84 71 120 122 106 154 112 105 106 68 74 145 110 78 117 192 88 91 77 88 109 120 119 120 88 72 140 87 95 160 99 132 100 40 71 74 40 96 44 104 113 86 168 110 99 89 88 93 56 137 153 83 93 55 142 89 97 124 79 165 89 128 56 116 155 74 62 81 34 99 123 127 103 106 146 110 137 113 82 89 109 102 77 81 170 88 89 117 82 129 87 95 165 94 88 60 104 41 72 50 149 101 55 108 172 86 104 104 115 69 107 94 112 60 70 136 113 100 99 101 80 67 93 62 145 78 77 142 177 84 82 55 87 156 99 153 88 31 60 98 113 122 122 98 86 69 91 134 120 47 116 79 78 117 157 100 89 135 91 147 75 97 164 152 103 114 150 113 94 131 46 81 97 27 59 89 112 95 138 66 102 127 85 180 89 136 184 144 128 174 143 76 41 107 179 151 32 137 102 127 159 216 135 146 121 127 134 115 86 83 103 50 150 115 129 154 49 58 155 69 94 111 176 113 123 70 132 97 137 118 104 103 153 117 100 121 80 86 141 106 122 65 150 95 106 58 106 114 53 102 128 68 88 82 91 140 85 106 173 83 139 37 106 94 139 121 95 115 116 118 74 87 101 84 50 151 132 184 67 119 80 44 164 141 123 129 101 115 65 199 76 131 133 113 60 100 89 62 104 92 66 92 84 63 170 113 95 92 147 122 62 106 117 96 151 137 110 72 159 122 99 161 113 119 114 211 111 94 168 188 46 154 94 108 129 61 135 110 194 69 86 55 64 107 130 106 149 142 153 102 93 42 207 117 141 92 113 98 59 127 122 98 111 166 81 90 98 110 116 95 87 117 90 104 118 149 74 159 94 144 90 131 127 108 111 116 84 174 111 110 48 106 52 89 67 69 115 107 85 102 122 85 109 55 59 102 100 63 105 104 67 53 155 73 139 172 83 90 110 168 84 134 86 38 54 131 105 103 79 146 89 96 23 54 153 113 119 105 101 152 93 123 95 83 75 132 183 93 102 118 58 113 55 77 130 57 72 71 128 149 64 81 54 139 172 85 86 39 145 93 85 138 102 50 114 101 100 127 60 111 44 115 137 76 93 68 82 106 115 95 32 137 125 140 95 117 79 110 68 134 91 167 77 117 123 60 145 169 108 128 94 67 82 77 93 99 117 103 118 25 141 104 103 118 145 70 65 120 138 48 79 74 128 95 70 35 96 117 131 146 147 50 25 65 156 128 62 149 49 163 101 108 126 85 104 143 80 130 111 76 78 126 175 71 74 37 95 96 147 80 113 109 17 103 172 126 94 169 79 119 75 62 206 133 93 108 116 46 128 161 97 117 87 110 95 75 151 39 159 117 108 91 131 90 104 116 92 116 54 103 178 136 63 47 123 76 101 168 117 96 47 136 99 97 102 94 82 97 145 121 181 99 164 121 59 138 72 93 135 112 119 49 99 111 124 73 88 63 74 95 88 99 65 80 74 124 85 120 109 115 125 22 109 133 73 142 72 86 130 105 158 161 75 131 137 136 159 91 82 228 93 102 94 31 110 162 33 116 90 174 51 109 81 95 125 64 143 107 126 58 156 102 119 71 103 124 123 100 66 75 77 161 69 170 140 178 77 134 125 140 91 72 118 95 165 101 99 139 92 103 70 79 174 43 108 100 117 145 98 117 120 79 102 86 82 65 101 133 111 138 63 139 58 99 205 27 85 87 97 97 109 130 120 114 119 120 77 114 91 80 81 107 114 68 122 101 97 146 152 82 142 141 96 88 147 133 47 173 133 91 101 78 100 118 128 172 134 78 96 91 95 93 113 83 99 126 89 76 109 88 61 81 130 58 100 85 141 116 179 84 81 66 46 192 222 135 59 125 88 95 144 143 163 136 112 69 104 80 114 158 159 156 149 139 110 64 190 110 143 82 51 108 132 74 177 176 158 103 130 102 94 99 143 102 103 117 152 161 143 54 90 158 139 125 96 119 146 101 100 79 178 172 99 155 69 77 161 76 99 73 138 62 134 79 44 116 166 120 102 69 101 98 136 64 81 170 92 87 95 98 91 89 83 103 74 137 116 189 89 91 87 169 175 83 97 125 143 60 107 186 130 77 139 94 64 78 81 96 105 117 50 79 141 85 39 99 96 113 73 120 128 109 87 71 180 137 113 116 112 175 108 66 159 173 114 153 81 111 65 144 113 81 148 66 62 192 61 51 82 89 100 133 68 117 83 180 53 145 64 118 127 125 88 59 159 119 142 126 101 103 126 43 92 44 92 131 100 75 120 51 93 88 60 121 157 89 57 91 88 69 108 136 132 110 135 90 107 112 114 142 188 97 63 82 101 137 167 76 107 74 57 86 130 93 101 97 85 59 142 78 129 72 144 30 135 131 95 133 90 112 83 61 151 83 178 105 105 83 99 93 173 123 108 80 121 86 59 132 68 135 147 149 172 110 86 99 136 73 76 46 131 113 65 83 72 132 133 138 122 60 75 91 143 114 105 94 132 97 88 128 62 125 118 83 102 27 127 65 61 102 125 99 114 133 76 120 116 85 91 90 59 86 62 54 95 162 92 135 85 171 76 65 63 37 100 115 80 71 99 128 81 112 88 124 131 131 58 108 79 145 49 67 117 63 126 119 96 67 151 137 107 55 128 64 90 102 95 63 128 127 111 79 94 89 92 96 112 143 50 106 139 130 127 79 137 81 57 88 46 62 108 65 91 159 126 123 150 77 51 85 104 89 98 148 121 70 72 177 44 62 89 107 217 102 160 128 92 128 187 119 44 123 82 151 88 128 121 153 99 62 140 45 100 71 53 119 95 67 111 114 173 112 159 111 73 148 103 142 98 119 124 105 103 109 73 63 104 187 139 84 77 163 102 108 116 98 111 97 74 66 73 85 93 107 122 100 109 115 134 122 92 85 164 69 146 105 97 130 70 129 133 73 89 113 108 170 133 139 142 127 91 97 99 85 149 125 112 88 98 103 89 90 96 123 141 95 113 111 84 144 79 74 98 93 111 141 108 81 47 115 103 151 144 72 13 95 144 86 109 84 84 87 74 83 67 44 135 132 80 99 160 71 91 120 67 91 139 60 107 147 53 78 98 62 172 140 88 89 57 102 102 177 136 114 68 140 76 87 71 128 130 130 100 98 51 55 101 87 151 81 98 139 121 85 62 139 89 83 171 147 76 101 117 78 103 111 70 109 85 151 133 120 174 107 81 85 68 85 39 88 92 89 170 112 196 123 64 92 57 115 71 94 72 96 63 118 139 111 113 83 113 56 75 102 62 95 132 116 112 81 90 129 120 171 128 73 110 84 110 155 215 108 82 221 93 114 50 85 104 110 110 70 184 126 31 35 140 61 105 120 71 110 103 86 88 143 89 168 111 147 116 164 113 101 59 125 80 151 124 73 86 133 104 64 90 95 124 78 157 146 37 62 213 85 122 78 172 111 110 56 99 105 121 159 130 67 123 59 142 79 123 127 52 179 193 75 60 84 101 23 92 81 137 83 117 115 61 85 116 83 117 90 153 92 56 57 53 112 84 77 53 123 78 149 137 146 94 146 123 105 106 95 50 63 170 76 152 71 137 124 109 103 92 67 131 104 106 106 76 90 112 168 108 118 132 104 75 52 64 131 128 166 122 161 162 144 96 82 89 160 166 79 108 107 122 93 82 118 53 87 136 99 111 75 200 100 85 156 131 63 94 95 152 74 101 100 140 82 156 132 150 161 85 53 105 111 90 112 99 87 78 93 107 117 96 139 113 105 151 93 107 124 175 97 145 95 109 128 68 147 33 126 124 137 136 69 131 135 91 102 78 127 81 154 122 89 158 76 129 61 124 53 93 87 149 61 147 112 104 108 82 29 93 187 68 135 157 135 164 86 54 110 146 179 138 153 142 98 105 125 83 98 157 66 175 102 165 90 79 147 95 81 74 76 81 178 123 66 99 93 134 95 133 129 145 78 136 119 92 100 126 99 108 92 142 158 75 72 122 75 123 111 174 185 181 89 136 113 126 160 132 106 66 101 124 67 133 88 108 71 105 44 95 127 145 87 110 132 63 115 159 55 76 115 134 130 98 81 75 117 60 62 123 102 73 61 94 108 85 108 138 79 178 93 132 90 124 103 84 83 94 111 90 173 92 103 121 120 132 171 115 88 99 96 156 128 89 101 59 101 169 147 44 108 100 188 137 101 79 197 125 143 136 51 149 125 75 131 171 118 82 111 87 82 80 105 93 165 50 113 122 93 61 61 135 76 47 114 134 113 112 115 108 123 141 110 144 114 130 109 75 123 93 96 82 39 142 86 112 98 86 107 109 128 117 125 146 76 101 125 110 102 84 51 103 104 105 125 78 118 119 82 80 155 139 126 106 93 74 136 141 75 72 124 160 64 119 93 84 147 53 61 61 129 56 111 45 89 57 105 130 130 146 82 149 131 95 126 70 69 118 111 102 137 59 59 125 39 115 102 138 67 107 44 166 66 82 70 182 108 58 120 58 150 112 55 120 80 47 70 111 132 128 148 96 129 108 90 91 73 88 15 103 54 61 91 95 86 84 105 88 83 166 76 87 111 89 210 153 99 106 53 158 104 115 121 69 127 133 139 54 83 95 110 59 66 188 90 72 89 101 92 118 79 63 79 93 188 202 124 126 79 123 78 111 148 129 100 94 114 149 132 68 157 64 76 129 139 59 132 50 122 113 155 146 105 132 90 120 72 120 114 73 156 118 38 68 81 57 101 92 108 123 101 121 119 114 126 93 121 73 74 123 79 106 125 72 92 61 109 83 78 45 105 96 116 67 61 83 85 81 89 53 140 82 60 85 70 179 89 119 175 80 185 69 74 118 74 108 152 86 59 129 115 188 85 124 66 53 156 132 129 119 57 159 142 104 148 77 153 107 52 73 83 89 141 109 103 117 70 111 132 146 119 89 124 108 102 117 118 139 79 117 92 72 105 98 137 85 86 22 110 126 88 187 131 118 73 77 116 125 73 89 146 75 157 109 105 175 59 88 54 83 60 69 97 80 96 119 108 106 187 116 103 120 152 153 47 78 99 113 75 189 133 86 149 135 130 100 117 119 77 73 120 69 78 111 108 128 80 147 116 40 78 94 94 67 56 95 55 206 105 126 119 44 111 127 118 131 79 67 158 116 129 49 99 153 90 99 213 111 65 69 175 55 92 50 135 30 52 105 116 81 103 62 49 86 109 136 125 84 86 141 95 95 156 101 121 127 82 155 109 139 113 122 128 132 71 111 64 56 65 106 68 107 93 139 81 49 95 175 113 153 117 123 112 129 100 142 87 46 68 122 109 152 81 143 41 90 76 118 140 98 67 132 159 125 110 164 54 116 113 57 140 57 129 139 15 194 108 117 143 95 95 109 95 156 173 21 122 102 98 121 101 127 106 74 65 133 59 133 124 70 96 104 66 69 70 48 69 124 125 114 87 94 105 149 94 140 63 157 110 84 42 177 83 77 193 59 110 114 74 116 77 120 102 149 72 106 72 122 172 99 100 93 90 74 42 65 103 129 130 62 56 165 75 85 60 64 95 140 153 66 98 110 118 128 119 76 131 99 70 86 79 90 135 131 81 162 145 70 71 68 51 100 47 71 126 105 96 81 113 129 134 148 106 79 111 152 152 60 117 83 137 127 128 119 115 150 92 64 178 115 115 99 101 106 112 178 113 70 73 97 81 98 111 130 73 55 126 90 125 74 89 76 94 192 97 62 97 140 101 69 165 51 99 131 90 66 73 145 73 114 122 64 98 130 58 156 77 122 83 59 122 191 119 137 77 120 123 118 88 116 121 103 60 109 189 112 113 64 36 145 87 136 83 138 79 141 118 153 121 133 56 35 132 119 215 130 112 98 173 126 71 148 101 188 115 116 106 85 84 109 145 134 142 163 131 123 44 116 104 108 60 69 114 103 55 151 91 127 110 98 104 105 119 51 109 157 101 91 82 65 156 76 134 94 108 74 77 136 43 74 109 152 117 124 103 139 18 57 48 108 128 76 119 58 116 135 145 112 102 96 105 103 112 114 185 133 87 76 76 82 116 124 113 71 137 100 105 162 144 129 93 47 85 147 57 45 112 47 94 125 109 65 88 113 119 139 58 110 105 96 98 132 78 93 111 106 127 75 122 125 53 43 70 135 85 192 93 73 120 103 132 98 105 95 113 81 88 136 140 117 82 91 71 93 120 93 134 74 90 90 171 171 131 105 139 30 101 96 162 125 70 89 122 46 27 73 98 159 85 137 55 137 91 137 102 124 73 96 113 76 50 94 196 29 120 122 40 92 89 126 98 188 96 66 110 103 130 75 75 63 78 68 102 121 128 215 147 66 70 120 157 140 98 86 58 139 133 178 57 172 119 135 80 70 129 31 38 111 86 83 165 126 121 46 68 142 106 143 77 85 148 72 114 117 109 99 113 118 90 51 114 37 117 111 129 96 121 194 88 166 105 119 102 144 133 139 78 59 75 62 116 133 100 140 118 104 85 112 91 92 139 146 62 87 97 71 93 153 79 121 140 124 110 85 74 88 62 59 106 85 142 73 66 75 153 144 103 125 77 61 117 86 99 109 142 137 74 85 71 53 128 128 163 124 129 82 110 47 151 86 68 80 49 100 48 94 85 109 120 53 101 104 160 143 72 129 141 126 121 115 91 89 124 90 98 72 92 109 144 149 122 89 124 142 193 110 140 158 116 127 108 73 135 189 139 102 83 105 88 62 82 143 135 124 112 63 61 31 111 139 64 128 114 46 164 80 54 84 98 188 138 101 109 127 103 143 132 133 136 81 124 98 117 110 85 91 87 109 131 167 153 102 78 114 97 93 161 60 87 131 86 97 111 79 108 117 92 81 118 91 60 91 81 127 95 112 73 98 141 100 166 87 114 134 107 99 149 112 178 100 122 175 109 144 109 85 120 97 118 80 53 156 110 121 151 119 155 39 96 120 100 83 78 148 117 89 155 74 85 153 85 73 92 59 128 67 104 105 109 150 138 94 60 115 108 122 40 52 154 42 108 55 113 141 102 105 89 176 90 78 139 96 84 130 92 109 110 130 38 96 62 89 90 69 116 92 118 131 113 70 59 104 68 117 100 102 133 85 134 157 68 104 96 146 66 72 92 165 103 130 63 89 143 </t>
-  </si>
-  <si>
-    <t>GAM(0.18588077241413004, -5.096070291627114e-28, 1.090234321739464)</t>
-  </si>
-  <si>
-    <t>0 0 0 0 1 0 4 1 2 0 2 0 1 3 1 1 0 0 0 1 1 2 2 2 0 2 1 0 1 0 1 0 0 1 1 2 1 0 1 1 0 2 1 1 0 0 1 0 0 2 0 2 0 0 1 2 1 0 0 0 1 2 0 1 1 1 1 1 0 1 0 2 0 1 2 3 0 1 1 0 1 2 1 1 0 0 1 0 1 1 2 0 0 0 2 2 2 1 1 1 0 0 1 3 1 1 3 0 0 2 2 1 2 2 2 1 1 0 3 0 0 1 0 2 3 1 0 0 3 0 1 0 1 0 1 1 1 1 0 0 1 0 2 0 1 1 1 0 0 1 2 2 1 0 0 2 1 1 0 0 0 1 1 0 1 1 0 1 1 2 1 0 0 1 2 2 0 0 0 1 1 0 2 1 2 0 0 2 1 0 1 1 1 0 2 1 1 0 0 0 1 1 2 0 0 3 3 0 2 0 2 0 0 0 2 0 1 1 2 0 0 1 2 1 0 2 1 0 0 1 1 0 2 0 1 1 0 0 0 1 1 0 2 1 0 0 1 0 1 0 0 0 1 0 0 2 1 3 1 0 0 2 0 1 0 2 0 0 1 2 1 0 1 1 2 2 1 1 0 0 1 2 2 1 1 1 0 0 0 1 0 0 1 0 1 0 2 0 0 0 0 0 0 1 0 0 1 1 1 0 0 1 0 1 2 0 0 1 0 2 2 1 0 0 1 1 2 1 2 1 1 0 1 0 0 0 2 1 0 1 3 1 2 2 1 1 1 1 1 0 1 0 1 0 0 2 1 0 2 1 1 0 1 1 1 1 1 1 0 2 0 0 0 1 2 1 0 1 0 0 0 0 0 1 1 2 0 1 0 1 1 0 1 0 0 3 0 2 1 1 0 1 2 1 0 2 1 1 0 0 0 1 3 0 0 0 3 0 1 0 0 0 2 0 3 0 0 1 0 2 3 1 0 1 1 1 0 0 1 0 0 1 0 0 0 3 0 0 0 0 1 0 0 1 1 1 1 0 0 0 1 0 0 0 1 1 0 1 0 0 1 2 1 3 1 1 0 0 1 0 1 1 0 1 0 0 1 3 1 2 1 0 1 0 1 0 0 2 1 1 1 1 2 0 1 0 2 1 1 2 1 1 0 0 1 2 0 1 1 3 1 1 2 0 1 1 0 0 0 1 0 1 0 0 1 0 0 1 1 0 3 1 0 1 0 1 3 0 2 1 3 1 1 1 1 1 2 0 1 0 2 0 0 0 0 0 0 3 1 0 0 1 0 2 0 0 0 1 2 0 1 2 1 2 2 2 1 0 0 1 2 1 2 0 0 1 0 2 1 0 0 2 0 0 0 2 1 1 2 1 1 0 1 2 0 0 1 0 1 4 2 0 2 3 0 1 1 1 0 1 2 1 1 1 1 0 3 2 0 0 0 1 2 2 1 1 1 1 0 0 0 1 1 0 1 1 1 0 0 0 0 0 1 1 2 2 1 1 2 1 1 1 0 2 0 2 2 1 1 0 2 1 0 0 2 0 2 1 1 0 0 2 2 1 0 1 0 0 1 1 0 0 1 0 1 0 0 0 2 1 0 2 0 0 1 2 0 2 0 1 1 2 0 0 0 0 0 2 0 2 2 0 1 2 1 2 0 1 1 0 1 1 0 0 0 3 1 2 0 2 1 1 0 1 0 0 2 0 0 0 2 0 0 1 1 3 0 2 2 1 0 0 2 1 2 1 0 0 0 0 0 0 1 3 2 0 0 0 0 0 1 0 1 3 0 1 0 3 1 1 1 2 0 0 0 0 2 0 1 1 1 0 2 1 2 1 1 1 0 0 1 0 0 0 0 0 1 2 2 1 1 0 0 2 1 0 0 4 0 1 0 0 0 1 0 3 0 0 1 1 1 3 1 1 2 0 1 2 3 0 1 1 0 2 1 0 1 0 1 1 0 0 0 0 1 1 2 0 1 2 0 0 1 1 0 1 1 1 0 2 1 0 1 2 0 0 2 0 1 0 0 1 2 0 1 3 1 2 0 1 2 2 1 1 1 0 1 0 1 0 2 0 0 1 2 1 0 1 3 1 0 0 1 1 1 0 1 0 3 2 1 0 1 1 3 1 1 2 0 0 0 1 1 1 0 0 1 3 0 1 2 0 1 2 2 1 2 1 0 1 1 0 2 1 2 2 1 0 0 0 2 0 0 0 0 0 1 1 0 2 0 1 0 3 1 2 0 2 1 0 1 0 0 0 0 2 1 1 0 1 1 1 1 0 0 1 0 0 0 0 1 1 2 1 2 0 0 0 0 1 1 0 2 1 1 0 0 0 1 1 1 1 1 1 1 1 3 2 1 2 1 0 0 2 4 0 0 2 1 0 0 0 2 0 0 2 0 1 0 1 1 0 0 0 0 0 1 0 0 2 0 2 0 0 0 2 1 0 0 0 0 2 1 0 1 0 0 0 1 1 2 0 0 0 1 0 0 1 2 0 1 1 0 2 2 1 0 2 1 0 2 0 2 0 0 0 1 0 0 1 1 2 2 1 1 2 0 1 2 1 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 1 3 2 0 3 1 2 0 1 0 0 1 1 2 0 1 2 0 0 1 0 1 2 1 3 0 0 2 1 2 0 1 0 1 0 0 0 1 0 1 2 0 1 1 3 1 2 1 3 0 1 0 0 2 0 1 1 1 0 0 0 0 1 1 0 0 1 0 4 2 0 0 1 0 1 2 0 0 0 1 0 0 1 2 0 0 2 1 0 1 1 1 1 0 0 1 0 1 0 4 0 1 2 0 3 1 2 0 1 3 2 1 1 1 0 1 2 1 0 0 2 1 0 1 0 1 3 1 0 0 0 0 2 0 1 0 0 1 0 2 0 1 0 1 1 2 0 1 2 1 0 0 1 1 1 0 0 1 0 1 0 1 2 1 2 2 0 0 0 0 0 1 1 1 1 0 2 0 0 0 0 0 1 0 1 0 1 1 0 1 1 0 2 0 0 4 0 2 1 1 1 0 0 0 0 1 1 1 0 1 1 2 2 1 0 1 2 0 0 1 0 0 3 0 0 0 0 1 0 3 0 0 0 0 0 0 0 1 0 0 2 3 2 0 0 0 1 1 0 2 1 1 1 0 2 0 0 2 1 0 0 0 2 2 0 0 0 2 0 0 0 2 1 0 2 0 3 2 1 0 0 2 1 2 2 1 2 1 1 0 2 0 1 2 0 2 0 0 1 2 1 2 4 0 0 0 1 1 1 0 1 0 2 0 1 2 1 1 1 1 4 1 0 3 3 0 1 0 3 1 3 0 2 1 1 2 3 1 0 0 1 1 1 0 0 0 1 2 2 1 1 1 0 0 1 1 0 0 1 1 1 1 0 1 0 1 0 2 1 2 0 0 0 0 3 1 1 1 0 1 2 0 0 0 3 1 1 0 0 0 0 0 4 2 0 3 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 3 2 0 0 0 1 0 0 1 1 0 1 0 2 3 1 1 0 2 2 0 0 0 0 1 1 0 1 2 0 3 1 1 0 0 1 0 1 0 0 2 1 0 1 1 1 0 1 1 1 1 0 1 1 3 0 0 2 0 0 0 0 0 0 0 1 1 1 1 0 0 1 0 1 2 0 1 0 0 1 1 1 1 0 2 0 1 1 0 2 3 0 0 0 0 1 2 1 1 1 1 2 2 2 0 0 1 0 1 0 0 2 0 1 0 0 0 0 0 1 1 1 1 0 0 1 1 2 0 2 0 0 0 0 1 0 2 0 3 1 0 0 2 1 1 1 1 1 2 0 0 1 1 0 0 3 1 1 0 1 0 0 0 1 0 1 1 0 0 0 0 4 1 0 0 1 1 1 2 1 1 0 1 1 0 2 0 2 2 1 2 1 1 4 0 1 1 0 0 1 1 0 1 1 1 2 0 0 1 0 0 1 0 0 3 2 1 0 0 0 2 0 0 1 1 1 0 1 1 1 0 2 1 1 1 0 2 1 1 2 1 2 0 0 3 0 0 0 1 0 2 1 3 0 0 0 0 0 0 1 2 0 2 1 2 0 1 5 2 0 1 1 0 1 2 1 0 1 0 1 0 1 0 1 2 1 0 0 2 1 0 0 2 1 0 1 0 3 2 1 1 0 1 0 0 1 0 3 1 0 0 0 2 1 0 1 1 1 1 1 0 0 1 3 0 2 3 1 0 0 0 1 3 0 0 1 1 0 0 1 1 2 0 2 0 1 1 2 0 0 0 0 2 2 1 1 0 1 0 1 1 0 1 2 1 1 0 1 0 1 1 1 0 0 0 1 2 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 1 1 2 0 0 0 1 4 1 1 1 0 0 2 1 0 2 1 4 2 2 0 0 1 0 2 1 3 0 1 2 2 1 0 1 0 2 1 1 2 0 1 3 0 2 0 2 1 1 0 2 1 0 0 0 0 0 0 0 1 2 0 0 1 1 2 1 1 1 2 1 0 0 1 1 0 1 1 0 0 0 1 1 1 1 1 1 1 2 2 0 0 1 2 1 0 1 0 0 1 1 1 0 1 1 2 2 0 2 1 1 0 3 0 1 1 4 1 0 3 1 0 0 1 0 2 1 0 1 4 1 0 1 1 0 1 0 2 1 0 1 1 1 0 2 1 0 1 0 1 0 0 1 0 0 0 1 0 0 0 2 0 1 1 2 0 1 2 1 0 2 0 1 0 5 1 2 2 0 0 1 1 1 1 2 2 0 0 1 0 0 0 0 0 1 2 1 1 1 1 2 2 1 1 1 0 0 2 0 1 1 2 2 1 0 1 0 1 0 2 0 0 3 2 0 2 1 2 1 1 1 2 0 0 2 1 0 2 0 1 1 1 0 1 0 2 1 0 0 0 1 1 1 0 2 1 0 0 1 0 1 0 1 1 2 0 1 1 1 1 1 0 0 1 0 1 1 0 0 1 3 1 1 2 0 0 2 0 0 1 0 2 0 0 1 1 1 0 0 1 1 0 0 1 1 0 1 2 1 2 2 1 0 1 1 4 3 0 0 1 0 3 1 0 2 1 0 3 0 2 0 0 3 1 1 0 1 0 1 2 0 1 0 1 1 1 1 0 1 0 1 0 1 0 2 1 1 0 0 1 0 2 1 0 0 1 2 0 0 1 0 0 0 1 1 0 0 0 0 1 1 1 0 0 3 0 0 0 0 1 1 1 1 2 0 0 2 1 1 1 1 0 0 0 0 2 0 2 1 0 2 0 1 2 0 2 1 0 1 2 2 1 0 0 1 1 0 1 0 1 1 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 1 0 1 2 0 0 0 1 1 0 2 1 2 1 2 0 1 0 1 1 0 3 0 1 1 1 0 1 3 0 1 1 0 0 2 3 0 1 0 0 1 1 1 1 2 1 1 0 0 0 1 1 0 0 0 1 0 1 2 1 1 0 1 2 0 0 0 1 0 1 2 0 0 1 0 0 1 0 0 0 1 0 1 0 0 1 0 2 0 0 2 1 1 0 0 0 1 2 1 3 2 2 1 1 0 0 1 1 0 2 1 2 0 0 0 0 1 0 2 0 1 2 2 2 2 0 1 2 0 1 0 0 2 1 0 1 1 1 0 2 1 0 0 3 1 0 0 0 1 1 0 1 0 0 1 1 0 0 2 1 0 1 1 0 1 0 1 1 0 0 0 0 0 0 2 1 1 1 1 0 0 2 3 2 0 0 1 0 1 0 2 2 1 1 1 3 1 0 0 0 1 0 0 1 0 0 1 0 4 1 1 1 1 0 1 1 3 0 2 0 0 0 1 1 2 0 0 0 2 0 1 1 0 2 0 0 1 2 2 0 1 1 0 2 0 0 0 1 2 1 0 2 1 1 0 0 2 2 0 1 0 1 1 0 1 2 1 0 1 1 0 2 2 1 0 1 0 0 0 2 1 2 0 1 2 1 2 1 0 1 1 1 1 0 1 2 1 1 2 0 2 1 1 0 1 0 0 0 0 1 0 0 0 1 1 2 1 1 1 0 0 0 2 0 2 0 1 0 1 0 1 1 1 1 0 0 0 0 1 0 0 2 1 1 0 0 1 2 2 1 0 1 0 0 3 0 0 1 1 0 2 3 1 2 1 1 1 0 0 2 3 0 0 0 1 3 1 0 0 1 0 1 1 1 1 0 0 1 1 0 0 0 1 2 4 0 0 1 0 1 1 0 0 1 0 1 2 1 0 0 1 1 3 1 1 1 0 1 0 0 1 3 1 1 1 2 0 0 1 0 0 1 1 2 0 0 0 1 0 2 1 1 1 2 1 0 0 1 1 1 1 1 0 0 1 0 1 2 2 2 2 4 0 0 1 1 0 0 0 1 0 0 2 1 1 0 1 1 0 0 1 1 0 0 1 2 0 2 0 0 1 0 2 2 1 1 1 0 0 1 1 1 0 2 0 1 0 2 0 1 1 1 0 2 0 1 0 1 0 3 1 1 1 1 4 1 0 0 3 0 3 1 2 1 0 2 0 0 2 2 1 1 0 0 1 0 0 0 0 0 0 0 0 1 1 2 1 1 1 1 0 0 1 0 2 2 0 2 1 0 0 1 1 1 2 3 2 2 0 1 0 0 3 1 1 0 0 1 2 1 1 3 0 0 1 0 1 0 1 1 1 0 3 0 0 1 0 1 0 1 0 0 0 1 1 2 0 1 0 2 0 2 2 2 0 1 3 1 0 0 1 1 0 3 0 0 4 2 1 0 1 1 0 0 0 0 1 2 1 2 0 2 0 1 1 1 0 1 0 2 0 0 0 1 2 2 1 1 0 0 2 2 0 0 1 1 2 2 0 1 0 0 0 0 1 0 0 1 1 0 3 1 2 2 0 1 2 2 0 0 1 1 4 0 0 0 1 1 2 1 1 0 2 2 0 2 1 0 0 2 2 1 0 1 0 2 1 1 0 0 0 3 0 1 1 1 0 2 2 1 1 3 1 1 2 0 1 0 2 1 0 0 0 2 2 2 1 2 0 1 1 1 1 3 2 0 2 0 1 1 0 1 0 1 3 0 1 2 0 1 0 0 0 0 2 2 1 2 0 0 1 1 1 0 0 0 1 0 1 3 0 1 4 0 0 0 0 0 0 0 2 0 0 0 0 0 1 1 0 0 1 0 2 1 0 0 1 1 0 0 1 0 0 2 1 0 0 0 1 1 0 1 3 2 1 0 1 2 1 2 0 1 0 1 1 2 1 1 0 0 1 2 2 0 3 1 0 1 0 0 2 1 0 1 0 2 0 0 2 1 0 0 0 2 2 1 2 0 0 0 0 0 1 2 2 1 0 2 1 0 1 0 3 0 1 1 1 0 2 1 1 1 4 1 0 0 1 0 2 1 0 1 2 0 0 2 2 2 0 1 0 1 0 1 2 0 1 2 1 0 2 1 0 1 1 2 1 1 0 1 0 0 4 0 1 0 1 0 2 1 2 2 2 1 2 1 2 0 2 2 1 0 0 1 2 0 0 3 1 0 0 0 0 1 2 1 1 2 0 1 0 1 0 1 2 0 0 1 0 1 2 2 0 1 0 2 1 2 1 0 0 2 1 1 0 1 1 0 0 1 1 3 1 1 0 1 0 1 1 2 1 0 0 0 4 1 1 0 0 2 0 1 0 3 2 1 0 0 1 3 0 0 0 1 1 1 1 1 2 0 1 1 1 0 1 1 1 0 2 0 0 1 1 0 1 2 1 1 0 0 0 1 1 1 2 0 3 1 2 1 2 2 0 1 0 1 1 1 1 1 0 0 1 0 1 1 3 2 0 1 0 0 1 1 0 0 0 0 2 2 1 1 1 2 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 0 0 1 1 1 0 2 0 1 1 1 1 1 2 0 1 1 2 0 0 1 3 2 2 0 1 0 0 1 1 2 0 1 3 1 1 0 1 0 0 0 0 1 0 2 0 2 1 2 0 1 2 0 1 2 0 0 0 1 1 1 1 0 0 0 1 0 0 0 2 2 1 2 0 1 1 0 1 1 0 0 0 0 1 0 1 1 0 1 0 0 0 1 1 1 3 0 0 0 0 1 0 1 1 1 1 0 0 3 2 1 1 0 1 0 1 0 1 0 1 1 0 0 1 0 0 2 0 0 1 1 2 0 1 1 0 2 0 0 1 1 1 2 2 0 1 3 0 1 1 0 0 1 0 0 1 0 1 0 0 1 1 2 1 0 0 0 0 1 1 1 2 0 0 0 1 1 0 0 1 1 1 1 1 1 0 2 3 0 1 1 0 0 2 1 0 0 0 0 1 0 0 0 1 1 2 1 0 0 2 0 1 1 0 0 0 0 0 0 2 0 1 1 1 1 2 0 0 1 2 1 1 1 3 0 2 0 1 1 0 0 1 0 2 1 1 3 1 0 2 0 2 1 1 0 0 2 1 1 3 0 0 2 1 0 3 0 2 2 0 1 0 0 1 0 2 1 0 0 0 0 2 2 0 1 1 1 1 0 1 1 1 0 1 2 0 2 1 0 1 1 1 0 0 0 0 4 0 1 1 0 1 1 0 0 0 1 1 0 0 0 1 2 1 0 3 1 1 1 2 1 3 1 1 0 0 0 1 2 0 1 0 0 2 3 0 1 2 3 0 1 0 0 0 2 0 0 0 0 1 0 2 1 0 2 1 1 1 0 0 1 0 2 0 2 0 0 0 0 0 1 1 1 2 1 0 1 0 0 1 1 2 1 0 2 2 1 0 1 2 1 3 0 1 3 2 3 1 1 1 1 0 1 1 0 2 0 2 1 2 2 2 1 0 0 2 1 0 0 0 0 0 2 0 0 0 1 0 1 0 0 2 0 0 1 1 3 0 0 1 0 1 0 0 1 0 1 2 1 2 1 1 1 1 1 0 2 0 1 2 1 1 1 0 0 1 3 1 0 1 0 1 1 0 0 0 2 1 0 1 1 1 1 0 2 0 1 1 2 0 1 0 1 2 1 1 1 1 0 3 1 1 2 1 1 1 3 0 1 2 0 3 0 2 1 2 0 2 2 0 2 3 1 0 1 0 1 1 2 1 2 1 2 0 0 0 1 0 1 0 0 0 1 0 0 0 2 0 0 2 2 0 0 1 2 2 0 0 1 3 1 2 0 0 1 0 1 1 1 0 1 1 1 1 0 0 0 1 0 2 0 1 1 1 1 0 4 0 2 0 1 0 0 1 2 0 2 1 0 1 2 1 2 0 1 0 1 0 1 2 2 2 0 0 0 1 0 0 0 3 0 0 0 0 0 1 1 0 3 0 1 0 0 1 1 2 1 2 1 2 2 0 0 0 2 2 0 0 1 2 2 0 2 2 2 2 2 4 0 2 1 1 0 0 0 2 1 0 0 0 0 2 1 0 0 1 1 1 0 1 1 0 0 1 1 2 2 1 1 2 0 0 0 0 0 1 0 0 0 3 0 1 1 3 2 1 0 1 1 1 0 1 1 2 2 1 0 0 0 1 3 0 0 0 0 1 2 1 1 0 0 1 0 1 0 1 0 0 0 1 2 1 1 2 1 0 2 0 1 1 0 2 1 1 1 0 2 0 0 0 3 0 1 2 0 2 3 1 3 3 0 0 2 0 2 1 3 2 1 2 0 1 2 0 1 0 0 1 1 1 2 0 0 1 2 0 0 2 1 1 1 3 0 0 0 1 1 0 0 1 0 3 2 0 0 0 2 1 2 2 0 0 1 3 1 0 1 1 0 0 0 0 1 2 1 1 0 0 1 2 1 1 1 0 0 0 2 1 1 0 0 1 1 0 2 1 1 1 0 1 2 2 2 0 1 1 0 1 0 1 1 0 1 0 0 1 1 0 0 1 0 2 2 0 1 1 2 0 0 1 1 0 2 0 1 1 0 1 1 1 0 2 0 0 1 3 2 1 0 0 2 1 1 1 2 0 1 1 1 0 1 0 0 1 2 1 2 0 2 1 1 1 0 1 2 1 0 0 1 0 0 4 0 2 1 0 0 0 3 1 1 0 0 0 1 1 0 1 0 2 0 0 2 1 4 0 0 4 1 1 3 1 3 1 1 1 1 0 0 1 1 2 0 2 0 2 0 3 1 1 0 1 1 1 0 0 1 0 2 1 1 2 2 1 1 1 1 1 0 1 1 1 2 0 1 1 0 0 0 0 2 1 0 1 0 0 2 1 0 0 0 2 2 1 1 0 1 1 0 1 1 0 0 1 0 0 0 1 2 0 1 0 1 1 0 0 0 1 2 0 1 0 0 0 0 0 3 1 1 1 0 1 1 1 0 0 0 0 0 1 3 0 0 2 0 0 2 1 1 0 3 0 0 0 0 1 3 1 0 0 1 3 0 0 1 0 0 1 2 0 2 0 1 1 0 0 1 0 0 0 1 0 2 0 2 3 0 0 1 0 1 2 0 1 1 1 0 2 0 0 1 0 0 1 1 0 2 2 0 0 1 0 0 0 2 1 1 1 0 0 1 0 0 2 1 0 2 1 0 1 0 1 0 1 2 1 1 1 0 3 0 2 1 0 1 0 2 0 1 1 0 0 1 0 2 2 0 0 3 0 0 0 3 1 0 2 0 0 0 2 0 0 2 0 0 1 2 3 0 1 2 0 0 0 1 0 0 0 2 2 1 1 1 0 1 3 0 1 2 2 3 1 1 0 0 1 2 1 0 0 2 0 2 1 1 2 1 1 1 1 1 0 1 2 2 2 1 1 0 1 0 0 1 1 0 0 2 2 0 2 2 2 0 2 0 0 1 0 0 1 2 1 0 0 1 1 0 2 3 1 0 0 0 1 1 2 2 0 0 1 1 0 1 3 0 0 1 0 0 1 0 1 2 0 1 3 1 0 1 0 0 0 1 1 1 2 1 1 0 1 2 0 1 0 0 2 1 1 2 1 0 0 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 1 2 1 1 1 2 1 1 2 0 0 1 0 0 1 1 1 0 1 0 0 1 0 1 0 0 0 2 0 0 2 0 1 4 0 1 1 0 0 0 0 1 1 0 0 0 0 3 1 1 2 1 0 1 2 1 1 1 1 1 0 1 0 0 1 1 0 0 2 1 0 0 1 0 2 1 0 2 4 0 0 1 1 1 1 2 1 1 0 0 0 3 0 1 0 1 2 1 1 1 0 3 2 2 2 1 0 0 0 1 0 0 2 0 0 0 2 1 1 1 0 1 1 2 0 2 3 0 1 1 1 0 0 1 1 0 1 0 0 2 1 1 0 0 0 3 0 1 1 0 1 0 0 0 0 0 1 2 0 0 0 1 0 0 1 1 0 0 2 1 3 0 0 0 1 1 1 1 1 0 1 0 0 2 1 1 0 0 1 0 0 1 0 1 4 1 0 2 1 0 0 1 1 1 3 2 1 1 2 1 0 1 2 0 1 1 1 1 2 0 1 2 1 3 4 1 1 2 2 0 2 0 2 0 1 2 1 2 0 0 0 0 1 1 0 1 1 0 1 1 1 0 3 3 0 0 0 3 0 1 0 0 1 1 2 0 0 0 0 0 4 2 1 0 1 1 2 2 0 1 1 1 0 0 0 1 3 1 1 4 2 0 1 1 2 0 0 1 0 2 2 0 0 0 3 2 1 0 0 1 0 2 2 2 0 0 0 1 0 1 1 2 2 3 1 2 0 1 0 1 0 1 2 1 0 1 1 0 3 0 2 1 0 1 0 0 0 2 1 0 1 0 1 4 0 0 1 0 1 0 0 1 3 2 1 0 0 0 1 0 0 2 0 1 1 0 0 2 0 1 0 0 2 0 0 0 0 0 2 1 3 1 0 0 1 0 0 0 0 0 1 0 0 2 0 1 3 0 0 0 2 1 0 0 1 0 0 1 0 0 2 0 2 0 1 0 1 0 1 2 1 2 0 0 1 1 1 2 1 1 2 1 0 0 0 2 0 0 0 1 1 0 1 0 2 0 0 0 0 1 1 2 1 0 2 0 1 1 0 1 2 2 1 1 1 1 0 2 0 1 0 0 1 0 1 1 1 0 0 0 0 0 2 1 1 2 2 0 1 0 0 1 0 0 1 2 1 1 2 1 1 0 2 3 1 0 2 1 2 1 0 0 1 0 1 1 1 0 1 0 0 1 0 1 0 0 1 0 0 2 1 2 2 2 2 0 2 0 0 0 0 1 1 1 1 2 1 0 0 1 1 0 0 1 0 0 1 0 4 1 0 1 0 0 0 1 0 3 0 2 0 2 0 2 1 0 2 0 3 1 0 2 2 0 0 0 0 1 0 1 1 1 0 1 1 0 0 2 1 0 2 0 0 1 0 0 0 2 2 2 1 1 0 1 1 1 0 1 0 0 2 1 2 2 2 0 1 1 0 1 0 2 1 0 2 0 0 2 1 0 1 0 1 1 1 0 0 1 1 1 0 1 0 0 1 0 2 0 0 0 0 1 0 0 0 0 0 1 3 1 1 1 2 0 1 0 0 1 2 1 1 0 1 2 1 1 2 1 2 1 0 2 1 0 0 2 1 0 0 0 1 1 0 0 1 1 0 1 1 0 1 2 1 1 1 1 0 2 0 1 1 2 1 2 0 0 2 1 0 1 0 0 0 1 1 4 0 0 1 0 0 0 1 0 1 0 0 1 2 0 1 0 1 1 0 0 2 0 1 0 1 1 0 0 1 1 2 0 1 0 1 1 1 0 3 2 0 0 2 1 2 2 1 2 3 0 1 0 3 3 2 0 0 2 1 1 2 3 0 0 1 0 0 0 1 0 1 2 0 1 0 0 1 1 0 3 3 0 0 1 2 1 0 1 1 0 0 2 0 2 1 0 3 1 4 1 0 2 2 2 1 1 0 2 1 2 0 1 1 0 1 0 2 1 0 1 3 1 2 2 0 2 3 0 3 0 1 1 0 0 3 1 0 0 1 1 2 1 2 1 0 1 2 0 0 0 0 0 0 0 2 2 1 2 1 1 0 0 1 0 0 0 1 0 1 2 1 1 1 1 1 1 2 1 0 0 0 0 0 0 0 0 0 2 1 1 3 1 0 3 1 1 2 1 0 2 0 1 0 2 1 3 1 0 0 2 1 0 0 1 1 2 0 1 1 1 2 2 0 1 1 2 1 2 3 0 0 0 1 1 1 0 0 1 0 0 2 1 0 3 2 1 0 1 1 1 0 2 2 0 0 1 0 0 0 4 2 0 1 2 0 1 0 2 2 0 3 1 0 0 1 0 0 0 1 1 0 4 1 1 1 1 0 0 0 1 1 1 1 1 1 0 0 1 1 2 1 0 0 1 0 2 2 0 0 1 0 0 0 0 0 1 0 0 0 1 1 1 1 2 0 3 2 3 2 1 0 1 1 0 1 0 0 0 0 0 1 2 1 1 2 1 2 1 0 0 0 2 0 1 0 2 0 2 3 1 1 1 2 0 1 1 2 1 2 1 0 2 1 1 1 2 2 1 0 2 2 2 0 0 0 2 0 1 0 0 1 1 0 1 2 0 0 1 1 0 1 0 0 0 1 1 1 2 0 1 2 0 1 1 0 1 1 2 1 0 1 3 1 1 2 1 0 0 0 0 1 2 1 0 0 0 1 1 1 2 1 0 0 0 0 0 0 0 1 0 0 2 0 1 0 1 1 1 1 0 2 0 0 2 1 0 2 0 1 0 0 1 1 2 0 0 1 0 0 2 2 0 0 2 0 1 0 0 1 1 2 1 2 1 1 1 1 0 0 0 0 2 0 0 1 1 0 1 0 0 1 0 1 0 2 2 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 1 2 1 0 2 0 0 0 1 1 2 3 1 1 0 0 2 1 1 1 1 1 1 1 2 0 0 1 1 1 2 0 0 1 0 1 1 2 2 2 0 0 2 1 2 2 1 1 0 0 0 0 1 1 2 1 2 1 0 0 0 0 1 1 2 0 1 0 0 1 0 1 0 0 0 0 3 3 0 0 0 2 1 0 1 1 1 0 2 3 1 3 0 0 2 0 1 2 2 1 1 1 1 0 2 2 0 1 2 1 1 0 1 0 1 1 0 0 0 1 1 0 0 0 0 1 1 0 0 2 1 2 0 2 0 1 1 1 1 0 0 3 2 1 2 1 0 1 0 1 0 0 1 3 2 1 0 2 1 5 3 1 0 1 2 2 0 1 0 2 1 2 0 0 1 2 2 1 1 0 0 1 0 0 0 3 0 0 1 0 0 3 3 0 1 0 0 2 2 0 1 1 0 1 1 2 0 2 1 2 2 0 1 1 1 1 2 0 0 0 1 1 1 0 3 0 0 0 0 1 1 0 2 2 0 0 1 0 1 1 1 0 1 0 0 1 1 2 1 0 0 0 1 1 0 2 0 1 1 2 0 1 0 0 0 1 0 1 0 0 0 0 1 0 2 1 1 1 0 2 0 2 2 1 0 2 1 1 2 0 1 1 0 1 2 3 0 1 2 0 0 3 1 1 1 0 0 1 0 2 1 2 3 0 1 0 1 1 1 1 0 1 2 0 0 1 0 0 1 0 1 1 1 1 0 2 0 0 0 0 0 1 1 0 1 0 0 3 1 0 1 1 2 0 0 0 0 0 1 0 1 0 0 0 1 0 0 5 0 1 1 2 1 1 0 3 0 2 0 2 1 0 0 1 0 0 0 1 1 0 1 2 2 0 0 0 1 2 1 1 2 1 2 2 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 2 0 0 0 0 1 1 0 0 1 1 0 0 0 1 1 0 1 2 0 0 0 1 3 2 1 1 0 0 2 1 0 1 1 2 2 0 1 2 2 1 1 0 1 2 2 1 1 0 0 0 1 0 0 1 1 1 1 2 0 1 0 0 0 1 2 3 2 1 0 2 0 1 0 2 0 0 2 0 1 2 1 0 2 0 1 1 2 2 3 2 0 0 1 2 2 0 0 0 1 0 1 0 2 0 2 0 0 0 0 0 1 0 0 1 1 1 0 1 0 1 1 0 0 1 0 2 2 1 3 2 2 2 0 0 3 0 2 1 0 1 0 2 1 0 1 0 1 1 0 1 0 0 0 2 0 2 2 2 0 0 0 2 1 0 2 1 1 1 0 0 3 1 0 1 1 1 1 0 1 0 2 2 3 0 1 0 0 1 0 1 1 1 2 0 1 1 3 1 1 1 1 1 1 0 2 0 1 1 2 1 0 0 0 2 0 0 0 1 1 0 2 1 0 2 0 1 1 1 0 0 2 0 1 1 1 2 2 0 0 2 1 0 2 1 0 1 0 0 1 0 2 0 1 1 1 1 0 1 0 1 1 1 0 0 2 0 1 2 0 1 0 4 0 0 0 0 0 0 1 3 2 0 0 1 0 1 0 0 2 2 0 1 2 0 1 2 3 1 0 0 0 1 1 1 1 1 1 1 0 0 2 3 1 1 2 0 1 3 2 0 2 1 2 1 0 3 1 1 1 0 0 1 1 0 1 1 2 1 2 1 0 0 1 0 0 1 0 0 1 1 2 1 1 1 1 1 1 1 2 3 1 1 0 0 0 2 0 1 2 0 0 1 2 1 2 1 1 2 2 0 1 2 1 0 0 0 0 1 0 0 1 2 0 0 1 0 0 1 0 0 0 1 1 1 1 1 2 1 0 4 2 1 3 1 2 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 1 1 0 0 3 2 1 0 1 1 1 0 0 0 1 1 0 0 0 1 0 1 1 0 1 0 0 1 1 1 1 0 0 1 1 3 1 0 0 0 1 2 1 0 0 1 1 1 0 0 0 1 1 0 2 2 2 1 0 0 0 0 1 1 2 2 0 2 1 1 0 0 2 1 1 1 0 2 0 1 2 0 2 1 2 1 1 1 1 0 2 3 0 0 0 1 1 1 1 0 3 0 2 0 1 0 2 3 1 2 0 1 2 0 1 1 2 1 1 0 1 1 3 1 3 1 1 2 2 0 2 1 1 1 0 1 0 1 1 1 0 0 0 0 3 1 2 1 3 0 1 0 0 2 1 0 0 0 0 2 0 0 2 0 1 0 1 0 0 1 1 0 1 0 1 1 1 2 2 1 0 1 1 1 2 0 0 4 0 1 1 0 0 0 2 0 2 3 0 3 0 2 1 1 1 2 2 1 0 0 0 2 1 0 2 2 1 0 0 1 1 0 0 0 0 2 1 3 4 1 2 1 3 2 0 1 0 0 0 0 1 0 3 0 0 0 1 1 0 1 0 0 1 1 0 0 2 1 3 2 1 3 2 0 0 0 0 0 0 0 0 1 0 1 0 0 2 4 1 2 0 0 1 0 1 0 1 1 0 1 0 2 4 0 3 1 0 0 1 1 1 0 3 0 1 1 1 1 2 2 1 1 1 0 0 1 1 2 0 1 1 1 3 1 1 0 0 1 1 0 2 0 1 2 0 0 1 0 0 0 1 2 1 0 1 0 0 0 1 3 0 2 1 2 3 0 2 1 0 1 2 1 0 1 0 1 1 1 1 0 1 2 0 0 0 1 0 0 1 0 0 3 1 0 1 4 0 1 2 1 1 1 2 0 2 1 1 1 0 1 1 0 0 1 3 1 1 0 0 1 1 1 1 0 2 1 0 0 2 0 0 0 1 0 0 2 0 0 1 0 1 1 0 0 1 0 2 0 0 0 1 2 0 1 1 2 0 2 2 1 0 2 1 1 0 0 1 1 1 2 0 0 0 0 2 0 1 0 1 0 1 0 1 0 0 2 1 0 4 2 4 1 1 1 0 1 1 2 2 0 0 0 0 2 3 1 1 1 1 1 0 0 1 0 1 1 0 1 2 0 0 2 0 0 0 2 0 1 1 1 0 0 1 1 0 0 3 1 1 0 2 1 0 1 0 1 1 0 0 1 0 0 0 1 1 0 0 1 0 1 0 1 1 2 0 0 1 1 1 1 0 1 0 1 0 0 0 0 1 1 0 0 0 2 0 1 1 0 0 0 2 1 0 0 1 1 2 0 1 0 1 0 2 0 1 0 1 2 1 2 1 1 0 1 0 1 0 1 1 0 0 2 0 1 3 0 0 1 0 3 1 0 0 0 0 2 2 1 2 2 0 0 1 0 1 0 3 1 0 1 2 1 0 0 0 1 0 1 1 1 1 0 1 0 2 4 0 0 0 1 0 0 3 1 0 0 1 1 0 0 0 2 1 3 0 2 0 1 0 0 1 1 1 0 1 0 2 0 1 2 0 0 0 1 2 0 2 0 0 3 1 2 0 1 3 0 1 3 2 1 1 2 1 1 1 0 3 0 1 1 1 1 1 0 0 0 0 0 2 0 0 0 1 1 1 1 0 0 1 0 0 3 0 0 1 0 1 1 2 0 1 1 0 1 3 0 0 0 0 2 3 1 1 1 1 1 0 0 1 0 0 1 0 1 0 0 0 2 1 1 1 1 0 0 0 1 1 1 0 2 1 1 3 0 0 2 1 1 0 1 1 1 1 1 3 2 3 0 2 0 0 2 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 1 1 0 0 0 1 0 2 0 2 2 0 2 1 1 0 2 2 2 1 4 0 0 1 0 1 0 1 1 1 0 3 0 2 0 1 2 0 1 2 1 1 1 2 1 1 2 1 3 1 0 1 2 2 2 2 1 1 0 2 2 0 1 2 0 1 2 1 1 0 1 0 1 1 0 0 1 0 1 1 0 1 1 1 1 0 3 2 0 0 0 1 2 2 0 1 2 1 1 1 2 0 2 0 1 2 2 2 0 2 1 0 1 0 1 0 0 1 0 2 1 0 1 1 1 4 2 1 0 1 0 1 3 1 0 0 0 0 2 0 0 2 2 1 1 0 0 1 0 2 0 1 1 0 0 1 1 0 2 0 1 0 2 1 1 0 1 1 2 2 2 1 1 0 1 1 1 0 1 1 1 1 1 0 2 0 2 3 2 0 0 0 1 1 2 1 0 0 2 0 0 3 2 0 0 1 1 0 0 0 1 0 1 1 1 0 0 1 0 0 4 0 1 2 1 0 2 1 2 3 0 1 0 3 0 1 1 1 1 0 1 1 0 0 1 0 1 1 3 1 1 0 1 1 0 2 1 0 1 0 0 1 1 0 0 0 0 2 1 1 0 1 0 1 1 1 1 1 1 1 0 1 3 1 2 1 2 1 2 1 0 0 1 1 0 1 0 1 1 1 0 0 0 0 1 0 0 2 1 1 1 2 1 2 0 1 1 0 1 0 1 1 0 1 3 0 1 0 0 1 0 0 2 0 1 0 2 0 3 4 1 2 2 1 1 2 0 0 2 1 2 0 2 0 0 0 0 1 1 2 1 0 0 2 2 1 0 2 1 1 1 0 1 1 1 1 2 0 1 1 2 0 0 1 1 1 2 0 2 0 1 1 1 2 1 2 0 1 0 1 0 0 2 2 1 2 0 0 4 1 0 1 0 2 2 1 3 0 3 0 1 0 0 2 0 1 0 0 0 1 2 0 2 1 1 1 1 0 1 2 2 2 0 2 2 0 2 2 1 2 2 0 1 0 2 0 0 2 2 2 0 0 0 1 0 1 1 0 2 0 1 1 0 0 0 0 2 1 0 2 1 1 1 1 1 1 0 3 2 0 1 1 0 0 0 0 0 1 1 1 1 1 0 0 0 0 2 2 2 2 1 1 2 3 1 3 0 2 3 1 0 3 0 0 0 1 1 0 0 0 1 1 1 0 2 1 0 0 2 0 1 0 0 1 0 2 0 0 0 0 1 2 0 1 3 1 1 1 2 0 0 1 1 1 1 3 1 0 1 2 1 2 0 0 1 0 1 0 3 2 1 1 2 0 0 0 0 0 1 0 1 2 3 1 0 0 1 0 1 1 1 1 1 0 0 1 0 2 1 1 2 1 1 0 1 3 1 0 0 1 2 0 1 0 0 1 1 0 0 0 1 0 1 0 2 1 0 0 2 1 0 0 0 2 0 0 0 1 0 2 0 0 0 1 1 1 0 0 0 1 1 0 0 3 2 0 1 0 3 0 0 2 1 1 0 0 2 0 1 2 0 0 0 1 0 2 1 1 1 1 0 1 1 1 2 0 0 1 0 1 1 2 1 1 1 1 0 1 0 1 1 5 2 1 2 0 1 2 0 1 1 0 0 1 0 0 1 0 3 1 0 2 1 1 2 1 0 0 0 1 2 1 0 0 2 0 0 0 1 0 2 0 1 0 0 0 1 0 0 1 0 1 3 0 1 0 0 0 1 1 0 0 1 0 0 2 2 0 2 0 2 0 2 0 1 0 2 1 0 1 3 0 0 2 1 0 1 1 2 2 0 1 1 1 1 2 0 1 0 0 1 1 1 2 2 0 3 0 0 0 0 0 0 2 0 0 0 0 3 1 4 2 2 0 0 0 0 1 1 0 1 1 0 0 0 1 0 0 1 1 0 0 0 3 0 0 1 0 0 0 1 0 0 2 0 2 1 2 3 2 1 1 1 2 0 2 2 2 1 0 2 2 0 1 2 1 1 1 0 1 1 0 1 0 2 1 0 0 1 0 1 2 0 1 2 0 2 2 2 1 0 2 0 1 0 0 1 0 1 1 1 0 0 0 3 0 2 0 0 1 1 1 1 1 2 0 0 0 2 1 0 1 0 0 1 1 0 2 0 1 0 2 2 1 3 1 0 1 0 3 1 1 0 2 0 0 2 1 1 1 0 0 1 1 0 0 3 0 0 1 2 0 1 2 1 2 0 0 0 2 0 0 0 1 0 2 2 1 0 0 0 3 1 3 1 1 2 1 0 1 1 2 2 0 0 0 1 1 0 1 0 1 2 1 1 3 0 1 0 1 1 2 1 1 0 1 1 1 1 2 0 0 0 0 1 1 2 0 0 2 0 0 0 2 3 0 1 1 2 1 2 0 2 0 2 1 1 1 1 1 0 0 0 1 1 1 3 0 0 0 0 0 2 1 2 1 1 0 2 0 1 3 0 0 1 0 0 0 0 1 1 3 1 0 0 2 1 0 2 1 1 1 1 0 0 2 2 1 0 0 0 1 2 0 0 1 0 0 0 1 3 0 3 0 1 0 2 0 1 1 0 1 1 1 0 0 1 1 1 1 1 1 0 1 1 1 1 0 1 2 2 0 1 1 1 1 0 0 1 3 2 2 0 0 2 1 1 1 1 0 1 0 1 1 3 2 2 1 2 0 0 0 2 0 0 0 0 0 2 0 0 2 0 1 2 0 0 1 1 4 1 3 3 1 1 0 3 2 1 1 2 0 1 0 1 2 0 2 0 1 0 0 0 2 1 0 0 0 0 1 1 2 0 1 2 0 2 1 0 3 1 1 0 1 0 0 0 2 1 3 0 1 1 0 0 0 1 2 2 0 0 0 1 1 0 2 1 2 0 1 1 0 0 1 1 2 1 3 2 2 2 1 2 0 0 1 0 1 0 0 0 3 2 2 1 0 2 0 0 2 0 1 0 0 1 2 1 0 2 0 0 2 0 2 1 0 1 2 2 0 1 1 2 0 0 1 1 1 1 2 0 1 0 0 2 0 1 2 0 1 0 3 2 1 1 1 2 1 1 0 2 0 1 1 0 2 0 2 1 3 1 1 0 0 0 2 1 0 0 1 1 1 2 0 0 3 1 0 2 2 0 1 1 0 1 1 0 0 0 0 0 1 1 1 0 1 0 2 0 2 0 3 0 1 1 1 2 0 1 0 2 1 1 2 0 1 1 0 0 1 1 0 0 2 0 0 0 1 1 1 1 0 2 1 0 1 0 1 0 1 1 1 1 0 0 0 3 1 0 1 0 0 1 1 2 3 0 1 1 4 2 0 1 1 1 1 0 2 2 4 2 1 1 1 1 0 3 2 0 0 0 1 1 2 0 0 1 1 2 2 0 1 2 1 0 0 2 1 1 0 1 1 1 0 0 1 0 1 0 1 0 0 2 3 0 1 1 0 1 1 0 1 0 0 1 0 2 2 1 1 2 0 0 0 0 1 3 0 1 0 1 0 3 0 2 0 1 3 0 0 0 2 0 4 2 1 1 0 1 2 1 0 1 0 2 1 0 1 1 1 2 1 0 2 1 2 1 1 1 0 0 1 0 0 1 2 1 1 0 1 0 1 0 2 0 1 1 0 2 1 1 2 0 1 1 0 0 1 0 2 2 2 1 0 0 0 1 1 3 2 0 1 0 1 1 0 1 1 2 1 0 1 1 0 1 0 1 0 0 1 0 0 1 1 2 0 1 0 1 1 1 1 0 0 0 1 1 3 1 1 1 0 0 3 1 1 1 0 1 1 0 1 2 1 1 2 1 2 0 0 1 2 0 0 0 1 2 1 0 0 0 1 0 0 1 2 0 1 1 0 1 0 1 0 1 1 0 0 2 0 2 1 2 0 0 3 2 0 0 1 2 0 1 1 0 1 0 1 0 0 0 0 1 3 0 1 1 2 0 1 0 0 0 0 1 1 2 1 1 1 2 0 1 1 1 0 1 0 1 1 0 1 0 1 0 1 1 1 2 1 0 1 1 0 2 0 0 3 0 2 0 0 0 1 3 3 0 0 2 3 1 1 0 0 0 0 2 0 0 0 1 1 2 0 0 1 3 2 0 0 0 0 1 1 1 0 2 0 2 1 0 2 0 1 1 0 1 0 0 0 0 2 0 1 0 0 4 2 1 1 1 0 2 0 1 2 2 1 1 2 2 0 0 0 0 0 1 1 0 2 0 4 0 0 1 2 0 1 1 1 1 2 1 2 2 1 0 2 0 1 1 1 1 1 1 2 0 0 2 3 0 0 1 1 1 1 1 2 1 0 2 1 0 0 1 0 1 0 1 1 0 2 0 0 0 1 0 0 0 1 1 1 0 1 0 1 1 1 3 1 1 1 1 2 0 0 0 2 0 1 3 1 1 0 1 0 1 2 0 0 0 0 0 0 1 3 2 1 0 0 1 2 1 1 0 1 0 0 2 0 2 1 2 0 3 0 0 2 1 2 1 0 3 0 0 2 2 2 0 0 0 2 0 1 1 1 1 1 0 0 1 2 1 0 0 0 0 0 1 1 0 2 0 2 1 0 1 4 1 0 2 2 0 3 1 0 0 1 2 0 2 0 0 1 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 4 0 1 1 1 1 2 1 2 0 2 3 1 1 0 3 1 0 1 0 0 1 1 2 2 1 0 0 2 0 1 0 0 2 0 0 0 0 0 2 0 1 0 2 1 0 2 1 1 1 1 0 0</t>
+    <t>NIG(36.99353194198357, 17.815179206204274, -0.9990717046850084, 41.185558851689855)</t>
+  </si>
+  <si>
+    <t>20 24 31 13 27 17 27 34 19 22 23 31 17 17 27 10 23 27 24 13 13 27 20 20 7 14 14 21 20 35 27 30 10 20 28 20 23 14 20 20 31 27 38 17 16 17 13 17 21 11 31 13 45 21 17 34 7 14 23 28 30 20 20 29 3 24 29 31 20 27 13 28 20 31 17 20 33 38 29 31 24 13 21 24 3 27 17 24 20 14 17 21 31 27 26 35 17 17 17 21 23 31 23 24 23 17 17 44 23 13 41 12 20 32 27 31 26 31 32 23 35 42 14 29 17 28 31 10 24 20 21 14 24 17 26 24 24 20 30 20 27 21 24 27 14 38 14 24 23 30 31 20 31 21 30 21 16 31 17 9 24 18 36 16 36 9 21 10 17 14 14 10 24 7 20 30 21 13 27 24 20 17 24 21 31 13 33 20 13 13 30 7 24 27 27 13 17 16 13 31 27 20 24 20 14 16 38 30 17 27 19 30 20 14 6 14 14 28 35 30 28 23 24 24 14 27 14 30 21 13 17 12 13 13 30 24 7 17 6 15 21 17 31 19 20 14 21 37 14 17 27 26 30 12 17 20 27 20 37 9 18 23 34 31 19 24 13 23 10 20 21 13 19 17 7 17 16 28 18 14 10 28 22 18 21 38 34 23 31 27 14 27 31 31 5 30 62 20 19 28 19 19 24 28 10 27 16 6 24 31 17 24 6 18 22 17 27 21 22 27 24 20 17 16 17 27 26 20 7 14 22 30 28 28 21 42 13 16 6 15 26 38 13 21 14 14 14 20 14 20 10 41 3 17 17 15 20 9 20 22 27 30 29 24 24 3 47 13 28 20 24 20 35 10 31 24 23 12 17 21 27 10 13 17 13 25 17 17 23 24 23 14 23 10 24 16 7 33 20 17 27 17 24 27 27 10 24 24 19 21 31 35 14 24 13 24 16 27 17 10 17 24 23 23 16 41 41 16 22 24 13 21 12 16 19 10 38 10 42 24 40 20 20 13 27 23 34 7 24 17 22 13 35 31 24 20 20 24 24 20 27 17 24 31 14 17 17 37 26 31 22 17 21 27 31 20 27 17 16 19 16 20 24 19 24 3 10 21 24 24 34 24 24 31 24 34 21 10 26 21 23 10 29 13 28 13 13 16 17 28 6 27 21 27 7 20 12 17 20 19 14 20 21 17 7 17 29 27 27 6 19 13 13 13 17 42 16 27 20 34 24 9 34 20 17 17 27 13 35 23 20 38 33 30 24 20 22 38 30 9 34 17 28 26 9 37 21 24 20 27 17 24 20 21 17 10 45 16 6 19 10 22 24 25 23 33 8 25 31 21 23 24 10 34 14 23 31 38 23 22 17 16 31 24 34 24 23 20 27 27 13 23 14 20 23 10 23 24 12 27 17 27 19 17 30 34 42 17 38 31 35 34 17 17 14 22 20 10 30 24 28 15 15 33 13 10 37 20 24 24 24 13 27 19 41 27 10 23 16 21 10 28 14 20 21 13 17 24 29 37 18 13 23 17 30 17 26 9 35 28 27 20 34 20 15 19 30 28 0 24 23 24 27 41 27 17 20 10 16 14 14 24 9 27 27 27 23 24 34 13 6 20 34 17 27 16 30 13 27 41 25 15 16 20 12 38 13 20 27 16 21 17 31 17 44 21 20 33 16 14 27 17 6 24 23 19 35 34 28 45 23 6 38 21 21 17 29 24 13 17 24 13 20 20 12 13 30 7 31 16 20 24 30 17 16 27 45 20 21 10 23 20 3 26 23 34 13 23 28 20 22 31 9 14 17 19 16 21 22 21 9 27 13 26 21 23 33 21 15 33 22 21 38 23 20 7 28 10 21 24 16 10 23 35 13 23 22 6 19 3 31 27 10 38 20 21 24 17 26 20 27 14 20 38 14 21 23 19 24 35 18 30 24 19 19 16 27 7 24 10 30 24 21 34 20 10 26 23 13 9 23 26 17 17 27 18 21 24 24 32 19 21 13 17 20 34 28 24 27 13 9 14 18 25 20 19 21 28 21 3 10 17 17 31 21 24 24 24 12 30 30 13 27 38 23 16 10 6 30 24 14 28 35 34 24 23 34 16 42 17 10 15 16 17 26 30 24 23 20 13 21 31 34 17 17 41 14 26 28 31 20 28 24 23 29 19 21 27 30 31 23 21 13 41 17 17 30 20 24 17 20 7 34 34 17 30 19 30 21 20 17 10 13 27 13 36 20 13 17 13 19 20 26 20 26 27 17 27 16 27 14 17 13 12 23 17 21 28 17 17 13 20 31 14 3 10 16 38 37 24 21 31 20 8 28 25 21 21 37 27 38 17 25 20 16 34 37 26 17 20 27 20 27 28 10 21 26 16 17 17 21 26 23 17 37 24 16 34 7 19 20 28 17 17 13 24 23 3 26 34 30 24 20 30 10 20 28 26 24 28 31 19 14 24 26 23 16 41 34 10 10 23 16 20 17 23 25 28 34 21 27 44 19 17 26 27 26 20 21 27 25 6 13 10 28 21 23 31 20 17 27 16 25 13 20 16 20 24 34 16 22 40 24 19 17 10 45 23 13 3 22 33 7 17 0 40 7 10 23 27 27 17 2 20 30 11 26 23 18 23 13 12 38 24 17 17 16 27 20 21 31 13 15 7 19 18 20 42 30 10 20 28 23 31 17 24 15 19 3 23 14 36 12 17 9 10 15 33 20 10 19 24 31 17 10 24 26 31 24 16 20 23 21 21 20 21 30 27 16 17 6 7 21 24 34 20 20 20 10 17 20 21 29 35 30 23 45 16 28 10 34 17 41 21 18 22 33 13 19 17 20 24 27 23 29 24 20 10 19 13 6 30 14 13 14 13 24 26 48 10 31 20 20 23 10 27 24 24 22 21 16 24 34 23 17 33 24 14 23 19 24 22 23 10 31 24 20 13 18 10 38 20 16 12 20 14 10 14 24 21 7 9 28 25 14 14 24 13 34 24 24 6 21 17 24 24 27 12 23 20 23 20 10 15 24 13 23 24 27 14 24 8 21 14 23 35 24 23 22 31 14 24 19 24 27 13 13 17 20 6 14 26 24 24 27 14 15 17 27 24 33 37 24 22 22 13 13 34 21 27 24 17 31 23 17 26 28 35 23 39 21 16 10 20 24 21 18 19 17 16 22 16 9 13 13 26 17 19 30 17 29 23 14 17 21 15 21 24 13 28 33 10 41 27 14 27 23 31 21 24 24 27 28 17 28 15 19 31 30 27 36 21 38 18 30 23 14 23 33 17 16 26 26 14 21 16 33 34 31 12 29 26 24 3 20 24 9 14 23 17 37 26 17 16 10 21 10 41 7 20 22 14 24 17 14 19 14 23 19 23 21 21 34 14 3 7 25 10 20 36 26 38 17 16 17 17 40 27 6 30 28 24 27 3 24 24 13 19 23 10 35 20 3 17 40 37 21 13 31 23 20 16 23 13 17 17 23 24 31 30 23 20 19 22 15 10 31 6 31 22 24 20 24 21 16 10 21 21 28 34 17 13 37 19 17 30 25 33 20 24 30 13 10 20 24 28 28 33 23 32 27 13 13 23 29 10 17 24 17 31 21 13 14 17 20 22 31 26 27 16 17 17 13 27 28 20 14 20 27 14 19 34 9 27 14 24 24 20 17 13 34 20 34 27 6 21 33 19 22 34 38 27 20 31 18 31 20 27 8 24 31 17 10 24 33 33 16 17 28 13 24 27 21 20 23 31 3 23 18 22 23 13 17 30 13 17 30 24 17 31 23 0 17 17 8 24 6 13 14 27 17 24 12 28 28 14 34 22 28 17 27 29 17 6 21 34 21 17 16 33 17 13 13 31 30 17 33 29 17 17 15 20 12 26 24 34 22 34 31 21 13 19 33 14 26 22 17 34 10 10 27 13 25 27 28 7 17 28 32 34 31 24 23 10 10 13 29 20 27 23 9 19 17 30 30 17 16 16 20 45 20 17 7 17 10 19 7 21 22 9 24 34 17 30 21 14 21 17 14 20 33 24 13 23 13 10 14 22 25 17 34 38 30 17 10 13 23 30 20 14 23 29 27 14 10 24 16 22 14 20 31 19 24 7 31 35 17 26 14 31 24 17 24 28 33 23 17 20 34 21 35 6 17 20 25 28 14 19 7 30 17 23 0 24 20 28 22 19 27 31 21 33 7 17 24 21 25 34 13 21 34 45 32 9 28 30 30 34 23 13 13 25 16 16 18 13 24 33 13 30 30 21 16 20 24 16 20 19 20 27 35 28 37 19 26 13 27 3 20 30 10 20 24 27 37 23 19 13 24 21 20 31 30 7 20 30 17 28 35 27 26 26 24 16 15 20 21 26 16 22 21 21 38 17 21 10 16 23 28 20 13 10 16 14 14 23 19 20 12 13 17 30 28 13 16 21 33 17 20 17 13 23 24 20 24 14 28 23 28 22 10 14 20 14 17 10 14 13 6 13 29 27 22 30 14 12 24 30 17 19 17 27 22 17 17 3 21 38 31 26 17 42 24 17 26 20 13 24 7 29 12 31 21 24 24 30 16 33 35 20 27 27 27 9 16 26 13 26 21 21 33 26 27 19 13 20 27 7 6 23 25 27 27 27 27 27 21 27 31 24 13 20 28 10 24 20 34 34 30 27 20 24 17 24 27 14 21 13 20 16 20 17 6 38 44 10 16 21 34 13 10 3 19 32 24 17 24 26 17 21 31 18 27 10 20 6 27 24 17 21 23 10 24 28 16 10 22 38 14 20 28 23 17 23 23 24 20 33 16 21 16 24 23 26 10 20 21 24 10 21 20 5 31 24 24 9 27 27 10 17 16 28 6 23 14 20 20 20 13 14 14 25 10 13 31 12 41 24 22 10 27 24 14 24 7 24 6 21 24 10 28 31 24 38 9 35 28 20 26 24 20 10 27 7 35 41 29 13 24 17 30 16 23 27 12 28 16 14 18 14 27 20 14 20 10 22 16 10 21 23 30 27 17 16 20 23 17 33 35 27 17 31 23 24 24 30 30 23 17 30 28 13 35 21 19 21 20 17 34 34 14 27 13 23 24 6 24 42 9 24 24 21 20 30 27 17 24 24 37 14 26 33 23 27 17 24 33 23 14 42 27 17 17 19 14 17 14 38 27 28 13 13 19 21 15 7 20 29 17 20 23 27 29 16 23 17 17 37 27 20 17 15 37 35 13 20 36 24 26 24 24 24 21 21 16 28 3 3 20 24 20 27 20 14 31 27 16 20 14 20 20 7 28 28 17 12 27 14 30 30 27 14 20 16 25 34 30 35 29 34 27 24 10 24 0 31 17 23 10 14 17 31 23 13 9 28 27 20 17 15 20 31 31 31 13 27 9 16 17 20 14 23 20 17 24 30 13 10 34 3 41 21 26 10 24 13 20 13 16 31 17 27 38 27 10 3 20 14 28 10 33 20 24 28 20 16 36 17 20 48 28 16 31 13 34 29 34 27 19 30 27 14 14 24 30 16 20 17 15 24 3 20 7 16 6 20 19 21 41 6 6 24 34 25 28 13 13 16 24 17 27 26 35 21 20 14 13 34 18 16 20 27 22 6 24 18 27 31 14 37 18 9 24 31 32 12 15 7 13 13 13 23 20 35 24 16 27 17 19 18 7 38 16 38 27 13 17 14 21 14 20 35 28 14 13 20 30 23 20 23 19 31 30 15 20 20 39 19 27 26 16 28 26 17 27 17 17 34 6 17 14 23 19 28 19 27 10 13 14 23 7 13 9 13 23 24 24 0 7 41 27 19 19 27 17 34 24 17 30 20 17 28 42 12 18 21 29 16 24 31 17 23 20 23 10 28 20 18 18 23 23 17 50 17 17 31 16 6 10 23 27 38 20 21 28 31 24 35 26 20 20 13 27 9 34 14 17 34 37 42 33 13 22 20 3 23 20 7 28 20 23 16 13 20 17 28 15 9 31 3 24 14 24 24 17 16 30 14 15 35 23 12 16 16 17 29 10 9 19 26 21 30 34 9 17 20 7 16 19 27 24 13 38 19 17 41 24 33 9 38 17 21 31 35 21 20 14 27 13 28 13 20 3 17 19 10 33 35 21 21 17 16 16 27 6 14 10 20 6 35 23 27 23 20 28 17 34 23 41 19 14 10 21 27 17 23 35 14 31 10 27 23 30 7 23 27 38 21 23 0 27 20 13 26 24 16 22 17 20 36 17 30 6 20 13 25 14 21 17 14 25 19 27 21 19 7 10 26 17 17 21 17 20 23 18 19 16 23 14 18 17 38 17 24 34 30 17 14 30 7 7 24 34 23 21 17 26 13 6 17 18 27 24 25 13 10 27 20 20 19 19 45 31 7 3 31 27 20 23 38 24 24 20 20 17 16 17 16 29 13 30 27 20 27 30 34 12 20 20 16 30 30 10 14 13 27 23 34 30 24 20 20 34 20 13 13 17 34 23 17 12 23 21 16 17 31 35 23 38 30 20 21 14 21 24 13 25 23 16 18 13 27 15 24 22 6 37 13 20 39 28 19 27 23 14 13 6 13 24 6 10 30 24 28 20 20 29 6 26 10 20 23 22 30 28 14 14 24 34 19 31 20 13 15 10 14 31 17 37 12 31 26 19 15 23 45 14 21 30 14 19 21 34 18 14 31 14 13 21 21 21 31 20 15 31 34 41 30 14 10 18 17 20 24 33 10 7 17 21 21 20 31 3 34 13 31 16 27 37 11 20 8 10 26 9 27 6 24 26 27 19 23 20 13 16 16 31 31 21 21 16 10 19 14 19 23 20 21 28 41 36 12 0 24 24 24 24 20 20 17 16 17 19 19 34 20 0 24 20 13 26 15 14 15 13 18 17 27 13 16 17 17 14 24 21 15 24 20 10 10 24 17 23 31 27 23 35 20 17 34 12 23 13 27 30 14 13 7 10 21 24 17 23 22 24 17 31 21 15 10 24 21 33 17 27 21 17 23 38 24 30 6 21 27 16 31 19 31 13 16 27 17 24 21 27 25 7 27 6 6 34 23 17 24 17 17 24 23 21 17 30 27 17 35 3 17 7 27 24 25 20 34 15 17 21 11 24 22 22 28 27 24 19 21 14 27 24 23 16 30 14 23 26 31 10 13 8 17 20 19 38 10 14 6 31 31 31 30 21 18 28 27 20 6 24 38 24 41 16 14 7 28 23 12 7 20 13 13 13 24 34 10 30 24 30 23 17 17 30 16 28 47 23 24 27 29 13 19 27 31 27 31 17 13 10 13 35 13 6 20 20 45 10 27 21 21 14 17 16 27 26 23 17 20 16 20 21 14 20 17 21 14 26 22 14 34 37 10 21 24 31 14 34 7 10 21 27 16 24 20 21 14 20 16 26 31 9 20 25 33 31 38 31 19 21 14 20 35 29 20 42 23 28 24 25 32 6 18 22 23 22 30 13 17 27 33 28 17 18 29 14 37 13 17 12 16 30 27 14 34 26 24 19 23 21 24 16 37 39 20 23 25 17 24 31 20 38 10 17 10 20 21 17 14 33 27 8 3 14 26 14 24 19 33 27 30 24 20 15 22 9 34 31 27 20 27 33 19 12 28 33 34 21 24 14 13 31 29 14 21 9 12 17 15 20 6 21 10 31 9 27 18 31 20 20 28 27 27 17 13 24 20 22 31 21 23 20 16 34 13 24 14 12 28 24 30 13 17 30 10 17 21 27 19 31 30 43 10 17 38 20 12 31 20 17 20 27 31 17 21 32 27 24 17 27 10 38 20 25 17 13 30 21 23 10 13 24 17 37 26 20 24 24 34 7 30 17 20 24 21 10 24 27 20 24 3 12 14 19 17 10 9 31 14 34 40 24 17 23 13 22 33 10 28 21 29 37 27 24 27 20 14 20 30 31 37 28 27 20 32 27 30 41 21 31 20 22 31 34 20 31 23 22 23 6 13 33 23 56 27 21 10 23 24 19 17 24 20 27 16 13 34 31 13 19 27 3 3 21 5 11 23 10 21 26 17 14 31 17 24 24 24 20 17 19 34 9 23 21 31 23 6 23 20 21 31 27 23 34 39 13 35 55 31 17 23 23 24 27 27 10 10 13 17 21 18 10 17 17 24 18 21 27 10 14 41 15 21 13 13 6 17 17 28 27 31 27 30 27 16 31 7 10 30 34 13 30 31 44 28 27 24 24 30 28 10 10 26 30 27 13 17 31 10 9 17 6 38 10 17 21 31 23 21 16 28 37 7 20 37 28 33 20 21 28 30 6 14 23 25 10 17 24 20 24 41 28 23 28 31 0 34 17 31 14 14 10 27 29 20 24 17 20 24 27 17 26 29 24 20 22 45 24 21 37 16 20 41 31 24 10 20 20 38 10 39 28 14 26 17 24 13 14 12 10 16 27 14 20 28 34 31 27 21 30 23 16 10 26 17 28 20 11 24 22 10 20 17 28 23 23 13 31 11 28 38 10 27 18 10 27 42 26 7 20 38 21 3 16 25 6 10 28 17 31 22 24 16 19 24 10 24 17 10 35 26 30 19 28 24 27 17 27 28 7 19 23 17 12 18 20 21 27 29 21 37 10 17 17 20 21 20 13 10 10 31 21 14 17 24 17 14 13 24 23 23 22 30 27 20 10 13 27 28 22 30 34 20 17 10 22 20 14 24 27 28 20 13 17 16 21 17 10 31 16 14 38 28 16 24 6 19 27 27 11 15 17 27 7 16 21 22 14 34 10 30 27 21 20 30 22 10 13 27 27 28 27 21 10 17 9 30 24 30 28 21 28 29 16 17 24 25 14 38 28 33 24 27 24 21 17 20 34 10 16 17 21 14 35 24 20 30 24 26 30 18 9 15 24 20 3 17 16 13 12 23 24 23 7 34 38 17 16 16 35 16 24 16 27 21 21 33 20 27 27 20 24 21 13 14 9 28 36 21 19 21 14 24 10 9 32 19 22 23 20 45 33 17 27 24 21 21 17 12 26 14 10 6 31 13 17 24 31 20 7 17 30 21 14 17 17 24 25 28 13 24 10 7 34 27 24 45 17 31 20 7 3 22 42 18 27 23 0 13 21 34 24 26 24 31 15 17 30 16 24 14 17 30 14 23 27 41 37 8 17 23 27 17 28 14 17 17 17 34 25 17 7 24 24 20 23 34 14 33 13 13 27 29 27 12 17 16 7 44 35 30 24 22 13 17 24 23 24 27 22 10 10 7 20 17 23 27 13 14 10 22 24 33 24 17 28 10 28 10 24 17 14 16 23 24 20 16 3 26 41 30 10 20 23 13 13 31 26 14 24 23 16 27 13 16 9 17 17 17 17 24 21 19 42 23 15 28 16 13 34 20 52 21 20 24 24 20 26 28 34 19 21 30 24 34 21 23 20 35 13 19 22 21 32 28 35 24 22 31 28 16 28 10 37 31 23 28 24 17 13 17 22 27 7 42 38 17 20 22 27 20 27 15 22 28 13 26 33 17 21 20 14 45 31 14 30 24 13 13 10 24 35 30 24 17 31 31 26 31 13 17 31 24 28 7 31 27 24 17 17 16 23 42 13 23 17 33 17 33 37 17 29 28 16 14 41 10 22 21 20 28 20 34 7 33 21 20 13 34 21 12 41 17 13 16 11 24 9 23 27 31 17 7 24 20 13 17 20 19 28 17 20 37 24 17 30 23 13 34 40 20 34 21 24 23 27 20 16 17 28 22 20 15 24 23 14 17 17 24 10 20 27 17 24 27 20 33 30 20 17 31 7 24 23 21 16 31 13 42 28 17 28 38 3 9 14 26 21 20 24 24 20 29 21 14 16 13 34 30 34 37 27 24 19 24 20 20 16 19 31 17 22 7 20 20 20 10 20 38 13 17 17 14 40 29 17 21 12 23 30 17 24 16 41 23 22 13 34 40 9 29 14 37 14 20 17 31 3 34 29 10 28 24 6 9 16 42 24 28 13 24 17 30 27 9 23 34 28 24 25 20 24 19 17 28 30 27 18 27 10 17 10 28 20 0 12 13 13 31 19 20 16 38 24 34 19 20 35 29 17 33 31 28 35 0 17 31 19 37 38 30 24 34 16 17 23 20 14 27 23 17 24 19 16 17 23 27 24 16 24 24 23 24 14 13 15 17 17 20 13 24 14 19 3 24 27 27 20 17 22 30 24 24 21 13 13 28 19 13 17 20 27 21 29 33 13 27 9 21 17 7 6 27 16 17 15 31 16 6 24 13 21 17 34 13 10 14 17 20 22 9 13 7 35 17 9 21 20 6 10 38 17 24 24 23 19 10 23 27 33 13 37 17 19 13 17 13 7 18 17 17 37 12 35 21 21 17 17 20 24 9 24 20 28 38 20 27 30 21 23 7 24 27 24 24 42 6 3 14 24 15 40 24 18 9 41 16 21 20 20 23 24 28 31 41 16 16 24 16 20 23 22 23 24 9 16 10 15 10 20 20 24 23 6 28 20 30 19 13 28 21 23 38 16 27 13 10 21 22 10 31 13 17 31 19 17 10 18 30 31 35 24 28 23 16 21 24 24 40 15 27 24 6 40 27 28 17 14 21 13 24 16 18 34 17 7 10 13 20 25 19 31 11 16 34 23 37 17 24 34 23 18 20 28 9 28 10 13 23 28 13 24 11 21 26 17 17 27 10 20 17 27 24 17 13 9 34 13 3 16 21 12 27 20 23 31 17 23 21 10 24 31 14 17 16 44 24 7 6 28 24 26 30 31 17 31 21 27 33 20 15 17 27 33 24 9 14 16 24 27 23 16 27 20 33 14 10 3 17 37 18 27 20 38 24 17 24 24 24 34 42 10 31 21 6 7 17 10 24 7 17 0 24 35 24 30 15 7 17 26 29 28 14 26 28 31 12 20 20 14 23 3 30 30 20 21 27 24 17 31 22 17 22 20 21 17 13 28 18 17 16 28 10 12 6 23 24 17 30 20 21 13 20 20 37 7 34 15 7 19 20 23 22 32 24 23 35 26 17 21 28 20 23 17 10 23 16 38 30 11 31 10 27 22 24 13 37 19 27 17 20 13 20 10 24 13 21 23 7 30 17 24 14 21 27 20 20 28 15 10 38 37 24 13 17 24 27 6 27 21 15 16 3 16 6 19 24 21 13 38 17 27 27 17 17 29 21 17 28 12 26 28 21 21 16 6 24 24 32 12 17 14 20 10 20 27 30 33 16 31 29 14 23 26 16 24 17 21 34 20 24 21 27 18 21 17 27 17 7 38 34 31 28 37 6 32 7 24 20 24 27 21 33 10 20 37 17 13 13 16 17 23 29 16 14 19 38 17 23 27 17 10 42 10 16 9 26 36 16 19 37 26 41 33 17 20 30 10 16 34 12 35 27 41 17 30 24 21 23 28 20 15 30 17 16 11 13 14 20 41 9 21 14 20 27 23 17 36 24 28 16 17 26 19 28 9 21 31 17 7 17 28 24 10 23 19 6 20 23 16 12 13 17 30 27 7 24 10 22 19 24 21 17 30 16 16 27 30 20 16 16 38 9 13 19 34 22 13 24 33 17 16 17 20 34 16 20 10 21 36 28 27 19 23 14 14 38 10 30 22 15 34 16 17 27 26 20 20 35 23 10 20 29 7 27 31 20 15 13 18 12 27 27 27 21 28 14 26 3 27 16 20 35 24 17 27 14 0 23 14 17 24 14 14 30 18 3 15 28 23 24 23 18 24 17 17 24 24 10 17 19 12 9 28 10 20 24 20 21 17 20 37 17 17 37 35 20 10 24 30 14 40 10 17 24 17 36 14 15 23 38 26 38 24 29 15 22 30 19 17 7 26 10 21 6 35 14 24 16 27 26 26 13 22 27 14 16 14 20 28 16 6 10 30 20 19 38 31 18 17 20 28 10 13 27 7 35 29 23 24 14 20 15 17 17 9 28 6 23 20 31 25 21 21 34 17 16 20 22 21 28 24 24 21 29 24 21 23 27 22 22 11 16 16 3 13 24 17 17 0 17 10 13 20 27 20 28 17 16 3 27 21 29 27 21 21 10 16 26 23 24 34 21 23 14 20 21 17 28 13 10 26 20 23 20 24 15 14 24 15 24 17 20 38 16 45 26 17 16 31 20 24 23 20 50 30 13 23 14 24 34 28 27 34 16 24 17 28 21 34 24 23 31 17 30 29 6 23 20 20 13 20 34 14 8 31 41 30 24 9 18 24 3 20 21 27 20 17 14 17 17 40 11 13 20 10 14 17 31 17 16 48 14 10 23 30 27 39 34 17 24 24 27 30 20 34 35 10 20 20 21 17 17 35 21 17 21 20 26 35 17 21 28 20 7 12 35 11 13 22 14 7 20 44 20 35 21 13 33 24 17 31 21 19 19 6 24 23 31 31 10 13 16 24 15 13 24 23 17 31 20 13 41 17 10 12 15 20 27 27 20 30 21 24 41 10 24 17 24 21 19 45 20 32 16 28 38 34 21 24 17 28 24 41 23 23 13 26 23 23 14 10 24 34 6 13 13 33 27 45 20 27 13 17 27 27 38 15 21 17 23 20 37 23 20 20 7 16 43 14 37 17 35 34 21 44 28 23 17 38 13 13 10 26 31 31 21 17 27 26 24 13 24 23 28 23 24 37 45 20 27 13 32 25 31 28 16 17 19 6 31 6 16 15 22 16 20 14 13 14 28 28 34 28 28 31 19 14 21 27 34 20 37 24 24 26 16 20 13 22 10 10 27 27 17 31 28 14 21 7 28 13 0 28 37 20 19 14 17 23 31 26 29 28 37 24 17 21 25 13 10 30 23 30 31 17 21 15 31 20 28 20 21 17 23 24 22 24 6 30 20 28 19 20 13 17 37 21 10 17 26 20 13 7 23 24 31 13 23 26 15 21 24 9 20 16 20 28 28 24 20 10 15 16 20 38 45 10 13 20 31 23 29 14 35 26 16 20 10 10 17 6 24 13 21 23 27 16 24 13 41 21 24 23 38 24 30 21 20 23 23 24 20 19 14 17 24 25 27 28 27 20 30 42 3 17 28 33 23 28 27 34 21 19 20 38 14 10 13 15 17 17 13 28 17 19 30 15 33 24 35 28 20 38 17 27 20 30 21 28 34 22 21 25 24 9 21 20 19 20 24 24 17 31 38 14 30 10 27 30 26 17 10 26 24 26 22 17 27 27 28 14 31 7 7 27 9 38 29 29 33 28 20 24 38 10 9 13 10 26 26 27 16 27 6 20 29 15 20 17 19 20 13 17 20 34 24 27 10 28 18 27 27 17 13 16 10 15 23 34 23 27 28 13 23 10 12 37 21 20 22 10 24 17 13 17 20 27 17 28 23 27 23 17 17 29 21 34 25 25 17 24 15 13 27 17 17 20 31 16 7 42 37 17 29 23 27 14 27 30 20 31 10 14 23 6 36 23 27 23 24 28 19 33 31 20 27 24 28 40 13 10 21 14 24 24 24 27 12 10 9 17 20 15 31 31 31 13 15 13 14 24 13 16 23 23 31 20 42 21 23 35 7 23 18 28 31 27 24 25 21 13 23 20 16 23 28 24 13 26 17 27 27 24 24 12 27 12 20 17 13 19 37 24 27 29 13 10 19 42 26 30 20 24 21 24 28 33 34 33 14 17 17 23 34 19 31 26 14 7 13 8 17 17 27 11 24 24 27 10 0 24 10 27 19 14 16 20 17 28 19 17 36 21 10 28 24 21 23 12 37 17 15 21 30 6 13 25 17 20 29 20 27 23 24 27 31 20 20 34 31 27 17 31 20 30 37 11 37 27 13 15 21 30 34 12 28 30 10 24 24 19 3 24 22 20 21 24 27 29 31 24 47 23 21 16 21 20 10 17 31 17 24 24 13 27 26 24 11 17 19 26 28 30 6 44 24 17 22 16 21 31 14 22 23 22 28 14 16 36 17 16 17 17 54 24 28 25 28 26 30 28 31 20 24 14 19 13 26 31 37 25 26 12 26 20 23 27 14 17 17 23 31 17 28 28 30 17 13 19 6 20 16 11 24 27 23 20 27 15 27 13 17 21 24 16 10 6 26 20 24 22 27 28 16 11 31 25 31 16 31 24 7 20 24 17 27 14 33 13 22 15 17 24 21 19 17 27 20 13 21 26 13 24 3 20 21 35 21 19 20 27 20 31 10 10 41 30 16 17 31 10 27 27 15 26 13 7 6 6 19 30 14 6 40 20 24 26 34 13 27 34 17 23 21 29 19 34 24 16 34 17 14 21 31 21 29 38 13 38 24 20 24 28 28 22 17 17 13 21 13 10 21 31 17 10 30 27 35 13 30 16 20 41 14 12 22 17 12 22 34 35 26 27 21 28 24 28 24 16 31 20 30 23 19 13 0 34 21 16 28 10 20 23 23 17 14 48 10 14 21 23 21 34 17 24 31 7 10 16 17 27 21 10 18 20 37 21 9 26 21 18 26 26 6 17 19 28 13 16 28 23 24 40 17 27 12 12 10 17 35 9 23 20 28 17 0 26 37 19 22 27 18 31 34 20 9 42 14 31 15 16 34 26 27 2 34 21 23 17 20 31 24 7 27 10 30 14 26 17 14 21 24 28 17 12 28 24 20 27 17 21 38 19 10 17 20 9 27 3 28 26 13 27 32 14 17 27 10 22 17 27 20 23 16 26 23 19 7 24 17 26 31 16 35 30 14 14 12 10 27 20 27 30 30 17 10 18 16 31 41 26 17 16 24 34 26 27 15 13 31 30 25 20 20 34 19 34 7 27 16 7 21 34 20 10 10 21 31 10 20 10 52 35 17 34 28 10 6 27 28 18 14 10 7 31 13 22 20 21 10 21 21 28 22 17 13 27 23 32 35 3 21 10 23 23 18 30 20 18 28 29 16 7 17 7 8 6 16 27 28 7 15 23 13 24 17 41 26 31 13 28 31 28 31 28 23 15 10 27 14 13 29 23 9 20 24 10 20 34 31 27 30 20 36 11 14 24 27 27 28 27 17 21 13 17 38 0 15 16 24 21 26 27 20 31 15 49 3 35 10 13 17 26 13 35 22 39 17 14 16 17 21 20 10 35 20 28 27 22 14 23 28 18 20 21 27 14 42 21 34 28 17 38 13 31 17 7 23 17 20 28 28 7 9 17 14 24 16 34 27 31 24 24 33 20 13 26 17 30 27 13 27 19 6 13 20 6 30 28 24 20 20 15 13 19 30 6 23 43 23 13 27 17 31 13 17 20 27 24 33 19 17 24 20 34 6 24 32 15 24 34 16 28 17 9 27 28 30 27 20 27 16 29 31 27 27 15 31 9 14 27 20 7 10 13 20 30 33 6 28 20 14 20 12 26 21 33 16 24 38 31 38 15 7 24 13 23 6 7 27 3 12 16 45 12 12 15 22 7 17 18 24 35 7 29 21 33 37 22 40 21 13 20 12 19 16 28 10 3 23 31 23 35 35 20 24 8 17 15 20 22 13 27 37 23 33 19 22 17 27 17 3 21 22 18 10 34 24 14 34 3 24 17 24 21 26 20 20 23 34 6 38 21 33 45 17 24 41 30 17 21 24 14 13 17 24 34 23 33 24 17 3 28 20 14 16 20 19 14 26 29 17 8 20 20 39 20 17 12 27 21 27 10 34 34 23 3 24 22 13 34 11 27 13 21 23 30 28 20 17 20 14 27 23 24 21 26 24 24 13 23 0 21 25 30 6 7 17 21 29 19 20 10 24 23 24 23 17 30 9 28 17 31 24 27 17 27 19 24 6 27 31 9 26 7 26 35 23 20 12 24 21 17 28 21 24 28 3 24 27 13 26 19 25 17 13 16 13 21 24 28 13 27 22 16 21 23 13 11 20 10 28 10 10 31 29 27 24 17 37 14 19 16 17 27 45 17 38 16 31 13 17 34 17 14 30 13 23 14 27 17 24 21 16 16 20 42 21 14 10 13 24 24 21 27 27 35 14 26 23 17 11 34 14 24 24 10 19 18 23 33 23 16 40 41 24 27 17 23 13 22 24 27 22 28 21 13 27 31 28 27 25 35 14 19 13 30 38 26 34 19 3 20 14 13 17 42 33 29 31 22 24 31 6 20 23 13 24 24 20 42 31 30 7 7 19 20 17 24 37 42 36 34 20 37 19 24 29 20 6 23 24 22 17 24 24 23 34 7 18 16 40 21 10 10 14 14 21 26 20 23 24 13 20 19 17 20 16 21 31 41 13 31 14 17 27 31 24 26 24 27 21 30 16 35 6 17 34 23 6 19 22 24 26 23 10 14 20 28 24 7 10 10 10 14 33 12 23 13 23 17 23 24 24 14 6 24 24 17 13 35 24 26 16 19 30 23 37 24 27 31 23 20 21 10 22 15 28 17 14 37 24 23 14 17 16 29 31 52 24 34 24 42 23 42 10 27 23 31 20 24 24 7 17 17 23 28 42 19 23 16 27 20 33 24 19 16 6 31 34 19 27 28 20 35 27 22 17 12 38 29 34 16 16 26 21 3 20 13 22 30 13 24 34 20 19 21 30 17 31 28 16 20 21 28 37 27 20 24 20 45 14 27 20 42 19 19 26 31 16 21 16 26 6 25 17 42 17 31 0 20 19 16 21 14 16 24 10 16 17 21 24 17 42 34 9 29 17 24 28 16 42 26 16 10 22 21 17 17 17 23 30 3 19 34 29 23 21 13 27 24 12 13 20 17 10 12 7 14 10 27 24 27 21 27 22 13 10 24 24 14 10 42 14 21 19 10 23 24 21 27 34 23 35 16 27 20 24 35 10 12 18 23 26 21 23 10 24 21 9 20 20 17 20 19 28 17 16 26 22 22 17 16 26 13 34 26 17 17 26 17 20 24 27 17 20 26 35 17 31 41 24 19 17 14 24 30 21 42 20 3 31 24 10 21 13 23 14 28 17 24 6 20 13 31 21 20 28 19 17 21 22 22 24 32 14 24 15 20 19 30 21 16 27 31 20 34 45 14 29 23 24 3 16 21 3 14 14 32 16 23 19 18 38 29 17 23 27 30 13 24 30 31 30 15 28 20 17 31 20 13 17 33 20 15 31 31 23 27 9 17 17 34 20 28 30 24 20 31 24 27 6 42 27 13 27 10 17 20 31 16 30 17 23 22 35 10 38 35 16 23 17 6 24 9 10 34 24 13 24 21 23 28 23 9 27 24 17 14 30 3 28 42 16 28 30 27 20 10 7 29 27 29 34 14 23 21 13 21 10 17 10 27 13 20 6 23 26 27 17 19 21 21 27 20 13 10 17 27 24 14 24 23 22 22 17 17 21 9 20 41 24 27 13 31 23 21 16 31 30 21 10 20 30 28 15 20 20 20 3 27 9 10 19 42 31 24 31 26 47 17 17 14 23 37 21 20 24 20 16 24 17 19 35 13 28 14 17 24 28 20 27 16 28 38 24 41 17 14 14 28 14 22 31 33 30 9 48 21 41 20 22 16 27 9 3 19 27 22 13 10 17 26 24 13 19 23 24 35 23 6 23 35 13 28 28 20 16 13 20 17 17 18 28 27 24 20 24 38 27 31 23 20 20 21 37 20 17 38 21 13 10 23 3 2 23 21 24 23 24 38 17 20 26 17 28 23 22 23 27 34 21 13 21 28 16 21 17 20 24 18 16 24 24 19 30 17 23 20 17 3 22 9 17 19 20 9 12 14 31 27 16 30 26 45 12 34 16 34 20 9 21 20 44 20 21 23 23 23 24 24 27 27 20 38 34 24 10 21 10 34 20 34 31 17 42 35 24 21 41 20 10 16 13 18 17 28 16 14 31 19 10 24 31 31 7 10 7 28 3 14 38 24 23 33 38 25 25 23 17 17 27 20 34 30 17 27 10 13 13 31 23 23 27 23 27 7 9 20 27 17 20 20 24 23 28 10 31 20 31 13 23 20 27 7 10 10 11 8 23 24 31 10 27 41 27 10 17 31 21 14 27 10 17 31 34 20 30 24 17 17 20 17 9 16 24 16 21 16 31 23 21 17 26 16 10 23 37 37 26 30 28 23 21 16 27 24 24 16 16 24 27 21 27 10 20 24 23 42 38 19 16 31 24 20 21 17 32 10 18 17 14 28 14 13 14 24 23 20 20 17 34 19 28 26 21 17 13 20 27 17 8 24 27 10 7 24 27 23 30 21 13 24 24 21 13 24 9 6 34 3 34 17 17 30 14 17 30 20 28 23 31 20 25 0 31 23 23 28 33 15 9 27 13 16 23 17 31 20 31 34 23 20 33 17 28 20 10 18 14 5 26 28 10 34 30 31 19 12 10 19 9 23 16 17 14 21 20 14 17 27 14 17 37 20 14 9 35 20 20 30 18 20 30 18 24 7 21 30 23 26 22 17 10 19 17 30 28 20 28 7 20 31 17 16 27 10 27 14 17 10 20 13 14 45 21 13 38 16 31 27 27 14 30 16 13 24 24 20 21 17 6 20 17 6 17 17 44 24 21 26 7 21 28 20 23 25 14 27 17 31 30 23 40 31 10 24 17 12 24 24 21 9 20 27 24 23 11 30 23 16 17 23 30 23 41 21 19 20 21 12 7 25 9 36 20 31 27 22 17 23 23 20 25 23 16 34 3 20 14 13 27 28 23 13 26 26 26 7 10 20 21 20 27 16 23 27 28 23 52 30 20 27 23 20 16 37 22 22 20 19 17 13 17 20 26 27 23 14 14 33 16 26 20 30 14 31 23 31 27 28 25 20 14 13 24 31 36 13 16 30 33 27 20 0 17 38 34 21 31 13 20 13 32 37 23 9 10 20 35 24 17 20 14 9 14 37 35 21 21 40 31 20 48 16 17 26 9 38 6 31 20 16 21 17 16 10 30 23 9 10 27 27 24 23 28 31 17 24 37 16 21 17 24 10 14 37 27 14 24 24 10 41 19 7 16 45 20 16 13 21 24 31 33 27 30 20 13 31 13 24 45 31 16 17 13 31 17 33 16 18 29 28 33 20 14 17 20 10 24 14 20 28 31 31 10 20 27 21 20 16 17 40 24 28 19 20 24 27 37 0 38 28 21 29 14 20 12 34 16 34 24 34 17 21 10 27 13 20 29 3 16 20 38 20 20 31 21 21 30 21 17 14 14 17 19 17 27 34 3 16 13 10 23 17 29 24 30 24 40 13 28 17 14 24 9 19 26 17 23 17 21 20 13 27 10 26 27 26 10 31 20 23 24 21 38 27 27 13 17 10 34 21 24 31 24 26 26 20 27 34 13 17 24 13 31 28 19 19 13 17 13 16 13 17 24 17 17 31 24 16 19 27 24 25 0 24 44 31 23 17 26 24 20 0 19 13 27 19 17 21 27 40 19 17 14 14 16 31 14 23 38 30 20 10 10 23 13 26 14 28 26 19 17 20 14 24 20 34 28 19 23 24 27 27 38 34 22 23 19 27 27 14 37 26 27 23 31 25 30 27 21 24 17 31 27 38 28 26 6 13 13 24 23 19 19 9 20 16 23 17 16 24 17 21 9 13 31 10 25 14 13 20 28 13 13 30 23 19 13 11 24 21 21 41 6 21 24 23 16 23 17 17 27 20 28 12 27 27 13 17 13 30 31 30 30 14 28 42 16 0 23 20 23 20 23 26 20 26 30 30 19 38 21 9 27 20 28 21 20 24 28 12 14 13 27 19 26 22 27 10 36 38 27 21 27 9 14 16 13 27 26 10 35 27 17 27 15 24 38 27 17 17 16 26 7 15 14 23 27 20 21 34 13 17 20 24 17 20 18 15 20 38 33 14 17 19 10 31 27 22 7 27 30 17 33 7 16 24 24 11 9 34 3 24 17 28 24 29 10 17 17 24 10 23 16 27 9 24 35 27 13 31 37 19 30 47 19 41 12 18 10 41 37 17 24 35 24 20 14 13 30 29 10 22 40 20 42 26 9 34 17 28 24 16 41 24 31 20 24 6 31 37 41 28 24 27 26 13 41 21 17 7 18 21 21 38 7 35 24 34 24 26 19 40 24 28 31 27 26 18 24 33 23 13 31 37 17 18 20 31 17 16 24 34 13 17 22 20 27 21 24 23 17 12 6 24 23 27 20 24 21 20 12 19 23 20 16 30 17 13 9 20 23 17 9 29 10 17 10 20 20 23 20 22 33 20 33 23 24 17 20 10 31 17 30 13 15 23 27 10 14 7 31 27 16 10 24 33 14 23 20 9 13 30 21 16 28 14 23 24 17 10 21 14 24 24 41 16 31 9 17 14 30 31 28 23 23 28 28 24 24 24 3 20 17 21 31 21 28 22 27 30 19 9 16 35 19 24 38 13 14 35 34 27 38 30 24 23 17 23 28 24 14 30 8 31 24 24 17 20 24 35 13 42 34 10 13 16 17 31 21 13 30 20 28 20 31 21 20 24 14 21 17 19 25 21 17 23 3 9 42 31 13 17 28 31 20 33 13 20 17 23 16 19 7 6 21 26 13 18 20 21 21 31 24 24 13 27 13 20 20 26 26 21 21 24 34 24 11 6 25 19 19 21 30 27 13 16 27 31 31 17 17 38 17 31 30 17 19 27 17 12 26 24 18 26 28 23 30 41 24 16 17 24 23 23 34 23 31 7 38 41 10 27 16 21 24 16 31 20 16 17 23 27 31 9 31 6 24 23 24 31 20 17 9 6 20 35 17 20 27 17 17 21 24 20 24 17 28 16 6 0 20 9 21 21 26 13 20 17 20 20 10 47 7 27 10 14 23 20 20 28 10 23 13 31 31 30 27 32 14 17 21 31 31 27 23 30 6 10 14 30 30 31 17 16 27 21 31 20 19 13 20 26 21 20 19 13 7 10 20 22 24 20 23 16 31 24 17 6 20 31 29 31 20 20 34 17 31 17 21 14 34 34 17 10 20 32 24 19 21 26 14 20 31 24 17 31 42 23 13 20 7 14 20 30 14 38 21 28 23 12 22 35 28 20 20 10 26 27 30 26 33 27 32 28 33 31 10 21 31 18 24 13 9 51 27 24 34 20 26 27 24 14 17 20 28 30 24 12 21 26 27 33 27 20 20 14 24 35 11 23 20 20 21 44 15 17 31 20 21 16 20 13 17 21 27 27 23 7 16 20 34 25 20 24 6 16 13 3 35 17 10 27 27 7 10 20 31 23 11 28 14 21 31 20 10 13 24 20 30 18 31 20 30 20 33 6 24 13 17 31 21 6 21 28 31 21 16 31 9 33 34 17 24 10 24 19 35 26 13 27 14 33 20 17 14 21 24 12 27 21 23 27 16 24 10 23 31 23 12 31 27 35 21 32 25 17 17 30 19 20 27 14 28 22 21 17 14 14 23 28 13 10 20 30 33 10 36 13 13 17 16 28 27 7 9 10 24 22 31 23 34 13 24 17 21 25 21 17 17 17 22 20 38 24 30 34 28 21 21 17 24 9 29 15 17 17 20 35 44 8 23 20 37 10 20 10 31 14 20 18 17 7 17 26 25 23 28 34 24 19 19 23 6 13 13 25 34 21 14 14 23 26 23 23 20 6 41 34 23 23 24 13 24 20 34 29 27 31 22 20 16 14 17 17 30 10 20 36 31 28 19 36 17 21 21 27 24 17 20 20 23 21 30 40 17 30 31 27 13 16 13 10 20 11 21 31 17 26 31 21 14 25 10 24 30 28 28 20 29 27 16 33 27 24 17 27 24 27 6 10 16 21 14 27 31 21 24 26 23 23 20 24 30 28 24 15 20 10 20 24 20 19 27 21 16 20 31 21 24 16 16 17 24 27 21 16 27 13 12 7 17 22 16 24 34 31 27 20 34 23 38 20 19 37 17 28 15 45 20 35 15 12 24 7 24 28 20 24 10 10 7 24 26 36 24 27 25 27 35 24 24 16 24 26 10 31 24 20 31 10 6 17 18 31 22 29 21 14 30 24 14 16 27 14 22 27 35 20 17 21 33 7 7 9 7 26 21 27 13 14 20 26 28 27 41 38 24 33 17 37 30 17 27 26 29 31 14 21 31 18 28 6 27 27 27 40 32 20 20 14 14 19 44 31 23 20 19 24 20 17 26 35 24 24 13 10 6 24 19 30 36 15 17 21 24 10 24 17 17 21 20 24 33 26 20 25 21 24 17 30 33 20 24 21 10 24 14 13 21 23 13 20 23 31 10 31 24 28 20 14 30 20 14 16 14 38 17 17 20 24 24 17 23 41 29 20 16 10 38 34 24 24 7 10 20 13 27 24 9 16 14 27 27 7 17 20 28 41 31 23 27 20 3 38 38 23 24 23 21 24 13 24 17 22 34 34 31 31 17 26 21 20 21 24 34 20 13 10 20 20 24 38 31 31 27 27 21 20 17 20 10 23 58 20 30 23 24 35 17 31 27 18 20 10 27 30 16 19 24 31 9 14 41 27 24 8 31 35 14 13 42 20 18 23 24 17 20 20 17 14 20 24 24 20 27 19 29 22 17 10 20 16 23 20 32 27 14 17 30 10 13 20 7 16 30 17 20 20 10 19 29 10 11 21 13 27 20 28 28 17 14 10 17 28 28 20 17 9 36 28 10 13 17 17 20 17 0 9 34 23 9 23 17 23 17 3 31 24 23 19 10 16 31 27 24 23 10 13 16 7 21</t>
+  </si>
+  <si>
+    <t>NIG(141.89068645980066, 77.91963097487059, -1.6534036057611257, 40.03001898032452)</t>
+  </si>
+  <si>
+    <t>25 24 27 21 31 19 29 25 27 22 30 29 27 21 28 12 29 27 24 25 31 24 29 26 19 18 24 26 24 26 20 28 22 30 28 20 18 22 24 22 23 29 30 23 28 24 24 26 25 23 32 23 32 30 31 27 20 21 24 28 28 22 26 30 21 21 29 27 27 25 18 24 27 26 23 17 28 30 28 23 27 24 27 23 15 27 18 22 24 24 22 22 22 23 25 23 27 29 16 17 17 29 20 29 24 25 26 42 29 30 31 27 20 25 22 25 30 29 33 19 26 30 18 28 26 26 29 22 23 24 28 15 20 22 24 18 24 33 31 25 27 20 24 32 24 32 28 26 21 20 30 26 28 25 23 23 22 27 27 21 16 33 35 23 26 30 27 24 29 21 24 18 24 23 27 25 31 36 27 20 28 24 18 22 30 17 30 22 24 26 23 31 22 26 27 21 30 23 35 30 19 25 28 28 17 26 27 29 18 23 27 30 19 20 20 15 20 21 19 34 27 26 27 29 27 30 22 31 31 19 27 26 22 25 33 16 26 19 24 19 31 27 22 25 28 26 24 34 20 19 28 26 32 24 25 27 27 25 35 24 29 28 28 29 20 29 21 20 18 21 26 23 22 27 19 21 25 23 23 22 17 21 25 30 21 31 24 22 22 29 23 22 23 26 22 20 31 24 20 25 25 18 24 28 30 30 24 25 25 26 30 23 14 25 23 19 19 31 25 25 24 19 20 25 24 28 25 23 16 24 21 27 28 16 17 32 31 28 28 24 22 30 21 24 22 25 23 13 17 28 30 32 26 20 25 27 22 27 30 27 22 28 27 35 26 22 28 21 34 23 23 28 27 14 29 26 29 21 13 29 29 21 35 30 23 30 22 31 31 25 26 23 28 15 20 18 27 29 31 20 29 20 29 26 23 20 30 30 25 24 26 27 20 31 35 23 20 24 30 19 24 23 21 19 21 32 32 19 25 23 15 16 28 16 20 33 36 23 32 26 23 24 20 21 25 27 29 16 19 24 22 21 29 33 24 23 21 27 20 20 22 22 25 28 24 20 19 31 28 26 29 23 25 30 25 18 30 28 21 21 17 27 20 28 34 23 18 24 28 24 25 31 30 30 25 22 25 22 22 31 24 24 29 29 32 21 19 20 16 30 26 22 33 26 21 15 29 24 25 23 22 25 22 19 22 28 26 30 27 22 32 19 24 32 23 29 21 28 22 26 20 20 26 26 22 20 30 26 28 19 22 33 22 30 30 24 24 29 30 21 17 25 24 28 23 30 32 27 21 27 28 22 23 17 20 30 29 25 15 21 22 25 27 24 29 27 22 26 31 32 22 28 24 29 28 22 28 32 24 31 28 17 28 27 18 24 26 29 27 27 30 17 21 24 26 22 29 25 20 25 21 26 23 19 26 28 40 27 19 25 35 22 25 18 26 33 22 22 25 32 30 27 24 26 23 22 34 26 21 26 23 14 22 23 34 24 28 25 18 25 20 26 28 27 21 25 28 23 20 26 29 27 15 19 26 22 20 17 28 27 29 24 20 25 25 26 31 21 21 30 23 24 27 30 24 22 19 26 23 17 27 25 25 30 29 21 23 29 32 18 19 27 30 18 26 20 26 21 23 38 30 20 28 26 25 26 20 22 22 18 31 27 20 24 28 22 30 30 24 24 24 21 19 27 27 27 29 23 22 25 21 19 32 21 27 23 30 22 19 24 22 23 22 27 26 27 28 18 27 19 27 25 25 20 26 30 36 26 19 17 23 26 20 26 26 27 21 25 28 25 30 25 28 22 23 30 26 23 24 25 18 24 16 26 26 20 29 30 25 35 26 25 29 24 24 35 25 28 23 13 25 17 25 27 24 35 15 23 21 19 28 25 21 28 28 18 21 22 30 26 23 19 25 28 27 31 26 20 21 26 22 29 24 22 30 28 31 20 31 24 34 24 26 29 22 26 22 25 20 28 27 26 22 29 30 32 19 21 20 27 32 24 19 19 25 31 35 27 24 23 27 25 20 28 23 22 30 29 17 17 22 21 33 17 30 24 23 29 24 24 31 25 28 26 30 24 20 23 18 32 26 21 26 27 20 33 30 20 34 20 19 21 21 28 27 26 25 22 18 21 25 29 28 30 27 32 22 25 26 30 23 27 23 29 33 23 24 21 34 24 24 28 23 31 23 25 22 22 28 26 22 17 38 24 16 22 21 33 23 22 29 19 25 30 23 31 19 27 19 19 36 28 24 18 26 32 18 25 23 26 22 25 27 25 27 26 23 22 24 18 28 18 28 17 13 18 26 30 27 25 26 26 23 24 23 33 20 25 25 23 33 22 24 27 29 23 28 24 23 21 26 29 35 28 29 20 26 21 21 26 22 35 20 22 32 27 26 25 24 23 24 23 22 28 20 28 21 18 23 28 33 26 22 31 19 25 30 26 19 18 21 20 20 31 20 29 20 28 27 24 20 26 21 22 26 27 23 20 29 22 27 29 31 16 27 28 29 22 30 19 27 16 26 19 34 18 22 23 24 19 21 25 25 24 22 20 24 22 27 29 28 25 25 20 23 23 28 30 25 19 33 29 24 18 22 33 24 26 20 27 27 23 17 27 23 20 18 29 19 23 26 23 27 28 23 27 16 27 20 24 26 23 31 15 17 25 30 31 30 23 24 33 23 24 25 28 23 30 18 28 21 28 26 18 17 20 23 27 20 24 15 29 27 28 27 26 23 33 23 21 24 29 21 25 25 19 19 28 24 22 17 20 21 21 27 24 23 20 23 30 28 23 25 27 20 22 36 27 26 27 28 35 24 19 19 18 28 29 23 21 25 23 26 24 29 24 30 23 32 24 26 23 25 24 18 23 20 24 38 17 25 25 21 23 21 29 24 18 20 25 24 24 18 25 27 26 21 21 27 17 30 20 20 18 30 27 26 25 27 20 30 18 21 27 25 19 19 26 28 22 18 17 28 20 26 27 23 27 32 19 26 21 25 23 25 28 27 15 29 23 23 22 22 27 22 24 19 21 27 25 28 24 16 26 23 33 20 27 19 24 19 21 24 27 19 22 22 25 20 20 27 30 22 18 31 25 29 21 26 33 25 28 16 22 26 24 24 26 25 27 21 27 33 20 23 25 31 29 24 41 23 20 24 22 25 26 24 19 20 26 22 23 18 23 31 34 24 20 24 25 25 22 21 24 23 23 25 21 25 26 21 21 33 26 23 24 24 28 28 21 22 28 29 18 32 20 28 26 27 24 41 24 28 23 28 23 28 18 25 22 20 28 27 25 26 21 33 24 24 17 27 20 24 21 26 25 26 21 32 22 31 18 24 20 25 25 28 32 15 32 26 22 28 22 21 23 22 27 18 22 19 20 25 25 22 18 27 20 26 25 21 33 31 21 26 32 29 22 32 34 23 20 26 26 22 23 28 21 30 18 24 22 25 22 31 31 24 27 19 27 23 20 20 26 24 22 23 26 22 28 23 21 31 21 24 22 24 26 26 22 24 23 21 21 25 20 18 21 37 23 21 23 28 21 19 28 26 30 19 27 37 33 22 23 26 23 31 30 25 27 27 20 30 18 25 22 23 28 23 30 24 25 16 19 23 24 22 27 26 26 22 28 28 24 24 23 22 22 19 21 23 26 20 29 24 25 23 26 21 19 34 25 28 26 16 27 27 28 26 27 26 21 21 24 30 28 26 29 15 23 26 24 31 17 30 25 21 22 24 22 27 27 28 23 25 29 27 23 27 21 31 20 22 27 20 20 25 15 23 31 27 13 24 31 24 26 23 20 19 16 25 28 16 28 27 20 29 26 25 31 32 26 29 26 19 25 24 19 28 26 18 16 22 26 25 27 23 28 23 25 21 25 22 25 25 25 30 25 31 23 22 32 27 24 18 23 19 30 16 25 26 22 24 30 26 27 21 22 29 24 30 28 27 15 21 18 24 19 27 34 23 20 24 21 25 26 21 21 18 29 23 23 22 26 26 25 23 34 26 24 24 29 22 30 24 27 28 22 26 22 31 21 19 24 30 19 20 29 20 21 34 32 29 27 24 22 28 33 25 24 25 19 24 28 23 23 20 30 21 27 22 19 27 23 23 25 24 26 24 20 28 27 23 30 26 20 25 18 33 30 28 17 25 21 25 27 28 27 15 30 28 28 23 25 12 26 16 29 19 28 25 31 19 21 26 26 21 27 14 22 30 33 26 21 25 31 29 31 19 25 28 22 24 21 32 19 33 26 17 23 26 23 23 30 23 27 20 33 26 24 26 22 30 24 28 15 25 24 22 28 26 23 21 29 25 19 24 21 29 26 32 27 32 17 29 33 22 34 32 24 19 26 24 25 27 27 28 29 25 19 22 24 29 26 27 27 23 22 25 28 25 17 28 22 23 28 30 23 22 21 21 28 24 27 30 31 26 23 27 21 22 19 23 23 23 22 26 33 29 28 28 27 26 20 30 16 22 24 22 23 20 26 28 29 26 14 27 28 17 23 27 20 35 18 26 18 31 27 26 29 24 29 26 25 28 28 19 22 28 23 24 27 24 25 22 31 26 26 27 20 22 22 21 27 25 26 28 25 26 22 30 24 24 28 20 25 26 27 26 25 26 28 30 21 25 25 17 20 33 23 21 30 24 20 30 27 27 25 36 20 26 31 24 25 29 26 29 22 28 19 17 20 18 25 38 20 31 23 22 24 16 23 27 36 27 24 31 28 19 20 30 28 25 23 30 23 21 21 22 23 26 22 32 23 27 20 18 31 24 20 20 25 23 18 28 26 26 30 21 27 24 23 20 26 21 31 23 20 26 20 26 20 28 23 29 21 31 22 17 23 27 24 19 28 16 22 25 27 20 22 19 27 28 20 30 22 33 26 33 24 24 25 23 22 20 22 16 26 23 27 27 24 27 28 26 27 33 24 31 17 26 21 23 18 30 27 33 22 26 31 31 16 24 30 19 29 15 24 24 26 25 32 20 20 18 30 24 21 19 21 22 25 24 27 25 25 23 27 26 27 32 24 28 27 31 29 22 28 19 29 25 18 21 23 25 23 20 22 29 23 29 26 31 19 22 25 20 31 23 24 26 19 24 27 24 25 35 28 32 20 20 26 27 23 21 29 22 23 34 33 26 23 22 30 18 24 16 30 22 32 31 22 27 19 23 21 28 31 24 25 29 26 27 24 27 24 27 29 24 27 23 23 28 27 18 26 33 24 27 27 22 19 29 25 21 26 17 20 25 29 24 25 22 29 26 24 29 21 28 26 25 20 34 29 29 24 29 20 32 30 27 26 27 19 28 26 22 34 35 28 26 18 23 20 23 29 29 20 26 25 21 15 22 13 18 26 28 19 26 19 28 24 29 25 20 21 23 24 25 21 29 27 27 27 34 21 24 27 23 15 35 19 25 25 19 20 23 20 18 20 30 35 32 31 19 28 21 25 26 21 21 21 28 21 25 23 35 29 23 36 23 21 22 22 26 26 23 27 26 35 20 25 18 32 26 26 28 26 26 33 15 17 23 28 19 22 20 28 31 19 17 17 32 28 24 26 23 18 27 25 28 28 22 29 32 29 23 29 24 24 29 23 22 13 31 22 25 24 19 33 22 18 28 28 33 29 22 16 18 23 21 23 23 31 26 28 27 20 27 21 23 33 18 23 31 24 23 21 24 22 26 29 24 22 18 22 30 23 34 30 21 29 18 25 23 27 30 24 28 27 22 22 26 21 27 27 19 29 25 31 19 26 29 29 19 29 27 23 20 18 25 20 26 26 30 24 25 17 21 27 21 23 22 25 21 35 29 32 30 30 24 27 32 17 29 27 30 19 18 25 28 23 25 19 19 23 25 24 18 18 25 23 36 20 23 31 25 27 22 31 21 27 23 22 31 30 27 26 25 25 25 27 27 18 26 23 25 27 27 34 19 19 22 24 23 26 32 17 23 25 19 21 25 24 22 24 25 20 27 23 24 15 27 23 25 27 36 26 26 24 27 25 21 27 24 27 25 26 29 25 30 25 33 23 30 25 15 20 22 31 24 22 33 27 31 35 22 29 23 31 24 24 28 24 26 28 26 22 27 26 17 23 27 25 25 26 26 23 27 20 17 20 26 21 20 22 30 24 24 26 27 20 27 22 24 37 31 26 31 18 19 25 19 24 25 17 37 22 28 19 25 21 24 19 28 26 35 24 23 21 25 14 16 24 32 22 28 23 21 23 26 24 19 19 22 25 25 17 15 18 24 26 25 27 33 22 25 24 26 23 25 25 19 26 24 25 24 21 25 16 25 28 26 28 23 27 23 24 24 26 32 27 17 26 28 25 24 25 22 24 25 21 29 30 28 16 23 20 25 24 23 25 20 17 22 30 26 20 27 35 22 28 31 36 22 27 23 29 29 20 26 34 21 27 25 20 24 21 25 20 27 21 22 24 22 21 18 30 27 19 23 20 28 23 17 16 20 24 24 21 23 22 23 28 26 31 31 31 31 30 32 27 19 23 30 23 30 33 17 27 29 24 20 25 20 30 31 21 20 31 24 32 26 22 18 21 20 19 20 27 18 17 26 20 31 23 22 23 32 25 21 22 29 29 21 24 23 32 32 21 24 28 32 22 17 28 31 27 30 21 23 29 26 23 27 34 19 22 26 19 18 28 29 25 16 23 23 16 26 22 15 28 21 21 23 28 21 22 23 27 29 19 23 23 27 19 23 24 22 28 24 26 22 23 25 27 24 26 27 26 24 20 14 21 20 30 27 23 26 24 24 26 22 28 23 22 28 25 24 23 18 27 25 23 27 26 28 24 29 28 30 24 25 21 26 25 24 21 30 18 25 23 26 21 21 28 26 25 19 20 30 22 28 20 28 24 26 20 18 32 28 25 29 22 28 26 29 21 21 21 25 28 25 30 18 27 23 21 26 28 15 24 26 26 26 24 23 17 21 25 26 21 26 28 23 22 27 24 19 19 21 24 28 29 27 19 19 29 23 26 27 20 24 24 26 26 24 31 27 25 24 19 21 24 26 33 18 21 14 20 33 28 26 24 22 22 21 25 23 22 28 33 20 27 21 23 22 24 20 25 25 27 32 21 22 20 19 30 22 25 24 30 28 28 31 27 25 28 22 25 19 31 25 23 18 17 26 28 24 23 29 23 18 16 27 31 30 30 22 23 31 27 21 22 24 28 20 26 22 25 21 25 24 17 17 20 26 24 23 25 31 26 31 21 25 25 18 25 27 15 28 31 29 32 29 29 24 24 28 22 31 32 24 25 22 30 23 21 26 23 23 30 27 27 21 25 25 24 29 20 22 26 27 30 22 26 23 21 24 20 22 23 24 25 19 26 24 28 18 22 29 28 25 20 16 27 28 24 29 22 22 30 27 22 22 30 21 23 30 29 14 28 30 28 17 24 21 34 27 20 28 21 25 23 31 30 19 31 23 21 28 25 28 21 30 24 28 22 25 24 25 31 20 24 21 21 21 29 21 37 23 27 22 18 29 21 25 26 33 21 24 28 21 24 27 24 25 22 23 26 23 19 34 21 34 30 19 28 25 20 29 24 28 33 27 28 16 23 30 24 20 26 25 27 28 32 31 26 27 30 27 29 24 26 25 26 25 29 16 24 18 19 32 26 25 29 33 31 29 20 28 25 31 32 31 27 29 26 23 17 23 25 22 36 24 26 22 17 29 17 22 19 24 26 26 23 21 22 39 19 24 20 24 22 31 31 35 18 25 27 17 24 24 20 19 34 23 21 14 25 33 28 17 20 20 23 38 29 26 24 20 25 30 22 19 18 27 25 26 20 23 26 23 30 21 30 22 20 31 24 20 21 26 23 17 22 25 18 21 24 24 27 31 22 28 26 27 19 25 23 24 23 20 25 19 23 31 29 29 27 23 25 31 24 31 35 30 35 25 30 31 32 33 25 22 27 23 31 33 26 28 31 23 29 21 23 27 30 36 22 24 19 33 25 22 32 25 23 20 16 21 31 30 22 19 21 21 24 23 13 27 30 21 25 27 21 24 23 26 20 30 21 23 29 23 22 23 22 19 21 28 18 26 21 23 25 23 20 28 28 27 29 39 29 27 21 26 26 26 22 23 20 20 16 22 24 20 25 25 21 26 24 25 21 27 28 25 22 34 23 17 32 30 22 28 36 22 26 28 17 28 21 22 20 27 21 22 29 33 29 26 20 21 30 21 21 29 30 30 27 19 21 29 19 15 18 22 33 18 21 20 36 23 22 19 26 29 19 25 34 28 21 19 27 18 25 28 19 25 22 21 29 22 28 22 27 29 24 32 31 30 24 19 28 20 23 20 27 23 25 25 16 29 26 28 23 30 25 16 28 24 30 29 24 33 28 21 34 30 32 26 32 26 28 22 39 26 20 18 17 20 21 20 27 20 25 26 22 18 19 29 30 28 29 28 27 27 19 26 22 24 28 25 17 31 17 24 23 33 26 19 18 34 18 18 23 26 27 27 23 32 35 19 22 22 26 27 19 26 21 22 18 22 24 26 26 21 19 33 22 32 19 21 25 23 28 27 25 23 26 29 24 22 33 17 24 24 28 27 35 20 28 27 22 23 30 27 20 25 25 21 23 21 22 19 26 24 26 27 23 27 18 27 18 23 28 30 25 35 19 24 22 27 27 24 31 28 24 30 25 24 29 21 28 25 26 31 29 28 20 23 21 26 17 19 26 25 25 28 20 19 22 22 31 24 19 21 29 21 21 26 15 29 28 23 19 27 25 23 28 22 35 31 22 33 18 19 27 23 19 22 23 26 25 30 24 31 32 18 24 30 22 20 33 25 25 31 26 28 28 19 19 26 22 22 24 17 26 24 23 29 26 18 36 25 19 19 23 27 22 22 23 35 28 27 23 20 28 14 26 26 26 18 20 31 21 31 20 24 24 19 27 30 21 23 37 31 18 21 18 21 31 30 19 22 25 20 25 28 19 21 21 21 26 30 28 27 22 23 25 26 25 24 29 26 22 22 23 34 22 27 29 30 24 21 22 26 30 26 25 23 26 28 30 17 28 12 24 28 22 28 28 28 28 21 16 18 29 32 24 34 20 22 15 18 28 30 23 26 33 28 23 28 17 24 26 24 22 20 28 24 30 29 21 14 28 31 28 31 23 30 23 27 33 23 22 15 30 25 20 23 26 22 25 26 16 28 28 33 14 18 28 27 31 27 29 21 31 20 23 26 22 19 27 21 20 19 22 24 28 20 23 24 23 23 16 25 18 24 30 28 19 21 22 29 25 21 22 21 26 29 24 20 24 31 25 24 28 32 29 18 28 22 18 26 24 23 26 26 26 23 27 20 25 19 16 23 27 30 19 25 29 20 18 31 29 28 22 21 27 26 20 28 27 28 24 16 22 21 28 29 14 18 28 30 27 23 33 28 22 28 25 26 28 23 35 20 17 37 22 25 24 24 23 27 29 22 16 22 34 26 18 26 23 25 30 21 20 18 34 22 27 26 30 22 27 19 32 19 28 26 29 24 22 27 26 25 21 29 23 24 24 23 32 19 20 26 31 29 19 28 24 23 25 23 26 27 29 22 28 19 30 27 26 29 24 24 23 21 16 26 18 20 24 24 28 25 33 20 28 20 22 17 26 22 23 33 19 25 24 22 21 33 24 27 29 29 32 27 24 22 30 18 20 27 32 26 23 22 28 27 18 19 26 23 26 29 33 23 22 25 20 19 29 32 19 25 32 25 20 22 25 28 27 25 32 30 19 29 29 25 25 27 16 22 34 15 29 24 23 26 34 27 34 23 17 30 29 17 23 39 26 21 26 20 20 20 28 29 26 23 26 26 25 30 29 28 24 30 23 19 28 20 23 26 23 18 29 24 20 24 20 19 32 23 21 24 23 29 29 24 30 22 27 30 13 26 28 19 26 25 23 34 32 23 28 24 24 32 27 21 28 18 24 25 23 27 25 21 22 24 33 28 24 23 17 32 25 22 14 21 31 29 28 24 27 25 25 24 25 23 28 23 29 18 30 26 32 22 17 26 15 25 26 25 18 23 39 24 29 25 30 28 30 24 28 23 23 23 23 24 25 25 27 23 29 29 29 20 25 28 27 19 22 26 24 23 21 22 25 22 28 23 23 27 22 25 26 20 22 26 20 18 28 23 27 26 23 24 28 24 24 31 31 26 27 29 23 28 27 21 27 26 23 13 23 22 27 26 38 23 25 30 25 23 21 20 19 27 21 23 25 25 27 21 19 26 22 29 25 31 19 29 27 26 18 24 21 30 29 19 26 31 25 14 28 16 26 18 29 19 23 27 29 28 23 29 18 22 22 19 22 20 25 31 17 33 30 34 24 22 35 29 25 27 23 21 32 27 25 22 28 21 24 22 27 22 26 25 23 26 20 22 24 27 19 30 27 22 18 29 28 30 23 25 24 29 20 29 27 23 15 22 32 24 33 22 28 16 24 25 26 21 25 18 24 27 29 23 31 22 25 18 25 26 25 27 27 20 33 16 22 25 25 29 21 22 21 23 25 24 21 26 26 28 29 23 22 23 20 16 31 17 32 30 28 25 25 29 28 26 25 26 15 23 19 22 21 29 31 15 27 23 25 25 33 30 27 19 26 26 21 30 21 26 24 33 22 26 15 29 25 23 19 27 25 21 23 25 21 25 19 24 23 23 21 20 30 24 27 23 26 22 23 17 32 18 21 27 26 30 30 28 17 22 18 23 22 19 23 36 22 21 16 25 31 31 22 25 26 33 28 29 27 21 17 21 25 34 26 27 27 16 30 36 28 29 25 29 33 23 18 24 23 33 29 24 19 36 28 26 29 22 24 33 37 18 22 28 24 15 32 22 20 24 29 25 29 24 26 23 31 28 26 21 30 31 21 20 30 25 27 25 17 22 29 24 29 25 25 30 25 30 28 25 27 21 23 23 23 29 31 24 22 15 30 22 20 19 19 27 24 24 23 22 17 26 30 27 35 17 24 26 22 29 31 22 28 29 28 16 24 27 26 21 25 25 34 24 22 21 23 27 24 29 26 23 23 21 27 23 32 30 23 35 23 24 18 21 27 26 24 28 21 29 24 20 20 25 26 19 21 23 27 15 26 27 22 20 22 23 27 19 26 24 23 24 24 27 23 30 28 24 23 31 21 25 23 21 21 23 20 19 30 25 20 24 21 30 17 22 23 20 29 22 24 23 25 27 25 27 25 20 22 25 24 28 27 23 24 25 26 22 24 22 22 29 27 24 26 20 26 20 24 27 27 30 21 25 29 25 21 29 22 28 28 22 36 21 18 31 19 22 24 27 26 28 30 25 25 25 26 24 26 25 20 17 36 22 26 24 19 34 29 25 32 22 27 28 17 28 28 28 20 26 21 24 26 23 15 26 32 23 29 25 25 20 28 20 24 23 22 24 24 26 19 19 21 32 26 23 24 26 27 30 23 21 22 25 25 24 27 24 28 20 28 24 25 22 31 27 28 22 22 22 18 14 24 29 27 20 24 21 21 21 27 18 34 27 26 30 18 27 22 18 24 30 19 23 27 26 22 19 23 25 22 19 23 19 24 18 24 20 29 20 34 24 22 35 23 20 26 22 28 23 23 32 26 21 28 31 23 29 28 26 20 30 23 21 31 24 33 28 22 25 17 30 29 30 20 29 23 26 15 24 23 30 30 25 23 22 20 19 33 25 33 21 20 24 17 28 21 26 24 28 21 26 30 25 36 26 27 23 19 27 21 32 28 22 22 16 23 21 31 22 22 31 32 24 28 37 17 28 27 26 29 28 15 18 28 24 29 24 23 16 30 21 30 30 21 17 22 28 27 24 18 26 24 23 22 23 22 24 13 27 25 30 26 22 21 25 24 22 19 24 28 24 24 22 32 23 32 24 25 25 23 29 21 22 26 21 28 26 26 19 13 29 20 19 23 25 20 23 33 24 31 28 27 25 35 23 27 17 21 19 27 22 22 23 24 30 22 20 26 25 29 19 27 22 25 19 26 24 23 15 23 17 18 29 24 20 28 20 26 22 24 27 24 21 26 27 25 18 24 23 26 26 28 32 12 28 27 24 20 28 18 25 20 28 29 23 19 24 24 22 21 22 18 31 18 34 24 21 20 24 27 24 29 29 25 33 25 33 24 20 26 31 17 22 28 24 18 23 15 29 25 19 26 19 31 26 23 21 30 22 37 25 26 19 23 31 30 25 28 22 10 22 19 23 25 33 19 20 23 24 23 24 28 30 24 13 23 26 26 14 24 33 19 17 28 25 21 31 29 21 22 26 28 24 29 35 29 28 21 21 26 24 19 27 28 25 22 24 25 31 18 23 22 22 28 20 29 30 18 24 21 26 24 30 24 27 20 18 25 22 29 26 20 21 25 22 24 29 26 23 15 23 29 25 25 29 25 32 24 35 17 31 26 25 21 19 27 27 28 31 32 29 28 26 27 29 23 29 18 25 30 32 26 27 22 29 30 23 28 32 20 33 21 32 23 29 23 27 22 32 28 26 24 27 22 22 22 33 27 30 24 30 28 24 30 22 21 22 31 21 26 25 33 31 24 21 23 18 26 18 30 28 25 31 21 29 32 19 18 29 24 24 22 29 32 24 23 15 26 31 26 25 18 25 30 23 28 28 30 21 24 21 40 27 34 26 32 20 28 17 23 15 17 23 22 22 18 29 21 25 31 24 21 24 23 28 29 24 22 34 22 27 26 23 26 18 20 21 27 27 31 22 25 27 26 17 24 20 31 19 28 23 20 28 24 29 16 23 29 22 26 22 23 22 24 23 31 21 23 27 29 22 23 28 25 23 32 21 29 28 23 26 30 18 24 25 24 27 20 27 25 20 22 24 26 25 27 25 27 27 18 24 23 24 21 24 21 21 33 26 25 33 19 18 30 16 19 24 26 21 31 18 35 28 23 32 32 20 19 18 29 23 26 21 22 24 16 27 35 25 25 31 30 25 19 21 26 20 20 17 23 19 31 21 31 27 28 26 21 18 27 28 28 23 21 27 21 22 21 26 25 23 26 28 25 23 30 27 26 32 22 27 25 22 18 24 18 27 16 24 23 17 27 29 26 26 27 28 27 24 27 27 24 31 23 28 23 23 21 23 34 27 25 29 32 27 23 26 26 26 27 23 26 21 24 21 30 26 17 20 28 27 20 28 20 29 27 25 25 25 25 21 18 25 24 26 17 27 26 20 23 23 27 26 26 25 24 17 30 23 19 27 26 23 23 19 26 29 21 35 19 23 22 21 27 28 31 22 27 23 27 20 19 26 19 21 25 29 23 35 23 26 28 26 20 22 20 25 28 19 24 15 32 19 27 20 19 15 26 26 24 23 19 24 16 28 22 22 31 26 29 27 33 28 26 23 22 30 24 25 22 37 27 23 23 22 21 28 23 23 30 30 23 24 22 21 23 15 31 28 21 24 27 30 23 23 26 23 25 33 24 25 24 20 19 22 25 24 15 23 22 26 28 33 32 27 21 25 29 28 26 21 23 21 20 25 27 24 27 30 22 29 16 25 19 29 33 24 20 24 31 23 24 23 34 22 24 29 23 19 22 29 23 33 26 24 25 23 25 22 22 21 32 29 27 23 16 24 23 34 24 22 22 21 21 23 26 28 25 27 19 18 19 29 26 21 28 26 13 20 27 19 21 20 23 25 24 19 22 22 27 23 23 29 27 25 25 18 24 25 24 17 25 24 23 23 28 26 22 23 32 22 26 28 25 19 24 30 25 27 35 19 19 23 34 27 26 28 33 28 23 26 19 20 21 34 28 23 26 27 20 26 27 18 26 24 23 31 25 27 32 15 24 19 32 29 20 28 25 29 27 21 31 23 28 21 29 27 12 22 26 22 25 29 18 24 27 19 18 18 9 31 29 24 26 29 26 26 22 19 22 24 18 24 23 29 28 24 23 23 24 28 26 19 27 20 24 25 23 29 24 30 28 25 29 17 27 24 23 28 19 25 22 18 25 26 19 25 23 21 23 26 30 26 23 26 23 23 29 28 18 28 29 27 25 25 23 25 19 21 30 27 23 29 26 22 20 26 23 26 24 24 31 27 23 32 33 26 33 25 29 29 21 22 23 23 22 22 33 23 26 28 22 24 24 23 18 24 29 20 24 29 21 27 23 27 30 29 31 28 23 26 25 27 16 26 31 19 26 24 25 19 16 28 27 25 17 20 21 24 24 29 24 19 33 19 20 28 28 29 30 26 18 25 20 31 29 24 23 25 29 23 20 23 27 21 25 24 21 29 23 30 33 26 29 26 22 27 24 30 19 24 23 18 22 31 28 20 28 29 25 29 18 29 31 31 25 18 18 21 22 32 27 23 29 29 26 29 22 26 30 23 26 34 22 30 23 28 23 17 25 25 23 21 22 24 22 34 22 25 21 32 16 20 27 21 28 18 16 27 20 24 22 25 27 24 32 23 26 26 24 25 28 25 23 26 24 24 28 28 24 24 34 31 24 27 28 17 23 19 28 20 29 29 31 22 22 27 25 16 23 27 23 31 25 25 25 25 16 25 24 24 27 28 29 19 28 23 26 22 23 31 23 21 24 24 29 23 27 26 22 26 32 29 22 19 35 24 22 23 29 22 23 25 18 29 33 23 22 24 22 28 25 19 26 26 22 29 19 21 24 28 21 27 19 27 19 26 21 26 19 31 24 26 31 26 24 20 20 15 26 24 33 31 26 28 24 26 26 19 31 23 30 23 23 29 23 26 19 23 27 25 30 22 18 30 23 23 21 24 22 18 28 25 20 25 19 26 19 29 29 18 30 30 28 28 28 29 20 28 27 27 16 19 25 27 20 25 26 25 28 21 24 28 24 28 25 19 29 28 30 10 29 26 29 22 23 25 26 26 28 17 25 20 28 16 23 24 33 24 18 26 25 34 26 28 30 33 31 23 29 21 24 18 28 28 21 26 24 15 24 23 23 24 21 29 15 17 30 25 33 17 23 18 28 23 24 24 25 34 24 19 22 21 21 23 29 25 16 37 23 26 19 30 30 34 35 32 16 29 25 24 22 20 22 34 30 33 25 27 23 31 23 21 14 27 20 22 23 17 24 22 25 20 25 23 24 20 34 20 25 25 24 36 19 25 22 11 21 31 26 28 23 20 19 19 17 24 18 31 28 28 22 28 26 27 20 28 17 27 26 20 23 26 29 23 26 21 26 23 32 18 25 30 25 17 27 20 28 28 26 19 30 21 27 31 26 24 30 18 28 20 33 19 26 33 31 21 28 22 24 27 27 32 24 25 23 33 32 30 29 24 24 29 28 27 31 25 22 24 29 28 18 24 27 20 25 28 24 25 31 27 27 28 18 32 22 26 21 30 26 25 33 25 20 19 21 23 15 24 34 23 19 22 38 25 21 18 22 15 26 18 25 29 18 28 32 23 29 22 31 24 26 13 20 33 25 27 21 22 17 25 27 27 30 20 19 21 16 28 25 25 30 25 31 18 31 20 27 23 22 21 17 29 24 26 15 25 15 24 31 25 31 28 28 27 26 25 20 32 28 15 32 29 26 29 28 28 35 19 25 31 26 27 20 20 15 26 24 30 23 23 24 27 32 28 27 30 23 19 21 26 28 30 17 25 30 22 21 19 20 24 21 28 18 29 19 20 27 26 23 26 27 20 11 18 27 35 28 30 24 19 25 27 24 28 28 26 22 24 18 19 23 24 31 32 27 22 25 28 23 19 34 22 29 26 23 25 19 21 23 27 33 26 30 37 25 24 27 26 23 26 33 19 24 17 25 19 22 30 21 26 23 26 24 18 32 32 13 21 24 19 26 24 22 21 17 17 16 22 27 24 23 32 23 29 18 30 15 22 28 18 23 25 19 25 28 23 25 19 28 20 21 18 23 26 30 27 32 15 28 35 24 31 21 33 39 19 21 21 29 18 26 25 24 26 24 28 23 27 18 25 27 27 30 27 24 28 18 27 21 24 21 36 22 22 24 18 22 26 20 26 25 23 23 30 22 29 21 24 26 32 28 30 15 23 20 22 21 20 26 27 19 28 25 25 24 24 38 24 28 27 19 24 26 15 24 31 22 29 30 26 22 27 20 26 32 23 30 16 26 29 25 28 25 23 24 18 23 20 27 36 22 27 31 26 20 21 30 24 17 30 35 29 18 23 27 18 25 21 18 20 26 22 29 21 24 22 21 17 24 31 26 27 22 21 25 26 17 30 26 32 15 25 13 23 31 23 24 25 26 27 23 27 18 29 23 23 25 22 20 30 21 28 32 31 21 19 18 22 25 26 13 16 20 24 22 18 20 27 22 27 24 21 23 21 20 28 34 23 20 32 27 28 19 24 31 19 24 29 25 22 21 28 19 19 22 22 20 27 23 29 24 26 22 24 23 26 32 33 24 29 30 32 30 35 13 28 26 24 21 25 25 21 27 23 28 30 27 25 27 26 27 27 22 28 19 23 18 19 27 21 25 31 23 25 28 32 25 25 29 22 22 27 22 29 29 19 24 30 26 30 27 19 37 22 25 24 23 19 26 22 24 19 18 30 27 29 19 26 17 30 18 22 27 29 23 22 25 27 29 29 27 27 19 16 24 25 22 33 16 20 25 23 24 21 26 24 28 24 25 20 28 23 32 24 29 24 21 26 26 28 34 18 28 20 20 23 18 27 18 22 33 21 20 26 35 27 27 26 27 28 26 23 22 28 25 23 23 24 25 29 32 25 22 32 23 21 17 21 28 22 24 26 24 24 28 23 23 22 15 22 30 36 26 18 27 28 23 30 14 17 28 28 24 26 19 27 25 16 23 28 20 25 20 30 31 26 28 27 16 23 29 25 22 20 25 26 19 21 25 22 20 26 25 21 21 21 21 32 27 33 35 26 30 24 21 27 15 32 17 19 25 20 22 21 21 26 16 17 16 29 14 23 26 26 24 21 27 23 25 25 20 24 24 27 15 26 26 22 25 29 19 27 24 29 29 24 25 25 29 20 21 19 24 20 13 33 18 25 28 21 21 28 25 27 23 25 28 31 30 22 22 20 27 16 28 26 27 24 22 23 26 29 21 21 32 21 21 22 19 27 30 27 20 22 27 30 21 28 24 25 25 33 23 28 27 23 24 19 31 29 27 31 32 28 30 20 29 31 20 25 31 20 25 24 18 17 24 12 27 27 28 31 26 30 28 27 21 18 23 18 28 21 21 23 21 26 23 16 18 33 25 16 28 25 26 27 24 27 28 19 22 25 25 16 22 28 24 26 18 27 28 28 26 28 27 25 23 29 22 17 15 28 22 32 24 25 20 29 24 28 21 15 27 31 26 21 23 19 29 16 24 23 29 23 21 27 20 19 26 28 21 22 24 35 30 28 22 27 33 19 28 29 21 27 29 19 22 23 20 22 25 26 26 18 29 22 24 19 26 28 22 23 25 29 20 30 22 24 21 18 28 20 26 25 28 15 26 32 32 22 29 22 21 24 20 27 26 23 20 23 23 30 25 23 23 25 24 18 27 23 30 27 22 22 27 19 20 18 26 30 26 24 17 29 21 24 24 34 22 37 20 23 23 26 26 24 31 25 28 23 25 25 33 19 26 25 23 31 22 32 19 22 24 24 26 29 26 21 25 26 24 19 24 23 25 23 20 23 22 33 23 37 19 27 21 20 26 22 30 18 16 26 23 25 22 19 24 25 31 28 18 23 25 29 24 38 19 36 28 24 29 28 28 23 18 30 23 30 32 25 26 26 21 26 28 25 17 21 20 29 24 29 28 23 34 27 21 34 29 22 22 26 18 26 27 21 23 14 31 22 22 16 25 33 24 23 28 29 24 18 31 27 19 25 29 20 23 17 24 19 30 21 27 30 24 24 22 25 17 37 29 25 24 24 24 19 20 20 19 21 27 23 28 27 26 23 31 20 36 20 22 22 30 20 23 24 25 29 23 34 37 27 22 35 19 25 30 22 22 19 26 27 21 28 28 22 27 28 22 24 24 26 15 28 23 24 24 20 27 22 22 17 34 29 24 27 33 29 29 24 24 21 17 30 25 25 29 19 23 24 23 23 29 25 26 24 22 27 35 21 27 32 23 24 25 20 22 23 27 24 22 29 26 26 21 26 23 20 22 26 29 25 21 32 26 22 23 19 30 20 24 31 25 28 23 26 33 25 17 21 35 22 27 25 25 20 22 20 28 22 22 19 26 22 21 20 25 25 25 23 26 28 15 21 32 20 23 27 23 22 21 30 27 21 18 18 18 27 25 30 33 21 23 26 24 25 21 17 19 19 29 22 28 25 30 27 21 23 17 25 27 25 22 21 25 23 17 17 24 24 19 23 25 23 28 21 33 34 25 21 21 28 23 20 20 30 26 30 31 27 27 25 17 27 26 18 25 28 25 25 21 28 27 19 26 21 31 20 24 16 18 23 30 26 26 20 24 23 29 27 30 21 30 23 17 35 23 24 23 25 19 26 18 21 20 26 33 24 23 23 27 22 30 24 24 26 25 36 22 34 23 19 27 27 22 24 23 22 28 25 27 19 19 26 21 26 20 27 23 21 21 24 31 30 29 26 32 23 22 26 26 30 25 32 19 27 34 27 20 20 27 31 29 20 25 29 23 35 26 28 30 23 22 14 37 23 26 20 26 20 23 20 26 28 28 23 24 23 35 30 21 30 26 29 23 32 21 21 17 26 20 20 21 23 27 29 27 22 21 25 27 17 23 24 24 32 18 29 32 26 25 20 31 22 35 26 34 27 20 31 25 26 23 23 24 30 21 18 31 23 22 17 21 34 28 19 18 21 26 25 21 16 24 20 26 29 30 23 26 31 21 22 27 21 26 17 23 25 19 25 29 26 21 24 27 17 29 25 25 21 32 24 25 18 35 25 24 25 27 23 13 19 24 24 21 31 20 20 24 27 18 35 23 18 34 30 28 27 24 19 18 25 37 27 25 18 27 28 22 22 35 30 20 19 24 25 21 24 23 25 28 28 21 27 19 25 27 26 23 20 23 21 31 25 17 22 22 23 27 26 23 34 19 25 19 24 21 25 28 17 31 31 24 30 31 25 24 21 23 22 27 23 22 26 22 26 22 25 28 23 24 26 30 22 29 25 25 26 25 27 21 27 25 26 26 26 30 24 25 23 21 22 18 21 27 36 28 18 30 24 31 26 14 23 21 26 23 30 30 21 25 29 20 22 28 25 33 23 19 27 28 27 23 23 29 26 18 18 23 25 27 18 22 29 28 27 23 25 20 25 18 22 25 31 23 31 24 26 27 25 21 22 18 22 31 24 25 26 20 25 16 27 27 27 22 23 26 25 29 16 19 25 25 18 24 17 26 31 26 29 32 26 20 23 29 24 24 30 19 19 29 25 20 23 25 29 22 25 21 25 24 23 14 16 18 24 25 24 25 20 23 21 25 27 31 33 30 26 25 26 28 25 29 31 26 29 25 28 33 29 27 30 20 26 27 33 26 22 17 22 28 20 24 27 21 22 21 28 21 29 26 23 26 25 17 17 34 23 27 23 23 22 28 20 19 25 27 29 20 28 27 23 25 31 21 27 23 30 27 18 20 18 28 25 23 21 23 31 23 26 25 23 31 34 29 20 31 27 20 16 30 19 23 22 31 25 25 26 21 24 24 26 36 21 22 22 23 19 25 29 27 24 25 19 27 23 30 28 22 21 26 29 26 24 25 21 26 24 27 27 19 25 26 18 24 27 21 27 30 23 28 19 19 19 21 25 23 28 25 33 28 34 25 32 31 22 22 20 25 27 22 25 24 20 24 30 14 30 28 31 23 26 31 29 42 25 23 27 29 19 23 26 27 20 35 26 22 28 23 27 20 22 22 29 23 26 21 22 28 27 18 27 29 24 27 30 19 33 22 21 24 35 23 14 29 27 21 22 27 26 24 29 17 24 34 32 28 31 29 34 20 20 25 23 28 20 28 18 32 28 17 23 37 29 26 27 24 25 39 29 22 24 25 27 22 28 20 25 26 27 21 18 22 32 26 24 22 23 28 20 21 29 33 21 28 26 25 28 27 25 29 23 26 23 19 19 21 21 30 17 24 34 29 23 28 25 25 28 21 24 26 26 24 23 26 25 19 28 24 25 23 22 28 26 19 28 19 19 27 23 21 30 14 20 29 19 33 22 22 24 27 24 29 25 27 20 23 26 18 25 26 17 29 21 24 18 25 22 21 23 22 27 21 26 26 24 24 33 29 24 23 18 28 28 28 20 33 26 27 21 15 24 23 22 27 24 27 22 36 22 21 20 21 22 28 21 23 25 24 20 21 35 25 22 20 31 23 30 31 22 20 30 23 34 28 32 27 23 20 32 26 24 30 26 22 26 19 21 25 26 24 30 24 26 30 24 20 24 20 23 26 21 34 23 25 25 27 17 22 21 23 17 28 29 28 21 23 28 24 19 25 30 20 22 27 20 25 27 25 24 28 26 20 21 15 25 20 24 18 24 18 26 24 33 23 20 25 27 16 21 27 27 17 23 24 25 31 26 18 17 34 31 29 20 25 26 16 26 25 26 28 21 23 33 23 35 26 24 22 31 21 21 19 29 22 30 20 22 24 27 33 18 20 24 24 33 31 22 24 21 37 33 12 31 21 22 27 22 29 22 24 25 31 42 25 17 30 23 26 22 29 27 21 22 31 17 33 26 30 21 26 22 29 20 30 29 19 24 22 18 17 27 29 20 21 20 26 21 21 23 22 22 20 37 18 28 24 28 24 27 23 25 20 22 22 30 24 25 26 32 17 22 26 28 21 20 23 36 19 19 23 35 29 33 19 27 33 24 27 20 22 18 26 31 20 18 22 15 20 24 25 34 25 20 23 30 27 26 22 17 19 27 28 23 22 28 27 16 30 21 26 27 26 28 26 15 16 26 28 26 22 26 34 22 33 33 17 35 33 26 22 19 21 27 28 33 26 29 18 29 24 21 28 29 23 25 22 23 22 31 29 26 37 29 23 23 23 29 22 28 28 20 31 24 17 31 28 22 27 24 23 24 32 13 19 24 23 25 21 18 32 22 23 25 25 27 22 21 21 33 31 26 28 21 26 25 23 21 31 24 30 25 26 20 28 28 29 27 27 22 23 22 27 19 22 26 20 26 26 19 26 22 23 26 23 22 20 25 30 28 26 24 31 20 29 26 26 26 24 28 37 21 30 23 26 29 29 22 24 21 20 23 24 19 21 32 24 27 25 23 27 26 28 28 25 22 25 23 32 26 26 26 20 32 22 26 20 19 31 22 22 28 20 31 24 22 25 24 26 34 29 26 28 31 18 32 30 26 23 30 29 23 29 24 23 25 21 26 25 22 22 23 17 19 24 22 29 27 25 16 19 24 29 20 23 24 28 20 23 25 23 21 23 30 23 22 20 33 22 27 26 21 25 20 32 31 21 22 18 22 28 21 24 22 23 17 24 26 22 28 34 15 29 26 27 17 25 20 27 24 27 23 30 21 24 23 28 33 25 27 26 24 26 29 20 23 23 28 28 20 23 20 20 28 21 30 25 22 26 36 25 25 18 29 20 18 25 25 23 28 32 25 27 26 26 19 30 24 17 34 37 32 21 33 25 21 24 18 26 24 22 26 25 30 28 30 27 25 30 33 25 28 24 32 24 19 29 28 25 25 30 21 23 26 14 19 21 28 20 28 26 23 26 20 22 22 21 29 24 22 18 21 23 27 28 23 24 23 33 21 24 24 21 28 22 28 21 21 20 21 19 26 23 21 26 30 22 22 32 21 25 25 22 30 20 21 28 17 30 19 21 19 19 24 31 31 28 26 32 24 22 24 30 24 28 31 25 30 21 30 20 24 18 19 25 25 18 25 24 23 18 22 23 23 27 25 21 29 26 24 29 22 25 25 26 32 19 27 22 22 26 21 24 24 22 19 20 29 24 22 25 26 26 25 25 21 23 33 25 16 26 21 30 17 32 21 21 19 28 25 14 22 22 19 30 24 26 32 28 19 28 30 26 16 31 19 23 22 24 19 25 28 22 21 23 26 28 26 24 22 25 34 18 25 36 21 20 26 28 24 25 29 22 29 26 19 15 25 26 25 23 30 30 25 30 16 25 15 28 25 22 25 25 28 26 29 26 18 20 21 25 30 32 18 17 24 24 20 22 17 18 25 18 29 21 28 16 25 22 26 31 20 24 28 14 18 30 30 21 30 24 26 20 26 27 27 22 22 22 21 27 24 24 20 19 11 24 23 24 18 26 21 23 25 30 19 26 21 26 20 25 31 20 20 18 30 25 27 25 23 21 27 22 32 25 21 26 21 26 29 27 22 17 30 20 21 37 25 22 20 24 22 22 20 31 25 27 25 20 28 22 24 22 22 35 27 27 26 23 24 16 26 28 25 17 23 22 30 26 28 24 25 22 35 31 25 22 28 22 24 21 22 36 24 28 25 29 28 20 22 24 21 24 24 31 22 29 26 30 29 23 11 24 36 29 30 31 28 31 27 30 23 20 26 17 22 32 23 23 24 30 23 27 22 25 21 19 37 25 25 26 22 24 23 30 25 28 26 27 19 26 27 22 19 29 27 30 27 24 22 27 26 18 23 23 27 20 18 23 22 25 32 20 23 30 30 25 23 18 18 22 24 26</t>
+  </si>
+  <si>
+    <t>JSB(12.000331860944527, 8.648576343225123, -25.526252649172378, 303.9135042784619)</t>
+  </si>
+  <si>
+    <t>38 30 33 31 37 24 38 34 37 31 35 39 42 29 40 29 40 35 34 35 41 38 40 41 37 28 33 39 33 36 30 42 36 38 35 30 28 41 35 38 29 37 43 36 40 43 36 35 37 45 44 37 40 45 42 33 34 34 34 40 32 34 33 36 34 28 40 39 39 31 27 40 40 39 27 25 36 35 39 32 35 31 34 29 24 38 31 28 33 37 34 30 29 31 36 34 38 48 27 27 29 35 30 40 34 38 33 55 35 48 42 36 33 35 30 33 41 40 46 24 32 37 25 40 39 38 40 36 33 32 42 32 28 33 32 24 36 43 38 33 37 30 32 38 35 38 44 33 31 34 42 37 39 32 31 32 37 35 34 38 26 47 45 45 32 43 36 33 36 29 33 30 31 35 32 38 39 44 39 27 42 39 29 34 38 29 44 36 36 41 32 50 28 42 42 32 39 33 48 49 28 30 38 44 20 38 35 34 23 35 42 43 28 31 35 26 30 27 28 46 36 36 41 43 45 42 34 44 40 25 42 38 40 41 41 22 34 24 32 33 40 41 34 37 35 45 32 46 32 27 36 38 41 37 35 43 42 36 42 36 41 53 33 41 37 35 36 27 27 32 34 34 33 38 34 34 36 36 32 38 33 24 33 44 30 41 38 30 37 40 39 34 31 35 37 30 42 32 36 36 34 35 37 41 46 46 37 36 39 28 39 34 22 39 35 28 32 53 36 31 30 31 26 38 27 39 42 31 30 42 28 36 35 22 25 49 47 48 44 37 30 41 30 38 44 36 32 28 23 43 39 43 43 34 37 42 33 43 40 45 30 33 33 46 36 32 42 27 43 27 34 34 37 26 44 32 40 34 21 41 38 28 47 41 34 42 33 43 42 30 37 36 38 29 34 34 38 41 43 32 39 32 39 38 34 29 39 41 34 34 31 35 29 38 46 29 28 33 39 34 37 32 36 32 36 45 35 30 32 36 27 23 44 29 28 50 40 38 39 34 32 36 27 31 37 35 37 31 28 34 30 28 36 35 37 31 30 41 28 31 32 29 33 37 32 26 35 42 34 38 43 35 35 39 35 34 45 40 35 28 28 35 27 38 43 33 29 31 34 32 32 50 37 42 37 29 37 36 34 35 30 36 36 42 44 32 28 33 28 43 36 33 48 33 34 21 41 29 35 38 37 37 32 34 37 37 38 36 32 29 49 32 39 51 29 37 29 36 37 33 27 34 35 35 29 28 42 34 41 28 33 47 36 38 38 35 33 35 39 32 25 37 33 36 36 42 44 31 34 41 41 34 27 23 30 38 31 38 24 35 33 33 36 27 41 44 40 36 36 44 35 41 33 43 38 31 37 46 33 45 36 27 40 33 27 34 32 41 35 38 49 27 34 33 35 34 45 34 35 32 34 36 35 32 36 39 46 38 35 32 42 34 38 31 32 47 31 29 35 42 38 39 36 39 30 33 47 36 32 35 31 30 30 35 42 32 37 40 37 38 34 39 37 39 25 42 45 34 32 38 41 44 24 27 37 33 31 33 36 35 36 43 29 38 38 42 38 27 44 41 37 35 41 45 35 34 25 38 32 27 40 32 38 36 37 31 27 38 40 31 31 41 45 29 40 30 37 31 32 50 38 31 43 39 42 35 28 33 32 25 38 35 25 36 40 33 43 38 34 38 31 31 30 36 38 50 35 35 32 36 32 30 42 30 40 33 37 29 30 34 32 38 32 37 35 40 38 24 40 33 36 34 39 28 40 37 43 35 27 36 26 33 30 33 37 35 35 39 31 32 41 34 43 32 33 45 35 37 36 33 34 32 23 37 35 34 42 39 33 50 38 38 37 36 37 57 28 44 32 21 35 31 34 37 30 47 22 39 27 36 39 37 34 37 42 31 33 40 44 34 28 26 34 38 43 39 34 31 34 34 29 47 31 37 41 42 45 28 42 42 46 37 36 41 33 38 28 37 30 36 40 36 31 36 41 42 33 31 26 39 46 33 26 28 35 44 50 37 35 36 34 44 32 33 31 38 42 35 24 42 31 28 44 22 37 35 30 40 34 35 44 34 35 33 40 34 30 36 31 41 37 33 34 38 30 49 38 34 39 33 34 29 30 39 38 40 38 29 30 37 34 38 39 42 38 43 44 33 32 42 35 37 38 38 47 34 34 25 46 30 31 38 33 39 33 33 28 30 41 45 34 37 46 29 24 31 26 39 35 29 42 33 37 38 28 37 27 41 24 26 43 44 32 31 36 54 24 34 35 42 35 40 35 39 35 35 33 33 34 28 38 28 36 22 28 32 42 38 42 37 32 40 31 36 31 42 30 36 37 33 41 31 30 34 47 30 35 35 33 31 40 39 46 39 41 29 35 31 35 40 27 47 29 39 40 34 32 44 38 39 33 37 32 34 32 40 29 36 34 42 54 33 32 49 34 34 38 33 22 24 30 34 31 45 29 43 37 35 35 34 29 43 26 34 33 41 39 24 35 32 37 41 41 20 35 36 36 34 41 29 38 30 42 36 46 28 33 31 35 31 32 40 31 34 31 37 38 27 36 45 47 34 40 29 37 31 38 39 41 32 46 43 37 31 32 40 37 40 28 39 38 31 31 40 35 32 31 48 32 31 42 40 36 37 28 39 30 36 31 34 29 34 37 23 29 40 40 38 46 39 33 44 31 29 38 35 37 43 35 40 34 35 37 29 35 36 36 41 24 34 22 34 34 41 43 40 30 43 35 34 38 37 37 35 36 28 24 37 36 37 31 33 28 34 38 39 32 27 36 36 34 34 32 37 32 28 50 38 36 40 37 50 31 27 30 28 41 40 32 27 43 26 38 31 37 31 38 36 40 38 36 34 39 36 25 37 27 36 44 31 32 40 31 34 30 46 31 24 32 36 39 32 28 34 44 31 33 34 30 25 39 27 27 35 41 32 36 38 36 33 35 24 32 34 33 29 32 39 38 32 30 32 41 30 36 35 40 47 46 25 36 37 37 32 37 35 34 29 38 33 26 38 30 40 32 36 32 25 39 35 35 34 25 39 41 38 28 39 26 33 34 29 36 45 24 36 37 42 30 34 40 40 28 25 40 44 43 33 36 50 38 35 25 39 36 34 37 39 31 41 24 39 39 26 32 30 44 38 38 47 31 25 41 27 45 32 34 32 37 34 31 33 28 32 40 42 34 30 35 35 35 29 30 35 33 35 35 33 38 33 30 28 49 35 41 31 35 36 39 32 32 40 37 29 42 38 36 29 40 36 54 33 37 36 38 38 35 29 33 28 34 39 37 41 52 31 44 32 34 25 40 35 38 38 32 33 44 32 43 30 40 24 34 29 46 28 43 40 28 42 37 34 40 38 26 32 31 39 32 31 23 26 36 44 35 37 37 34 44 43 33 45 48 29 35 47 34 29 41 48 37 25 41 37 28 31 38 31 39 29 32 33 50 35 40 41 30 35 24 36 31 39 29 37 31 30 32 35 31 37 41 28 47 32 34 36 34 42 32 31 38 30 35 29 48 34 26 33 48 33 32 36 42 31 29 38 40 42 34 37 50 53 33 31 37 29 45 41 31 38 41 35 39 31 33 38 36 41 37 43 32 33 30 28 31 32 31 37 33 38 35 40 38 26 31 32 37 31 30 37 34 37 35 41 35 37 33 32 27 27 46 29 38 34 25 37 34 48 37 39 32 36 31 34 47 41 40 47 23 29 35 36 49 25 38 38 39 35 36 38 41 34 40 33 36 40 40 35 39 29 39 40 33 32 29 32 34 25 35 40 39 28 34 38 40 38 36 33 34 24 36 33 31 36 40 28 40 33 32 45 43 38 43 41 25 35 33 24 42 37 26 20 30 34 32 44 35 35 32 38 31 43 32 40 38 38 36 31 37 29 34 43 34 37 29 31 27 37 25 38 35 36 36 43 38 40 29 30 38 33 37 42 38 23 33 27 34 25 38 46 38 32 33 30 37 39 35 36 27 38 39 33 30 34 42 34 44 47 35 35 29 37 38 40 31 41 35 33 34 38 46 28 30 32 47 33 27 36 23 34 43 43 37 32 46 32 44 40 37 34 43 36 36 35 36 32 28 42 30 35 31 25 33 37 33 36 29 39 34 34 37 35 33 39 34 24 40 30 46 42 39 32 30 27 38 40 41 38 33 43 36 40 36 37 29 40 25 43 27 37 36 40 35 34 37 33 33 40 24 37 41 47 41 35 33 43 35 37 29 40 38 34 37 31 45 28 46 44 29 35 39 30 32 51 38 43 28 46 33 38 33 30 41 29 34 31 38 36 34 39 33 32 26 34 35 29 34 27 41 33 45 38 39 32 36 48 33 47 37 34 27 35 28 33 36 36 48 35 39 31 28 32 39 36 38 35 34 30 33 40 34 26 39 37 34 37 37 33 28 33 36 36 26 38 46 43 42 31 44 31 34 26 27 34 32 36 31 48 32 39 42 37 31 30 46 26 37 33 34 34 30 33 40 46 33 26 40 40 28 32 43 35 41 25 33 34 42 32 34 36 30 35 35 37 37 39 33 34 42 30 41 37 35 35 31 47 33 48 36 35 29 29 32 47 39 40 41 33 37 32 44 35 40 43 31 34 34 41 40 35 44 36 39 28 37 33 30 30 42 30 31 40 29 33 43 36 35 34 44 32 40 34 35 36 43 36 33 29 34 31 31 32 31 36 44 37 40 34 31 26 23 35 39 48 38 31 37 42 31 27 41 41 42 33 39 32 29 33 34 30 41 36 41 38 36 28 27 44 40 28 25 42 32 26 40 32 35 44 28 36 32 35 28 40 36 40 34 28 30 35 43 33 44 32 45 32 48 35 25 34 34 30 30 36 19 36 34 35 37 34 30 38 38 31 39 31 42 40 43 33 39 34 32 38 27 31 26 35 30 36 33 40 37 37 36 30 42 37 39 29 34 31 36 29 36 41 41 39 33 38 40 29 38 41 34 39 27 32 38 40 40 49 32 30 28 44 33 29 27 27 33 36 34 42 33 30 30 39 35 33 42 38 38 37 44 41 28 35 24 45 31 29 32 28 36 32 32 32 38 33 43 32 43 25 32 40 32 37 34 36 33 22 37 35 31 35 47 35 43 24 36 40 37 34 29 42 29 32 45 38 38 31 32 37 32 30 28 35 29 43 42 32 38 35 33 27 32 41 37 35 36 37 32 34 35 31 36 41 48 37 31 35 37 38 30 38 44 35 40 33 29 27 39 33 25 35 27 29 36 45 35 36 38 41 36 34 37 34 42 37 32 36 48 37 39 41 35 25 44 41 33 33 35 28 38 34 34 42 42 37 37 30 32 35 38 39 42 28 42 39 28 24 27 26 29 39 40 29 42 30 40 38 35 34 32 29 34 38 41 31 40 34 37 34 42 31 30 40 33 28 42 29 33 39 27 35 37 26 29 26 39 48 42 41 25 39 30 37 33 28 30 31 37 32 40 43 51 36 31 49 29 31 27 36 33 34 31 34 37 43 31 39 31 43 38 35 36 44 40 40 30 22 40 46 26 35 29 37 36 34 33 29 46 30 35 36 31 31 34 41 43 40 32 46 44 39 31 32 38 32 40 31 29 25 44 36 38 32 32 42 31 36 41 35 50 36 31 27 22 35 28 28 34 34 41 39 32 27 45 36 35 41 30 31 42 36 42 33 33 29 33 38 36 32 31 33 38 35 48 41 35 32 30 37 36 39 43 37 45 37 33 36 31 29 37 40 23 36 35 41 32 40 45 35 34 42 40 37 29 30 39 32 37 39 44 33 37 29 44 36 34 42 34 34 30 44 39 44 42 40 40 40 38 28 40 39 40 34 27 29 48 31 33 29 32 29 40 34 32 29 33 33 45 27 30 38 30 38 35 38 31 33 37 28 43 38 34 34 36 39 34 40 33 31 36 30 27 33 36 42 26 29 31 36 44 35 40 26 27 34 31 37 36 30 31 34 36 31 38 40 29 22 31 33 33 38 46 33 41 37 43 36 32 39 39 40 35 40 42 36 38 37 37 33 40 36 31 36 38 43 32 32 41 40 41 42 30 41 31 40 36 28 43 32 43 34 41 30 33 37 30 33 42 41 40 39 34 29 37 27 27 37 39 34 37 27 37 43 32 34 39 27 36 31 35 49 40 40 44 33 30 37 29 29 35 23 41 29 32 29 32 28 36 35 37 33 40 33 36 35 32 24 28 33 46 36 38 32 34 33 39 36 42 28 33 34 37 27 18 26 31 34 38 33 42 39 34 33 39 34 33 35 25 39 38 42 34 29 38 24 33 37 32 34 33 45 34 30 34 44 44 37 24 39 38 37 32 35 34 38 42 35 44 43 41 30 35 30 31 32 41 36 32 32 33 47 32 31 39 41 33 37 40 55 37 38 40 44 38 29 37 49 27 36 39 31 45 28 36 34 37 37 33 35 36 29 24 41 34 31 35 26 34 33 25 26 32 32 30 29 34 26 29 38 39 45 36 41 48 39 43 37 24 37 40 30 41 40 28 35 39 35 32 37 31 45 42 32 28 42 35 48 39 32 24 38 35 34 33 49 31 28 36 27 41 32 30 40 39 46 36 34 36 40 31 28 41 37 45 37 34 41 59 26 30 36 38 43 40 30 36 43 36 31 36 41 31 30 37 25 33 41 38 41 28 33 35 26 35 34 24 42 34 31 41 43 28 31 34 45 40 30 34 37 39 27 33 44 31 36 32 39 33 30 33 38 34 37 35 44 34 29 25 28 30 38 43 37 32 30 34 32 32 46 36 35 39 34 36 25 20 41 38 32 32 30 47 37 39 35 37 37 38 31 34 33 36 37 41 25 33 32 38 28 31 38 41 36 33 30 43 33 43 37 43 33 28 33 28 48 45 36 43 30 37 43 37 33 35 31 32 39 34 45 30 42 33 31 33 37 28 40 35 43 36 35 42 32 35 34 33 35 41 34 32 31 36 29 34 31 32 33 35 46 37 28 32 39 37 37 37 30 30 33 43 41 39 42 33 39 35 27 28 35 41 47 28 25 25 34 38 36 30 30 35 29 35 36 35 33 38 43 29 35 32 33 36 31 35 39 34 33 45 36 29 34 33 41 31 36 32 38 40 43 48 41 39 37 34 33 28 45 42 31 35 29 40 38 35 32 38 33 32 30 33 42 45 38 32 35 42 40 33 38 34 38 24 41 33 38 31 36 37 24 35 32 41 31 33 33 40 39 39 27 32 38 28 31 39 24 39 45 42 43 36 45 38 40 36 29 42 37 44 38 41 39 30 33 39 27 36 34 49 41 29 37 36 30 45 31 28 31 37 41 35 36 38 33 35 27 33 42 31 37 30 36 31 36 24 32 38 39 32 32 27 44 36 32 41 34 32 47 41 31 31 37 29 35 38 40 23 40 39 38 27 41 27 48 35 27 35 33 35 28 42 42 30 39 31 30 35 34 43 38 37 33 36 26 33 30 33 42 32 37 27 28 34 42 33 48 33 44 31 27 41 26 38 39 47 30 28 42 33 34 33 31 37 38 31 37 30 29 55 28 43 42 35 41 33 32 36 36 41 43 34 46 24 36 40 37 36 38 33 39 40 37 48 36 40 36 35 37 30 35 45 34 33 35 30 36 28 24 38 41 32 37 46 47 43 38 40 34 44 37 51 37 38 37 28 35 27 36 30 44 31 42 35 26 41 30 30 32 33 32 36 29 33 28 52 26 35 28 29 29 42 42 44 32 40 33 27 38 31 27 28 41 29 29 24 31 49 39 23 32 26 37 43 38 44 45 29 35 47 32 34 28 37 39 37 34 34 31 32 41 31 40 44 30 47 41 25 27 38 35 26 35 38 30 38 30 33 37 37 32 34 39 34 36 35 40 38 32 29 32 27 32 41 37 39 34 31 35 42 38 41 50 43 47 32 42 40 44 50 34 27 35 30 39 41 40 39 40 30 38 37 38 38 39 45 33 34 43 50 35 33 42 35 39 36 23 36 44 40 29 28 33 33 40 27 32 43 44 36 40 42 30 34 29 41 28 40 28 30 42 37 31 30 34 24 28 34 34 37 33 30 31 28 32 36 40 35 41 50 41 35 32 38 38 41 36 33 37 31 28 34 37 37 39 39 32 39 38 32 33 45 44 34 26 45 35 27 46 42 30 37 44 32 36 34 28 36 31 35 30 36 35 37 42 50 45 34 27 32 38 32 30 50 46 44 41 33 33 38 27 38 29 35 38 36 30 28 40 31 30 27 33 39 33 46 46 32 30 26 37 20 40 39 31 35 30 27 46 35 38 32 40 35 34 43 44 50 32 33 40 30 33 33 39 37 40 33 27 41 35 36 34 39 38 28 42 30 37 42 34 44 38 36 47 43 40 31 44 33 34 39 48 30 26 28 27 26 37 27 36 29 38 40 37 27 28 40 41 38 37 34 38 35 25 32 37 28 31 42 25 41 35 35 40 48 34 28 25 44 33 30 29 34 34 43 33 39 45 26 36 41 34 34 26 36 27 44 34 30 36 38 40 32 29 44 29 47 28 30 38 35 36 33 41 31 38 41 39 31 48 28 33 35 43 40 57 31 40 33 31 33 41 40 27 36 33 34 29 31 32 28 30 37 39 36 36 36 26 38 30 31 41 48 31 45 33 38 35 38 35 34 43 42 37 42 33 30 43 34 38 43 35 40 43 39 33 36 31 38 31 31 38 33 31 44 28 33 30 29 42 43 29 33 35 36 31 31 31 33 36 33 30 35 35 36 34 31 52 44 35 48 32 28 39 37 25 32 30 36 31 41 37 38 45 24 33 37 36 31 46 37 36 41 38 37 35 29 31 30 34 35 35 26 34 29 29 40 36 25 48 32 32 33 35 36 34 27 33 47 38 39 39 27 41 28 37 29 37 36 28 39 39 44 31 34 35 28 38 45 29 32 50 36 27 36 27 30 39 37 29 29 35 30 33 37 33 35 29 33 36 43 39 42 31 32 37 39 34 39 38 32 34 30 35 41 35 36 38 41 36 31 32 33 41 33 36 39 37 42 37 31 37 21 39 39 35 37 40 37 34 27 25 35 37 44 35 43 37 31 31 30 38 46 34 32 43 41 32 42 29 29 36 39 26 31 40 35 39 37 33 25 35 39 44 42 34 45 30 35 42 38 28 27 37 37 30 32 35 28 33 39 28 37 40 42 30 27 40 38 40 39 36 30 45 32 32 35 36 29 37 34 33 31 35 35 36 29 32 36 34 38 24 41 26 30 40 42 31 24 35 36 38 30 32 26 39 40 32 36 36 42 34 30 41 43 38 32 38 33 25 33 33 33 35 42 48 34 33 30 30 28 22 33 43 35 29 36 39 29 26 42 41 35 29 34 43 39 32 40 38 39 37 27 29 31 38 36 27 28 41 49 37 37 42 44 30 38 38 34 39 33 53 29 26 44 31 32 34 32 33 37 42 32 22 34 41 34 30 39 38 31 39 28 34 26 47 29 36 43 37 36 39 26 40 29 34 31 45 36 34 41 36 38 34 40 35 27 32 33 44 35 34 31 47 39 31 36 34 35 38 34 39 41 38 27 40 37 41 40 35 36 34 33 30 38 24 36 29 31 34 35 37 39 45 30 39 33 32 23 38 27 30 39 27 39 35 35 34 42 34 42 36 40 39 35 34 33 42 25 35 41 44 39 35 34 37 37 28 29 38 28 38 36 39 32 33 37 29 28 39 38 29 41 50 36 30 39 39 40 37 39 44 41 25 41 44 36 34 31 29 30 45 30 39 36 44 39 45 39 42 30 27 43 40 30 33 57 38 30 39 26 29 27 39 34 32 39 37 40 33 43 36 37 40 47 35 28 37 29 34 36 33 27 48 36 29 31 30 26 42 30 30 36 35 40 40 40 42 28 38 37 32 38 38 24 38 41 38 44 37 36 44 35 29 41 41 27 38 25 35 38 32 37 35 40 38 32 44 40 31 38 26 38 38 28 27 34 37 44 35 38 37 33 37 43 42 37 31 33 38 27 40 39 41 34 39 31 27 42 37 39 24 37 53 36 43 46 37 32 38 38 37 33 34 28 32 38 38 37 37 33 37 38 40 30 37 39 40 32 29 35 33 34 32 37 35 32 41 30 38 30 30 39 36 29 32 40 28 28 41 34 37 38 35 40 40 29 32 42 48 39 40 39 35 36 38 32 40 34 34 28 33 36 40 36 50 30 36 43 37 31 39 31 30 38 28 39 35 34 37 30 32 46 35 39 36 43 32 49 38 34 28 33 29 34 37 35 33 40 35 24 34 28 35 28 43 32 30 45 35 38 33 39 26 32 34 28 32 35 34 42 26 46 41 46 37 29 45 39 35 36 38 27 48 33 31 33 36 25 35 27 40 31 31 37 36 31 32 32 36 39 27 42 39 35 29 38 48 38 29 35 32 32 26 43 39 33 24 33 42 34 47 32 35 24 32 33 35 31 32 32 38 44 38 30 38 32 34 32 37 33 35 32 35 29 42 31 24 37 36 47 33 33 34 31 37 34 34 38 36 34 41 35 36 29 34 30 40 24 43 42 43 37 36 42 38 35 37 42 25 32 28 35 29 33 44 26 42 34 41 40 41 36 43 31 33 42 31 41 31 39 31 52 32 35 27 45 36 32 29 33 33 32 39 36 33 34 34 41 44 31 30 26 42 40 35 35 35 32 38 27 43 32 32 41 32 43 39 38 25 30 32 35 29 27 31 42 34 28 23 33 42 38 36 40 31 44 41 40 37 33 28 28 32 42 35 36 42 24 40 45 42 39 32 37 43 36 30 41 39 48 43 32 28 49 35 38 35 38 37 45 46 40 27 37 45 22 45 37 25 35 39 39 39 34 37 29 47 46 40 29 40 44 32 31 38 37 38 35 30 32 37 52 41 39 35 42 41 38 39 34 44 35 32 40 33 43 45 35 33 27 44 30 35 30 31 36 36 34 26 31 27 38 43 32 44 29 35 34 32 38 40 35 43 39 41 26 30 33 38 31 28 31 47 31 35 38 37 37 31 41 34 28 35 34 32 35 41 43 34 51 37 42 28 35 33 40 32 43 30 40 40 29 33 39 34 32 33 37 41 30 31 35 29 33 32 31 39 26 33 32 32 39 37 35 30 42 39 34 38 38 27 34 31 34 30 29 31 33 33 37 30 39 28 48 23 37 32 28 44 37 35 29 35 41 41 38 32 31 33 36 32 36 39 36 34 41 34 30 37 32 25 39 32 39 38 28 36 34 35 30 38 35 31 32 38 38 37 35 29 38 35 29 50 33 26 40 29 40 31 39 36 44 38 32 35 33 33 34 37 35 34 32 45 39 40 38 34 45 41 37 44 36 40 40 27 41 36 38 33 34 27 31 34 34 30 37 43 27 39 32 35 31 44 32 34 36 33 36 37 32 30 29 34 47 34 37 34 35 39 40 38 35 35 34 30 30 40 31 37 36 39 30 40 37 44 37 45 35 37 36 38 27 38 40 36 31 32 34 36 40 35 22 42 42 39 38 30 33 35 31 37 37 29 34 41 40 34 28 44 33 31 31 39 29 34 31 37 36 41 31 39 33 39 48 34 29 32 34 32 33 34 44 40 30 31 39 34 45 32 39 36 38 34 31 41 29 44 38 38 35 25 38 39 36 33 36 30 37 23 32 33 46 35 34 35 27 35 37 48 37 42 30 32 37 25 37 36 45 30 40 32 43 46 35 48 36 31 34 32 38 35 54 46 35 32 23 34 34 51 39 29 43 46 34 36 43 25 44 34 30 50 37 27 31 38 34 41 32 39 22 40 32 39 42 32 31 36 37 39 33 31 41 35 34 34 31 35 35 27 35 32 39 36 29 32 31 31 34 25 40 39 37 36 35 43 32 44 34 36 34 34 42 36 32 37 31 35 39 38 26 22 44 33 25 29 35 23 37 42 32 39 38 33 33 41 33 37 36 35 30 38 33 30 32 37 39 34 32 39 33 45 30 37 32 35 36 38 39 28 31 31 24 27 35 37 31 33 31 45 46 33 36 39 30 32 36 36 37 33 37 43 32 41 44 21 43 35 30 31 43 31 36 33 41 40 38 29 35 31 31 30 30 28 37 28 45 34 35 30 31 47 36 39 45 35 39 30 44 35 37 40 41 31 35 43 38 28 34 26 41 35 32 38 32 43 38 35 28 44 35 54 29 35 29 37 47 38 29 38 40 18 32 32 37 35 49 26 28 30 34 33 40 41 52 34 26 37 34 44 24 37 43 28 33 36 34 35 42 40 29 29 44 42 37 40 45 46 38 29 37 37 34 24 35 32 37 34 37 41 43 29 42 27 33 43 29 41 47 30 37 32 35 31 41 36 40 28 36 33 31 41 33 30 30 35 41 35 33 33 29 25 32 41 42 41 43 29 47 35 48 24 38 30 35 32 24 40 34 33 43 47 36 37 34 35 47 35 39 27 33 41 43 31 34 33 36 44 35 41 46 26 41 31 45 33 37 34 36 31 49 43 44 31 39 39 30 40 42 37 39 36 41 39 36 40 32 30 34 41 34 36 37 38 46 31 26 27 24 35 30 42 40 34 48 33 34 40 30 27 36 38 33 40 42 43 33 39 26 30 43 39 37 26 38 38 34 41 38 43 37 37 28 56 32 41 33 41 36 39 28 30 31 27 30 30 32 28 40 33 37 38 29 28 33 37 34 44 36 28 39 30 39 39 30 35 37 37 30 43 37 41 32 35 36 39 30 33 28 40 37 35 34 33 42 35 38 26 33 48 29 31 34 33 33 42 29 45 31 31 41 47 27 30 38 35 33 40 32 36 33 33 37 36 33 36 36 35 43 30 37 36 27 35 30 40 30 38 32 37 39 32 36 31 37 29 35 27 32 46 30 37 39 25 28 40 27 22 27 33 31 46 34 46 41 38 42 44 42 36 35 39 32 33 32 30 38 22 37 54 37 37 41 40 41 27 36 38 33 27 29 31 25 42 31 40 39 39 38 29 29 38 39 36 31 33 46 29 33 31 37 44 31 35 40 43 31 43 35 41 43 31 41 34 37 26 33 26 42 26 38 35 33 36 40 37 44 41 43 41 35 34 35 33 42 36 34 35 25 30 32 43 33 35 43 37 40 30 41 36 35 40 31 37 33 32 28 42 45 28 23 40 38 27 39 25 38 35 31 39 33 30 29 27 36 40 35 26 38 35 24 36 34 40 35 31 36 39 28 43 29 28 40 39 34 40 23 33 43 35 44 27 39 29 29 36 38 36 28 36 33 44 27 25 40 30 31 42 40 39 46 35 29 41 44 34 38 35 39 36 33 30 23 43 28 38 27 29 23 33 33 38 40 39 33 29 39 36 35 42 35 37 35 54 38 34 36 39 42 33 35 29 46 39 35 35 33 33 37 34 31 42 40 31 35 30 33 32 23 42 31 32 34 37 35 33 32 33 33 34 47 33 40 33 31 31 30 39 31 29 37 41 38 44 42 37 37 31 43 46 45 41 26 30 33 28 36 36 43 34 41 29 40 27 38 26 41 41 33 29 31 43 29 30 37 49 33 37 39 29 32 31 41 33 47 39 34 37 29 39 27 37 36 39 39 39 33 22 34 38 43 35 33 39 34 32 36 38 31 37 38 26 26 31 39 39 29 35 35 22 38 37 32 32 32 32 40 36 29 30 34 36 29 34 37 41 35 34 33 35 29 35 27 30 32 43 31 38 33 34 31 45 32 37 35 38 28 35 46 32 45 45 31 29 35 39 33 34 37 47 38 30 31 28 27 30 49 37 35 39 31 32 36 37 29 33 41 35 37 37 36 40 20 32 29 42 37 23 37 35 38 31 33 46 35 34 34 38 36 23 28 37 37 38 33 26 35 33 27 35 28 30 41 43 31 43 35 38 37 30 29 30 33 28 36 37 36 35 36 34 36 29 28 34 29 35 32 33 32 37 36 31 42 39 35 42 29 37 35 36 41 28 38 34 26 36 35 31 30 40 27 36 37 41 37 30 34 28 26 40 32 36 32 36 43 36 38 29 31 29 32 38 40 35 34 32 33 32 42 30 31 34 36 44 42 37 42 45 34 43 35 41 36 33 32 28 30 33 30 47 40 41 41 33 33 38 34 30 32 43 29 36 40 34 43 35 36 42 39 49 34 29 32 37 33 25 42 44 29 35 38 32 30 27 45 34 34 27 35 34 33 32 43 32 31 38 31 22 36 34 43 41 38 28 38 30 41 44 32 35 31 40 35 36 31 38 33 35 29 36 39 31 48 43 31 44 36 35 37 38 38 34 34 39 24 34 42 40 28 36 42 34 41 29 36 44 37 37 33 29 32 39 36 40 33 42 41 36 37 32 39 36 38 36 46 32 38 33 36 37 22 34 36 30 29 35 34 31 46 34 34 30 41 29 29 37 29 40 26 36 38 31 31 32 30 39 28 44 35 35 33 35 43 35 34 47 38 33 30 33 46 30 37 46 42 39 38 42 23 39 26 37 33 44 43 47 36 33 37 33 31 32 40 27 43 31 31 38 31 24 36 40 33 35 40 36 45 37 24 41 31 31 40 32 35 30 33 36 33 33 37 26 39 40 36 33 34 46 27 34 42 40 30 34 41 24 45 39 36 30 36 33 39 40 30 39 43 30 40 30 36 33 37 31 40 35 36 27 40 36 37 38 43 33 36 49 37 34 34 29 26 33 38 41 42 32 44 44 39 42 27 39 34 42 36 30 42 35 36 31 38 39 34 46 30 25 43 33 32 35 30 37 28 43 33 28 36 28 33 27 44 37 28 38 43 41 38 34 44 34 37 40 39 20 31 35 39 32 42 40 37 40 32 34 43 30 38 43 25 38 45 39 19 35 34 46 30 34 37 39 40 34 24 34 25 40 29 35 41 40 36 26 42 33 46 39 40 44 46 45 33 40 33 35 25 36 43 34 40 35 23 39 33 42 38 29 41 20 25 45 32 40 29 34 24 47 38 32 32 32 47 32 28 33 32 40 32 32 42 26 47 36 38 27 37 45 46 45 37 31 37 33 37 35 30 31 41 46 45 37 37 30 41 35 38 22 43 36 35 33 24 30 30 32 34 39 37 29 28 48 35 34 38 33 49 28 39 34 21 34 47 35 36 33 31 32 32 26 32 27 41 40 40 35 40 35 40 33 39 30 38 38 30 28 39 35 37 31 28 36 35 39 31 34 44 35 31 42 38 39 40 37 33 38 39 40 40 33 35 39 29 44 31 47 26 37 44 39 30 37 28 32 39 37 48 37 34 27 47 43 39 41 32 42 38 43 37 43 34 25 32 36 36 30 31 39 27 38 38 30 41 39 42 41 42 25 46 29 33 39 39 32 34 40 44 31 30 32 35 27 34 49 35 28 31 48 35 32 34 34 24 31 27 40 36 32 40 42 33 39 32 35 35 35 25 33 46 36 33 28 37 31 31 42 35 39 27 27 33 30 46 36 37 44 37 42 20 43 29 40 33 33 28 37 40 34 36 20 35 24 32 44 35 42 43 42 40 34 31 35 39 32 28 41 44 37 39 43 40 43 31 34 43 36 38 35 30 29 37 30 46 37 32 36 37 49 43 38 43 36 31 37 40 38 38 24 35 42 32 32 27 25 37 30 40 31 35 26 35 42 31 37 38 47 31 26 25 42 50 40 36 37 24 32 38 31 38 36 38 31 30 30 31 34 34 40 43 43 32 40 38 38 28 54 36 34 36 32 34 34 28 41 38 47 33 42 44 31 32 38 35 36 33 44 29 39 32 32 29 33 42 33 32 42 35 36 29 39 38 21 37 41 33 34 40 29 27 29 29 28 38 38 32 33 49 37 43 28 42 30 31 36 34 32 40 34 35 36 36 36 31 36 28 33 35 31 40 34 36 41 25 45 47 37 39 37 50 50 27 33 26 36 25 38 39 34 37 38 40 30 43 30 33 37 42 46 45 33 35 26 38 28 29 34 46 29 30 33 29 33 40 28 32 35 34 35 45 29 44 27 40 34 47 37 37 23 32 29 33 27 25 32 41 36 38 31 39 37 31 52 40 35 38 27 33 33 26 30 42 38 39 37 44 28 35 32 34 45 32 40 20 30 35 37 40 37 43 36 31 32 24 40 44 32 37 40 41 27 27 46 30 28 41 47 39 25 35 38 22 40 35 30 30 37 28 45 34 33 35 33 32 38 37 37 47 32 38 35 30 30 41 38 39 25 33 30 34 36 34 30 36 36 34 28 38 25 34 39 32 31 29 28 42 28 35 45 44 29 29 30 29 41 36 30 34 40 36 33 35 27 40 38 42 36 32 35 36 34 39 48 37 28 42 33 36 32 34 38 33 31 39 35 34 30 42 27 33 32 32 25 42 38 37 36 37 31 39 33 35 39 41 36 37 38 44 41 41 19 43 46 33 30 35 34 28 47 33 37 37 33 35 39 45 41 43 29 41 35 33 29 20 38 27 35 42 34 34 41 48 36 37 37 33 31 37 39 41 39 46 30 46 37 43 38 27 46 35 39 34 31 27 35 35 36 27 34 38 36 35 27 31 26 43 31 36 34 37 31 31 36 44 42 38 37 44 34 27 35 30 35 42 28 31 36 42 38 29 39 31 40 36 40 28 44 33 44 37 44 34 32 35 36 37 39 23 41 28 30 34 30 43 25 31 45 37 27 37 47 36 35 42 40 39 36 32 37 58 42 39 36 40 43 41 38 33 33 39 32 31 28 27 37 36 33 35 41 28 40 37 39 31 25 33 35 47 36 32 35 35 43 39 20 25 40 41 35 34 32 44 31 29 31 35 25 35 31 39 42 33 38 33 27 29 41 42 34 32 31 34 32 32 36 31 33 33 35 29 28 26 29 40 33 41 40 37 44 32 31 36 25 44 30 31 36 27 32 33 29 33 24 22 23 37 28 36 38 34 38 26 34 39 43 33 30 33 28 37 18 36 39 30 38 34 30 38 32 40 41 33 29 36 38 30 30 32 32 27 26 44 25 31 47 35 33 42 33 33 40 35 41 39 54 28 34 32 36 27 34 39 35 37 34 31 32 37 33 36 41 30 30 29 30 37 47 34 27 31 34 38 33 40 34 32 35 36 33 43 35 36 31 30 42 36 36 43 45 41 37 29 39 37 38 38 40 30 38 40 31 26 34 21 36 33 44 42 37 44 40 42 28 36 32 31 30 33 32 32 31 38 31 26 26 45 40 30 40 38 37 36 38 37 41 30 32 34 38 27 31 36 33 36 34 36 45 42 35 40 41 40 33 41 34 26 24 38 38 45 30 40 28 42 32 44 34 23 40 39 41 33 36 24 36 25 36 32 39 33 30 32 28 31 37 35 32 37 32 49 43 38 29 37 38 28 44 40 28 41 38 30 31 31 34 30 29 36 33 32 39 34 37 26 37 40 28 33 32 39 31 40 37 31 28 27 43 30 34 37 42 33 33 38 45 26 36 34 27 33 30 42 36 32 28 41 34 50 29 39 31 39 30 29 37 48 40 39 37 32 37 33 29 30 43 44 36 38 29 35 29 33 33 43 39 47 34 30 32 38 36 32 49 39 34 29 40 37 45 35 48 41 28 42 33 42 25 26 36 33 32 42 41 37 39 37 34 33 36 32 41 33 29 37 33 46 39 50 28 37 31 31 39 40 40 31 25 34 35 39 33 34 34 29 39 34 32 33 34 41 37 48 25 45 36 35 42 43 42 28 26 43 35 41 44 34 38 34 36 37 37 33 26 28 29 41 33 44 38 33 43 38 30 45 37 35 35 38 34 32 33 28 39 22 41 34 33 21 29 42 38 42 40 40 41 28 41 46 28 37 41 29 32 22 36 34 42 30 37 39 33 33 36 38 32 47 35 37 33 34 33 34 34 26 23 29 37 34 37 41 36 37 38 34 45 27 32 35 41 35 33 31 39 37 30 43 49 45 32 49 36 36 40 37 32 33 37 35 37 38 39 30 35 38 37 30 37 31 27 45 36 38 33 28 39 33 35 27 40 45 36 37 41 40 43 33 35 34 25 43 32 39 37 26 33 29 32 30 33 35 32 33 31 33 39 32 38 40 31 36 32 34 32 38 37 43 41 40 35 40 31 40 38 30 29 33 39 36 39 41 36 37 38 32 40 30 42 43 35 45 42 42 45 37 32 30 53 32 36 30 39 28 36 33 41 46 34 25 36 30 32 32 39 37 38 30 36 36 30 41 39 30 35 36 33 36 29 44 41 32 29 23 29 38 35 39 44 27 35 34 34 36 30 34 28 36 37 31 39 28 45 36 33 43 25 36 37 37 29 30 37 36 29 29 28 36 30 31 38 31 42 32 49 50 40 32 28 38 30 25 31 44 38 40 37 38 38 37 26 38 36 24 33 49 30 35 36 39 41 27 34 37 41 28 34 26 33 30 40 38 38 30 40 32 36 36 41 32 39 31 24 46 33 38 32 39 32 35 29 33 30 38 46 34 34 32 34 29 41 33 37 35 38 50 37 41 32 32 41 40 33 33 33 30 36 31 40 29 30 34 28 36 28 32 31 42 35 34 43 40 40 39 48 38 33 37 45 41 39 39 31 30 40 35 38 28 35 45 37 29 32 40 31 38 35 39 35 38 32 28 46 31 39 36 44 26 28 31 33 38 48 31 28 37 46 45 30 37 39 37 38 40 31 32 26 37 29 31 35 41 41 37 36 35 33 34 41 22 33 38 41 45 24 37 51 31 35 35 37 31 45 33 42 49 26 42 36 33 30 33 33 40 24 26 37 33 32 25 29 47 33 32 28 38 42 31 32 30 36 33 42 44 41 38 37 43 27 28 35 31 35 27 41 32 29 39 38 34 26 37 48 26 35 38 37 35 39 32 38 24 45 31 38 36 39 33 18 31 34 39 37 41 30 25 29 36 32 43 32 33 52 42 39 42 32 29 26 39 49 34 39 27 48 37 30 34 44 40 34 33 35 32 36 33 30 39 35 40 24 33 29 40 42 35 33 26 28 29 37 37 29 35 34 31 30 37 33 43 30 37 32 35 30 33 41 22 37 38 37 44 45 32 39 26 31 29 32 36 35 35 32 31 33 36 39 36 41 35 39 33 47 30 35 33 43 36 34 37 41 40 35 40 39 32 41 42 31 30 25 32 35 47 40 30 40 42 39 36 25 35 32 35 37 40 41 31 35 39 29 29 41 37 46 35 28 32 39 34 34 35 41 33 26 25 37 46 37 32 29 40 39 38 33 33 30 36 28 32 39 48 37 36 32 43 41 33 29 32 28 32 40 40 44 31 27 41 33 37 37 40 34 35 40 34 36 25 31 35 31 27 33 31 35 47 40 36 44 35 30 31 38 35 35 39 28 25 42 30 30 34 44 42 31 40 36 31 35 43 22 23 33 35 38 33 35 31 33 31 35 36 44 40 36 44 37 39 35 37 38 41 40 44 33 42 43 38 42 38 32 37 37 38 36 32 28 38 44 31 35 33 34 45 30 41 33 55 37 30 38 35 30 34 48 34 38 34 37 36 33 33 30 37 38 35 29 38 37 36 34 44 32 33 29 45 38 27 35 37 39 36 32 37 33 47 36 37 36 34 44 44 37 28 41 33 33 25 45 31 34 32 46 41 34 40 28 34 39 33 46 34 30 35 30 30 38 41 34 36 44 34 35 33 36 37 30 34 41 40 35 43 37 36 35 37 41 37 29 36 40 24 38 40 27 35 38 32 35 33 32 24 38 34 38 35 33 51 34 40 40 55 45 31 33 30 36 43 38 34 32 34 33 47 23 37 41 46 34 37 40 39 48 37 32 34 38 36 35 35 34 33 51 36 31 39 33 38 30 35 28 39 33 34 33 33 36 35 27 35 42 36 39 41 31 38 33 36 33 47 33 24 41 35 31 30 41 36 36 45 32 30 42 43 36 47 50 49 27 30 36 30 47 30 39 28 40 51 29 32 46 39 34 40 32 38 47 40 31 43 46 38 33 37 36 35 35 43 29 30 30 49 36 40 30 33 39 29 32 39 49 28 37 36 33 36 42 33 46 32 37 31 32 33 38 29 37 34 32 46 39 29 43 36 30 39 26 33 37 41 35 31 38 37 27 35 43 33 39 28 35 37 34 39 25 32 35 39 36 38 28 28 43 33 39 28 33 48 37 37 42 33 33 36 36 34 28 31 38 31 36 28 34 37 33 38 30 35 30 35 35 38 33 37 34 43 43 35 31 31 31 42 39 30 43 38 37 29 22 39 28 34 35 30 39 36 46 29 29 30 34 32 36 28 36 34 29 31 33 50 38 36 33 41 35 40 37 38 28 43 38 44 40 46 41 34 30 40 38 32 40 33 32 36 29 28 32 35 37 40 34 33 41 33 39 36 32 26 36 37 42 37 34 36 35 24 33 29 39 22 39 44 36 35 31 41 37 30 32 35 30 33 32 22 45 37 35 38 44 33 37 32 25 39 28 33 32 35 31 35 33 44 30 33 40 42 29 34 37 34 31 30 35 33 40 33 27 32 48 43 40 27 39 34 21 38 42 35 40 30 32 41 35 47 38 36 37 42 37 35 29 40 36 39 28 33 31 35 43 32 33 31 34 44 40 30 28 30 47 42 21 40 31 32 34 28 35 35 36 38 45 52 33 28 43 36 41 36 41 45 32 33 49 28 51 33 43 32 33 30 41 32 40 39 24 37 32 31 27 38 38 28 31 30 34 32 25 40 30 37 31 49 31 36 33 37 36 33 33 35 37 27 33 43 36 33 36 43 22 29 34 38 28 27 41 54 31 32 34 44 38 45 33 36 39 31 30 28 28 39 36 46 28 25 32 24 31 34 32 46 32 27 33 36 43 38 32 29 29 34 32 30 33 38 36 24 42 25 32 46 41 36 37 20 29 40 42 37 28 35 41 34 36 39 27 40 44 38 32 26 31 42 40 49 41 40 27 37 47 33 46 39 29 32 37 37 31 41 46 38 40 38 31 29 33 37 36 41 38 27 39 31 23 40 41 31 33 36 38 37 47 22 26 35 35 32 28 26 37 32 35 29 39 38 32 31 28 44 43 33 35 34 34 35 30 30 38 40 41 46 44 33 48 36 48 35 38 34 35 29 33 32 31 31 36 38 40 30 33 30 38 36 32 36 33 36 36 43 37 29 37 29 33 39 34 34 26 41 47 38 45 28 36 39 38 45 29 38 30 31 37 38 30 35 37 36 34 33 47 38 41 37 31 41 36 42 43 40 35 39 31 45 30 38 32 33 45 27 32 35 26 44 38 30 33 31 32 47 44 34 41 39 24 42 35 42 33 43 44 33 37 29 35 36 28 44 42 34 31 35 23 38 35 35 35 38 36 24 28 34 41 28 35 40 43 38 32 29 31 33 32 42 33 35 28 41 34 34 31 32 31 33 41 42 32 24 26 35 38 31 30 41 32 33 37 35 31 34 45 24 38 37 34 28 36 30 37 36 35 33 47 35 34 30 32 42 35 37 35 41 37 42 28 41 41 39 40 31 37 36 33 36 29 43 37 39 35 47 36 39 26 47 35 26 35 32 32 39 44 37 35 39 37 26 41 38 29 43 47 43 26 49 34 34 35 30 39 36 38 44 40 41 33 40 39 36 35 43 36 33 33 50 37 28 38 37 37 34 44 26 39 42 29 26 34 38 29 43 33 33 33 30 30 33 28 38 34 31 27 29 38 40 45 37 35 35 48 36 37 31 30 39 26 36 31 35 33 31 37 35 35 30 37 40 32 30 51 25 34 35 36 42 31 29 35 31 41 32 29 32 29 29 41 44 37 30 39 31 35 33 52 31 42 39 39 37 32 43 29 35 31 25 39 37 29 29 36 33 29 31 33 32 35 31 34 35 42 42 36 33 36 44 32 36 27 36 31 33 38 30 40 34 31 24 30 41 32 34 33 34 36 36 37 32 34 40 34 29 39 30 40 29 53 36 30 28 37 31 21 35 33 31 41 36 35 44 42 29 36 39 32 30 44 27 41 32 40 34 36 45 34 32 35 34 40 43 38 32 38 57 28 40 49 34 30 33 48 31 34 47 29 37 38 26 26 41 41 42 31 44 38 36 42 25 36 21 38 38 30 34 35 34 38 44 36 30 30 26 33 36 44 30 27 31 39 32 26 21 24 36 30 34 35 36 22 32 32 34 42 34 38 41 22 27 43 34 35 43 41 41 27 43 39 32 33 37 39 37 33 29 32 27 36 27 34 40 36 27 42 32 34 38 41 31 39 31 36 28 36 42 35 33 37 40 34 34 36 30 32 40 31 43 32 32 39 30 35 36 42 29 28 42 28 29 45 35 29 34 27 35 33 30 42 41 34 34 27 38 36 33 31 33 50 50 47 41 30 33 32 34 35 44 22 31 33 37 39 37 30 37 26 55 37 37 28 41 35 33 38 31 47 37 36 35 38 34 30 30 36 41 32 30 40 30 36 35 43 40 33 15 33 48 38 36 44 38 43 37 44 39 38 44 29 35 42 31 37 43 44 33 35 38 36 32 35 55 36 36 38 29 35 38 42 30 41 37 32 33 39 31 33 25 41 41 40 35 43 39 37 41 34 39 32 38 33 32 34 34 29 39 32 36 41 37 34 33 34 28 35 36 47</t>
+  </si>
+  <si>
+    <t>GAM(131.17628630199215, -292.5051559830175, 4.181776061255708)</t>
+  </si>
+  <si>
+    <t>267 233 299 230 330 203 282 244 278 241 294 306 277 211 281 140 310 269 215 228 316 238 290 257 206 180 251 276 276 274 203 276 221 340 273 219 217 211 265 250 273 304 291 236 304 189 259 280 255 223 346 257 340 284 328 263 197 238 244 283 278 256 262 328 205 232 310 264 282 250 182 268 288 281 259 182 317 321 279 281 291 259 282 226 163 297 185 239 257 237 254 245 269 246 257 245 273 290 148 191 171 295 253 289 301 242 257 414 334 313 343 312 184 265 268 269 300 310 367 194 246 266 186 264 266 252 270 225 245 241 312 148 210 247 276 190 256 343 289 260 292 197 246 315 256 359 288 281 247 224 288 269 279 232 235 237 221 275 248 224 191 310 375 226 266 275 257 278 334 217 225 210 276 267 285 262 329 342 302 192 292 265 177 218 307 184 296 234 221 258 265 340 214 251 288 205 296 231 369 270 191 274 276 304 206 263 281 316 184 232 236 310 212 193 221 180 191 230 196 366 269 284 280 301 275 337 238 321 329 214 283 305 283 274 328 184 296 216 226 214 332 271 235 256 297 299 277 343 199 207 318 306 332 222 249 248 292 254 325 279 246 289 331 330 198 278 210 191 177 216 305 234 241 286 210 230 258 248 227 264 187 282 274 267 197 331 276 248 240 316 290 248 259 272 193 214 357 269 231 274 213 184 237 262 289 329 239 233 252 248 301 258 155 258 214 220 179 314 309 224 236 210 213 234 240 313 297 252 140 228 200 280 289 173 166 337 331 262 278 233 253 307 204 253 220 285 213 142 175 292 353 360 252 205 294 287 230 253 280 259 201 296 253 362 291 232 341 237 326 204 239 298 274 139 286 261 277 242 141 253 273 234 343 265 283 332 229 335 323 254 277 222 308 153 208 211 275 272 287 218 300 145 314 292 245 213 289 282 246 219 282 256 202 315 367 239 209 243 292 192 252 244 219 180 209 357 333 214 236 241 179 166 270 148 212 302 382 252 322 250 293 251 197 225 274 272 304 178 200 278 244 203 273 339 254 263 204 254 207 192 277 222 257 298 247 201 175 347 289 294 313 220 256 288 274 185 329 300 208 224 176 287 177 272 342 217 191 230 334 263 246 342 315 332 254 235 227 239 247 293 266 230 304 355 330 194 198 200 182 271 248 253 357 241 198 146 261 241 253 250 227 282 212 225 238 282 284 295 284 226 308 238 214 331 227 325 234 305 194 292 224 200 271 265 220 200 318 268 308 208 206 365 235 308 283 283 256 311 280 224 194 270 258 269 239 309 343 286 208 328 266 226 271 191 206 302 310 265 158 217 194 268 343 227 298 302 249 250 275 330 214 266 253 285 312 252 302 332 253 349 313 166 302 271 213 248 253 327 272 298 352 156 239 224 255 244 302 255 210 256 242 307 242 185 275 335 371 267 210 240 354 250 259 175 286 293 210 226 249 320 311 267 234 292 224 236 327 259 238 238 245 147 225 240 385 241 295 254 177 256 207 266 254 291 227 245 270 228 214 276 320 269 148 193 263 249 206 175 265 253 317 268 215 278 272 265 308 242 195 343 213 245 288 317 265 247 201 258 277 152 240 232 250 236 302 245 268 349 315 178 197 258 286 175 297 183 300 199 251 358 324 246 321 282 259 225 208 214 226 202 335 275 186 236 296 219 287 297 235 228 240 203 218 274 274 298 346 242 234 287 207 197 394 229 295 235 315 226 202 286 202 273 251 265 265 292 331 177 295 194 293 236 276 223 276 301 374 288 190 170 264 294 197 272 254 243 219 223 272 265 312 235 299 238 252 324 262 237 238 295 171 252 175 250 298 206 280 325 254 339 251 264 294 245 256 313 254 285 243 145 252 176 238 281 250 334 163 242 203 223 293 254 205 309 313 201 243 218 321 282 248 177 239 300 238 323 256 217 248 286 235 343 239 230 313 252 326 182 339 264 335 267 267 302 204 245 211 261 195 310 298 260 223 260 302 312 216 208 217 286 316 280 221 244 240 328 358 277 267 200 251 226 215 317 231 206 298 299 197 184 221 219 349 165 325 243 216 326 243 258 334 244 294 286 288 238 211 261 221 320 289 224 261 302 204 347 303 192 322 170 189 232 221 296 298 256 278 228 206 218 265 292 303 281 302 347 205 287 279 310 226 267 264 307 346 287 244 202 361 243 243 301 222 310 212 288 238 212 292 284 222 183 387 265 186 206 224 340 263 226 268 172 255 265 265 363 205 272 187 203 375 244 230 176 255 306 199 296 253 262 247 269 293 267 310 269 254 220 248 185 289 185 268 195 129 157 299 304 269 254 260 245 229 255 241 349 241 265 284 236 319 276 233 283 297 228 258 255 230 223 283 335 367 282 321 207 275 201 234 256 222 360 232 220 352 289 260 287 257 267 236 229 212 280 194 303 197 217 254 336 349 272 258 318 186 256 311 269 219 212 261 219 202 304 233 311 199 299 287 245 198 296 186 229 265 268 238 247 365 242 278 302 295 174 295 298 297 202 328 205 236 167 261 219 315 183 219 265 218 193 259 269 266 223 240 218 256 227 273 281 296 278 265 227 266 273 315 320 243 190 315 307 229 172 248 360 262 218 205 283 273 223 175 281 247 209 198 310 209 222 281 238 290 321 214 273 177 290 222 227 290 201 330 140 161 276 315 309 334 254 259 334 275 246 263 284 191 325 195 342 225 292 271 208 156 195 231 311 217 200 148 274 241 292 233 250 237 334 245 228 233 270 239 256 248 213 193 275 245 244 173 208 197 228 296 255 233 205 222 299 275 250 275 258 207 229 399 308 296 296 290 346 247 251 206 204 307 322 246 195 230 241 289 235 289 250 273 263 330 239 285 240 261 235 183 228 213 242 426 182 266 260 213 241 210 295 253 197 205 265 264 250 209 283 289 303 232 225 255 186 265 182 246 183 300 258 239 289 296 203 305 209 206 294 258 184 170 284 284 254 166 187 277 197 248 265 242 276 319 205 237 251 257 252 237 322 271 148 327 201 225 232 234 299 256 236 198 209 314 232 301 215 181 275 227 347 229 274 212 224 192 216 238 282 212 220 219 280 194 199 197 323 224 203 291 242 315 251 279 338 221 297 165 246 281 250 251 290 236 268 204 248 319 218 202 247 293 319 247 444 252 187 225 193 273 289 262 187 219 246 230 244 191 219 310 319 222 198 266 237 254 232 230 207 255 241 223 206 272 242 241 242 350 258 290 267 250 290 285 241 222 291 285 188 325 208 278 246 308 235 424 244 324 189 280 251 283 173 278 205 210 296 268 247 302 205 397 276 253 213 281 187 264 235 277 252 274 193 348 232 279 188 217 195 256 237 288 352 161 339 257 235 286 252 252 248 219 273 208 248 181 217 272 234 225 207 285 229 258 279 248 313 318 197 255 335 281 244 324 312 232 227 248 280 237 239 258 246 291 179 269 208 255 253 343 334 229 277 215 260 296 214 204 237 237 202 255 281 237 294 262 204 315 228 256 245 229 264 312 208 257 232 245 206 233 220 210 246 357 221 212 226 274 232 215 315 273 334 197 310 384 321 223 234 277 247 329 300 251 285 272 214 336 178 259 205 229 275 235 329 263 259 181 213 232 285 236 256 273 259 196 310 302 246 250 210 195 207 181 203 225 271 195 292 246 241 232 277 217 202 339 284 294 254 162 280 311 309 297 282 246 227 224 236 327 314 287 298 161 256 254 251 312 167 315 277 222 243 225 220 278 274 269 230 234 284 268 244 259 246 337 224 228 282 201 193 283 150 266 323 285 139 236 296 272 270 220 190 177 156 265 295 176 261 310 197 313 314 278 313 297 245 308 243 208 234 242 162 288 335 202 164 225 255 263 302 234 314 232 276 185 279 238 263 277 286 316 260 274 259 220 321 298 257 215 247 216 323 189 242 309 233 242 297 266 241 214 250 289 219 321 303 245 136 217 194 268 201 270 368 237 224 229 201 276 297 217 232 178 328 262 229 218 287 234 244 245 341 274 231 222 305 211 322 237 251 287 227 226 242 359 201 195 238 323 189 194 288 236 193 344 291 286 326 245 214 300 357 277 255 260 215 224 290 203 238 225 323 252 257 189 221 262 245 230 283 253 239 242 248 268 304 238 314 281 174 274 186 370 285 320 230 218 235 267 299 328 308 181 310 280 309 215 289 132 232 203 287 213 299 306 352 182 246 290 281 207 276 138 189 329 339 299 242 244 326 311 296 219 254 277 283 242 231 317 184 335 268 172 259 300 271 208 319 225 268 208 329 261 246 260 244 326 241 294 177 230 284 241 311 279 255 208 254 259 208 264 238 285 272 272 276 349 211 296 299 244 340 393 257 196 237 220 242 310 262 274 305 245 183 235 282 294 303 249 266 249 221 265 274 238 182 321 204 236 293 284 255 236 249 235 291 253 264 280 381 281 263 300 218 203 198 231 236 233 222 256 313 281 279 286 285 247 221 321 149 229 242 200 213 218 274 302 304 280 144 274 340 172 219 289 215 322 177 316 193 294 273 265 329 245 292 244 231 317 294 208 209 317 232 235 293 242 263 212 324 264 272 266 199 203 213 237 255 258 255 242 268 264 212 366 276 251 307 192 267 264 248 275 252 241 278 323 216 254 285 168 211 329 231 197 290 239 212 335 286 279 266 365 227 270 318 221 264 268 240 305 221 283 238 164 189 173 292 386 177 306 244 225 216 188 243 267 359 291 241 319 315 206 216 321 284 292 247 338 218 215 234 219 243 270 203 338 250 287 207 216 328 242 209 237 252 245 184 277 267 263 268 201 249 273 276 200 244 192 342 262 213 257 232 297 241 312 258 306 223 341 225 158 251 274 219 177 274 162 233 272 265 201 198 191 310 311 211 308 216 303 284 349 280 264 281 228 210 196 287 187 286 264 251 273 257 288 241 246 284 323 262 331 208 247 203 249 171 302 272 341 213 265 331 325 176 249 301 244 296 140 216 238 252 265 349 192 192 145 290 239 220 194 206 210 245 232 281 231 240 213 283 262 312 304 254 285 277 337 301 214 261 211 317 302 205 234 237 259 222 222 241 314 258 296 290 323 200 208 264 206 309 238 252 293 189 245 300 242 244 330 285 352 202 233 270 275 210 221 300 231 280 298 357 256 246 236 330 202 259 145 338 209 349 337 218 284 184 254 212 282 316 230 283 299 281 244 273 290 227 276 301 251 295 250 200 280 262 196 246 357 249 327 301 218 180 275 276 197 262 181 221 261 333 244 239 229 308 254 254 316 199 258 238 241 220 319 292 285 240 312 183 346 276 303 317 270 203 284 293 202 342 311 287 271 201 233 209 246 312 308 222 260 263 262 200 231 148 184 265 285 200 266 214 280 251 335 286 202 214 255 220 244 220 305 264 276 302 312 189 235 270 234 165 332 191 270 223 189 203 269 178 185 197 318 312 294 295 181 300 206 263 261 207 225 211 308 201 281 236 382 332 216 413 231 225 235 234 312 267 233 282 255 337 214 259 207 373 251 279 274 267 236 374 176 172 247 281 193 228 217 309 337 249 157 187 360 255 267 282 248 220 274 233 300 282 235 314 303 291 270 293 259 244 321 263 239 135 319 199 238 247 200 322 227 201 294 295 333 327 241 151 201 231 201 241 250 315 265 263 269 203 233 229 242 347 200 260 288 254 242 235 265 233 280 307 268 194 199 205 306 235 344 297 245 289 176 306 271 281 297 250 293 301 233 243 273 209 251 259 190 330 245 306 222 261 272 282 204 293 261 229 199 197 233 213 268 246 291 264 286 204 248 265 227 264 229 244 225 389 296 317 262 286 259 278 344 177 270 247 344 196 198 239 279 215 305 228 210 220 244 261 178 201 253 231 381 209 231 353 255 285 219 311 219 271 205 202 334 300 284 299 260 208 263 316 282 213 314 260 271 238 280 358 204 225 245 282 228 260 300 185 243 249 210 241 267 245 242 247 235 239 265 229 262 126 299 216 275 272 349 294 264 254 288 236 230 286 270 276 251 243 291 286 298 267 331 228 287 249 133 216 219 292 226 232 364 286 308 325 212 323 250 277 266 252 298 273 275 239 280 248 288 238 193 247 261 303 234 269 278 245 306 207 159 215 295 226 212 212 267 276 240 325 274 236 283 262 224 374 350 303 338 213 213 245 195 237 247 187 367 189 278 208 278 198 269 197 298 250 400 252 233 190 229 137 139 215 325 245 280 230 217 248 240 257 233 178 252 279 258 190 177 172 240 290 273 277 355 205 264 288 247 235 296 309 210 277 231 310 258 234 255 153 242 274 276 318 283 301 266 246 245 257 356 275 184 302 272 280 236 277 211 267 313 244 273 336 248 176 220 190 240 269 281 289 189 175 220 310 255 221 290 351 214 305 338 353 219 300 221 288 280 215 243 368 229 259 260 217 259 199 258 221 286 257 226 234 219 244 192 324 282 188 261 208 289 240 163 171 215 259 268 227 240 213 283 272 273 298 316 336 309 325 322 256 192 259 310 220 290 338 174 240 298 250 234 267 237 257 309 221 183 319 278 319 269 242 186 218 199 177 209 284 170 162 250 209 300 260 220 225 342 226 232 228 334 305 224 245 256 292 320 241 236 259 331 239 192 297 299 265 347 216 267 286 248 240 278 395 205 248 250 204 174 309 268 252 159 217 231 175 257 230 191 280 211 230 241 301 224 247 247 306 283 213 235 249 261 180 257 259 223 352 234 249 217 234 265 275 229 262 277 270 293 193 158 267 217 302 299 213 256 255 267 269 220 281 248 225 287 249 224 216 168 298 237 236 246 253 293 228 285 299 319 303 291 209 253 213 237 210 332 189 291 238 274 217 224 327 262 273 206 200 342 218 281 185 310 205 289 188 172 314 285 268 301 235 311 246 287 210 240 221 228 262 249 329 209 281 235 246 264 294 143 344 275 250 266 255 213 173 224 251 276 221 260 263 233 240 327 258 179 202 226 246 316 271 270 230 215 293 254 252 358 250 275 281 277 254 228 329 243 275 245 192 221 252 279 292 178 215 153 220 354 285 264 252 199 247 255 249 253 196 282 315 216 302 194 196 233 302 214 285 234 292 306 243 237 176 201 292 241 243 269 339 308 290 314 302 245 307 201 270 166 360 257 269 156 189 254 278 238 213 350 240 202 139 290 335 313 314 237 232 332 274 193 218 255 292 214 277 250 237 229 223 266 173 166 226 273 225 255 264 307 259 315 235 266 287 157 269 290 147 295 334 303 284 307 319 269 243 295 218 340 320 260 288 225 306 220 187 285 264 265 288 304 253 212 263 254 227 306 245 230 285 266 277 222 298 228 193 233 202 214 232 244 227 189 299 249 232 191 258 345 289 268 186 143 290 278 236 315 244 208 302 308 260 233 280 222 218 255 343 177 311 299 267 165 230 205 351 281 219 287 227 285 235 325 348 172 308 223 232 285 268 276 254 309 234 264 250 245 257 272 301 204 249 223 212 207 303 191 353 242 282 215 186 301 217 273 226 367 206 221 279 190 236 252 247 282 202 197 258 254 212 337 233 332 283 205 269 251 193 306 227 296 350 302 284 157 254 309 236 221 290 239 271 290 316 324 261 249 337 306 274 251 275 265 284 254 332 176 251 204 206 318 266 226 288 331 326 314 199 295 238 319 340 299 281 319 322 203 202 220 236 273 342 215 249 226 160 288 197 227 217 269 288 229 276 192 223 397 231 227 217 266 214 319 309 382 182 253 266 156 238 264 233 194 352 268 237 164 231 325 284 179 220 202 250 390 320 240 232 190 263 308 214 209 229 274 285 258 221 185 311 250 359 212 314 259 225 338 256 213 205 267 268 186 229 278 205 241 217 235 243 309 213 352 293 289 213 256 243 249 215 213 257 180 245 330 293 328 305 268 292 309 273 337 365 324 308 260 339 344 372 354 260 248 244 243 364 343 283 267 343 247 289 255 220 275 312 392 233 250 216 305 236 235 334 267 220 211 161 230 322 297 227 215 208 213 261 237 121 293 347 208 271 249 178 274 222 255 220 343 226 251 293 237 221 217 201 206 217 267 211 229 191 257 256 283 209 287 274 262 313 413 316 297 224 259 267 309 238 277 205 249 155 231 277 192 283 271 244 249 277 223 212 282 282 247 253 313 218 161 319 352 228 314 382 224 267 330 177 300 222 235 215 316 205 216 323 323 287 266 210 231 282 222 240 305 314 296 266 208 205 286 183 163 218 227 326 207 215 245 364 238 243 183 243 312 208 295 322 284 216 189 290 210 220 265 191 267 234 215 308 219 261 263 276 314 279 354 313 247 260 218 284 218 245 190 228 243 262 282 176 294 295 267 211 276 275 189 317 210 306 318 249 340 306 247 327 309 346 270 341 259 289 240 382 257 194 180 148 186 211 199 318 186 268 276 199 189 269 329 325 303 280 307 286 246 181 260 225 241 244 233 167 326 183 269 248 344 288 211 176 317 181 184 301 284 284 270 268 337 342 208 217 255 271 287 165 286 237 201 178 245 249 246 255 224 211 354 230 338 197 229 266 243 325 293 257 255 303 272 247 247 349 156 235 253 301 251 347 221 298 269 232 247 306 267 196 258 236 214 197 207 248 189 270 241 247 273 216 275 205 269 182 234 293 299 255 359 196 246 238 268 295 252 312 314 230 292 232 256 310 198 271 236 317 340 299 277 176 267 204 259 204 206 285 236 274 263 206 206 240 234 324 202 227 207 314 233 212 245 144 313 273 224 227 246 242 238 294 195 341 319 235 299 192 203 266 231 213 227 241 276 262 289 278 300 329 194 281 331 264 214 308 249 242 309 300 310 253 225 203 282 226 236 277 177 238 227 253 284 274 199 348 256 195 184 259 257 194 208 229 338 307 261 221 230 273 143 309 288 267 167 214 268 211 319 220 252 257 191 280 295 217 266 356 324 195 234 215 219 315 321 188 255 281 222 272 281 180 266 249 227 278 324 312 336 191 224 277 269 242 262 296 312 211 213 219 332 241 286 297 299 232 206 198 282 306 269 238 220 286 347 298 188 239 141 233 311 239 292 282 288 274 259 171 184 271 324 193 375 214 234 176 184 295 310 256 262 328 272 220 309 170 237 254 246 256 185 269 268 314 304 211 115 279 304 278 328 212 277 249 287 324 265 235 127 315 278 224 230 249 226 245 292 175 317 300 333 144 188 245 305 340 317 288 234 309 249 260 324 219 240 261 248 190 209 201 229 310 192 230 229 229 230 165 270 181 244 285 290 183 210 238 326 282 208 234 188 262 316 253 186 228 313 248 209 332 319 326 157 240 211 176 265 251 266 303 269 260 227 305 208 246 174 181 244 291 306 231 244 296 182 201 320 305 328 230 214 281 287 195 339 286 280 252 163 246 215 304 308 181 175 280 286 249 246 389 266 219 322 265 235 269 236 362 245 153 421 225 262 278 249 276 285 327 213 165 241 369 287 193 290 246 256 319 182 195 210 378 215 285 318 281 248 276 190 350 206 277 271 270 242 194 262 233 263 221 313 228 284 268 267 364 197 181 295 339 298 175 279 290 252 275 204 261 285 298 223 313 174 332 279 316 319 238 286 243 226 174 225 161 221 247 224 330 282 350 238 316 205 233 197 291 215 209 352 231 272 225 195 213 331 241 285 289 311 312 279 246 234 324 189 234 279 287 244 256 230 304 285 172 204 258 257 267 317 283 284 231 283 223 185 275 300 194 258 333 262 206 216 232 260 285 287 363 286 205 312 306 280 241 266 181 248 344 136 252 262 265 283 347 275 340 239 188 318 330 185 250 381 285 222 306 236 205 202 291 318 257 234 269 274 283 338 306 309 279 318 242 230 307 221 211 241 226 159 316 231 227 261 209 195 348 236 208 234 241 281 323 271 285 228 261 273 137 299 259 204 250 252 242 338 318 249 281 273 297 333 287 208 271 180 275 233 248 303 287 226 261 260 321 294 227 232 197 292 262 278 143 212 321 267 324 267 248 256 263 254 246 249 287 206 274 198 300 245 334 204 181 239 166 258 277 223 186 274 409 231 342 249 332 290 298 282 249 240 240 254 214 231 252 263 269 253 312 296 305 204 259 247 270 176 243 255 250 237 219 226 261 240 300 195 239 270 252 297 271 200 245 272 219 204 264 243 251 274 254 229 270 219 231 314 313 228 278 306 257 298 296 212 277 280 220 139 222 208 281 283 388 240 245 302 259 240 213 216 203 252 201 234 271 243 263 276 178 286 195 241 260 310 201 250 311 230 217 257 204 335 296 189 280 298 215 137 310 146 290 189 278 201 271 270 276 273 252 276 182 235 218 196 242 208 235 281 198 354 325 358 236 227 343 305 240 278 257 198 373 297 290 224 296 237 237 273 269 258 287 260 208 279 191 237 239 279 208 315 276 206 200 321 280 299 210 237 283 281 201 325 300 256 193 239 320 271 292 267 288 179 251 262 260 233 247 191 260 264 287 248 307 239 259 187 223 249 257 252 256 214 309 194 240 244 251 299 228 238 214 245 245 244 227 291 279 315 304 252 237 234 223 140 374 148 297 307 262 261 245 330 272 309 275 254 148 225 203 251 215 284 313 190 286 257 240 256 300 322 265 192 269 257 234 341 226 248 259 355 199 284 147 293 290 240 213 280 258 251 239 249 226 251 202 266 234 267 191 205 298 251 285 253 259 212 220 196 325 198 233 291 267 320 310 290 203 209 170 233 215 168 241 346 231 199 209 282 285 311 219 257 223 378 257 327 306 198 189 221 255 331 243 283 253 172 325 353 281 290 265 288 351 229 192 274 241 350 305 272 205 375 323 273 289 227 241 346 373 198 228 280 246 144 294 264 217 216 282 291 305 243 244 242 345 310 265 242 322 311 236 222 319 261 322 254 169 229 261 269 319 257 250 261 283 310 243 240 264 223 263 264 285 295 316 241 218 179 313 236 210 208 227 292 227 236 247 199 190 246 279 267 345 194 276 270 224 323 300 211 304 274 247 148 241 284 262 181 260 241 366 248 202 235 214 283 284 312 277 242 245 218 260 225 358 319 258 330 218 208 195 217 297 231 254 280 201 281 242 216 200 278 265 200 220 236 285 151 280 292 212 234 213 238 307 168 280 274 226 259 241 289 223 293 290 228 244 315 217 264 246 233 202 220 205 222 300 275 200 251 238 293 196 240 259 214 320 209 270 259 230 247 287 256 258 229 220 267 254 322 278 241 231 248 255 218 248 250 229 289 286 233 275 215 274 218 226 258 319 309 213 281 294 249 196 296 225 242 286 242 373 225 185 306 190 214 214 220 290 309 288 254 287 274 245 262 283 297 208 177 335 232 273 248 194 358 308 240 306 202 311 304 169 258 328 287 227 293 206 255 242 229 170 252 360 227 314 256 267 196 312 229 243 259 223 257 267 271 224 187 225 300 244 242 254 264 266 333 237 252 233 263 268 226 260 251 280 199 282 233 267 228 301 262 274 238 249 221 202 144 278 279 322 208 239 252 217 210 290 209 302 299 240 308 188 310 197 204 239 312 218 204 304 255 236 185 238 287 210 188 251 186 259 208 269 201 288 215 334 230 224 360 249 218 283 220 313 249 241 355 271 223 311 295 241 299 275 272 198 294 249 229 289 233 342 300 201 270 184 292 275 313 215 290 225 249 179 235 226 283 321 285 224 262 207 161 316 265 352 210 218 248 187 291 220 254 254 303 240 325 316 261 337 327 242 232 202 280 229 307 277 221 238 158 210 238 286 215 264 326 322 234 323 377 181 318 268 279 290 310 169 176 341 260 327 273 286 174 334 220 304 312 227 152 214 276 273 238 180 323 224 253 229 256 248 233 146 283 305 310 256 222 216 239 231 221 206 268 303 266 269 249 337 249 358 213 274 259 230 305 192 225 297 182 327 256 233 187 150 305 218 184 262 232 212 242 331 255 330 279 281 215 351 256 245 160 243 209 268 247 218 240 225 384 236 249 260 279 302 183 269 236 249 164 293 267 207 135 239 156 171 291 263 199 294 193 255 190 242 246 241 221 280 291 253 164 251 252 235 266 339 303 135 261 281 275 208 266 186 296 253 287 303 224 192 217 278 238 234 230 197 318 184 420 256 217 194 249 256 240 287 299 256 329 217 337 211 209 276 309 191 253 264 250 193 228 178 312 266 226 295 183 342 257 223 217 284 240 386 267 302 200 248 354 329 248 257 231 127 206 153 232 243 306 231 193 219 235 240 235 284 325 258 154 285 322 302 151 267 354 175 184 244 260 236 391 340 208 238 306 288 235 312 333 319 272 209 217 278 239 184 275 313 264 259 289 263 323 229 210 226 205 262 176 318 281 208 288 243 299 250 347 280 259 185 172 276 219 285 291 198 226 256 236 258 309 272 249 159 219 292 280 265 280 270 344 217 333 177 327 260 271 236 213 250 295 285 354 343 310 278 261 300 287 198 289 179 257 266 308 256 269 223 314 305 269 287 314 219 308 237 334 233 268 209 271 259 347 327 270 226 333 270 224 289 329 276 307 261 343 300 219 302 231 205 224 357 216 317 252 373 321 254 214 242 202 304 208 311 266 277 333 214 272 340 219 211 286 296 257 243 299 333 259 248 192 289 340 297 250 173 293 278 226 285 266 301 211 232 166 394 324 343 281 316 220 291 174 270 147 158 213 240 254 188 298 207 270 304 286 243 232 230 283 283 227 207 320 226 282 297 252 265 199 227 212 282 279 310 225 307 267 270 187 247 213 295 175 314 279 208 285 247 258 161 202 300 270 243 244 189 236 244 249 321 233 267 261 299 221 238 308 277 246 328 231 294 310 281 269 251 194 246 276 285 290 238 300 274 256 232 232 293 265 318 256 264 245 191 237 242 235 243 242 216 237 346 272 259 322 204 190 288 164 174 275 279 171 315 197 365 290 250 333 330 227 202 195 327 221 301 238 225 253 176 306 365 249 262 288 297 247 207 236 232 195 211 168 256 189 309 176 324 303 257 271 179 210 274 306 287 230 234 296 214 225 229 280 270 232 255 275 240 251 307 259 260 305 235 271 211 242 198 266 155 292 142 262 219 177 293 312 260 293 308 304 304 218 256 298 240 349 259 287 236 263 254 230 357 274 245 301 320 277 241 247 261 260 260 212 254 199 281 216 306 308 181 224 278 257 255 298 220 308 306 278 244 271 261 211 211 252 253 258 189 265 270 236 251 243 271 263 296 235 264 182 248 271 231 283 278 235 273 239 280 273 250 399 215 266 245 225 286 273 322 215 266 220 269 226 213 250 210 224 233 304 261 375 237 256 291 258 221 208 211 257 303 244 214 131 326 225 269 226 209 186 256 277 258 247 204 250 146 298 223 235 307 265 317 310 326 287 275 226 208 269 262 240 239 387 294 229 269 206 194 268 260 270 315 329 201 257 221 228 251 165 346 300 217 223 280 285 252 228 230 229 239 395 241 264 246 200 157 237 262 196 154 245 209 285 298 307 335 311 210 250 282 275 278 239 260 208 206 239 243 267 267 291 244 253 170 288 229 288 340 249 200 271 333 241 266 240 375 221 244 284 223 190 231 302 223 352 317 252 248 214 253 212 250 244 330 260 324 245 187 260 225 310 240 251 258 207 251 224 298 298 295 298 204 183 244 337 268 213 287 286 152 194 266 218 204 211 212 284 253 219 235 204 243 206 249 298 267 295 246 202 276 301 238 207 256 225 255 228 286 278 218 221 376 235 278 264 265 192 223 334 274 276 365 167 175 239 329 275 256 277 345 284 233 275 184 205 219 348 276 238 288 280 220 291 288 199 276 227 235 337 289 262 348 158 228 180 344 243 201 296 245 296 264 189 345 218 273 228 314 260 115 257 254 226 256 301 226 208 297 210 181 181 112 306 337 259 269 323 235 250 227 178 226 281 160 278 236 317 262 275 243 229 246 269 292 199 326 194 249 268 229 328 266 307 273 301 273 174 281 230 216 244 222 245 218 169 265 266 202 269 230 223 229 255 315 263 220 278 276 263 301 312 192 242 315 292 277 267 242 275 188 210 304 263 230 290 229 230 213 230 235 302 251 259 307 297 259 308 349 308 339 252 295 335 229 213 260 253 255 206 365 269 286 289 235 206 231 246 203 205 286 180 272 299 236 256 196 277 317 308 347 311 212 267 255 283 171 256 314 197 284 263 278 203 177 298 241 253 164 202 244 230 234 281 276 199 340 182 240 317 283 285 297 270 193 256 212 332 295 242 239 286 281 259 195 236 314 214 212 244 210 305 270 322 337 289 310 237 255 281 239 302 215 255 251 209 228 343 300 231 269 269 262 312 214 298 340 308 255 225 202 237 228 342 308 230 337 329 265 316 226 237 302 219 297 341 247 308 231 331 251 187 272 247 246 222 204 242 229 326 234 258 241 322 161 181 278 207 296 180 204 283 218 273 250 277 295 269 338 246 253 267 266 251 322 264 208 292 232 267 304 287 275 282 306 300 249 344 317 180 228 207 267 197 289 328 300 239 203 270 245 180 226 282 232 301 261 247 246 266 182 261 243 232 279 267 310 169 263 256 263 226 232 361 223 206 219 231 331 231 264 266 246 331 360 300 219 205 364 251 215 263 285 248 250 246 180 264 330 240 220 256 250 283 251 256 249 290 221 310 191 248 257 290 225 316 228 270 197 272 209 252 168 345 255 268 322 290 270 194 199 150 264 279 339 281 266 286 220 276 285 187 305 196 302 245 252 283 215 297 212 233 313 278 324 219 189 316 239 229 198 217 252 204 260 277 205 221 175 258 181 270 253 189 295 331 322 299 273 263 185 286 263 256 171 181 254 269 215 308 263 266 317 230 231 256 249 282 245 212 313 305 359 104 299 243 289 216 248 266 260 289 328 168 284 203 299 186 202 250 365 250 207 257 244 340 268 338 294 338 338 260 285 212 252 169 314 296 249 270 198 145 250 236 286 258 235 291 152 193 322 282 346 166 259 231 299 267 232 218 268 349 278 198 190 233 194 238 304 256 164 368 207 266 208 307 331 333 336 343 153 298 261 272 223 192 223 391 319 357 281 256 248 294 233 242 156 242 208 192 225 192 281 258 262 210 256 234 251 233 337 230 276 277 244 352 204 290 202 106 283 333 271 279 233 183 199 195 198 212 180 325 274 282 213 306 278 247 213 268 159 289 279 200 232 274 265 217 315 180 282 252 350 183 279 333 285 172 281 186 305 306 262 186 276 206 286 301 262 288 313 186 278 195 330 199 254 336 320 193 273 211 255 276 266 321 244 237 232 370 295 297 302 247 231 306 283 244 362 263 222 232 337 271 177 265 277 216 221 266 247 263 317 277 268 303 173 337 267 290 222 306 267 289 349 267 225 203 229 250 166 264 366 246 203 209 388 248 239 204 228 155 236 177 249 318 197 308 337 216 299 237 354 255 281 135 197 338 238 270 233 229 187 270 287 321 319 210 195 246 166 251 297 262 296 236 303 193 339 206 296 219 260 194 164 299 257 267 157 287 160 261 320 245 326 278 255 293 287 285 215 328 270 156 347 323 280 319 261 298 421 230 257 308 235 269 218 228 162 289 231 331 245 235 220 252 303 271 231 280 226 236 213 258 301 307 183 238 321 244 212 203 235 289 208 297 198 275 197 208 294 269 217 292 268 232 119 171 301 355 281 235 238 220 251 288 255 281 296 239 235 265 170 224 269 249 317 330 256 212 253 280 254 205 368 239 242 277 240 258 207 249 208 312 353 266 321 389 246 280 289 267 198 288 368 192 273 170 253 227 237 304 218 263 263 255 274 178 339 361 131 218 251 194 306 219 277 229 162 165 176 248 266 241 260 359 240 285 191 275 170 227 347 168 220 242 196 269 279 213 277 196 300 199 260 196 259 308 302 248 334 181 310 353 267 354 229 294 407 181 241 189 313 180 248 265 255 271 269 262 261 283 187 264 295 288 339 292 264 329 198 311 216 252 177 349 259 229 243 170 251 262 234 293 274 234 241 282 189 324 208 249 302 366 305 300 157 226 209 234 203 205 237 272 206 324 274 287 240 253 389 259 296 308 211 246 283 160 239 339 221 295 297 289 229 291 216 265 329 231 274 198 234 330 239 301 243 247 248 191 243 204 322 364 223 290 320 283 197 251 321 280 182 336 333 304 199 230 279 183 242 196 192 189 266 230 307 212 193 211 223 159 243 319 256 255 219 236 270 270 175 283 264 322 167 269 119 254 296 249 236 245 290 254 250 268 170 297 229 243 250 207 203 308 214 291 348 350 210 194 181 254 282 296 120 155 215 240 229 156 178 246 223 275 242 227 226 223 201 295 353 247 229 344 285 302 191 232 298 244 249 288 277 253 195 279 210 204 254 190 247 254 252 303 240 225 242 246 248 295 301 338 306 280 340 356 306 384 144 342 264 235 217 258 280 244 271 251 287 303 279 234 311 269 294 261 241 289 206 226 195 205 248 191 275 285 248 276 340 343 269 245 324 219 231 276 188 278 299 181 242 277 293 307 280 169 379 234 264 245 261 183 261 237 259 204 242 295 278 293 204 234 204 325 166 255 289 342 226 198 225 290 289 346 260 264 188 160 230 225 213 400 158 224 277 197 239 230 228 245 267 247 290 209 306 244 310 288 320 237 190 296 294 287 334 204 281 193 235 220 205 267 182 247 373 190 231 337 351 276 261 280 271 287 271 240 247 272 245 261 216 248 245 315 329 261 237 346 225 218 156 235 304 216 242 299 264 246 249 277 250 278 176 238 322 351 253 174 260 295 240 338 122 180 298 288 230 262 227 298 249 175 216 268 187 273 201 303 321 285 298 272 170 246 286 260 279 224 300 260 240 245 277 207 214 272 266 214 200 229 247 303 333 370 355 241 289 253 235 271 145 338 168 186 243 211 246 210 213 225 176 186 202 289 163 216 255 309 250 208 308 253 301 253 218 254 222 291 171 252 222 219 298 312 206 282 278 280 333 285 276 238 307 218 202 235 275 185 135 323 196 254 312 221 190 284 264 280 215 261 275 325 312 212 268 195 234 178 313 292 262 257 208 246 264 301 212 247 338 241 245 225 214 253 296 259 182 238 290 298 214 256 246 244 249 378 231 303 260 248 231 170 328 278 314 343 329 279 331 200 314 329 196 282 331 189 253 284 180 184 234 137 267 264 270 314 266 319 323 307 239 193 262 196 268 203 215 279 247 232 225 150 187 288 229 167 287 252 273 222 226 272 262 163 258 289 268 202 230 287 240 265 193 292 310 303 257 308 273 247 227 325 201 158 145 307 204 299 234 256 204 305 240 301 226 145 281 332 257 243 224 217 304 160 265 239 308 246 228 253 211 214 276 278 212 222 227 410 303 310 250 259 348 198 278 283 212 288 319 197 254 252 183 237 273 293 256 217 306 244 273 220 238 276 204 184 261 325 219 321 215 235 213 196 306 206 290 240 286 155 263 357 379 238 293 254 222 269 216 262 293 244 216 221 205 318 231 214 230 253 234 223 285 242 326 285 213 216 260 199 217 199 277 277 275 256 172 321 224 255 251 321 254 375 262 217 259 257 301 213 309 256 295 249 253 244 293 194 271 249 206 324 241 330 182 224 256 248 260 293 255 229 316 266 266 191 240 247 278 219 197 261 249 305 220 388 193 270 206 217 247 224 284 216 186 290 203 247 234 155 249 277 335 290 196 264 263 304 280 385 178 367 281 234 306 262 353 246 176 314 272 330 318 259 306 264 233 308 275 270 184 220 221 287 227 287 288 208 343 277 237 339 315 210 239 248 185 263 268 256 256 127 310 204 217 154 235 303 237 262 284 294 212 192 359 291 193 253 311 216 228 173 234 192 325 229 313 309 242 265 220 237 175 415 342 246 235 247 245 189 220 210 175 191 264 203 278 284 292 237 363 236 363 202 204 192 342 228 210 268 324 299 232 366 349 228 225 365 227 230 315 242 257 190 250 267 187 285 274 223 295 308 216 226 257 276 167 272 220 259 259 216 264 230 234 170 325 325 243 291 352 299 309 244 277 207 162 337 271 230 298 198 230 247 275 244 338 262 252 275 223 285 348 207 264 319 276 252 252 219 237 255 342 250 203 319 296 259 226 287 256 235 229 288 288 247 185 350 296 222 227 205 328 217 257 327 264 319 291 263 293 278 172 196 361 198 268 269 244 258 209 193 317 244 238 201 267 214 203 192 240 268 294 289 273 285 155 217 346 190 218 302 253 233 216 301 290 218 208 186 169 272 278 283 363 234 221 288 247 246 214 186 215 216 284 214 299 264 351 274 193 235 169 294 259 263 257 215 244 261 196 171 266 225 172 235 250 244 316 209 347 352 270 233 223 293 263 209 211 310 275 317 318 325 245 274 157 274 264 190 262 279 252 262 182 272 271 216 272 209 325 205 252 150 202 261 309 290 309 180 244 269 287 282 345 205 312 246 185 316 207 267 237 268 156 252 217 202 203 286 337 249 229 264 267 209 298 237 248 275 242 313 201 338 255 223 305 266 223 219 194 236 328 273 254 220 195 296 233</t>
+  </si>
+  <si>
+    <t>MIE(0.6690964832787161, 4.645469310510869, -1.4982037510828502e-23, 2.8327973300426255)</t>
+  </si>
+  <si>
+    <t>1 2 2 1 3 1 1 2 2 3 2 2 2 1 3 0 0 3 1 1 1 3 1 0 1 1 1 3 1 5 1 3 1 0 2 1 2 2 2 1 1 3 2 2 2 0 1 2 3 0 4 1 2 0 1 3 1 1 3 2 3 2 1 3 0 2 3 3 2 2 1 3 1 2 2 1 1 3 2 2 0 1 3 2 0 1 1 2 1 1 1 1 2 1 1 2 2 2 0 0 1 4 0 1 0 2 1 5 1 1 3 0 1 4 1 2 2 3 1 2 4 5 1 1 2 3 2 1 3 0 1 1 2 0 1 1 1 1 3 2 0 2 2 2 2 2 2 0 1 1 3 2 1 1 2 3 2 1 2 0 1 2 4 1 3 0 3 1 1 0 2 0 1 0 3 1 2 0 3 3 2 2 1 1 4 1 2 2 0 1 2 1 3 2 1 0 2 2 1 3 3 0 1 1 2 1 3 4 2 1 1 3 1 2 0 1 2 2 2 4 2 1 3 3 2 3 1 1 2 2 2 0 2 0 2 3 1 1 0 1 2 2 3 1 1 1 2 3 1 1 3 2 3 1 1 1 2 0 3 1 2 1 4 2 2 3 1 2 0 2 2 2 0 1 1 1 2 3 0 0 1 2 0 2 2 3 2 1 2 2 2 2 2 2 0 1 5 1 1 2 1 2 2 3 1 2 1 0 3 4 1 2 0 1 0 0 1 2 1 2 1 2 2 0 1 1 2 1 0 1 2 3 3 2 2 5 2 1 0 1 1 4 1 2 2 2 2 1 1 2 0 2 0 0 2 0 1 0 2 2 1 1 1 2 1 0 4 1 3 2 2 1 2 1 3 0 3 0 1 2 2 1 2 1 1 2 1 2 3 2 1 2 0 1 3 1 1 3 2 1 3 2 3 3 1 0 3 3 0 3 2 4 1 3 1 1 1 2 2 1 1 1 1 2 0 5 2 1 3 3 1 1 1 1 2 1 3 0 3 3 1 1 1 1 1 0 4 0 1 2 3 1 2 4 3 1 2 2 2 0 2 2 2 3 1 1 2 2 1 4 1 2 1 3 1 1 3 1 1 0 1 1 3 1 3 0 1 1 2 3 2 2 3 1 3 3 2 0 3 2 2 1 3 1 2 1 0 2 1 2 1 2 1 1 1 1 0 1 2 0 1 1 3 2 1 1 1 1 1 0 2 0 0 1 1 2 1 1 1 3 2 0 1 2 2 2 2 1 3 2 2 3 2 2 2 0 2 4 4 1 3 1 4 2 1 2 2 1 2 1 2 1 2 0 0 0 2 0 0 1 1 3 3 2 3 1 1 2 4 3 1 3 0 4 2 2 4 4 1 1 0 1 3 1 1 2 1 2 3 1 2 1 1 2 2 0 3 3 1 2 1 2 2 1 2 3 5 0 3 2 5 3 1 1 2 1 2 1 2 2 3 1 1 2 1 0 2 2 2 2 3 0 3 1 2 1 0 2 1 2 1 3 2 2 2 1 1 2 2 3 1 0 1 1 2 1 1 0 2 2 2 2 0 2 0 2 3 2 0 3 2 2 3 3 2 1 0 1 1 2 2 2 1 2 3 3 2 3 4 0 0 2 4 2 2 1 2 1 2 5 1 2 1 1 1 2 1 2 3 1 3 2 2 2 4 3 1 1 1 2 4 2 0 1 2 1 3 4 4 4 1 0 2 3 2 1 2 2 0 2 2 1 2 2 0 1 2 1 3 1 1 2 2 1 2 2 4 1 2 0 1 0 0 0 2 2 1 2 2 2 3 2 0 1 1 2 1 1 1 0 0 3 0 2 2 1 4 3 1 2 2 2 2 2 1 1 3 1 3 0 1 1 1 4 0 3 0 0 2 0 1 3 1 2 1 1 2 0 2 2 1 0 2 4 2 3 2 2 0 3 1 2 2 1 2 1 2 1 3 1 2 1 1 3 1 1 1 1 1 0 1 2 1 2 2 1 1 2 3 4 0 2 1 1 2 3 3 1 2 1 1 2 0 3 1 1 1 4 2 0 0 2 2 2 3 2 1 1 0 1 4 1 1 3 1 1 1 0 0 2 2 3 2 3 0 2 3 0 5 1 1 2 1 1 3 3 1 0 0 1 1 2 1 2 2 4 1 1 3 4 1 2 2 1 2 0 1 2 3 1 2 2 0 5 2 2 2 1 2 0 3 1 3 3 1 2 0 2 1 1 1 0 1 3 1 4 2 1 2 0 1 1 3 2 0 3 1 0 1 2 2 1 0 0 1 2 1 2 1 2 1 0 3 2 0 1 1 4 2 1 1 4 1 0 4 3 2 3 3 2 3 2 2 2 2 2 3 2 2 2 2 0 2 2 0 2 0 2 2 2 3 3 0 2 1 2 2 3 1 1 1 2 1 2 1 1 1 0 1 1 2 3 2 3 1 2 3 3 2 2 2 1 2 3 0 1 1 2 3 0 0 2 1 3 1 1 1 2 2 3 1 3 2 2 1 2 2 1 2 3 3 0 0 0 3 1 1 1 2 0 2 1 2 1 2 1 0 1 3 2 1 2 2 1 1 1 3 2 1 0 2 3 1 1 0 5 0 1 2 2 1 2 0 1 1 0 1 2 1 2 1 1 4 2 1 2 1 3 2 3 1 0 0 0 1 1 1 4 3 1 1 3 2 3 1 3 1 1 0 2 1 2 2 1 0 0 0 4 0 1 0 1 2 2 1 2 1 3 3 1 2 2 2 2 2 2 1 3 2 0 0 1 3 2 2 2 2 2 1 2 0 0 3 4 2 2 3 0 3 1 5 2 3 2 1 0 3 1 0 2 1 3 2 1 2 2 2 1 1 1 1 2 2 1 0 0 1 2 4 0 3 1 1 1 0 2 0 1 2 2 1 2 2 1 2 3 2 2 2 0 2 1 1 1 4 3 2 1 2 1 4 0 1 1 2 1 1 1 2 2 1 1 4 2 2 1 2 0 2 2 3 0 1 2 1 2 3 0 2 1 2 2 1 2 0 2 1 3 2 2 1 1 3 2 2 5 2 1 1 4 0 3 1 3 1 1 1 0 1 0 1 2 3 3 2 2 2 1 3 3 3 3 1 2 1 1 1 3 2 2 2 2 1 1 2 2 2 1 2 2 2 1 1 2 2 2 1 1 1 0 2 0 0 1 1 3 2 2 0 2 3 1 1 2 2 2 2 1 2 2 2 1 6 1 2 1 2 4 1 3 1 2 3 2 3 1 2 3 1 3 3 1 1 1 4 1 2 1 3 1 1 3 2 1 2 0 4 1 3 0 3 0 1 0 2 1 0 2 0 1 4 2 2 1 1 0 1 4 1 2 2 1 2 1 1 2 0 2 1 2 3 3 1 0 0 1 1 1 2 3 3 5 2 1 1 2 3 2 1 2 2 2 1 0 2 2 1 1 1 1 3 1 0 2 3 3 1 1 1 3 0 1 1 1 1 1 2 1 0 3 2 0 0 1 1 1 2 0 2 3 2 0 1 3 1 1 2 3 1 3 1 0 2 1 0 1 2 3 2 2 2 1 1 1 3 2 3 4 3 1 2 1 1 2 3 1 1 2 1 3 1 2 1 1 1 1 3 2 2 2 2 1 1 2 3 2 0 1 2 1 1 3 1 1 1 2 2 2 1 0 2 1 3 2 0 1 1 1 2 2 3 1 1 3 2 2 1 2 0 1 2 2 1 1 2 1 2 2 3 0 2 1 1 1 3 3 0 1 1 0 1 1 2 3 0 1 1 0 2 2 2 0 2 2 0 3 0 1 2 1 1 2 0 2 3 2 4 1 2 1 3 2 2 0 3 3 2 1 1 3 2 0 0 2 4 1 3 3 1 1 0 0 0 1 2 2 2 2 3 1 1 1 2 2 2 1 1 3 1 1 2 1 2 2 3 1 2 1 3 3 3 1 1 0 1 1 1 0 1 2 0 1 2 3 2 2 1 1 2 4 1 2 1 1 1 1 0 2 3 1 1 3 1 1 2 2 2 1 2 2 2 1 1 2 1 1 2 2 3 1 3 4 3 0 1 1 0 3 0 1 1 2 1 2 1 1 1 1 1 1 4 1 3 1 2 2 1 0 2 2 1 2 1 4 3 3 0 2 2 1 4 0 1 1 3 1 1 1 0 2 2 1 0 2 2 2 0 2 1 2 1 2 1 1 3 2 2 4 0 3 4 5 3 0 2 1 3 2 2 2 2 1 1 1 1 0 1 2 0 2 2 3 1 1 3 2 2 1 0 3 4 2 1 1 2 1 2 0 2 2 1 1 2 2 1 2 0 0 1 1 2 3 2 0 1 2 1 3 2 2 2 2 3 1 2 2 2 1 2 2 2 3 2 2 2 1 0 2 3 1 1 0 0 1 2 2 2 1 2 2 2 2 4 1 1 1 3 1 2 1 1 2 3 2 2 2 2 2 3 2 1 1 1 2 2 0 2 1 1 1 1 1 0 2 1 0 2 2 0 2 2 4 3 0 2 0 3 4 4 3 1 3 2 2 2 2 0 2 0 2 0 2 2 3 2 1 1 2 4 1 2 3 1 1 0 2 0 1 3 2 2 2 1 2 1 1 2 0 0 1 3 3 2 1 2 1 3 2 4 3 1 2 3 1 2 1 4 3 4 2 1 2 2 1 2 2 2 0 1 2 1 1 0 4 5 1 0 3 3 0 0 0 0 3 2 1 3 3 1 3 3 1 2 0 1 0 1 2 2 2 0 0 1 3 0 1 2 3 2 2 1 2 2 1 0 2 1 3 1 3 2 1 1 2 1 1 2 2 0 1 2 0 4 2 1 0 2 1 0 0 1 3 0 2 1 2 1 2 1 1 2 1 1 1 3 1 4 1 1 1 2 2 2 2 1 0 0 2 3 1 3 1 3 4 1 4 4 1 1 2 2 0 3 0 3 5 3 0 3 2 2 0 1 2 1 2 1 1 2 2 2 0 2 3 1 2 1 1 2 1 3 2 1 1 2 1 2 2 3 3 1 2 1 1 3 2 1 2 1 3 2 1 2 1 1 2 2 2 3 3 2 1 1 1 2 0 1 4 0 1 1 0 2 4 3 2 2 3 1 1 2 2 2 2 0 3 3 2 2 3 2 2 1 0 1 1 1 4 3 3 0 0 2 0 1 1 2 2 1 2 2 2 3 1 1 2 1 3 1 2 2 2 5 4 1 1 4 3 2 1 2 3 3 2 1 4 0 0 0 2 1 3 2 1 2 3 1 2 2 1 2 1 3 3 1 0 2 1 1 2 2 2 1 1 2 4 2 5 3 4 2 1 1 2 0 1 2 0 0 1 2 2 2 1 0 2 2 1 1 1 2 4 3 3 1 4 0 1 2 1 1 2 2 0 3 3 1 1 3 0 5 2 0 1 2 1 1 1 1 4 2 2 3 2 1 0 1 1 1 0 2 1 1 3 1 1 2 2 1 3 3 2 1 1 1 2 2 2 2 2 2 1 2 2 3 1 2 2 2 3 0 1 1 1 0 1 1 1 5 0 0 2 3 3 3 1 1 1 2 2 3 2 3 1 2 1 1 3 2 0 2 3 1 0 2 1 1 2 2 2 0 0 2 4 3 0 1 0 1 1 1 2 0 4 3 1 2 1 1 1 1 2 1 0 3 1 0 1 3 2 0 3 1 2 1 2 3 2 2 2 1 2 2 0 1 1 2 1 2 1 0 1 3 1 3 0 0 4 0 2 2 1 2 3 1 1 1 0 1 3 1 1 0 1 1 1 1 0 1 3 1 2 1 3 2 4 3 2 3 2 2 1 6 0 1 1 1 1 2 4 2 2 1 1 0 3 2 1 2 1 2 1 4 2 2 4 2 0 1 2 3 4 1 1 3 1 3 4 0 2 0 1 2 1 3 1 1 4 4 3 2 0 1 2 0 1 2 1 1 1 1 0 0 1 2 4 1 0 2 0 3 0 2 2 2 2 3 2 1 3 1 0 1 2 1 2 1 0 1 0 2 1 3 0 2 2 1 2 2 3 3 0 4 2 0 4 2 2 0 3 1 1 2 3 1 2 2 1 1 3 1 1 0 2 1 1 2 1 1 2 2 1 1 2 0 0 1 2 0 4 1 1 1 2 2 2 4 0 3 1 1 0 2 0 0 2 5 1 1 1 3 1 3 1 2 4 4 1 0 0 3 1 0 2 2 1 2 2 2 3 1 2 0 0 1 3 1 0 1 1 1 1 1 2 1 1 1 2 2 2 2 2 1 2 1 0 1 1 1 1 1 2 0 2 3 1 0 1 3 1 1 2 4 2 3 0 2 1 0 1 1 1 2 1 2 0 3 0 0 0 2 4 3 1 0 4 3 0 2 4 2 2 2 2 1 0 2 2 3 1 3 2 2 2 2 1 1 2 3 0 2 2 0 2 1 3 1 2 2 2 1 1 2 0 1 0 2 4 3 0 0 2 1 1 1 4 3 3 5 0 2 2 1 2 1 0 2 1 0 1 1 2 2 1 0 0 3 1 2 2 1 2 1 2 0 0 0 1 1 0 0 1 2 3 3 2 2 0 2 1 0 2 1 2 1 2 1 3 1 1 1 1 1 1 0 2 2 2 3 1 1 2 0 2 1 5 1 1 1 0 1 2 3 1 0 1 2 1 2 3 3 4 1 0 2 3 2 3 1 1 2 1 3 2 3 1 0 1 2 3 2 2 0 1 0 3 2 1 4 1 1 1 0 2 1 3 0 1 2 1 0 2 1 0 0 1 3 4 2 3 0 0 1 1 2 1 1 2 3 5 3 1 0 1 2 3 1 1 3 1 0 2 2 1 1 1 0 1 1 1 2 0 2 0 0 2 1 0 1 0 2 1 2 2 2 1 2 1 0 1 1 1 1 3 3 1 2 1 2 4 1 0 2 3 2 1 0 1 0 2 3 0 3 3 1 2 1 2 2 0 3 2 2 2 2 2 1 1 2 2 2 0 3 1 1 2 1 4 1 2 1 1 2 2 3 2 0 2 0 0 2 2 2 1 2 2 2 1 2 2 2 3 1 4 0 1 0 1 1 3 2 1 2 1 2 0 3 2 0 3 2 3 2 3 1 3 3 1 1 3 2 1 1 0 0 0 0 2 1 0 2 1 2 0 4 2 2 3 3 1 2 3 2 0 3 5 1 3 0 1 1 1 1 0 1 2 1 1 1 3 4 1 3 1 3 2 0 1 3 1 4 4 2 3 2 1 0 2 1 4 2 3 2 1 1 1 2 0 0 1 2 3 1 3 2 3 1 1 0 1 3 2 2 0 1 3 1 2 1 1 3 2 1 2 2 3 4 1 2 3 2 2 2 1 1 2 3 1 2 1 1 1 2 1 2 2 0 2 2 2 0 5 3 1 1 1 2 3 2 1 4 3 3 3 3 2 0 2 1 1 2 2 1 0 2 3 3 1 2 2 0 4 1 1 0 1 3 2 2 4 1 1 2 0 3 2 1 3 5 2 1 3 2 3 3 0 2 1 0 1 2 2 2 1 3 2 1 0 2 3 1 2 3 3 3 3 2 1 1 2 0 3 4 2 1 3 3 1 1 2 3 4 1 2 2 1 1 1 0 1 0 0 2 2 1 0 3 0 1 0 3 2 2 3 2 3 2 2 2 0 2 2 1 4 2 0 2 1 3 1 1 1 1 1 2 2 0 0 3 0 2 1 1 2 3 2 3 1 1 3 0 1 2 1 1 1 3 3 0 1 3 2 0 1 1 0 4 2 2 2 1 2 2 0 1 1 1 1 3 2 1 2 1 2 1 2 1 0 2 2 0 3 3 1 2 0 0 1 1 1 1 0 2 1 3 1 2 2 3 0 2 2 0 3 2 2 4 2 2 3 2 2 2 2 2 2 4 2 1 2 0 2 5 3 2 2 2 3 3 2 4 2 1 1 0 0 2 3 5 1 3 1 2 3 2 0 2 2 1 0 1 2 2 2 0 2 0 0 2 0 1 1 0 2 0 2 1 2 2 1 2 1 0 2 0 2 1 2 0 2 1 1 1 2 1 2 3 1 2 2 1 4 6 3 1 1 1 2 1 1 1 1 1 1 2 1 1 2 1 1 2 2 1 0 2 4 1 1 1 0 1 1 2 1 2 2 2 2 2 1 2 0 0 1 2 2 1 3 4 3 2 1 2 2 1 1 1 3 3 1 1 1 3 1 0 1 0 3 1 1 0 3 0 1 2 3 3 1 1 5 4 1 1 3 2 4 1 1 1 1 1 2 1 2 2 3 3 2 3 3 0 2 0 2 1 1 1 2 1 1 2 2 1 1 2 2 2 2 3 1 3 3 2 3 2 1 0 4 1 2 1 2 1 4 0 3 3 1 1 1 1 0 2 1 1 1 2 1 1 2 3 2 3 1 3 2 2 0 2 1 4 2 1 1 2 1 2 2 4 2 0 1 3 1 2 2 1 2 0 1 2 4 1 1 2 1 3 0 1 1 0 1 3 0 2 2 1 1 1 1 1 1 1 0 5 1 2 0 3 1 2 1 1 3 1 1 1 1 0 1 1 2 3 0 2 3 1 1 2 2 3 1 1 0 1 3 2 2 1 1 1 2 1 2 1 1 3 3 3 1 1 1 2 2 1 1 3 2 2 1 2 2 2 3 2 3 2 1 2 1 1 2 1 2 1 1 2 2 2 2 0 2 3 2 1 2 1 2 1 0 2 1 1 4 0 2 3 2 0 3 2 1 1 3 2 2 4 2 0 1 1 1 3 2 3 3 3 2 1 1 1 2 1 3 2 2 1 3 2 3 2 2 3 1 1 1 1 1 3 1 1 3 2 2 3 2 1 0 3 2 0 1 1 0 0 2 2 3 0 4 3 1 2 1 3 1 3 1 2 1 1 4 1 3 2 2 2 1 1 2 0 2 2 2 2 3 2 2 0 0 1 1 2 2 0 3 2 2 3 2 3 2 1 1 1 0 1 1 3 1 2 2 3 0 1 2 1 2 2 1 2 2 1 3 1 3 1 1 2 2 2 2 1 4 0 0 0 2 4 1 3 1 0 1 1 1 2 3 2 3 1 1 2 1 0 0 2 2 1 1 2 3 4 0 1 1 2 1 1 2 2 1 2 4 1 1 0 2 2 2 1 3 2 2 1 0 2 4 3 0 2 1 0 3 4 3 1 1 0 0 2 2 2 3 1 0 1 0 1 0 2 2 1 1 0 1 1 1 2 2 2 0 2 0 3 1 2 0 1 2 2 1 0 1 3 3 0 2 3 1 1 4 2 1 1 1 1 3 0 2 1 1 1 2 0 2 3 0 2 0 1 4 1 1 4 2 4 2 2 3 3 1 2 2 3 1 2 2 2 4 3 2 1 1 0 1 1 3 2 4 2 3 2 3 3 1 3 0 3 1 2 1 1 1 1 2 0 1 1 3 3 2 2 0 1 2 1 0 2 2 1 2 2 2 3 2 0 5 2 2 1 2 1 1 1 2 3 2 3 1 3 4 2 2 1 2 3 3 3 1 2 1 1 1 2 2 2 4 1 2 2 4 1 2 4 1 1 4 0 1 3 1 2 2 2 3 2 3 0 2 2 1 0 0 2 0 4 1 1 2 1 2 0 2 3 3 2 0 1 1 0 2 2 1 2 2 2 3 1 0 3 1 0 3 4 1 1 2 3 1 2 2 2 2 4 1 0 2 3 2 1 1 2 0 0 2 2 1 2 3 1 4 3 2 0 4 1 3 1 2 2 2 1 5 4 0 2 4 0 1 2 3 1 2 1 2 1 4 3 2 2 0 2 3 2 3 1 0 1 3 1 0 2 1 2 1 2 1 0 1 0 1 0 4 0 1 1 1 4 2 2 1 1 1 3 0 3 1 2 1 2 1 2 4 0 3 2 2 2 1 1 3 0 2 1 0 2 1 0 1 2 4 1 3 1 3 2 3 2 0 2 1 4 1 1 1 3 0 1 1 2 1 1 3 0 2 1 2 3 0 1 0 0 3 2 1 0 5 1 4 1 1 1 1 2 2 2 3 2 0 2 2 1 3 1 2 2 2 1 2 3 2 2 2 2 1 2 2 0 1 2 3 2 2 3 1 1 2 1 0 2 0 1 2 1 3 2 1 0 3 2 2 2 2 1 1 2 1 3 1 1 3 1 1 0 1 0 1 1 1 1 2 0 3 2 1 0 0 2 2 2 3 1 0 3 1 1 1 3 0 1 0 2 0 2 0 1 0 2 2 0 2 2 0 0 4 2 1 0 1 1 0 2 3 4 0 2 1 1 1 1 1 0 2 2 1 4 0 5 2 3 2 2 1 1 1 2 2 4 4 2 3 2 2 2 1 2 2 2 1 3 0 0 1 2 1 3 3 2 0 4 1 2 1 1 2 2 3 2 3 1 0 2 2 2 1 1 0 2 0 1 1 0 1 1 2 0 1 0 2 0 3 0 1 2 3 3 3 1 2 1 0 2 1 1 1 1 1 2 1 1 1 1 3 3 3 3 3 2 2 3 1 3 3 1 3 1 0 5 2 3 1 2 2 1 0 1 2 2 1 1 1 1 2 0 1 2 0 1 1 2 4 2 2 2 1 2 1 2 0 3 1 1 2 2 1 1 1 1 2 2 1 1 1 1 2 1 2 2 0 1 0 2 0 1 3 0 3 1 1 2 1 2 1 0 1 3 2 1 2 3 2 1 0 2 3 2 3 1 2 4 2 1 1 2 1 2 2 2 3 1 2 2 2 1 2 1 1 0 3 2 0 0 1 3 2 1 2 4 2 2 1 3 1 2 5 0 3 3 0 0 0 1 0 0 2 0 2 3 2 2 2 0 1 2 2 2 2 1 2 2 1 2 2 2 0 0 3 2 0 2 2 2 2 3 2 0 3 1 2 2 1 2 1 0 2 2 1 1 0 2 1 2 4 1 1 1 2 1 4 0 4 1 0 2 2 2 1 2 2 2 2 1 2 3 3 2 2 1 0 2 1 5 3 1 3 0 2 2 0 1 4 0 2 2 1 1 1 1 3 1 3 2 1 3 2 2 1 1 2 0 1 2 2 0 2 3 2 0 1 2 1 0 3 2 1 0 0 1 0 2 1 1 0 4 1 3 3 2 0 3 1 1 4 1 1 3 2 2 1 0 0 1 3 1 1 2 0 0 1 2 1 1 1 1 3 1 1 2 1 1 2 2 4 2 1 3 3 2 2 1 1 2 1 1 1 3 2 3 0 3 1 3 2 3 1 1 3 1 0 2 1 0 1 2 1 2 2 0 2 1 4 2 2 0 1 1 4 0 2 1 2 3 1 2 4 0 2 1 1 2 2 0 0 3 1 3 3 5 1 2 1 2 1 1 1 1 4 2 1 1 1 1 1 3 0 1 0 2 2 1 1 3 2 3 1 0 2 1 2 0 2 2 2 1 1 3 2 1 2 1 1 2 1 1 0 1 0 2 2 0 3 1 1 1 2 1 2 2 1 0 2 2 1 0 1 2 0 2 1 4 3 2 1 2 2 2 2 2 1 0 1 0 3 3 4 1 1 2 1 1 3 1 1 2 1 2 2 1 2 2 1 3 2 0 0 1 3 1 3 3 1 1 1 0 0 3 3 3 3 4 2 2 0 0 1 3 5 3 2 2 2 0 1 1 1 2 1 2 2 2 0 0 3 1 2 1 1 3 2 2 2 3 0 2 0 1 1 4 1 1 3 0 1 0 1 4 1 2 2 5 0 1 1 2 1 3 1 1 3 2 3 2 1 1 4 1 4 2 1 1 2 2 1 2 1 1 1 3 0 2 1 2 1 3 0 2 1 1 2 2 2 2 2 4 1 0 1 2 1 2 4 3 2 1 0 2 1 1 1 0 5 1 1 3 1 1 1 2 1 1 3 0 2 0 2 3 1 3 3 2 1 2 0 1 4 3 2 2 2 3 2 2 2 1 2 1 0 0 0 1 3 1 2 0 1 1 1 2 2 2 3 2 1 0 3 1 2 2 2 3 1 1 2 2 1 3 2 1 1 2 3 2 2 1 1 2 0 0 2 1 0 2 2 1 2 2 1 4 2 4 2 0 0 3 2 2 1 3 5 3 0 2 2 2 2 2 1 1 2 3 2 3 2 3 2 1 3 1 3 2 0 2 2 1 1 2 3 2 1 1 2 2 1 0 0 1 0 1 2 2 1 1 2 1 1 2 1 1 2 1 2 1 3 0 0 3 0 1 2 4 3 1 2 2 3 1 1 3 0 4 3 1 1 1 1 2 1 4 1 2 1 0 1 2 1 1 2 1 1 0 3 1 1 1 1 0 2 4 2 3 2 1 2 2 1 3 3 0 0 0 2 3 4 2 1 1 1 2 1 1 2 2 1 3 1 2 4 1 0 0 2 2 2 2 1 2 2 1 1 0 2 2 2 1 1 4 0 2 0 2 4 4 2 2 2 3 3 4 1 2 0 2 1 2 2 1 1 3 0 1 0 4 1 3 1 3 0 1 3 2 2 0 3 2 1 1 2 2 2 1 1 0 2 1 4 2 3 3 1 5 2 2 1 4 1 1 0 2 2 1 2 2 3 4 1 0 2 1 4 2 3 3 4 0 3 1 3 3 3 3 1 1 1 1 4 0 1 2 2 1 2 1 0 2 2 2 2 3 2 3 2 1 1 1 4 1 3 1 1 1 1 1 1 2 1 1 1 1 1 2 3 1 2 0 3 0 0 3 2 2 1 1 2 0 2 3 3 3 2 0 2 3 3 0 1 3 2 4 4 1 2 0 3 2 1 2 2 1 2 1 1 1 0 1 2 0 1 2 1 2 3 3 1 2 1 1 1 1 2 1 3 2 1 3 0 3 0 0 1 0 0 3 2 3 2 1 1 0 1 4 5 0 1 2 3 1 1 1 2 2 0 2 1 1 2 0 0 0 1 3 2 2 3 1 4 3 2 1 1 2 4 1 2 2 0 1 2 0 2 1 1 2 0 2 2 3 4 3 0 1 4 1 2 1 2 2 1 1 1 4 0 1 1 1 2 2 1 2 1 2 3 2 3 2 3 1 1 3 2 3 2 3 2 3 3 0 2 2 3 0 0 2 1 2 3 1 2 1 2 1 3 1 1 3 2 2 0 2 2 1 3 1 2 2 3 1 2 1 0 2 0 3 3 1 3 2 1 1 3 1 0 1 1 2 2 2 1 1 0 1 2 1 2 2 2 2 0 2 2 2 2 3 0 3 2 3 3 1 1 0 0 2 2 2 2 2 2 1 1 1 0 3 3 1 2 0 2 1 2 1 0 2 1 0 2 0 1 2 2 2 2 2 2 2 2 2 0 1 2 2 2 3 3 1 1 5 2 1 2 1 3 2 2 2 2 4 0 1 3 0 3 0 3 2 1 1 0 1 3 2 2 1 3 5 0 1 2 1 2 2 3 2 0 0 0 1 2 1 1 4 1 1 1 0 2 1 1 0 2 1 2 1 3 3 1 5 0 3 0 3 3 2 2 2 3 0 3 1 0 2 2 2 1 1 2 2 2 2 2 0 2 0 0 1 0 0 3 1 2 3 1 0 2 4 1 2 2 2 1 3 3 4 2 2 0 2 0 1 3 1 2 3 0 0 1 0 1 2 2 1 2 1 1 1 0 2 1 3 0 1 1 1 1 2 1 0 3 3 1 2 1 1 0 1 4 2 0 2 2 0 2 2 1 2 3 0 1 3 2 2 1 1 3 2 4 3 1 3 2 3 2 1 2 2 1 1 1 1 1 1 2 2 1 3 1 1 0 2 3 2 3 3 3 2 1 2 3 2 3 1 1 1 0 1 2 1 1 3 0 2 3 2 1 2 0 2 1 2 0 3 2 2 2 2 1 3 2 1 3 3 2 2 0 4 2 2 1 2 2 2 3 2 4 3 3 3 4 2 3 1 0 1 2 3 2 0 1 0 2 1 2 1 2 2 0 2 3 2 2 2 2 2 1 0 0 1 0 1 3 2 3 2 2 0 2 1 2 2 2 0 1 1 1 0 3 3 2 4 1 1 2 3 4 1 2 3 0 2 3 2 2 2 2 1 1 2 1 3 2 2 1 2 2 1 2 3 0 2 0 1 1 3 2 1 1 2 1 3 1 0 4 3 0 2 3 1 2 2 1 1 1 1 0 0 1 3 2 0 5 2 2 2 3 0 2 3 1 2 0 2 1 2 2 0 4 2 2 2 1 2 2 4 1 3 3 1 3 4 2 1 1 2 1 2 1 1 1 3 1 1 1 2 3 1 2 0 1 2 1 0 0 0 0 1 3 3 1 1 1 2 3 2 2 1 3 2 2 3 0 0 0 2 1 0 1 1 1 1 1 1 1 6 0 1 2 2 1 3 1 2 2 1 1 1 2 1 2 0 2 1 2 2 1 2 2 1 1 0 0 2 0 4 1 1 1 2 3 3 2 3 2 0 1 1 2 0 1 2 3 1 0 2 3 0 2 2 1 2 1 2 0 2 2 3 2 1 4 2 2 0 3 3 0 1 2 4 3 0 1 0 2 1 2 1 1 1 2 1 2 0 3 2 1 3 2 1 2 1 1 2 2 0 1 0 2 1 1 2 2 1 1 3 1 1 2 2 2 2 1 1 2 1 1 2 1 2 2 2 4 3 1 2 0 1 1 1 1 2 1 2 1 1 1 0 4 2 2 0 0 4 3 3 0 0 3 3 3 0 1 3 2 2 1 1 0 1 1 2 2 1 0 1 3 0 2 1 3 5 1 2 2 1 1 1 4 2 2 1 0 3 1 1 2 2 1 2 3 4 2 1 1 2 1 4 4 0 2 1 2 3 2 1 1 0 3 1 0 1 2 0 1 0 1 3 1 1 1 2 1 2 1 4 2 2 0 3 2 2 2 1 1 2 1 1 1 1 2 2 0 2 2 1 2 0 2 1 3 1 1 1 2 2 2 3 3 3 2 3 1 0 2 0 1 2 1 3 1 2 1 2 1 6 0 4 1 0 2 1 1 4 0 4 1 2 1 1 2 0 1 3 2 2 1 1 1 1 2 2 2 2 2 1 5 1 4 3 1 2 0 2 1 1 0 1 1 4 0 1 0 2 1 1 1 3 3 4 1 3 2 3 1 1 1 1 3 1 1 2 0 1 1 0 2 2 1 0 1 2 0 2 2 0 1 1 1 1 2 1 3 1 2 3 1 1 2 2 1 3 2 4 0 2 3 1 2 2 1 2 1 1 0 2 3 1 1 2 1 2 4 3 3 0 2 0 2 2 2 1 1 0 1 3 4 1 1 2 1 1 0 2 1 3 1 1 3 3 3 0 1 0 1 0 0 1 2 0 1 1 4 1 0 1 1 0 2 2 2 4 1 1 3 3 2 0 3 3 0 1 0 2 1 3 1 0 1 2 0 1 4 1 1 0 0 2 2 2 1 2 4 1 2 1 2 2 2 1 0 2 0 2 0 1 2 1 2 0 2 2 3 1 2 2 2 2 4 0 3 2 1 3 1 3 4 0 1 2 2 1 1 2 2 2 1 2 2 1 0 3 2 0 2 1 1 1 2 4 1 1 0 2 4 0 1 1 2 2 0 1 3 3 1 0 3 2 1 1 1 1 1 2 1 4 1 3 1 0 2 1 3 1 1 1 1 1 0 1 0 2 3 3 0 1 2 2 3 1 2 1 3 1 3 2 1 3 0 3 2 1 2 2 1 0 0 1 0 2 4 1 0 1 1 2 1 2 1 3 1 2 3 2 2 3 0 3 3 2 2 2 1 1 1 1 1 1 2 1 1 2 2 2 2 0 0 1 1 1 3 1 0 3 2 3 0 1 5 2 3 1 2 2 4 2 3 0 2 1 2 2 2 2 4 1 1 2 2 2 1 3 1 2 1 1 1 2 0 0 2 3 3 2 3 3 1 2 2 1 0 4 0 0 3 1 1 2 1 3 2 1 3 2 2 2 0 2 1 0 2 1 3 3 2 1 3 1 4 3 2 4 2 2 1 2 3 1 3 0 0 1 2 1 0 4 3 4 2 3 1 4 0 0 1 1 3 2 1 3 3 2 1 0 1 2 2 3 3 4 4 1 1 3 1 3 1 1 0 0 2 1 1 2 2 1 2 1 2 0 5 3 1 1 1 1 3 0 1 1 3 1 2 1 2 2 2 2 4 3 1 2 0 2 3 2 1 1 0 1 1 2 0 3 0 1 3 1 0 1 0 3 3 3 1 0 1 2 1 1 1 1 0 2 3 0 2 1 2 1 1 2 2 0 0 0 2 2 1 2 2 2 1 1 2 1 2 2 2 4 1 3 2 1 2 0 2 2 1 4 1 1 1 0 1 2 4 6 2 3 0 4 2 6 0 3 1 2 1 1 1 0 2 1 1 4 3 1 1 1 1 2 1 2 1 0 0 1 2 1 3 3 0 3 2 3 1 1 5 3 2 1 1 2 3 0 2 1 2 2 1 3 4 1 1 2 0 1 4 1 1 2 0 4 1 3 2 3 1 4 1 2 2 5 1 0 2 4 1 3 0 1 1 2 1 5 1 3 0 1 0 2 1 1 1 3 1 0 1 3 3 2 3 2 1 2 2 0 3 1 5 1 1 1 1 2 1 1 2 2 1 0 1 4 3 1 1 0 2 3 0 0 2 2 1 1 0 2 1 0 1 2 2 2 2 1 0 1 3 2 1 4 1 1 2 1 0 2 0 3 3 1 4 1 2 1 2 3 0 0 1 2 0 3 1 1 1 2 0 1 1 1 1 2 1 1 1 2 1 2 2 1 3 1 1 1 0 1 2 2 1 1 1 1 1 1 4 2 2 2 2 1 2 2 3 3 1 4 2 0 1 3 1 1 0 3 1 3 2 3 0 1 1 1 2 2 2 1 2 2 1 1 2 1 2 3 1 1 1 1 3 1 2 2 1 0 3 1 0 1 1 0 1 2 0 2 2 2 2 2 0 1 1 2 1 2 2 2 2 1 2 3 4 2 2 1 0 2 2 2 1 1 1 1 3 1 2 2 0 2 1 2 2 3 4 1 0 4 1 1 0 5 3 1 3 1 2 2 3 1 2 0 2 3 4 0 4 4 1 1 1 1 3 1 1 2 2 0 2 2 3 3 1 0 2 2 2 2 1 0 3 4 1 3 1 3 2 1 0 2 3 1 3 2 2 2 0 2 1 1 1 4 1 1 0 1 2 1 2 1 1 3 2 2 0 1 2 1 1 2 2 2 2 2 1 2 2 0 1 5 2 3 1 2 1 2 0 2 1 2 1 3 2 3 1 2 0 1 0 1 0 1 1 5 3 3 1 2 6 1 2 2 0 2 2 1 1 1 0 3 1 2 2 0 1 1 0 2 2 1 1 2 3 2 2 3 2 2 1 2 1 2 3 2 2 0 3 2 4 1 1 1 2 0 0 2 3 2 0 1 1 1 3 1 2 1 2 4 2 0 1 2 1 3 3 2 0 0 2 0 0 1 1 1 0 2 0 4 2 4 3 2 1 0 4 1 2 4 2 1 0 2 0 0 2 2 2 1 2 5 1 2 1 2 3 1 2 1 3 3 3 1 3 3 1 3 2 0 2 1 1 1 3 0 2 0 1 1 1 0 2 0 0 2 1 1 1 2 3 3 0 4 2 5 1 4 2 4 3 0 2 2 5 3 2 2 0 1 3 2 3 2 2 4 2 2 1 2 0 3 1 4 2 2 3 4 3 2 4 1 1 1 1 1 2 0 1 1 3 0 1 2 2 4 0 0 1 3 0 1 4 2 1 2 3 2 2 2 0 1 3 1 4 2 2 3 1 0 0 3 1 3 0 1 1 1 0 2 1 2 1 2 3 2 3 1 4 2 3 1 2 2 2 1 1 1 0 0 1 2 3 1 0 2 2 0 1 1 1 2 1 1 2 2 2 3 2 2 2 1 2 2 1 1 2 1 3 1 3 2 1 2 3 2 1 2 5 1 2 3 1 1 2 1 1 2 2 2 1 1 3 1 1 0 2 3 1 4 4 0 1 3 2 2 2 1 2 0 2 2 2 3 2 1 2 3 2 2 0 2 2 2 3 2 1 2 0 2 2 1 1 2 3 1 1 2 3 1 2 1 1 3 3 2 1 0 0 0 2 0 3 2 1 3 2 1 1 2 1 0 4 3 2 0 2 2 1 2 2 0 1 2 1 1 2 0 4 2 3 3 2 1 2 1 3 2 0 2 2 0 2 4 1 2 3 2 0 0 1 1 0 0 1 0 1 2 2 2 0 3 1 2 4 1 2 0 4 2 2 2 1 2 2 1 2 0 2 2 1 1 2 1 1 1 1 0 3 1 2 0 1 3 1 0 3 1 3 1 1 1 2 0 1 4 2 0 3 1 2 4 3 2 3 1 1 2 3 2 2 2 0 2 2 1 2 2 3 1 2 0 1 2 4 1 1 2 2 4 2 3 1 0 0 2 0 2 2 1 1 2 2 0 0 2 2 2 1 2 3 1 1 1 3 2 3 2 3 2 2 1 0 1 1 3 1 2 2 2 1 2 1 1 1 2 1 3 0 1 2 0 3 2 1 1 2 1 2 0 1 1 1 2 1 1 1 2 3 1 5 3 2 4 2 2 1 4 2 1 1 1 2 0 1 1 3 2 2 2 2 2 2 2 2 2 2 2 1 2 1 1 3 0 1 0 3 4 2 1 1 3 3 2 2 0 2 5 2 1 3 1 1 0 1 3 3 0 1 0 2 3 2 1 2 1 1 3 2 2 3 3 2 1 4 1 1 0 1 4 1 3 2 1 2 1 1 0 1 1 0 0 2 2 2 1 2 1 2 3 3 1 1 2 1 0 2 1 1 0 3 2 1 4 1 0 1 5 2 1 1 2 1 3 4 2 1 1 2 4 1 2 5 2 1 2 1 3 2 1 1 1 1 3 1 1 1 2 1 0 2 2 1 2 2 2 0 2 1 3 2 1 1 3 1 2 0 2 3 2 3 0 2 3 2 2 2 0 0 2 0 3 2 2 1 2 1 0 1 2 2 0 1 2 4 2 2 2 2 3 4 2 1 1 1 1 1 2 2 1 0 1 1 0 2 2 2 2 1 3 3 0 4 2 0 1 0 1 1 1 1 0 1 2 0 1 1 2 2 2 0 3 2 1 3 1 5 3 0 1 0 1 2 2 3 2 1 1 2 2 1 2 0 1 2 1 3 3 1 1 1 2 1 0 1 1 2 2 1 2 3 1 1 2 2 1 0 2 3 1 1 1 1 2 2 0 2 1 2 2 1 3 2 5 1 2 1 1 2 3 2 3 3 3 1 1 1 2 1 1 0 4 2 1 2 1 2 2 1 2 3 1 1 1 2 1 2 3 2 0 1 1 2 1 3 2 2 2 2 3 1 2 2 1 1 2 2 3 2 1 0 0 1 3 2 1 2 0 2 0 2 2 0 2 2 3 0 1 4 1 2 2 1 2 2 0 1 2 2 1 1 1 2 2 2 5 0 2 2 1 1 1 2 1 1 2 1 0 2 3 0 1 1 3 1 2 2 2 0 3 0 0 3 2 1 1 2 2 1 1 1 3 0 2 2 0 2 1 2 3 2 3 3 1 1 1 3 1 2 2 3 1 3 1 4 0 1 0 1 1 1 2 0 1 2 1 2 2 1 3 4 2 2 1 1 2 0 1 1 0 1 0 2 5 1 2 0 2 2 0 2 1 0 4 2 1 1 2 1 4 3 2 0 2 1 2 4 0 1 2 0 1 1 2 0 2 2 2 1 2 0 2 1 2 1 2 0 3 1 2 2 3 1 4 3 1 1 4 0 1 1 1 1 5 4 0 3 3 2 1 1 2 2 3 1 2 3 2 2 1 1 3 1 3 2 0 3 2 3 0 1 0 1 2 4 4 3 3 1 1 4 3 0 1 0 2 1 2 1 2 2 2 2 0 1 3 2 2 3 3 2 1 2 3 2 1 3 3 2 2 2 2 1 0 3 3 0 2 1 2 3 2 3 2 2 1 0 3 1 2 1 3 1 1 0 1 1 1 0 2 2 1 0 1 1 2 1 1 0 2 1 1 0 0 0 0 1 2 1 2 3 1 1 1 4 2 2 0 1 2 3 1 2 0 3 1 0 0 2 3 1 1 0 1 1 1 2 1 2 2 3 2 0 1 2 1 3 1 4 0 2 0 1 2 2 1 3 2 1 3 1 2 3 1 0 1 2 0 2 2 2 1 2 3 2 1 1 3 0 2 3 1 0 1 3 2 4 3 1 1 1 2 4 2 2 2 1 4 1 3 1 2 1 4 1 3 3 0 2 0 1 3 2 0 3 0 3 2 2 1 2 2 2 1 2 0 2 3 0 1 0 0 5 1 0 1 3 3 2 3 2 2 1 2 0 2 1 0 2 3 1 1 1 3 3 4 2 1 1 3 1 0 2 1 1 2 3 2 3 1 1 0 2 2 2 2 1 2 0 1 2 2 3 1 0 3 2 3 2 2 2 3 2 0 0 2 1 3 3 2 3 3 3 1 1 2 1 3 3 2 3 1 2 4 1 2 1 3 2 1 3 2 1 2 1 2 2 0 2 0 0 1 3 2 0 2 1 1 2 2 2 2 1 2 2 3 2 2 1 1 2 2 0 0 2 0 0 2 3 1 0 2 2 1 0 4 1 3 0 2 1 2 2 3 1 1 1 4 2 3 2 2 1 2 3 3 1 1 1 3 1 1 1 2 2 4 2 2 2 2 2 1 1 0 1 2 3 3 2 0 1 1 1 2 3 2 1 1 3 0 2 0 0 2 1 2 0 3 3 1 2 1 3 1 3 2 1 0 0 1 3 1 2 2 2 2 2 2 0 3 5 2 0 1 1 1 2 1 1 3 1 3 2 0 0 3 1 1 0 1 2 3 3 3 2 2 3 3 1 3 1 3 3 1 2 0 0 5 0 3 1 1 1 0 3 2 0 1 2 2 2 0 2 1 0 3 3 2 2 1 3 3 1 1 1 1 1 3 2 1 1 1 1 1 2 1 1 3 2 2 2 1 1 0 4 2 1 3 0 1 1 0 5 1 1 3 0 0 0 2 0 1 1 2 2 2 3 1 1 1 3 1 3 1 3 2 1 1 0 1 2 1 1 2 2 1 1 4 4 2 0 1 1 2 4 1 2 1 3 1 3 1 0 1 2 1 2 2 1 1 3 0 1 3 2 1 1 3 1 1 3 1 0 0 2 2 3 3 3 1 2 2 2 3 3 2 1 2 3 2 2 1 1 2 1 1 0 2 4 1 1 1 1 2 2 3 3 0 1 0 1 1 3 1 3 1 1 2 1 2 3 1 1 1 2 1 3 2 4 1 1 2 0 1 1 0 0 1 1 1 3 3 3 1 2 1 3 0 1 1 3 2 3 2 2 1 1 3 1 2 3 2 3 1 1 2 0 1 0 2 1 2 1 2 3 1 1 2 1 0 3 3 2 2 2 1 2 1 3 4 1 3 2 3 2 1 1 1 1 1 0 4 4 3 1 1 1 3 1 3 2 2 3 1 1 1 2 1 2 2 4 3 1 2 1 1 2 1 1 2 0 3 4 1 1 1 0 2 2 3 1 2 3 1 2 3 1 1 0 2 2 1 0 1 0 1 1 1 0 1 3 1 2 1 0 2 1 4 2 0 1 1 0 2 2 0 2 2 1 0 3 2 2 1 2 0 3 2 3 0 2 1 1 1 1 1 1 2 3 2 2 2 1 0 3 2 0 4 2 4 1 4 2 5 2 1 2 1 1 4 2 3 1 1 0 3 1 4 3 2 1 3 4 2 1 2 3 2 1 2 2 1 2 1 0 1 2 2 0 1 2 1 3 2 1 0 2 1 2 3 2 2 0 2 3 1 1 0 0 1 2 2 1 2 2 1 3 1 5 4 1 2 1 4 3 2 3 1 2 4 2 1 3 0 2 0 2 3 2 3 2 1 0 1 2 3 4 2 2 2 1 2 2 2 4 5 1 3 0 1 1 3 1 3 3 1 1 1 2 1 2 1 1 2 3 3 1 1 2 1 1 3 2 4 3 2 2 2 1 2 2 1 2 2 1 2 0 4 0 2 1 3 2 2 2 2 0 1 1 2 1 1 1 2 1 2 3 4 2 1 1 1 4 1 2 2 1 0 1 1 1 1 0 0 1 2 1 1 2 1 1 3 4 2 2 1 0 4 1 1 1 0 2 2 1 3 1 3 3 3 2 3 2 3 2 1 0 1 3 2 1 1 1 0 2 3 2 2 1 4 2 2 2 1 1 1 5 0 1 2 3 3 2 2 3 2 1 0 3 3 1 2 1 3 1 1 4 3 2 1 3 3 2 0 6 1 1 3 3 1 3 0 1 1 2 2 2 2 2 1 1 2 1 1 1 1 2 3 3 2 2 1 1 1 1 1 1 1 3 1 2 2 0 2 3 1 1 3 1 2 1 3 1 2 2 0 2 2 2 2 1 0 2 4 1 1 2 2 1 1 0 0 2 0 0 1 1 1 2 0 2 1 0 2 1 1 3 1 3 2 1 1 1 1 2</t>
+  </si>
+  <si>
+    <t>GAM(0.2303998769847554, -4.253040881005137e-28, 0.7848702225239701)</t>
+  </si>
+  <si>
+    <t>0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 2 1 0 0 1 0 1 1 1 1 0 0 0 0 1 0 0 0 0 2 0 0 1 0 0 0 0 0 0 2 1 2 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 3 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 2 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 2 0 0 0 1 0 1 0 1 0 0 1 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 1 0 0 1 2 2 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 2 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 1 1 1 0 1 2 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 1 1 0 0 2 0 1 0 1 0 0 1 1 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 2 0 0 0 1 0 0 2 1 0 1 0 0 0 0 1 1 2 1 1 0 0 0 0 2 1 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 1 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 1 0 1 0 0 0 2 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 1 2 0 0 2 0 0 0 0 1 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 1 0 2 1 1 0 1 0 0 0 1 0 2 1 0 0 1 2 0 0 1 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 1 1 0 1 1 2 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 0 2 0 0 0 1 2 1 2 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 2 1 0 0 0 2 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 2 0 0 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 0 0 1 1 1 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 2 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 1 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 2 0 2 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 2 1 0 1 0 0 0 0 0 0 0 0 0 1 1 1 1 2 0 1 0 1 0 2 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 2 0 0 0 0 1 2 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 0 2 1 0 0 0 0 0 2 0 0 1 1 0 0 2 1 0 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 1 1 0 2 1 1 2 0 0 0 0 0 1 1 1 1 0 0 1 0 0 0 1 0 0 1 0 1 2 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 2 1 1 0 0 0 0 0 2 0 1 1 1 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 1 1 0 1 2 2 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 1 1 0 0 0 0 2 0 1 0 0 1 0 1 0 0 1 1 0 0 1 0 0 0 0 0 2 0 2 0 1 0 0 1 1 0 1 1 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 3 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 2 0 0 1 0 0 3 0 0 0 0 0 2 0 0 0 1 0 1 0 2 0 1 0 0 0 0 0 0 0 0 1 0 1 2 0 0 0 1 1 0 0 2 0 0 1 0 1 0 0 0 3 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 2 1 1 0 0 0 0 4 0 0 0 0 1 1 0 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 2 1 0 3 0 0 0 1 0 0 0 0 1 0 0 2 2 0 1 0 0 0 0 1 3 3 1 1 0 0 2 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 2 1 0 0 1 2 0 1 0 0 0 0 0 0 2 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 1 0 2 1 1 0 1 0 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 0 0 1 0 1 0 1 1 0 1 0 1 0 1 0 1 1 0 0 0 2 0 1 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 1 0 2 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 2 1 0 0 0 1 1 0 0 1 0 1 0 0 0 0 1 2 0 1 1 1 1 1 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 1 0 1 1 1 1 0 0 0 0 1 1 0 1 1 1 1 0 0 0 1 0 0 0 2 0 0 0 1 1 0 0 0 0 2 0 1 1 0 0 2 1 1 0 0 3 0 1 1 1 1 0 2 0 2 0 0 1 0 0 1 0 0 0 0 0 0 0 2 1 0 2 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 2 0 1 1 1 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 2 1 0 0 0 0 2 0 0 1 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 3 0 0 1 1 0 0 0 0 1 1 0 1 0 1 0 1 0 0 2 0 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 2 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 2 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 1 1 0 0 0 1 1 1 1 1 0 0 1 0 0 1 1 0 1 0 0 0 1 1 1 0 1 0 2 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 2 1 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 3 1 1 2 0 1 0 0 0 0 1 1 2 1 2 0 1 0 2 0 0 0 0 0 2 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 1 0 0 1 0 0 0 0 0 1 0 1 1 1 0 0 0 1 0 0 0 1 0 0 0 0 2 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 2 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 1 1 0 0 1 1 1 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 1 2 0 1 1 1 1 0 1 0 1 1 0 0 0 0 0 2 1 1 0 0 1 0 1 0 1 0 1 1 0 0 0 1 0 0 0 2 0 0 0 1 4 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 1 1 0 0 0 3 1 1 1 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 3 1 1 0 1 0 0 0 0 1 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 1 2 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 1 1 1 0 1 0 2 0 0 0 1 0 1 0 0 1 0 1 0 0 1 0 1 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 1 1 1 1 1 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 2 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 2 0 1 1 0 2 2 1 1 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 1 0 1 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 2 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 2 1 2 0 0 0 0 1 0 1 0 0 1 0 1 0 1 1 1 1 0 0 0 0 1 0 0 1 0 1 1 0 0 1 0 1 0 2 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 1 1 3 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 1 3 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 1 1 0 1 0 0 0 2 1 0 0 0 0 0 2 0 1 0 1 0 0 0 2 0 0 0 0 1 0 0 1 0 1 1 1 2 0 1 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 2 0 1 1 0 0 0 0 0 0 0 0 2 0 0 0 2 0 1 1 0 1 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 1 1 1 0 1 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 1 1 0 1 0 2 0 0 0 0 2 0 2 1 0 1 1 0 0 2 1 0 0 1 0 0 1 1 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 2 1 3 1 1 1 0 0 1 2 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 1 1 0 1 1 0 0 1 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 2 0 1 1 0 0 0 0 0 1 0 0 1 2 1 0 0 0 3 2 1 0 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 2 0 1 1 0 1 1 1 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 2 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 2 1 1 1 0 0 2 1 3 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 1 2 0 0 1 0 0 0 0 1 2 0 0 0 1 0 0 0 1 0 0 0 0 1 1 2 2 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1 1 0 0 0 0 0 0 1 2 0 0 1 1 1 1 0 2 0 1 1 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 3 0 0 0 1 1 0 0 1 0 0 1 0 0 1 1 0 2 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 2 0 0 1 1 0 1 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 2 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 2 0 1 1 0 0 0 0 0 0 0 0 0 2 2 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 2 1 0 0 0 2 0 1 3 0 0 0 1 1 0 0 1 0 1 1 2 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 2 0 0 0 1 0 0 0 2 0 0 1 1 0 0 1 0 0 2 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 2 1 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 0 0 2 1 1 0 1 0 0 0 0 1 0 0 0 2 0 0 1 0 0 0 2 0 0 0 1 0 1 0 0 0 0 2 1 1 0 1 0 0 0 0 1 0 2 0 1 1 0 2 1 1 1 0 2 0 0 1 0 2 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 2 0 0 1 0 0 0 0 1 0 1 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 1 1 1 1 0 0 0 0 0 1 0 0 0 1 1 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 1 1 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 0 0 0 1 1 1 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 3 0 0 0 1 0 0 0 0 1 1 0 0 0 1 1 0 1 0 0 0 0 2 0 0 1 0 0 0 1 1 1 1 1 1 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 1 2 1 1 0 1 2 1 1 1 1 0 2 1 0 0 1 0 0 0 1 1 0 1 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 1 1 0 1 0 1 0 1 1 0 0 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 1 0 0 3 2 0 1 0 1 1 1 0 0 0 2 0 0 0 0 1 0 1 1 1 0 0 1 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 2 0 0 0 1 0 1 0 0 1 0 1 1 0 0 0 0 1 0 0 0 2 0 0 1 0 1 1 1 0 0 0 0 0 1 0 0 0 0 1 2 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 1 0 1 0 0 0 2 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 2 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 2 0 1 0 1 1 1 1 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 4 0 1 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 2 0 0 1 0 0 1 0 0 3 0 1 2 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 2 0 3 1 1 0 2 0 1 0 0 0 2 0 0 0 0 0 0 0 0 1 3 2 0 0 0 0 0 0 0 0 0 1 1 0 4 0 0 0 0 0 0 0 1 1 0 3 2 0 0 0 1 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 1 1 0 1 2 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 1 0 1 0 2 1 0 0 0 1 0 1 0 0 0 2 1 0 2 1 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 1 0 0 0 2 0 1 1 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 1 1 0 2 2 0 0 1 0 1 0 0 0 1 1 1 0 0 1 1 1 0 0 0 1 1 0 1 0 1 1 0 1 0 1 0 0 0 0 1 2 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 1 0 0 1 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 1 0 1 0 1 0 1 0 0 2 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 1 1 0 0 1 1 1 1 1 0 0 0 0 0 1 0 2 0 0 0 0 3 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 2 0 0 0 0 0 2 0 1 2 1 1 0 0 1 0 0 0 1 0 0 0 0 1 2 1 1 0 0 1 1 3 2 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 1 0 0 1 0 1 0 0 2 0 1 1 0 0 0 0 0 0 0 0 1 1 2 2 1 0 0 0 2 1 0 0 0 0 1 0 1 0 1 0 0 0 1 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 1 0 0 4 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 2 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 0 1 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 2 0 1 0 1 0 1 1 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 2 0 1 0 0 2 0 3 0 1 0 0 0 2 0 0 0 2 1 0 0 0 0 0 2 2 0 0 0 0 0 1 2 2 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 1 0 1 0 1 0 0 0 1 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 0 1 0 1 0 1 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 2 0 0 1 1 3 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 2 1 0 0 0 0 0 0 1 0 1 0 1 2 0 0 0 0 0 0 0 1 1 0 1 0 1 1 1 0 1 0 0 0 0 0 0 1 0 0 2 2 0 2 0 0 0 1 1 2 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 3 0 0 0 0 0 1 0 0 2 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 2 0 2 1 0 0 0 0 0 0 1 0 1 0 1 1 1 0 1 0 1 2 1 0 0 0 0 1 1 0 0 0 2 0 0 0 1 2 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 2 0 2 0 0 0 0 0 0 0 1 0 0 0 1 0 2 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 2 1 0 1 1 0 0 2 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 2 1 1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 1 1 2 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 2 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 1 1 2 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 2 0 1 2 0 1 1 0 0 0 0 2 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 2 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 1 1 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 2 0 0 1 0 0 1 0 0 0 0 0 2 1 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 2 2 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 2 1 0 0 1 2 0 0 1 0 1 1 0 0 0 1 1 2 0 1 1 1 1 2 0 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 1 0 1 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 2 1 1 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 1 1 0 0 1 0 2 0 0 0 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 2 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 1 0 2 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 1 2 1 0 0 1 0 1 1 0 1 2 0 0 1 1 0 0 0 2 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 2 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 4 1 0 0 1 0 0 0 1 0 0 0 0 0 0 2 0 2 0 2 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 2 1 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 0 0 3 0 2 2 0 1 0 0 0 2 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 1 3 2 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 2 1 1 1 0 0 2 0 0 1 0 0 0 0 3 0 1 1 0 0 1 1 1 0 0 1 1 0 1 0 1 0 0 1 0 1 0 1 1 0 0 0 1 1 0 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 0 0 1 0 2 0 1 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 3 0 1 0 0 0 0 0 1 2 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 2 1 1 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 2 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 2 1 0 0 0 0 1 0 1 0 0 1 0 0 1 1 0 1 1 0 2 0 0 0 0 2 0 0 1 0 1 0 0 0 0 1 1 0 0 2 0 1 1 1 1 1 0 0 1 1 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 2 0 2 0 1 1 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 0 1 0 0 1 0 0 0 0 0 3 2 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 2 1 2 0 0 1 1 0 0 1 0 0 1 0 0 0 2 1 2 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 1 0 2 0 0 1 1 1 0 0 0 0 0 0 1 0 1 2 1 0 3 0 0 0 0 0 0 0 2 0 1 1 0 1 0 0 0 1 1 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 0 0 1 1 2 0 0 0 0 1 0 0 1 2 2 1 0 0 1 0 0 1 0 0 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 1 3 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 2 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 1 0 0 0 0 1 0 0 1 0 3 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 1 1 0 1 0 2 0 2 0 1 0 2 2 1 0 0 1 0 0 0 0 1 1 0 1 0 0 1 0 1 0 0 0 2 0 0 0 0 0 1 2 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 2 0 0 2 0 0 0 0 1 0 1 1 0 0 0 0 0 1 2 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 2 1 0 0 0 0 0 0 0 2 0 0 1 1 0 0 2 0 0 2 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 2 0 0 0 2 1 1 1 0 0 0 1 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 1 0 1 0 1 2 0 0 1 1 1 0 0 0 1 0 0 0 1 0 0 1 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 2 1 0 0 0 1 0 0 0 1 1 0 1 0 0 1 0 0 0 1 0 1 1 0 0 0 2 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 3 0 1 0 1 2 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 1 1 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 1 2 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 2 1 1 2 0 1 1 0 0 0 0 0 2 0 0 0 2 0 0 1 0 0 3 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 2 1 0 0 0 2 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 1 1 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 2 0 0 0 0 0 1 0 1 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0 0 1 2 1 0 0 0 1 0 2 0 0 0 1 2 0 0 0 1 0 1 2 1 0 0 0 1 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 2 0 0 0 1 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 2 1 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 1 0 1 0 0 1 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 1 1 0 0 1 0 1 0 0 1 3 0 1 0 1 2 0 0 4 2 0 0 0 1 0 0 0 2 0 1 0 1 1 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 1 0 0 2 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 1 0 1 0 0 2 1 0 0 0 0 0 0 1 0 0 0 2 1 0 0 1 1 0 1 0 3 0 1 2 0 0 0 0 2 0 0 2 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 1 1 0 1 0 1 0 1 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 1 1 0 0 0 1 0 0 1 0 0 1 1 1 1 1 1 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 1 4 0 1 0 1 1 0 0 1 0 1 0 2 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 1 2 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 2 0 0 0 1 0 0 1 1 0 0 0 1 0 0 1 0 1 0 0 0 0 2 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 3 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 1 2 0 0 1 0 1 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 2 1 0 0 0 2 1 0 0 1 1 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 2 1 1 0 0 0 1 0 0 1 0 0 0 0 3 1 0 1 0 2 2 0 0 1 1 0 1 1 1 0 0 1 0 0 3 1 1 0 3 0 0 1 0 1 0 2 0 1 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 2 0 0 0 2 0 0 0 1 0 1 0 0 0 0 2 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 2 1 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 2 0 0 1 0 0 1 0 0 1 2 1 0 0 0 0 1 0 0 0 0 0 0 2 0 1 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 2 1 1 1 1 1 0 0 1 0 0 1 1 0 1 0 0 1 2 0 0 0 0 0 1 0 0 1 1 1 3 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 2 0 1 0 0 1 0 0 0 0 0 1 1 1 0 0 0 2 0 0 1 0 1 3 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 2 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 1 2 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 2 0 0 0 2 0 0 0 2 0 1 1 0 1 0 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 2 0 1 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 2 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 0 1 0 1 1 0 0 0 1 0 1 1 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 1 0 0 1 1 0 0 1 0 1 0 0 1 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 2 2 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 1 1 1 0 0 0 0 0 0 0 0 1 1 0 1 2 1 0 0 1 0 0 2 0 0 0 0 1 1 0 1 2 0 0 0 0 0 0 1 1 2 0 0 0 2 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 2 1 0 1 0 1 0 0 0 0 0 0 0 0 2 1 0 0 1 1 0 0 0 3 1 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 2 0 0 1 0 1 1 0 0 0 0 0 0 1 0 4 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 1 0 1 1 1 0 0 1 0 1 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 2 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 2 1 0 0 1 0 0 0 0 1 0 2 1 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 1 0 0 2 0 0 1 0 1 0 0 1 1 1 0 0 0 2 1 0 0 0 0 0 2 1 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 2 1 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 1 0 1 0 1 0 1 0 0 3</t>
+  </si>
+  <si>
+    <t>NIG(37.47545700197972, 20.918750643664644, -1.4889679866632277, 158.6424352483515)</t>
+  </si>
+  <si>
+    <t>157 77 134 88 74 108 97 144 93 96 126 114 77 106 113 90 96 125 157 86 79 117 119 88 45 129 69 147 79 158 157 52 78 73 61 56 86 60 114 102 151 93 150 117 52 110 92 97 65 152 114 65 172 156 80 122 64 117 103 93 123 83 131 64 28 150 101 129 103 68 161 101 68 120 74 127 78 137 120 90 60 71 48 69 120 144 39 156 167 127 55 77 150 82 129 105 95 43 123 125 132 64 120 109 96 108 119 96 153 102 139 93 118 100 98 115 104 91 142 113 109 112 130 124 59 125 139 82 108 129 66 137 136 83 126 90 82 101 122 125 102 127 86 104 62 91 50 133 180 127 131 94 113 115 180 96 47 197 92 43 87 50 108 94 144 103 72 88 64 130 59 91 130 58 63 87 88 71 74 132 82 71 237 122 135 137 150 93 150 102 145 61 112 131 111 145 57 84 98 121 81 72 93 78 74 137 150 62 87 83 153 136 99 88 103 158 95 103 160 60 111 110 122 46 34 82 62 95 68 37 109 60 40 109 85 97 58 119 110 96 73 102 118 111 154 114 88 113 103 134 90 145 103 71 192 98 54 96 84 106 103 140 159 150 40 77 110 138 85 91 93 72 96 110 46 84 103 53 94 73 130 120 88 153 81 122 122 123 153 76 104 100 118 149 109 172 158 109 85 102 108 56 174 85 30 97 136 20 71 148 116 68 72 74 156 101 138 48 119 148 118 117 145 131 123 98 90 89 112 75 95 130 110 147 175 102 35 71 43 89 81 155 109 94 82 70 116 124 102 78 155 112 35 105 97 103 70 51 115 117 102 95 124 82 78 102 162 72 144 94 115 55 130 125 134 130 142 84 87 70 98 87 65 117 62 115 108 43 93 120 96 107 123 123 112 123 40 78 76 120 123 88 85 104 95 127 72 75 86 80 135 153 95 89 124 102 81 119 78 48 74 95 90 99 84 144 102 173 99 98 84 153 69 106 132 47 134 81 145 79 142 79 103 117 92 85 112 83 194 101 74 131 140 93 108 104 73 117 143 114 125 137 160 161 122 188 51 129 103 75 105 87 118 144 126 133 102 93 95 83 198 148 175 94 59 61 100 116 99 58 141 81 105 134 68 108 137 101 82 77 81 64 104 39 83 93 82 74 88 90 68 89 122 106 78 157 67 110 122 160 90 159 98 82 81 145 147 189 156 100 94 111 60 82 70 108 64 88 120 153 125 73 175 177 95 115 91 65 109 109 46 110 117 119 148 151 81 142 90 63 188 69 107 94 52 107 64 171 121 50 60 156 99 125 79 105 153 102 65 122 94 117 73 93 54 133 42 81 176 87 93 100 129 108 32 118 136 120 145 124 86 93 106 87 297 145 101 70 133 93 46 113 72 132 99 67 61 146 65 92 125 109 181 97 164 104 143 103 112 126 108 130 75 102 104 65 111 109 151 126 102 86 79 129 43 41 120 64 80 88 74 102 97 127 147 128 88 91 125 100 91 104 82 93 123 57 49 136 97 109 56 103 166 124 80 148 122 158 107 127 83 71 137 141 130 81 115 113 21 119 131 163 130 78 122 117 141 68 111 141 64 154 105 110 140 137 96 90 104 137 123 102 121 99 102 126 139 63 134 119 88 78 51 121 93 209 66 84 136 84 55 94 155 48 100 156 65 131 69 31 128 77 48 99 118 35 75 186 121 156 75 43 141 169 49 115 123 77 100 64 132 48 98 145 100 108 88 62 116 131 110 113 131 88 86 82 84 88 146 99 164 116 100 103 78 152 32 124 113 104 74 119 83 83 93 45 80 219 119 103 83 126 68 123 83 161 90 56 49 131 60 89 120 56 98 40 115 38 96 116 77 102 134 103 74 69 134 99 146 60 99 62 54 141 120 99 65 108 117 115 107 92 133 126 38 45 104 137 87 127 93 96 156 83 88 78 80 43 59 69 98 147 78 130 84 106 97 139 75 59 122 118 181 102 103 54 100 110 140 134 135 157 100 74 143 183 93 90 99 131 103 45 102 106 109 112 144 85 115 22 103 159 52 156 88 48 133 99 74 122 54 57 143 167 140 105 102 60 159 94 100 132 154 89 166 99 132 175 160 176 117 84 80 105 114 165 63 128 129 85 91 95 76 98 66 75 56 98 126 83 93 72 95 124 116 88 132 129 116 140 76 97 135 164 100 40 142 141 170 103 89 75 115 163 164 141 114 63 128 74 93 101 110 104 60 142 54 76 92 57 41 116 133 92 139 114 139 168 47 131 65 109 92 77 93 84 78 150 87 141 58 137 184 90 41 135 100 118 138 118 100 146 83 87 138 41 126 125 115 65 136 106 89 135 54 127 104 95 128 99 131 114 113 107 118 147 124 105 92 93 99 95 93 93 133 103 125 152 59 109 103 179 110 164 131 102 138 107 126 104 120 106 126 110 66 118 111 87 132 137 108 126 79 50 77 93 105 201 142 78 71 115 128 164 124 130 107 153 153 104 131 138 96 127 141 108 116 103 48 224 90 54 107 142 57 98 116 195 85 83 66 73 126 157 144 74 90 120 166 59 70 141 103 118 83 75 152 94 47 72 83 110 57 144 47 153 40 54 119 113 93 104 76 105 142 113 132 80 110 175 74 158 68 75 130 67 120 112 133 79 197 108 63 142 130 79 67 121 77 68 131 99 137 133 78 141 81 133 56 91 68 98 29 110 96 95 78 120 119 82 129 78 146 86 38 122 130 118 87 118 105 96 109 76 154 103 198 119 64 125 59 24 69 86 158 135 103 157 52 36 114 135 130 131 120 103 106 56 138 84 160 24 176 119 97 113 111 40 161 110 151 148 100 99 83 104 84 138 82 78 103 95 51 79 127 100 118 128 147 110 83 65 137 150 41 98 132 116 118 136 48 184 172 111 93 127 88 100 102 98 100 110 114 98 79 112 147 74 97 61 119 201 92 83 138 113 84 100 123 141 99 73 76 92 94 77 118 57 139 127 120 150 139 107 142 159 65 87 97 123 105 143 79 44 111 81 80 144 93 88 75 45 96 6 120 93 89 100 132 131 101 152 100 65 142 84 122 80 92 53 87 134 120 174 121 79 93 130 81 64 144 108 120 109 105 54 82 137 99 122 164 64 76 121 91 148 112 72 94 72 187 113 53 160 125 77 80 110 105 111 96 143 70 48 110 139 154 125 173 86 125 118 55 110 74 60 120 112 81 126 131 42 136 103 76 104 92 72 95 83 96 113 143 104 121 108 93 72 82 192 61 80 123 105 91 108 59 92 82 128 139 103 140 92 66 111 108 87 120 80 139 118 91 71 81 117 59 86 125 150 88 173 107 116 101 84 105 143 67 89 92 113 118 77 106 73 73 78 127 100 110 77 136 84 33 34 100 66 117 83 131 104 24 104 83 48 153 149 41 75 130 157 78 114 82 109 75 132 92 118 211 129 48 106 119 80 82 87 214 105 70 136 139 107 129 108 126 100 165 90 121 200 78 138 79 72 120 96 61 135 112 161 144 195 114 110 124 91 147 258 102 104 145 85 117 84 79 143 104 102 136 35 86 140 108 131 77 137 54 197 72 92 52 120 108 38 80 71 82 94 136 79 55 117 138 78 162 90 147 85 157 99 83 115 149 73 77 159 146 137 138 157 110 128 82 208 106 84 147 99 77 111 134 135 33 91 139 122 45 177 148 100 78 195 75 85 121 112 82 155 165 57 55 179 95 155 73 38 126 128 83 146 65 112 145 129 94 83 73 98 83 105 147 81 129 90 114 158 133 102 155 71 130 110 81 122 59 99 45 178 79 171 70 128 90 115 125 110 64 75 70 115 92 43 114 171 71 145 92 81 106 96 88 97 118 100 101 67 154 82 111 138 75 126 147 124 130 137 95 101 91 115 126 75 108 111 128 117 132 131 56 65 99 89 57 54 101 139 88 146 115 134 148 103 63 207 131 132 150 75 30 116 109 121 149 74 118 159 71 205 113 80 54 117 34 58 86 53 45 130 142 112 116 123 73 79 136 101 137 89 94 192 80 176 52 105 87 74 124 73 106 129 108 65 51 144 100 140 82 131 124 120 100 56 77 124 114 81 113 158 44 127 126 29 113 143 76 116 20 100 95 75 140 132 101 108 108 91 106 163 178 41 101 123 59 135 76 136 52 59 100 45 163 95 108 116 140 101 106 111 78 77 112 76 74 120 89 100 97 99 150 127 187 79 148 131 114 122 131 58 54 85 88 93 68 83 77 101 107 142 99 77 72 135 109 35 114 50 82 112 125 140 173 98 128 107 98 57 72 77 64 143 93 145 168 153 108 104 120 129 86 141 89 63 44 91 87 55 98 58 147 116 80 49 58 134 82 126 118 164 119 87 160 100 107 73 143 81 150 74 107 88 72 73 64 115 114 107 38 53 122 104 128 56 122 93 98 96 100 109 57 132 87 81 123 136 131 114 129 107 72 75 126 58 112 116 112 43 97 119 171 139 92 112 48 94 119 100 139 109 73 59 48 109 58 69 109 118 84 91 115 128 80 145 112 169 84 84 69 114 101 129 49 84 132 162 54 151 120 124 159 171 121 47 150 124 55 63 92 88 44 85 99 49 86 77 107 54 41 150 133 78 140 81 144 79 99 178 52 59 145 82 173 47 81 138 102 100 76 121 117 57 110 88 121 54 114 174 112 113 80 87 63 153 126 52 76 98 154 91 94 72 119 172 94 37 114 105 123 115 89 107 161 111 60 66 160 83 71 119 122 74 144 114 47 34 121 113 14 157 114 93 77 200 105 75 146 181 125 153 125 109 93 185 44 72 128 120 117 143 138 57 60 89 79 99 111 156 119 117 110 168 73 116 119 87 80 83 81 82 54 136 77 67 79 77 186 87 120 129 91 105 69 123 70 86 97 135 75 69 97 117 179 104 50 161 103 119 134 103 90 77 190 122 118 151 144 117 119 60 147 93 109 113 101 91 127 173 50 87 75 47 71 80 156 77 106 50 121 102 179 130 125 104 133 96 122 97 185 83 108 119 107 110 100 143 167 74 131 132 97 100 223 100 97 95 66 104 103 160 94 85 88 142 130 118 122 134 78 131 138 124 87 150 154 80 66 100 91 112 103 135 57 95 89 90 116 146 45 125 131 112 135 140 135 78 142 94 113 107 98 154 110 136 115 72 100 145 69 104 93 90 77 92 142 129 48 93 128 79 85 59 131 122 133 153 109 152 94 87 88 159 146 107 128 90 101 85 164 110 144 106 51 73 118 109 83 96 66 97 116 81 86 63 64 129 124 88 67 98 126 73 79 86 124 112 138 115 107 131 97 146 15 124 72 123 57 121 81 92 84 130 158 68 83 132 72 107 59 82 110 152 106 92 49 106 88 70 119 102 50 84 85 138 133 129 42 110 148 116 124 104 160 62 111 81 77 71 78 143 87 104 178 46 57 68 81 85 192 77 113 148 132 101 99 105 97 59 104 112 121 130 128 51 92 179 142 87 125 145 148 142 79 65 140 69 122 133 65 79 119 132 49 105 30 109 87 61 99 112 115 130 75 66 117 38 101 128 137 36 134 90 173 134 94 159 101 182 74 167 92 82 108 54 48 76 120 143 80 109 97 70 135 120 91 50 70 30 129 121 117 237 65 141 93 75 110 110 46 106 30 149 125 151 91 96 72 139 107 126 117 85 80 107 96 134 125 104 99 127 128 50 158 33 98 149 102 63 118 126 158 145 52 143 116 79 126 99 86 59 99 96 83 126 113 127 81 83 151 115 50 58 52 105 103 86 70 75 118 219 138 125 149 141 72 85 61 96 70 59 151 74 209 132 61 100 128 114 127 148 61 47 92 149 94 161 72 51 127 126 139 100 111 127 101 106 144 69 106 89 115 180 117 107 74 73 46 126 119 138 96 22 129 43 141 74 134 136 103 154 155 97 156 168 70 82 68 94 110 64 137 108 72 143 96 98 89 93 104 111 74 102 100 132 99 130 90 92 72 127 78 144 77 114 74 94 96 88 98 66 66 149 135 88 76 129 14 115 81 106 122 88 126 69 121 114 121 137 88 146 72 125 105 130 64 97 48 102 82 114 99 100 68 57 66 38 133 137 50 106 97 108 83 119 96 129 46 91 116 72 75 167 146 90 160 79 70 139 157 133 105 95 122 162 111 142 65 141 123 111 101 151 112 59 116 125 77 89 190 29 109 225 127 126 132 74 58 88 91 130 72 142 36 109 50 67 86 94 105 67 113 75 70 98 90 44 51 75 62 81 104 85 154 105 135 90 79 114 81 115 91 180 170 112 111 97 113 79 128 70 59 152 183 113 134 51 128 73 120 125 59 87 117 67 48 68 205 208 162 167 86 117 166 121 78 62 110 135 60 85 106 143 59 126 89 85 78 53 136 136 111 106 107 129 118 255 52 170 112 86 163 76 139 123 41 96 103 74 90 101 168 141 164 129 107 151 88 120 50 113 125 127 115 80 71 72 108 39 117 109 92 38 49 136 123 107 113 88 142 120 103 152 70 122 90 107 141 92 122 153 125 67 133 110 96 71 95 113 90 43 85 158 127 120 64 100 176 49 152 69 127 100 124 100 102 67 31 111 79 90 154 50 110 86 132 70 114 86 138 127 146 78 149 43 141 138 159 87 121 155 107 83 61 96 88 101 111 74 102 121 112 63 126 61 155 119 216 89 146 35 115 123 68 92 161 117 40 78 126 144 64 157 74 158 121 104 122 72 120 38 73 75 57 86 105 66 87 145 73 98 146 71 141 111 80 106 111 85 96 93 108 55 66 97 128 105 83 115 142 143 125 45 35 66 103 145 127 81 67 99 129 52 65 116 180 133 50 90 81 134 92 80 144 115 66 90 117 183 136 107 120 124 75 89 172 66 89 90 77 97 146 96 124 113 156 87 139 143 113 95 72 133 93 112 110 71 93 73 85 67 104 29 98 64 130 110 127 100 39 116 79 99 92 98 149 134 66 79 140 93 91 38 49 109 105 115 97 107 112 102 145 98 191 121 121 85 42 166 165 100 147 88 75 116 97 100 90 146 113 107 71 49 104 130 102 108 51 121 127 102 106 117 27 113 105 95 107 150 153 146 178 127 102 84 37 120 100 143 69 148 81 82 192 101 106 70 61 112 112 97 143 105 99 153 110 96 65 99 121 74 99 128 126 30 107 115 136 153 87 102 72 129 86 121 138 96 104 32 54 87 137 55 110 75 123 90 80 56 88 127 145 101 67 87 126 97 149 127 99 189 125 117 71 42 135 99 196 145 67 78 73 149 33 109 72 132 107 107 78 113 150 133 116 68 84 77 114 93 108 88 83 46 120 178 116 112 96 128 118 85 121 79 126 77 76 101 77 129 92 176 100 64 145 99 83 134 103 108 161 142 154 150 120 95 89 78 133 158 113 155 133 88 28 96 49 110 101 72 137 116 122 86 91 69 98 118 139 93 71 146 146 121 84 80 85 122 102 114 183 79 79 143 133 135 69 102 152 155 98 115 109 137 53 80 117 101 130 93 99 99 108 87 95 86 110 104 21 27 90 138 87 50 61 78 95 91 135 96 105 154 178 140 124 124 112 117 102 112 48 96 112 108 82 82 100 53 163 176 110 141 143 128 66 50 153 102 88 62 114 87 87 117 109 56 44 51 96 135 105 73 119 66 129 145 87 132 97 64 127 96 129 101 44 131 79 104 143 84 72 124 100 120 119 136 95 158 85 60 62 131 107 48 103 83 151 72 125 123 136 60 78 141 148 71 119 94 124 111 89 76 102 107 35 175 62 148 99 118 117 133 96 117 84 118 65 106 133 138 104 177 123 107 126 115 87 25 77 86 96 95 60 99 111 98 140 166 116 100 87 144 106 147 124 114 99 108 153 103 52 67 87 55 93 131 119 102 92 136 81 99 95 114 90 123 90 115 67 141 123 88 100 100 106 133 96 85 136 76 121 130 110 81 113 107 149 130 93 89 123 140 77 175 104 130 100 81 83 45 79 60 69 116 105 93 136 120 111 154 63 121 112 79 114 103 142 140 51 113 183 193 107 105 95 97 152 134 89 134 161 149 49 111 96 95 123 67 93 83 128 159 125 48 97 151 107 31 84 150 102 138 44 35 116 44 50 162 87 98 78 103 30 90 77 153 118 105 105 82 115 86 110 69 114 111 95 63 130 86 106 62 135 161 91 142 176 37 61 83 121 137 54 130 126 95 76 96 81 80 48 61 108 103 165 159 65 124 148 88 44 150 122 131 128 92 172 71 33 113 149 129 106 67 62 87 71 179 106 119 92 113 36 140 141 145 86 81 165 105 100 116 102 173 84 144 141 130 87 129 113 77 135 119 70 114 151 71 110 154 85 92 53 147 106 157 83 161 107 156 186 44 88 34 161 93 70 126 148 114 91 82 112 124 66 132 143 93 100 125 112 51 93 114 49 181 77 163 81 57 50 114 109 120 41 37 140 156 74 137 98 62 82 87 145 70 73 243 142 80 46 115 59 67 163 148 104 102 109 128 67 127 46 112 147 87 165 148 71 92 131 92 104 120 138 143 66 73 100 112 95 57 143 88 82 171 130 107 50 130 104 140 138 116 59 85 104 165 105 65 121 114 62 64 121 144 143 203 91 118 85 111 98 117 118 113 76 112 99 86 59 87 69 108 87 129 80 134 78 129 59 177 71 106 36 190 96 22 131 116 56 142 111 96 128 99 32 42 109 102 57 109 67 125 75 111 56 97 76 110 109 110 89 74 63 73 104 109 89 75 73 105 73 159 111 73 91 109 98 100 117 69 107 103 81 81 128 128 94 118 38 99 77 117 119 16 83 111 146 67 96 143 95 152 152 136 188 103 87 116 88 122 55 105 145 83 82 77 122 89 115 181 147 94 93 83 187 104 134 103 131 92 133 137 102 111 118 54 62 140 102 43 87 139 92 132 165 130 85 119 91 89 101 119 134 146 163 157 101 90 108 124 82 65 94 73 95 117 67 48 113 82 114 99 135 86 41 104 112 109 77 106 56 165 63 132 96 137 100 58 121 105 68 126 119 143 79 78 128 118 167 194 63 133 47 115 112 115 103 159 124 83 86 104 111 135 124 117 124 129 77 86 63 200 90 102 200 142 136 72 109 65 101 47 102 176 141 100 156 105 89 108 100 182 161 238 105 144 103 141 99 110 86 98 95 154 117 105 137 57 83 113 61 80 159 81 80 106 83 66 76 90 182 98 80 111 59 135 116 126 91 92 64 46 136 45 107 87 116 110 96 84 109 74 27 101 156 154 74 50 96 81 111 110 59 170 163 148 90 79 87 52 94 42 132 75 138 138 89 102 158 94 104 100 112 133 148 97 176 117 113 119 95 163 133 145 130 138 172 102 104 115 66 126 97 100 89 83 101 81 101 107 131 86 163 131 102 96 83 136 122 101 110 108 82 98 120 66 95 138 63 101 158 60 59 107 102 104 124 89 121 109 103 53 105 106 45 140 92 137 103 120 168 92 75 91 69 98 137 116 63 135 137 119 112 54 69 122 107 35 140 87 128 92 105 97 80 94 102 156 54 98 128 81 115 179 80 73 100 110 67 94 161 147 95 150 76 127 87 126 72 100 95 94 155 83 114 115 141 80 92 73 37 99 66 84 89 132 133 68 117 138 112 40 171 121 102 166 151 139 200 58 96 141 80 160 234 35 71 86 100 96 62 104 106 102 70 165 80 15 116 160 112 125 117 96 49 74 109 133 79 117 129 160 164 149 51 92 70 77 118 65 41 103 85 105 119 118 93 150 62 170 59 98 112 58 112 148 82 80 95 98 39 107 123 127 130 106 161 132 111 130 99 93 119 63 117 78 116 45 111 252 54 71 127 108 87 53 118 117 106 64 82 79 142 125 116 109 112 138 216 155 68 66 62 92 110 64 94 113 94 85 149 131 77 98 146 100 91 129 66 65 47 138 125 86 92 134 104 106 107 52 120 141 99 123 127 104 77 60 145 171 109 129 153 124 93 82 107 71 101 95 116 129 79 94 109 97 86 88 73 44 87 94 122 76 77 124 132 84 121 81 88 123 155 124 167 133 134 127 102 135 153 94 66 159 152 137 183 106 109 63 112 79 146 66 150 102 85 76 123 102 14 100 135 93 78 96 38 78 28 136 115 141 50 98 129 112 120 101 110 70 81 119 112 102 144 141 82 61 153 93 161 111 68 109 112 63 83 122 62 83 116 113 112 89 80 75 102 68 132 84 48 125 66 126 191 56 94 55 143 94 95 112 125 71 118 142 133 87 120 104 71 138 125 118 158 104 146 161 117 62 133 48 52 79 72 82 145 63 70 102 114 94 60 133 133 28 106 94 122 100 109 87 124 163 96 30 58 96 106 157 149 49 105 87 78 74 112 101 82 114 121 52 73 68 154 39 113 147 53 165 73 86 164 55 95 114 132 104 176 94 98 110 96 100 116 70 73 102 117 115 117 134 74 113 146 163 79 146 80 115 80 23 90 139 46 145 96 96 165 93 81 35 42 110 113 81 70 83 125 93 201 106 196 143 39 92 136 52 105 74 109 68 148 122 87 116 70 87 82 80 89 97 102 122 122 65 152 71 130 200 59 148 105 121 164 99 46 97 70 62 98 78 105 120 189 90 88 56 142 99 59 130 105 109 80 56 124 124 82 76 33 112 56 54 118 122 140 114 98 105 96 82 91 136 100 132 182 140 105 113 147 151 85 77 132 91 86 120 69 95 104 132 109 72 135 85 113 55 141 133 90 83 99 44 107 83 97 128 93 89 67 95 94 90 55 53 108 106 74 78 86 133 131 117 107 159 96 127 47 56 151 67 30 111 86 112 104 99 182 157 173 40 48 67 147 98 113 45 128 106 172 59 105 137 83 118 82 115 134 153 106 115 102 135 104 104 70 133 107 51 110 92 110 83 93 32 107 64 98 80 82 146 135 83 110 96 111 78 159 91 69 102 131 58 70 97 89 127 110 105 246 124 90 59 69 89 128 119 63 98 132 101 148 95 110 94 91 138 91 141 53 116 95 119 56 97 89 107 132 128 116 70 112 65 76 62 91 161 97 143 150 95 147 50 60 122 93 175 67 113 141 95 33 83 78 99 96 105 91 115 106 128 120 98 163 111 136 133 96 80 63 92 84 82 72 134 150 78 77 100 117 118 137 113 52 94 84 148 47 98 117 113 150 111 172 94 81 117 130 102 159 89 160 148 97 143 105 71 71 113 92 115 121 67 151 80 144 125 104 38 121 65 84 144 129 102 125 66 123 161 143 96 80 99 71 70 90 150 104 134 85 181 82 89 103 124 106 51 97 80 83 124 100 103 96 92 141 140 142 170 117 70 88 101 139 138 131 84 149 60 98 92 121 106 155 143 141 91 55 114 52 108 63 49 104 90 105 120 131 138 139 120 143 90 91 94 129 129 125 144 99 94 94 73 91 88 129 151 53 71 97 38 107 72 103 89 141 111 93 58 150 46 70 93 56 74 126 85 138 82 64 156 130 88 90 98 128 78 72 120 166 102 132 88 139 155 100 62 118 219 141 116 140 58 121 99 135 103 68 43 138 152 121 144 51 74 130 36 80 132 129 90 42 144 138 113 97 121 130 99 156 69 106 50 113 88 141 163 110 156 113 73 102 115 109 67 68 140 101 109 99 112 78 110 85 121 102 66 109 85 64 133 114 90 158 80 61 71 90 79 66 153 82 124 131 136 56 115 93 84 154 96 188 112 87 72 134 95 64 125 60 139 36 110 133 8 121 68 86 63 65 180 83 101 159 61 160 151 86 161 87 103 101 65 79 79 154 106 111 98 149 96 137 108 134 103 123 87 70 86 92 106 97 112 102 92 27 93 37 94 53 86 45 54 55 92 70 76 117 105 95 81 95 103 122 133 126 81 83 75 91 130 47 79 66 79 58 115 107 94 123 103 83 96 80 123 110 111 112 167 98 72 113 132 113 80 69 113 139 78 66 194 90 112 64 55 108 107 59 114 115 125 62 60 90 143 132 146 188 60 128 72 137 120 102 146 74 115 91 109 111 99 74 162 42 79 98 105 96 129 173 71 88 114 55 104 108 101 97 75 111 135 136 101 166 69 119 74 115 191 175 95 115 87 136 117 128 64 190 90 146 71 120 130 58 135 95 100 114 118 112 71 146 85 81 81 85 147 79 13 79 147 178 160 112 151 85 39 58 113 130 133 193 73 133 132 169 47 28 60 112 78 61 74 113 112 144 102 140 107 98 112 147 58 121 132 100 142 158 86 124 132 83 107 97 51 97 84 113 141 103 78 133 121 107 137 64 132 145 116 141 143 50 87 149 133 90 99 122 144 76 173 131 137 126 110 122 109 103 70 27 133 94 117 154 112 138 60 83 121 81 70 103 95 128 82 55 133 115 99 125 35 87 142 85 69 118 82 117 186 94 102 76 114 149 121 88 94 167 95 136 155 90 86 92 105 146 82 107 134 75 129 69 116 94 70 94 96 121 82 91 130 95 90 157 100 89 124 56 72 206 186 130 143 117 104 164 107 85 132 69 22 123 111 50 125 87 149 82 123 153 83 126 80 70 34 108 132 71 102 130 84 88 108 123 78 83 105 88 97 120 151 175 165 141 85 147 76 73 102 127 105 132 98 48 134 105 55 87 119 120 136 92 169 103 116 123 203 142 71 103 60 97 181 115 199 75 102 184 83 116 94 150 106 93 75 42 68 161 100 134 172 67 109 54 69 64 52 104 137 85 149 91 79 103 125 67 130 122 110 178 43 171 112 97 49 133 140 100 130 129 83 89 118 171 99 152 107 83 112 105 121 119 108 100 83 116 134 86 74 161 112 76 113 127 145 120 139 31 74 118 157 101 57 126 92 101 156 112 96 123 160 124 90 174 106 66 92 56 93 140 91 40 80 124 93 103 127 97 194 95 93 67 53 81 81 32 123 78 126 94 164 58 161 148 145 126 92 164 133 122 169 78 152 103 68 85 77 119 110 58 131 103 119 96 116 110 141 92 39 105 38 130 115 107 128 93 93 172 93 120 124 97 140 72 78 124 86 102 112 100 104 40 184 148 122 62 142 134 86 99 131 117 108 188 58 101 81 95 109 76 77 115 121 127 81 87 112 122 187 167 98 69 193 89 113 71 85 67 68 93 51 92 167 98 104 72 111 77 94 49 140 146 177 103 158 138 120 83 135 44 43 126 106 122 108 112 82 137 99 84 97 30 54 136 115 97 74 81 135 113 112 123 96 186 108 176 127 119 112 94 82 33 114 114 156 98 112 55 122 46 115 101 115 112 87 144 108 132 45 134 156 155 136 141 112 89 152 114 88 145 120 191 83 89 139 51 47 55 155 112 84 93 104 83 49 106 96 57 90 93 193 101 142 129 119 108 102 122 85 86 139 119 100 85 121 170 139 149 147 77 103 127 136 72 84 67 133 82 200 142 116 175 153 113 85 150 66 75 189 121 78 89 89 66 135 170 127 103 193 83 119 157 124 129 144 138 47 46 170 107 98 116 202 98 53 111 139 173 115 99 131 176 87 167 89 108 143 124 95 106 128 141 70 121 134 106 166 98 106 126 84 71 98 116 101 105 55 142 72 106 107 134 152 127 97 115 121 76 133 70 128 97 86 86 102 99 125 145 146 43 105 103 108 74 61 89 118 123 61 102 136 110 104 122 113 57 128 116 67 168 83 146 92 104 59 83 110 121 145 100 51 36 102 53 65 129 181 68 94 114 123 77 112 96 141 134 106 94 77 140 160 31 128 89 97 157 120 132 144 34 143 126 45 123 76 86 59 143 27 70 72 85 122 102 105 123 172 74 58 22 129 104 122 91 127 131 125 91 99 168 73 114 110 107 128 108 84 129 43 155 86 72 87 112 122 123 96 60 120 119 103 58 84 82 91 74 91 74 184 137 220 98 82 110 137 108 140 66 103 71 111 137 97 185 166 128 125 78 103 134 113 72 112 86 89 130 153 88 143 118 156 54 98 55 61 148 56 55 109 166 80 145 122 121 104 110 105 123 134 106 120 23 134 79 89 110 127 146 95 115 78 77 132 51 122 125 145 110 132 131 113 85 112 75 67 66 69 130 99 128 89 171 84 103 84 93 50 61 63 184 59 162 44 131 114 104 96 163 124 53 158 175 136 89 105 107 135 113 96 102 113 66 72 55 107 134 89 107 96 78 124 110 105 82 122 171 77 170 106 94 140 210 112 120 137 58 86 142 148 94 168 123 94 191 125 44 30 115 130 178 102 35 81 83 117 55 91 157 101 96 81 108 137 94 145 98 117 167 114 126 63 120 80 85 163 115 123 163 91 74 101 147 157 70 114 42 132 53 140 52 22 94 94 66 93 76 55 114 93 83 104 104 70 84 118 98 136 100 116 109 136 84 62 64 66 94 147 57 86 103 94 117 86 123 143 55 98 90 65 69 108 124 103 56 157 78 44 128 84 80 56 83 60 152 70 110 99 95 134 87 37 89 135 157 102 95 110 126 158 104 102 180 85 200 58 127 142 103 135 58 89 116 116 122 101 141 60 84 186 80 143 151 104 112 54 75 133 99 87 108 102 112 95 139 102 63 180 98 138 33 109 125 115 72 205 138 88 131 119 66 120 101 64 110 84 99 81 113 79 134 146 66 98 111 101 113 126 17 97 142 64 64 78 32 165 104 71 124 117 99 78 96 94 199 183 179 44 57 157 102 57 139 136 150 96 85 85 89 124 119 75 108 50 118 115 75 134 142 131 81 84 122 103 90 87 98 196 79 97 164 123 96 51 137 129 77 85 110 116 75 91 115 80 130 14 98 90 128 148 98 103 74 94 63 114 119 117 37 95 132 94 150 104 50 111 191 126 113 123 97 72 121 82 70 111 52 127 75 71 79 64 94 112 99 81 141 93 162 81 76 64 30 85 165 56 84 133 68 97 50 131 53 87 98 90 199 135 101 127 116 55 112 117 46 112 143 74 85 92 99 103 52 165 100 211 77 115 76 62 123 94 217 62 103 85 88 62 158 125 93 97 115 82 105 94 107 105 129 89 137 132 183 104 104 35 105 95 159 87 121 94 99 136 158 156 148 77 97 131 150 78 101 77 117 145 126 204 113 87 113 64 185 92 173 106 116 159 112 152 66 115 143 97 214 96 179 68 102 92 41 102 76 164 84 106 110 88 33 116 157 93 67 60 181 120 91 87 90 129 123 86 138 69 105 98 72 52 96 104 95 55 137 121 98 98 95 113 84 89 71 111 111 178 92 68 91 110 103 75 129 65 95 128 71 48 140 113 97 93 114 87 139 184 28 97 94 94 92 70 79 163 125 83 85 141 128 132 118 84 133 97 107 93 76 71 72 124 94 92 42 156 74 133 77 104 147 123 126 131 96 69 135 127 120 152 91 131 127 114 45 122 125 91 59 217 108 165 145 68 74 143 76 89 74 78 105 40 122 149 147 127 106 70 73 52 56 64 122 127 79 99 122 183 93 112 51 110 83 62 128 123 126 108 78 119 110 152 78 181 147 80 88 61 145 115 99 145 51 93 115 163 139 75 103 96 93 97 189 107 72 79 125 121 78 82 91 91 58 141 100 102 106 86 105 98 101 132 40 116 181 203 109 69 131 114 175 71 78 143 87 99 119 146 102 144 70 96 111 170 109 119 89 69 114 79 111 52 102 71 121 68 85 72 99 111 69 73 113 116 123 117 135 71 107 60 109 25 125 83 82 109 121 79 138 127 128 68 57 152 96 115 150 107 116 65 127 95 97 146 147 84 69 63 86 101 86 105 103 84 113 87 137 104 141 96 117 98 78 178 56 121 111 111 77 63 72 149 62 60 160 113 94 118 123 112 152 87 104 78 117 146 77 108 143 141 30 40 65 92 31 76 152 187 119 115 141 144 75 160 52 139 113 88 76 170 93 100 72 71 94 79 109 83 134 129 63 76 105 148 126 96 69 158 72 84 57 143 100 198 134 171 151 137 104 57 83 123 57 101 233 98 91 109 233 165 130 89 107 149 93 113 168 107 69 79 124 16 132 66 115 74 90 117 111 100 31 115 100 87 144 128 99 77 136 57 133 97 148 72 70 99 55 45 138 104 124 79 182 109 73 133 81 123 84 101 126 95 50 83 115 81 95 154 81 68 144 126 84 80 120 150 130 124 131 77 70 96 84 111 107 76 114 61 131 144 95 90 120 51 90 107 111 78 121 108 153 95 106 46 94 56 30 133 136 50 176 78 77 88 111 78 118 56 91 177 52 64 102 75 42 228 113 128 75 54 69 125 153 41 152 116 144 51 81 96 108 89 138 112 140 129 102 130 125 86 115 128 56 113 129 90 102 90 75 80 110 72 113 84 87 95 96 70 165 89 82 84 86 112 87 136 47 119 128 148 72 105 104 81 88 120 115 162 90 115 120 153 65 167 121 138 124 99 191 113 97 151 80 90 122 120 85 88 56 57 159 122 135 126 106 55 38 134 31 114 162 71 137 146 59 149 143 95 120 134 114 86 152 178 92 198 73 83 101 150 141 108 114 128 142 172 155 112 73 140 78 122 150 28 168 62 175 125 51 78 94 87 41 118 88 128 107 77 143 78 66 110 112 147 87 52 108 143 110 118 110 168 103 110 107 71 94 80 60 86 138 100 90 124 128 116 86 189 80 170 93 91 91 67 67 68 95 128 108 43 194 94 137 102 115 113 83 104 149 97 96 56 113 91 72 84 94 141 72 91 119 159 121 147 123 153 115 67 180 141 66 91 113 138 105 154 69 111 144 97 73 127 117 111 108 93 108 80 136 132 146 94 71 116 115 171 182 94 64 136 112 82 96 114 86 134 115 93 97 135 152 126 99 65 53 81 92 122 92 117 92 103 95 75 137 82 133 111 169 88 115 53 137 80 84 106 116 88 84 83 112 61 76 174 199 98 88 90 184 117 137 80 73 78 97 99 151 163 115 96 122 132 132 110 139 117 99 104 111 65 129 149 65 151 155 89 139 94 145 33 139 156 81 111 67 76 104 99 144 126 40 128 139 138 127 126 156 69 119 63 61 60 121 110 89 64 84 153 133 100 107 92 113 116 85 97 101 114 63 82 123 100 89 138 165 134 128 112 171 129 94 89 96 92 78 80 78 93 95 119 109 110 94 85 83 84 151 112 88 165 50 137 163 77 187 104 166 109 121 66 94 64 150 139 106 167 94 118 121 81 59 60 111 70 120 110 96 127 120 78 108 96 80 107 76 34 80 46 94 88 99 157 136 92 115 52 134 157 111 119 164 51 153 135 111 97 85 117 178 136 172 171 134 118 141 80 84 85 103 48 140 136 70 109 97 121 74 123 122 129 86 52 103 109 120 91 106 99 158 146 102 107 95 154 115 83 63 79 130 135 111 116 116 125 156 213 137 75 85 124 120 94 112 178 132 91 93 181 62 123 64 114 86 183 114 57 98 111 76 83 102 95 92 107 58 113 94 112 110 131 42 70 145 50 78 95 66 138 89 59 131 136 64 176 156 160 112 81 94 76 98 143 44 106 65 164 68 79 92 78 82 122 85 25 74 93 129 131 125 89 102 162 68 118 85 115 100 66 104 136 96 92 101 126 120 104 108 75 135 110 85 101 107 109 109 174 152 90 106 69 108 93 42 90 135 77 38 127 87 73 60 110 124 112 202 123 63 98 68 48 94 89 107 132 76 167 73 101 92 167 166 92 107 66 128 140 73 67 156 87 151 93 139 124 108 132 137 154 102 107 158 77 120 70 100 79 135 100 91 146 81 113 173 129 80 96 48 90 102 39 109 80 106 110 115 147 76 138 113 95 111 120 110 173 68 88 101 75 113 83 79 64 104 127 38 75 90 45 66 187 182 122 108 118 86 75 116 124 64 87 126 124 121 81 48 105 70 88 83 118 60 103 100 127 90 125 84 129 46 82 94 149 55 104 142 173 94 145 65 145 71 60 74 59 83 102 121 93 195 165 83 138 89 147 64 101 64 100 159 43 154 101 107 185 78 109 89 72 125 53 119 79 116 125 112 134 138 111 147 141 122 115 150 112 70 64 49 171 82 30 78 78 80 96 26 85 144 100 98 134 62 114 71 102 92 79 114 137 104 94 113 70 105 113 47 95 132 106 69 192 129 99 118 106 97 104 157 25 66 135 31 160 105 72 121 84 59 125 107 160 65 135 80 146 65 112 144 115 109 146 130 59 84 41 128 107 84 112 106 128 90 90 98 121 94 135 91 82 61 112 120 162 71 42 157 70 100 149 76 110 50 113 104 92 103 70 95 113 75 81 123 88 62 186 107 68 104 109 82 65 126 128 71 117 78 123 84 81 147 57 92 118 98 44 118 83 154 114 142 123 77 137 135 74 145 147 29 70 54 61 52 93 57 54 193 66 81 136 89 114 51 93 88 121 94 101 52 119 126 58 89 54 117 82 92 139 75 80 115 153 123 81 140 88 137 90 134 46 108 129 114 138 158 204 130 95 141 102 113 98 89 109 63 145 180 213 85 127 97 101 103 52 84 86 27 116 95 19 135 112 75 73 51 83 133 137 85 123 90 89 130 87 82 127 147 103 141 33 81 67 77 132 111 166 130 116 118 88 114 104 130 60 78 136 63 138 96 113 120 170 163 116 97 85 79 96 117 85 98 197 102 68 123 71 69 89 99 62 48 88 166 96 117 64 123 83 130 117 141 92 101 97 109 83 123 55 162 130 66 148 88 146 101 111 54 47 73 161 89 67 135 168 101 147 107 109 76 59 175 164 114 91 113 83 33 101 210 74 143 92 136 165 102 135 68 162 168 81 164 36 102 49 127 59 99 83 80 114 81 73 92 93 91 98 129 134 134 74 128 143 55 121 60 173 80 67 156 142 90 128 104 51 121 132 85 78 145 63 81 76 88 138 113 89 60 133 131 31 113 126 135 180 167 91 97 65 156 74 173 100 103 80 85 106 80 126 133 74 120 159 94 125 155 88 153 102 102 147 93 81 130 140 159 143 131 112 94 119 159 119 45 136 161 90 111 79 109 97 173 127 140 89 143 121 43 42 102 103 101 74 51 83 81 112 101 110 150 113 159 114 63 20 56 90 59 66 75 116 138 81 86 68 86 135 73 60 78 101 98 87 96 70 84 119 119 118 73 94 107 184 95 81 101 115 169 96 100 98 129 83 145 87 105 112 105 127 90 121 89 138 86 151 88 142 146 152 110 116 58 166 177 103 98 125 92 102 76 144 67 35 102 147 146 82 120 141 107 119 124 97 92 109 106 85 128 19 118 144 105 113 68 100 81 49 33 40 114 112 73 61 63 128 154 129 76 100 130 119 131 100 112 138 145 112 101 96 82 95 85 121 121 138 126 89 149 113 156 121 148 141 91 83 143 129 109 134 79 81 69 85 134 95 103 199 86 100 119 118 139 110 142 75 67 110 100 121 112 122 93 64 106 107 76 101 107 110 102 117 105 127 108 99 94 132 85 82 109 86 104 101 104 62 181 114 109 113 138 157 87 84 37 115 124 64 126 70 96 154 108 62 185 103 108 58 146 160 99 89 85 85 121 92 93 137 120 93 93 110 157 109 93 91 148 58 96 118 119 106 138 213 122 138 131 60 121 123 95 162 115 145 88 135 101 84 125 128 61 196 147 72 122 109 110 73 86 120 121 111 140 48 117 181 116 159 94 82 62 101 73 143 129 96 79 115 164 146 72 87 77 108 96 155 121 69 26 164 123 61 120 101 25 104 149 114 107 141 78 96 164 78 81 105 99 124 89 113 70 115 111 81 76 84 94 74 118 99 119 143 188 67 80 96 132 38 75 111 106 40 130 141 112 80 152 125 161 115 176 117 168 58 103 123 112 143 121 104 132 120 87 70 36 174 106 108 118 165 98 189 62 48 113 138 131 107 83 138 59 143 128 99 42 162 169 129 109 101 112 115 83 98 90 73 87 86 98 97 156 28 149 219 164 54 169 116 128 115 94 117 183 75 126 124 95 23 91 139 143 103 39 44 181 60 147 131 173 89 73 58 47 55 122 80 104 77 91 61 96 96 120 74 118 94 100 36 87 108 114 101 87 85 79 72 97 51 68 98 66 90 46 67 117 74 82 167 71 115 112 87 75 113 107 76 46 118 84 172 108 99 108 70 131 74 106 104 108 138 106 142 122 81 101 168 25 59 131 86 93 98 98 84 78 101 38 117 37 77 115 106 172 106 104 176 56 123 218 94 78 95 137 111 132 45 114 64 100 116 77 166 122 102 162 160 120 35 80 117 114 86 96 81 148 120 136 155 89 119 108 144 120 94 86 138 163 71 138 84 124 100 99 17 52 163 129 150 164 179 92 146 104 95 75 108 108 112 134 102 137 133 159 109 95 60 129 133 53 83 81 115 103 88 122 113 95 66 85 76 125 101 134 57 139 86 105 111 63 110 10 83 157 140 102 141 101 116 127 133 161 69 95 94 115 138 86 121 92 55 89 80 91 94 62 45 101 100 116 99 106 77 58 85 170 118 133 124 161 73 88 150 137 103 57 78 70 169 98 139 95 153 78 136 108 92 138 107 91 151 63 97 92 163 66 141 116 98 128 101 153 87 126 109 136 103 39 144 73 137 121 117 66 93 120 72 168 82 111 64 59 128 158 80 81 117 65 113 83 103 76 161 84 159 50 95 62 76 85 124 127 101 75 70 126 104 106 61 125 52 150 139 77 95 126 91 140 52 57 63 111 184 103 116 176 79 80 91 139 163 164 154 84 29 69 104 68 180 86 78 59 136 174 105 127 128 131 104 97 145 88 83 133 56 98 126 101 99 117 84 126 131 76 75 73 122 104 109 89 91 108 165 163 115 98 60</t>
+  </si>
+  <si>
+    <t>MIE(0.2810702221646968, 2.319183233666389, -2.013981970229645e-30, 1.4303758187051259)</t>
+  </si>
+  <si>
+    <t>1 1 2 0 0 1 2 2 1 0 1 2 0 1 1 1 3 0 2 0 0 0 1 2 0 1 1 0 1 0 1 0 0 2 2 1 0 0 0 1 3 0 3 0 0 2 0 0 0 1 0 0 4 1 1 1 0 1 0 2 1 0 1 1 0 1 0 1 0 1 0 1 1 2 0 2 3 2 1 1 2 0 0 1 0 2 0 1 1 1 1 2 2 2 2 3 0 0 2 3 1 0 3 2 2 0 1 1 1 0 2 0 1 0 2 2 1 1 2 0 1 0 1 2 0 1 2 0 0 2 2 1 1 2 1 2 2 1 1 0 3 0 1 1 0 3 0 3 1 2 1 0 3 2 2 0 0 3 0 0 2 0 0 1 1 0 0 0 1 2 0 1 2 1 0 3 1 1 1 0 0 0 2 2 0 0 1 1 1 0 1 0 0 1 2 1 0 0 0 1 0 2 2 1 0 0 2 0 0 2 0 0 1 0 0 1 0 2 3 0 2 1 0 0 0 0 0 2 1 0 0 0 0 1 1 0 0 1 0 1 1 0 1 1 1 1 1 1 1 1 0 1 0 0 1 1 1 1 1 0 0 1 1 2 0 0 0 0 1 0 0 0 1 1 0 1 0 1 1 1 0 1 1 0 1 2 2 1 2 0 0 1 2 2 0 3 3 1 0 2 0 0 1 1 0 1 1 0 0 0 1 1 0 0 1 2 2 0 1 1 2 0 0 1 1 2 1 2 1 1 1 1 1 2 1 1 0 0 0 0 1 1 0 1 0 0 0 1 1 0 1 3 0 2 0 1 1 0 0 1 2 3 2 1 2 0 2 0 1 0 1 1 3 0 1 3 0 0 1 1 1 0 0 1 0 1 1 0 0 1 2 0 2 0 0 0 0 1 0 1 0 0 0 0 2 1 0 0 1 0 2 1 1 0 0 2 1 2 0 0 1 2 1 0 2 0 3 0 0 0 0 2 0 0 0 0 2 1 3 0 4 1 1 0 2 2 1 1 2 0 0 0 3 0 0 1 0 1 1 2 1 0 1 1 0 1 0 3 1 0 2 0 2 0 3 1 0 1 1 2 0 1 0 0 0 0 0 2 1 0 2 0 0 3 0 1 1 1 0 1 0 0 1 0 2 0 1 0 1 2 0 1 1 2 0 2 0 1 0 1 1 1 0 0 0 1 2 2 2 0 0 1 1 0 1 4 0 2 2 1 1 0 3 1 0 0 1 0 2 0 0 2 1 2 1 2 0 1 0 0 2 1 0 1 0 2 0 2 0 1 0 2 0 3 2 1 4 1 0 1 0 0 0 1 0 3 0 1 0 0 1 0 1 1 0 0 0 1 1 1 2 1 1 2 3 1 1 0 0 2 0 1 1 0 0 1 0 0 0 1 1 1 0 1 1 1 1 2 2 2 0 1 1 1 0 1 1 0 1 1 1 0 0 2 0 1 2 0 1 1 0 1 0 0 4 2 1 0 0 0 0 1 0 0 1 0 1 1 2 2 1 1 1 1 1 1 1 0 3 2 1 1 4 0 1 0 0 2 0 0 0 1 0 2 1 1 2 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 1 0 0 1 0 3 0 1 0 0 0 0 2 0 1 0 1 2 0 0 0 0 0 2 0 1 2 0 0 2 1 0 3 0 1 1 1 1 1 0 1 0 1 0 0 0 1 0 1 0 1 1 1 1 0 1 2 1 1 1 2 2 0 3 0 2 0 1 2 0 0 2 1 1 1 0 0 2 1 3 0 0 1 0 1 1 0 0 0 2 0 0 3 1 1 0 1 0 0 3 0 0 1 1 1 0 2 0 0 0 3 0 0 3 1 2 1 2 0 0 2 2 0 1 0 0 0 0 3 2 1 1 1 0 0 1 1 0 0 0 1 2 2 1 1 0 1 1 0 0 1 0 1 0 1 1 2 1 0 0 1 1 0 1 0 1 1 2 1 0 0 0 1 0 1 0 2 0 1 0 1 0 0 2 0 1 2 0 0 2 0 0 2 2 1 1 0 0 4 1 0 1 3 1 3 1 1 2 1 1 0 0 0 1 0 0 2 2 2 0 2 2 3 0 0 1 0 2 1 0 1 2 1 1 0 2 2 1 1 3 1 1 1 0 0 0 1 1 1 1 0 0 2 1 1 2 1 1 2 1 1 1 0 0 0 1 0 0 0 1 1 1 0 0 2 0 1 4 1 1 0 1 1 0 1 0 2 2 1 0 0 2 1 0 0 0 0 1 2 2 2 0 2 0 0 0 1 0 1 1 2 0 1 0 0 2 1 0 0 0 1 2 1 0 1 1 2 0 0 0 0 1 2 0 3 1 0 1 0 1 1 2 1 0 0 2 1 0 2 3 1 0 0 0 0 1 1 0 1 2 2 0 0 0 3 1 0 3 2 1 1 0 1 0 1 2 0 2 2 0 2 3 0 0 1 1 1 1 1 0 0 0 1 1 1 2 2 3 0 2 1 1 1 0 1 0 2 2 1 0 1 3 1 1 1 0 3 1 0 0 0 1 0 1 0 0 1 0 1 1 2 0 0 1 2 1 1 1 1 1 0 0 1 1 1 0 0 0 0 0 3 1 0 1 1 0 1 2 0 0 1 1 0 1 1 0 0 1 0 0 1 2 0 1 0 1 0 0 2 0 1 2 2 0 0 1 1 1 0 0 0 0 1 1 0 1 2 1 0 2 0 0 0 0 2 0 0 1 0 0 2 3 0 1 1 0 3 2 1 0 0 0 2 1 1 3 1 0 1 0 1 0 2 1 2 1 0 0 1 0 0 2 0 0 2 1 2 1 2 1 1 1 0 1 1 1 3 2 0 0 1 1 2 1 0 1 1 0 1 2 1 2 1 0 0 0 0 0 0 0 1 2 1 0 0 0 0 1 1 1 0 0 0 1 0 1 1 2 2 1 0 0 2 0 2 1 0 0 1 1 1 0 0 0 3 0 1 0 1 0 2 0 0 0 0 0 1 2 2 0 2 0 1 0 2 1 0 2 1 0 1 0 0 0 2 0 0 1 0 0 1 1 2 0 1 0 0 2 1 1 1 0 3 1 0 1 2 4 0 3 1 0 0 1 1 1 1 1 0 1 1 1 0 0 0 0 0 0 3 0 0 1 1 0 1 0 1 2 0 2 2 0 0 2 0 2 0 0 2 0 2 1 1 0 1 0 0 1 2 0 1 2 4 1 0 1 0 1 1 1 0 0 0 0 0 1 0 3 1 0 1 3 2 0 0 2 0 0 2 1 0 1 0 1 0 3 0 1 0 0 1 1 1 1 1 0 2 0 0 1 0 0 3 2 0 0 2 0 0 0 0 0 0 0 1 0 2 1 0 1 2 1 2 0 1 1 0 0 1 0 2 1 0 0 2 1 2 0 3 0 2 0 1 0 1 1 0 2 4 1 0 2 1 1 0 0 2 0 2 0 1 2 2 0 0 0 1 0 3 1 1 1 2 1 2 2 0 1 1 0 1 0 0 1 0 2 1 0 0 3 1 0 0 0 0 0 1 1 1 1 2 0 1 1 1 1 1 1 1 0 0 1 0 2 1 0 1 1 1 1 1 1 0 2 1 1 1 0 1 1 2 1 1 1 0 2 3 1 1 2 2 2 1 1 0 2 1 1 0 2 2 0 0 2 1 2 0 0 1 1 0 3 2 1 0 1 0 1 1 1 1 0 0 0 1 0 2 3 0 2 1 0 0 0 0 0 0 0 0 3 1 1 1 2 1 0 0 2 2 0 0 1 0 0 0 1 1 1 0 0 0 1 1 2 0 1 1 1 1 1 0 2 1 2 1 3 0 2 1 2 0 1 1 0 0 1 1 1 0 0 1 0 0 1 1 0 0 3 0 1 1 2 1 1 0 0 2 2 2 0 0 1 0 0 2 0 0 0 0 2 1 0 0 1 0 1 1 0 0 0 2 1 1 2 1 0 0 1 0 0 2 2 0 0 1 0 0 1 0 1 2 1 0 2 0 0 2 0 2 1 1 1 2 0 0 1 1 1 1 1 0 0 0 0 2 3 1 2 0 2 2 0 2 0 1 0 2 0 2 2 1 0 1 1 0 2 1 1 1 2 0 1 0 1 0 1 1 0 3 2 2 3 0 1 0 1 2 0 1 0 1 1 0 0 2 2 0 2 0 0 0 2 0 1 1 1 2 1 1 1 1 0 1 1 0 0 0 1 2 0 1 2 4 0 0 0 1 0 0 1 0 1 1 1 3 0 1 1 2 2 0 1 2 1 2 1 1 1 3 2 1 1 0 1 0 0 1 2 0 0 1 0 3 0 1 0 1 0 1 2 0 1 1 1 0 1 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 1 0 2 0 1 1 0 1 1 0 0 1 0 0 0 0 2 2 2 1 1 0 1 1 2 0 0 0 0 2 0 0 0 1 0 0 1 3 1 0 1 0 1 1 1 1 0 2 1 0 1 3 0 1 1 1 1 1 2 0 1 1 1 2 0 1 2 0 2 0 0 1 1 1 0 1 0 0 2 2 2 2 0 1 0 0 0 1 1 0 1 1 0 1 0 1 1 1 0 2 1 0 1 1 1 0 2 1 0 1 1 0 2 0 1 1 1 0 1 0 1 1 0 0 1 0 1 1 1 1 1 0 2 1 0 1 2 1 2 1 2 0 1 2 0 0 2 1 0 2 2 1 1 1 1 0 0 2 2 0 0 1 1 1 1 2 0 0 0 1 1 0 1 2 1 2 0 1 0 0 0 1 1 0 0 1 0 1 0 0 1 0 2 2 1 0 1 1 0 1 0 3 0 1 0 0 1 3 0 1 0 1 0 1 1 1 0 1 0 1 2 0 0 1 0 0 1 1 1 1 0 2 0 1 0 0 1 2 0 0 0 1 1 0 1 2 0 1 1 0 1 1 0 1 2 0 1 1 1 2 0 1 3 0 1 1 2 0 3 2 1 1 0 0 1 1 0 2 0 2 1 0 2 2 0 2 2 3 0 0 0 0 1 0 4 1 0 1 1 1 2 0 1 0 0 3 1 0 1 1 1 1 1 1 0 1 1 1 0 3 0 0 0 0 1 0 1 1 1 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 0 2 1 0 0 1 0 0 0 0 2 1 1 0 0 1 1 1 1 1 0 1 0 0 1 1 1 0 1 1 2 1 2 0 1 0 1 0 1 0 0 1 1 2 0 1 0 3 0 3 1 1 0 2 1 0 1 2 1 1 1 1 0 0 1 1 1 0 0 1 0 1 1 0 0 2 0 0 0 0 1 0 1 1 2 0 0 1 1 0 0 0 0 1 2 1 0 0 1 0 3 1 2 1 2 0 1 0 2 0 1 3 1 0 3 0 3 1 2 2 0 1 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 2 0 0 0 1 1 0 1 0 0 0 1 0 0 0 2 1 0 1 0 1 0 1 0 0 1 0 1 0 2 2 0 2 2 0 1 0 0 1 1 1 0 0 0 1 2 1 0 1 1 1 0 0 0 3 1 5 1 0 2 1 0 0 2 2 3 0 0 0 0 0 0 0 0 2 2 2 1 1 2 0 1 2 1 0 0 1 0 2 2 0 0 0 0 1 0 1 1 2 0 1 1 0 0 1 0 0 1 2 1 0 0 3 2 0 1 0 0 0 0 0 1 0 0 3 0 1 0 2 2 0 1 0 0 0 1 1 1 1 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 1 1 2 1 3 0 1 3 0 2 0 1 0 2 1 1 0 0 3 2 1 1 0 0 1 0 0 3 1 2 1 1 1 0 0 0 0 2 0 0 2 1 1 0 0 0 0 0 2 2 0 0 0 1 2 0 0 1 2 1 2 1 0 0 0 0 0 0 0 0 1 1 0 2 1 1 2 0 2 1 2 2 2 2 0 0 2 0 1 0 1 0 0 0 0 2 4 2 1 0 0 0 1 0 2 0 0 0 1 1 2 1 0 1 0 0 2 2 0 1 1 1 3 2 1 0 1 3 0 0 2 0 0 0 0 1 2 2 0 0 1 1 0 1 0 1 0 1 2 1 1 0 2 0 0 1 2 1 1 1 0 3 1 1 0 0 0 0 0 1 0 1 0 0 2 0 1 1 1 1 3 2 1 1 2 2 1 0 0 0 1 0 0 0 2 0 0 0 1 1 2 1 2 0 1 0 2 2 1 0 2 1 0 0 0 0 2 1 1 1 1 0 0 1 1 0 0 0 0 1 1 1 1 1 3 0 1 0 1 1 1 1 0 0 0 1 2 2 1 1 1 2 2 0 1 0 0 0 2 1 1 2 0 1 0 2 0 0 4 0 0 1 1 2 1 0 1 1 0 0 1 0 2 2 0 2 0 0 2 3 0 2 1 2 1 0 0 1 0 1 3 1 1 0 0 2 0 2 0 2 1 1 2 3 0 1 0 3 0 3 1 1 0 1 0 2 0 1 0 3 0 1 0 1 1 1 2 2 2 1 1 1 0 2 3 0 0 1 0 0 0 1 1 2 1 3 1 1 0 0 1 0 1 1 0 1 1 1 0 0 2 0 3 1 1 0 2 1 0 1 0 1 0 0 0 0 2 1 2 1 1 1 1 1 0 1 0 1 0 2 1 0 0 0 1 1 0 0 0 2 0 0 2 1 0 2 1 0 1 1 0 0 0 3 1 0 2 2 0 0 0 0 0 1 0 1 3 0 1 0 1 0 1 1 0 1 1 1 0 2 1 2 1 0 1 3 1 0 0 0 2 0 0 1 1 1 0 1 0 0 2 0 0 2 0 3 0 0 1 0 1 2 0 1 1 1 1 3 1 1 0 0 2 0 2 0 0 0 0 2 1 1 1 0 1 1 1 0 0 2 1 0 2 0 0 1 1 1 0 2 0 1 1 0 1 1 3 1 0 1 3 0 1 1 0 0 0 1 1 1 0 0 0 1 0 0 2 0 1 0 1 2 4 1 1 1 0 1 1 3 0 0 0 0 2 2 0 0 0 2 0 0 0 0 0 2 2 1 1 0 2 1 1 0 0 0 0 0 0 1 0 0 2 0 1 2 1 0 0 0 1 0 0 1 2 1 0 2 0 1 1 0 0 0 0 3 1 0 1 0 3 0 0 1 0 1 1 1 2 0 1 0 2 0 0 2 0 1 1 0 0 1 0 0 1 1 0 1 0 2 0 2 0 0 1 1 0 1 1 2 0 0 0 1 2 0 0 0 2 4 0 1 0 1 1 0 2 0 1 2 0 1 0 0 1 0 0 1 1 0 1 0 2 1 1 1 1 0 2 2 0 0 1 0 0 0 1 0 0 1 1 0 2 0 1 1 1 0 0 2 0 0 0 1 2 3 0 2 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 1 1 1 0 0 0 1 0 1 1 1 0 0 0 2 1 0 2 1 0 0 3 2 2 2 0 1 0 0 1 0 0 1 3 0 0 0 1 0 0 1 1 1 0 1 1 0 1 0 1 2 0 0 1 0 2 1 0 3 1 2 1 2 0 1 0 1 2 0 1 1 2 0 1 2 2 0 2 1 1 1 0 1 2 2 1 2 3 1 2 1 1 0 1 0 0 2 0 2 0 0 0 1 1 1 1 1 2 2 0 1 1 2 1 1 1 0 0 1 1 0 1 1 0 1 0 0 2 1 1 3 1 0 0 1 0 1 1 1 1 1 0 1 1 0 0 0 0 1 2 2 0 1 1 1 3 1 0 0 2 0 0 1 1 0 0 0 2 1 0 1 1 0 3 2 0 0 1 0 0 2 1 1 2 1 0 2 2 0 2 1 0 0 1 0 0 1 1 0 2 0 1 2 0 2 1 2 2 0 1 2 0 0 3 2 1 0 1 0 2 2 0 1 2 2 0 1 1 1 1 1 1 1 2 2 0 0 0 1 1 1 0 0 0 2 0 1 2 1 0 1 1 2 0 2 0 1 0 3 1 2 1 2 1 0 2 1 1 3 2 0 2 1 1 0 1 2 1 2 3 0 0 0 1 2 0 1 1 0 1 1 0 2 0 1 3 1 2 2 0 1 1 0 1 0 0 2 1 0 2 0 0 1 1 2 0 0 2 0 1 2 1 0 1 1 0 2 2 2 1 1 0 1 1 1 1 0 2 2 1 0 0 1 0 1 0 3 1 0 2 1 2 1 3 1 0 0 1 1 1 2 1 1 1 1 2 1 0 0 0 0 1 0 1 2 1 2 0 2 0 1 0 1 1 1 0 0 0 2 0 0 0 0 0 0 2 0 1 0 2 3 0 1 1 0 1 2 1 0 0 4 0 0 0 1 0 0 1 2 2 0 2 0 0 2 0 2 1 1 0 1 1 1 1 2 1 1 2 1 0 1 1 1 1 1 1 1 0 3 1 1 0 1 0 0 0 1 0 1 0 1 1 0 1 1 1 0 0 1 2 2 0 0 1 1 0 0 2 0 1 2 1 0 0 0 1 0 0 0 1 1 0 0 0 1 2 0 0 2 0 1 3 2 0 1 0 0 1 1 0 0 1 1 0 1 1 1 1 1 1 2 0 1 2 1 1 0 0 0 1 2 0 1 1 1 0 2 0 1 1 0 1 1 0 1 2 1 1 2 2 1 2 0 1 0 0 0 2 0 0 1 1 1 2 2 1 1 1 1 1 0 0 0 0 0 0 1 1 1 0 0 1 0 1 0 2 1 0 0 2 0 0 0 1 1 2 0 1 0 2 0 1 1 0 0 0 2 2 1 0 0 0 1 1 1 3 2 0 0 2 3 2 0 0 1 0 1 1 0 2 2 0 0 1 0 0 1 1 2 0 0 3 1 0 1 0 1 0 1 0 0 0 0 2 1 1 4 1 0 2 1 0 0 2 0 1 1 0 0 2 3 1 0 1 1 1 1 1 0 3 2 0 2 1 2 1 2 0 0 1 1 1 1 3 0 0 1 0 1 2 1 1 1 1 0 1 1 0 2 0 1 1 0 0 1 0 0 1 3 1 1 2 1 1 2 1 0 1 0 2 1 0 1 1 2 0 1 0 0 1 2 2 2 1 0 2 1 2 1 0 0 0 1 1 1 0 0 0 2 2 0 1 0 0 0 0 0 0 1 2 1 0 0 1 0 0 1 1 0 2 1 0 1 4 2 0 0 0 0 0 0 3 1 0 0 0 1 1 2 2 0 1 2 1 0 0 0 1 3 1 0 0 0 1 0 3 0 0 1 1 0 1 1 1 3 1 3 2 1 0 0 2 2 0 3 2 0 0 1 2 0 2 1 1 0 0 1 1 0 0 0 2 1 2 0 3 1 0 0 0 1 2 1 0 1 1 0 0 2 0 0 1 0 1 0 2 2 2 1 0 0 0 2 0 0 0 0 1 1 0 1 1 0 2 1 2 0 0 1 0 1 0 2 1 1 1 1 1 4 0 1 1 1 0 0 0 1 0 1 0 1 0 1 2 1 1 0 0 1 2 0 0 1 2 2 1 1 1 2 1 1 3 1 0 1 1 0 0 0 0 1 2 0 0 0 1 1 0 3 1 0 1 1 1 0 1 0 0 1 2 0 0 0 1 0 0 2 0 1 0 2 0 1 0 0 0 0 2 0 2 1 1 0 0 0 0 1 2 0 2 1 2 3 1 0 1 2 0 0 2 1 1 0 2 1 2 0 2 1 1 1 1 1 1 1 0 2 0 1 0 2 0 0 3 2 1 0 2 1 0 1 0 2 0 1 1 1 0 2 2 1 2 2 0 0 0 2 2 1 0 0 0 0 1 0 0 4 0 2 1 0 0 1 1 3 1 2 0 0 1 0 0 2 0 0 0 1 1 1 0 1 1 0 2 0 1 1 4 2 0 1 2 1 3 0 0 2 0 2 4 1 1 3 0 0 0 0 0 1 0 1 1 0 1 1 1 0 0 0 0 2 2 1 1 1 0 2 1 1 0 0 0 0 0 0 2 1 0 0 1 2 1 2 0 0 0 1 1 0 2 1 3 1 1 3 0 1 0 0 0 0 0 3 0 0 0 1 0 0 0 0 1 0 1 1 0 2 0 1 0 0 0 1 3 0 0 1 0 0 1 1 0 2 3 1 1 1 0 0 0 1 2 1 0 0 1 0 1 0 0 1 1 1 0 0 0 0 0 1 2 0 1 0 0 1 0 1 1 0 1 0 1 1 1 1 3 0 0 1 1 1 2 0 0 0 1 0 1 1 1 0 1 0 1 2 1 1 1 0 0 2 0 2 1 0 0 0 1 0 1 0 3 1 0 2 2 1 1 0 2 0 0 2 0 1 0 1 1 0 0 3 0 1 2 0 1 0 1 0 1 2 0 0 0 0 0 2 0 2 1 1 2 0 0 1 0 1 0 1 0 3 1 0 2 1 0 0 0 0 2 1 2 0 1 3 0 1 0 1 2 1 0 1 2 1 1 0 0 0 2 0 2 0 2 1 0 1 3 0 1 0 2 1 0 1 0 4 0 0 0 0 0 0 1 1 2 1 0 2 1 2 1 0 1 0 2 1 0 0 2 0 0 0 3 0 0 1 2 2 1 0 0 1 2 0 0 0 0 1 2 0 0 2 2 1 0 1 0 1 1 0 3 0 1 1 0 2 0 2 2 1 1 1 0 0 1 2 0 3 1 0 0 1 2 1 1 0 1 1 1 1 2 0 1 2 2 0 0 0 0 3 0 1 1 2 1 1 1 0 1 0 1 0 1 0 0 0 2 0 2 0 2 0 0 0 0 2 0 0 1 2 0 0 1 0 1 1 1 1 0 0 0 1 1 1 1 3 2 0 0 1 1 1 1 1 0 0 0 0 0 1 1 1 0 3 0 0 1 1 0 1 0 1 0 0 0 0 0 0 1 0 1 1 2 1 2 1 1 0 1 3 2 1 1 1 1 2 0 1 1 1 1 0 0 0 0 2 2 1 1 1 0 0 0 2 0 2 1 0 0 2 1 1 1 0 0 3 2 0 0 1 0 2 1 1 1 2 2 0 3 1 1 1 0 0 2 0 1 1 0 2 0 0 0 1 1 2 0 0 4 3 1 1 1 0 1 0 0 0 0 2 2 0 0 2 3 1 1 0 0 1 1 1 2 0 0 1 0 1 3 1 0 2 1 0 0 0 1 0 0 0 2 3 2 1 0 1 1 1 1 0 2 0 0 1 1 1 1 2 3 1 0 0 0 0 0 0 1 1 2 0 2 2 0 2 1 1 1 1 1 0 2 1 1 2 0 1 2 0 0 1 1 1 0 1 0 0 0 1 0 0 0 2 1 1 1 0 0 1 1 1 2 0 1 1 1 1 2 1 1 0 3 0 0 0 0 0 0 2 1 0 0 0 0 4 1 1 1 0 0 0 2 0 0 0 1 2 0 2 1 0 2 0 1 1 1 1 0 3 2 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 1 0 0 1 1 1 0 1 0 1 0 0 0 1 1 1 1 0 0 0 0 1 0 1 0 1 0 0 0 0 2 0 2 0 2 1 1 1 0 2 0 2 0 2 2 1 1 0 1 0 0 1 0 1 2 1 1 1 1 2 0 0 1 1 0 0 1 0 0 0 3 0 1 0 0 2 1 0 2 1 0 0 0 1 0 1 0 0 1 1 0 1 1 0 1 2 2 0 0 2 1 0 2 1 0 1 1 0 0 1 0 1 0 0 2 2 0 2 0 2 0 1 0 3 2 0 0 1 1 2 0 1 0 1 1 0 0 1 1 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 2 1 1 1 0 0 0 0 0 0 1 1 1 1 0 0 0 2 0 0 0 2 2 0 2 2 0 1 1 1 0 1 1 0 2 1 1 1 1 0 1 1 0 1 1 1 1 0 1 2 2 2 3 0 0 0 1 1 1 1 0 1 1 0 0 0 1 0 1 0 0 1 0 0 2 3 2 1 0 1 2 0 1 1 1 1 1 0 1 1 2 0 0 0 0 0 0 1 2 1 3 2 0 0 0 0 3 2 0 0 1 2 0 2 0 2 0 0 1 0 0 1 1 2 0 1 2 1 3 1 2 2 1 0 0 2 0 0 1 1 1 0 1 0 2 1 1 1 1 1 1 0 2 1 0 1 0 0 2 0 0 0 1 0 0 1 1 1 1 2 0 1 1 1 0 0 0 1 1 1 2 1 2 4 1 1 0 1 2 1 2 2 1 1 2 1 0 1 1 0 1 0 1 1 0 1 1 1 0 0 0 1 1 1 0 1 0 2 3 1 0 1 1 1 2 3 1 0 0 2 1 3 0 0 1 0 2 3 1 0 0 2 1 2 1 2 1 0 1 0 0 1 0 2 3 1 0 0 0 2 2 1 1 0 0 0 2 2 2 0 0 1 0 1 1 0 1 0 0 0 0 0 0 1 0 0 1 1 0 2 2 2 1 2 1 0 1 2 2 0 1 1 2 1 1 0 1 0 0 0 0 2 2 1 2 1 1 1 1 1 1 0 1 2 0 0 1 0 2 2 0 0 1 2 3 0 0 0 1 0 1 1 0 0 1 1 0 1 0 2 0 1 1 0 2 1 2 0 2 0 4 0 0 0 0 1 0 0 0 1 1 0 0 1 2 1 0 1 0 0 0 3 0 1 1 2 1 2 0 0 0 1 1 0 1 1 1 0 0 1 1 2 1 3 0 1 0 0 0 0 0 3 1 2 0 1 0 0 0 1 0 1 2 4 1 0 1 0 0 2 2 0 1 0 1 2 0 3 2 1 0 0 3 0 1 0 2 0 3 1 2 2 1 1 1 2 0 0 1 0 0 0 1 1 0 1 0 0 1 2 3 1 2 0 1 0 1 1 1 1 2 0 0 0 0 1 0 0 0 0 2 0 3 2 1 1 0 2 1 0 0 1 1 1 2 0 1 1 1 1 1 2 0 1 1 0 2 0 3 0 1 1 2 2 0 0 0 0 1 1 1 0 3 0 1 1 1 0 0 0 0 1 0 0 2 1 0 1 1 0 0 1 1 1 1 1 0 0 2 0 1 2 0 1 0 0 2 0 1 1 1 1 1 0 1 2 1 1 3 0 3 1 0 0 0 1 2 1 1 0 1 2 0 1 0 0 0 1 1 0 1 3 1 2 1 0 0 1 1 0 0 1 1 0 0 2 3 0 0 2 3 1 3 0 0 1 1 1 0 1 0 1 1 1 1 0 1 0 1 0 1 0 0 3 0 3 0 1 1 0 2 1 1 1 1 2 1 3 0 1 0 1 0 2 1 1 1 1 1 0 1 0 0 1 0 2 0 0 2 0 1 1 1 1 0 1 1 2 1 1 1 1 2 1 0 0 1 0 2 1 1 0 1 2 0 1 1 2 2 2 0 2 1 1 1 2 0 2 1 0 0 1 0 1 0 1 1 2 0 0 1 0 0 1 1 1 1 1 2 0 2 0 0 0 2 2 1 3 0 0 0 1 1 1 0 0 1 1 0 0 2 2 0 1 1 3 1 0 2 0 0 1 1 0 0 2 0 2 1 0 0 2 3 3 0 2 2 0 0 2 1 0 1 0 0 0 0 0 1 3 1 2 1 0 1 1 1 1 1 2 1 2 0 1 1 1 1 0 0 1 0 3 1 0 2 1 0 0 0 2 1 0 1 0 0 2 0 1 0 0 0 1 0 5 1 1 1 0 0 1 1 0 0 0 1 1 0 0 1 2 1 1 0 0 1 0 2 0 0 2 0 1 0 2 2 2 0 1 1 0 1 1 0 0 1 0 0 1 0 1 0 0 1 1 1 0 0 2 2 0 0 1 0 0 0 2 0 0 0 2 0 1 1 0 0 1 0 2 0 0 0 1 0 1 0 1 1 0 0 1 0 1 1 0 1 1 2 1 1 1 1 1 1 0 1 2 0 1 0 1 0 1 2 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 1 1 2 1 0 3 1 0 2 1 1 1 0 0 1 3 1 1 1 1 2 0 1 0 0 0 1 1 0 0 1 0 0 2 1 1 0 2 1 2 0 2 1 1 3 1 0 2 2 0 0 1 2 1 2 1 1 0 2 1 1 1 0 1 0 1 1 0 2 2 1 3 0 1 2 1 1 1 0 1 1 1 0 2 1 1 1 2 0 0 0 0 2 1 1 0 1 2 1 0 0 1 1 2 2 0 0 2 0 0 0 2 0 0 2 0 0 0 0 0 1 0 0 1 1 1 1 0 1 2 1 0 1 0 2 3 0 0 4 0 1 0 0 0 2 1 0 1 0 3 1 0 0 0 1 2 1 2 1 1 1 1 1 1 3 0 0 1 1 1 0 0 2 3 0 0 0 0 0 2 0 2 1 0 1 2 0 1 0 0 2 0 1 0 0 0 1 0 1 0 1 1 1 2 0 1 0 1 0 1 0 2 1 2 1 2 0 0 1 1 4 1 1 0 1 3 0 0 0 1 1 1 0 0 2 1 1 1 2 0 2 1 0 2 2 0 0 1 2 1 1 0 0 4 0 1 2 2 0 0 2 0 0 0 0 1 1 1 1 0 1 0 1 0 0 1 1 0 1 1 0 1 0 0 0 0 0 0 2 1 2 1 2 1 0 0 1 0 0 1 0 2 0 1 1 1 1 1 1 1 2 1 1 1 2 2 3 1 0 0 2 1 0 2 0 0 0 1 0 0 4 2 2 0 1 3 0 0 1 1 0 1 0 0 0 0 2 3 0 1 0 2 0 1 1 1 2 0 1 0 1 0 1 0 1 0 1 1 0 1 0 0 1 1 2 0 2 0 2 2 2 1 1 2 0 0 1 1 1 1 1 1 1 1 3 1 2 1 0 2 1 1 0 4 0 0 0 1 2 0 1 0 0 2 0 2 0 0 1 1 2 0 0 2 0 0 0 1 0 1 2 2 2 1 0 1 0 1 0 1 4 1 0 1 1 1 1 0 0 2 2 1 0 1 0 0 0 0 1 0 0 1 2 0 2 1 0 3 2 0 2 1 1 0 1 0 0 0 1 2 0 0 1 0 0 0 1 1 1 0 0 3 1 1 1 0 1 1 1 0 2 2 1 2 1 0 3 0 2 0 0 1 0 0 0 2 0 1 0 1 1 0 0 1 1 0 1 0 0 3 2 2 0 1 1 0 1 0 1 0 0 1 2 2 4 1 1 2 0 2 0 0 0 0 1 0 1 2 1 1 0 1 1 0 1 1 0 1 3 1 1 2 0 1 0 0 1 0 0 1 1 0 0 2 1 2 3 1 0 1 3 1 0 1 0 0 0 1 2 1 2 1 1 0 1 0 2 0 1 0 1 0 0 1 0 2 0 0 2 1 0 1 1 3 0 1 1 1 0 0 0 0 3 0 2 1 1 1 0 3 0 1 2 0 2 0 2 2 1 2 2 1 1 0 1 0 1 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 0 3 1 1 1 3 1 2 0 1 0 0 3 0 1 3 1 0 0 0 2 0 1 1 1 1 0 0 0 0 1 0 1 1 0 0 0 2 1 3 0 1 0 0 1 2 1 0 1 0 1 0 1 1 1 0 3 1 0 0 0 0 0 1 2 0 2 1 2 0 0 2 0 0 0 0 1 0 1 0 2 0 0 0 1 5 2 0 1 1 1 0 0 1 0 2 1 0 0 1 0 0 2 3 0 0 1 0 1 2 0 0 2 3 1 1 2 0 0 2 1 2 0 1 1 0 0 3 0 0 1 1 0 0 0 1 2 1 2 1 0 1 0 0 2 2 1 0 2 0 2 0 0 2 2 0 0 1 1 3 1 2 0 1 0 0 0 0 1 2 1 3 1 1 0 0 3 1 0 2 0 1 1 1 1 1 2 0 0 1 0 0 0 0 1 1 0 2 1 2 0 0 0 0 0 0 0 1 0 2 0 2 2 0 0 2 1 1 3 2 2 1 2 2 0 1 1 1 0 1 1 0 1 0 0 2 2 2 2 0 0 0 1 0 1 0 0 0 0 0 1 1 0 2 0 3 1 0 0 3 1 1 0 1 1 1 3 1 1 0 1 0 1 0 1 0 2 0 0 1 2 1 1 2 0 2 0 1 1 1 3 2 0 0 1 0 1 2 1 2 2 1 0 1 1 0 3 0 1 1 2 0 2 1 1 1 0 3 2 1 0 1 2 2 1 0 1 0 0 0 2 0 0 1 0 0 1 0 0 1 0 0 0 1 1 1 3 1 0 3 1 1 3 0 4 1 1 0 1 2 1 1 1 1 1 1 0 0 0 0 1 1 0 0 1 1 1 1 0 1 1 0 2 1 0 0 0 1 1 0 0 0 2 2 0 1 0 2 1 0 1 2 1 0 0 1 1 1 0 0 2 0 1 0 0 1 2 1 1 0 0 1 0 0 0 0 1 0 0 3 2 1 1 1 0 0 1 2 0 0 0 2 1 2 0 0 2 1 3 0 1 1 1 0 1 1 1 2 1 1 1 1 3 0 1 0 2 1 0 2 1 1 1 0 3 1 0 1 2 1 0 0 1 0 3 2 2 1 0 0 1 2 2 1 1 3 1 0 2 4 1 0 0 0 0 0 0 2 0 0 3 0 0 2 1 0 1 1 0 0 0 1 0 3 1 0 2 0 0 1 1 2 1 3 0 0 0 1 0 2 0 1 1 2 1 4 3 1 3 1 2 0 0 1 0 0 0 2 0 0 1 0 4 1 1 0 1 1 0 2 1 1 0 0 2 1 2 2 0 0 1 3 1 0 1 3 0 1 0 0 1 3 0 1 0 2 2 0 2 2 0 1 0 0 0 0 0 0 1 0 2 2 0 0 1 1 1 1 0 1 1 0 0 0 0 2 1 1 1 1 0 1 1 1 0 1 0 0 3 0 1 2 0 1 2 0 0 0 1 0 0 2 1 0 0 1 1 1 0 1 0 0 0 1 1 1 0 2 0 1 2 0 1 0 1 0 0 2 2 0 1 1 0 0 1 0 1 0 1 0 1 0 0 2 1 1 1 2 2 1 0 0 1 1 1 0 2 1 0 2 0 0 0 1 1 0 3 0 0 1 0 0 2 2 1 1 2 1 1 0 1 0 3 1 2 1 2 1 2 1 2 0 1 3 1 2 0 0 1 2 1 0 1 1 2 0 3 1 1 1 2 0 1 0 0 0 0 1 1 0 1 1 0 0 0 2 1 1 1 0 1 3 1 1 1 0 1 1 0 1 2 1 3 2 3 0 3 1 1 0 0 0 1 3 0 1 0 1 1 0 1 0 0 0 1 1 1 2 1 0 1 0 1 0 1 1 0 1 0 1 0 0 0 1 1 0 0 2 1 1 0 2 0 1 2 2 1 1 1 0 1 0 2 0 1 0 0 0 1 0 1 0 1 1 0 0 0 1 0 0 1 0 0 0 1 0 2 1 0 1 0 1 0 1 2 1 0 0 1 1 1 0 2 0 3 1 0 1 1 1 0 0 1 1 0 4 1 1 1 2 0 1 2 0 1 1 0 0 0 1 1 1 1 1 2 1 0 0 2 1 0 2 0 1 0 0 0 1 1 1 1 0 3 1 2 0 0 0 2 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 1 1 1 0 4 3 1 1 1 3 1 0 2 0 0 2 2 0 1 1 0 1 0 0 0 1 1 0 0 1 1 0 2 0 0 0 0 0 0 3 1 0 3 1 1 1 2 1 1 0 0 2 0 0 2 1 0 0 1 1 1 1 0 1 1 1 1 1 0 1 0 0 0 1 0 0 0 0 0 0 2 0 2 0 1 0 2 0 1 1 1 1 0 1 0 0 0 1 0 1 1 2 0 0 0 1 0 3 0 0 2 0 1 0 1 1 0 1 2 1 2 2 0 0 1 0 2 0 1 1 2 1 0 1 0 0 1 2 0 0 1 1 0 1 1 1 1 0 1 0 0 0 1 0 0 2 0 2 1 0 0 0 0 2 0 2 0 1 0 0 2 0 1 0 0 1 0 0 1 0 0 1 1 0 1 1 1 1 0 1 1 1 0 1 0 0 1 3 1 1 2 0 1 0 1 1 0 0 0 1 1 0 0 1 1 2 1 1 2 0 2 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 2 2 1 2 0 1 0 1 1 0 0 0 0 1 2 2 4 2 1 1 0 0 2 1 1 0 2 1 1 0 0 2 0 0 1 1 0 0 2 0 0 0 1 0 1 1 0 1 1 2 1 0 1 0 1 2 2 0 1 1 0 1 0 1 0 1 1 0 1 1 1 1 0 1 2 0 2 1 1 1 1 1 2 0 0 0 0 1 0 1 1 2 1 0 0 1 1 1 0 1 0 0 0 2 0 1 0 1 0 2 1 2 2 3 0 2 1 1 0 0 2 0 1 1 1 1 0 0 0 0 2 2 1 0 0 1 3 2 0 0 0 2 3 0 0 1 0 0 0 1 3 1 0 1 2 1 2 0 1 2 0 1 0 1 1 1 1 1 0 1 2 1 0 1 1 1 1 1 2 3 0 0 1 0 2 0 2 1 0 3 2 2 0 1 0 1 1 1 0 1 0 0 0 1 2 1 0 1 2 1 0 0 0 1 1 2 1 0 0 1 0 3 0 1 2 0 3 1 1 0 1 1 1 0 1 2 2 2 1 0 2 0 0 0 1 2 2 1 1 0 0 1 1 0 3 1 1 1 0 2 1 2 2 1 1 2 1 1 0 3 0 0 0 0 1 0 1 0 0 2 1 0 0 1 1 1 1 1 1 0 1 3 0 0 0 1 1 0 1 0 2 0 1 1 0 0 2 2 0 1 2 1 2 2 2 0 1 2 0 1 1 0 1 1 0 2 0 2 0 0 3 0 2 0 2 1 0 2 2 1 1 0 2 2 1 1 1 0 1 1 0 0 1 0 0 1 0 1 1 0 1 2 0 0 0 1 1 1 0 1 2 3 1 1 1 1 0 0 0 0 1 0 1 0 1 0 1 0 1 1 0 1 0 0 2 1 1 0 0 0 0 2 2 0 1 0 0 1 0 1 1 2 1 0 2 2 1 2 3 1 0 2 0 2 1 1 1 1 1 0 2 0 2 1 0 2 1 2 1 2 2 1 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 0 0 1 1 1 1 0 1 1 1 0 1 0 1 2 1 3 1 1 0 1 1 0 0 3 1 1 0 4 3 1 0 0 0 1 1 0 0 1 2 2 0 1 3 0 0 1 1 2 0 0 0 1 0 0 0 0 0 1 0 0 0 2 4 0 3 2 0 1 0 0 1 2 0 3 3 0 1 1 0 1 1 0 0 0 1 1 0 1 3 2 2 1 0 0 0 2 1 0 2 0 0 2 1 3 1 1 0 0 0 0 0 1 1 3 0 0 1 0 1 2 0 0 3 0 1 0 2 2 2 1 0 1 1 0 0 1 0 0 0 3 0 0 0 1 0 2 2 1 4 0 0 0 0 0 2 0 2 1 1 1 0 1 0 0 1 2 0 4 1 0 1 1 1 1 2 2 1 1 2 2 0 3 2 1 0 0 0 1 0 1 0 2 0 0 1 2 3 0 3 1 1 1 3 0 2 1 2 1 0 0 0 1 0 1 0 1 2 0 0 1 2 0 2 0 1 1 0 0 1 1 1 0 0 0 0 0 0 1 1 1 0 0 1 2 0 1 1 1 1 0 0 0 1 1 0 0 1 1 0 0 1 2 2 2 2 2 0 2 0 0 1 1 0 0 0 1 1 0 1 0 0 0 1 1 2 1 1 1 0 1 1 2 0 0 2 1 1 2 0 0 1 2 0 1 0 0 2 1 1 2 1 1 0 2 3 1 1 1 1 3 1 0 2 0 1 0 3 2 1 2 1 2 1 0 0 0 2 2 1 2 0 2 4 1 1 1 1 2 1 1 0 0 1 0 1 0 0 2 0 1 0 2 1 0 3 1 1 0 1 1 1 1 1 1 2 1 0 2 1 0 1 0 2 0 1 1 0 2 2 0 1 1 3 1 0 1 1 0 1 0 0 0 1 1 0 0 0 1 0 0 1 1 0 0 0 1 2 0 0 1 2 0 2 1 1 0 1 1 2 0 0 1 0 0 1 2 1 1 0 1 2 1 1 2 2 0 1 1 0 0 1 0 0 2 1 1 0 0 1 1 2 0 1 0 1 1 0 1 1 1 0 2 1 0 1 0 0 1 0 1 0 0 0 0 1 2 0 2 0 3 1 0 1 2 0 0 0 0 3 0 0 2 0 0 0 1 0 2 1 2 0 0 0 0 1 3 1 0 1 2 0 0 1 1 2 0 0 1 0 1 0 0 1 0 2 0 0 2 1 1 0 1 0 0 1 3 2 2 1 0 0 1 1 1 0 0 0 2 1 2 1 0 1 1 1 0 0 0 1 0 0 1 1 0 1 1 1 1 3 0 0 2 2 2 2 2 0 1 1 2 1 0 1 1 2 1 1 2 2 0 0 1 0 0 0 2 1 2 1 1 0 1 1 0 0 0 2 1 2 1 1 0 1 2 2 3 1 0 0 1 0 1 0 2 1 1 0 3 1 0 0 1 1 1 1 0 2 3 0 2 1 2 3 0 0 2 1 2 2 1 1 1 2 3 1 0 0 0 1 0 2 0 1 1 2 2 2 0 1 3 1 2 0 0 0 1 0 1 1 0 0 0 2 0 1 1 0 0 0 0 0 0 1 0 0 3 1 1 0 4 1 0 2 0 1 1 1 0 0 0 1 0 0 1 0 2 1 3 0 1 0 1 2 1 0 2 0 0 1 1 3 0 1 0 1 1 0 0 1 2 2 1 2 0 3 0 0 0 2 0 1 2 0 1 2 0 0 0 1 1 1 0 4 1 3 0 0 0 1 0 1 0 0 0 0 2 0 0 0 0 1 1 2 0 0 2 1 0 0 2 0 1 0 0 1 0 1 0 1 2 1 1 1 1 0 2 0 1 1 0 1 1 1 0 0 2 1 0 3 2 1 3 1 2 0 2 0 1 1 0 2 2 0 1 1 1 1 1 0 1 0 0 0 0 0 1 0 2 1 1 3 0 0 0 0 0 0 1 1 3 1 1 0 0 2 1 0 1 0 2 1 1 1 1 0 1 2 1 0 3 1 1 0 0 0 1 1 2 0 2 0 0 1 1 2 1 0 2 0 1 0 0 0 2 1 2 4 0 1 0 0 0 0 0 0 0 0 2 2 2 0 0 2 1 1 1 1 1 1 3 0 1 2 0 1 2 2 2 1 1 2 0 0 1 2 1 2 4 1 0 2 0 1 2 1 2 0 1 0 1 0 2 1 0 2 1 1 0 2 1 1 1 0 0 2 0 1 0 2 1 0 0 0 1 1 0 1 1 2 1 0 3 2 2 0 1 1 0 0 0 2 0 0 0 1 1 0 2 0 0 0 0 0 1 0 1 1 0 2 1 0 1 1 2 0 0 1 0 2 1 1 2 0 0 1 0 2 1 1 1 1 0 1 1 1 1 1 0 0 3 0 2 1 0 0 0 0 1 1 1 1 0 0 0 2 1 2 0 1 2 2 1 0 0 0 0 1 0 0 0 2 1 0 0 0 1 0 1 2 1 1 2 1 0 0 1 2 1 0 1 1 0 0 0 0 2 0 1 0 0 0 1 0 1 0 1 2 1 0 1 1 1 1 0 0 2 1 0 1 2 0 0 0 1 0 1 1 0 1 0 0 1 1 0 0 2 0 1 1 2 1 0 0 1 0 2 0 1 3 1 1 1 1 2 0 0 1 0 2 1 0 1 3 1 1 0 1 1 0 3 2 0 2 1 1 2 0 0 1 3 2 0 0 1 1 0 1 4 1 2 2 1 1 0 0 1 0 1 1 2 1 0 0 1 1 3 2 1 0 0 0 2 2 1 2 2 2 2 0 1 0 0 1 0 1 2 0 2 0 0 2 0 2 0 0 1 1 0 0 0 0 2 1 0 1 1 0 1 0 1 2 0 1 0 1 1 0 0 1 0 2 1 1 0 1 1 0 1 1 1 0 1 0 1 0 0 0 1 1 0 1 2 0 0 1 0 0 1 1 0 0 1 0 1 0 0 0 0 1 1 1 3 0 0 1 0 2 2 0 1 0 2 0 0 0 0 0 1 1 0 0 2 2 0 1 0 1 0 0 2 2 3 1 0 0 1 2 0 1 0 0 0 0 1</t>
   </si>
   <si>
     <t>Name</t>
@@ -258,52 +258,52 @@
     <t>R.Succop</t>
   </si>
   <si>
-    <t>JSB(1.6439803660833512, 2.5298364841153522, -13.96261688421706, 87.8444620898085)</t>
-  </si>
-  <si>
-    <t>10 20 23 28 14 24 25 6 9 21 23 16 14 21 6 0 10 10 10 35 24 24 8 13 6 10 21 23 14 20 10 27 6 17 10 6 14 19 33 17 26 27 21 16 30 7 3 20 14 18 14 28 13 13 10 24 24 34 17 6 23 6 20 10 16 12 16 24 20 24 16 27 10 20 3 6 22 9 14 0 24 20 9 10 26 3 13 14 0 23 23 22 31 33 34 13 21 10 17 19 20 22 13 6 27 20 17 17 27 11 16 14 9 12 7 10 17 9 24 22 19 9 21 14 8 20 19 7 27 23 16 20 6 35 0 16 14 20 25 31 21 17 9 0 12 17 13 6 17 11 20 23 17 13 29 22 15 17 20 23 12 7 12 16 7 6 14 24 13 18 9 13 25 14 23 22 10 7 3 24 16 28 14 15 24 13 16 17 13 10 17 7 9 16 17 17 24 23 3 16 19 7 18 9 7 0 27 31 13 16 7 33 27 6 15 21 30 20 16 27 20 10 10 16 33 16 30 9 0 14 13 14 16 13 6 26 17 19 16 20 24 3 9 17 17 16 23 13 21 24 7 23 5 23 24 9 3 10 19 20 23 10 20 20 20 24 14 10 24 10 12 42 3 9 9 13 10 14 27 30 9 10 21 8 14 10 13 27 24 7 23 24 34 27 10 15 27 12 0 17 10 17 13 13 7 25 7 15 14 13 17 10 3 3 29 14 19 7 10 0 18 20 12 13 17 16 17 16 16 3 14 16 14 34 9 12 24 6 20 14 24 6 10 9 21 23 6 28 13 17 27 21 28 27 10 23 13 23 24 17 21 10 21 13 17 44 14 13 20 17 13 23 13 13 10 20 31 10 7 23 14 20 21 10 3 10 21 10 17 20 7 20 10 34 13 13 30 22 20 17 21 21 21 17 24 13 17 26 20 31 26 14 21 2 16 20 16 17 18 41 16 7 9 24 20 24 20 17 13 14 3 13 10 3 27 33 8 20 3 17 0 17 27 26 13 16 10 17 29 28 17 6 20 7 10 20 20 14 26 26 20 17 13 31 31 6 13 3 16 16 17 10 13 14 7 6 17 6 27 14 6 17 14 6 3 16 15 10 17 14 10 13 9 25 32 16 27 17 23 10 14 0 14 12 7 20 21 9 14 17 18 24 3 13 17 9 7 28 24 6 10 12 16 21 28 35 24 31 29 3 27 23 6 10 35 23 16 7 23 28 17 9 29 21 3 10 28 23 16 21 22 11 23 31 13 16 13 30 23 6 24 30 10 23 10 13 20 13 28 20 6 14 24 9 24 23 13 9 12 11 23 10 16 16 9 3 10 30 27 10 18 13 23 20 6 7 18 17 24 33 10 14 33 13 21 28 14 31 10 13 16 10 9 15 10 24 26 6 21 10 14 31 19 7 24 7 3 24 34 20 17 20 20 15 14 10 24 23 23 16 9 24 13 21 13 17 17 17 10 23 14 6 21 13 29 13 27 22 20 31 31 29 9 6 10 17 10 19 13 21 20 10 27 20 17 21 17 12 24 15 13 22 23 14 24 23 21 6 24 12 27 18 21 22 22 20 6 24 27 19 6 18 16 11 14 24 6 13 31 20 27 26 25 21 16 21 20 0 17 25 3 14 12 16 27 10 20 6 17 10 7 17 13 6 13 19 18 21 9 17 3 14 20 16 16 20 13 14 16 10 9 9 10 25 17 6 12 12 23 13 26 16 7 9 6 27 17 16 14 24 20 22 24 14 20 9 7 16 12 23 6 10 7 3 3 38 13 22 7 27 7 17 16 9 13 17 13 7 13 3 12 3 24 31 10 17 13 7 16 6 13 17 10 24 15 10 17 23 13 15 9 17 30 14 21 12 14 25 25 13 24 17 26 20 30 17 20 27 27 24 7 20 7 14 24 19 9 23 6 27 19 6 22 20 0 14 30 14 31 10 9 18 35 21 21 20 24 24 10 21 10 24 9 20 3 19 19 27 13 16 30 10 17 3 16 14 14 25 19 23 14 8 6 7 19 13 10 17 3 10 29 20 12 13 13 21 31 9 25 18 10 29 17 20 9 16 23 9 6 11 23 25 15 20 14 25 10 3 25 8 17 19 17 13 21 20 20 30 14 20 14 11 17 10 20 10 28 14 15 7 10 6 21 17 22 21 24 33 20 9 17 16 6 24 21 16 10 24 20 20 7 10 24 13 7 10 16 23 27 11 9 15 17 34 17 7 3 17 23 17 19 17 28 13 23 10 20 13 9 10 16 22 10 3 17 17 13 27 23 14 20 27 24 17 17 14 17 31 10 17 21 13 17 13 3 27 23 17 24 17 24 9 6 9 11 12 22 9 19 20 7 17 20 14 7 14 16 19 27 3 17 13 27 10 16 3 14 13 33 24 6 22 26 7 19 17 20 21 13 23 26 16 26 23 6 30 6 30 7 13 34 0 17 10 14 9 9 14 23 23 19 17 10 12 26 3 16 14 11 24 10 14 8 27 0 28 22 28 14 23 14 13 9 17 6 6 22 14 14 3 24 20 17 14 23 10 3 3 6 22 17 26 14 29 10 12 16 33 10 19 26 28 19 33 7 21 19 20 6 28 27 17 3 23 24 20 6 13 6 24 9 17 17 20 6 19 20 34 12 28 34 17 10 13 24 38 15 3 12 14 31 23 24 20 9 3 10 20 16 21 23 14 17 13 19 9 3 17 14 13 17 20 12 16 19 27 35 5 35 10 41 22 16 23 21 21 17 9 13 20 17 14 15 3 17 27 18 10 17 17 9 27 17 13 27 9 17 3 25 45 15 11 27 23 14 13 10 33 21 3 18 3 34 24 6 27 20 17 2 11 10 13 23 28 20 21 13 29 7 27 20 14 13 24 13 13 38 20 10 15 13 17 20 15 14 10 16 13 20 20 17 33 17 28 16 23 24 23 27 19 33 8 16 16 24 16 30 17 24 10 13 17 24 8 24 20 25 10 27 9 24 31 20 14 24 27 6 24 14 20 14 24 10 17 27 19 24 20 14 16 11 23 20 20 17 14 20 17 16 37 18 20 20 3 9 7 28 20 9 6 13 20 9 20 17 16 13 19 27 7 20 23 13 7 21 9 9 16 0 7 26 34 15 13 10 3 27 31 24 24 6 16 16 17 27 34 3 26 17 28 10 19 10 16 14 24 7 12 13 23 7 17 9 18 20 13 17 18 14 16 27 27 21 23 13 13 8 15 22 14 7 34 20 6 21 6 21 17 13 14 0 13 10 36 17 16 19 15 14 0 23 24 10 13 13 21 15 23 30 23 7 14 7 29 20 20 10 20 17 10 20 21 21 14 14 16 3 10 30 17 9 17 14 13 3 24 20 19 21 21 23 3 14 10 13 12 17 13 10 14 24 9 13 10 17 20 15 24 16 24 20 28 20 7 27 21 22 17 16 23 27 17 18 10 23 24 24 15 17 22 20 20 24 17 24 11 9 20 10 22 27 19 27 24 19 11 14 24 6 19 6 29 27 20 20 16 11 27 20 6 10 14 38 20 6 7 3 13 21 15 12 0 20 19 3 13 23 41 24 7 10 18 14 10 16 10 37 13 17 6 25 23 16 21 17 16 12 11 10 13 27 21 3 20 21 14 30 24 22 23 10 17 20 20 24 15 20 10 13 15 10 17 19 10 27 27 14 20 6 17 24 11 21 13 13 16 17 13 17 27 20 24 0 10 16 28 17 21 24 14 19 11 24 11 11 24 17 14 22 17 9 3 27 7 20 16 17 17 10 17 20 3 17 20 27 9 8 6 20 21 13 6 21 24 13 17 16 11 18 14 23 30 17 17 13 13 24 26 27 10 20 20 23 6 9 21 13 13 17 7 17 23 20 13 16 23 10 31 30 13 6 13 28 24 13 17 15 41 10 31 24 22 7 13 14 27 30 20 24 17 17 16 20 7 24 10 9 7 28 28 0 45 11 16 17 20 9 16 10 20 14 24 23 16 17 20 14 37 16 9 24 10 9 14 20 9 42 3 7 20 16 27 3 14 28 13 24 3 21 17 13 19 30 23 13 3 17 23 17 19 15 3 28 12 15 6 15 14 23 29 19 15 7 13 13 12 24 18 13 3 20 34 10 13 0 16 5 7 34 17 17 16 24 16 14 16 7 0 24 14 20 3 33 28 13 28 20 17 9 14 13 9 21 30 20 31 7 16 14 16 24 20 3 9 3 41 19 16 17 20 22 13 14 19 8 14 12 13 14 3 14 21 28 27 26 30 17 24 13 10 21 20 21 13 20 24 14 7 24 3 7 7 11 34 19 14 29 7 14 15 7 14 10 30 17 7 14 17 0 15 17 6 4 15 23 17 24 18 24 3 18 10 26 27 6 20 27 25 20 12 16 28 13 10 20 7 17 3 19 9 10 21 20 18 13 9 20 21 23 17 14 17 20 20 31 13 9 17 9 14 31 14 17 27 13 14 9 17 20 18 23 13 20 17 3 9 21 30 6 14 19 14 13 10 20 20 20 13 23 16 17 8 14 9 3 10 10 12 14 6 22 12 13 16 9 24 14 6 13 18 13 13 17 13 17 17 26 20 23 20 3 17 11 16 20 17 16 12 6 21 23 20 14 8 10 26 20 29 23 24 3 17 13 6 22 21 19 18 9 12 0 17 26 6 28 18 22 7 12 23 31 10 10 10 19 14 12 23 16 12 31 17 12 18 11 10 7 18 27 10 20 21 7 20 12 7 21 27 26 14 10 17 22 10 14 10 9 15 31 6 31 21 16 16 17 16 9 13 27 27 19 21 8 10 7 6 3 10 13 11 26 33 20 0 27 24 30 6 11 7 19 25 13 19 10 10 13 17 31 23 24 25 21 28 16 10 18 17 20 7 10 13 17 31 10 10 27 11 24 37 10 31 20 37 19 10 21 3 19 22 24 18 21 27 16 16 24 24 28 6 10 13 20 3 21 6 25 20 9 13 9 24 26 14 6 27 21 6 19 3 16 30 30 14 14 27 24 20 17 19 16 17 10 24 7 7 24 6 24 13 15 16 22 17 15 7 13 20 3 6 13 14 9 11 17 14 26 14 17 24 13 24 31 18 20 6 51 20 24 14 13 23 24 19 6 20 20 28 12 0 24 13 24 17 28 21 23 14 21 24 14 20 31 29 3 23 7 31 15 12 24 7 6 7 27 10 13 26 6 6 9 17 20 7 28 24 16 13 44 20 20 6 20 9 21 13 16 16 20 24 10 13 9 19 7 3 24 13 24 9 24 30 9 13 27 20 24 10 19 10 7 17 33 7 30 24 17 13 19 27 17 10 24 20 20 16 15 16 27 18 42 10 26 27 18 7 17 10 13 9 10 26 28 10 13 6 29 7 19 21 23 6 13 10 13 23 20 15 7 16 21 20 17 22 17 24 30 27 23 0 13 27 15 26 33 16 14 3 20 17 7 3 20 13 22 10 20 20 6 10 13 23 7 14 13 24 8 13 17 6 32 20 25 3 20 3 7 27 14 20 10 7 17 12 10 12 14 10 10 3 13 10 10 13 19 17 21 20 24 12 24 9 3 27 10 21 10 20 23 13 21 9 30 10 6 21 18 17 6 9 23 18 7 13 27 31 9 16 14 3 21 28 17 20 24 13 13 7 13 26 15 28 18 19 14 13 19 25 19 10 10 12 24 31 27 17 20 20 36 23 10 13 31 31 20 6 14 3 17 13 20 13 17 24 24 17 10 17 13 20 10 10 16 21 23 21 20 9 13 16 12 9 6 24 24 20 23 20 20 14 20 19 23 34 24 24 4 3 16 3 6 31 24 20 16 17 20 23 24 20 31 25 26 21 10 21 17 10 16 6 6 14 24 16 17 19 13 13 10 27 26 21 12 16 25 24 27 23 20 21 17 17 10 20 10 38 10 9 21 22 10 13 21 16 14 14 12 24 27 20 21 19 15 27 16 14 3 13 15 10 26 10 9 16 13 10 19 10 29 9 6 22 10 20 20 17 3 7 27 17 10 10 26 23 9 18 20 20 13 7 24 31 15 14 13 17 7 13 13 14 24 16 24 14 7 9 10 20 30 31 20 10 22 24 16 24 3 19 21 10 7 34 22 27 16 13 24 0 30 27 17 20 3 10 14 29 6 3 24 21 16 13 19 37 10 9 20 6 23 16 17 13 20 36 13 6 10 17 10 14 27 14 13 3 34 14 6 37 10 23 9 28 10 20 13 14 23 13 14 13 17 23 10 10 17 0 13 23 3 13 10 21 17 15 35 18 10 12 13 21 27 7 10 9 26 13 17 17 23 28 30 31 17 31 14 13 21 13 15 23 40 34 14 25 6 9 9 27 23 22 13 22 10 7 17 10 20 10 28 17 7 10 9 6 28 23 3 26 27 10 24 18 24 19 19 16 9 6 14 26 14 3 9 19 10 33 22 9 20 24 20 13 9 21 34 17 28 6 20 31 27 10 16 17 12 9 20 20 19 19 13 21 3 14 7 6 13 27 6 31 22 16 14 13 20 23 3 16 20 16 31 0 6 25 9 8 9 24 14 25 14 21 38 18 7 16 14 3 9 14 24 0 14 13 25 13 16 13 17 6 12 13 16 26 17 13 17 14 21 20 6 38 18 7 23 7 23 16 7 20 17 6 7 3 0 34 21 13 15 18 13 8 31 20 20 45 3 20 16 34 18 10 17 14 13 10 7 26 17 15 0 24 23 24 31 16 14 7 20 33 10 20 17 15 27 22 19 20 17 13 13 23 15 16 6 14 3 10 19 16 31 12 17 6 21 17 34 31 0 6 14 13 12 15 16 10 26 16 34 6 27 14 26 19 3 10 7 19 27 21 17 20 9 13 10 10 12 10 14 10 11 28 16 20 14 9 25 0 17 13 28 7 17 10 10 9 19 13 13 27 22 6 27 34 20 29 12 10 9 12 24 13 14 14 17 16 34 27 6 22 10 13 10 21 17 24 13 16 10 17 6 22 13 23 17 6 13 23 10 6 3 3 20 13 13 24 10 27 13 20 10 20 37 19 17 14 7 2 3 13 13 15 10 14 17 9 27 7 16 9 27 0 20 10 16 24 14 27 20 21 12 13 24 11 20 13 16 10 13 16 3 13 23 13 24 20 10 6 0 10 23 15 19 14 6 20 16 7 14 13 10 7 16 20 17 17 17 10 6 16 20 29 17 13 13 20 6 13 31 17 10 13 17 16 10 27 10 21 21 22 14 14 10 26 3 13 24 20 9 6 10 12 14 20 13 19 17 24 20 27 10 27 21 10 14 14 22 30 6 13 24 14 5 20 24 17 17 14 14 9 15 21 23 17 20 14 17 3 3 13 21 16 13 20 20 0 13 6 16 6 16 17 27 20 14 3 14 24 17 22 9 26 6 13 17 24 13 18 3 30 6 12 17 27 31 13 31 3 20 13 27 7 9 22 10 15 11 20 9 26 30 10 20 20 17 9 13 12 16 23 20 13 7 16 12 6 14 17 19 17 31 10 26 21 21 31 10 9 17 26 21 10 18 20 9 17 17 24 26 34 20 27 24 21 0 18 16 7 11 23 27 16 3 17 16 20 11 23 34 10 21 16 38 14 6 9 10 7 21 14 7 9 23 6 3 24 23 16 19 9 13 10 14 35 20 7 10 27 27 14 6 31 18 20 6 6 7 16 21 20 24 3 7 34 18 26 23 11 26 21 12 13 20 18 24 3 24 13 38 16 7 17 20 3 14 31 24 31 13 21 10 29 9 16 13 14 20 20 19 21 30 10 7 10 10 28 21 20 17 3 28 28 22 10 21 34 9 10 17 24 26 21 13 7 26 0 29 23 7 9 10 17 6 16 10 10 13 17 16 17 13 24 17 10 17 23 13 17 9 10 24 32 17 27 21 20 14 16 14 14 13 17 13 23 24 22 13 24 24 11 3 21 24 37 16 10 20 14 24 25 17 0 23 12 14 21 24 21 17 20 7 10 22 21 24 13 31 7 24 10 35 20 20 15 30 24 21 17 13 7 21 20 10 13 20 7 6 31 6 13 10 13 6 14 13 3 10 24 22 6 17 20 7 14 15 16 16 9 16 28 20 7 22 9 9 10 27 15 6 29 24 16 14 6 9 24 21 9 18 9 17 24 15 9 17 20 17 3 22 20 0 10 20 13 20 15 21 17 20 18 21 15 10 13 27 17 15 31 24 9 13 24 20 33 14 15 13 14 9 26 23 16 7 37 21 10 14 15 27 13 16 20 14 17 24 10 19 15 13 26 17 24 13 17 17 17 16 24 19 6 27 22 16 33 16 24 31 20 24 13 16 13 31 26 22 23 21 17 20 19 18 7 24 7 3 30 30 9 14 26 17 10 23 13 17 10 7 13 14 10 10 16 16 27 13 9 24 23 14 17 14 6 21 10 20 17 3 13 27 34 8 17 10 12 16 21 0 25 27 21 6 21 26 17 17 27 20 19 21 21 10 27 10 3 10 3 13 14 7 31 20 15 12 13 17 13 27 17 3 21 17 3 10 19 21 9 20 13 24 14 28 20 20 13 20 17 0 10 10 24 33 20 11 16 15 14 17 27 20 7 10 26 23 6 10 13 19 17 17 3 16 3 21 18 15 3 19 32 23 16 41 10 10 9 10 17 27 12 13 27 21 17 13 17 24 10 24 24 19 30 7 13 23 24 17 6 24 7 18 26 17 17 17 13 13 28 0 10 13 9 13 14 20 15 7 13 7 17 13 27 27 10 16 24 17 27 27 20 9 23 9 14 24 3 16 24 11 26 12 22 13 24 6 16 6 17 7 9 6 6 27 15 13 10 0 31 6 10 20 0 14 15 20 3 21 20 13 11 13 9 20 19 7 16 18 24 20 20 11 20 27 20 0 24 20 13 22 10 7 14 6 3 17 26 19 10 25 31 20 10 12 10 26 0 14 13 9 3 20 16 26 23 37 33 6 28 20 21 17 23 14 17 28 23 20 27 17 10 10 17 26 20 13 24 26 41 17 13 6 21 28 24 31 0 17 41 13 24 6 13 17 17 13 24 20 25 27 7 13 10 20 13 11 20 19 16 31 14 6 12 3 13 19 33 9 6 20 27 17 6 24 0 13 26 6 17 17 6 27 20 17 16 17 22 23 31 7 30 20 15 24 17 10 16 10 17 29 9 3 17 7 11 6 10 12 14 19 9 20 6 17 16 23 13 13 20 14 23 11 16 22 17 20 10 12 17 31 12 17 16 12 17 20 24 21 21 18 10 0 14 17 10 25 17 20 13 10 28 13 6 16 0 0 17 16 16 11 13 10 6 18 17 6 21 17 10 16 17 23 12 7 11 20 10 3 10 27 10 17 13 21 16 29 9 19 3 9 23 27 24 13 10 24 24 14 13 17 3 21 13 9 26 13 23 6 3 10 18 16 6 3 16 6 3 21 13 10 20 28 31 15 6 6 16 23 10 26 10 22 23 10 38 10 23 10 13 9 16 14 31 13 3 27 3 17 17 10 6 23 20 10 16 3 24 24 13 13 37 14 20 7 10 6 10 31 30 18 28 0 26 24 16 20 12 10 18 13 10 20 27 20 10 20 6 17 6 19 6 10 31 26 14 17 13 21 13 20 22 20 13 24 25 20 23 22 17 6 16 20 6 17 3 3 12 27 17 9 7 13 26 22 19 20 28 10 7 10 7 10 14 15 10 9 13 13 13 20 12 13 10 13 12 20 9 27 20 9 11 15 23 20 13 23 28 10 13 20 27 23 28 13 20 6 12 24 15 13 21 23 14 14 13 21 14 17 21 27 33 21 3 21 10 21 24 10 16 11 14 17 15 17 6 12 14 21 13 10 16 13 13 20 14 9 24 15 31 17 9 16 10 15 21 19 20 11 23 27 12 9 21 3 10 7 13 19 7 21 23 27 16 16 24 10 31 7 13 24 12 30 14 24 19 20 10 10 19 10 16 14 29 6 10 14 10 31 14 17 7 23 27 17 20 31 13 11 15 13 13 19 19 35 10 20 10 17 24 19 20 7 17 16 3 10 19 13 13 9 17 17 30 6 17 18 17 14 21 15 23 10 15 7 34 7 16 3 19 14 7 9 10 10 31 6 24 11 6 22 0 8 13 18 17 13 10 23 20 23 30 17 42 18 19 5 17 6 10 12 6 12 20 28 20 16 13 25 10 24 16 7 16 10 14 17 17 20 6 13 10 19 17 26 9 29 6 13 26 7 23 21 10 23 12 15 9 6 20 10 31 13 6 13 0 0 17 13 16 30 17 13 16 24 24 10 17 17 10 6 24 19 12 12 20 15 20 10 24 24 20 12 26 17 17 20 10 21 10 18 17 20 17 10 8 21 13 27 17 20 17 14 6 16 20 20 14 10 28 16 10 0 23 16 10 13 24 21 24 9 20 16 28 17 21 7 14 9 11 14 18 10 20 10 27 26 7 20 30 14 13 13 16 13 23 22 16 21 34 17 26 9 7 20 9 3 26 13 17 17 10 24 17 21 21 10 23 13 20 14 19 11 22 16 19 17 14 18 25 15 26 20 22 20 0 19 14 13 17 17 15 3 10 9 21 6 6 17 24 10 13 24 20 14 34 6 14 22 14 13 23 10 17 13 6 6 13 21 20 9 13 24 13 6 15 14 27 44 17 16 28 18 17 27 23 6 24 22 17 17 17 20 0 17 10 7 13 20 17 15 16 10 10 10 5 20 9 3 31 28 7 16 13 10 16 35 9 23 6 17 19 25 10 7 20 30 24 14 34 13 17 13 10 25 21 20 13 23 24 28 7 9 7 16 29 10 12 19 17 13 10 7 28 6 16 22 19 21 16 27 17 17 14 21 12 17 15 21 14 26 3 9 13 30 16 3 30 27 20 28 21 21 6 15 14 16 27 26 6 20 16 20 14 17 20 17 7 17 9 24 20 17 10 17 16 29 3 3 9 24 13 13 30 24 7 20 0 22 16 14 13 16 22 40 13 19 14 16 14 7 23 27 0 30 20 17 16 14 16 18 10 6 17 13 7 15 17 17 20 16 10 6 31 7 22 3 24 9 12 20 12 27 24 22 0 10 15 9 13 10 21 18 30 13 24 20 9 17 16 3 10 30 23 17 0 7 26 10 20 33 10 13 21 14 10 20 14 19 20 6 15 20 14 16 14 13 7 27 26 23 3 7 10 15 15 30 20 27 12 17 13 24 14 17 16 21 16 24 23 16 27 7 41 20 17 21 34 26 17 17 13 14 17 9 10 17 10 24 20 10 6 21 13 3 28 23 13 13 34 23 10 12 17 9 6 38 17 9 20 24 13 12 6 12 14 9 30 13 19 23 21 23 25 29 20 29 10 9 0 7 16 10 24 6 21 34 23 26 20 9 14 17 31 13 17 21 28 16 24 6 23 9 14 7 24 13 7 17 16 6 17 24 23 34 23 19 13 17 16 28 14 10 26 15 13 10 0 21 20 25 20 6 31 24 13 28 16 24 23 10 13 20 14 20 20 11 9 17 10 16 20 21 17 20 17 27 17 10 10 24 17 20 9 17 13 30 17 23 17 16 24 33 31 17 15 13 15 27 37 31 6 20 10 28 9 7 9 23 20 10 8 24 23 6 12 23 9 24 7 7 21 21 6 16 13 21 0 17 25 7 15 19 19 10 11 10 23 3 16 20 3 20 33 20 16 17 10 20 10 6 23 17 26 6 11 6 13 38 17 13 16 10 23 27 0 6 7 16 11 17 21 10 20 6 13 10 19 7 12 23 13 16 12 22 23 3 16 9 13 20 24 6 27 13 10 7 10 17 13 17 23 13 6 16 7 12 7 14 16 37 7 3 17 12 7 10 24 19 20 27 19 7 26 21 17 21 17 7 14 10 13 11 32 17 7 20 31 6 17 20 21 20 35 17 14 17 24 11 21 10 13 16 31 8 6 16 20 31 18 10 22 14 21 17 3 3 23 17 10 37 26 30 15 17 6 20 31 27 27 10 3 17 16 14 6 6 24 22 23 13 26 20 17 19 3 24 24 16 16 24 9 15 27 30 24 6 27 13 21 17 10 24 3 15 17 0 7 20 6 13 19 17 13 9 7 21 20 20 25 7 17 20 14 10 16 12 29 17 8 29 14 24 13 10 26 24 20 17 13 16 20 24 19 27 27 18 10 3 20 16 23 3 6 18 3 10 13 26 14 0 10 17 12 17 16 35 6 9 6 10 9 20 17 10 3 13 24 9 14 20 7 20 28 27 13 9 13 20 10 19 20 17 10 13 15 21 10 27 17 26 14 27 10 17 24 13 22 17 14 22 24 3 17 16 13 27 27 23 16 16 25 26 19 0 13 15 31 34 13 30 7 32 24 13 13 3 27 21 12 20 37 3 34 13 27 27 30 17 26 19 10 0 16 9 23 30 13 20 12 14 13 12 24 19 10 16 30 9 16 21 13 12 19 13 12 7 9 20 24 11 23 19 9 14 16 14 19 23 10 24 27 7 22 24 17 9 23 27 20 13 17 19 9 10 3 9 15 18 10 10 14 31 34 19 9 21 3 10 21 17 16 15 3 19 19 28 7 14 20 6 17 13 13 24 12 16 10 24 10 24 10 20 14 24 16 17 17 10 20 10 3 3 10 10 20 21 27 23 3 17 21 14 16 21 28 31 7 13 26 9 28 27 17 0 13 21 19 22 30 22 21 3 19 17 17 10 11 22 3 14 17 20 10 21 24 17 14 9 13 16 9 18 12 10 22 24 20 21 17 11 0 28 20 13 10 7 17 7 27 8 26 16 3 9 21 10 7 29 22 14 11 14 18 23 16 7 13 14 13 10 18 23 24 34 17 27 3 16 30 29 24 20 16 19 27 27 27 3 7 23 10 16 17 30 24 10 24 16 10 21 23 15 20 31 30 41 27 13 17 27 10 18 16 14 7 18 14 24 30 23 13 21 1 17 27 10 17 3 10 21 9 9 31 7 12 18 14 13 17 10 13 17 10 6 21 13 33 13 15 17 27 24 11 10 12 19 23 6 24 21 17 14 33 12 18 21 13 16 24 10 20 19 20 16 19 36 31 6 10 22 7 16 3 26 10 17 13 19 16 7 10 15 16 7 7 24 14 27 23 23 10 21 7 10 6 16 27 21 14 10 7 10 12 16 12 9 30 23 30 14 13 6 10 10 13 18 7 24 29 27 14 20 23 17 21 20 16 14 13 18 23 31 13 21 16 17 12 12 20 16 13 13 7 20 0 6 17 13 9 17 14 24 10 10 18 0 24 27 20 23 3 17 24 17 9 7 3 13 7 30 13 21 24 10 24 16 16 7 14 19 10 18 24 23 27 13 23 20 30 20 14 24 13 6 6 14 27 20 26 21 23 13 9 20 20 13 17 13 28 7 9 23 25 18 28 21 23 14 20 3 24 13 6 16 27 19 19 27 17 34 17 19 19 10 11 30 6 13 13 3 7 12 3 20 13 13 10 20 17 38 16 10 12 9 19 20 17 18 17 21 19 7 21 24 3 17 27 6 13 16 20 1 27 17 26 10 17 17 13 17 27 10 24 10 16 20 3 13 31 17 20 17 25 31 12 20 9 16 21 33 31 27 20 14 12 0 26 25 18 9 7 17 22 24 17 21 17 17 20 28 10 20 20 12 20 23 20 6 14 21 22 7 21 21 14 21 9 21 13 11 0 28 23 26 24 13 31 16 14 12 23 8 11 17 14 9 13 10 24 13 10 14 20 13 13 6 17 21 24 21 19 23 10 17 24 10 24 10 10 10 20 19 7 24 13 14 14 14 14 34 14 23 10 3 6 17 30 7 7 19 27 13 14 19 16 42 13 31 24 23 7 16 23 14 22 24 13 10 9 10 24 17 20 10 13 3 18 15 8 26 31 17 21 20 24 16 17 16 24 16 13 14 10 9 14 29 0 6 28 13 30 10 17 9 19 16 13 12 9 6 20 20 17 13 16 20 6 6 3 30 24 24 31 19 28 13 27 18 3 3 17 24 7 17 20 13 16 14 20 20 17 12 3 12 10 12 24 7 23 31 6 31 28 17 26 16 20 20 10 8 23 37 26 27 14 10 23 16 6 21 29 12 13 31 28 8 17 7 34 16 21 13 13 17 18 24 13 13 17 13 30 12 10 7 17 20 12 14 20 28 19 23 19 17 6 28 0 20 24 9 3 7 0 34 19 20 20 18 14 10 24 14 21 3 13 17 17 21 12 9 10 27 15 13 10 10 0 13 13 21 10 6 20 20 27 25 27 10 19 20 3 7 16 13 21 10 21 17 18 17 21 14 17 30 17 20 3 16 19 20 20 17 10 27 16 9 11 20 30 20 30 16 20 14 20 24 14 9 24 3 3 21 18 16 6 22 10 16 31 0 10 0 10 16 14 14 19 13 10 16 23 24 21 6 19 3 16 20 17 24 31 21 9 3 10 14 3 27 13 17 16 14 23 13 17 6 10 22 6 30 21 6 8 25 27 23 6 17 17 10 6 13 13 13 17 20 33 10 20 31 28 17 20 0 15 6 24 22 20 3 20 16 7 28 13 37 23 6 14 16 13 31 17 10 20 0 10 17 21 17 17 21 16 14 19 7 25 29 13 19 17 14 13 37 16 14 10 9 19 28 17 17 17 17 7 21 13 20 28 20 16 17 17 27 19 9 13 9 19 0 3 17 3 16 10 17 15 21 10 17 48 26 18 27 9 13 13 24 9 24 16 16 11 14 31 12 13 24 27 10 19 17 13 24 29 13 23 27 3 12 22 14 15 23 27 15 17 21 28 31 20 17 12 7 23 13 17 13 20 24 26 31 21 13 18 13 23 16 27 13 24 16 20 20 15 17 17 27 18 7 16 23 13 9 20 17 23 7 16 23 14 10 20 16 7 26 3 9 20 10 20 27 7 14 15 7 24 17 26 23 18 16 20 19 13 10 35 16 17 17 26 10 26 24 9 17 6 24 10 31 20 17 20 23 3 28 16 22 10 6 16 0 17 26 21 23 40 12 20 10 23 13 34 13 10 20 10 20 10 31 15 3 13 12 10 10 13 21 17 13 14 9 27 6 20 16 19 9 20 13 26 13 25 7 13 14 20 22 21 16 22 10 6 10 13 27 20 21 20 15 13 17 17 17 6 23 18 13 17 17 10 22 16 20 17 17 3 18 3 14 13 19 13 22 19 20 22 17 20 17 16 7 31 13 28 25 16 19 6 20 24 13 23 24 13 20 24 17 19 17 20 16 10 17 24 17 10 24 14 17 18 16 14 13 17 14 3 12 0 16 26 19 12 30 6 19 20 17 10 10 27 13 16 9 16 19 30 10 14 14 34 7 10 20 23 12 9 27 9 28 13 19 31 3 9 24 16 6 16 14 14 17 17 10 6 10 12 23 20 13 31 18 10 10 21 14 19 10 20 6 17 10 16 29 7 11 13 22 18 20 17 21 42 15 6 17 14 9 7 19 14 13 6 21 13 23 17 23 15 7 14 3 19 24 3 17 16 20 3 21 3 11 31 23 9 25 21 12 17 17 21 0 14 15 17 14 27 13 16 17 10 21 12 19 19 10 6 17 26 17 10 26 16 10 27 24 6 20 13 20 8 3 6 17 7 24 16 20 3 13 30 12 13 7 13 17 0 10 21 17 6 10 10 8 27 14 10 27 14 10 20 16 17 12 21 11 14 21 17 9 0 14 13 7 11 14 31 10 21 24 13 27 21 10 14 17 24 10 17 17 21 14 16 14 27 21 6 3 28 6 20 20 17 21 16 10 10 10 14 13 13 24 13 7 27 13 33 10 19 6 13 17 14 9 10 26 28 24 20 3 10 40 7 21 24 16 20 24 16 7 17 28 17 12 9 24 18 10 16 24 6 29 21 9 13 9 17 17 9 10 35 12 10 6 13 28 20 13 13 7 16 17 16 10 10 6 10 21 23 26 16 6 7 24 20 7 11 14 18 17 27 19 13 17 27 14 13 19 19 14 23 16 27 10 24 13 24 17 27 12 20 23 24 27 13 31 14 19 16 21 15 7 20 13 2 19 16 16 7 10 13 15 23 26 23 14 12 7 17 24 24 24 17 26 13 14 15 17 20 23 20 27 20 21 24 16 37 13 34 6 24 7 6 30 21 24 7 20 18 3 7 7 7 14 24 24 13 21 7 7 21 16 16 30 16 17 23 8 10 21 10 19 16 21 11 27 40 14 16 13 15 10 20 28 21 15 13 41 27 13 19 17 18 13 10 12 17 33 23 9 16 14 30 14 31 13 20 23 23 10 7 30 20 19 24 7 13 21 31 23 27 17 20 17 13 24 16 6 17 6 30 6 14 21 19 14 24 10 14 13 14 17 14 30 12 14 10 17 27 13 31 23 17 17 26 13 24 17 44 3 17 30 14 31 27 7 17 23 17 20 17 20 31 14 10 19 30 17 23 13 20 14 14 6 6 20 33 25 14 27 21 14 12 9 31 10 24 17 20 13 17 6 3 20 19 34 13 31 24 14 20 16 31 27 13 13 10 30 19 23 22 20 24 17 10 10 24 13 13 29 20 10 17 3 26 9 15 6 21 20 19 23 15 7 19 23 27 14 30 30 34 13 19 10 24 14 21 6 21 27 13 13 16 20 17 20 16 16 28 14 20 10 7 16 21 10 7 20 12 30 20 14 14 10 19 14 9 18 21 6 30 20 7 22 21 10 24 24 20 34 11 7 14 10 22 21 20 26 20 14 12 10 8 23 24 26 6 15 3 22 22 31 14 7 35 27 6 13 26 6 13 24 26 21 14 3 19 21 12 30 12 9 38 10 21 30 9 16 17 20 10 22 21 23 3 28 0 23 9 21 10 17 13 14 34 21 13 5 17 9 19 3 10 24 24 13 22 21 23 7 31 23 26 13 11 6 24 17 13 24 7 13 29 13 14 3 3 17 19 17 19 16 9 34 24 17 27 10 13 26 20 19 20 30 11 31 23 10 13 6 21 20 17 23 12 23 16 27 3 26 25 13 3 20 6 7 16 20 9 13 26 21 30 24 10 16 10 10 14 6 27 24 16 31 23 17 14 24 23 28 17 14 20 23 23 27 28 7 7 14 6 24 33 10 13 17 13 9 10 23 14 20 16 10 10 7 14 22 8 15 14 15 28 31 11 13 20 16 17 20 10 13 14 0 22 21 6 31 13 13 20 17 19 19 20 13 31 16 14 13 12 16 24 21 38 13 10 21 19 14 7 9 24 26 20 15 27 20 6 6 12 30 16 17 23 16 11 17 24 13 13 23 13 6 6 8 3 26 19 11 23 6 21 10 17 9 13 15 10 21 28 17 20 13 6 13 9 19 9 6 20 18 6 24 10 12 22 14 0 13 21 19 17 16 7 27 3 17 31 14 10 20 20 10 16 14 24 15 28 14 9 14 13 14 19 10 13 21 10 28 14 20 14 31 24 7 19 24 22 23 24 13 31 23 23 17 15 7 16 30 27 7 13 16 24 7 17 15 25 23 7 9 16 14 23 6 0 14 3 9 12 16 14 16 11 20 20 38 28 21 16 14 19 34 16 13 10 13 12 14 24 13 24 15 14 20 12 10 20 10 17 10 10 20 21 14 14 10 24 19 13 17 7 10 17 23 20 7 9 18 16 6 10 3 27 10 10 20 6 0 17 18 13 23 27 15 20 9 20 14 10 6 13 16 29 20 3 7 3 10 18 21 24 3 10 17 23 9 0 27 14 28 20 14 15 20 21 13 28 28 16 23 14 10 15 13 20 19 6 16 12 24 9 0 24 7 17 14 28 13 9 17 6 26 17 30 10 27 42 15 13 3 12 10 17 17 10 38 9 19 3 14 12 20 21 12 24 7 17 12 28 3 20 14 10 21 3 19 24 7 10 10 17 14 10 24 23 17 6 27 10 10 3 35 12 35 17 6 20 13 21 17 13 7 17 23 14 13 14 20 6 14 10 31 13 14 21 7 7 13 19 24 7 17 10 13 31 20 20 15 16 7 16 32 16 13 3 17 21 6 27 17 14 16 10 10 20 13 24 17 17 10 22 24 20 17 21 17 20 6 17 19 6 6 16 19 10 30 13 10 24 15 12 14 7 20 30 10 20 27 13 20 26 10 19 24 7 21 10 17 10 21 17 17 21 15 14 22 16 30 24 20 6 24 10 20 10 7 21 10 6 24 25 7 6 26 24 17 24 17 9 21 10 31 20 20 6 30 27 12 17 10 27 13 12 0 10 20 12 13 7 10 33 19 9 23 27 13 9 19 22 20 7 13 17 24 23 16 23 6 31 25 0 16 17 20 14 22 13 3 7 10 13 21 3 10 10 10 14 17 22 16 10 17 16 22 14 10 18 14 7 24 24 17 31 4 10 19 24 19 31 21 19 21 17 24 13 10 13 20 13 16 7 16 16 7 10 20 10 23 20 16 24 23 24 17 13 42 16 17 14 12 16 6 24 24 9 10 10 20 11 7 17 20 24 37 21 20 16 10 9 28 3 27 27 19 6 17 16 17 31 26 10 26 13 27 20 7 10 17 24 22 20 10 3 20 16 16 23 30 10 21 21 17 21 13 30 20 14 42 7 23 13 11 9 3 6 27 14 9 26 17 20 6 17 20 6 24 12 3 22 19 10 24 0 24 0 28 17 13 23 10 17 20 17 21 34 17 20 10 16 27 41 10 14 20 28 10 21 23 20 16 14 19 17 16 10 23 19 10 17 14 9 17 14 23 24 20 12 17 17 33 14 10 9 14 37 21 21 12 21 3 13 23 17 21 15 6 17 19 14 21 19 24 16 10 10 30 17 0 21 20 14 3 10 27 16 16 38 24 20 12 20 7 18 0 6 31 14 31 10 13 17 18 13 10 20 22 21 24 20 18 10 13 3 13 12 27 13 3 24 24 14 9 20 16 8 22 10 20 21 22 11 10 23 41 27 38 24 18 10 16 17 14 3 26 16 15 24 27 20 10 17 20 17 13 34 7 13 27 6 3 26 16 24 10 19 36 34 14 10 15 14 15 16 16 30 10 6 13 24 20 29 8 14 17 28 16 24 23 13 17 10 21 9 12 28 21 33 12 30 10 12 14 14 16 24 17 21 20 17 26 27 30 30 6 21 13 13 0 3 13 9 16 13 26 14 8 17 17 21 6 21 7 24 17 26 17 3 17 7 20 13 20 38 16 23 14 13 13 10 10 16 7 6 16 26 6 10 17 34 20 21 13 10 19 10 10 14 17 23 13 16 10 14 28 13 26 3 30 33 16 19 31 28 17 27 20 6 28 23 17 31 24 28 34 3 16 23 17 28 7 9 3 13 26 6 18 19 27 10 8 13 10 27 14 17 27 17 20 31 24 21 12 17 10 10 17 16 10 8 13 8 17 17 9 10 26 21 24 13 23 10 3 10 25 3 13 14 24 14 17 12 16 10 21 21 7 10 16 16 20 21 17 24 16 10 21 10 12 29 19 13 27 9 23 30 24 27 31 17 14 17 21 23 16 7 14 6 3 10 30 34 3 23 14 13 22 13 34 7 10 17 17 20 6 0 15 17 27 14 12 23 13 13 30 9 10 24 29 23 25 20 10 15 21 6 0 9 12 24 27 3 23 22 20 24 20 7 16 19 6 3 20 20 27 15 15 12 10 3 13 10 20 13 11 34 20 13 6 27 30 17 20 20 13 17 15 23 9 19 31 14 20 22 13 26 14 0 9 10 13 13 31 33 27 30 24 27 17 7 19 26 7 3 16 28 23 24 22 16 17 10 20 8 6 20 21 13 18 13 13 13 9 6 14 7 30 17 7 6 6 9 10 13 13 10 9 13 23 27 19 31 17 30 17 9 16 15 16 6 13 3 6 23 24 16 7 0 16 3 20 17 17 13 23 31 27 16 17 17 41 23 16 14 28 10 13 18 13 20 20 24 23 17 2 26 13 13 3 24 12 10 10 10 19 16 14 19 20 3 21 28 6 16 20 3 22 10 6 19 19 3 14 32 30 21 14 23 16 17 17 10 15 16 21 41 16 15 17 9 10 6 20 17 7 27 10 17 26 22 9 0 17 7 13 17 6 14 21 18 14 20 17 14 20 14 17 16 24 10 22 10 17 31 8 24 6 38 10 25 21 6 21 17 42 10 9 7 33 13 24 12 27 17 14 10 20 18 14 7 24 7 13 10 23 6 17 17 30 6 28 14 6 14 12 12 12 7 14 28 21 9 24 16 9 20 23 20 23 17 18 17 7 21 3 15 11 20 10 17 14 13 17 10 21 7 10 17 27 3 13 9 10 20 13 30 10 7 13 21 20 31 27 7 17 23 13 10 38 14 14 12 6 17 26 16 21 22 13 13 3 10 19 21 6 10 23 6 24 24 23 14 13 33 28 14 7 17 3 13 10 16 17 10 16 21 17 31 16 23 13 27 16 26 12 9 9 5 10 20 26 28 0 35 3 13 14 6 19 5 14 19 20 11 20 24 14 8 10 16 7 13 21 27 16 15 21 6 20 28 17 17 14 10 17 23 23 13 22 24 19 14 16 26 9 24 13 9 16 6 11 10 16 10 30 30 24 17 17 20 10 24 17 21 19 15 28 20 13 10 15 26 6 17 16 31 22 27 13 19 15 7 26 24 14 27 21 8 20 7 17 6 16 13 7 10 10 24 22 20 21 7 10 13 14 15 22 29 20 16 3 27 20 0 8 21 27 9 13 20 16 16 15 19 9 24 22 13 11 3 21 21 31 9 20 17 14 14 24 10 17 28 20 7 10 27 30 13 29 13 31 19 13 10 20 0 21 14 14 24 7 22 17 23 13 10 23 19 13 17 17 16 17 6 17 16 13 17 28 20 17 16 7 7 26 9 14 14 26 13 8 14 17 23 7 19 10 21 12 30 23 7 30 17 34 13 13 10 18 10 24 0 17 9 17 20 33 21 7 17 13 27 10 9 23 13 6 15 13 0 13 17 26 30 3 17 13 26 27 24 20 13 24 11 19 6 16 15 13 14 7 17 10 27 21 20 28 11 21 17 27 24 9 23 14 6 13 23 17 13 21 13 10 24 16 16 13 20 17 17 13 16 26 12 3 21 28 13 3 14 24 13 31 6 6 18 31 17 19 13 26 0 9 6 13 3 9 0 13 34 13 17 21 13 27 24 6 17 17 34 10 17 20 7 14 18 13 20 21 20 15 33 24 23 10 23 16 7 20 13 17 10 21 9 7 20 24 19 10 3 10 21 19 17 11 10 16 10 10 24 14 31 10 24 13 31 20 23 31 19 20 13 27 7 11 17 17 0 7 10 23 13 17 35 17 20 25 17 14 23 31 17 18 3 16 9 20 14 23 9 24 13 17 18 16 20 7 13 10 18 40 7 16 9 20 24 20 9 17 31 27 12 9 12 10 17 19 8 10 16 16 21 21 23 10 20 7 20 21 17 13 0 9 14 16 12 21 26 23 10 24 20 12 30 10 10 20 10 11 23 28 23 9 17 23 0 10 3 6 30 11 20 9 14 24 9 16 44 31 27 20 22 17 22 14 17 10 14 17 13 12 13 3 12 14 29 9 6 10 21 27 12 26 26 13 20 13 12 28 16 3 7 3 10 13 28 3 10 13 17 21 24 16 14 12 17 7 3 6 23 24 17 14 23 10 17 16 20 23 3 31 6 0 24 22 16 10 17 24 20 17 14 17 10 37 19 9 13 17 6 10 13 10 24 16 41 16 6 3 13 24 34 13 17 31 14 20 10 17 19 6 3 14 16 16 17 27 16 33 22 23 26 13 13 3 10 20 11 13 30 27 23 20 34 15 14 21 9 20 26 10 7 6 20 17 24 21 23 26 11 35 17 25 10 17 24 16 20 17 30 17 13 8 9 10 17 14 9 17 3 16 27 26 13 21 17 7 13 17 30 21 38 0 17 10 16 9 16 20 3 17 17 25 22 21 20 13 14 21 16 37 9 14 28 6 9 20 28 10 16 49 17 7 14 23 13 17 6 19 20 27 26 34 10 24 13 14 13 20 3 13 14 8 18 24 6 7 10 20 27 9 21 10 27 17 12 23 16 24 13 13 22 24 38 23 22 23 13 20 17 30 10 19 17 9 26 17 20 23 8 20 24 6 20 13 17 23 20 16 12 19 13 13 16 14 24 3 31 21 12 28 14 17 27 6 20 20 16 20 30 6 14 21 19 19 20 21 6 13 19 12 20 16 13 20 22 31 10 10 13 28 24 24 34 24 14 17 16 14 17 22 6 14 3 28 6 19 9 16 13 17 16 20 20 14 0 6 13 27 9 17 17 21 16 30 10 16 12 6 16 15 19 29 9 17 7 8 20 13 14 17 20 14 14 7 21 34 30 3 24 7 26 16 17 23 34 10 27 13 14 21 7 31 20 13 14 23 9 18 24 13 12 10 13 16 7 11 22 24 30 3 9 14 12 23 23 13 20 30 17 29 8 38 23 19 17 21 17 16 3 6 15 31 17 24 18 31 13 13 20 3 17 13 28 21 20 17 20 30 12 35 3 24 19 28 13 8 24 24 14 21 14 10 21 19 26 20 20 16 3 14 28 23 6 13 0 10 15 27 17 10 24</t>
-  </si>
-  <si>
-    <t>JSB(11.362104189395296, 11.950643790039393, -50.26325322800042, 263.68119953426606)</t>
-  </si>
-  <si>
-    <t>21 27 23 20 28 28 31 30 27 19 33 18 21 28 19 13 25 25 18 26 31 25 20 21 19 20 27 30 15 21 24 23 23 22 17 15 27 21 24 31 21 17 24 15 20 21 17 19 18 22 20 26 25 24 27 20 29 27 25 20 27 13 25 22 26 15 18 24 21 24 25 29 18 23 21 24 29 22 26 23 28 22 15 30 28 25 24 23 18 28 27 25 22 26 25 26 32 23 22 21 26 19 22 23 30 22 29 20 33 21 18 21 17 29 17 18 25 15 34 23 23 19 38 34 25 25 23 23 30 21 25 24 23 23 14 23 16 26 19 22 22 18 22 19 23 21 23 19 20 19 27 25 28 26 19 25 21 21 29 23 22 18 29 24 18 22 22 20 26 30 26 28 24 22 26 20 27 25 30 25 21 27 23 23 24 21 24 17 22 20 30 22 21 25 24 24 32 31 18 21 20 22 21 21 18 15 27 29 23 20 19 25 21 17 22 24 24 22 22 29 22 25 19 23 34 20 26 21 21 24 28 28 25 23 21 24 17 23 26 23 21 21 24 27 27 24 33 31 25 22 18 26 14 26 25 23 20 19 24 23 23 22 26 32 20 27 26 23 26 20 24 25 20 23 22 20 25 24 28 30 17 15 33 20 23 15 20 24 21 25 34 27 24 25 24 25 24 20 26 24 21 26 30 26 27 21 22 20 16 32 27 19 16 21 30 26 27 10 18 26 24 21 19 22 22 22 19 20 27 29 14 22 26 29 21 17 28 19 25 19 21 16 23 28 22 26 26 21 21 27 27 26 26 26 21 22 19 24 32 28 22 20 23 17 27 34 25 26 25 29 18 29 20 13 20 26 29 18 19 29 29 27 34 20 18 27 30 19 19 20 16 24 23 28 24 26 22 25 19 21 29 20 23 22 15 21 23 26 20 31 31 24 22 19 25 18 25 28 29 30 25 23 25 26 27 26 26 20 28 20 14 20 22 25 31 29 19 25 23 18 15 21 33 24 19 25 19 29 30 29 20 21 22 22 23 26 22 25 31 24 30 19 19 27 28 15 19 15 20 18 23 18 21 23 20 22 28 20 29 20 17 25 22 19 18 22 19 30 20 25 26 19 16 24 26 26 23 19 28 20 24 19 12 21 23 24 28 24 26 24 31 28 19 25 23 28 24 27 24 28 24 24 19 20 26 26 28 25 35 14 25 22 21 23 32 24 27 21 25 23 30 14 26 27 21 19 19 27 25 22 23 17 25 28 30 24 21 25 23 22 28 29 20 21 23 32 24 25 25 20 18 18 21 29 29 33 22 17 25 30 29 20 27 22 25 11 18 30 27 21 20 24 21 28 13 22 21 20 17 28 21 19 34 16 21 27 24 21 26 21 14 32 29 22 21 20 27 16 21 18 18 25 26 22 25 19 27 22 22 20 25 23 25 24 32 19 28 23 21 28 18 31 20 25 26 24 19 20 14 25 24 13 25 23 34 18 23 30 29 27 24 29 25 15 22 27 20 23 25 15 26 26 23 24 24 26 22 26 27 23 26 27 22 19 20 22 20 22 28 19 30 30 25 25 24 17 27 24 20 32 23 22 12 29 22 23 25 20 25 29 32 18 24 22 25 31 27 20 23 26 22 23 19 23 20 22 24 19 21 28 17 20 21 18 19 32 26 20 23 29 24 22 17 25 24 22 17 23 16 20 21 17 26 26 29 22 23 21 26 31 28 21 29 21 24 27 20 24 20 23 23 25 28 22 25 21 23 20 26 24 16 29 31 18 16 31 23 29 26 27 24 20 20 28 27 22 23 27 24 22 22 25 24 26 22 18 18 16 20 20 23 25 17 25 29 27 16 29 19 24 26 25 26 25 22 20 22 21 31 30 21 28 27 29 24 19 27 28 18 20 14 25 20 20 23 28 23 25 21 25 19 20 22 22 19 27 24 19 30 18 18 22 30 26 24 30 24 28 15 31 21 30 18 27 19 29 30 26 16 26 21 16 20 19 22 24 29 29 26 28 23 24 20 24 26 23 29 18 27 27 29 27 19 28 28 15 25 22 30 27 23 20 23 17 17 21 24 24 20 31 36 24 16 27 25 25 19 25 22 22 33 29 27 19 24 18 25 24 25 26 24 25 22 22 21 26 26 28 17 25 19 20 23 22 15 25 25 18 24 22 20 26 18 26 16 26 18 26 19 33 24 23 28 19 23 23 17 23 26 25 29 39 25 29 16 18 22 19 25 19 23 25 30 34 25 23 33 28 27 23 24 25 20 20 24 21 22 28 21 21 30 27 26 24 21 23 22 25 18 18 20 20 19 21 23 30 27 19 25 20 25 26 24 27 25 16 18 22 20 24 18 27 20 26 18 23 25 26 28 17 15 21 24 23 28 15 18 20 33 28 15 33 35 16 27 26 27 28 22 22 27 21 22 21 19 35 25 26 25 26 27 18 19 21 19 20 14 22 27 29 25 26 24 31 31 23 23 25 16 24 22 27 20 25 13 25 29 28 23 30 21 29 23 25 14 24 19 29 21 16 23 22 29 28 30 15 10 13 25 28 32 25 23 26 20 20 19 20 20 23 28 22 21 23 22 25 29 29 20 23 30 14 23 23 21 22 15 24 22 15 24 24 21 24 30 29 21 22 20 20 27 30 21 24 34 24 25 19 22 23 31 28 21 21 25 22 23 27 22 20 18 17 24 28 28 17 20 25 26 23 21 26 15 28 24 30 30 17 23 26 28 24 25 26 28 28 22 20 25 23 24 22 22 18 30 30 33 28 24 22 18 25 20 25 28 20 17 20 32 26 23 26 19 21 13 20 16 29 27 20 25 25 33 25 18 21 25 28 27 21 25 14 19 31 24 11 25 29 19 26 20 21 18 25 24 27 31 18 24 29 12 21 27 22 26 20 19 24 25 24 30 29 24 24 22 21 23 31 20 20 32 24 19 25 26 21 24 24 21 24 19 17 33 22 23 19 27 25 26 28 26 29 20 29 18 27 27 30 27 16 21 24 20 28 28 25 23 26 18 27 25 28 18 32 24 19 20 24 18 28 30 20 27 20 20 21 23 22 23 19 31 26 18 28 19 24 22 28 24 19 18 20 23 14 28 22 21 24 9 21 19 24 24 24 24 25 22 29 22 22 15 22 18 19 22 23 15 24 17 21 15 24 17 30 15 20 29 24 35 23 20 22 23 18 24 25 18 26 27 18 27 22 24 26 23 23 19 27 21 30 13 31 21 19 25 22 31 24 23 27 21 24 14 25 32 18 28 21 17 19 20 18 20 22 31 21 20 20 26 29 17 17 15 24 21 25 23 22 27 18 29 16 21 29 23 27 21 17 28 25 19 22 18 17 20 23 20 26 20 26 25 21 24 22 25 17 24 20 23 17 23 25 30 20 22 26 27 26 18 25 17 31 23 20 21 28 21 26 30 23 21 34 31 29 18 14 22 21 17 21 26 20 25 18 31 24 23 26 26 22 25 21 24 23 22 24 23 25 15 29 26 30 29 20 30 24 30 25 30 20 28 18 20 27 29 26 24 25 24 30 21 25 31 32 20 23 23 38 36 17 22 25 19 19 20 25 24 25 24 21 29 24 19 25 26 28 16 24 16 22 31 24 28 27 22 23 20 28 25 23 18 26 24 21 21 31 22 23 27 26 22 22 31 20 28 24 20 21 25 19 27 29 16 24 34 22 23 21 27 20 25 28 17 21 24 25 30 35 29 27 22 24 30 29 17 18 26 31 26 25 25 20 16 22 23 31 22 21 23 25 32 18 29 23 27 23 27 22 31 17 21 22 33 25 18 12 28 22 38 24 27 32 17 19 31 21 23 26 24 22 27 22 29 20 30 23 19 18 32 24 26 25 17 18 19 27 28 29 21 24 29 25 24 27 29 24 28 28 26 25 21 29 25 20 25 20 25 24 24 24 25 27 26 17 26 21 17 16 28 31 22 29 17 23 20 17 18 18 27 24 25 20 20 20 19 16 20 32 22 22 23 24 18 22 23 23 34 29 19 24 29 26 21 18 25 22 23 27 23 25 30 25 28 24 19 17 24 24 23 22 29 29 20 21 21 27 17 22 23 20 25 25 16 29 26 24 21 24 19 22 25 30 27 28 22 23 13 34 27 16 24 25 26 18 27 23 15 17 22 30 26 20 31 22 20 25 29 20 27 15 23 16 26 31 27 27 24 22 24 17 20 23 17 25 19 31 36 31 11 24 23 22 14 25 23 13 26 21 23 19 24 21 22 27 30 20 23 23 23 23 23 29 24 26 25 31 18 25 27 21 24 17 30 33 27 31 25 15 24 14 22 33 15 21 24 22 27 19 24 21 25 31 19 27 21 25 23 22 26 20 22 22 24 26 29 17 21 27 22 24 18 31 22 24 25 21 20 16 26 18 18 21 20 21 24 22 22 27 32 25 28 25 24 30 24 19 20 28 30 19 25 22 12 29 17 26 25 21 25 21 25 25 24 19 20 22 24 25 20 28 26 31 19 20 27 19 23 26 19 23 22 26 21 16 22 19 23 19 20 15 20 23 25 23 29 23 17 16 23 27 26 16 14 23 24 16 23 21 26 24 23 34 26 24 27 25 19 29 22 24 23 26 22 21 22 26 15 25 25 24 19 25 27 27 20 25 28 21 19 18 18 21 25 25 24 14 25 18 32 33 29 21 20 25 20 21 21 30 30 20 27 24 24 19 23 22 18 22 27 23 15 31 18 27 20 22 24 30 21 18 22 27 24 17 17 16 13 32 24 16 26 26 25 19 25 22 19 22 28 21 21 21 18 25 27 20 19 19 21 28 29 16 24 14 25 27 21 22 17 24 27 27 21 19 23 28 18 22 25 21 28 31 22 29 20 21 28 28 19 14 22 22 20 26 30 22 24 25 24 20 15 23 30 30 31 20 16 21 13 23 28 21 26 19 20 18 28 23 26 26 19 18 24 18 23 20 21 24 23 20 27 24 25 20 26 19 30 14 19 23 17 23 29 26 22 22 29 21 26 32 17 19 25 19 16 22 27 15 32 21 14 18 30 30 33 22 18 23 17 22 26 23 20 25 20 20 22 25 22 32 28 25 27 23 24 15 35 17 32 22 26 24 20 20 21 25 25 25 27 14 26 27 26 29 29 33 23 25 27 28 31 25 31 21 23 33 17 35 27 13 22 20 15 17 25 23 27 21 31 13 17 19 25 22 28 23 16 22 25 23 21 25 26 20 17 16 32 25 23 19 15 24 14 24 25 16 28 19 28 26 26 27 29 18 21 25 20 23 18 29 14 18 28 17 25 19 16 20 19 34 24 19 27 19 19 24 23 17 19 17 22 22 23 26 20 17 25 33 15 19 17 29 27 19 25 23 30 22 21 26 29 26 29 13 25 25 24 17 21 16 20 26 25 21 24 28 27 17 20 17 18 27 26 23 20 17 18 21 24 21 14 22 29 20 22 24 28 25 22 26 16 36 19 17 23 25 23 13 27 19 22 19 30 16 24 13 23 25 16 25 18 21 24 22 20 30 22 23 32 24 23 21 23 30 23 22 23 29 27 27 30 21 23 31 17 32 24 23 28 23 22 21 26 20 18 20 28 25 23 28 25 34 23 21 27 22 16 29 20 22 21 29 23 21 28 22 19 21 26 25 18 26 21 29 28 24 22 31 29 21 18 19 28 24 28 26 28 25 27 21 22 27 26 22 25 11 15 21 25 19 26 27 25 25 26 26 20 21 26 26 20 25 26 26 25 21 28 26 18 24 22 15 21 21 21 22 26 18 18 16 23 23 20 25 20 30 19 23 17 22 36 24 28 32 23 23 24 24 28 25 30 27 27 22 29 24 25 22 25 23 26 23 33 22 23 28 31 26 24 23 26 20 24 26 22 30 30 31 20 23 29 24 21 27 16 28 18 19 20 28 27 25 20 19 16 25 24 21 21 25 25 23 25 31 21 19 21 22 23 29 23 27 24 27 20 19 22 28 23 20 19 24 17 21 18 25 15 27 26 24 27 23 22 20 21 29 21 20 21 28 25 31 22 27 27 18 17 27 24 17 25 19 31 27 20 21 23 26 30 28 33 20 23 25 27 25 23 20 24 19 24 29 23 28 27 26 21 20 23 27 24 24 27 24 21 22 17 17 22 29 20 26 23 27 21 25 28 19 25 23 29 20 23 26 14 22 22 27 15 20 24 20 25 17 25 21 17 31 22 34 18 21 21 26 19 30 17 26 22 19 23 29 22 23 25 16 24 27 12 19 18 23 20 17 27 20 22 25 19 25 28 14 25 25 26 28 20 30 23 26 26 24 25 23 20 21 17 15 15 31 28 29 21 19 19 20 24 23 28 27 19 26 21 25 24 21 31 21 26 20 23 22 21 16 24 30 17 24 27 18 29 20 23 24 25 27 34 21 20 23 26 23 26 24 20 31 23 26 36 28 24 15 20 17 34 27 24 21 18 26 37 26 19 24 19 19 26 20 24 25 16 24 33 27 17 19 17 19 14 39 25 24 20 15 25 21 19 25 27 20 25 20 23 24 21 22 27 32 20 26 25 18 25 26 18 26 33 22 20 20 25 11 21 23 25 28 23 26 22 18 25 22 16 26 21 24 24 27 20 27 24 33 27 17 25 26 24 29 17 28 19 24 12 13 25 30 25 26 22 22 25 19 31 21 28 36 23 24 23 25 30 16 25 24 24 22 22 23 29 28 18 24 21 24 25 28 16 20 19 22 13 22 28 28 19 28 27 33 25 24 22 26 19 24 18 26 19 22 26 24 26 22 24 33 24 19 30 25 22 21 28 18 28 25 28 19 21 22 29 24 34 23 23 29 28 18 25 23 14 31 14 31 20 23 18 24 20 23 24 29 22 26 17 25 26 18 26 20 23 24 20 20 22 23 22 27 27 21 23 24 23 16 25 27 25 27 26 18 21 25 24 20 23 23 18 15 23 25 18 24 16 17 25 24 21 30 21 22 22 25 15 24 27 24 15 22 22 22 26 17 17 15 19 29 22 24 26 27 16 19 20 23 25 23 21 20 21 27 20 25 27 19 21 25 23 23 26 37 26 22 24 16 25 16 26 27 22 25 25 18 26 23 23 19 27 25 22 19 21 24 22 18 23 14 26 22 19 19 24 22 23 22 27 22 19 28 22 23 26 24 17 24 29 21 23 26 21 19 17 23 29 23 28 21 27 23 21 25 24 24 23 20 25 22 24 29 23 16 21 26 17 20 26 26 19 27 17 25 22 25 22 17 22 18 21 30 25 26 24 23 29 22 29 21 20 25 29 27 21 22 24 30 21 29 21 25 18 23 20 19 24 32 17 22 28 17 27 22 21 27 18 29 28 24 23 17 12 21 20 24 19 24 26 32 24 21 19 21 26 22 23 27 15 12 21 21 26 23 24 24 19 20 20 25 21 25 24 27 22 20 30 20 21 23 26 25 25 18 25 26 21 25 18 19 16 21 20 21 28 27 31 26 23 23 25 26 23 30 20 25 27 23 26 19 23 20 31 20 28 26 27 24 21 21 25 24 25 25 28 30 18 28 19 20 20 27 24 22 24 29 32 26 21 23 20 27 34 23 25 22 31 26 31 20 24 10 21 14 21 14 29 23 26 25 19 22 23 33 26 17 25 24 26 28 27 21 27 27 23 19 19 25 29 30 27 21 16 21 27 16 33 18 24 28 25 28 28 18 24 31 18 22 24 26 27 23 23 25 33 22 23 25 14 17 31 31 21 23 24 17 24 28 23 23 25 16 20 20 19 19 21 23 23 21 15 26 26 21 23 17 25 30 21 26 24 27 14 24 21 26 27 16 18 20 29 22 26 17 19 22 17 18 18 20 15 21 14 28 21 24 18 26 27 15 13 22 20 24 21 23 29 29 32 32 34 27 33 32 23 25 18 21 18 17 26 26 28 21 34 23 20 23 27 30 26 23 31 23 26 26 21 21 21 25 30 22 23 23 24 22 12 17 24 24 20 31 24 30 20 25 23 28 21 23 19 28 24 28 30 25 16 32 22 19 25 20 24 30 16 22 17 25 31 20 19 20 23 22 29 15 25 22 29 27 31 22 25 21 20 24 29 17 29 21 25 18 25 35 14 22 24 21 20 23 19 25 24 21 21 25 22 20 23 26 22 25 22 30 20 26 20 25 26 20 24 17 21 28 22 25 21 21 21 23 22 23 25 26 24 18 24 18 26 30 24 22 23 25 22 29 20 30 25 35 20 25 22 35 32 20 28 28 31 23 22 28 25 19 23 27 25 31 19 26 29 25 28 18 25 9 24 24 19 31 18 24 27 22 22 22 18 31 27 25 25 33 20 23 25 32 21 27 26 20 18 25 34 29 16 28 30 22 23 16 30 25 19 14 28 16 23 27 20 28 27 19 22 24 21 19 26 18 17 27 27 23 19 19 31 25 22 28 26 25 24 23 21 22 24 27 18 17 21 13 19 22 29 26 25 24 21 21 23 32 24 34 19 18 21 26 25 27 18 21 25 22 28 27 18 29 23 33 21 28 20 23 27 28 27 20 22 25 17 19 21 24 17 27 20 28 28 24 16 24 24 25 18 38 24 22 23 26 27 25 15 25 24 26 24 15 22 24 16 25 31 23 28 38 28 22 31 27 26 23 25 24 21 23 26 23 19 16 26 22 24 20 23 21 24 27 23 28 22 23 25 16 19 27 25 28 22 25 19 19 25 28 24 23 24 18 19 26 21 19 14 18 16 23 13 22 27 25 16 20 16 24 26 22 23 31 22 28 19 25 17 21 21 27 25 35 21 25 23 24 19 22 18 20 16 15 25 19 25 21 22 23 14 18 29 19 16 21 23 25 25 28 22 23 25 20 20 27 19 26 22 20 24 24 23 21 25 18 17 24 22 22 22 24 27 25 23 19 26 16 24 23 25 32 20 27 27 30 31 21 33 22 24 23 30 26 25 18 22 28 19 27 21 29 30 32 20 32 23 28 25 21 21 27 23 21 34 22 22 25 27 27 18 26 19 27 27 27 30 20 22 32 18 15 19 25 27 28 23 19 25 30 27 23 21 26 23 19 19 21 32 28 25 19 20 21 21 26 26 22 18 23 20 25 22 22 23 14 23 27 19 23 19 9 19 17 22 20 27 17 33 37 20 33 28 15 30 26 18 20 19 18 18 22 16 27 26 24 34 23 22 24 25 18 21 19 28 21 34 15 17 21 19 23 31 22 24 18 23 26 15 28 29 30 29 28 26 18 22 23 22 31 17 27 16 20 25 20 21 26 21 27 23 25 24 16 23 19 27 21 24 30 28 34 17 17 28 23 20 30 16 21 21 27 25 23 25 36 38 27 21 15 26 29 16 25 21 28 34 19 23 19 23 26 27 24 19 20 19 25 26 27 27 17 17 13 21 26 24 18 18 18 25 27 26 23 20 16 29 21 17 29 19 22 23 30 22 24 17 26 29 17 26 24 23 28 22 31 18 18 18 22 25 28 19 28 16 18 21 18 19 25 19 27 25 28 23 20 20 26 26 23 23 24 22 22 21 27 17 23 20 20 23 24 17 21 24 28 27 32 21 25 19 26 23 25 22 13 28 18 26 30 21 21 20 29 28 23 22 29 22 24 19 28 29 18 16 19 23 26 24 27 22 24 29 16 27 16 19 17 25 20 17 16 17 21 35 32 21 21 22 18 24 12 23 28 21 26 21 30 18 21 22 22 27 22 26 26 27 28 22 24 25 27 18 25 25 25 21 32 26 28 23 26 20 22 17 26 17 29 22 29 22 26 23 18 20 24 19 24 22 18 24 30 23 21 24 25 22 22 19 27 22 20 20 23 29 15 24 28 34 15 21 25 18 21 21 17 22 24 20 23 22 18 24 32 21 22 23 28 27 20 23 26 25 18 31 20 16 19 23 18 22 23 26 21 20 18 28 27 24 28 26 20 26 27 24 27 24 24 22 26 17 27 25 35 22 22 19 22 22 20 24 20 23 25 19 31 26 20 24 27 23 32 24 24 24 19 21 23 22 16 21 26 21 21 19 14 22 28 22 15 23 22 26 30 14 24 31 18 20 24 36 26 17 23 9 25 27 26 19 18 12 17 28 23 20 30 24 21 23 15 15 24 28 28 20 21 26 22 21 23 23 28 20 32 20 25 19 29 21 17 25 22 21 23 27 24 26 26 25 24 22 25 25 25 26 27 19 23 25 21 26 24 21 20 19 31 20 14 25 23 27 24 27 32 31 28 24 18 25 29 27 23 22 22 18 20 23 30 21 23 31 27 21 20 25 23 18 24 16 33 23 16 29 21 28 23 24 19 15 29 23 28 18 23 20 33 17 20 29 27 28 23 21 21 18 18 29 18 30 17 22 24 25 27 24 20 20 21 24 29 21 18 15 22 27 18 23 25 28 30 25 24 16 27 28 28 19 24 24 14 25 22 26 33 22 31 25 16 18 29 22 25 27 22 18 20 30 17 22 32 26 20 25 27 27 23 24 33 27 17 22 22 22 27 22 20 21 25 25 22 25 20 33 29 25 20 32 21 24 25 17 23 29 23 21 21 34 26 15 20 24 30 15 19 22 25 17 19 24 22 21 20 24 26 25 26 12 29 24 21 25 25 24 24 35 20 15 20 26 17 15 21 28 18 25 24 24 34 33 20 30 28 24 27 23 26 16 24 29 28 26 24 20 21 26 21 27 25 22 23 31 25 20 16 29 22 20 23 17 26 24 24 21 27 25 25 26 19 24 25 25 28 21 25 14 25 30 25 23 28 26 27 25 17 25 22 25 28 21 26 23 21 31 25 23 28 20 20 29 17 20 22 19 27 25 24 27 22 24 20 30 22 25 23 23 20 29 28 31 26 23 17 18 22 20 22 20 21 29 27 20 25 25 20 28 19 27 23 22 25 24 22 23 27 28 26 24 28 23 18 31 29 22 18 30 23 14 17 30 12 26 15 23 18 27 26 25 21 22 29 24 21 26 23 24 20 22 21 21 21 19 29 22 24 27 24 20 21 20 20 25 23 13 21 19 20 23 29 29 20 16 15 20 24 22 23 17 26 24 18 26 24 28 23 22 23 32 18 20 16 18 25 23 32 23 24 23 18 30 18 18 17 23 26 27 20 21 25 22 25 28 19 18 14 23 25 31 25 30 27 16 21 26 15 20 28 24 22 24 26 24 17 19 24 23 23 28 17 28 21 27 20 24 21 26 24 31 29 23 22 24 28 27 26 16 23 22 28 29 24 19 20 25 24 21 24 19 19 24 30 14 11 27 25 21 27 32 16 24 30 31 34 26 29 24 19 34 18 20 23 20 22 22 20 24 23 19 28 19 22 25 36 18 26 23 21 23 20 20 17 26 24 21 27 28 23 23 26 25 25 20 23 24 25 29 27 20 24 26 31 23 27 22 22 19 19 25 27 24 21 23 25 24 23 32 27 33 27 26 23 24 23 26 27 24 19 26 17 22 21 26 29 24 20 16 28 27 15 20 25 29 22 21 22 21 15 20 24 21 22 22 24 21 20 28 22 20 24 18 19 34 18 17 23 20 21 19 23 28 17 25 23 32 24 20 32 28 32 25 33 24 19 25 22 28 27 25 19 29 25 22 18 27 27 19 32 19 17 24 23 19 26 21 30 22 23 25 25 26 26 24 34 23 27 23 23 21 24 15 19 20 23 19 25 17 20 20 10 20 22 15 25 24 32 23 20 19 27 25 15 22 25 23 26 27 22 31 18 19 25 33 18 18 28 15 25 22 25 25 22 18 23 26 19 24 23 16 21 26 21 20 22 20 22 17 23 29 26 23 20 20 22 17 18 19 21 16 25 19 20 31 26 20 24 24 17 19 24 31 30 22 26 21 26 27 21 26 31 15 18 24 17 25 30 22 21 25 34 13 30 27 21 24 32 23 19 22 21 22 24 25 23 25 21 16 25 29 23 26 21 29 29 24 22 25 16 25 29 26 24 27 26 27 24 22 23 26 26 28 18 26 18 32 22 21 23 24 29 23 23 21 26 29 26 20 27 29 28 24 26 24 16 20 22 24 22 26 26 18 25 23 21 25 23 23 28 13 23 20 19 30 25 26 25 18 19 24 30 21 33 22 23 19 27 23 21 30 22 20 19 31 22 25 23 24 26 23 25 23 22 21 25 27 18 28 20 32 31 17 25 19 23 20 19 28 19 21 15 21 24 21 14 17 25 26 26 19 15 22 17 23 18 18 19 14 14 24 27 20 24 31 28 24 25 29 27 28 19 25 21 19 16 14 18 38 24 18 27 34 18 26 20 17 27 20 22 28 15 16 25 19 17 25 25 27 22 31 29 28 19 26 28 18 29 18 17 20 29 27 22 28 25 29 21 19 26 30 29 23 23 22 24 15 32 22 28 24 27 22 22 25 24 24 18 20 17 19 25 26 22 12 20 20 19 19 26 25 23 21 22 31 22 17 18 23 24 21 20 23 22 22 30 21 25 28 15 32 21 19 16 19 22 18 25 23 25 15 24 23 23 23 21 26 26 25 17 23 19 19 23 16 25 24 25 22 20 30 26 26 20 19 15 17 24 19 21 27 22 18 27 18 19 23 19 25 24 23 28 18 23 25 19 19 18 27 24 25 23 25 23 18 24 19 19 26 29 14 26 18 17 26 18 24 23 23 31 27 22 15 26 23 28 25 27 25 20 21 26 29 31 22 34 28 25 19 22 32 22 27 13 15 23 23 21 26 24 24 20 22 24 18 22 24 24 26 24 28 25 23 33 19 19 26 29 24 19 23 20 24 23 27 29 23 23 20 22 18 17 21 24 29 22 20 29 19 22 14 23 20 18 20 27 27 27 29 26 24 18 24 29 27 26 25 23 28 32 28 25 13 22 16 21 27 27 24 22 16 35 27 20 25 25 31 27 32 31 32 21 26 23 23 23 30 28 18 22 24 19 28 28 26 27 33 25 21 27 23 31 19 25 27 22 20 20 23 23 22 19 17 31 20 24 21 21 23 28 28 28 33 27 22 21 21 23 16 22 26 27 22 26 33 22 20 33 19 24 21 29 23 25 19 33 16 20 26 27 28 23 20 18 16 21 28 17 26 18 25 18 26 21 26 28 20 25 21 14 25 18 22 19 23 18 22 30 18 19 23 22 19 24 19 15 22 28 33 18 25 26 31 19 26 20 25 26 21 19 25 22 22 32 25 26 22 23 16 35 21 25 21 17 22 25 28 20 25 19 21 18 26 34 25 20 18 16 28 29 22 21 31 24 26 23 24 27 23 24 11 26 26 16 27 11 22 26 27 30 27 21 23 22 35 25 24 23 18 23 26 25 19 29 28 20 23 24 18 28 34 21 18 24 32 22 22 23 17 20 22 23 21 21 27 25 22 23 29 24 21 27 24 33 17 17 26 24 25 30 31 33 20 23 21 20 20 17 26 21 19 26 30 22 27 28 38 25 28 21 34 26 21 12 33 20 32 19 29 26 22 20 24 23 21 30 24 26 28 25 23 20 22 25 20 30 25 19 27 12 21 25 25 24 23 25 19 27 21 22 16 24 17 21 16 23 24 23 25 23 27 15 20 33 27 23 24 23 32 20 27 16 21 23 31 30 26 24 19 17 23 35 26 31 28 17 26 27 31 23 22 23 18 27 31 22 19 21 23 27 25 18 21 26 25 24 22 21 20 18 20 24 33 21 20 18 27 27 22 22 23 32 24 30 24 26 20 26 25 18 20 21 26 24 27 15 25 23 20 30 24 28 19 20 23 23 34 20 23 21 29 28 21 24 26 26 25 17 23 23 18 26 16 17 30 24 27 19 21 18 23 31 19 19 24 32 21 15 22 36 28 19 31 28 26 23 29 18 26 26 20 25 22 32 21 27 22 21 15 22 11 27 19 25 25 28 27 23 23 29 28 24 22 22 24 22 28 16 16 21 27 20 15 28 16 28 19 24 23 34 25 14 18 27 14 18 21 28 22 20 30 25 20 22 26 27 25 26 34 23 21 31 24 23 10 31 25 25 27 26 18 22 25 26 22 29 27 27 21 20 21 27 29 27 27 24 32 28 26 30 23 28 27 22 19 23 23 24 25 23 23 29 26 26 23 29 18 22 30 36 21 26 28 30 19 18 20 24 21 19 20 21 17 25 17 23 20 21 26 20 20 24 24 30 23 27 24 22 17 23 26 22 34 30 23 21 17 16 29 20 22 24 27 26 26 18 24 32 14 18 30 27 27 36 22 28 23 27 25 23 20 16 19 25 25 24 24 20 31 27 27 25 24 25 15 16 26 28 20 21 26 29 26 26 21 23 22 23 29 31 25 18 27 24 22 28 22 15 24 26 20 19 29 28 29 18 24 30 14 17 16 26 15 22 15 14 24 33 14 20 24 24 19 26 15 23 24 18 21 16 24 25 24 23 25 24 25 24 12 21 15 20 24 22 26 27 26 23 16 23 29 20 29 24 22 21 17 18 23 16 21 21 25 14 29 31 23 22 17 25 24 22 15 21 23 25 21 33 24 15 23 24 29 27 27 24 23 28 20 15 24 21 26 26 21 17 31 16 37 27 34 20 25 18 18 17 20 25 21 25 19 33 23 24 25 21 15 26 24 32 21 23 27 23 21 21 25 29 23 26 17 18 26 25 31 25 26 24 23 21 25 24 24 28 18 20 21 21 23 17 23 30 19 25 17 23 30 12 23 26 19 26 23 14 20 30 26 22 30 22 23 25 24 13 33 29 28 16 26 21 15 23 21 23 20 27 27 24 26 22 22 31 26 21 23 25 18 22 22 24 25 24 23 25 23 20 21 22 25 19 18 16 21 31 26 24 29 31 14 23 23 24 23 27 26 20 20 22 23 18 26 23 22 32 30 18 25 22 20 21 16 27 16 19 22 21 24 24 27 18 18 22 20 20 25 18 35 29 19 24 20 24 27 19 24 11 29 22 29 20 22 28 18 16 27 27 27 31 26 16 20 19 19 25 27 32 20 25 21 22 26 21 22 26 28 20 20 20 29 23 24 26 21 29 23 24 24 30 20 22 15 16 24 24 25 21 15 18 24 20 28 23 27 24 22 16 18 23 24 26 11 16 20 24 15 32 24 26 15 31 19 19 22 23 27 22 22 21 20 24 28 21 26 23 22 28 26 25 25 30 21 23 30 17 18 22 32 21 23 25 23 18 16 21 27 28 35 24 34 28 25 24 20 31 18 26 13 27 24 26 22 17 22 16 19 21 32 21 26 23 17 24 21 26 24 22 24 16 29 21 28 17 26 19 27 22 33 14 14 24 27 21 19 17 27 26 29 19 27 23 24 20 29 23 20 20 21 25 16 20 22 28 18 21 28 28 20 24 21 22 20 31 26 21 23 17 32 24 22 26 34 23 22 25 25 18 27 22 18 27 29 21 27 23 22 22 27 16 18 33 23 26 20 25 21 29 12 25 24 23 25 22 29 25 23 24 21 30 23 15 25 21 18 20 20 24 28 17 24 24 25 26 28 25 26 22 12 29 28 14 24 19 25 25 21 20 23 27 25 23 31 22 18 28 21 19 19 32 21 23 30 27 25 22 25 13 29 24 25 23 26 18 28 24 24 27 29 22 19 30 22 22 22 22 22 25 24 24 21 23 27 17 24 18 15 29 20 18 21 24 24 23 17 28 15 27 20 27 21 18 19 26 26 25 27 29 19 21 24 30 20 29 27 25 22 20 26 29 28 26 16 30 20 18 30 22 26 19 22 31 22 19 17 27 20 24 20 19 23 28 19 18 25 28 17 23 21 23 22 24 24 21 16 22 22 17 19 19 29 27 18 23 21 32 21 27 18 30 22 18 32 21 24 25 18 20 20 17 27 31 21 21 22 22 25 26 22 22 24 21 26 24 20 15 21 22 30 27 18 17 19 22 28 20 15 23 21 16 26 24 20 28 23 22 24 15 22 16 29 19 16 21 21 19 30 18 15 25 25 27 23 25 19 24 26 26 27 18 17 28 19 22 28 19 27 30 21 29 25 27 23 29 26 24 25 28 18 24 27 24 20 22 25 24 27 25 15 27 23 25 29 23 22 21 12 19 15 20 25 25 18 25 14 24 31 23 24 19 26 23 25 23 19 25 19 24 26 27 23 26 28 33 21 22 21 29 25 20 25 24 18 23 30 26 17 11 23 21 18 20 29 25 20 18 23 26 24 31 24 32 17 21 23 20 25 24 33 25 19 18 25 28 14 24 20 20 24 19 21 23 19 20 21 23 27 27 19 24 25 21 24 22 28 26 31 29 30 24 20 29 24 27 26 26 20 21 31 39 27 21 21 27 22 38 18 26 23 29 26 27 28 25 20 21 24 28 23 19 25 24 32 29 26 18 26 22 22 20 22 25 22 26 22 19 15 32 15 21 21 28 24 25 22 35 26 27 31 19 21 19 14 22 13 18 23 18 29 23 23 18 24 25 20 26 19 31 20 24 24 34 26 33 33 22 24 18 28 23 20 25 29 26 24 22 18 21 16 18 24 31 21 15 26 24 34 24 30 28 29 27 25 23 25 24 21 19 24 19 26 12 23 22 27 20 20 28 23 21 13 24 21 28 17 24 22 24 21 22 24 19 23 26 20 25 25 24 28 20 24 34 21 24 25 20 33 21 26 31 20 23 29 22 19 22 20 31 19 21 19 21 27 19 22 24 29 21 21 23 17 23 23 16 19 24 15 34 28 22 20 28 19 30 29 21 28 21 22 27 20 29 18 31 29 25 25 25 16 17 28 24 22 25 18 29 21 27 19 26 24 31 25 20 21 30 19 26 31 28 28 23 23 22 27 29 20 19 24 30 16 26 31 19 20 23 22 27 23 25 31 14 25 16 24 16 13 22 20 16 28 33 29 23 26 14 23 26 18 26 27 26 21 31 34 22 19 23 24 28 27 29 18 24 21 28 19 19 28 31 22 23 17 18 26 20 17 30 18 22 29 27 17 29 22 27 29 26 23 23 25 20 30 19 23 21 16 22 24 25 33 26 32 26 22 20 31 23 27 15 21 25 23 18 26 24 15 29 23 28 22 23 21 20 18 19 20 30 31 18 25 24 20 27 26 30 25 27 27 24 32 23 21 18 15 15 23 15 24 29 25 13 22 17 26 25 31 23 29 23 27 13 23 19 20 27 23 24 23 32 23 21 24 26 30 24 21 20 19 19 15 24 22 20 26 21 16 25 28 20 24 31 23 36 25 25 21 19 27 23 20 26 20 30 23 16 24 22 26 28 23 19 27 27 20 19 18 28 30 21 23 20 22 23 25 23 28 27 27 23 22 26 25 12 31 21 22 26 23 30 22 25 24 22 17 15 26 30 28 27 21 21 19 22 30 20 24 20 29 18 22 20 21 27 13 11 19 21 25 23 20 24 31 30 17 22 30 20 20 27 20 29 24 22 21 24 20 28 25 21 25 21 25 19 19 23 19 26 22 24 22 20 25 18 24 23 22 27 26 22 21 28 20 24 19 19 25 25 18 28 19 27 27 19 23 29 24 27 32 26 21 29 22 27 21 15 22 24 32 21 21 24 20 24 28 25 24 24 20 22 24 19 20 23 27 17 19 20 20 26 22 27 27 18 25 26 20 26 18 25 27 21 19 25 25 22 22 18 19 16 24 13 28 27 29 21 25 22 18 30 14 32 19 27 22 25 20 17 22 23 22 27 22 24 26 22 24 25 25 21 19 26 27 19 18 19 27 26 21 32 22 22 23 22 18 15 22 15 27 19 21 25 33 21 24 21 34 17 21 28 24 21 29 21 32 19 27 22 27 23 23 29 22 25 22 27 29 19 23 24 27 23 22 25 25 30 28 28 13 25 22 21 22 25 29 28 17 20 26 25 24 24 25 24 21 21 27 25 16 22 25 21 25 23 21 23 19 24 16 28 18 30 22 27 21 15 21 27 18 22 31 21 28 27 22 27 20 22 22 26 18 24 26 17 27 26 26 27 16 23 26 22 18 26 21 16 23 27 23 12 19 20 19 23 27 29 25 22 20 26 27 22 24 22 24 27 19 27 23 21 27 24 24 25 19 27 21 31 23 29 18 26 26 28 24 23 19 22 25 23 24 21 21 27 26 23 16 25 16 20 27 20 21 30 11 22 21 28 25 33 28 22 27 25 23 23 25 25 21 21 25 24 24 21 24 24 24 26 21 25 29 18 25 26 20 20 16 20 26 40 22 17 22 28 34 29 26 19 26 16 27 28 29 20 24 24 20 28 23 27 22 23 27 27 20 23 30 22 26 27 28 17 31 30 20 21 17 25 24 19 15 23 21 32 30 32 19 20 26 17 15 21 26 22 21 19 19 33 23 17 22 19 23 21 14 32 28 26 24 24 25 22 20 27 15 28 12 21 19 24 22 24 19 27 24 23 30 26 20 26 28 22 32 18 28 20 21 26 26 18 20 26 25 17 30 26 27 29 23 31 15 27 20 23 30 31 20 19 21 16 25 19 20 18 21 28 25 20 19 22 25 32 29 28 19 20 26 24 26 16 29 22 25 27 25 26 20 28 17 19 22 20 20 25 22 24 29 26 27 22 21 23 27 25 22 22 24 16 30 32 18 27 25 24 23 22 33 19 26 26 25 26 17 25 28 23 27 33 20 25 24 20 25 25 28 20 16 22 21 24 30 25 20 27 24 25 28 30 16 31 24 22 22 28 20 21 19 21 23 29 19 26 27 25 23 25 26 21 21 27 25 21 31 16 26 20 20 21 22 29 23 18 29 25 24 25 24 27 31 22 22 24 23 30 23 24 25 28 28 21 27 20 22 23 17 20 27 37 21 28 19 23 26 30 30 31 21 23 26 21 16 24 30 24 21 23 21 29 24 28 23 24 23 17 22 35 30 23 21 22 22 24 22 28 22 19 31 23 26 31 17 22 24 26 25 20 24 26 25 22 23 28 18 18 25 27 31 20 15 22 22 23 34 31 23 23 21 21 19 29 27 16 22 35 20 28 27 22 23 20 28 20 20 33 31 25 25 16 28 27 27 25 22 23 33 21 21 25 24 23 27 29 30 23 29 21 23 28 36 23 22 29 19 21 20 28 24 25 16 24 25 21 27 28 21 31 27 21 19 20 32 28 18 23 25 20 27 29 27 28 24 29 20 21 23 32 26 23 18 19 19 26 24 14 20 17 21 14 17 28 15 27 24 25 16 15 23 17 28 15 20 34 24 31 23 28 22 20 17 20 19 19 26 24 18 27 22 30 22 27 21 21 27 17 19 30 24 25 21 25 18 27 20 25 23 17 26 26 17 24 22 21 27 22 17 28 23 25 24 24 20 26 20 26 26 23 26 27 27 22 20 25 21 18 32 19 19 15 19 28 26 23 16 18 24 19 34 30 26 21 27 32 24 19 27 16 20 21 25 23 26 19 24 21 28 14 28 21 26 16 14 19 26 13 26 20 25 20 21 28 19 25 20 25 26 23 28 24 31 28 25 21 24 17 24 16 18 28 29 21 27 18 22 21 23 25 19 34 18 23 22 28 30 19 30 23 11 21 26 31 18 20 32 17 26 32 28 25 15 18 12 26 25 18 23 24 23 20 17 29 24 21 21 20 27 26 21 26 25 26 21 31 26 19 12 23 26 26 30 19 18 21 19 20 21 16 24 28 20 26 19 17 27 26 24 23 25 17 16 28 25 25 32 30 19 21 25 27 27 28 30 26 21 28 33 26 22 28 25 17 19 25 24 28 19 20 20 19 21 29 18 25 28 27 22 24 25 18 25 25 21 15 28 27 26 27 23 22 19 24 22 20 22 20 26 19 29 18 24 26 15 15 22 22 25 26 24 21 26 23 20 20 27 29 25 29 24 30 16 22 32 32 23 16 22 32 22 23 20 24 24 20 20 17 29 19 25 22 27 19 24 26 26 25 24 28 23 27 30 22 26 19 27 24 27 24 26 25 23 25 23 15 22 21 20 32 16 31 17 18 19 24 24 22 24 25 22 26 31 31 19 21 26 8 28 23 26 22 34 20 22 22 26 29 19 30 21 24 25 22 23 22 28 29 24 23 19 17 17 18 29 18 20 25 36 26 24 24 17 18 12 18 21 21 18 23 25 28 21 31 20 30 18 27 25 18 24 16 28 21 20 24 23 23 23 25 13 27 24 24 20 23 29 25 21 17 32 21 30 19 29 26 22 27 28 32 20 22 21 27 24 19 18 26 26 23 31 28 31 32 16 21 23 30 16 25 20 26 25 21 20 27 25 19 27 28 13 26 27 18 18 27 17 17 24 26 19 20 17 25 23 17 22 15 14 23 27 26 19 18 22 23 28 29 22 22 26 29 27 24 26 19 20 27 29 18 30 21 26 24 21 19 25 22 31 36 19 25 19 22 22 28 23 23 24 19 23 24 19 23 26 28 24 20 17 31 18 22 29 22 22 22 31 27 20 22 17 22 17 30 26 32 26 22 19 17 15 23 29 24 23 19 19 23 26 23 27 23 22 25 24 19 16 21 29 21 31 25 23 21 27 18 17 22 27 28 24 31 26 23 30 19 22 26 27 25 20 23 20 25 21 20 23 18 21 23 19 29 30 24 22 20 23 28 30 22 23 22 24 28 29 21 27 15 24 27 18 17 23 22 21 13 20 21 20 28 23 25 21 26 23 27 28 27 25 19 15 22 19 21 27 22 27 21 22 18 24 20 25 20 28 22 24 26 23 21 21 25 21 26 22 13 24 22 25 19 21 19 18 23 21 24 21 22 28 26 22 19 23 23 31 17 22 20 23 19 22 25 25 19 28 30 22 31 27 20 30 20 27 23 17 20 23 18 18 20 30 26 23 24 20 24 16 22 16 32 21 26 21 22 25 23 20 14 19 16 19 29 26 18 28 19 27 19 30 17 20 27 30 22 23 23 23 27 21 27 26 30 23 15 20 17 27 23 27 23 29 25 22 22 35 19 15 22 29 32 28 24 22 26 26 27 32 27 20 25 29 18 16 27 25 25 25 20 27 24 22 28 19 19 29 35 17 13 18 20 28 23 21 25 17 26 20 24 24 16 24 21 29 21 22 21 25 22 22 27 24 22 25 28 17 28 15 26 28 23 26 18 21 29 26 21 19 28 30 27 15 21 20 23 26 19 23 29 30 25 29 19 20 20 15 28 19 22 21 20 17 37 21 24 24 21 22 25 27 26 21 29 16 25 22 20 24 25 17 21 27 26 20 27 18 19 23 29 23 21 14 24 31 20 28 24 20 23 24 22 28 13 24 16 27 26 21 22 26 17 15 23 37 25 17 26 28 32 32 23 37 15 21 23 23 20 32 22 22 19 22 24 21 24 21 30 19 23 23 37 22 21 32 21 24 27 37 21 17 15 28 15 24 24 29 23 11 22 20 31 21 27 25 19 20 22 25 22 23 17 27 21 27 25 25 21 23 20 21 27 21 24 25 25 25 25 22 23 21 23 17 17 19 15 30 17 27 17 22 22 20 28 23 20 19 24 24 23 26 19 21 24 24 33 31 21 19 15 16 20 24 31 23 21 20 23 27 20 28 28 29 30 23 24 18 30 14 30 14 27 22 24 25 23 13 14 18 30 21 37 18 24 28 24 25 29 29 20 22 18 24 28 19 27 23 18 27 28 23 25 25 27 26 28 20 16 18 26 27 17 25 32 23 22 23 27 17 18 21 20 25 16 31 28 26 24 32 37 20 24 24 23 33 20 23 20 28 22 18 25 22 21 20 24 16 24 26 30 20 23 25 28 22 27 23 23 32 34 25 29 24 20 22 23 24 21 21 25 25 21 31 38 17 24 30 29 15 21 17 22 25 26 26 24 22 25 21 13 21 25 20 22 19 25 26 27 24 25 21 23 27 19 29 24 25 19 34 26 18 22 22 27 26 18 33 14 18 27 27 20 27 18 29 25 31 18 22 18 24 22 29 28 27 25 24 20 14 31 24 19 22 24 26 18 27 25 24 23 24 27 29 20 26 28 23 26 21 16 21 24 28 26 37 34 14 19 19 18 26 23 21 24 21 23 26 16 23 25 26 25 26 25 24 28 24 19 21 23 21 23 27 30 17 31 20 24 25 25 28 27 24 26 31 25 22 32 21 30 21 18 22 30 21 21 24 22 23 26 24 18 26 20 19 20 16 26 25 24 26 22 20 24 20 23 20 25 22 26 16 20 23 18 27 27 30 26 25 21 25 25 22 23 21 24 23 30 19 18 19 23 27 19 21 18 22 26 23 28 30 21 21 24 25 28 25 26 20 17 25 22 18 22 30 15 27 21 23 22 23 19 26 29 21 21 18 24 17 24 19 19 26 29 24 20 26 23 24 22 19 24 18 22 29 20 26 27 24 18 26 20 19 26 21 20 19 19 20 21 23 31 15 26 24 20 18 18 23 30 19 22 17 26 26 20 29 18 31 26 25 26 20 25 22 27 25 16 27 16 24 20 27 23 18 19 24 28 22 22 29 30 25 27 22 23 26 31 20 23 17 21 26 18 19 24 30 30 22 24 30 23 27 21 30 25 25 27 21 27 19 26 22 18 32 27 21 25 25 15 23 24 17 17 18 21 23 21 21 22 22 28 25 22 26 19 18 19 24 19 18 18 27 18 26 25</t>
-  </si>
-  <si>
-    <t>EXN(0.4891639637932496, 32.90025084007807, 5.24743708745503)</t>
-  </si>
-  <si>
-    <t>35 36 33 29 45 37 43 45 41 27 50 29 33 40 35 26 43 37 29 32 38 38 38 27 27 42 38 45 25 32 36 33 39 33 28 29 41 32 33 48 34 33 36 27 33 36 32 30 29 38 28 41 36 38 38 30 32 38 32 32 40 27 41 35 38 28 31 36 34 37 34 42 30 34 35 34 43 32 40 36 34 32 28 46 41 33 36 35 41 39 42 33 31 34 34 39 46 41 37 35 36 26 42 39 36 34 48 33 44 31 33 29 32 44 27 36 35 28 50 31 38 30 61 42 39 41 36 37 41 36 37 31 34 34 32 30 22 36 33 29 36 23 36 32 37 29 44 35 32 29 52 37 45 45 29 37 30 33 39 29 32 31 40 33 27 32 31 28 38 38 42 45 38 33 34 30 38 33 49 37 31 36 28 37 35 37 41 29 33 31 41 38 38 35 34 40 41 48 33 34 29 33 33 34 38 32 44 41 32 31 32 41 31 33 34 33 33 42 31 41 35 39 33 33 42 29 34 31 33 40 43 38 44 31 41 32 31 37 35 35 38 30 40 36 36 33 47 51 31 31 31 43 26 40 38 34 34 32 39 32 30 29 45 44 31 44 38 30 40 30 41 34 38 36 40 34 44 34 42 41 27 27 47 27 37 27 33 35 32 36 49 33 41 38 43 38 31 29 46 42 33 38 44 36 41 29 39 35 26 50 36 31 30 32 41 37 40 20 31 44 43 33 29 37 29 34 31 32 41 41 30 36 38 40 32 27 43 28 38 26 31 24 34 47 38 34 38 32 29 44 42 33 36 39 28 29 29 35 43 41 28 28 37 27 38 48 36 39 33 45 29 41 30 30 30 45 33 28 27 35 41 46 49 29 32 44 43 33 29 27 30 35 34 43 40 35 32 30 28 34 35 26 30 33 26 37 32 35 30 41 45 36 37 36 35 23 46 38 43 38 41 37 41 33 50 40 31 36 44 38 22 34 32 38 37 41 35 48 37 24 31 32 44 37 28 38 32 41 41 40 28 38 38 36 39 34 31 33 37 35 44 28 35 35 37 29 32 26 30 28 35 34 40 33 36 32 46 30 38 29 35 45 32 39 27 28 36 47 33 41 46 26 31 35 42 39 34 25 34 36 38 33 20 32 38 38 37 44 39 31 45 38 33 35 40 51 33 42 35 36 40 31 31 28 34 33 38 38 49 30 33 34 36 33 47 35 42 35 37 28 46 29 38 39 37 29 27 31 35 33 37 29 33 40 44 33 39 41 41 45 43 43 27 33 31 54 33 39 38 31 33 32 31 44 43 42 36 31 35 44 38 35 42 31 41 19 27 39 36 33 33 34 36 36 28 38 30 30 27 44 39 31 45 23 26 36 42 25 41 31 31 44 41 37 31 35 37 29 28 31 34 31 42 41 35 28 39 36 35 31 36 34 36 33 48 33 37 36 38 41 29 46 38 34 36 35 29 36 22 31 39 28 34 37 44 34 35 41 40 35 31 47 40 33 38 38 32 36 41 25 39 33 38 34 39 36 38 39 30 35 35 34 37 26 27 35 34 36 34 26 44 45 40 38 37 27 40 25 31 58 37 38 17 44 31 40 38 33 40 46 39 30 27 33 26 46 40 38 35 39 47 38 32 32 35 30 37 37 32 40 26 28 34 38 29 40 47 29 45 37 43 34 27 38 34 36 32 35 26 34 36 36 41 34 43 37 34 32 36 41 45 32 47 33 39 44 37 37 26 27 31 32 40 36 35 41 36 34 36 40 28 46 46 30 30 42 34 39 44 35 36 31 28 45 37 38 37 54 37 40 32 34 38 36 34 28 31 27 37 41 35 35 31 38 46 48 22 39 33 36 46 34 41 35 34 35 38 30 43 48 30 40 41 36 29 26 33 39 22 38 22 30 32 24 36 38 42 34 38 33 36 36 31 33 34 39 32 30 50 33 24 33 42 36 40 39 35 41 31 41 37 40 35 39 31 43 46 41 25 38 30 30 33 42 33 31 40 41 45 43 32 42 33 44 39 33 45 29 43 41 38 34 32 42 46 23 43 35 49 40 31 33 35 29 28 29 35 37 30 48 51 32 29 40 35 31 28 39 34 35 48 44 38 36 35 26 35 31 34 36 36 46 36 35 31 37 37 53 22 38 30 29 37 32 23 39 38 29 36 40 37 40 33 38 25 41 23 37 32 47 36 34 45 31 38 34 34 37 38 45 44 56 34 40 23 29 31 34 36 34 33 41 37 43 34 34 47 39 41 31 36 36 37 34 34 32 41 33 31 35 40 39 42 35 27 38 30 33 35 31 31 30 29 40 39 41 40 30 32 37 35 39 38 44 32 28 31 32 30 34 25 38 27 35 32 37 36 42 36 28 23 35 38 42 45 30 28 30 43 38 34 42 52 29 40 46 40 39 33 35 41 28 35 31 31 43 34 35 34 47 40 38 33 38 28 33 26 37 34 40 36 39 36 44 47 38 40 38 33 32 39 43 33 35 31 36 38 45 36 40 35 35 36 34 32 39 30 39 28 29 30 31 45 32 39 29 23 21 36 43 48 36 36 34 38 38 33 34 28 37 35 35 35 30 38 39 34 38 38 34 44 25 38 31 29 30 29 40 35 27 40 42 34 37 45 43 34 28 39 26 41 40 37 38 41 34 44 35 37 34 40 38 35 30 37 31 36 42 34 30 33 33 36 37 36 34 33 42 38 32 29 41 32 41 38 42 38 27 37 44 37 39 39 38 42 38 29 34 35 33 33 28 31 35 46 44 47 40 31 35 32 38 33 37 33 25 27 41 46 37 45 41 28 33 20 31 30 44 37 39 34 37 43 37 36 28 37 41 51 34 39 26 30 38 32 20 34 38 31 45 36 32 39 35 30 37 42 35 35 40 24 34 33 28 41 33 24 40 35 35 37 43 31 33 33 29 39 42 26 31 47 31 31 39 35 38 35 33 28 33 32 23 44 33 32 34 38 37 36 45 31 38 33 41 33 40 36 45 48 30 31 37 39 38 40 38 33 38 25 47 44 37 31 38 32 33 33 35 28 39 41 34 33 31 35 37 34 32 44 30 44 33 33 39 36 37 32 42 39 35 27 30 36 27 39 35 37 33 26 33 29 36 35 37 37 40 32 43 33 30 25 38 29 34 36 31 29 31 31 32 21 29 28 42 26 28 44 38 51 34 32 33 34 29 43 45 29 37 46 29 37 30 33 33 36 33 34 42 37 43 26 42 37 31 32 40 38 34 41 45 32 38 28 29 45 31 40 40 30 33 30 24 35 28 45 32 34 27 37 42 28 32 25 31 37 35 41 36 41 26 38 28 28 40 40 35 36 30 42 33 32 36 27 34 33 36 27 42 27 38 42 37 47 35 41 31 33 34 39 27 29 40 40 33 26 37 34 34 31 34 27 39 34 33 28 44 37 42 38 35 29 46 40 45 28 24 31 35 35 38 45 33 32 29 38 41 32 37 35 38 38 26 31 32 32 38 39 39 24 45 43 40 47 30 42 35 43 35 47 37 41 29 34 37 48 43 40 36 42 51 38 35 43 47 39 38 37 44 52 26 36 35 29 31 28 36 39 43 36 30 43 36 34 43 35 47 23 41 24 35 39 35 40 42 40 32 32 40 45 33 26 40 41 27 37 45 36 39 37 40 32 33 41 35 38 32 32 37 38 33 32 45 24 37 54 32 36 40 43 30 38 34 30 36 35 32 42 43 49 40 39 39 38 43 34 30 39 48 46 36 37 34 23 39 35 47 37 30 35 45 45 36 42 40 42 32 39 36 46 23 30 36 41 35 28 23 39 36 45 36 35 38 28 36 50 34 33 42 32 30 33 30 36 35 48 34 32 28 43 36 39 33 25 30 28 36 41 37 31 36 45 42 31 32 41 42 45 38 32 35 32 39 33 31 40 38 38 37 31 38 37 34 39 35 41 32 28 25 37 41 32 34 31 35 34 32 31 31 35 43 46 33 32 36 30 31 32 43 35 32 36 32 34 37 29 41 39 51 29 28 38 34 37 29 32 34 39 48 40 37 44 43 40 34 37 29 36 36 32 29 47 42 28 35 34 37 30 36 36 30 37 39 25 37 41 42 31 39 26 39 38 40 40 43 34 33 24 45 33 25 36 43 33 30 41 32 36 31 27 49 37 38 44 36 29 29 33 30 37 19 34 35 40 47 39 41 36 33 32 26 27 32 27 31 33 39 50 40 21 37 39 28 20 45 44 25 43 33 37 35 38 30 31 37 42 28 37 35 31 40 33 37 38 35 33 41 28 40 37 37 37 29 43 41 41 47 36 23 35 28 33 43 39 31 31 36 38 26 38 40 38 46 37 37 31 40 26 31 39 36 34 30 36 33 43 27 27 39 30 43 33 41 33 39 39 34 32 41 39 30 33 30 31 36 39 42 31 36 41 48 42 33 38 42 33 33 39 40 50 27 38 34 24 42 26 47 42 32 34 27 36 35 44 34 34 32 32 31 34 40 35 42 30 30 37 31 39 37 26 37 34 44 25 33 35 31 37 34 33 29 28 38 38 38 42 40 32 27 34 46 39 27 25 38 36 29 36 34 40 27 39 47 36 32 36 36 32 43 38 36 34 32 33 34 40 34 26 35 34 33 32 34 39 44 28 35 41 35 27 32 36 36 38 40 35 25 38 32 52 38 37 29 28 43 29 38 31 41 46 35 37 29 36 36 42 43 25 37 31 39 22 38 31 37 34 34 40 44 36 26 29 41 34 31 27 26 28 42 33 25 38 38 38 27 33 27 33 32 42 30 37 35 30 44 39 38 37 27 39 39 43 28 37 34 36 36 36 37 27 35 44 38 32 35 39 43 28 39 38 29 37 43 31 40 33 30 46 39 35 23 35 34 37 38 43 33 34 37 38 29 25 27 46 38 46 35 31 27 22 33 40 32 36 29 30 29 39 31 33 48 32 32 34 37 33 36 28 36 39 27 45 30 43 32 40 32 48 30 31 36 31 37 36 42 32 35 42 35 39 43 28 32 37 32 29 30 34 32 47 35 24 33 38 46 43 33 34 34 28 37 39 34 30 40 30 29 35 33 32 38 49 37 41 40 35 27 41 25 42 31 41 39 30 33 34 40 36 37 37 28 40 39 44 45 47 51 36 36 39 37 48 34 42 31 47 47 31 43 37 26 39 32 30 26 39 39 36 33 51 24 34 28 44 29 38 31 29 36 41 39 30 37 34 37 22 25 44 31 37 33 26 39 29 33 40 38 39 25 39 42 34 37 42 28 29 37 29 33 25 43 24 31 39 31 38 29 25 31 31 47 41 34 37 25 28 38 39 28 28 23 29 31 38 31 33 29 44 50 31 30 32 46 38 28 41 36 39 32 31 40 39 50 38 28 47 36 35 31 31 28 33 42 31 26 33 40 45 35 36 34 27 34 49 32 30 31 29 35 35 37 23 39 44 32 37 28 47 36 42 37 25 53 37 26 37 39 38 25 41 38 30 30 42 32 33 26 40 35 27 37 25 33 34 40 33 38 39 33 46 37 37 37 36 48 34 34 36 38 33 39 41 37 31 42 29 44 35 29 43 31 36 30 33 37 32 28 38 42 28 40 33 48 44 37 35 30 27 43 26 37 30 38 38 30 35 37 30 33 38 32 25 33 35 46 45 34 34 45 43 35 30 30 39 28 42 37 46 35 38 33 35 38 42 30 38 25 26 36 40 35 42 35 40 36 44 40 28 29 37 38 34 34 44 36 39 33 37 38 27 35 35 32 30 36 35 29 42 26 24 27 31 37 29 30 27 42 31 45 29 37 48 39 36 41 37 35 36 36 43 35 41 38 37 38 43 32 33 34 35 37 44 29 43 36 34 44 42 40 32 34 38 26 36 37 28 37 36 42 29 38 43 33 34 37 31 37 33 28 33 44 37 33 30 29 29 48 38 32 30 37 37 35 40 42 35 30 38 37 40 39 34 42 42 40 38 35 29 44 33 31 34 40 26 34 30 38 23 40 35 43 48 34 35 28 38 46 37 27 32 41 28 42 31 38 44 25 26 38 33 24 40 37 42 36 31 41 34 38 39 39 41 30 34 32 39 30 38 35 38 39 47 34 31 41 42 36 33 41 30 36 36 35 46 37 30 31 26 35 37 38 33 43 38 35 41 39 39 29 41 30 39 30 35 34 21 40 27 37 26 31 31 35 40 38 37 28 29 44 33 48 35 30 29 41 43 43 25 36 34 38 30 42 35 32 36 31 37 29 23 26 31 30 37 34 37 27 35 38 34 35 42 19 39 43 37 47 32 44 30 36 29 34 29 29 31 39 25 23 29 40 42 40 34 29 30 31 37 36 35 45 32 36 28 39 39 39 40 34 36 25 31 40 35 27 34 41 32 37 35 32 39 30 28 39 37 36 51 34 33 27 29 44 46 33 33 38 34 38 52 39 40 24 32 26 42 38 28 36 25 35 47 40 28 29 33 37 45 32 31 35 34 34 43 41 29 26 27 29 28 51 37 35 42 26 35 36 30 38 33 38 37 34 34 39 30 43 48 40 22 34 42 31 38 37 26 39 44 38 30 34 38 28 33 35 41 39 29 38 30 29 34 28 27 35 29 39 35 41 30 37 35 42 38 24 34 49 39 45 31 40 29 43 21 31 36 38 35 43 41 37 41 32 45 39 40 44 40 38 35 36 44 28 35 35 35 35 35 39 44 54 36 28 27 36 26 36 23 34 31 30 27 37 39 40 29 40 38 50 42 37 31 41 34 34 30 44 39 40 35 35 44 34 34 49 33 30 41 31 46 33 43 29 45 34 37 31 32 41 41 43 41 30 33 41 44 29 46 43 21 47 23 43 31 36 34 30 35 32 48 42 35 31 32 41 35 34 41 38 35 41 27 28 32 41 32 42 38 34 41 34 29 29 34 40 37 37 42 28 34 35 37 33 29 37 27 27 33 39 35 36 25 25 38 35 37 42 30 35 38 33 27 35 37 33 22 41 38 35 40 35 33 30 29 45 32 34 35 31 31 28 31 32 35 32 35 31 37 40 37 41 39 33 30 34 27 31 34 50 36 32 36 30 37 25 45 34 30 34 35 23 39 32 33 31 41 36 31 32 40 43 42 31 39 25 32 31 38 30 35 36 37 29 46 35 32 40 33 28 42 36 28 45 45 32 36 35 27 32 29 33 40 31 37 41 45 44 35 48 39 35 34 35 35 41 42 44 36 24 35 36 31 32 36 40 30 36 24 36 37 32 39 31 37 34 36 44 41 35 30 38 47 35 44 34 34 39 45 30 42 27 31 42 34 42 26 38 24 39 31 29 32 42 30 38 39 27 38 35 30 38 27 43 50 33 36 38 21 35 35 32 29 34 34 43 40 35 28 32 40 34 40 38 32 24 33 31 42 35 33 33 35 31 31 36 31 35 31 44 34 32 40 34 36 36 39 37 42 31 37 37 32 37 30 35 31 33 27 37 42 37 41 42 35 32 39 46 36 43 27 41 33 32 35 29 40 31 49 29 44 37 45 37 33 32 40 37 34 34 41 38 29 41 31 32 39 42 36 33 31 40 55 46 37 31 36 39 53 35 32 33 42 32 42 28 39 24 30 27 31 25 53 43 37 43 36 32 40 41 41 34 37 35 34 36 32 37 39 39 30 25 29 32 41 46 45 42 27 36 35 29 44 33 39 46 43 42 37 33 31 40 27 44 32 43 37 43 33 42 47 31 35 29 25 33 43 38 31 36 44 29 43 35 41 31 33 31 33 27 34 32 32 32 36 35 22 33 37 30 29 27 30 36 31 39 35 39 24 40 27 36 35 22 32 36 38 37 41 27 27 37 27 32 25 29 20 34 26 38 35 39 30 41 41 24 24 35 34 29 35 34 39 42 44 45 46 35 46 48 36 47 31 36 31 28 42 34 38 25 41 35 32 34 42 36 33 33 43 33 39 42 32 37 30 35 42 36 34 34 36 31 23 34 35 32 32 46 40 43 34 46 30 41 30 40 33 40 31 42 46 36 29 40 34 29 35 36 39 39 25 32 28 42 47 34 28 38 33 35 40 28 28 35 44 44 41 33 38 37 41 42 43 25 42 37 36 37 33 51 32 31 29 30 29 45 35 31 30 31 38 44 34 30 36 40 30 41 33 39 31 37 38 34 46 30 31 25 34 34 37 30 31 33 31 35 40 36 35 42 33 26 40 26 37 38 32 42 39 36 42 41 30 42 40 42 23 38 36 48 42 30 36 47 43 35 39 46 38 29 36 39 35 42 32 40 38 39 45 33 36 22 35 38 27 42 32 33 40 35 35 33 30 50 38 35 35 45 31 30 34 42 35 42 37 26 33 31 41 48 33 36 40 33 30 28 40 41 32 26 46 43 34 35 36 40 42 25 28 42 28 34 47 32 22 38 39 34 36 27 41 39 35 42 38 40 31 35 30 38 34 33 29 27 31 21 26 37 38 37 31 34 39 32 39 50 38 47 38 28 31 35 34 39 28 30 32 34 41 44 34 46 35 49 38 35 31 35 42 45 37 30 35 39 31 36 32 38 29 43 25 38 44 36 28 39 36 38 32 48 38 38 37 39 37 35 30 44 39 32 37 28 40 35 25 39 44 28 39 51 37 28 38 36 37 31 39 36 29 33 35 33 31 24 40 34 37 40 37 29 42 39 35 39 31 31 44 33 28 48 37 47 31 32 31 31 37 42 43 33 36 36 31 36 26 32 23 29 30 37 29 29 38 32 28 23 23 33 40 32 45 38 37 31 31 36 26 31 29 41 41 53 28 38 35 39 31 33 39 30 32 34 39 27 39 32 34 30 37 23 38 28 20 27 37 38 38 38 34 34 37 35 28 41 30 36 37 31 34 37 39 36 35 27 36 36 41 35 39 36 41 36 41 29 40 24 34 29 39 43 32 40 43 47 44 28 43 38 34 45 42 38 34 28 27 38 29 38 25 34 40 40 32 51 32 36 35 33 28 42 37 31 51 38 32 34 33 34 29 38 34 37 44 36 44 33 33 44 29 30 38 37 37 38 36 29 34 44 51 37 41 39 34 36 29 29 38 41 33 32 33 26 32 37 41 37 29 42 29 38 32 37 33 34 30 35 42 33 33 16 28 32 38 34 40 27 49 51 40 41 37 32 44 43 32 29 28 28 26 32 29 43 40 37 51 33 35 41 33 28 35 36 43 39 47 30 31 25 27 33 42 35 30 26 32 34 25 40 39 50 43 38 38 28 29 33 30 46 34 33 35 35 33 30 28 39 31 36 36 35 40 32 38 31 41 29 32 43 43 56 31 31 42 35 42 46 29 41 37 36 39 30 37 52 59 42 43 29 37 46 27 35 35 47 45 29 36 32 38 42 40 37 31 32 34 37 35 38 41 34 28 22 31 32 40 30 27 27 34 44 35 28 30 31 50 29 36 41 37 33 35 41 36 40 32 44 35 32 41 40 37 36 31 41 30 22 29 37 38 44 28 39 24 28 30 33 39 34 34 46 34 43 38 34 38 39 36 37 38 33 28 32 38 43 25 42 28 33 47 36 38 36 34 40 39 47 36 39 35 43 36 31 34 25 39 34 40 47 35 36 28 40 42 30 31 43 35 45 30 42 40 27 29 31 33 40 28 38 43 35 40 24 42 28 34 29 39 32 30 30 28 29 52 52 34 33 34 28 35 23 33 37 42 45 36 43 31 27 31 32 39 32 41 43 40 41 30 32 39 36 27 36 37 36 28 41 34 36 33 37 27 36 23 36 30 45 32 44 37 41 37 30 32 35 30 37 35 29 35 37 42 39 37 36 32 32 34 41 31 34 33 34 44 40 41 34 42 30 29 37 29 32 30 24 37 38 26 36 34 35 37 50 30 31 32 37 41 34 40 39 42 24 47 32 27 24 27 30 37 32 37 35 34 26 36 39 33 38 33 35 32 39 30 46 36 34 39 41 30 42 36 52 31 38 23 44 30 28 32 32 33 35 27 45 42 36 39 38 41 45 29 34 31 28 32 35 36 23 35 39 34 28 32 26 32 42 37 30 35 34 42 42 25 41 43 27 31 31 54 32 23 38 18 33 36 38 41 29 23 35 42 40 35 42 37 27 41 24 27 38 37 41 25 38 43 37 39 32 34 41 30 40 39 29 34 41 34 30 48 40 40 37 35 35 41 35 36 33 31 37 39 36 43 42 33 37 36 34 38 37 31 32 31 44 34 25 42 34 41 36 34 45 44 45 35 32 46 42 37 33 35 37 27 33 38 49 30 35 43 41 28 33 29 32 32 33 25 47 33 25 44 38 48 33 41 28 25 42 32 36 30 40 31 51 31 29 38 37 35 32 32 32 28 25 39 27 38 23 30 39 41 40 34 28 32 33 39 34 32 31 33 38 39 29 32 36 42 45 43 38 35 34 43 38 35 38 43 24 36 31 36 48 34 44 34 33 34 42 32 41 32 33 29 35 38 24 33 40 39 30 42 39 36 31 38 43 38 32 33 42 33 38 32 29 34 36 33 30 41 30 50 47 35 34 43 31 39 31 26 32 42 33 32 31 48 41 33 34 33 36 23 31 31 37 29 28 30 29 34 35 33 35 36 35 32 38 38 38 31 36 34 38 56 28 33 36 41 28 32 33 37 34 42 39 35 41 44 24 45 35 37 40 31 41 34 43 41 40 44 36 29 40 31 33 36 33 35 35 48 35 27 29 39 42 31 41 31 39 31 31 28 38 36 42 36 34 35 34 36 42 32 34 28 39 37 30 35 36 38 37 40 28 39 31 40 38 33 31 29 39 50 39 36 42 30 33 45 39 33 40 32 37 36 36 37 33 35 28 41 36 35 32 32 29 36 37 44 33 36 30 25 39 26 31 31 28 42 44 27 36 35 27 36 26 35 33 32 43 41 31 36 32 48 34 31 45 31 30 43 41 36 26 37 40 23 32 44 28 33 28 30 27 40 41 37 33 34 36 33 31 38 30 31 30 30 32 33 28 36 38 38 41 36 43 28 26 38 31 41 35 32 31 29 30 31 39 44 33 26 30 35 30 34 32 29 36 36 32 39 40 35 31 31 46 57 27 31 27 25 41 36 41 37 39 35 26 41 31 31 27 31 32 38 43 34 41 36 30 38 35 26 26 31 36 47 39 44 38 27 36 37 25 33 43 34 29 38 36 33 40 38 35 31 37 44 28 39 34 42 33 33 30 32 39 41 41 34 30 34 35 36 36 26 36 30 41 39 37 31 30 39 31 32 37 30 37 34 33 22 27 40 38 33 37 41 31 42 39 44 45 38 37 34 32 43 26 40 37 34 37 29 33 33 38 27 39 35 42 31 53 32 33 33 33 35 34 29 30 37 35 34 37 41 32 28 36 33 40 30 39 37 42 45 42 36 35 38 42 38 36 33 28 30 24 43 39 40 33 31 45 27 30 40 35 49 41 36 31 35 34 42 40 32 28 31 34 34 35 38 38 38 30 26 45 38 20 31 36 41 35 33 29 31 24 36 39 29 36 37 41 35 26 35 31 29 34 23 27 45 26 26 33 30 42 26 31 38 28 38 30 45 35 34 45 44 44 41 43 33 43 38 30 37 43 43 28 42 34 33 33 37 37 34 42 24 28 30 33 34 41 32 45 37 36 41 44 35 40 32 52 37 35 44 39 33 35 26 34 29 38 28 36 26 33 30 18 33 33 26 36 32 40 43 35 32 37 38 25 39 33 37 33 40 37 51 37 37 38 48 30 34 40 28 40 43 35 35 31 26 37 35 24 32 32 34 32 37 35 35 36 35 35 30 35 39 36 31 28 34 35 33 30 27 35 27 44 28 32 41 46 38 35 38 34 32 32 39 40 32 36 38 35 44 34 35 46 26 26 35 23 46 40 30 39 39 45 26 43 34 29 35 39 32 34 30 34 30 32 47 36 38 31 28 47 43 31 31 33 42 39 40 29 35 33 42 41 42 36 37 32 37 40 34 39 39 31 37 36 41 30 49 29 30 42 42 41 30 35 29 34 41 36 26 41 38 41 38 31 35 30 32 34 33 34 42 36 28 37 35 32 44 36 35 38 29 42 32 30 41 39 37 38 32 28 37 42 35 41 41 31 25 47 34 30 44 35 32 35 40 28 35 38 43 39 40 33 37 33 36 35 38 33 38 28 41 51 34 40 30 36 42 25 42 30 36 34 32 34 38 25 25 35 31 35 29 28 36 30 38 31 27 29 23 25 36 38 36 38 38 37 37 38 44 44 40 28 41 30 36 23 21 29 56 35 27 42 42 27 37 34 23 39 29 31 35 23 26 38 29 25 46 34 35 43 46 40 37 38 46 42 34 39 37 32 31 40 42 33 37 39 37 33 28 44 42 45 32 40 29 29 30 42 34 40 33 38 32 33 38 43 42 31 35 25 30 39 40 39 21 37 27 28 25 42 34 33 34 30 43 36 31 28 36 34 34 32 34 35 38 42 39 35 48 25 49 31 29 26 28 31 26 36 38 31 28 32 27 37 38 35 39 36 40 27 39 31 26 31 31 42 34 32 29 29 41 40 37 28 28 21 36 36 25 29 35 30 30 36 36 27 34 29 32 42 35 36 31 33 33 29 31 31 35 34 32 33 40 31 31 37 37 28 39 40 17 35 30 35 39 31 43 30 35 39 39 43 22 39 32 44 30 38 41 28 29 37 39 43 36 41 41 35 29 39 46 34 43 24 24 32 29 31 43 29 33 30 33 34 29 33 38 45 36 32 42 35 37 40 29 31 37 41 39 31 39 31 41 31 45 47 33 47 33 29 34 30 28 42 42 34 33 48 26 30 29 36 29 28 35 38 41 40 39 38 32 41 36 42 43 42 36 40 41 44 37 35 27 39 25 33 32 36 32 33 32 49 35 37 40 37 50 36 40 37 43 32 38 31 33 35 42 41 31 37 41 33 37 35 39 38 47 46 33 41 38 41 29 46 37 36 28 29 38 43 34 29 35 49 35 37 32 35 34 37 42 37 56 48 30 35 34 38 29 39 40 37 35 33 48 39 26 48 26 29 28 43 33 35 35 50 25 33 41 39 37 32 28 30 28 38 40 32 33 31 36 24 41 38 37 45 32 36 39 25 31 32 30 33 33 28 39 46 31 37 31 32 25 33 33 31 40 43 42 32 43 34 41 28 40 27 40 38 30 33 37 32 33 43 38 33 36 35 30 50 29 37 33 32 37 39 40 36 34 30 30 29 35 44 40 30 30 29 48 51 43 40 41 40 38 31 37 43 43 38 30 31 37 30 33 25 35 36 41 43 43 34 40 38 44 41 38 37 30 32 37 40 35 44 43 30 40 39 33 40 42 30 26 38 45 29 29 33 30 31 32 27 27 30 43 40 30 39 39 36 27 39 38 39 29 29 41 34 33 41 42 43 32 38 37 27 34 29 38 30 27 36 43 29 38 40 51 39 45 25 45 40 30 22 51 42 50 33 41 40 39 36 31 38 27 41 35 39 42 34 33 28 31 34 32 44 35 28 41 23 32 35 46 37 40 37 29 40 30 38 30 35 27 40 23 28 33 26 39 35 37 25 30 39 34 32 36 30 37 37 37 27 33 34 40 50 37 35 33 36 38 52 42 43 37 29 42 33 47 29 32 42 35 36 44 34 29 35 39 40 38 27 39 43 39 40 38 32 30 26 35 41 47 34 38 33 42 35 39 34 44 39 35 42 39 36 32 39 36 27 29 39 40 35 38 26 33 34 31 46 40 38 31 28 31 34 44 29 34 34 42 36 31 37 45 39 40 30 37 35 32 45 23 31 37 34 37 33 34 25 37 43 29 31 32 44 39 29 32 54 37 34 37 41 33 38 36 31 44 37 27 38 31 46 35 38 30 32 26 34 21 44 33 40 35 35 46 35 38 39 39 41 34 31 41 37 43 28 35 32 41 33 26 37 24 39 36 43 36 48 39 27 31 42 25 27 36 40 32 33 45 37 36 33 38 37 40 35 47 33 33 37 35 39 18 41 42 36 42 37 31 30 37 39 36 43 38 46 33 30 39 37 45 35 33 38 39 44 44 47 31 39 37 35 36 36 30 33 29 41 39 46 44 38 40 48 23 36 43 53 41 38 38 41 38 35 34 31 35 29 28 36 31 36 31 37 27 39 42 32 27 38 34 41 33 41 36 35 29 35 39 36 41 42 34 33 24 29 40 24 31 32 38 37 41 27 35 41 32 25 48 41 40 47 39 37 30 43 34 29 34 29 34 40 36 39 37 24 40 40 38 34 36 35 27 29 40 43 28 30 38 40 34 39 32 33 31 39 40 50 31 33 42 36 32 38 35 22 34 40 43 28 35 35 40 30 39 49 22 22 24 38 27 32 29 24 37 53 27 34 41 38 28 34 29 34 39 24 36 33 39 35 36 31 34 37 37 34 27 38 40 32 33 32 35 35 39 36 31 35 43 39 38 34 34 35 31 25 35 23 31 36 38 21 40 41 38 37 28 38 42 33 23 34 36 40 36 50 39 21 40 30 42 42 39 32 37 38 36 31 42 31 41 34 35 33 44 29 50 43 42 29 38 25 26 39 30 32 29 41 39 48 35 38 34 31 29 39 36 42 31 30 37 37 30 45 39 38 38 37 22 33 39 34 42 35 35 33 34 35 34 39 42 33 30 31 26 33 31 28 41 42 30 35 32 41 44 21 38 40 26 45 33 24 34 43 38 32 35 35 37 39 34 33 51 46 38 24 43 24 33 33 29 31 30 35 33 35 36 30 39 42 37 39 33 35 30 33 31 31 40 33 32 42 27 26 35 32 35 33 32 30 31 43 35 38 37 41 25 40 30 31 39 34 43 29 32 32 31 24 39 32 32 46 51 30 35 35 35 34 27 38 21 30 36 30 36 33 41 32 28 32 36 32 41 24 53 47 34 36 35 40 41 31 38 21 42 33 38 32 43 44 28 26 41 38 34 37 34 25 38 36 26 41 43 45 30 41 30 37 38 32 37 38 45 26 35 34 39 32 32 31 35 39 37 35 33 39 26 41 25 30 36 37 34 30 36 32 36 34 37 38 37 32 39 26 30 36 31 39 25 23 37 37 24 49 39 35 26 43 25 31 31 34 38 30 37 37 33 46 42 35 40 35 33 45 37 37 50 44 27 36 41 37 28 34 41 34 37 40 34 32 30 37 38 39 50 34 48 40 45 33 33 37 29 39 30 38 35 34 36 34 26 35 30 33 42 33 34 32 27 36 30 44 33 30 33 36 39 26 37 27 34 24 40 30 45 23 28 31 35 34 35 27 38 39 41 32 36 39 36 32 39 40 42 27 29 43 26 31 32 38 34 37 44 35 34 37 36 31 27 42 37 37 30 25 43 38 34 39 45 28 40 39 43 28 41 33 26 42 43 38 42 31 31 28 43 28 30 50 34 36 34 41 38 44 20 37 35 40 37 40 38 37 33 36 35 41 39 23 37 35 28 35 36 33 36 30 38 43 40 39 35 36 48 34 21 47 40 23 38 32 40 40 31 36 45 31 32 30 42 29 31 39 33 26 33 48 28 39 37 33 37 35 41 20 40 34 36 31 42 35 42 36 39 35 45 34 31 38 36 31 30 33 39 39 36 31 31 47 38 35 32 29 30 45 32 28 36 42 38 40 31 46 23 40 29 32 32 24 27 37 37 39 40 40 38 28 40 41 33 53 34 44 40 40 40 45 56 46 29 37 35 28 39 45 37 31 34 38 38 33 31 47 34 41 31 24 41 39 23 32 35 33 25 36 39 32 30 36 47 34 24 34 27 29 27 26 47 36 36 35 35 48 34 40 28 37 38 35 42 26 37 33 33 37 28 38 40 42 37 29 26 36 41 40 30 34 36 35 33 38 30 28 31 33 43 37 33 28 37 36 35 33 27 32 42 31 38 37 33 37 36 35 39 31 35 27 39 35 32 26 33 31 47 32 28 46 39 43 33 40 35 39 43 31 47 30 30 35 33 48 37 26 35 39 31 40 41 33 40 42 42 36 32 39 34 42 40 38 31 28 39 35 37 36 29 38 34 40 44 39 32 31 25 39 23 29 38 31 29 38 23 37 40 32 42 32 36 30 36 36 29 37 32 37 40 36 32 38 36 39 37 33 40 39 37 39 30 39 24 35 36 35 26 22 38 33 32 33 40 41 29 24 38 31 35 39 35 49 24 32 34 28 35 42 46 36 31 31 34 36 29 35 30 32 37 27 29 32 30 32 34 36 40 41 39 36 45 32 38 31 39 41 42 41 42 40 27 36 33 42 35 41 37 35 41 50 41 33 30 44 36 45 31 36 30 37 36 39 34 37 33 32 35 43 41 28 37 41 44 41 34 32 35 32 36 34 42 41 31 44 33 27 27 44 25 32 26 36 35 36 33 44 48 40 42 28 32 35 27 33 25 22 28 32 37 34 43 33 37 42 29 37 30 40 34 38 39 50 36 43 46 31 25 29 35 41 26 35 43 34 36 30 33 38 30 25 38 44 26 29 37 40 52 29 38 37 45 41 41 34 33 41 38 29 40 26 48 26 33 38 36 32 35 37 34 28 28 35 33 39 33 30 38 36 34 33 31 24 33 42 35 35 34 35 36 34 37 47 36 32 39 26 41 33 38 44 26 36 40 29 35 30 35 40 31 34 29 29 42 30 33 39 42 32 27 32 23 36 31 29 32 28 21 42 38 40 28 37 41 41 36 33 36 42 44 38 31 41 26 40 44 38 35 37 27 26 35 43 33 37 22 41 29 37 26 38 36 39 38 35 34 45 34 38 45 39 44 32 39 29 37 44 28 33 38 45 25 32 46 37 32 32 38 37 33 32 42 28 34 35 36 35 26 34 33 35 47 39 49 45 37 23 32 33 31 37 39 32 36 42 47 29 33 34 38 35 33 39 25 32 28 37 30 29 36 41 35 37 37 40 35 26 27 43 29 33 43 37 31 38 33 40 39 37 38 28 39 29 45 29 35 36 32 31 37 33 48 40 46 35 32 29 40 33 43 25 24 43 36 31 32 33 27 43 31 41 36 46 29 28 28 29 42 36 43 33 34 34 40 49 36 42 33 46 41 35 41 31 30 28 28 21 30 30 35 46 35 25 29 38 40 40 36 36 41 30 45 24 35 36 27 42 41 37 33 42 32 35 39 36 45 30 30 31 28 34 27 36 27 34 35 35 25 36 39 31 37 38 37 41 35 36 30 32 38 31 33 34 34 42 29 26 30 37 44 43 32 33 37 39 34 31 30 46 43 32 41 34 37 35 37 36 36 34 34 35 35 37 37 30 42 29 36 38 37 42 33 44 35 37 32 35 31 38 37 35 38 30 27 29 45 35 33 31 47 31 30 36 32 41 25 24 31 33 37 39 29 36 41 42 23 37 39 37 35 35 31 44 34 39 36 29 40 45 36 35 42 31 38 38 31 40 30 34 34 40 28 35 31 25 34 37 39 35 36 25 30 42 29 28 28 31 33 39 28 41 33 36 47 26 36 42 36 47 51 37 35 38 37 44 28 36 31 34 42 28 30 41 31 38 35 41 31 32 36 34 33 44 26 38 46 32 39 29 31 37 43 47 36 31 38 36 33 38 25 36 40 31 31 40 38 33 33 36 23 32 40 24 43 46 46 29 42 36 28 51 30 41 32 43 37 37 36 27 27 39 31 33 34 30 43 36 38 37 39 33 26 39 39 39 23 39 37 38 33 40 38 34 34 33 30 33 33 21 38 31 34 40 50 35 38 29 42 26 35 44 36 34 35 34 44 23 41 34 34 42 42 47 35 35 35 34 38 38 38 34 37 35 37 36 32 45 42 38 25 37 32 37 32 35 33 40 27 37 44 36 39 31 40 42 37 33 55 37 29 30 37 36 34 40 31 36 32 40 24 40 25 43 31 39 27 31 32 38 28 42 38 31 38 43 40 43 31 32 32 36 27 31 33 28 50 43 35 49 24 35 41 33 38 41 29 24 41 40 36 25 28 31 32 35 37 39 36 37 36 41 41 35 42 39 29 40 36 41 33 32 42 41 42 42 35 37 40 41 32 42 33 43 37 40 36 34 28 37 40 36 41 28 30 38 34 33 33 36 28 33 38 32 31 42 20 33 33 48 39 44 43 38 36 41 28 37 32 41 36 37 37 36 37 37 30 35 35 35 41 45 39 33 36 35 36 31 28 28 32 52 36 28 29 40 56 44 36 34 35 27 37 39 45 35 35 33 32 43 30 39 32 40 42 43 30 37 44 38 40 34 40 32 46 43 34 38 27 42 35 39 23 41 38 38 42 44 30 25 41 29 31 28 36 40 33 29 39 43 35 31 36 33 42 31 24 50 45 33 36 32 34 36 39 40 27 44 18 30 27 38 41 38 35 42 38 36 43 36 31 37 35 35 45 26 45 34 31 41 34 30 30 35 40 30 38 33 39 40 36 43 26 42 29 32 40 45 28 31 32 29 36 29 28 27 31 41 35 32 30 32 41 43 46 41 27 36 34 35 36 27 41 28 34 46 37 36 25 34 23 31 29 38 29 45 32 30 39 36 30 34 44 32 38 34 37 32 35 26 40 41 25 39 39 31 34 39 41 33 41 46 44 37 34 32 38 36 47 46 31 36 35 28 35 35 40 35 27 29 30 40 48 49 24 48 32 36 46 41 30 45 27 33 34 39 36 36 32 31 34 43 36 47 31 36 34 34 38 28 30 38 31 32 47 30 40 30 29 28 32 51 29 33 41 33 38 35 33 44 41 34 36 35 34 38 37 47 35 42 42 44 40 32 33 37 35 30 40 58 34 41 29 41 42 42 38 38 39 34 41 39 30 34 43 37 34 28 33 44 39 42 36 37 42 30 29 52 39 37 29 34 32 40 39 37 34 30 44 38 47 47 29 30 37 41 31 33 37 39 38 33 36 36 28 33 38 42 46 28 30 31 35 36 45 43 34 30 29 31 26 38 40 29 31 47 30 39 40 30 47 35 43 35 32 48 48 43 35 24 44 37 38 33 35 31 42 27 34 40 38 35 44 40 42 33 44 40 39 39 50 33 37 41 33 36 30 39 38 40 27 38 46 29 43 39 37 42 40 27 32 32 43 42 32 34 33 23 39 38 34 38 36 44 34 26 38 44 43 36 28 30 35 37 36 31 41 28 32 24 27 35 27 41 40 34 28 38 40 27 36 33 26 42 35 45 34 36 37 34 26 30 34 32 37 37 31 38 31 40 30 44 34 34 42 27 34 44 39 38 30 36 35 44 32 40 34 32 37 38 29 33 33 29 38 38 26 45 32 38 39 35 30 37 38 39 39 33 39 42 38 38 30 40 32 33 45 28 24 25 33 38 42 29 33 31 32 32 45 41 39 31 39 42 33 27 38 28 31 34 35 37 38 40 40 32 45 26 40 31 38 27 30 36 39 30 43 31 37 33 34 42 26 33 33 34 42 36 40 32 44 40 36 28 32 31 36 23 29 40 42 39 36 28 31 36 35 40 24 51 29 35 39 40 39 26 47 34 24 36 36 44 33 39 48 30 41 53 37 42 25 29 22 37 34 30 42 35 34 33 32 38 35 33 31 29 44 33 28 38 43 32 29 38 36 34 24 38 38 31 42 30 30 34 27 30 30 38 37 38 39 46 39 21 34 37 36 37 41 27 28 39 37 40 52 43 33 34 37 36 32 35 43 37 29 37 50 38 37 35 34 30 34 41 41 35 32 34 30 39 34 38 28 39 35 37 31 35 36 36 35 38 38 29 38 35 44 37 35 39 30 35 28 44 42 29 31 32 46 29 41 43 28 39 30 32 38 37 36 30 39 40 30 34 38 41 37 42 35 48 30 25 47 42 40 27 31 46 33 45 32 40 44 29 31 34 41 29 36 34 40 29 39 35 32 41 31 39 47 41 37 25 39 32 39 40 40 31 35 36 37 34 30 24 29 28 33 47 25 39 28 28 34 41 42 37 30 31 34 41 46 40 32 31 39 16 40 36 34 38 41 44 31 36 34 49 32 41 36 34 38 36 35 35 38 42 35 36 28 26 27 35 33 28 27 36 51 37 35 36 31 30 23 30 35 32 37 40 44 51 31 41 35 43 27 45 35 29 34 33 39 30 28 36 41 29 35 34 30 36 33 38 38 32 42 41 35 31 43 29 41 37 39 42 33 40 41 50 31 39 31 45 39 30 26 39 45 35 46 43 38 46 26 44 43 46 31 40 30 34 39 30 33 40 41 38 37 42 24 43 40 27 38 36 36 25 38 39 33 29 33 37 32 34 33 23 27 37 42 41 31 29 37 35 48 44 33 30 39 41 36 38 35 35 31 37 45 35 46 35 36 38 37 33 32 29 39 49 28 35 33 35 36 39 41 40 32 33 37 37 24 31 42 36 36 26 35 41 30 29 41 37 36 43 48 39 30 29 25 38 36 48 38 44 41 33 32 37 30 41 37 33 47 32 30 44 38 36 45 38 28 43 33 41 27 28 44 32 46 41 36 32 41 26 33 37 41 45 37 41 39 36 48 30 34 32 36 37 32 34 29 35 36 28 36 30 29 30 27 41 40 38 34 28 40 40 43 30 33 30 37 34 44 35 39 29 36 38 27 26 33 33 36 26 30 30 31 33 38 30 31 38 32 36 41 30 42 36 25 30 33 36 33 31 34 27 38 35 37 28 38 35 36 37 39 38 35 30 32 37 32 30 38 27 43 37 35 37 34 30 32 32 30 29 33 34 37 40 35 29 34 37 40 26 32 30 34 25 35 40 33 27 43 50 35 45 45 37 44 35 35 38 30 33 28 29 31 31 41 35 40 38 32 36 20 33 22 41 36 35 34 37 31 35 27 21 34 26 26 43 31 29 50 38 36 32 41 28 32 43 46 28 35 34 37 38 36 35 42 42 35 39 32 36 40 35 44 37 41 33 31 40 46 39 25 35 44 51 37 34 36 38 41 42 41 38 40 46 44 26 28 39 36 32 43 29 38 37 33 49 30 33 35 51 27 26 27 29 47 33 38 35 30 34 33 35 31 32 31 30 36 31 36 37 35 37 31 33 35 40 36 52 29 35 26 39 40 37 41 28 35 37 46 33 39 39 40 43 30 34 38 41 35 32 43 37 45 44 42 36 28 32 30 35 32 34 35 37 27 52 33 29 36 36 30 41 42 40 35 37 26 36 30 28 34 41 31 30 28 31 27 34 28 28 45 37 35 39 27 31 47 30 45 41 36 36 35 37 38 24 32 25 36 42 33 33 41 33 24 31 45 33 24 39 38 43 46 38 45 32 32 40 26 30 44 37 32 37 37 34 28 35 29 39 29 32 42 47 30 35 44 26 50 41 50 41 26 27 34 31 35 49 38 31 18 34 37 47 32 44 37 35 34 34 38 32 39 35 47 31 37 36 41 28 43 34 29 42 31 32 46 33 36 35 36 33 33 37 23 34 31 35 46 27 43 29 31 31 30 47 33 34 31 34 35 35 35 28 32 33 34 45 46 35 34 31 29 35 43 46 34 32 32 36 39 42 44 39 37 39 31 31 29 39 29 42 26 40 36 39 40 37 27 20 29 44 30 52 30 35 36 46 37 39 40 33 31 27 30 43 29 41 34 32 42 38 36 35 35 38 38 35 35 26 28 37 36 29 33 45 30 32 35 41 33 31 28 26 34 28 40 35 41 31 45 54 35 34 35 37 46 31 45 27 37 30 35 35 35 38 40 32 25 34 37 41 29 38 39 43 36 35 40 35 41 46 35 39 35 27 35 43 36 34 35 39 32 28 36 45 27 37 38 40 31 34 27 39 39 36 41 34 42 36 32 29 31 38 33 31 28 38 38 35 34 37 33 41 37 27 44 39 36 27 49 34 29 33 31 42 38 31 46 27 28 38 42 33 41 32 42 30 40 37 38 27 39 34 40 42 39 33 40 35 27 47 36 32 37 48 35 30 35 31 38 39 40 40 35 31 36 41 44 33 36 30 32 34 36 39 47 43 26 30 32 26 39 36 29 33 30 35 32 27 35 35 35 38 41 40 35 38 34 32 41 34 30 33 43 40 36 40 38 38 41 42 43 39 35 40 49 36 33 41 34 46 31 34 34 45 27 36 33 37 36 36 27 29 38 34 28 32 29 38 42 34 38 37 32 37 32 37 27 44 35 36 32 26 32 29 34 38 44 40 40 29 41 45 29 33 49 39 37 43 30 31 30 38 41 29 37 31 31 39 32 45 41 32 37 41 35 36 30 35 25 29 33 35 24 29 44 25 36 33 33 39 31 26 44 43 35 34 31 35 28 37 42 29 37 48 35 30 42 29 38 29 30 34 41 34 41 25 37 38 42 27 42 33 33 43 25 31 35 36 30 24 41 44 26 35 37 27 28 29 39 44 33 31 30 43 36 32 37 25 44 41 36 37 36 34 35 37 40 26 40 32 40 32 33 33 31 29 38 43 29 33 44 45 39 42 32 38 35 43 31 33 25 31 45 37 28 34 39 43 32 30 37 34 48 35 40 31 39 34 38 42 30 35 30 35 40 36 28 38 35 25 38 37 28 27 29 28 39 35 34 31 33 39 42 41 41 27 23 31 38 36 39 27 34 32 33 34</t>
-  </si>
-  <si>
-    <t>GAM(257.192483893214, -518.5595862827847, 2.929667991695303)</t>
-  </si>
-  <si>
-    <t>236 278 197 214 242 261 297 274 256 201 313 192 211 261 204 130 272 261 203 261 299 241 192 187 184 201 282 288 158 232 218 269 254 182 152 168 245 216 246 311 220 170 227 163 212 196 160 208 178 206 235 288 260 246 279 213 292 301 234 217 279 104 267 218 268 154 165 268 200 238 236 310 194 219 236 252 288 244 251 214 263 209 183 308 276 220 233 238 195 287 263 238 235 283 275 226 311 240 233 193 295 199 216 236 315 244 297 214 331 228 198 191 189 272 184 196 277 169 332 230 218 169 356 301 269 271 243 210 295 229 254 219 216 240 138 234 186 300 192 215 253 185 216 183 200 196 267 195 185 202 258 268 292 247 196 252 215 204 286 211 230 172 275 222 172 217 216 190 245 290 237 268 237 213 264 210 273 226 295 274 221 277 204 232 278 219 262 189 210 183 286 211 204 231 246 216 315 305 145 216 200 221 206 199 188 139 296 277 243 197 214 233 204 176 219 230 226 241 208 279 215 231 181 262 341 204 258 213 205 242 289 268 269 249 228 263 154 231 272 206 243 207 227 293 275 247 343 297 255 210 159 265 137 289 206 228 196 213 229 266 224 224 257 361 190 265 254 225 288 193 235 278 214 258 203 202 287 269 280 296 168 151 339 194 232 126 191 248 187 276 343 248 204 235 246 255 255 210 254 228 221 262 332 250 268 206 228 232 151 264 266 191 181 216 310 255 287 100 204 268 280 242 182 200 215 202 197 221 266 299 127 247 269 296 217 174 309 189 253 172 213 139 228 288 225 280 264 212 207 268 232 264 229 265 223 198 188 259 317 259 213 192 247 166 288 329 259 270 276 278 173 290 187 133 184 243 282 183 190 322 281 273 335 203 172 293 294 198 205 231 147 261 205 260 237 260 249 248 188 193 252 196 221 222 159 227 238 269 205 322 315 231 226 186 256 229 241 290 276 311 257 217 225 257 274 267 259 230 257 216 149 209 202 250 285 308 201 246 206 171 151 237 361 224 219 233 190 297 299 298 193 224 234 236 213 262 216 226 309 270 298 179 202 260 269 156 148 131 242 183 236 195 215 215 226 195 271 188 292 204 187 243 186 215 174 226 225 323 206 241 251 192 137 244 261 283 239 201 295 203 287 200 112 236 223 213 277 257 245 257 295 260 229 233 241 299 277 282 236 260 239 244 213 193 261 261 316 272 382 148 241 220 204 236 340 249 236 227 251 232 297 144 273 282 215 182 211 242 256 216 219 202 250 279 295 266 227 275 186 228 275 316 195 196 221 294 253 275 277 194 182 185 216 318 277 351 228 173 260 317 301 197 295 200 269 109 186 290 284 214 200 216 222 285 127 192 222 185 168 297 214 191 358 146 204 251 237 211 286 241 144 321 270 232 221 185 285 172 226 187 173 254 252 231 267 202 273 225 216 186 265 250 253 219 316 190 281 257 181 289 204 351 205 253 289 234 184 242 112 249 267 135 272 258 368 180 246 295 301 312 274 298 273 134 220 232 193 236 235 134 295 255 256 253 218 253 227 268 271 227 242 257 218 193 203 234 235 229 270 190 304 307 265 258 208 193 240 248 207 325 229 214 115 298 226 236 268 202 246 272 318 186 211 237 223 309 236 201 242 285 236 246 175 226 241 215 233 204 225 283 173 198 218 199 209 285 267 179 238 254 229 243 165 243 268 242 186 234 161 196 235 174 236 273 269 208 229 202 264 329 268 213 271 201 249 262 223 240 196 239 221 278 275 203 246 189 236 183 254 235 168 302 316 172 175 342 228 300 272 234 263 230 186 270 282 219 227 260 264 202 216 260 277 259 200 206 167 150 227 216 227 235 170 260 298 274 156 249 206 241 233 223 269 250 224 207 192 217 290 300 235 289 255 293 250 186 307 290 168 169 112 250 187 200 211 314 238 227 201 258 184 190 214 206 198 277 285 183 304 204 193 222 293 293 246 304 246 281 147 308 201 289 160 273 168 284 317 283 156 245 200 178 198 185 214 227 281 303 265 291 219 238 198 224 238 224 285 197 236 257 272 265 219 292 264 172 264 206 297 256 236 217 209 165 168 201 240 227 238 321 341 230 159 273 272 274 167 252 221 202 344 327 256 198 271 160 239 223 285 280 239 230 203 225 225 242 258 257 180 211 185 197 240 224 149 226 214 166 274 218 207 240 185 238 158 278 186 292 179 332 239 196 288 191 213 227 176 209 281 271 286 386 250 296 138 192 222 188 296 199 219 278 303 321 249 247 318 257 253 223 239 247 193 207 235 217 218 287 219 227 307 263 257 219 204 210 219 239 194 192 188 197 180 252 211 298 290 200 226 186 253 292 216 261 243 157 176 210 167 204 189 252 237 307 180 255 276 269 310 173 150 197 226 231 296 145 192 190 344 271 144 295 338 176 260 253 266 280 215 216 257 230 247 200 176 371 216 279 260 257 255 164 184 212 174 205 148 231 303 276 263 285 258 333 326 218 293 242 169 239 199 268 196 277 103 246 278 299 214 286 213 288 211 229 176 236 195 250 193 185 204 222 268 263 313 150 85 124 247 240 344 259 249 272 207 202 218 220 193 237 313 223 205 223 227 251 277 280 204 232 288 128 252 247 185 235 152 243 222 139 260 219 198 253 311 280 192 267 171 214 282 271 217 272 347 262 233 201 198 251 283 288 201 222 227 199 254 253 243 223 155 161 239 250 303 179 215 227 266 215 199 254 161 276 251 317 328 201 253 235 286 257 234 290 295 261 233 244 257 224 250 192 231 201 308 304 328 253 249 205 208 265 204 249 285 206 182 192 306 263 224 279 153 230 125 204 135 298 268 187 262 264 340 252 173 233 216 235 261 183 239 131 209 310 261 107 248 268 211 247 217 180 199 245 252 257 322 208 214 303 106 207 258 215 264 177 200 224 212 245 296 295 243 238 215 219 245 284 216 198 335 254 212 273 240 201 263 214 201 265 169 178 361 215 232 214 278 241 244 244 285 298 171 300 213 256 255 321 256 150 206 251 197 303 294 258 213 265 178 299 267 290 198 336 252 163 200 237 174 266 324 217 284 224 192 199 233 241 249 201 343 269 148 266 186 215 200 251 257 221 199 190 239 121 279 232 201 218 102 200 218 207 188 245 222 227 193 265 230 250 145 248 184 167 222 219 154 273 191 208 134 247 157 291 185 212 280 236 380 241 193 219 200 185 278 232 164 304 262 174 239 243 249 259 248 227 200 245 220 283 134 333 215 183 228 207 263 252 208 260 212 252 135 238 339 191 297 212 143 195 182 178 170 218 330 183 207 203 269 297 156 166 151 309 204 270 251 220 273 165 275 173 206 255 219 299 210 183 301 261 189 253 214 182 179 225 204 299 198 288 266 225 209 232 264 199 242 200 214 162 235 240 311 195 214 243 309 266 196 252 164 308 229 235 228 296 193 268 257 229 234 339 283 287 206 145 226 222 165 231 280 179 263 194 310 254 223 236 236 221 260 189 238 239 234 252 269 255 170 291 232 286 312 180 302 277 258 211 322 213 278 178 196 267 271 255 236 261 262 292 212 276 294 347 202 248 205 357 350 166 229 241 194 208 185 302 256 237 247 231 315 245 219 234 234 313 182 241 139 222 336 251 260 273 229 228 216 285 249 238 163 247 191 183 238 311 203 210 254 262 201 217 281 226 290 243 203 224 246 188 263 292 193 259 352 234 247 180 280 232 242 292 163 233 261 268 279 383 284 276 209 202 301 276 166 184 260 308 267 263 235 216 170 225 271 293 246 202 228 272 347 174 299 242 288 217 242 235 313 143 223 221 365 231 192 149 280 227 356 239 269 323 180 167 332 230 262 236 225 210 263 204 326 169 304 223 221 183 319 245 300 247 194 200 183 259 254 311 209 214 264 233 255 246 289 243 282 306 247 287 233 292 269 197 239 200 236 260 244 247 255 280 266 161 289 216 179 157 272 310 213 315 196 220 208 212 192 144 256 255 257 234 181 197 200 157 200 329 202 232 253 243 178 230 233 226 332 297 216 242 264 276 210 212 255 229 215 274 218 237 311 243 321 231 208 182 256 246 213 222 281 297 223 213 201 277 170 219 220 187 261 266 149 281 233 242 202 219 178 243 241 282 255 294 225 201 151 326 297 158 249 276 258 170 295 248 171 154 221 331 264 211 328 186 203 231 282 191 253 146 257 176 240 291 289 258 207 220 244 178 192 224 159 227 210 288 358 312 101 270 219 234 157 257 220 125 301 209 212 165 245 222 227 300 259 202 223 212 232 224 247 280 284 242 215 314 170 254 316 199 276 155 308 339 280 303 251 150 242 148 220 316 144 224 242 235 284 202 238 250 247 307 161 262 215 253 232 209 273 205 216 245 247 258 281 172 213 288 219 248 183 310 209 270 239 207 210 148 273 195 185 209 211 242 261 237 207 286 313 261 291 234 224 294 219 203 209 294 334 205 273 230 139 304 157 291 257 231 261 198 237 233 254 174 176 226 222 252 184 300 275 318 180 207 273 204 241 282 192 224 223 235 204 160 241 193 209 209 177 147 200 264 238 247 313 236 158 122 269 244 251 177 160 256 253 161 244 239 264 244 240 325 258 232 254 246 166 259 209 267 267 264 215 194 235 280 148 295 265 258 233 256 262 293 202 247 287 209 196 167 202 216 260 245 262 140 289 186 313 316 286 196 231 242 199 237 201 279 285 181 285 239 267 193 247 215 173 225 280 221 180 280 149 246 197 225 257 289 193 195 228 248 248 173 167 164 115 314 256 136 272 273 246 211 235 225 184 206 278 242 205 236 147 285 290 192 200 192 201 301 294 171 287 125 232 252 213 204 153 208 272 257 194 207 207 274 195 189 268 216 243 291 234 277 224 228 298 294 210 135 208 229 201 268 265 213 241 252 234 213 150 223 292 305 308 193 208 239 131 233 319 210 264 182 187 173 291 227 268 270 188 182 255 171 232 191 218 255 228 191 280 216 229 207 267 232 302 120 189 223 158 243 321 287 219 213 245 196 264 338 197 200 240 196 175 188 277 154 350 195 166 180 302 283 294 247 178 236 174 230 259 198 194 267 220 216 203 229 217 346 253 251 312 214 242 155 355 161 320 212 286 267 203 209 181 216 257 287 274 160 274 303 285 281 298 352 236 274 217 278 306 251 328 200 201 331 192 351 273 139 226 165 163 186 266 246 294 192 322 128 198 184 237 239 291 243 165 231 229 241 199 237 269 188 185 171 309 240 201 218 150 244 147 265 269 139 304 221 292 258 248 275 284 188 226 223 196 193 241 261 149 196 308 171 261 202 164 222 212 376 239 170 290 194 203 215 231 176 240 158 242 220 227 268 212 152 244 338 156 199 173 329 296 174 263 252 304 217 223 273 280 273 307 130 266 230 218 185 205 192 199 257 238 182 214 292 282 189 205 142 192 272 286 277 211 194 159 190 237 226 128 232 283 196 249 263 282 250 231 248 165 328 194 171 222 253 234 126 254 176 256 206 274 159 267 144 217 268 173 260 176 237 250 231 195 308 214 253 284 231 223 188 211 308 232 203 239 258 271 265 263 206 245 300 162 356 223 233 302 228 240 214 302 203 168 216 258 262 224 265 248 317 232 194 289 211 143 308 183 221 229 298 223 199 278 201 200 227 246 260 188 265 221 300 264 232 256 328 279 191 178 154 311 248 289 274 279 265 236 185 203 250 259 219 260 112 182 205 249 204 282 256 300 254 271 254 205 223 251 250 195 241 281 277 236 235 289 259 174 241 226 160 216 207 217 225 221 187 171 180 237 266 228 266 196 312 189 191 192 224 356 250 314 315 200 227 242 225 292 278 307 301 287 203 303 242 249 200 253 245 257 202 333 218 217 271 321 229 241 251 290 197 255 262 223 268 312 313 227 237 310 249 223 294 174 345 176 151 204 288 277 237 198 177 174 239 238 195 211 260 256 246 236 305 180 183 203 192 231 276 199 259 232 242 198 225 251 319 260 223 181 271 158 232 168 269 152 249 218 273 272 233 228 216 180 277 213 220 195 252 213 365 233 244 275 198 177 247 226 162 267 169 303 293 209 244 218 255 295 327 320 199 271 235 252 230 268 202 237 187 245 300 238 330 252 267 207 230 198 260 242 255 293 246 229 203 155 169 225 264 197 275 236 262 221 269 251 196 264 223 299 201 247 271 154 239 228 262 162 205 272 210 269 146 291 193 181 338 212 319 186 211 211 300 196 255 180 278 234 214 209 316 219 211 254 153 248 294 119 169 170 236 204 191 258 237 215 250 195 257 283 143 262 262 267 258 236 304 234 240 261 267 258 251 215 190 194 160 179 282 266 261 212 189 160 206 241 257 287 283 183 258 191 269 228 257 346 201 276 208 211 236 195 189 254 308 174 247 277 198 258 219 216 231 244 239 339 189 185 196 279 263 252 273 188 321 234 266 361 282 225 157 199 210 386 247 267 195 185 291 359 252 202 234 190 190 257 193 255 225 148 225 295 268 182 169 151 203 124 364 261 222 174 148 268 233 199 243 282 212 238 199 261 267 219 220 297 332 206 291 238 197 263 260 147 258 320 232 197 221 249 121 180 246 223 248 243 253 223 188 253 229 165 275 198 239 231 276 197 230 259 346 290 180 237 245 264 284 148 278 204 239 115 134 246 303 262 247 204 228 249 194 299 203 289 355 227 257 261 239 311 172 239 255 232 213 199 201 317 270 160 230 232 208 250 245 152 180 207 253 157 236 295 251 185 278 282 342 261 228 200 264 184 223 187 271 206 226 272 267 262 257 223 363 222 178 272 265 216 209 264 174 283 283 302 188 230 219 322 265 319 249 233 263 291 196 267 242 161 321 127 365 233 207 166 232 235 216 251 290 238 249 197 270 244 192 232 221 262 243 213 185 190 215 233 264 305 234 258 237 232 173 239 325 257 256 261 183 189 252 253 201 206 245 179 168 243 250 184 271 178 179 280 212 225 299 207 221 254 264 129 236 262 274 160 198 227 231 252 182 167 143 190 304 202 252 226 289 148 184 185 233 256 235 236 212 191 285 179 256 299 201 232 276 194 238 264 380 259 223 222 142 247 151 249 293 235 266 249 179 228 225 223 201 266 281 201 170 217 280 196 151 268 118 253 251 171 194 258 229 228 243 314 251 175 243 211 217 238 251 188 236 288 208 239 256 192 178 164 229 314 213 273 212 263 242 217 232 248 251 222 194 228 179 227 309 202 197 193 264 167 180 228 242 193 261 207 244 222 256 190 196 226 174 219 315 249 294 238 207 283 170 308 203 208 273 314 306 221 196 255 345 199 271 228 235 187 219 162 188 237 320 200 203 305 160 287 203 203 302 146 278 255 260 219 136 132 207 226 239 180 237 272 288 255 196 225 204 285 216 271 237 159 127 229 213 244 281 209 240 179 192 208 297 190 225 250 261 223 185 303 226 225 227 253 266 290 181 310 302 194 254 176 185 154 198 184 203 285 274 301 231 207 199 238 243 220 304 188 279 264 213 288 188 247 187 309 204 288 249 243 245 187 230 275 257 241 264 253 291 159 269 215 227 209 279 226 250 225 280 295 285 225 201 203 267 320 217 242 248 305 275 291 223 262 113 192 124 227 140 271 219 260 263 152 207 269 354 261 201 243 261 258 279 257 228 262 278 256 203 195 243 296 311 256 184 159 194 289 186 365 192 236 301 233 272 288 161 266 322 194 214 236 247 305 249 250 225 329 229 232 222 138 182 313 318 232 242 265 160 236 297 229 202 257 162 209 181 207 178 237 224 209 224 160 277 262 208 219 175 236 318 189 249 243 288 144 244 213 279 261 164 176 234 289 217 282 184 193 222 165 167 157 217 124 215 153 269 191 219 172 247 283 145 122 228 188 270 210 218 262 283 313 333 306 306 308 340 218 273 181 229 166 187 261 260 305 231 334 238 177 215 282 300 226 233 315 207 264 298 235 199 196 258 302 225 217 257 250 215 112 182 255 244 229 324 233 267 188 245 201 283 210 248 206 259 253 283 287 242 164 362 194 210 233 187 241 300 165 210 185 230 305 225 189 196 254 212 260 174 234 217 269 245 302 232 255 208 207 240 329 170 296 194 237 159 245 336 133 221 270 200 206 244 208 220 257 201 199 250 221 219 238 274 226 261 216 302 199 257 185 240 294 204 242 183 211 263 224 248 200 213 221 245 238 192 276 292 228 184 286 188 295 277 237 237 202 209 187 304 172 306 269 368 192 210 219 301 367 209 271 291 288 225 257 266 256 178 257 281 253 315 212 241 278 241 292 180 254 95 266 253 217 333 180 262 252 253 212 238 173 319 277 268 230 284 215 209 231 328 227 277 256 187 176 232 341 306 160 277 262 198 222 165 302 246 182 148 287 151 229 273 210 294 252 217 197 227 248 230 256 182 173 244 275 200 175 199 290 258 208 280 252 195 245 242 212 223 238 253 193 174 218 130 202 224 280 265 241 224 188 221 223 324 250 375 174 181 184 283 265 273 155 224 263 194 282 303 187 278 240 317 232 287 233 193 287 292 299 237 217 239 182 193 223 250 178 311 207 297 310 254 159 254 230 255 194 374 239 235 220 275 285 271 159 260 232 237 245 159 214 278 144 250 303 258 293 374 291 221 284 252 246 196 235 263 202 216 257 227 203 153 264 245 238 220 241 220 265 260 237 282 209 235 250 147 179 244 238 306 234 269 212 201 251 268 191 223 239 180 196 253 206 221 127 191 163 261 114 235 280 250 147 204 180 220 244 245 214 296 237 275 240 232 186 196 186 257 246 377 202 256 237 230 184 226 188 230 145 169 253 180 238 190 184 224 157 156 307 170 172 208 232 226 264 297 253 258 261 200 206 280 197 226 246 180 253 266 229 197 271 189 185 262 214 200 208 241 229 227 237 204 243 143 259 214 250 358 208 296 302 309 297 231 309 234 219 222 298 243 273 211 242 283 182 272 208 271 327 305 172 301 242 272 268 227 234 266 224 230 315 225 226 222 281 276 171 251 199 286 245 266 325 185 214 332 181 184 211 288 285 290 223 178 230 314 284 279 233 229 263 180 179 211 303 277 229 199 194 208 181 266 255 253 212 223 206 243 227 231 245 127 236 270 204 254 186 76 176 170 226 215 260 182 331 343 213 348 289 128 297 276 183 177 193 179 197 222 166 264 290 222 328 256 242 234 248 170 215 174 289 194 328 161 197 190 169 253 305 213 210 175 233 263 180 269 312 304 269 261 279 196 220 240 195 318 210 268 180 228 259 175 198 247 209 233 222 272 225 138 228 166 290 234 247 284 280 376 162 181 279 229 214 292 180 223 177 242 257 229 247 385 372 248 222 162 253 272 172 233 246 267 368 208 208 174 237 287 279 237 224 196 210 252 260 252 277 179 174 119 195 270 238 220 187 187 233 254 234 231 190 163 275 197 199 282 202 215 247 284 211 255 149 259 287 180 269 243 247 287 229 355 201 191 168 230 228 279 183 296 176 173 242 192 207 247 172 251 247 302 201 205 215 259 287 255 219 265 234 205 200 297 203 247 207 222 223 254 153 200 247 289 291 304 192 267 196 230 224 264 233 127 268 174 278 316 224 217 209 296 272 239 219 257 205 241 168 279 247 208 143 209 228 262 258 287 205 247 308 155 280 162 214 156 261 210 173 183 173 193 345 313 213 245 212 189 246 122 221 310 267 259 195 301 159 196 251 207 241 232 242 281 272 293 217 252 250 263 178 245 248 228 194 305 254 306 239 249 221 238 140 263 174 286 228 319 204 250 233 170 195 228 202 246 192 180 234 327 251 228 247 269 215 244 184 281 221 193 183 240 280 175 230 262 345 155 196 237 150 243 205 175 217 264 203 253 212 159 255 313 220 226 224 273 266 212 241 276 213 165 297 193 154 188 242 173 224 226 250 223 213 192 302 253 220 306 265 202 264 264 240 297 240 232 216 275 193 264 254 344 222 212 201 205 219 218 242 211 240 274 166 311 266 206 223 254 221 317 243 220 260 194 217 216 204 181 221 266 188 199 219 167 227 257 225 150 239 210 251 308 145 233 299 215 212 254 350 258 153 230 88 258 270 258 202 184 115 174 279 236 208 282 268 227 215 137 148 245 288 258 199 223 231 224 247 217 260 270 175 320 178 249 177 269 186 179 243 215 197 274 306 245 252 279 250 217 230 272 233 251 251 276 197 240 269 200 250 236 213 203 192 302 244 156 263 254 281 245 249 316 346 292 220 169 257 304 277 225 201 201 166 187 242 344 206 231 292 272 218 221 254 241 183 228 179 306 229 146 293 239 272 254 195 194 151 268 246 271 178 240 189 368 174 173 299 273 294 237 213 162 183 174 302 193 294 163 207 263 248 256 247 186 171 236 226 268 201 152 163 239 253 187 226 262 281 302 266 250 150 238 276 308 185 244 259 125 257 198 243 335 201 346 244 146 204 296 202 246 282 225 175 219 316 176 249 329 246 181 273 299 261 214 265 326 280 203 216 240 202 282 231 167 207 254 238 212 250 211 314 292 252 221 308 259 230 222 169 230 264 263 251 200 332 254 137 203 220 256 172 195 221 274 152 178 254 250 214 204 252 253 265 258 108 269 278 206 256 265 227 261 318 200 142 204 266 201 150 191 285 162 245 209 214 292 339 219 313 300 210 285 219 274 152 262 285 246 270 233 201 197 256 205 268 296 220 225 292 235 217 155 306 230 216 210 144 247 249 234 224 271 226 267 274 180 248 238 261 275 216 235 124 241 320 252 235 308 276 267 259 167 258 210 243 250 225 244 209 227 303 267 241 286 232 211 258 157 182 194 193 239 232 238 310 238 235 209 314 235 227 234 211 211 290 290 341 241 228 155 154 213 208 201 213 203 261 282 223 242 239 191 265 166 235 258 253 227 251 210 217 252 277 259 235 302 245 192 312 303 231 179 280 242 156 180 265 116 276 160 232 188 291 267 255 234 223 277 253 207 264 248 252 206 201 242 185 209 187 312 251 232 282 251 189 210 194 199 263 226 138 223 198 221 261 300 293 208 168 163 177 243 237 218 159 229 226 179 242 239 295 229 217 263 326 179 192 157 170 270 235 318 203 246 208 186 312 211 173 176 256 229 263 200 197 258 240 247 294 193 209 135 213 252 298 267 280 279 166 204 257 152 182 281 216 208 281 270 285 184 193 241 222 228 277 172 284 193 295 191 239 202 276 259 319 292 196 232 212 285 270 262 176 271 202 277 301 220 149 198 233 223 211 225 202 202 241 288 148 112 255 232 193 272 310 155 250 330 287 335 223 271 254 203 344 206 198 233 240 204 226 174 242 218 175 269 165 254 263 358 193 264 256 187 202 188 202 158 252 250 186 271 296 236 234 259 224 238 206 221 258 281 308 269 200 236 267 315 214 246 259 236 180 194 237 300 239 207 228 245 193 245 307 299 291 309 275 224 229 209 256 292 215 196 301 166 222 236 274 277 265 206 184 274 260 132 216 262 286 215 240 223 170 164 203 277 199 219 216 235 234 207 305 214 225 239 159 186 329 164 177 231 217 228 186 216 306 156 257 271 346 261 223 316 282 318 266 319 253 200 249 222 255 295 255 199 297 275 198 169 241 272 166 347 191 171 238 226 189 268 230 304 239 247 256 226 269 233 226 317 234 268 227 223 204 236 162 230 193 246 177 265 165 213 197 96 202 230 162 265 238 312 214 216 190 249 245 141 245 234 230 230 265 185 286 182 236 232 319 174 170 265 155 259 217 235 222 224 173 228 287 182 262 207 182 226 252 220 177 260 172 208 181 268 277 273 236 178 204 199 156 170 205 200 177 213 196 195 296 253 196 254 262 166 194 251 313 309 223 248 203 212 267 196 254 284 136 167 232 181 292 315 226 213 261 272 134 329 254 221 234 317 267 193 227 208 221 229 241 221 261 218 170 240 292 249 274 210 253 306 262 232 247 159 259 309 285 270 277 261 306 230 214 238 249 270 294 180 257 174 301 206 174 226 239 320 258 244 192 253 331 270 222 261 275 266 226 246 268 179 232 226 265 204 270 272 204 255 244 230 225 220 205 265 114 230 193 201 324 253 296 269 198 207 235 328 197 336 220 217 201 261 251 236 301 202 193 195 305 244 252 223 256 230 236 261 244 198 242 251 323 192 270 205 322 308 170 264 203 260 215 230 310 203 195 159 200 235 170 141 175 272 255 246 192 161 224 178 232 176 189 226 133 136 267 300 196 229 324 260 272 226 289 283 293 207 263 215 211 174 148 181 382 229 182 234 347 183 262 198 182 249 210 233 291 163 168 262 206 185 248 273 278 219 281 301 279 185 267 278 185 288 178 181 225 286 311 236 298 237 317 195 199 272 286 298 255 238 248 222 132 323 218 280 238 315 222 243 255 234 258 215 219 193 219 255 265 248 116 185 183 190 187 293 246 239 204 210 272 229 161 188 214 225 213 187 223 205 198 315 198 295 265 162 360 225 217 161 216 244 183 272 237 270 149 256 209 240 209 227 242 258 288 161 223 180 186 253 160 249 252 263 253 189 329 263 268 187 182 143 177 244 204 203 265 219 165 268 192 210 231 190 273 235 246 286 182 241 258 203 179 186 269 237 244 247 273 249 178 250 185 175 256 274 150 251 182 165 254 189 242 248 221 290 255 255 155 246 231 297 234 235 269 197 222 252 289 303 218 333 287 273 186 215 346 225 298 134 141 215 250 203 276 238 265 213 195 247 185 214 218 229 253 260 283 250 212 299 173 167 250 268 256 196 240 189 216 238 263 265 245 214 191 233 199 170 195 237 281 260 200 291 232 219 130 231 170 190 194 241 261 241 296 281 264 175 264 303 262 257 244 243 281 307 289 260 155 196 132 210 277 244 236 229 149 337 251 225 254 231 296 292 322 294 333 193 251 255 248 226 305 299 208 220 239 169 269 279 266 242 349 235 209 288 265 314 184 225 274 226 166 205 219 232 206 176 165 343 191 268 201 209 220 270 269 258 337 281 221 231 189 209 149 217 294 275 241 249 324 254 196 337 185 245 187 315 252 273 201 336 189 212 257 311 287 224 190 172 152 250 280 167 265 145 250 180 272 209 244 267 212 238 199 136 218 184 239 187 206 170 214 283 185 189 273 244 209 245 200 141 222 315 341 185 207 270 286 198 299 203 245 275 213 177 223 206 213 334 287 256 228 230 202 373 220 253 210 185 225 268 264 201 235 176 173 191 251 335 270 220 166 149 302 293 201 231 301 250 278 212 269 265 273 237 105 287 273 174 275 119 219 264 256 283 255 214 239 217 338 261 241 247 189 229 271 259 190 304 279 211 256 257 197 265 349 213 188 241 330 200 204 231 169 202 236 248 229 161 258 264 225 233 285 271 195 288 217 313 177 158 275 213 276 283 299 350 192 237 228 228 226 166 264 198 192 287 339 214 289 291 373 246 319 248 352 284 215 140 304 239 304 172 293 224 204 228 202 226 188 300 224 269 294 261 230 191 235 245 186 284 227 182 241 129 209 279 245 268 216 244 189 293 216 237 160 232 154 197 158 249 197 225 214 242 271 170 207 323 275 240 232 212 314 193 272 165 247 245 310 313 277 259 167 176 222 356 277 298 269 165 266 265 327 232 202 193 192 243 316 226 225 211 216 296 254 203 227 267 268 271 227 227 230 167 197 232 315 226 175 163 286 274 229 217 255 302 250 297 274 244 204 254 254 195 233 229 268 201 260 159 234 253 221 296 223 317 236 191 241 208 339 207 235 200 288 297 232 213 232 274 259 162 235 254 166 250 179 153 317 276 272 207 227 161 256 315 192 173 249 294 188 122 230 374 304 210 333 276 254 231 277 182 255 242 223 234 209 315 213 279 233 236 144 234 109 258 198 246 250 312 288 239 228 276 257 218 212 245 244 244 296 164 165 205 272 213 150 296 137 269 189 260 246 320 269 143 187 299 167 196 207 259 205 208 290 271 217 236 243 248 258 271 328 254 197 311 225 238 98 302 246 243 252 246 170 234 233 269 240 311 269 232 224 205 216 242 285 281 242 239 341 310 284 281 214 273 257 186 195 214 253 234 220 242 207 309 276 278 249 318 167 262 291 344 199 267 273 319 210 180 221 235 229 183 224 180 200 239 158 255 180 211 273 210 220 231 226 291 242 269 245 239 166 181 258 224 315 308 251 214 158 150 301 186 219 256 273 277 225 166 251 331 145 163 315 286 292 334 235 290 256 292 279 245 204 159 187 285 253 239 231 208 323 257 281 271 268 238 186 157 242 316 183 216 241 303 263 251 199 269 209 221 333 344 230 188 273 227 199 253 215 146 216 270 233 185 283 282 271 210 265 320 138 184 139 263 156 218 138 135 206 346 139 181 244 223 202 271 172 206 246 198 211 150 248 261 241 226 264 237 245 237 141 188 165 201 238 249 248 269 268 239 147 222 254 203 297 284 208 221 168 142 218 142 172 204 275 152 326 307 208 181 179 222 215 212 134 217 222 249 186 319 253 134 252 245 328 268 289 233 250 279 187 131 227 232 235 269 189 154 294 141 383 272 322 200 250 210 204 173 205 238 229 232 179 328 250 263 261 196 149 272 249 311 229 186 271 245 250 230 222 305 235 282 163 199 256 228 290 247 265 272 232 195 250 235 245 279 183 213 201 218 240 142 235 291 174 248 161 226 291 122 274 279 205 279 226 138 208 303 268 207 318 221 227 260 266 177 346 272 264 154 252 221 152 241 202 233 195 254 241 258 269 243 218 307 242 218 248 206 188 208 176 238 264 223 247 293 227 185 224 206 234 195 178 180 181 326 246 268 286 308 159 241 244 261 229 284 252 205 211 210 208 210 264 232 220 313 298 184 245 209 199 202 162 255 178 188 223 198 236 249 248 201 197 252 222 205 260 161 348 304 196 236 222 227 267 187 249 113 319 225 314 235 224 281 181 151 256 273 252 307 239 187 201 180 242 245 271 300 181 231 234 213 250 188 207 227 232 193 191 206 293 288 231 287 211 296 250 229 224 301 195 205 156 188 227 244 290 183 156 165 239 181 294 236 270 238 234 147 216 263 239 280 127 145 216 239 174 344 227 267 147 333 212 193 229 244 268 219 210 201 176 225 261 219 245 233 192 278 252 234 252 319 203 238 294 161 181 196 328 199 229 250 232 189 140 202 255 270 334 254 361 303 275 245 201 321 169 253 126 287 273 258 235 171 206 175 174 217 292 237 263 243 186 253 246 266 242 214 237 186 285 247 300 153 260 233 260 194 318 143 145 242 288 202 185 154 270 286 293 188 225 225 228 189 276 213 202 219 215 241 153 194 230 307 194 192 274 246 213 267 242 234 180 301 249 226 239 168 320 239 231 265 331 224 229 274 206 196 262 206 161 265 299 196 272 243 200 219 270 180 147 291 232 269 224 231 209 287 119 230 252 246 236 209 256 223 235 232 201 311 229 166 257 208 170 201 225 271 274 196 224 250 245 255 277 227 232 249 112 319 300 145 262 168 279 248 213 188 217 277 255 251 305 214 207 257 222 200 211 315 207 218 267 285 251 209 271 141 253 240 239 222 252 168 271 296 245 274 312 217 209 295 250 222 234 210 231 261 225 258 209 213 253 192 237 161 166 287 201 198 211 254 262 223 165 260 165 264 191 243 195 221 178 229 233 273 271 286 186 227 198 290 227 285 260 258 216 171 246 282 290 257 145 318 181 192 333 218 274 199 234 302 233 218 167 287 209 261 218 212 233 268 208 195 255 291 164 221 216 213 231 234 232 234 162 188 229 175 205 188 256 261 180 221 226 351 184 267 187 297 215 171 321 214 256 230 173 182 234 162 282 277 218 208 227 217 212 268 211 225 278 221 207 219 192 129 205 191 306 269 177 173 187 212 257 204 156 239 240 160 263 261 214 269 210 220 283 148 239 149 285 173 149 201 198 177 307 198 176 235 263 247 220 227 206 266 266 268 278 160 190 323 202 232 256 196 256 296 237 326 224 285 212 265 228 212 223 269 179 253 283 244 214 251 285 240 271 260 147 256 232 258 276 214 225 191 126 159 163 181 267 258 176 224 165 241 330 257 259 215 246 242 250 243 208 280 201 272 316 254 233 266 253 327 228 222 188 279 255 216 255 247 175 253 336 256 154 105 249 201 184 186 306 248 204 184 236 250 266 261 237 330 144 217 186 231 262 242 334 245 213 189 278 300 147 251 217 203 283 188 200 243 166 207 192 202 276 239 208 231 251 216 228 241 297 236 381 261 291 248 202 280 234 283 277 295 213 232 277 388 293 216 241 283 232 369 157 284 243 275 252 260 280 254 223 198 228 267 227 180 257 253 325 293 304 174 252 208 212 212 219 271 237 251 208 181 158 341 170 215 196 313 242 279 242 360 258 271 308 186 227 211 145 242 166 175 220 173 281 236 211 161 222 267 199 274 195 310 202 255 231 326 266 321 334 228 218 194 271 221 221 276 286 275 237 209 172 222 172 194 228 291 193 158 268 256 357 244 319 271 297 238 225 241 239 263 214 179 235 195 282 123 231 202 264 219 241 254 239 204 136 246 218 271 171 260 240 227 206 201 229 203 226 265 195 269 255 220 260 224 242 305 210 279 276 187 310 213 253 328 213 272 279 226 210 226 213 301 175 237 188 197 253 176 249 266 272 195 218 220 149 244 188 155 189 235 148 353 279 213 214 279 205 276 292 201 280 197 227 253 203 279 154 349 300 257 227 275 131 156 274 271 207 246 179 275 252 289 185 235 229 327 277 218 210 310 184 267 322 286 250 211 221 224 286 249 235 193 228 295 158 266 319 204 189 263 211 277 217 262 319 141 246 175 238 159 144 185 211 180 296 316 291 242 265 156 241 263 177 272 261 268 207 335 346 237 218 247 219 284 273 301 191 219 226 292 181 169 273 322 190 210 155 173 239 195 162 318 181 243 283 261 183 290 201 275 297 267 245 226 268 178 328 204 243 222 170 227 240 268 349 262 323 282 215 186 316 250 265 137 219 223 240 174 280 235 144 302 222 289 223 221 221 210 174 164 222 330 284 173 234 278 203 260 286 285 227 258 264 214 289 221 226 172 146 129 238 129 243 295 275 111 211 181 240 251 312 228 292 219 300 136 215 187 189 239 249 241 212 341 229 213 221 258 323 235 239 201 199 191 151 250 219 215 256 205 169 259 268 177 245 375 233 367 244 259 201 193 261 283 206 237 206 305 246 168 222 238 268 291 235 191 264 275 215 172 176 278 284 206 249 188 249 216 250 242 250 284 257 192 196 242 209 129 329 209 213 269 238 299 192 256 212 207 166 136 277 320 281 256 215 190 212 206 299 203 260 183 307 176 219 209 212 277 138 96 221 223 258 222 209 272 312 303 159 199 280 193 211 257 199 306 255 207 218 239 190 292 245 234 244 220 216 197 193 242 187 264 206 254 207 183 242 191 228 220 216 311 251 206 218 315 214 242 213 196 259 300 205 286 219 266 257 216 222 276 231 287 317 284 244 297 205 285 217 154 199 253 317 249 202 249 216 253 294 238 214 215 232 238 272 197 197 235 294 172 185 210 215 290 245 263 255 192 209 275 217 250 162 243 265 246 210 259 263 234 213 172 202 131 242 147 275 314 267 188 268 237 157 294 152 316 173 275 184 241 198 186 212 245 214 263 213 239 249 242 245 225 243 179 179 268 263 175 174 171 289 233 218 323 244 243 229 227 198 156 222 141 253 213 223 250 329 214 242 252 299 156 215 256 252 208 285 189 329 178 271 205 242 208 218 299 220 259 225 230 289 206 223 255 249 235 244 246 250 284 256 262 123 259 232 240 241 234 321 257 179 188 262 216 244 209 221 293 228 213 278 276 162 237 246 231 233 246 209 212 177 228 165 318 169 286 236 271 216 121 220 248 156 196 297 207 278 249 204 267 197 271 222 253 178 260 289 157 276 250 292 240 133 209 282 223 172 271 220 147 215 264 231 106 200 185 212 212 271 295 250 227 189 257 292 188 226 232 232 295 199 260 236 196 265 235 217 262 188 283 205 291 204 302 168 242 260 262 271 268 198 204 273 229 241 220 192 257 273 231 188 240 171 194 252 184 210 284 114 276 229 273 253 360 269 195 297 235 224 225 237 257 210 203 256 264 235 209 227 235 248 242 240 261 303 173 250 254 192 195 154 193 278 397 215 200 229 302 324 268 250 182 252 193 300 273 292 216 260 267 212 287 244 271 224 207 256 275 204 245 310 188 271 277 275 170 321 281 181 208 148 240 260 172 160 235 193 333 293 318 223 227 231 153 165 210 287 219 219 203 220 319 237 190 226 164 229 209 141 364 290 244 234 235 229 210 221 268 142 279 135 201 217 259 225 254 197 256 259 223 317 236 219 259 260 225 341 173 323 181 201 231 252 174 203 247 281 188 271 290 279 301 257 301 162 261 209 208 282 338 240 198 185 158 266 179 198 162 220 293 239 189 207 241 255 369 303 288 206 207 261 242 237 166 270 225 260 29</t>
-  </si>
-  <si>
-    <t>MIE(0.2180376612814529, 2.5646322081248414, -7.706891531764433e-30, 0.8679053396973321)</t>
-  </si>
-  <si>
-    <t>1 0 2 1 2 2 3 0 0 1 2 2 2 3 0 0 1 1 1 2 1 2 1 1 0 1 2 2 0 1 1 2 0 1 1 0 1 0 3 2 1 2 1 2 1 1 0 2 1 2 1 3 2 1 1 1 1 2 1 0 1 0 2 1 1 0 0 2 2 3 1 3 0 1 0 0 2 1 2 0 2 2 0 1 2 0 1 2 0 2 3 1 2 3 3 1 2 0 2 1 1 1 1 0 3 2 2 1 0 1 0 2 0 1 1 0 0 0 3 3 1 0 3 2 1 0 1 1 2 0 1 2 0 3 0 0 1 2 0 2 2 2 1 0 0 1 1 0 2 1 1 1 2 0 1 2 1 1 2 2 0 1 1 1 1 0 1 2 1 2 0 1 1 1 3 1 0 0 0 1 2 3 2 0 2 0 1 1 0 1 2 1 0 1 2 2 2 1 0 0 1 1 1 0 0 0 3 3 0 0 1 2 2 0 0 2 3 1 2 2 1 0 0 2 2 1 2 0 0 0 1 1 1 2 0 2 2 0 1 2 1 0 0 2 2 2 1 1 3 2 1 2 0 2 0 1 0 1 2 2 2 1 1 1 2 2 1 1 3 0 0 4 0 0 1 1 1 1 3 2 1 0 3 1 1 1 1 2 2 1 2 3 3 3 1 2 2 1 0 1 0 2 1 1 0 0 1 0 2 2 1 1 0 0 1 2 0 1 1 0 2 1 0 1 1 1 1 1 1 0 1 1 2 4 0 1 2 1 2 2 1 0 0 0 1 0 0 2 1 2 3 1 3 3 1 3 0 0 3 2 0 1 0 2 2 2 2 1 1 1 0 2 1 0 1 2 2 0 1 3 2 2 3 0 0 1 2 0 0 1 1 2 0 2 1 1 2 3 1 1 3 2 3 2 2 1 2 0 0 3 3 1 1 0 1 0 0 2 2 0 0 1 1 1 2 2 2 1 1 2 0 1 1 0 3 3 1 2 0 2 0 2 3 3 0 2 1 1 0 4 1 0 3 1 1 1 0 2 1 2 2 1 2 3 3 0 1 0 1 0 2 0 1 2 1 0 2 0 2 2 0 2 1 0 0 1 2 1 0 1 1 0 0 3 3 0 1 2 2 0 2 0 2 0 1 2 2 0 2 1 1 3 0 1 1 1 1 3 3 0 1 1 1 1 2 2 2 3 1 0 3 1 0 1 4 1 1 1 1 4 1 0 1 2 0 0 2 2 0 2 3 1 1 1 1 1 0 1 2 1 2 0 1 1 1 0 1 0 2 2 0 2 3 1 2 3 1 1 0 1 2 1 1 1 1 0 0 3 2 0 1 2 1 1 0 1 1 1 2 3 1 1 4 0 2 4 2 3 1 1 1 1 1 2 1 1 2 0 3 1 2 3 1 1 3 0 0 2 2 1 2 1 2 2 2 1 2 2 2 1 1 1 1 1 0 2 2 1 0 1 1 0 3 1 1 1 1 1 2 3 2 3 0 0 1 2 1 1 1 2 2 0 3 2 2 2 2 0 2 0 0 2 3 2 3 1 2 1 2 1 2 1 1 2 2 2 1 1 3 0 0 0 1 1 0 1 0 0 3 1 3 1 2 3 1 1 2 0 2 1 0 1 0 2 2 1 2 0 1 0 1 1 0 0 1 2 2 1 0 2 0 2 1 1 0 1 1 2 0 1 0 0 1 3 2 1 1 0 0 1 2 1 1 0 1 3 1 1 2 0 1 2 3 2 3 0 1 1 0 1 0 0 1 0 0 3 1 1 1 2 1 1 2 0 1 2 0 0 1 0 1 0 3 3 0 1 1 1 0 1 0 1 1 2 2 1 1 3 0 1 0 2 3 1 3 0 2 2 3 1 1 2 2 2 1 0 0 3 2 1 1 2 1 2 2 3 1 2 1 3 1 0 2 2 0 2 3 2 3 1 0 2 5 2 2 0 2 3 1 2 1 3 0 1 0 1 2 1 1 0 2 0 1 0 0 1 2 2 1 2 0 1 1 1 1 1 0 1 0 1 1 2 1 1 1 1 4 1 3 1 1 2 2 1 0 1 2 0 1 1 3 2 2 1 1 1 1 0 3 0 2 1 2 1 2 2 1 2 1 1 1 1 2 1 2 0 2 2 1 1 1 0 0 2 2 3 2 3 2 0 2 2 1 2 1 0 0 3 1 2 0 1 2 0 1 0 1 1 3 1 0 2 2 3 1 1 0 1 2 2 0 1 3 1 2 0 1 1 0 1 2 1 1 0 2 2 1 3 0 1 2 4 2 1 1 1 1 2 1 2 1 1 1 0 0 2 2 0 2 2 2 1 0 1 0 1 0 1 1 2 1 0 0 1 1 1 0 2 3 0 2 0 1 1 2 0 1 1 3 3 0 2 3 0 1 1 2 2 1 0 3 1 1 1 0 2 1 2 1 1 3 0 1 1 1 1 0 2 1 3 1 1 1 0 3 0 1 1 1 2 1 2 1 0 0 1 1 1 2 2 1 1 0 0 0 0 0 2 2 0 3 2 2 1 3 1 0 0 0 3 1 3 1 4 1 0 2 2 1 2 2 0 0 1 0 1 2 1 0 3 2 0 0 1 3 2 0 2 0 2 1 1 2 1 0 2 1 2 1 2 4 2 1 1 3 2 1 0 1 1 2 1 2 1 1 0 0 1 1 2 1 2 0 1 1 1 0 1 1 0 2 3 0 2 1 0 3 0 2 0 5 3 1 2 2 3 1 0 1 1 1 1 1 0 1 2 0 1 1 1 0 2 1 2 3 1 2 0 2 2 2 1 2 1 2 1 0 2 2 0 2 0 2 2 0 0 2 2 0 1 1 0 2 4 2 1 1 3 1 3 1 1 0 2 1 0 2 1 1 1 0 1 0 0 1 0 1 1 1 1 2 4 1 3 1 2 2 1 2 2 1 1 2 1 2 1 3 1 0 0 1 1 1 1 2 0 2 1 3 1 2 3 2 2 1 3 0 3 2 2 1 3 1 1 3 1 0 1 0 2 1 1 1 2 2 1 2 0 1 2 2 0 3 0 0 1 2 0 0 0 1 2 0 1 1 0 1 0 3 1 1 1 1 1 2 0 0 1 0 1 2 4 1 1 1 0 3 2 2 2 0 1 0 2 0 4 0 1 1 2 0 1 1 2 1 2 1 0 1 0 0 1 0 2 1 1 0 2 1 1 1 1 0 2 1 1 1 2 0 2 1 1 1 1 2 0 3 1 1 2 0 1 1 2 1 1 1 2 0 0 1 2 1 1 1 2 1 2 2 1 0 1 1 2 0 0 1 2 2 1 2 1 2 2 1 1 0 1 4 2 1 1 1 0 0 2 1 1 3 1 2 0 2 1 1 1 1 1 1 2 0 0 0 1 1 2 2 2 0 2 1 4 2 0 1 3 1 1 1 2 3 2 2 1 1 0 1 0 1 1 2 2 1 0 1 1 0 3 1 2 3 2 2 3 0 1 1 2 0 1 1 2 2 2 2 1 1 3 2 1 0 2 1 1 0 0 0 1 1 1 0 0 1 0 0 1 1 3 3 0 1 2 0 1 1 0 3 1 2 0 2 2 1 3 2 2 0 1 0 1 2 0 0 2 1 1 3 2 1 2 1 1 3 1 1 1 2 1 0 2 1 2 1 1 1 1 2 2 0 1 2 1 1 1 1 1 2 0 2 1 1 3 0 0 0 3 2 3 2 2 0 1 2 1 1 2 0 2 0 2 1 0 2 0 1 2 2 1 1 2 2 0 2 1 3 0 1 0 2 1 1 0 3 2 1 1 2 1 2 2 0 3 1 1 1 1 2 2 2 1 2 2 0 0 0 3 1 1 2 1 2 2 1 0 1 2 1 2 2 1 0 1 2 3 2 1 1 4 1 1 3 1 1 1 1 2 3 1 3 1 1 2 1 1 1 1 0 1 3 2 0 4 0 1 0 1 0 1 1 1 1 1 1 0 2 0 2 2 1 0 3 1 0 2 1 0 5 0 1 2 1 2 0 1 3 1 3 0 2 1 0 1 3 0 0 0 0 0 1 1 2 0 1 0 1 1 0 0 2 1 1 1 0 1 1 1 1 2 1 0 0 2 0 0 0 1 0 1 3 0 1 1 3 1 1 1 1 0 2 2 1 0 1 2 1 3 2 2 1 2 1 0 3 3 1 1 1 1 2 1 0 2 0 0 0 4 1 2 2 1 1 1 1 1 1 0 0 1 2 0 1 2 0 3 2 3 1 2 1 1 1 2 2 1 2 2 2 1 1 0 1 0 1 3 0 2 3 1 2 0 1 2 1 2 2 1 2 2 0 1 2 0 0 1 1 1 1 2 1 0 2 1 1 3 0 1 2 3 2 0 1 3 1 1 1 1 2 0 1 0 1 3 1 1 1 1 1 3 1 1 1 2 2 2 4 0 0 2 0 0 4 1 0 3 0 1 0 2 3 2 0 0 2 1 0 1 2 3 0 2 1 1 1 1 1 1 2 1 2 1 2 1 2 0 0 1 1 0 2 0 1 1 1 1 0 3 1 0 0 2 1 0 2 1 1 1 1 1 3 2 0 2 1 1 2 1 2 1 0 2 2 0 1 1 1 3 2 2 1 2 0 1 0 1 1 2 2 1 0 1 0 2 0 1 3 0 2 0 1 2 3 1 0 1 0 2 0 1 1 1 2 2 1 1 1 1 1 1 1 1 1 3 0 3 1 0 2 1 2 2 1 2 1 1 1 0 0 1 2 0 2 2 0 0 1 1 0 0 2 1 1 1 1 1 1 0 0 1 0 1 2 2 1 0 1 2 2 1 1 1 1 3 1 1 1 1 0 1 1 2 2 2 2 2 1 1 1 2 2 0 1 1 1 2 1 1 2 1 2 2 0 3 0 2 2 0 3 0 1 1 1 1 1 3 2 1 2 2 2 0 0 0 1 0 0 0 1 2 1 1 1 1 1 2 0 1 3 0 2 0 1 2 2 1 2 2 2 2 2 1 0 1 1 0 0 1 0 0 2 1 2 1 2 1 2 1 1 0 0 0 1 1 1 0 1 1 1 2 1 3 1 1 2 1 2 0 3 1 3 2 1 2 1 0 0 2 3 0 0 0 2 0 2 2 3 3 2 2 3 3 2 1 2 2 0 2 0 4 1 0 0 1 0 1 2 0 0 2 0 0 0 1 0 0 2 1 0 1 4 2 1 0 2 0 2 0 1 0 2 2 0 0 0 2 0 0 3 1 2 0 3 1 1 1 1 2 3 1 0 1 1 1 2 1 3 2 0 2 0 2 1 1 2 1 0 2 2 1 1 1 3 1 0 1 1 1 2 1 0 0 1 0 2 1 2 1 1 0 1 1 3 0 1 0 1 2 3 1 0 0 2 2 2 1 1 3 1 1 2 0 0 2 2 0 2 0 1 0 0 2 1 0 1 1 2 0 2 2 0 1 1 2 1 2 1 2 1 1 2 0 2 2 3 0 1 0 1 1 1 1 1 1 1 1 1 0 1 0 1 0 1 1 1 1 1 1 0 2 1 1 3 0 0 2 1 2 1 1 1 0 2 0 3 1 0 1 2 2 0 1 2 2 1 1 1 1 1 1 2 0 1 3 1 1 2 1 0 0 0 0 1 4 0 1 2 0 0 3 2 1 0 0 1 3 0 2 0 2 4 2 1 2 3 2 2 0 0 0 2 1 0 1 1 2 1 2 0 1 0 2 1 0 2 0 2 1 1 0 0 0 1 0 0 2 2 1 3 1 1 2 1 2 1 2 2 2 0 0 1 0 0 3 2 2 1 2 1 0 1 1 2 1 1 2 0 3 2 1 0 0 1 2 3 1 1 2 1 1 0 1 0 1 2 2 2 3 1 3 2 2 2 0 1 1 1 5 1 0 2 2 1 1 3 0 2 1 2 0 1 1 2 0 1 3 1 1 0 2 2 1 2 1 0 1 1 1 1 1 1 0 1 0 1 0 1 2 0 1 2 1 1 1 2 1 0 2 0 1 1 1 1 3 0 2 0 1 0 2 1 2 1 1 3 0 1 0 0 1 2 4 1 1 1 0 2 2 0 0 1 1 1 3 0 1 2 1 3 0 2 1 0 1 0 1 1 2 1 0 2 2 0 1 0 3 1 0 1 0 3 2 1 1 1 2 1 0 1 2 0 1 2 2 1 0 3 2 0 2 0 3 1 3 1 2 0 2 2 1 1 1 2 2 1 0 2 0 0 1 0 0 1 1 2 0 2 1 1 1 0 2 3 0 0 1 3 1 0 2 2 2 2 2 0 3 1 0 3 0 1 3 5 4 2 1 0 1 0 3 0 2 0 3 1 1 2 1 3 1 1 2 1 1 1 0 3 0 0 2 3 1 1 0 2 2 3 1 0 0 2 2 1 0 0 2 1 3 1 0 1 3 2 2 0 2 3 1 2 1 1 3 2 1 1 2 1 0 1 0 1 1 1 2 0 2 1 1 1 1 0 2 1 2 1 1 1 1 0 1 1 1 1 0 0 2 0 1 0 3 1 2 2 1 4 0 0 1 2 0 1 1 2 0 1 1 1 1 0 0 1 0 1 1 1 2 2 2 0 2 1 1 0 3 1 0 0 1 2 0 1 2 1 0 0 0 0 1 2 2 0 2 2 1 2 2 2 6 0 1 1 1 1 0 1 1 1 1 1 0 2 2 0 2 2 2 3 1 1 0 2 4 1 2 2 2 1 2 1 0 1 1 1 3 1 1 0 2 0 1 2 2 3 0 1 0 2 1 4 1 0 1 1 1 1 1 1 0 0 1 3 0 2 0 1 2 0 1 1 2 2 2 2 2 0 1 0 1 0 0 2 0 1 3 1 1 0 0 1 0 1 1 0 1 1 1 1 1 2 0 1 2 2 0 3 2 2 4 0 1 1 0 3 0 1 2 1 0 2 3 0 0 1 0 0 3 1 2 0 0 1 2 0 2 1 2 1 0 0 1 1 0 0 0 2 1 1 1 1 2 0 1 1 1 3 1 2 0 1 0 0 1 1 1 1 2 2 1 2 1 1 0 1 0 2 0 1 3 1 3 2 1 0 1 2 0 2 1 1 1 0 2 0 1 2 0 3 1 0 0 0 1 1 1 1 1 0 2 2 1 2 1 1 1 1 1 2 1 1 1 0 1 2 4 2 1 0 1 0 2 3 0 0 1 2 1 1 3 1 2 2 3 2 2 0 1 0 1 1 2 1 0 0 1 1 1 1 2 1 2 1 3 1 3 2 1 0 0 1 0 0 2 3 2 0 2 1 2 1 2 2 0 2 2 1 2 1 2 2 0 0 1 3 1 1 1 2 0 0 0 0 1 2 2 3 1 1 0 0 1 2 2 0 2 0 0 1 2 1 1 0 3 0 0 0 2 1 1 3 0 2 2 2 1 1 1 0 2 1 2 0 3 2 1 0 1 0 1 0 1 1 2 2 0 1 1 1 0 2 2 2 1 3 1 3 2 2 2 1 1 1 3 2 1 0 1 0 1 2 2 2 3 1 2 3 3 0 1 2 1 1 0 3 0 0 1 0 2 1 1 3 0 1 0 4 1 1 0 0 1 2 0 1 1 1 0 0 1 2 2 2 0 1 0 2 2 1 0 0 3 0 2 0 2 2 1 0 0 0 0 3 1 2 0 1 2 1 2 1 1 2 2 0 1 0 2 1 0 2 1 3 2 1 1 2 0 2 4 3 2 1 3 1 3 1 1 0 1 1 1 0 2 2 0 1 1 1 3 3 2 2 0 3 3 3 1 3 2 0 0 1 3 3 2 1 1 2 0 3 1 1 0 0 2 0 1 0 0 0 1 1 1 0 2 2 0 1 0 2 1 0 1 1 1 2 2 2 0 1 0 2 2 1 1 0 2 1 2 0 2 2 1 0 1 3 1 2 0 2 0 1 3 2 0 2 0 1 2 2 2 2 2 0 0 1 2 2 0 2 1 1 1 3 1 2 0 2 1 2 2 0 1 2 1 1 1 1 1 0 4 0 1 1 1 0 0 1 0 0 2 0 1 1 1 1 1 2 1 1 0 0 3 1 1 1 1 0 1 1 2 0 3 3 1 1 0 0 3 2 0 2 1 2 2 1 1 0 2 1 0 2 1 0 1 1 0 2 0 0 2 1 2 3 1 1 0 1 0 2 2 3 1 1 2 2 3 2 2 1 1 1 2 1 1 1 3 3 0 1 1 2 0 0 2 2 2 2 1 1 0 1 2 1 3 1 2 1 1 1 1 0 0 2 1 1 2 1 2 1 2 2 1 1 2 4 2 2 2 3 1 2 2 0 1 2 1 0 3 2 0 2 2 2 1 2 1 1 1 1 0 1 0 1 0 1 2 1 0 2 1 2 0 2 0 2 0 2 2 0 0 2 2 1 2 1 1 1 0 0 1 3 2 0 2 1 1 1 2 1 0 2 3 1 0 1 0 1 0 1 2 1 1 1 1 0 0 2 0 2 2 0 1 2 0 1 2 2 1 1 0 1 1 2 2 0 0 2 2 0 1 1 1 4 1 1 0 1 2 1 2 2 1 1 2 0 0 1 1 2 1 2 0 1 0 2 1 2 0 1 4 3 2 6 1 0 0 1 1 2 1 1 1 2 1 0 0 3 1 1 1 1 2 0 1 1 3 2 0 3 1 1 2 2 2 0 0 1 4 0 1 1 0 1 1 1 2 1 1 1 0 1 2 3 1 1 2 1 3 1 2 1 2 1 1 1 0 1 2 1 1 0 2 1 2 0 1 0 1 1 0 0 0 2 1 2 1 0 4 0 0 2 0 0 1 1 0 1 2 1 1 0 0 0 1 0 2 2 2 1 2 1 1 2 2 0 2 1 0 1 0 1 2 0 0 2 1 1 0 3 1 2 1 1 1 2 0 2 0 1 0 2 0 2 1 2 2 0 4 0 1 1 1 2 2 2 3 0 2 2 0 1 1 2 1 1 2 0 1 2 0 0 0 3 2 3 0 0 4 2 1 0 2 2 1 1 3 1 1 2 0 1 1 2 1 1 1 1 0 3 0 0 1 0 1 2 1 0 0 2 3 2 0 1 0 1 1 0 2 0 0 1 0 2 1 2 1 2 0 0 2 0 1 2 1 1 0 0 1 2 0 0 1 1 1 1 1 0 1 0 1 1 0 2 1 2 1 0 2 1 1 1 1 2 1 2 0 0 1 2 1 2 2 0 2 1 1 2 2 0 1 0 2 1 1 2 1 2 1 0 3 1 0 2 0 0 0 2 1 1 1 1 0 2 2 0 2 0 1 1 1 2 0 1 1 2 1 0 1 3 0 0 0 1 2 3 0 0 0 0 0 1 1 0 0 0 1 1 1 1 0 2 1 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 2 1 1 2 4 2 0 0 2 0 0 3 1 2 2 1 3 1 0 1 1 0 1 2 2 1 0 0 0 0 2 1 0 1 2 1 1 0 3 2 0 1 2 0 2 1 0 0 0 3 2 2 4 0 1 1 1 2 0 1 2 0 1 2 2 2 1 2 0 2 0 0 0 0 2 2 2 2 2 2 0 2 1 2 1 1 1 1 2 3 2 0 1 2 1 2 0 0 0 3 1 0 0 1 2 2 2 2 1 1 0 1 1 1 2 1 0 1 0 1 1 2 0 1 0 1 1 1 0 1 0 1 1 1 2 2 1 2 3 1 1 2 2 2 1 1 2 0 1 2 1 1 1 2 1 2 1 2 2 1 3 2 1 2 0 1 0 3 1 0 2 1 2 1 1 1 0 1 2 1 0 1 2 1 0 2 1 0 2 2 2 2 0 1 1 0 2 1 3 1 2 1 1 1 1 0 1 1 1 2 1 1 2 3 1 1 1 0 2 1 0 2 0 1 1 1 2 2 0 1 1 0 1 2 3 1 1 2 1 2 2 2 1 2 3 1 2 3 1 1 2 2 1 1 0 2 1 2 0 2 0 2 1 1 2 0 0 1 1 0 0 0 0 2 2 0 1 1 1 1 0 1 2 0 1 1 3 1 1 0 0 2 1 0 1 0 4 0 2 1 0 3 0 1 1 2 2 1 1 2 2 2 2 2 5 1 2 0 2 0 1 1 0 2 2 2 1 2 1 3 0 2 1 1 0 1 1 1 0 3 0 1 1 1 2 0 0 1 0 0 2 0 2 2 1 2 0 2 1 0 2 1 2 1 0 1 0 0 0 1 0 3 2 0 1 2 3 1 2 2 0 0 0 2 0 1 3 2 1 0 2 1 3 1 2 2 2 2 1 3 1 1 2 0 1 1 1 3 2 2 2 2 2 1 0 1 1 2 0 1 2 1 1 0 1 1 1 1 2 3 3 0 2 0 4 2 2 1 1 0 1 2 2 1 2 1 3 3 0 2 3 1 1 2 0 0 1 2 1 1 2 2 3 0 1 1 1 0 1 1 2 0 1 2 2 2 3 1 2 0 1 2 1 1 2 1 1 2 1 1 2 0 1 1 1 2 0 2 2 0 2 2 1 0 1 0 1 0 0 1 1 1 1 2 1 2 3 0 1 1 2 0 1 1 2 1 0 0 0 2 0 0 1 1 0 1 2 2 2 3 2 2 3 1 1 2 0 0 0 0 2 1 1 2 0 2 0 1 1 2 1 1 2 1 0 1 0 2 0 0 3 2 1 1 1 1 1 3 0 2 0 2 1 0 1 1 0 1 2 1 2 0 1 1 0 2 2 1 1 0 2 3 0 0 0 1 2 1 1 1 1 0 1 1 2 0 1 1 0 3 1 2 1 2 2 3 1 2 0 3 1 1 0 1 0 3 1 0 3 3 3 2 2 3 0 2 1 1 2 1 0 1 2 1 2 2 1 1 1 2 1 3 1 2 1 2 1 3 0 0 0 3 0 0 2 2 1 2 0 2 2 1 1 1 2 3 1 0 2 1 0 1 3 2 0 2 2 1 0 1 1 0 1 0 1 0 1 1 2 2 1 0 1 0 3 1 1 0 3 0 1 1 2 2 2 1 0 0 1 0 0 0 1 2 2 0 2 2 0 1 0 0 1 0 2 2 0 1 1 0 2 3 1 1 3 2 1 2 1 1 2 0 1 2 0 1 1 1 1 1 2 0 0 1 1 1 0 2 0 3 0 2 1 1 1 2 1 2 1 1 1 1 4 1 4 2 1 3 3 1 0 2 1 2 1 1 1 1 1 2 2 1 0 3 1 0 3 1 0 1 3 2 1 1 2 0 0 5 1 1 1 1 1 0 0 0 2 0 2 1 1 0 2 2 2 2 1 1 1 0 0 1 1 1 2 1 1 1 3 2 2 0 2 2 3 1 2 0 2 1 1 0 1 1 0 1 1 1 1 0 0 0 2 3 2 4 3 2 1 2 0 2 1 1 1 1 1 1 0 3 1 1 2 0 4 1 1 3 1 1 1 1 1 3 0 2 1 1 0 2 1 2 1 1 2 2 1 1 1 0 1 3 0 0 0 1 1 3 2 0 1 1 2 1 1 0 2 0 2 2 4 1 0 1 1 1 1 1 1 1 3 1 1 2 1 0 1 1 0 2 1 1 2 0 0 1 1 1 0 1 2 1 2 1 2 1 1 1 0 0 1 0 0 1 1 1 2 0 0 2 0 0 2 2 3 0 1 0 1 5 1 1 1 1 0 2 0 1 0 0 1 1 1 0 3 1 1 1 1 1 1 1 1 1 1 3 1 0 1 1 1 2 2 0 3 0 1 1 1 2 0 0 1 0 0 0 1 1 0 2 2 1 1 0 1 0 1 1 2 1 2 3 0 1 2 3 2 3 2 1 1 1 0 1 1 1 1 1 4 0 1 2 3 1 4 1 1 2 3 0 1 0 0 1 1 0 1 2 2 2 1 1 2 2 2 1 0 0 0 1 1 2 1 2 2 0 0 2 2 2 0 1 0 2 1 1 0 0 3 0 2 0 3 2 2 2 0 2 2 0 2 3 0 1 1 2 2 0 2 0 3 2 1 2 0 1 2 0 0 1 0 1 2 1 1 1 1 2 1 2 2 1 1 2 2 1 1 1 1 0 0 1 1 2 1 1 2 2 1 2 1 1 1 3 1 3 1 1 1 0 1 1 1 0 0 0 0 1 1 2 1 0 1 1 1 1 1 3 0 0 1 1 0 1 1 0 0 0 0 1 1 2 1 1 3 2 1 1 2 2 1 1 1 1 0 1 2 3 0 3 1 1 1 2 1 2 3 1 0 0 1 1 3 0 0 1 1 3 3 2 0 1 2 1 2 0 0 1 2 2 0 3 1 4 2 1 1 0 3 2 0 1 3 0 3 2 1 3 3 1 3 0 1 0 1 0 2 2 1 1 0 0 0 1 2 1 1 1 0 0 2 2 1 1 1 1 0 1 1 2 2 1 2 1 1 2 2 1 2 2 0 2 3 1 2 1 1 0 2 1 2 1 1 2 1 0 0 0 1 1 0 1 0 3 3 0 1 3 0 0 2 2 1 1 0 0 1 1 1 2 1 0 1 1 1 3 0 0 0 1 0 2 1 1 1 2 0 2 1 0 1 1 0 0 1 1 2 1 4 0 0 1 3 1 1 3 3 2 1 0 0 1 2 3 2 0 1 3 0 1 3 1 3 0 1 1 0 1 1 1 0 1 1 1 1 2 1 1 1 0 2 1 0 1 1 1 1 2 2 3 2 1 0 3 1 0 0 0 1 1 1 1 3 0 0 0 1 1 1 1 2 1 0 1 2 0 1 1 1 1 0 0 2 0 3 3 2 2 0 0 3 1 2 2 1 2 2 3 0 0 0 2 0 2 1 2 1 1 3 1 1 1 2 2 3 4 2 2 2 1 1 1 0 1 2 2 1 2 2 3 1 2 1 1 0 0 3 1 1 0 1 2 0 0 1 1 1 2 0 0 2 1 1 2 0 0 1 1 2 1 0 1 1 2 1 1 0 1 1 0 2 2 2 2 3 0 1 2 2 1 2 1 2 1 2 2 1 3 2 0 1 1 1 0 0 2 1 2 1 2 1 1 1 1 2 1 1 1 1 2 2 2 0 2 1 0 0 1 4 1 2 0 0 1 0 0 0 0 2 2 1 1 1 0 0 0 1 2 1 3 2 1 1 2 3 2 3 2 2 1 0 1 2 2 1 1 2 1 1 1 1 0 0 0 1 2 0 0 2 1 1 2 2 2 0 0 2 0 3 3 0 2 0 1 2 2 1 0 0 1 1 2 1 3 2 1 3 1 1 0 2 2 1 2 2 1 2 1 2 1 3 3 1 2 2 0 0 2 2 1 2 3 1 1 0 2 1 1 1 1 3 0 0 3 2 2 1 1 2 2 1 0 2 1 0 2 3 1 2 2 1 2 2 2 2 1 1 3 0 1 1 0 0 1 0 2 1 1 1 2 1 4 2 0 1 0 0 2 0 2 1 3 2 1 2 2 0 1 1 0 1 1 2 0 1 0 2 1 2 1 1 2 1 1 3 1 2 3 0 2 4 1 2 1 2 3 0 1 1 0 3 2 2 1 1 1 1 0 3 0 1 1 1 1 1 3 2 3 2 0 1 3 0 1 1 1 1 2 1 0 1 2 1 0 1 3 1 1 0 3 1 1 0 2 1 1 2 1 2 1 2 0 2 1 1 1 1 0 2 1 2 1 0 2 2 1 1 1 2 1 3 1 2 3 1 1 3 1 2 0 1 1 1 1 0 2 1 1 1 1 1 2 2 3 1 0 0 1 4 1 0 0 1 1 2 1 2 4 1 2 2 3 0 2 0 1 1 2 1 1 0 0 1 0 2 0 1 0 2 1 0 2 3 2 1 1 2 2 2 2 2 1 1 2 0 1 2 2 0 0 2 1 2 1 0 0 2 0 0 0 1 0 2 2 2 1 0 1 0 0 0 1 3 3 3 2 2 1 3 2 0 0 2 3 1 2 2 1 1 0 0 2 1 0 0 1 1 1 2 1 1 3 1 2 4 1 2 0 2 1 1 0 0 4 1 3 1 1 0 0 0 2 2 0 1 3 3 0 0 1 2 1 3 0 0 1 1 1 1 0 2 0 2 0 0 1 2 2 1 1 2 2 2 1 1 1 0 3 0 2 2 0 0 1 0 2 1 2 2 2 2 1 2 1 3 0 1 2 1 1 0 1 1 2 1 0 1 1 0 1 1 2 0 0 1 1 2 2 2 1 2 0 0 0 1 0 2 1 2 1 2 2 2 1 1 2 2 2 0 2 1 0 2 1 1 1 1 0 1 2 2 1 0 0 1 2 1 1 1 0 2 0 0 3 2 1 0 0 1 0 2 0 1 0 1 1 1 2 1 1 1 1 1 3 2 0 2 0 1 2 1 2 1 2 0 0 1 2 0 1 2 1 1 1 1 1 0 1 1 3 0 3 1 0 1 1 2 1 0 2 0 0 0 2 1 0 1 1 4 1 2 4 3 2 3 0 1 0 1 1 2 0 2 1 1 1 1 1 2 0 2 2 1 1 1 1 2 0 1 2 3 0 1 1 2 2 1 1 2 1 1 1 1 1 1 3 1 1 0 0 2 2 2 2 1 1 1 1 1 2 3 2 1 1 2 2 1 0 1 0 1 0 0 1 0 1 0 1 2 1 1 2 6 3 1 2 1 1 2 2 0 2 1 2 1 1 0 0 1 1 2 0 2 1 0 2 2 1 2 2 0 1 3 2 1 2 3 1 1 2 1 3 2 2 0 1 2 0 2 1 3 2 0 3 1 0 2 0 1 1 2 1 3 0 2 2 0 1 2 2 1 1 1 2 2 0 2 1 2 1 1 2 1 1 2 2 1 1 0 0 1 1 1 0 1 1 1 1 2 2 2 1 0 1 1 2 0 1 2 0 1 2 2 0 3 1 1 2 0 2 1 3 1 1 2 1 0 3 1 0 1 1 2 0 1 1 1 3 4 0 2 0 2 1 3 0 0 1 1 0 1 1 2 0 1 1 1 0 1 1 2 0 2 1 1 0 0 0 1 0 2 0 0 1 2 1 0 2 1 2 2 1 1 1 0 1 2 0 0 2 0 1 0 1 1 2 1 2 1 1 2 1 1 3 1 1 1 1 0 1 0 1 1 1 1 1 1 2 1 1 0 2 1 1 3 0 1 1 0 1 0 1 2 1 1 2 1 2 1 1 1 2 2 0 0 1 1 1 0 3 0 2 2 2 2 1 1 2 0 1 0 1 2 1 0 3 0 2 0 2 1 1 1 1 1 0 1 1 2 0 1 2 2 1 0 1 2 0 0 0 1 1 2 2 4 0 0 3 0 0 1 1 2 1 1 1 0 1 2 1 0 1 3 2 0 1 3 2 1 0 2 0 2 0 2 3 0 1 2 0 1 1 1 2 3 1 0 1 0 0 1 0 2 0 1 3 1 0 2 3 0 1 1 0 0 1 0 2 2 1 0 1 0 1 3 1 1 3 1 0 2 1 3 0 2 0 1 1 4 1 0 1 0 3 1 0 1 1 0 1 1 1 1 3 0 1 3 3 0 1 1 1 1 0 0 2 1 3 1 1 0 0 1 2 1 0 1 1 0 1 3 1 0 0 0 1 1 2 1 2 1 1 1 1 2 1 1 1 2 3 2 0 0 2 1 1 1 1 3 1 1 3 2 3 2 1 2 1 0 0 1 2 3 0 1 2 3 2 0 0 2 0 2 1 2 1 1 0 1 1 1 1 0 1 1 0 3 1 1 0 0 0 1 1 1 1 0 2 3 2 1 0 1 2 1 2 2 1 1 0 1 1 2 4 2 0 0 3 2 1 1 2 0 1 1 0 0 0 2 1 1 1 2 1 0 0 2 1 2 1 1 0 1 2 1 0 0 0 1 3 2 2 0 0 1 0 2 0 1 1 2 2 1 1 1 2 3 1 1 1 1 1 2 2 2 1 1 1 2 2 2 0 1 2 0 3 1 3 0 2 1 1 1 0 0 0 0 2 1 1 1 1 1 1 2 3 2 2 1 0 0 2 2 3 1 2 2 1 2 2 2 2 2 3 1 2 3 1 5 0 3 1 3 1 0 1 2 2 1 0 2 0 0 0 0 1 0 2 1 3 1 1 3 1 1 2 2 0 1 1 0 2 1 1 0 1 0 1 3 1 1 1 0 1 1 3 1 0 1 4 3 1 2 2 1 0 1 0 2 3 1 1 2 1 3 1 3 1 2 3 0 1 0 2 1 0 1 0 1 2 3 2 3 0 1 1 1 3 1 0 1 0 3 0 2 1 1 2 3 0 1 1 1 1 1 0 0 1 1 1 2 1 2 1 2 0 1 0 2 2 3 0 2 3 2 1 1 1 2 2 1 1 1 2 2 1 0 0 3 1 2 0 2 1 1 0 0 2 4 0 0 3 1 2 0 0 1 1 2 2 2 0 2 0 0 1 2 2 1 4 1 2 2 2 3 3 0 1 1 1 2 1 1 1 1 1 1 1 2 1 1 0 1 1 1 0 2 0 1 0 2 2 2 1 2 1 2 1 2 0 3 1 2 1 0 0 2 1 1 0 2 1 1 1 2 1 0 2 1 2 2 2 2 1 1 1 0 1 1 2 0 4 2 1 1 1 1 1 0 2 3 1 2 1 1 3 2 1 3 3 1 4 1 1 2 1 1 2 2 3 2 2 1 1 0 1 3 3 0 2 0 2 2 3 1 0 3 2 0 1 3 1 0 3 2 1 1 0 0 0 1 1 1 0 3 0 2 3 0 2 1 1 1 0 2 2 0 3 0 1 0 2 1 1 1 1 5 3 1 0 2 0 2 0 0 1 2 1 3 2 2 0 2 2 2 1 1 0 3 2 1 1 1 0 2 1 1 0 0 2 1 1 2 0 1 2 3 1 3 1 1 2 2 2 2 3 1 3 0 1 1 0 0 2 2 1 1 1 2 2 0 3 1 1 0 1 0 1 1 1 0 1 2 3 2 2 1 1 1 0 2 0 2 2 1 4 1 2 2 0 2 2 1 1 3 2 2 2 2 0 1 2 0 2 3 1 2 2 1 1 1 2 2 1 1 0 1 1 1 2 1 2 1 0 3 3 1 2 2 2 1 2 1 0 1 0 2 1 0 2 1 0 1 1 1 1 0 1 3 1 1 1 1 2 2 3 5 1 1 1 0 1 0 1 1 1 0 1 2 0 0 0 1 2 1 2 1 2 1 1 1 1 0 2 1 0 0 1 0 0 2 1 1 1 2 1 1 0 1 0 0 1 2 2 1 1 1 0 1 2 1 0 2 2 0 1 1 0 1 1 0 1 1 1 2 0 1 2 0 2 3 2 1 0 2 1 2 1 1 2 2 1 0 1 0 2 0 1 1 3 1 1 2 2 0 3 0 0 1 2 0 1 3 1 3 2 2 1 2 1 1 2 2 0 1 0 2 1 0 1 3 2 1 1 1 2 3 0 0 2 0 0 0 1 0 2 1 0 2 5 3 2 0 0 0 3 1 0 1 1 0 1 1 0 1 0 2 2 0 1 1 1 1 1 1 2 2 0 2 1 1 0 2 2 0 1 1 2 1 1 0 2 2 0 0 0 4 0 1 0 0 0 0 2 1 2 2 0 1 1 2 1 1 0 1 0 3 2 0 1 0 1 2 2 1 0 1 2 2 1 0 2 2 3 2 2 0 1 2 1 1 4 0 1 1 1 1 2 1 1 0 0 1 3 0 0 2 1 2 1 3 2 0 2 1 2 1 1 0 2 1 2 1 0 1 1 2 1 1 2 1 2 0 2 0 2 2 1 2 1 1 1 2 0 2 2 1 2 0 1 1 0 1 0 1 1 1 2 2 1 0 2 1 1 0 3 1 3 2 0 2 1 1 2 1 1 2 3 0 1 1 2 0 2 0 2 1 1 1 1 1 1 1 3 1 2 1 1 3 2 2 0 0 1 0 2 1 1 0 0 2 0 3 2 0 1 1 1 2 1 2 0 2 1 1 2 0 1 2 1 2 1 1 1 0 0 1 1 1 1 1 0 3 1 1 2 1 1 3 1 1 0 1 2 4 0 2 2 1 2 0 1 1 2 0 1 1 0 1 1 1 1 2 1 0 1 0 1 1 1 1 1 0 1 3 0 0 1 2 2 1 2 1 3 1 3 1 2 0 1 3 0 2 1 3 2 1 0 1 1 1 1 1 1 3 2 0 2 2 1 0 0 3 1 1 0 1 2 1 1 1 0 2 2 0 1 2 0 2 0 1 0 1 1 1 2 0 1 0 0 1 1 1 2 1 2 1 1 2 0 2 2 1 2 1 2 3 0 1 2 3 1 4 1 0 3 1 2 2 1 2 0 0 1 1 2 1 1 0 1 0 2 1 0 3 2 1 2 1 4 2 0 1 0 1 0 1 2 0 1 1 1 1 1 2 2 1 5 3 2 2 1 0 3 0 3 2 1 0 2 0 2 1 1 1 0 1 1 1 1 1 1 1 1 0 0 0 2 1 1 0 2 1 2 1 0 2 1 0 3 2 4 1 1 0 0 1 0 0 2 2 0 3 2 1 0 2 2 1 1 0 0 2 2 0 1 0 1 0 2 1 1 2 0 2 1 1 3 3 2 2 1 1 3 2 0 2 2 3 1 1 1 0 0 1 1 2 1 1 1 2 1 1 2 0 0 1 2 1 2 0 2 2 3 2 1 0 2 3 0 1 1 0 0 1 1 1 1 1 1 1 0 2 3 1 2 1 1 1 2 1 0 2 1 1 0 0 2 2 1 2 2 2 0 2 1 0 0 0 1 2 2 1 0 1 1 1 1 1 2 2 2 1 1 1 0 0 2 0 2 1 0 2 3 1 0 0 1 1 1 1 1 2 3 1 1 2 5 1 5 2 2 0 1 1 1 0 1 2 1 3 4 2 1 2 0 2 1 4 1 2 3 0 0 3 1 0 0 1 3 4 1 0 0 2 2 0 1 3 1 0 1 2 2 2 1 2 2 2 1 2 1 1 1 1 0 1 0 3 2 0 1 3 1 1 2 2 0 2 1 2 1 0 1 2 2 2 0 3 1 1 0 0 0 0 0 1 2 2 1 2 2 1 0 2 1 2 1 1 2 0 1 0 2 1 2 5 2 1 2 2 2 1 0 0 0 0 2 1 0 0 2 2 2 3 1 1 0 1 1 2 2 1 0 0 1 2 1 1 3 0 3 2 1 1 3 0 1 2 1 0 3 1 0 3 2 3 3 0 1 2 1 3 1 1 0 0 2 0 2 0 1 0 0 0 1 2 0 0 3 2 1 2 3 0 0 2 1 1 1 0 1 1 1 1 2 2 0 1 2 0 2 0 2 0 0 1 2 0 2 2 3 1 2 1 1 1 2 3 1 0 0 0 1 2 2 2 1 1 2 0 0 1 2 1 2 1 2 3 2 3 3 2 1 2 2 1 2 1 1 0 0 1 4 4 0 2 1 1 2 1 3 1 0 2 2 1 0 0 2 1 2 1 0 2 0 2 2 0 1 2 0 2 2 1 1 2 1 0 0 0 1 2 3 0 1 3 1 3 2 1 1 1 0 0 2 1 1 1 1 0 0 0 1 1 1 1 1 2 0 1 0 3 2 2 0 1 1 1 2 2 1 0 3 1 2 0 1 3 2 0 0 1 1 1 2 2 3 2 2 0 1 1 1 2 1 0 0 4 2 1 1 0 2 1 1 1 0 1 2 1 2 1 0 1 0 0 1 1 2 2 1 1 1 0 1 1 2 1 1 1 0 3 1 2 2 2 1 0 0 1 1 0 1 0 1 3 2 0 1 0 1 0 1 2 1 1 2 3 2 1 2 1 2 1 2 1 2 1 0 2 1 2 1 3 2 2 0 2 1 1 0 3 0 0 0 1 1 1 1 1 2 0 3 3 0 1 1 0 1 1 0 1 2 0 1 1 4 2 1 2 0 2 1 1 2 1 3 2 0 1 1 0 1 0 1 0 1 2 1 1 0 1 0 0 0 1 2 1 0 1 2 2 0 1 2 2 3 0 2 1 3 1 2 1 2 2 0 3 0 5 0 2 3 0 2 2 1 0 0 1 2 1 3 0 2 2 2 1 1 1 1 1 2 1 1 0 0 1 1 1 0 0 4 1 0 1 1 1 1 0 1 1 2 0 2 0 1 2 1 2 1 1 2 1 0 2 0 1 1 1 1 1 2 1 1 1 0 1 0 1 2 0 1 0 1 1 1 2 1 0 1 2 0 2 3 0 2 1 1 0 3 2 2 0 0 2 1 1 1 2 1 1 0 1 0 3 0 1 2 0 1 2 0 2 0 2 2 1 1 2 0 1 1 2 2 1 1 1 2 1 1 1 1 1 1 2 0 0 1 0 1 0 2 2 0 2 0 1 1 0 2 0 1 2 3 1 1 2 2 1 1 1 1 0 2 1 0 0 2 0 2 3 2 1 1 1 2 2 1 0 0 3 2 2 1 1 1 3 0 1 1 0 1 1 1 0 1 3 2 2 1 1 0 2 2 2 1 1 2 1 0 0 0 3 0 0 2 0 2 1 0 0 0 0 2 2 2 1 3 1 0 1 2 1 0 1 1 1 1 1 1 1 3 0 1 1 1 2 0 2 1 1 0 3 1 0 1 3 0 0 1 2 1 0 1 1 0 3 1 1 1 0 1 1 3 1 2 2 2 1 1 1 1 1 2 1 0 3 1 1 2 1 4 1 1 1 1 0 2 2 1 2 1 3 1 2 1 1 1 1 1 2 2 0 2 0 1 1 0 2 4 1 1 0 1 1 2 0 2 1 2 1 1 2 1 0 0 2 1 3 1 1 2 1 1 0 2 1 1 1 2 1 2 0 1 0 1 2 3 2 1 1 0 2 1 1 1 1 0 1 1 0 1 1 1 3 0 0 0 2 2 2 1 1 1 1 1 0 1 2 2 1 1 1 1 1 2 2 2 1 3 2 2 2 0 2 2 0 1 2 2 2 3 0 0 3 0 1 1 1 2 1 2 2 3 1 0 1 3 1 0 1 1 0 3 1 0 2 3 0 2 2 1 0 0 0 1 0 0 0 1 3 1 2 2 0 1 2 0 2 2 4 0 2 1 1 1 0 1 0 0 1 1 2 1 2 1 2 0 1 1 1 2 1 1 0 0 2 3 2 1 0 0 2 1 1 1 0 2 1 0 2 2 4 0 2 1 3 2 2 4 1 1 1 1 1 1 1 2 0 1 1 2 1 2 3 1 2 1 1 2 1 2 2 2 0 1 0 0 1 0 1 1 1 2 2 1 1 1 2 1 2 3 1 1 0 3 2 1 0 2 1 0 1 1 0 0 1 1 1 0 0 1 2 1 2 1 2 0 2 2 2 1 0 0 1 1 1 1 0 1 1 3 2 1 2 0 1 3 0 1 1 2 2 1 1 2 0 1 0 0 2 1 2 0 2 3 0 1 3 3 3 2 3 1 1 1 2 1 1 1 1 1 1 0 1 0 3 0 1 0 2 2 0 2 2 1 2 2 1 1 0 0 1 0 0 1 2 0 1 1 2 3 1 1 2 1 1 1 0 0 3 2 1 1 2 0 1 1 1 2 0 2 0 0 2 2 2 1 2 3 1 2 1 0 1 3 1 0 1 0 0 1 1 0 2 1 4 1 0 0 1 1 1 1 1 3 2 2 0 1 2 1 0 2 2 1 2 2 1 3 3 0 2 1 1 0 1 0 1 1 3 3 1 0 2 0 0 3 1 0 2 1 0 0 1 1 2 2 1 2 1 3 2 3 1 1 3 0 1 2 1 2 1 1 1 0 2 2 0 2 0 1 3 3 0 2 2 1 1 2 3 1 4 0 2 0 1 0 2 2 0 2 0 1 2 2 1 1 1 3 1 3 1 1 2 0 0 2 2 1 2 6 2 0 2 1 1 1 0 2 2 1 1 4 0 2 1 2 1 2 0 0 2 1 1 2 1 1 0 2 3 0 2 1 3 1 1 2 1 2 1 1 2 2 2 1 1 1 1 1 2 1 1 1 2 0 2 2 1 2 1 1 1 0 2 1 1 1 1 1 0 1 0 0 1 0 3 0 2 2 0 3 2 2 2 0 2 1 1 1 1 0 2 3 1 1 2 2 1 1 2 1 1 2 0 2 3 4 1 1 0 1 2 1 4 2 2 2 0 2 1 1 0 1 0 2 0 2 0 1 1 2 1 1 2 1 0 0 0 2 1 1 0 2 0 2 1 2 1 0 1 2 1 0 1 2 0 1 2 1 1 2 1 2 1 0 2 2 3 0 2 1 0 0 1 2 4 1 2 1 1 0 0 2 2 1 2 2 0 2 3 1 2 1 0 0 1 1 1 3 3 0 0 1 2 2 2 1 1 4 2 3 0 4 2 2 1 1 2 1 0 1 1 2 1 1 1 1 1 1 2 0 1 1 2 1 2 1 1 3 0 5 0 1 1 3 0 0 2 1 2 1 1 1 3 1 2 1 2 1 0 1 3 2 0 2 0 0 1 3 2 1 3</t>
-  </si>
-  <si>
-    <t>GAM(0.16300440922501996, -4.507335203177223e-31, 0.7142948948720673)</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 0 1 0 1 1 0 1 1 1 0 1 1 1 0 0 1 0 0 0 3 2 0 1 1 0 0 0 0 1 0 3 1 1 0 0 0 0 1 2 2 2 0 0 0 0 0 0 0 1 0 0 1 1 3 0 1 1 2 1 0 0 1 1 0 0 2 1 0 2 0 0 3 2 0 0 0 0 0 0 1 1 2 1 1 1 1 0 0 2 0 0 2 1 0 1 0 0 1 0 0 0 1 0 0 0 1 0 1 0 1 2 0 0 0 1 0 1 0 0 1 0 1 0 1 1 2 0 0 1 0 2 2 0 0 0 0 0 0 0 2 1 1 1 1 1 1 1 0 0 1 0 0 0 0 1 1 0 1 1 1 1 0 2 0 0 0 1 1 0 2 1 1 2 1 0 0 1 1 0 0 2 0 3 1 1 1 1 0 0 1 0 0 0 0 1 1 0 0 1 2 0 0 1 0 3 0 1 0 1 2 0 2 1 0 1 0 2 0 0 0 2 0 2 1 0 0 0 0 1 0 2 1 0 0 1 0 2 0 2 0 1 4 0 0 3 0 0 3 0 0 1 0 2 2 0 1 1 2 2 2 1 1 0 1 2 0 1 0 1 1 1 1 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 1 4 2 0 0 1 1 1 2 2 0 2 1 1 1 0 0 0 0 0 1 0 0 1 0 0 3 2 1 0 3 1 0 0 1 2 0 1 0 2 0 0 0 2 0 0 1 0 1 1 3 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 3 0 0 1 0 1 1 1 0 2 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 0 2 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 2 1 1 0 0 1 1 1 0 2 1 1 1 1 1 0 1 1 1 1 4 0 2 0 0 1 0 2 0 2 1 1 0 1 2 0 1 0 1 0 0 1 2 0 1 2 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 1 0 2 0 0 2 0 0 0 2 0 2 3 0 0 1 1 0 0 1 1 0 3 1 2 0 1 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 1 0 1 0 0 1 0 1 0 0 1 0 0 0 1 0 2 0 0 1 1 0 0 0 0 0 0 0 1 0 2 1 0 0 0 0 0 0 0 1 1 1 1 0 1 2 0 1 0 0 2 0 0 1 0 1 0 0 0 1 0 1 3 0 1 0 0 1 1 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 2 0 2 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 1 1 2 0 1 1 3 1 1 1 2 1 0 0 1 1 0 1 0 0 0 0 1 0 1 1 0 0 1 2 1 0 0 1 0 0 0 0 0 0 1 2 0 0 0 1 2 1 0 0 0 0 0 1 1 0 0 1 1 0 0 1 0 1 1 2 0 0 1 0 3 0 0 0 0 1 0 0 2 1 0 0 1 0 1 1 0 0 0 1 0 0 0 1 1 2 0 0 1 2 0 2 0 1 1 0 1 0 0 1 2 0 1 0 0 0 0 0 0 1 2 1 1 2 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 1 0 1 0 0 2 0 0 0 0 0 0 0 0 2 1 1 0 1 0 1 1 1 0 1 1 1 0 0 1 0 0 1 0 1 1 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 1 2 0 0 0 0 1 2 0 1 0 0 0 2 0 2 0 0 0 1 1 0 0 0 0 1 0 1 1 1 1 0 1 1 0 1 0 1 2 1 0 0 1 0 0 0 0 0 0 1 0 1 1 1 3 0 0 0 0 2 1 2 1 2 2 0 1 0 0 0 0 1 0 1 1 2 1 1 1 0 2 0 1 0 0 2 0 0 0 0 2 2 0 0 1 0 1 0 0 0 0 1 0 1 1 1 0 0 2 1 0 1 0 0 0 1 0 0 2 0 0 1 0 0 0 3 1 2 0 0 2 1 0 0 0 1 1 2 2 1 1 0 0 0 0 0 0 3 0 1 0 0 0 2 0 2 1 0 0 0 1 1 0 1 1 1 1 0 0 1 0 1 0 1 0 0 0 0 0 2 1 0 1 0 0 1 0 0 1 0 1 1 1 0 1 2 0 2 0 0 2 2 0 1 0 1 1 0 0 0 1 1 0 1 1 0 0 1 0 0 0 0 0 2 1 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 1 0 0 0 0 0 0 2 0 1 0 1 4 1 0 0 0 1 1 0 1 1 0 0 0 0 2 1 0 1 0 2 0 1 0 2 0 0 0 0 0 0 0 0 3 0 1 1 1 1 1 2 0 0 0 0 0 1 1 1 1 1 0 0 1 1 0 0 1 1 0 0 3 4 0 1 1 0 1 0 1 1 2 0 0 0 0 1 0 1 0 0 2 2 2 1 1 2 0 0 1 1 1 0 1 1 2 2 0 2 0 0 0 2 0 0 1 0 2 0 0 1 1 0 0 0 0 1 1 0 0 1 1 0 1 0 0 1 0 4 2 2 1 1 3 0 0 0 1 0 0 2 2 2 1 3 0 1 0 0 0 0 0 2 1 0 1 1 1 0 0 0 0 0 3 2 1 0 1 2 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 1 1 0 2 1 0 1 1 0 2 1 0 1 0 0 0 0 1 0 1 0 0 1 1 0 0 1 0 0 2 0 1 1 0 0 0 0 0 0 0 1 1 1 0 2 0 1 0 1 0 0 1 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 2 2 1 1 3 0 1 0 1 1 0 1 0 0 0 1 0 0 0 2 2 0 0 1 2 0 1 0 0 1 0 0 0 0 0 1 0 0 2 0 1 0 0 1 0 1 0 0 1 0 2 1 3 1 0 0 0 0 0 0 2 2 0 1 0 1 2 0 2 1 0 2 0 0 0 1 0 1 0 1 2 0 1 0 0 0 0 0 1 3 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 2 0 2 1 0 1 0 1 3 1 0 0 1 1 1 3 0 0 1 1 1 1 1 0 0 2 0 1 2 0 0 0 0 0 0 2 1 2 0 2 0 0 1 0 2 2 1 0 0 2 0 1 0 0 0 0 0 0 1 0 1 1 2 0 2 1 0 0 0 1 1 0 0 0 1 1 0 0 1 0 0 0 1 1 1 0 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 0 3 0 0 3 0 0 0 0 1 1 0 0 1 0 0 1 2 0 1 0 1 0 0 1 2 1 3 1 0 2 0 0 1 1 0 1 3 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 3 1 0 0 1 0 0 2 0 0 1 2 1 0 1 1 3 0 3 2 0 3 0 1 1 0 1 2 2 1 1 1 2 0 0 2 0 0 0 3 0 0 1 0 0 0 0 1 0 1 2 0 1 0 2 0 0 0 0 0 0 2 1 1 1 2 0 2 0 0 0 0 2 0 0 0 0 0 2 1 0 0 0 3 2 0 0 0 0 0 1 1 0 0 1 1 0 2 0 0 0 0 2 2 0 0 0 1 0 0 2 0 0 1 0 0 1 4 0 1 0 0 0 0 0 1 0 1 1 0 1 1 0 2 0 3 1 1 0 0 0 1 0 1 1 2 2 0 2 0 1 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 1 1 2 0 1 2 0 0 0 0 1 0 0 1 1 1 2 3 0 3 0 0 0 1 0 0 0 1 1 2 1 1 2 2 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 1 0 1 1 0 1 0 0 1 0 1 0 0 0 0 0 0 1 2 0 2 0 0 2 1 1 0 1 0 0 1 1 1 1 1 1 1 0 0 1 2 1 1 0 0 2 1 0 2 1 0 3 0 1 1 0 0 0 0 2 1 0 0 1 0 0 2 0 0 1 1 0 0 1 0 0 1 0 1 0 0 2 0 0 0 0 1 0 2 0 1 0 2 1 0 2 0 1 0 0 3 2 1 2 0 0 0 0 0 2 1 1 0 0 0 0 2 0 1 1 1 0 2 2 0 1 0 1 0 2 1 0 1 0 0 1 1 1 1 0 2 1 2 0 2 2 1 1 0 1 0 0 0 2 0 0 3 1 1 0 3 1 0 0 2 0 0 0 1 1 0 2 1 1 0 0 0 0 0 1 0 0 0 0 2 4 0 0 0 0 0 1 2 0 1 0 0 1 0 0 0 1 0 0 0 1 0 1 1 0 0 0 1 1 1 0 2 1 2 3 0 1 1 2 0 1 0 0 1 0 1 1 1 1 0 0 0 1 1 1 1 0 1 1 2 1 1 1 1 0 1 0 0 1 1 1 0 1 3 0 0 0 0 0 1 0 2 0 0 2 0 0 1 0 3 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 1 2 1 1 1 0 1 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 2 1 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 0 1 0 1 0 0 1 1 2 1 0 2 0 0 0 1 1 0 0 0 2 2 0 2 1 0 1 0 1 3 1 0 3 2 1 1 1 2 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 2 1 0 1 0 1 0 0 1 2 1 0 0 3 1 0 0 1 1 0 1 0 1 0 0 2 0 0 0 1 0 0 3 2 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 1 0 0 1 2 0 0 2 0 0 0 0 1 0 1 1 1 2 3 0 0 3 1 2 2 0 1 1 0 0 0 1 1 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 2 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 0 2 1 1 1 1 0 0 0 0 2 0 0 2 1 0 0 1 0 2 0 3 0 1 1 0 1 0 0 0 0 1 0 4 0 0 0 1 0 0 1 1 0 0 2 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 1 0 1 1 1 1 0 1 0 0 0 0 1 3 1 1 0 1 1 0 0 0 1 1 1 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 1 1 1 1 2 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 1 0 1 0 0 2 0 0 0 1 1 0 0 0 1 0 0 1 3 0 1 1 0 0 1 0 1 1 1 0 1 2 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 1 1 1 0 0 0 1 1 0 1 1 0 0 1 1 2 0 0 1 0 0 0 2 0 0 0 0 0 0 1 1 0 0 0 1 2 0 1 0 1 0 1 0 0 0 0 1 0 0 0 2 1 0 0 0 1 1 0 0 1 1 1 1 0 1 0 0 2 0 2 2 0 2 1 1 2 0 0 0 0 0 0 0 0 4 0 0 1 1 0 1 0 0 1 3 0 0 0 1 1 0 2 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 1 0 1 1 0 0 4 0 1 1 3 1 0 3 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 2 0 1 0 1 0 1 1 0 0 0 1 0 2 0 0 1 1 0 1 0 0 1 2 0 0 0 0 3 0 1 0 1 1 0 0 0 1 0 0 3 2 0 1 0 0 0 2 0 0 0 0 0 0 0 1 3 4 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 2 0 0 2 2 0 3 2 0 1 0 1 1 0 1 1 0 0 2 0 0 3 0 0 1 0 1 1 1 1 0 1 0 1 0 1 0 2 1 1 0 0 1 1 0 0 0 2 0 1 1 1 0 0 0 2 0 2 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 1 1 1 0 0 1 0 1 0 2 1 2 0 0 0 0 0 0 0 1 1 0 0 1 2 0 0 0 0 0 1 0 2 0 1 0 1 1 0 0 1 2 2 1 0 1 1 1 0 0 1 2 2 2 1 0 0 2 0 0 1 1 1 0 1 1 1 0 1 0 0 3 0 0 0 2 0 1 2 0 2 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 3 2 1 0 2 1 1 1 1 0 0 0 0 3 1 2 0 2 2 0 3 0 0 1 0 0 0 0 1 1 0 4 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 1 1 1 0 2 0 0 1 1 0 1 0 0 0 0 1 0 0 1 1 0 0 1 1 1 1 0 1 0 3 0 0 1 0 1 0 2 0 0 0 0 0 1 1 0 0 1 1 0 0 3 0 0 1 1 0 1 0 0 0 0 0 0 1 0 2 0 1 2 1 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 3 2 0 0 0 0 1 0 0 2 0 0 2 0 1 2 0 0 0 0 0 2 2 0 1 1 0 1 0 0 0 0 1 0 2 1 0 2 0 2 2 0 0 1 2 0 1 1 1 0 0 0 2 0 1 1 0 2 1 1 0 0 1 1 0 0 0 0 0 0 1 0 2 1 1 1 0 1 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 1 1 0 1 1 1 2 1 1 1 0 0 0 1 0 0 0 0 0 0 3 1 1 2 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 2 0 1 0 0 1 0 1 0 0 0 1 1 1 0 0 0 0 2 0 0 0 0 0 1 3 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 2 1 1 0 1 0 0 0 0 1 0 0 2 1 0 0 0 0 0 1 0 1 2 0 0 1 1 3 0 0 1 0 0 0 1 0 0 0 1 1 1 1 1 1 0 0 5 0 1 1 0 2 1 0 2 1 1 1 1 1 0 1 0 0 1 0 0 0 1 0 1 0 0 0 1 1 1 2 1 2 0 0 2 0 1 0 3 1 3 1 1 1 1 0 1 0 0 1 0 0 0 0 0 0 2 1 1 1 0 0 2 1 0 0 0 0 1 0 0 2 0 0 1 0 0 0 0 1 1 0 0 4 0 0 1 0 0 0 2 1 1 0 0 2 1 0 0 2 0 2 1 0 1 1 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 2 0 1 0 0 2 0 1 1 0 0 1 1 0 0 0 0 0 0 0 2 0 0 0 0 1 0 2 1 1 1 1 0 1 1 0 1 1 0 0 0 1 0 1 1 0 0 0 0 1 0 1 0 1 1 0 0 1 0 0 0 0 0 2 1 1 0 0 0 1 0 0 3 2 1 0 0 1 1 0 1 1 0 0 0 2 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 2 0 0 1 1 1 0 1 0 0 0 2 1 0 0 0 1 0 0 0 2 1 1 1 1 0 0 0 1 0 0 1 1 1 0 1 1 2 2 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 1 2 3 0 1 0 0 0 0 0 0 0 2 0 1 0 2 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 2 1 0 0 0 0 1 1 1 1 1 1 1 2 0 0 0 0 0 0 0 0 0 0 2 0 0 2 1 2 0 0 1 1 0 1 1 0 0 1 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 3 0 0 1 1 1 1 1 0 0 0 1 0 1 1 0 0 0 1 1 1 0 0 1 1 1 1 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 2 1 0 1 1 0 1 0 1 0 1 1 0 1 3 1 0 0 0 1 1 1 1 0 1 0 1 1 1 1 2 1 3 0 1 0 0 0 1 0 1 0 0 1 1 0 0 0 1 1 1 1 2 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 1 2 1 0 1 1 0 3 1 1 1 1 2 1 0 1 1 0 0 0 0 0 1 0 2 1 2 0 1 0 0 2 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 1 1 2 3 1 2 0 1 2 1 0 0 0 0 1 3 1 0 0 0 0 1 1 1 1 1 0 0 2 3 0 0 0 1 0 0 0 0 0 1 0 3 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 2 0 5 2 2 1 0 1 1 2 1 0 1 0 0 1 2 0 0 2 1 1 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 2 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 1 1 1 0 0 2 0 0 0 0 1 0 1 1 1 0 1 1 0 0 1 1 1 2 0 2 1 0 1 0 2 3 1 0 0 0 2 0 0 1 1 1 0 0 1 1 1 0 0 0 0 0 2 0 0 1 3 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 1 2 2 0 1 2 0 0 1 0 0 1 1 0 0 2 2 0 1 1 0 0 0 2 0 0 1 1 0 1 0 0 1 0 0 1 0 1 0 1 0 1 0 1 0 3 0 1 1 0 0 0 1 0 0 1 2 0 0 2 0 1 0 1 2 1 1 1 0 0 1 1 0 1 2 1 1 1 1 0 0 1 2 1 0 0 1 1 0 0 0 2 0 0 1 0 0 0 1 0 1 1 0 0 0 0 1 0 1 1 1 0 1 0 2 0 0 0 1 2 1 1 0 0 0 1 1 1 0 1 2 1 0 0 0 1 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 1 2 2 1 2 2 1 1 1 0 1 1 0 0 1 0 3 2 2 0 1 1 0 1 0 0 0 2 2 0 1 1 0 0 0 0 0 0 0 0 2 0 1 1 0 1 0 0 0 0 0 1 1 0 0 1 0 2 0 0 0 1 0 0 0 0 2 1 1 2 0 0 0 0 1 0 1 0 0 1 2 1 0 1 0 2 3 0 0 0 0 0 0 1 0 1 1 0 0 1 1 0 0 1 0 1 1 0 0 0 2 1 1 0 0 3 0 1 0 0 1 2 0 0 0 0 1 1 0 2 1 1 0 0 0 0 1 1 0 0 1 3 1 0 1 1 1 1 0 1 0 0 1 0 2 0 0 0 1 0 1 1 0 0 0 0 0 2 0 1 0 1 0 1 0 0 0 3 0 1 1 0 1 1 1 0 0 0 0 1 0 0 0 2 0 0 1 1 1 0 0 0 0 1 0 3 2 0 0 0 1 0 0 1 0 0 1 0 1 1 3 0 0 0 0 1 1 0 0 1 1 0 3 1 2 0 0 0 1 1 0 0 0 0 0 2 1 0 3 1 0 0 0 0 0 1 1 0 1 1 1 1 1 1 0 0 0 0 0 0 2 1 0 0 1 2 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 2 0 1 1 1 1 1 0 0 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0 2 2 0 1 1 1 0 1 1 1 1 2 0 0 0 2 1 1 1 1 3 1 0 1 1 2 2 0 0 0 0 0 1 0 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 1 0 2 1 0 2 0 0 1 1 2 1 0 2 1 0 2 0 0 1 0 1 1 1 1 0 0 1 0 0 0 0 0 2 2 0 2 1 1 1 0 1 1 1 1 0 3 1 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 2 0 1 0 1 2 1 0 1 0 0 0 0 0 1 1 2 0 1 0 0 1 1 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 1 0 1 1 0 0 0 0 2 0 1 1 0 0 1 0 0 0 1 1 1 0 0 0 1 1 1 1 0 2 0 1 1 1 0 0 0 2 2 0 0 0 0 1 1 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 1 0 1 0 0 1 0 1 0 1 1 4 0 2 0 1 2 1 0 1 1 0 0 1 0 0 3 3 1 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 2 0 1 0 0 0 2 0 0 0 0 0 0 2 1 2 1 0 0 0 0 1 1 2 2 0 0 1 1 2 2 0 1 0 2 0 0 1 1 1 1 0 1 1 0 1 0 0 0 0 1 0 0 0 1 3 0 1 1 1 1 0 1 0 0 2 0 0 0 1 2 1 1 1 1 0 0 1 1 1 1 0 1 2 1 1 1 1 0 1 3 0 0 1 0 0 0 0 0 0 0 1 0 0 3 1 0 1 0 1 1 0 0 0 0 1 0 1 2 1 0 0 1 1 0 0 2 1 1 0 0 1 1 0 1 0 1 0 0 0 0 1 1 0 1 1 0 1 0 0 3 2 1 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 1 0 1 1 1 1 0 0 0 2 0 0 1 0 0 1 0 0 0 0 1 1 0 0 2 0 0 1 0 0 0 1 0 1 0 0 0 0 3 0 0 1 0 2 3 2 0 0 1 0 0 2 1 1 3 0 2 2 1 0 0 1 1 0 1 0 0 0 0 1 0 0 1 0 1 1 0 0 0 1 0 0 0 1 0 1 0 1 1 0 0 1 1 0 1 0 0 0 0 3 0 0 1 2 1 4 1 2 1 0 1 0 0 1 2 2 1 0 0 0 1 1 0 1 0 1 2 0 0 1 0 0 0 1 0 0 1 0 0 2 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 2 0 1 1 2 1 1 0 1 0 0 1 0 0 1 1 1 0 1 0 1 1 0 0 0 3 0 0 0 3 0 0 0 0 1 0 1 0 1 1 0 1 0 1 0 1 1 0 1 2 0 0 0 0 2 3 1 2 0 1 2 0 1 2 0 1 0 0 1 0 0 2 1 0 0 1 2 0 0 0 2 3 2 1 1 1 1 1 0 0 0 4 0 1 3 0 0 2 0 1 3 0 1 3 1 0 1 1 0 0 0 0 0 0 2 1 2 0 1 1 1 1 2 1 0 0 1 1 3 0 1 0 1 0 0 1 1 3 2 1 4 0 0 1 1 0 1 1 0 3 0 0 0 0 2 0 0 0 0 1 2 0 0 1 1 1 1 0 1 0 2 0 1 0 0 1 0 1 1 0 0 2 0 0 1 0 0 1 0 0 0 0 4 0 1 0 0 1 1 1 1 1 1 0 3 0 1 0 0 0 0 0 2 2 0 0 1 1 0 0 0 2 3 0 0 0 0 1 1 1 0 0 1 0 1 1 0 0 0 0 1 2 0 0 0 0 1 1 0 0 0 2 0 1 0 0 0 1 1 1 2 1 0 0 2 0 0 1 0 0 0 1 1 1 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 2 0 0 1 1 1 3 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 2 1 2 0 1 0 2 0 0 0 0 0 0 2 2 2 0 0 0 1 1 0 2 1 0 0 0 1 0 3 1 1 0 0 2 0 0 0 0 0 0 2 0 1 0 0 0 0 0 1 0 2 1 1 0 2 1 0 0 0 0 0 0 1 1 1 1 0 1 2 0 0 0 1 0 1 1 3 4 2 0 2 1 0 0 1 0 0 0 0 0 2 0 1 0 0 0 2 1 2 0 0 1 0 0 2 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 1 1 1 0 0 0 0 1 1 0 1 0 1 0 2 1 0 2 0 0 1 0 2 0 3 0 1 1 1 0 0 0 1 0 0 1 2 0 1 1 1 2 3 0 0 0 0 0 0 1 0 3 0 1 0 0 0 1 0 0 0 0 1 1 1 0 0 1 2 1 0 0 0 0 0 0 2 0 1 0 0 0 0 1 0 1 1 0 1 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 2 1 2 0 0 2 2 0 1 0 0 0 0 2 0 0 1 0 0 1 1 1 1 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 2 0 1 2 1 0 1 0 1 1 1 1 0 1 1 3 1 1 0 0 0 0 0 1 0 0 2 0 0 1 0 1 2 0 2 0 0 0 0 2 0 0 1 0 2 1 0 2 1 0 1 1 0 1 0 0 0 1 0 1 3 0 0 0 0 0 1 0 2 0 2 0 0 1 0 0 0 1 0 0 1 0 0 2 0 1 0 0 2 0 0 1 0 0 0 0 2 1 0 0 0 0 1 1 0 4 3 1 2 0 0 1 1 0 4 0 2 0 2 0 2 3 0 0 0 0 2 1 1 0 1 1 0 1 1 2 0 2 1 0 0 2 1 1 0 0 0 0 0 0 0 0 2 1 1 0 0 1 2 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 2 1 0 0 1 1 1 1 1 1 0 2 2 1 1 1 1 1 0 3 1 0 1 1 0 0 1 1 0 2 0 0 1 1 1 0 1 2 1 0 0 0 0 0 0 0 4 1 1 2 1 0 0 2 1 0 2 0 0 2 0 0 1 0 1 1 0 1 0 0 1 0 1 1 0 2 0 0 0 0 1 0 1 1 2 0 1 1 0 1 0 0 1 0 2 0 0 1 0 1 1 0 0 1 0 1 0 0 2 0 1 2 2 1 1 1 1 4 1 0 2 0 0 0 2 1 0 1 0 2 0 1 2 0 2 0 2 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 0 2 0 0 1 2 2 0 0 0 0 0 1 0 2 0 0 0 2 0 0 0 1 3 0 0 1 0 0 0 0 0 4 0 0 0 0 0 1 1 0 0 2 1 0 0 2 0 2 1 2 1 1 1 2 0 0 0 0 3 2 0 2 0 1 0 0 1 1 1 1 1 1 0 2 0 1 0 0 2 1 0 0 1 0 0 1 0 1 0 1 0 1 2 1 1 0 1 1 0 1 1 0 3 0 2 0 0 0 1 1 0 1 2 2 0 0 0 0 0 1 1 1 0 0 0 1 0 2 2 0 1 0 0 0 1 1 1 1 1 0 0 0 0 1 1 0 0 1 0 1 0 1 1 1 0 1 0 0 0 0 1 1 0 1 2 2 1 0 0 0 1 1 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 2 0 0 1 0 0 3 2 0 0 2 2 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 2 0 2 0 1 0 0 0 1 0 1 1 1 1 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 1 0 1 1 1 0 0 0 1 0 0 0 2 1 0 0 1 0 1 0 0 3 0 0 1 0 2 0 1 2 0 0 0 1 0 0 0 0 1 1 3 0 0 1 0 1 0 2 0 0 2 2 1 0 1 1 1 1 0 1 0 0 2 0 1 1 0 1 0 1 0 2 0 1 3 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 1 1 0 2 0 0 0 0 1 0 1 1 0 1 0 1 0 1 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 2 0 0 0 1 0 0 1 1 0 0 1 0 0 2 1 0 2 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 1 1 1 1 0 0 0 1 0 2 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 1 1 2 0 0 0 1 0 2 2 0 1 0 0 0 0 2 0 1 0 2 0 1 1 1 0 0 1 0 1 0 0 1 2 0 3 0 2 1 0 1 0 0 2 0 0 0 0 1 2 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 3 0 1 0 2 1 0 0 0 0 2 0 2 1 2 1 0 0 2 0 1 1 0 0 1 0 1 2 0 0 1 0 1 2 2 0 0 1 1 1 1 0 1 0 0 0 0 0 0 3 0 1 0 1 2 0 0 1 0 0 0 2 0 0 2 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 3 0 0 2 0 1 0 0 0 0 0 0 1 2 1 0 1 0 0 0 0 2 0 1 1 0 1 1 0 1 0 0 2 0 0 1 2 0 1 0 0 1 1 0 0 0 1 0 2 0 2 0 1 2 0 1 1 0 1 0 0 2 2 1 1 1 0 0 0 0 1 0 0 2 0 1 0 1 1 0 0 0 1 0 2 0 4 0 0 1 0 0 0 0 1 0 0 0 1 2 1 1 0 0 1 2 0 2 1 1 0 0 0 1 1 0 1 0 1 1 0 1 0 0 1 1 0 0 2 0 1 1 0 3 0 2 0 0 0 0 0 1 0 2 1 2 0 1 2 1 1 0 2 0 0 0 1 0 0 0 0 1 1 1 0 2 0 2 0 0 2 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 1 0 1 0 1 0 0 1 1 2 0 0 0 3 0 0 0 0 1 2 1 0 0 0 0 1 0 1 0 0 3 0 0 0 0 1 1 1 0 0 0 0 0 0 1 2 2 0 0 2 0 0 0 2 0 1 0 2 1 1 0 0 1 2 0 0 0 0 0 0 0 2 0 0 2 0 1 1 2 0 1 1 0 2 0 0 2 0 1 0 0 0 2 1 1 0 0 0 0 2 0 1 0 1 0 2 0 1 0 0 2 1 1 1 0 0 0 0 0 0 1 1 0 0 1 1 0 1 0 0 1 0 0 0 1 0 1 1 0 0 1 0 2 2 2 3 2 1 0 1 2 0 0 0 1 1 0 0 0 2 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 2 0 1 0 0 1 1 0 0 0 2 0 3 0 0 0 1 0 2 1 1 0 0 0 0 2 0 1 2 0 0 1 1 1 2 1 0 0 0 0 0 2 1 0 0 0 0 1 0 0 1 0 1 3 2 0 2 1 0 0 2 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 1 0 1 1 1 0 0 1 0 2 2 4 0 0 0 1 1 0 1 0 0 0 0 2 0 0 0 0 3 0 0 0 0 0 1 0 0 0 0 0 0 0 1 2 0 2 0 0 2 0 1 0 1 1 1 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 1 2 0 0 0 0 0 0 1 0 0 0 1 1 1 1 0 0 2 0 0 0 1 0 2 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 2 1 0 0 2 2 0 0 0 2 0 0 0 0 2 1 2 0 1 1 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 1 2 0 1 0 1 0 1 0 2 0 0 0 2 3 1 0 0 1 1 1 0 0 0 1 0 2 1 2 0 0 0 2 2 0 0 1 1 0 0 0 1 0 1 0 0 3 0 1 1 2 0 1 1 1 1 2 0 1 0 1 1 0 0 1 0 0 0 0 2 0 1 1 0 2 0 1 1 0 2 2 1 1 0 0 0 0 0 1 0 1 1 0 0 1 0 2 0 1 0 1 0 0 0 0 1 0 1 0 1 1 0 0 0 1 2 1 1 2 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 1 1 1 0 2 1 0 1 0 0 0 0 1 0 1 0 3 1 0 0 0 1 0 0 1 0 0 1 0 1 1 0 1 0 0 0 0 3 0 0 1 0 1 1 1 0 1 2 1 0 0 0 1 0 1 0 0 2 0 0 2 1 2 1 1 2 0 0 0 0 0 0 0 0 0 0 3 1 0 1 1 0 1 1 0 1 0 0 1 0 0 1 0 1 1 2 0 1 1 0 0 0 1 0 0 2 0 1 1 0 0 1 0 0 0 0 1 0 0 1 1 1 0 0 1 1 1 0 1 0 2 0 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 1 3 0 1 1 0 2 0 0 1 0 0 0 1 0 0 1 0 1 0 1 1 0 0 3 0 0 0 0 3 1 0 0 0 1 0 1 0 0 1 1 1 0 0 0 2 2 2 1 0 0 0 1 1 0 0 2 2 0 1 0 1 0 1 0 1 0 0 1 0 0 0 2 0 0 0 1 0 0 0 1 0 1 0 0 0 2 0 1 1 2 0 0 2 1 0 1 0 1 1 0 1 1 1 1 0 0 1 0 1 0 0 2 0 0 0 2 0 1 1 0 0 1 2 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 1 0 0 1 1 0 0 1 2 2 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 3 0 1 1 0 0 1 0 1 0 1 0 0 1 2 1 2 0 0 0 2 1 0 0 1 0 2 0 0 2 0 3 1 2 0 1 0 0 1 0 1 0 0 0 1 0 1 1 0 0 1 1 1 0 0 2 0 1 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 1 2 0 1 1 0 0 1 1 1 0 2 1 1 0 0 1 1 0 2 1 0 2 0 0 0 1 0 1 0 0 2 1 0 0 0 2 1 0 3 1 2 0 0 2 0 1 0 1 1 0 0 0 1 0 0 1 1 3 0 1 1 4 1 0 1 1 3 0 0 1 1 0 0 0 2 0 1 0 1 0 0 0 0 0 1 0 0 2 2 0 2 0 0 0 0 1 1 0 2 1 0 1 0 0 2 1 0 0 0 0 1 1 1 0 0 0 1 1 0 1 0 1 2 0 2 1 0 1 0 2 0 0 1 2 0 0 1 2 3 1 1 3 0 0 1 1 0 0 0 0 2 1 0 1 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 1 0 1 1 1 1 1 0 0 0 2 0 2 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 3 0 1 2 0 1 0 0 3 0 1 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 2 0 0 0 0 0 1 0 0 2 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 2 0 0 0 1 1 2 0 2 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 2 2 0 1 1 0 1 0 1 0 0 0 2 1 1 0 0 1 0 1 2 1 1 2 1 1 0 0 1 0 0 1 1 0 0 1 1 0 0 0 1 1 1 0 1 0 1 0 1 2 1 1 1 1 0 1 0 2 0 0 0 1 1 1 0 1 0 0 0 0 1 3 0 1 1 0 0 0 2 1 0 0 0 0 0 2 1 0 0 0 1 1 0 0 0 1 1 0 0 3 1 2 1 0 0 1 1 1 0 0 0 1 1 1 0 1 1 1 0 1 1 1 1 1 1 1 0 1 0 2 1 0 0 1 3 0 0 2 1 0 0 0 0 2 1 0 1 1 0 0 1 0 0 0 0 1 0 0 0 2 1 2 1 0 2 0 0 0 0 1 0 0 0 1 2 0 1 0 0 0 1 1 1 0 0 2 0 3 0 1 2 1 0 0 0 1 1 0 0 1 0 1 0 1 2 0 1 1 0 1 0 2 1 0 2 1 0 2 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 1 0 0 1 1 1 1 0 0 3 1 0 1 3 0 0 0 1 2 0 0 2 0 2 0 0 0 0 0 1 2 0 2 0 1 3 1 0 0 1 0 1 1 1 1 1 0 0 0 1 1 0 2 0 1 1 0 0 1 2 0 0 1 0 1 0 0 0 1 2 1 2 0 0 1 1 0 0 0 1 0 2 0 1 0 1 1 1 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 2 1 1 0 0 0 0 0 1 0 0 2 1 1 0 0 0 0 1 0 0 0 0 0 1 1 0 1 2 0 0 1 1 2 1 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 1 2 0 1 0 0 0 0 0 0 1 2 0 1 2 1 0 0 1 2 0 0 0 1 0 1 5 1 0 0 2 1 1 1 1 0 2 3 1 0 0 0 2 0 0 0 3 1 0 1 0 0 0 0 0 0 1 0 1 0 0 2 0 0 3 1 0 1 1 2 0 0 0 0 1 1 0 0 0 1 2 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 2 0 0 1 0 0 0 1 1 1 0 0 1 1 0 1 0 0 0 0 1 1 0 0 2 1 1 2 0 0 1 2 0 0 0 1 0 0 0 2 0 1 0 3 0 1 0 0 0 2 1 0 0 2 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 2 1 1 2 1 0 0 0 1 1 0 1 1 1 1 1 1 0 0 1 0 1 1 0 1 1 3 1 0 1 0 0 0 1 3 0 0 0 1 0 0 0 0 0 1 0 2 1 2 2 0 0 1 0 0 1 0 1 3 0 0 1 0 0 1 1 0 2 1 2 1 0 1 0 0 0 0 0 0 2 3 4 1 0 2 0 0 1 0 1 0 1 0 0 1 1 0 1 3 0 1 0 0 0 0 0 0 0 2 0 1 0 0 0 1 1 1 1 2 1 0 0 0 1 0 0 1 3 0 1 0 0 0 2 0 0 1 0 3 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 1 1 1 0 1 0 1 0 0 0 1 0 3 0 0 1 0 2 1 0 0 1 1 1 0 1 0 1 0 1 0 1 0 1 0 0 0 0 2 1 0 0 0 0 0 2 0 0 0 0 1 0 0 1 0 0 1 1 1 0 1 1 0 1 0 0 1 0 1 0 0 1 1 0 0 0 2 1 0 0 1 0 0 0 1 0 0 1 1 1 2 1 2 1 0 1 1 2 2 0 1 0 1 2 1 0 0 0 1 0 0 0 0 0 1 0 0 0 2 0 1 0 0 0 0 0 0 1 1 2 0 0 0 2 2 0 0 0 0 0 1 1 0 0 2 0 0 0 0 2 0 0 1 2 1 0 1 0 1 1 0 1 0 1 1 0 2 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 1 3 1 0 0 3 1 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 2 1 2 2 2 1 0 1 1 1 0 0 0 1 0 0 0 0 1 0 0 0 2 1 0 0 1 1 0 0 3 1 1 0 1 0 0 1 0 1 1 4 0 2 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 2 0 0 1 0 0 1 0 0 0 0 0 2 1 3 0 1 0 0 1 0 0 3 1 1 1 0 0 0 0 0 0 0 1 2 0 0 0 2 2 0 0 0 2 3 1 0 0 0 0 0 0 0 2 1 1 0 0 1 0 0 2 0 2 0 0 0 1 1 0 0 3 2 0 1 0 0 1 0 0 0 1 0 0 0 1 1 1 0 1 5 0 1 1 3 1 1 0 0 1 0 2 1 1 1 0 1 0 1 0 1 1 2 0 2 1 1 0 0 0 0 1 1 1 0 2 0 1 0 2 2 1 1 1 0 0 2 1 0 1 1 0 1 4 0 2 2 0 2 0 2 0 0 1 0 3 0 0 0 1 0 1 0 0 0 1 0 0 2 1 0 1 1 1 0 0 0 0 1 0 0 0 1 1 0 0 2 0 0 0 0 0 1 0 0 2 2 0 0 1 1 1 1 0 0 3 0 0 2 0 1 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 1 1 0 2 3 1 1 0 1 2 1 0 0 2 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 2 1 1 1 0 0 1 0 0 2 1 1 0 1 0 0 2 1 0 1 3 2 0 0 0 0 1 1 2 0 0 1 0 0 0 2 1 0 1 0 1 1 0 1 0 2 0 0 3 2 1 1 0 2 0 0 0 1 1 0 1 0 1 1 1 2 0 0 0 0 0 0 1 0 0 0 0 1 2 0 2 0 0 0 2 1 0 1 1 0 2 0 1 0 1 0 3 1 0 1 1 1 1 0 1 1 0 1 0 1 1 1 0 1 0 1 0 1 0 2 0 0 1 0 1 2 1 2 0 0 0 0 2 0 2 1 0 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 1 0 2 0 1 1 0 3 0 0 2 3 1 0 1 0 0 0 1 0 3 1 2 0 0 0 1 0 0 0 1 0 1 0 0 1 0 2 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 2 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 1 2 2 2 0 2 0 1 0 0 1 0 0 0 2 0 0 0 0 0 2 1 1 0 0 1 0 1 0 1 0 0 1 2 0 0 0 0 0 1 3 2 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 2 1 0 1 2 0 1 1 2 3 0 0 0 1 0 0 1 0 1 1 0 2 0 0 0 2 0 3 0 0 0 1 0 0 1 2 2 1 0 0 1 1 1 1 0 0 0 2 0 1 1 0 0 0 1 1 0 1 0 1 0 1 0 1 0 1 0 0 0 1 0 0 0 1 1 1 1 0 2 0 2 1 0 1 0 0 0 2 0 2 1 1 1 0 0 0 0 1 1 1 0 0 0 1 0 1 0 1 0 1 1 1 1 1 0 0 0 0</t>
-  </si>
-  <si>
-    <t>JSB(1.4512150979148821, 2.266032338916424, -41.390743958630964, 362.2112052949925)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53 86 133 133 73 82 29 42 44 184 47 162 37 120 53 68 40 101 113 124 95 106 62 96 85 89 87 125 95 132 36 103 41 74 70 94 34 68 98 76 135 187 99 42 134 42 17 86 38 52 48 126 53 61 19 95 68 115 94 66 145 34 115 83 93 94 105 138 56 137 71 32 134 141 36 55 99 38 53 63 113 143 60 76 167 51 85 101 32 147 54 95 117 138 208 87 76 94 111 126 177 133 89 81 85 77 85 63 59 71 33 74 54 58 56 104 87 65 44 71 111 111 47 52 22 104 84 86 94 98 91 104 33 114 -3 76 81 73 67 137 84 136 13 42 102 98 89 78 114 48 53 76 109 75 103 52 90 123 80 113 74 88 68 59 52 47 76 72 44 42 92 78 146 99 70 89 86 102 84 96 104 126 33 66 43 95 86 111 92 81 115 88 116 127 62 107 54 76 22 135 123 53 114 55 40 86 98 178 65 95 54 170 130 102 89 109 112 88 63 95 109 67 63 22 92 33 146 76 43 55 52 46 76 48 100 83 166 113 19 146 103 62 21 58 118 103 86 127 93 135 104 52 32 147 117 46 76 47 65 143 121 69 128 63 120 68 76 96 103 80 86 183 67 54 47 41 125 109 67 113 152 94 47 23 96 84 42 183 138 52 56 87 156 156 23 67 69 27 22 76 84 86 92 76 43 72 91 89 116 33 101 103 48 133 119 82 150 89 61 33 79 94 112 66 84 93 112 96 103 38 112 52 59 104 129 127 106 33 116 143 118 39 81 92 59 138 53 70 52 32 44 174 91 113 77 95 58 151 59 68 146 113 126 90 68 116 71 33 65 40 94 75 96 106 34 109 87 82 82 91 8 53 63 78 50 57 53 75 57 85 88 51 33 93 11 86 65 87 176 122 49 87 61 80 94 84 87 131 77 57 155 78 74 140 66 115 121 96 34 173 127 62 56 114 56 108 97 106 52 70 87 67 66 121 132 92 37 161 80 105 70 86 132 129 108 44 47 63 125 112 127 67 62 73 53 103 119 80 110 81 75 91 50 105 80 27 138 91 38 131 130 92 82 55 60 73 53 82 112 67 38 75 112 48 52 52 96 13 167 64 68 82 94 106 102 59 68 108 101 47 80 32 92 122 51 65 99 18 58 71 57 108 41 63 138 71 29 68 76 5 65 63 98 129 110 92 103 113 84 48 134 103 37 94 82 102 112 33 150 102 35 66 126 60 96 90 144 107 80 113 94 60 86 120 53 100 60 164 125 24 92 107 52 127 96 59 170 48 140 112 103 43 138 39 122 100 99 39 128 36 63 34 82 95 27 39 127 112 118 65 47 91 96 63 40 43 116 97 124 138 69 97 81 111 107 63 84 107 33 58 114 80 49 42 74 112 140 74 56 56 89 132 122 35 100 66 78 119 139 145 59 61 44 50 21 102 91 66 85 60 92 79 112 100 72 83 106 97 101 77 85 74 86 95 114 66 109 88 60 72 142 85 74 99 29 71 47 85 88 100 62 108 49 85 59 145 83 91 90 91 38 180 127 50 120 122 84 66 88 57 91 95 90 78 119 127 71 93 135 107 106 86 98 9 79 82 84 66 71 132 83 166 110 59 69 85 67 13 78 73 50 53 107 74 112 81 128 51 63 77 84 90 137 77 146 49 46 76 77 78 69 115 68 52 171 94 75 145 175 35 129 46 102 68 78 50 52 104 148 70 97 79 64 95 30 85 74 124 127 122 83 87 96 33 110 78 39 146 121 80 56 51 8 68 26 108 100 93 89 106 47 145 79 45 109 78 99 81 103 90 55 105 65 93 79 111 120 63 62 38 102 62 33 103 22 33 110 84 126 63 54 96 156 88 38 101 74 71 75 85 126 106 108 57 91 122 98 115 123 130 113 143 72 87 91 38 19 59 39 110 70 108 71 85 65 35 123 36 76 68 73 88 114 86 80 105 86 119 84 67 106 108 72 118 54 121 45 118 58 81 103 128 104 30 78 99 21 67 111 61 84 52 29 59 118 124 46 145 43 62 129 94 111 57 134 130 89 76 133 76 90 155 92 99 71 92 85 61 67 59 160 59 47 87 134 74 107 119 105 61 59 70 74 69 66 111 79 176 55 59 73 43 92 29 87 130 115 61 106 15 33 97 122 139 138 107 96 123 35 47 61 127 74 87 78 58 81 79 100 36 115 105 69 119 80 158 40 119 126 32 57 38 83 87 149 64 66 99 68 64 108 28 54 43 92 91 90 54 71 86 75 115 102 63 106 64 41 75 93 88 87 142 106 149 83 73 85 123 85 78 137 86 99 127 42 75 68 109 98 82 70 53 75 71 25 126 152 54 68 82 107 85 116 37 82 76 47 27 103 39 78 100 154 53 25 66 63 96 101 101 63 59 35 88 102 65 85 41 100 163 68 71 72 68 24 130 47 53 114 44 112 31 151 67 90 23 141 139 83 65 69 54 39 74 43 99 46 73 82 115 132 45 29 80 38 174 123 80 23 86 120 86 66 89 109 44 153 65 85 93 141 67 16 108 77 57 71 62 124 30 92 52 36 109 57 120 67 125 79 87 117 216 128 168 136 143 120 56 38 112 65 153 51 72 97 89 46 58 69 162 60 140 72 62 32 118 136 84 58 136 137 96 92 64 103 200 42 57 51 44 76 99 113 92 51 82 86 171 77 133 140 115 77 109 47 33 94 59 38 122 65 53 61 102 96 71 114 60 105 66 160 19 81 60 80 117 90 59 73 83 74 71 99 37 32 101 52 54 119 69 30 127 98 57 137 47 108 40 59 171 42 109 157 125 100 140 92 167 123 21 80 78 124 113 46 123 128 89 115 40 97 135 122 61 101 113 38 83 88 69 77 81 74 136 80 70 110 101 129 46 128 32 121 124 68 85 102 27 78 111 62 178 121 114 96 108 84 76 60 126 115 60 92 63 104 91 112 104 144 43 73 148 67 82 71 89 82 98 82 57 96 121 87 78 84 88 39 88 46 128 71 117 54 84 111 103 154 90 41 21 53 106 99 58 68 114 119 72 93 116 60 72 47 76 93 40 55 100 51 42 29 100 79 79 119 86 130 99 106 12 78 104 89 44 42 74 56 35 98 97 131 92 103 82 42 57 137 118 160 59 55 67 103 98 118 90 26 153 134 116 86 86 65 49 56 108 18 46 63 148 45 114 77 88 47 42 83 49 82 127 138 144 118 100 22 87 31 56 74 39 84 107 89 106 143 54 81 108 76 35 62 77 64 112 99 87 49 27 88 52 194 118 36 129 56 157 101 112 100 89 96 106 68 142 81 81 71 120 38 59 42 150 140 43 48 92 111 96 126 70 42 43 95 50 46 122 161 99 104 66 69 67 54 39 65 41 148 115 54 55 128 98 88 54 110 118 48 90 68 75 151 44 69 61 140 108 65 80 109 89 119 60 78 62 128 125 142 103 70 59 45 130 98 164 62 33 106 97 70 123 98 128 153 204 73 80 47 92 113 137 17 82 49 90 68 89 42 149 59 50 53 73 155 55 70 74 70 56 121 77 33 33 131 90 41 49 96 167 48 74 32 50 78 63 127 45 116 102 103 58 151 86 121 113 120 55 134 11 78 92 114 80 22 45 132 82 112 105 103 102 87 78 80 114 119 81 99 46 95 72 99 78 96 65 40 123 49 122 53 118 117 36 71 73 43 78 101 65 50 124 105 97 64 34 61 123 178 52 90 20 86 28 96 68 20 126 126 93 90 121 61 42 129 101 166 82 43 93 81 51 65 24 75 139 42 72 54 74 49 190 52 97 108 120 98 83 30 67 58 73 111 169 84 101 88 55 66 174 96 86 122 85 83 58 24 46 38 82 168 57 58 140 91 100 158 62 70 126 126 42 46 42 84 83 133 110 71 150 64 110 104 86 84 99 63 120 75 78 110 118 77 166 136 43 130 39 68 66 114 116 80 152 56 137 120 108 125 102 73 83 59 116 170 97 84 92 62 97 82 85 102 48 42 30 94 29 109 16 108 112 118 136 45 70 147 84 145 30 99 80 46 93 141 58 106 57 87 109 59 52 79 39 87 87 31 103 53 90 84 153 106 73 85 98 28 26 139 62 63 47 79 102 110 100 54 106 31 60 98 134 37 88 63 72 21 95 39 15 111 24 63 47 80 92 82 96 80 144 11 147 116 92 51 91 65 117 52 81 63 121 143 119 119 62 35 154 56 42 119 147 155 111 80 97 43 155 73 80 111 60 97 100 109 86 86 127 88 143 78 92 72 75 114 52 113 93 93 53 123 32 51 37 18 118 145 59 171 46 89 93 43 39 124 94 70 62 3 71 65 112 67 104 57 94 175 82 76 109 125 42 50 140 40 82 87 57 139 55 107 109 150 107 118 10 77 81 170 52 81 48 21 63 69 76 46 44 123 61 99 90 60 66 102 111 132 93 70 141 52 179 124 74 126 166 121 111 93 60 65 142 96 87 89 127 56 101 54 92 7 58 109 68 64 86 107 119 90 52 166 52 95 43 125 50 58 50 130 136 127 41 121 62 41 112 61 133 61 63 87 50 30 74 77 93 145 81 123 87 67 64 35 78 18 127 56 107 172 18 107 56 88 62 43 32 36 73 98 60 130 142 38 120 78 39 70 57 77 128 107 37 42 72 94 46 45 130 36 84 30 80 102 61 36 56 84 47 115 71 53 76 134 104 49 82 68 44 82 86 139 118 62 70 55 62 76 69 109 67 116 52 95 51 90 164 120 90 110 34 120 146 98 83 73 155 82 48 76 107 114 119 162 97 22 28 103 45 62 105 77 39 41 178 129 23 113 107 142 25 74 48 55 101 120 86 55 57 102 81 150 130 78 80 123 71 59 27 40 22 107 48 97 41 107 71 86 138 96 102 146 163 109 121 131 131 50 115 92 111 155 97 132 85 80 146 77 82 96 126 123 23 51 86 104 77 146 44 81 105 68 92 41 96 61 89 67 101 56 93 140 38 93 156 86 67 82 126 108 137 70 77 140 110 85 71 72 51 134 45 103 57 50 67 93 77 40 29 78 42 98 20 76 75 97 77 68 113 182 91 62 72 70 100 102 112 67 103 135 76 49 78 49 77 87 78 87 57 103 125 71 6 141 74 116 82 112 61 130 89 75 84 47 49 125 122 49 91 51 134 64 39 174 38 108 58 52 44 64 162 12 87 87 99 86 75 70 118 115 73 184 114 187 104 100 79 90 131 78 118 62 96 77 68 37 142 63 72 128 122 94 50 51 104 29 45 151 136 163 78 84 54 27 100 122 72 166 97 144 87 88 44 57 54 161 135 154 52 72 155 101 131 129 53 69 100 109 52 65 30 56 39 55 103 72 114 81 -2 115 107 48 126 98 29 93 65 79 111 51 104 83 155 121 89 87 156 70 113 76 102 108 30 55 114 64 69 204 87 101 54 92 80 37 47 71 93 110 25 55 116 42 113 98 102 89 124 28 91 53 128 78 94 102 104 56 42 68 94 21 129 67 75 90 74 73 44 105 114 95 88 103 51 40 82 62 52 140 70 141 97 111 94 95 106 55 98 45 57 80 101 63 121 68 87 83 120 58 137 52 77 98 64 117 30 75 114 87 158 162 82 75 69 97 123 138 161 121 80 76 112 98 127 71 134 44 113 27 118 140 58 51 76 90 63 56 96 115 70 85 82 140 79 85 59 147 126 169 88 95 96 57 80 90 38 95 59 127 45 121 80 72 130 51 96 48 85 163 136 151 98 49 71 20 63 65 116 116 105 142 139 123 92 125 71 120 134 112 33 55 14 77 61 55 138 122 77 64 65 122 100 135 77 139 60 75 65 52 77 46 84 135 89 34 134 45 162 175 71 66 79 66 93 71 80 109 68 145 99 113 74 79 75 86 32 97 99 39 87 56 49 57 100 90 89 59 57 51 56 19 102 114 135 50 92 110 93 83 114 59 16 55 80 144 30 102 97 96 88 90 74 100 76 65 129 67 82 158 28 66 37 165 112 41 61 97 158 107 56 96 100 101 22 147 75 109 60 50 134 43 43 65 100 135 85 110 130 38 65 54 157 160 91 84 57 85 112 74 81 38 101 49 23 46 88 100 167 54 112 104 29 144 86 55 96 55 36 93 126 37 74 92 80 75 72 72 104 59 48 81 56 65 53 160 145 38 185 62 59 87 75 120 83 83 157 59 71 71 56 106 112 87 26 86 107 63 59 94 26 147 112 103 78 119 90 66 81 87 85 141 74 59 109 29 168 109 88 178 81 92 47 60 134 70 59 68 34 96 40 126 45 118 132 140 120 149 129 68 95 121 146 103 89 104 146 36 144 78 65 83 94 92 27 91 91 53 63 55 18 94 61 156 88 50 126 103 54 132 87 45 87 94 75 100 139 134 135 132 74 39 84 66 208 68 18 50 137 78 57 126 98 112 123 107 80 70 69 70 35 141 61 82 123 128 72 132 84 96 41 121 132 78 58 53 80 24 71 87 64 103 139 127 101 76 43 67 54 111 125 74 57 108 66 154 113 93 142 89 27 59 99 82 127 30 76 102 83 31 78 41 51 52 87 122 16 88 51 113 82 81 119 83 59 77 51 98 116 48 71 96 52 95 96 98 116 40 55 86 60 115 57 29 65 77 14 95 45 58 137 79 68 69 85 19 98 191 112 120 90 75 74 57 105 42 102 100 34 51 58 83 89 52 38 40 104 114 63 115 35 127 114 95 142 66 165 111 50 66 119 114 102 125 107 66 79 96 132 27 80 56 122 126 77 62 92 119 93 54 91 120 106 52 75 55 56 45 71 73 82 145 112 83 44 84 104 162 40 98 151 79 75 116 111 146 48 79 82 57 91 103 91 85 79 112 72 68 87 68 64 122 94 49 89 137 97 78 74 79 37 70 20 90 58 74 88 78 147 110 93 88 74 93 53 96 81 18 43 157 87 107 107 97 147 70 187 46 119 67 72 85 118 31 115 55 164 73 86 140 74 145 57 102 50 76 79 81 68 78 104 27 76 39 88 103 135 134 63 14 120 24 28 30 54 78 89 38 60 94 71 90 44 66 34 167 25 141 93 81 96 49 92 102 109 69 83 103 62 41 83 132 69 48 54 32 120 56 88 55 93 66 156 17 42 95 97 60 64 42 72 83 90 35 78 114 45 95 84 151 96 101 69 106 122 27 79 44 89 19 112 61 44 158 124 66 78 32 97 126 98 125 127 112 19 46 87 110 54 71 52 115 109 45 88 81 84 55 69 85 27 56 130 109 78 44 146 77 86 89 79 60 84 101 123 81 54 44 156 125 60 108 90 113 120 70 98 67 97 89 86 56 42 52 81 144 52 65 82 102 -4 157 67 160 62 114 67 104 64 89 84 85 169 117 77 97 92 52 71 66 118 83 158 2 110 89 77 75 115 81 118 63 69 110 82 86 25 83 85 66 55 25 116 66 70 114 84 117 140 110 53 83 96 110 91 66 98 64 174 83 29 73 87 102 115 72 62 97 160 138 162 24 118 109 100 55 93 145 75 93 72 29 45 102 86 121 117 110 124 21 44 94 85 39 171 107 113 57 130 98 59 23 98 119 83 143 107 107 85 58 112 94 42 66 95 24 54 67 27 42 164 116 45 78 52 83 46 73 105 103 46 38 75 135 89 76 134 69 104 30 98 102 145 32 139 115 77 11 111 27 93 94 70 112 96 57 31 101 59 98 40 88 126 81 64 106 56 102 31 39 91 103 125 78 67 68 80 22 132 71 106 109 96 112 109 147 144 38 67 116 113 58 35 47 63 118 143 118 55 78 148 105 86 142 99 83 102 56 81 127 47 143 143 91 140 50 93 79 36 74 104 72 53 100 133 123 99 81 107 96 117 103 68 124 53 106 157 62 125 64 91 87 90 51 56 147 44 160 70 87 55 36 113 48 57 20 150 86 106 67 38 46 86 113 48 92 25 161 116 84 63 122 52 100 89 81 112 69 108 97 95 113 53 174 121 189 177 74 54 132 135 63 74 46 47 62 46 61 72 127 82 37 120 107 104 40 51 54 78 92 70 103 113 65 46 52 160 48 66 16 124 73 83 94 102 100 82 100 72 39 50 97 9 26 100 46 101 47 70 49 170 82 115 71 47 66 169 27 37 135 101 115 60 122 134 33 54 39 95 127 89 116 86 144 175 115 70 77 60 174 128 45 98 165 105 45 148 60 163 45 32 54 78 36 89 126 87 78 97 95 88 75 50 65 81 40 117 45 83 74 55 30 114 98 85 40 55 59 124 78 85 107 103 97 91 96 116 102 94 102 69 171 164 125 37 30 28 97 41 103 114 108 100 37 85 85 78 80 107 32 150 61 80 114 103 93 53 135 97 67 75 60 108 65 101 117 79 120 107 38 100 98 95 107 104 36 10 140 80 69 90 79 67 83 173 55 93 39 106 70 166 26 71 145 71 80 86 146 123 70 103 84 131 117 76 47 162 46 76 105 42 109 99 67 120 94 86 68 61 105 67 116 85 98 107 110 48 49 82 78 66 82 52 94 107 138 81 99 95 59 45 93 46 72 102 88 77 24 48 91 92 94 118 50 32 36 87 79 35 52 48 65 59 122 67 95 36 110 100 86 103 121 20 53 25 182 155 186 113 54 99 140 102 85 120 111 113 37 114 121 89 95 102 82 143 51 62 115 89 63 88 91 51 142 86 70 112 112 89 78 92 23 95 94 60 124 166 145 13 57 62 47 91 128 92 134 55 102 163 108 151 75 62 63 86 77 95 154 83 97 102 47 105 80 72 108 82 97 82 45 65 68 84 51 84 90 82 64 85 68 149 52 114 88 64 106 100 75 45 67 55 45 95 99 73 157 85 53 94 27 146 107 84 44 137 113 82 38 98 119 40 164 96 33 96 86 68 63 60 81 63 64 100 84 70 51 92 90 33 66 34 81 64 38 41 158 82 155 87 58 84 148 91 56 103 78 17 114 71 111 98 98 50 78 90 95 153 103 87 97 125 168 102 47 79 139 105 112 34 106 78 141 107 71 53 111 91 106 104 127 88 72 81 120 66 52 50 60 122 100 150 120 98 93 86 71 58 111 146 89 90 153 87 88 89 76 124 82 137 86 97 45 101 112 149 74 96 111 108 45 96 82 93 87 55 89 92 72 130 123 79 127 56 30 139 59 55 46 63 94 61 89 49 61 94 80 86 42 41 86 82 113 84 20 79 133 136 80 89 147 48 85 43 53 67 43 66 43 85 182 92 130 60 47 41 41 62 144 25 135 111 64 93 90 114 50 31 26 80 108 70 56 41 46 52 74 103 42 98 116 46 90 104 102 74 100 28 60 130 53 85 88 91 43 91 101 59 59 84 98 83 78 102 95 148 61 95 143 111 131 56 27 27 107 119 89 120 63 189 63 83 27 90 86 122 46 99 52 36 97 76 48 70 134 160 77 22 114 92 120 56 105 41 103 134 104 99 141 175 68 85 80 89 83 61 83 79 118 68 106 45 135 0 131 125 69 88 43 57 68 57 23 194 152 38 65 97 88 37 77 104 56 123 36 154 109 105 100 82 74 51 141 82 103 53 80 63 91 73 70 89 146 55 86 114 100 63 83 44 83 132 70 111 88 70 198 165 130 84 67 84 97 102 90 34 71 97 33 131 93 104 95 71 154 166 70 86 56 140 17 83 102 52 68 47 48 98 69 84 87 93 88 80 59 64 89 52 118 51 123 132 96 27 46 76 96 54 75 120 55 60 95 105 99 144 88 64 71 49 162 55 87 126 53 93 26 107 106 55 80 104 129 122 118 21 107 75 86 96 99 97 19 107 61 33 71 80 52 65 81 50 115 96 89 89 83 97 84 126 95 165 133 82 112 32 93 92 114 59 39 105 149 59 42 117 22 99 59 116 91 63 46 124 79 59 138 114 71 150 19 77 69 94 146 60 141 55 104 113 94 82 111 56 39 90 68 110 159 87 172 51 100 26 51 80 89 62 88 53 45 31 84 57 97 63 104 65 118 114 129 149 84 110 73 156 177 63 90 124 89 143 78 89 46 101 69 88 42 54 96 74 49 57 79 83 46 134 59 68 73 44 103 62 82 78 64 116 128 103 53 121 188 15 65 63 86 76 94 46 93 120 122 148 58 166 36 88 64 87 104 76 94 92 60 80 82 120 137 64 96 147 70 85 37 74 66 28 104 76 73 33 64 41 118 47 202 22 130 65 55 86 42 162 94 62 158 108 87 54 77 65 101 101 92 58 93 71 62 10 119 72 126 41 118 192 73 56 87 46 94 73 100 103 111 121 50 109 106 77 85 95 97 90 44 110 57 36 84 82 81 24 15 129 196 49 67 51 33 78 110 84 114 54 117 116 80 111 101 97 36 169 92 117 31 180 86 37 90 144 34 34 48 94 80 163 68 127 55 120 90 60 111 108 79 62 58 58 97 88 98 57 64 77 33 120 108 112 42 65 74 59 88 88 72 66 157 30 21 112 56 149 103 33 156 38 96 94 92 98 121 63 68 137 43 87 55 106 131 30 90 76 90 142 127 78 81 78 34 17 163 57 146 75 53 60 77 107 117 52 74 83 48 54 98 123 125 123 81 86 95 87 101 102 102 81 16 49 51 95 125 103 46 77 87 82 3 87 74 144 139 93 37 66 61 90 180 124 76 101 86 37 119 130 109 76 75 78 73 85 88 46 80 102 84 117 60 30 70 36 68 87 141 70 83 68 111 93 132 103 106 66 47 122 105 112 77 89 56 93 47 108 49 69 39 99 47 74 108 120 61 100 88 46 17 64 83 105 114 69 49 66 57 77 60 81 31 70 80 154 86 89 69 55 50 104 113 73 94 105 82 93 92 78 58 91 72 105 60 111 100 67 124 129 89 60 53 97 33 94 123 79 117 60 122 78 47 54 73 94 116 32 59 93 70 53 105 113 88 39 28 95 59 154 121 108 84 80 49 25 75 77 113 104 60 91 138 73 103 64 131 91 78 87 74 30 135 56 92 58 88 96 48 60 88 98 122 71 101 74 106 125 79 104 96 117 49 64 132 114 71 60 101 22 73 124 114 41 11 66 87 133 133 91 57 70 103 45 110 95 65 104 55 78 93 106 72 1 22 75 51 121 98 67 81 117 59 112 71 59 73 116 81 84 90 126 86 112 73 119 100 118 65 31 62 90 71 105 131 158 73 77 61 69 115 96 73 70 70 79 184 122 91 113 57 98 72 60 103 158 150 95 115 107 36 64 70 112 120 109 88 62 117 102 73 65 19 145 59 67 38 124 86 75 41 76 64 93 112 81 75 121 70 109 85 115 47 38 59 94 91 105 102 81 85 95 140 114 134 26 41 17 24 42 46 89 33 92 140 35 151 106 45 121 45 110 93 42 77 138 146 119 113 95 47 163 48 192 64 94 128 74 142 78 155 138 133 98 39 73 67 125 118 114 51 113 53 90 96 48 107 142 38 105 45 100 183 110 98 109 74 86 52 114 104 98 167 120 31 130 98 123 63 98 146 65 101 55 163 84 95 65 143 135 175 75 106 40 127 92 85 157 53 87 151 136 109 48 95 37 98 117 119 52 78 82 87 51 53 31 179 81 125 103 87 112 57 44 95 72 109 65 32 82 104 36 85 120 32 33 104 114 68 71 68 67 38 68 47 131 68 145 105 45 120 92 108 89 125 68 71 85 98 149 67 63 72 30 36 21 157 110 82 79 77 132 100 49 41 66 108 21 62 87 95 102 80 78 30 78 40 73 92 64 101 85 80 138 56 89 36 86 104 147 61 126 119 66 61 57 85 69 80 63 56 30 155 38 47 59 57 111 159 64 86 149 72 29 67 86 102 47 41 81 58 116 91 102 103 50 32 101 93 102 58 99 88 53 94 99 89 90 131 89 78 90 105 113 62 128 71 86 52 101 102 199 120 65 15 95 84 94 66 72 93 62 110 45 29 73 96 52 129 161 171 63 82 65 37 135 129 151 45 23 78 94 91 12 20 85 128 152 162 124 78 98 105 39 80 90 91 74 89 120 86 161 124 166 75 89 37 55 113 103 161 87 91 50 28 96 102 62 60 97 108 46 53 79 105 94 107 72 43 76 91 81 61 154 73 140 133 71 116 23 107 57 48 122 109 89 58 113 28 85 107 88 72 169 56 60 97 73 81 82 44 38 74 62 28 51 139 47 27 65 104 98 31 136 141 66 155 53 53 148 102 105 94 46 70 84 31 45 100 64 67 132 91 35 83 90 96 50 182 148 66 72 44 86 91 34 64 118 90 49 148 72 39 69 84 146 87 30 132 160 62 108 45 82 117 114 101 157 91 77 104 123 47 91 117 119 69 43 61 55 74 88 55 63 49 93 119 75 50 173 50 146 86 136 167 72 79 92 107 31 8 84 88 120 134 111 82 27 124 54 77 125 111 39 59 111 72 61 92 70 90 98 29 69 99 91 131 91 72 47 127 89 29 167 71 107 85 102 82 141 89 91 101 49 54 62 128 103 132 88 115 42 71 86 96 90 63 73 49 139 130 79 103 77 34 56 121 96 53 111 62 27 130 81 133 87 97 103 132 69 101 105 79 63 102 115 207 63 91 48 129 139 82 41 129 131 84 45 120 85 25 53 88 77 154 77 196 40 90 128 127 84 85 110 111 69 100 142 35 142 115 60 47 63 99 97 64 142 112 73 82 70 144 151 41 30 85 47 112 106 73 80 57 146 99 40 94 42 100 61 140 73 72 97 118 90 62 69 49 95 132 100 58 83 61 99 83 133 33 127 105 21 74 68 21 98 132 95 14 56 51 60 116 113 55 64 61 86 111 97 109 128 158 113 63 79 153 101 83 79 122 95 123 127 119 74 48 78 84 92 128 101 103 132 92 52 106 54 121 133 19 33 97 126 106 72 79 77 106 65 88 60 121 73 34 65 81 104 113 55 48 14 98 87 43 57 40 54 70 86 70 116 84 68 43 90 67 49 67 62 74 58 91 81 53 72 39 59 110 95 108 56 39 62 130 61 110 125 51 49 64 158 87 121 110 21 95 137 98 39 126 98 67 64 119 145 45 39 101 40 68 51 100 57 103 84 94 35 103 86 52 91 60 129 162 61 91 82 116 98 183 9 101 42 118 107 137 75 108 68 27 61 118 139 42 134 121 117 110 134 77 53 41 117 123 63 199 107 101 73 113 91 97 65 103 103 36 68 46 114 92 61 86 116 93 57 97 79 91 97 61 49 64 25 49 32 19 69 75 61 52 59 80 73 44 46 150 132 89 88 45 99 76 59 87 21 119 46 69 115 46 83 44 94 105 151 95 35 96 84 54 94 113 94 20 54 147 122 27 86 160 69 66 39 94 118 83 101 56 106 97 48 89 86 131 94 59 57 47 94 76 166 106 147 44 75 139 107 24 131 68 105 81 127 76 88 68 115 100 77 59 63 17 74 79 39 92 103 26 68 49 59 47 67 58 43 90 116 160 18 35 87 131 78 115 102 91 109 120 97 93 86 98 54 106 124 42 123 99 109 56 111 91 114 100 140 140 54 110 106 124 87 35 109 7 40 38 57 41 51 54 140 73 109 90 128 100 130 135 138 117 62 77 22 36 96 100 97 29 77 133 139 58 78 90 21 70 151 63 59 108 130 45 152 73 111 69 52 84 126 71 154 76 149 87 42 74 85 7 81 130 135 89 116 69 101 86 63 64 118 27 53 90 86 31 70 58 142 90 67 55 64 88 84 4 68 116 132 72 119 33 93 160 122 79 88 121 57 62 103 162 36 96 110 53 57 112 86 54 50 139 89 90 66 108 91 57 64 87 145 61 85 151 69 112 95 88 150 79 116 49 175 31 130 145 36 104 52 94 81 52 110 71 80 99 34 55 58 141 76 63 98 120 63 60 81 72 105 74 88 19 75 123 71 94 70 35 122 124 99 107 88 122 63 78 101 76 17 48 143 51 85 81 97 75 135 26 67 131 143 57 92 67 86 82 110 66 50 117 52 153 50 45 120 83 99 88 107 108 108 81 34 71 60 76 103 100 94 147 142 60 84 63 57 109 64 82 68 74 108 108 154 131 92 54 108 82 95 109 102 151 77 129 63 48 70 0 139 131 121 92 91 23 127 145 76 83 101 103 106 80 64 45 79 94 100 80 136 127 77 130 48 68 76 148 49 108 64 82 53 113 46 98 89 78 89 46 42 104 73 80 57 38 75 100 57 88 77 69 9 123 51 73 95 68 94 129 82 51 89 73 140 99 135 53 62 89 118 99 45 70 46 132 119 91 89 69 72 80 75 62 90 114 34 159 60 71 73 138 79 133 76 115 60 30 51 106 138 168 105 127 47 98 125 153 63 76 145 32 77 111 74 112 66 80 41 115 118 32 15 41 87 112 70 95 85 61 42 85 132 128 65 85 117 42 96 80 59 64 132 35 115 51 71 38 57 154 45 80 72 70 166 70 117 26 84 71 76 144 76 22 24 125 151 81 39 176 100 81 14 79 59 97 139 103 110 68 109 117 86 46 51 65 85 43 74 135 96 22 85 30 70 126 100 134 90 54 156 66 62 68 80 90 118 43 26 62 78 97 82 132 60 73 113 61 109 127 45 102 109 94 117 142 89 82 52 101 151 161 112 35 108 88 9 26 73 84 98 137 60 101 80 125 147 139 64 48 82 8 64 78 49 164 81 107 77 78 82 119 136 90 68 77 46 47 66 103 126 86 92 42 125 57 157 124 91 116 94 66 70 98 79 110 125 81 83 130 44 77 140 63 67 88 107 93 116 137 158 109 104 62 108 60 103 47 118 101 77 88 120 89 102 66 58 115 127 117 139 67 116 62 106 61 73 76 74 159 34 26 58 75 80 97 96 122 123 93 122 122 21 34 82 29 48 105 53 77 111 90 128 96 43 103 37 82 135 68 117 54 120 63 100 90 84 70 105 158 158 27 115 48 121 146 89 68 119 135 142 114 66 94 46 109 98 65 127 91 77 1 128 54 103 77 88 106 133 93 111 107 125 145 127 59 109 158 84 88 127 114 48 46 102 92 32 46 119 58 56 63 48 70 130 70 93 143 101 68 86 89 136 59 89 44 82 104 146 111 95 53 145 43 75 78 87 119 91 42 113 87 96 40 81 73 67 133 130 60 78 100 32 74 73 96 45 62 34 82 87 47 25 82 50 84 38 109 97 97 116 55 64 129 90 73 128 152 167 111 45 105 134 30 90 95 152 106 120 70 142 74 40 106 58 60 122 88 104 79 76 66 128 39 84 87 95 84 32 116 51 49 114 85 55 115 65 114 191 130 37 43 94 66 113 44 79 88 65 74 52 83 91 74 83 80 81 135 89 63 40 127 91 66 111 39 33 25 38 75 107 120 79 63 124 53 29 67 35 147 89 65 105 72 105 79 61 145 134 121 93 44 129 151 53 91 42 40 84 105 82 95 114 91 147 51 125 35 111 138 91 69 65 72 42 84 61 103 128 188 70 59 114 98 62 123 53 65 140 146 56 100 65 38 171 94 24 72 80 99 35 96 82 68 32 65 93 33 74 88 168 90 94 44 87 108 108 45 122 63 85 53 64 67 121 100 100 51 79 79 49 102 15 60 116 100 -2 87 87 86 6 71 93 72 73 40 85 73 21 65 105 49 41 112 67 41 146 99 138 120 44 45 29 113 38 85 82 71 43 71 52 66 45 49 89 59 44 71 85 85 152 93 47 82 121 75 85 121 144 79 75 136 34 59 143 123 97 58 85 40 112 43 118 142 98 95 90 52 36 77 97 79 98 102 52 64 63 58 116 48 68 47 38 130 21 23 86 99 92 97 49 88 84 171 40 45 94 61 95 98 80 59 71 111 84 69 60 74 67 73 33 116 92 60 85 68 83 58 76 65 11 107 87 51 48 40 54 181 52 71 63 40 107 126 120 78 105 118 52 62 129 152 68 83 59 101 156 97 58 91 25 107 120 132 116 118 114 98 63 71 83 132 95 91 74 45 45 55 76 89 133 159 73 147 79 122 85 124 138 61 115 79 48 24 99 104 71 71 94 40 30 31 162 110 91 64 89 115 116 38 65 128 59 80 73 135 83 139 103 86 102 78 59 66 68 114 79 77 60 39 140 48 63 46 53 130 100 80 22 84 52 51 136 52 30 114 178 89 66 91 34 51 99 108 102 170 58 106 111 13 53 31 58 115 71 131 97 163 175 130 80 72 132 90 143 118 71 155 57 165 117 40 53 98 97 93 66 90 77 72 144 59 39 82 146 125 143 110 34 80 97 18 63 104 100 79 117 89 42 88 113 152 76 112 64 111 66 129 33 93 103 93 67 61 61 130 88 137 60 160 28 106 104 99 29 132 59 87 62 78 158 76 110 117 78 60 57 101 57 71 139 32 82 142 72 173 153 91 71 109 141 65 115 103 111 125 42 116 167 150 63 75 64 138 83 46 85 146 86 85 106 173 125 19 15 74 75 83 83 87 77 69 86 104 58 96 30 180 117 93 222 12 114 37 108 62 69 17 57 156 81 60 110 21 135 73 98 80 93 22 126 103 94 125 71 18 126 78 67 50 115 108 82 138 59 79 115 107 121 71 54 84 113 83 143 45 24 82 124 19 73 103 83 78 92 97 125 80 114 24 83 52 78 128 62 90 134 101 101 96 75 46 86 68 50 71 100 83 102 107 76 48 61 123 99 67 85 87 98 62 132 139 59 46 43 51 68 116 76 103 60 76 95 119 46 128 161 146 69 101 47 74 51 150 83 31 102 150 90 74 86 8 81 97 152 57 76 87 109 103 105 133 94 29 151 73 55 81 101 67 91 46 70 158 78 80 69 82 79 147 47 147 131 60 53 42 59 58 64 80 70 60 79 60 81 84 75 107 42 30 164 51 149 69 85 8 26 45 83 36 64 160 120 76 71 167 99 49 50 109 89 125 81 134 29 140 93 77 75 22 36 64 90 112 101 106 13 90 130 32 50 124 90 102 25 83 61 50 70 122 48 83 53 102 62 114 93 81 67 101 71 157 17 101 92 93 64 121 64 80 136 37 135 75 119 66 71 89 56 100 134 188 86 31 55 117 124 113 151 59 77 50 77 76 70 89 130 81 96 38 82 55 66 59 107 75 80 51 41 80 43 63 62 88 87 103 76 92 78 38 87 117 109 112 52 59 132 96 43 99 63 63 63 98 110 171 70 50 103 84 118 41 61 70 121 81 133 117 81 120 156 116 76 87 105 157 105 82 150 93 80 39 26 157 77 127 171 47 60 50 132 57 95 111 103 124 31 39 43 91 133 32 103 45 4 75 108 88 96 77 117 93 87 73 124 43 63 100 43 73 21 88 76 19 13 155 76 94 78 73 47 90 105 123 64 110 68 53 30 89 107 45 60 128 96 96 60 76 125 37 130 75 36 29 24 66 117 104 117 66 95 139 78 131 120 86 136 37 166 88 110 123 59 63 171 148 33 101 83 33 173 160 81 66 83 105 112 65 131 93 65 108 33 62 52 80 80 70 19 87 57 70 142 70 88 75 52 121 101 181 152 121 41 115 176 67 66 55 24 94 108 92 81 64 56 69 95 103 120 57 104 44 35 58 109 88 23 65 83 75 153 149 52 99 86 40 112 118 142 87 91 21 64 123 28 94 119 139 77 121 -5 32 98 72 118 59 100 98 104 62 103 152 68 96 114 103 133 93 84 84 105 37 86 81 91 45 48 101 49 70 44 171 122 142 113 125 84 85 158 54 117 141 124 109 21 78 106 64 94 68 76 86 29 82 130 43 86 36 78 75 75 46 66 44 75 130 78 92 76 110 167 31 36 76 74 65 70 118 30 104 42 47 111 102 126 77 93 56 99 53 69 44 95 50 80 71 122 113 34 85 95 77 33 27 77 121 7 82 63 106 118 143 19 53 67 116 32 116 91 41 72 83 123 52 10 112 84 82 76 41 50 89 81 115 80 183 80 68 107 75 114 91 133 61 75 95 65 151 112 67 78 92 106 107 30 127 150 34 52 109 76 96 118 106 104 72 40 64 122 35 112 114 50 116 110 141 110 50 76 66 96 68 57 89 115 66 73 99 54 90 92 65 88 82 71 40 79 95 131 56 139 157 95 68 30 87 98 83 61 53 57 127 20 107 97 36 65 91 95 118 104 107 102 96 82 102 101 200 71 59 91 62 73 81 69 75 76 50 108 40 128 103 51 101 95 115 96 74 44 136 133 58 90 42 86 36 104 33 98 167 115 69 41 29 145 46 101 50 93 52 68 158 17 138 92 110 105 100 85 128 77 113 132 90 67 149 74 74 71 98 62 59 48 50 48 59 26 52 124 71 59 53 95 4 30 41 55 83 59 66 75 91 38 84 125 49 77 67 89 88 88 85 101 88 79 70 91 84 92 65 63 124 46 90 40 89 94 58 105 55 74 108 98 65 74 125 126 88 108 175 15 119 96 48 100 26 108 119 83 52 55 112 41 33 102 71 78 103 139 138 27 24 120 82 35 77 161 106 44 100 116 106 87 200 72 135 72 143 78 39 56 84 94 110 86 44 68 105 84 162 145 93 49 100 96 70 128 84 99 39 104 177 65 161 128 51 66 40 53 106 61 39 92 97 72 128 90 142 24 88 60 88 99 87 30 32 -3 149 33 188 140 144 66 73 68 125 87 80 147 94 38 96 121 127 145 185 99 97 79 72 97 141 106 104 69 78 90 90 95 131 115 101 89 86 47 61 128 122 106 48 112 78 49 115 41 118 66 70 96 117 123 96 99 82 89 98 63 131 80 86 62 90 41 69 77 71 145 77 86 62 122 18 71 77 61 62 83 136 67 61 143 106 82 87 108 69 100 15 92 137 52 90 69 37 118 140 76 65 104 75 137 57 64 71 17 79 53 57 86 131 64 105 89 85 98 69 75 140 33 83 80 35 57 100 84 67 89 163 60 112 166 88 61 93 94 101 40 90 36 97 35 69 108 44 135 92 60 64 80 53 50 134 75 37 84 22 119 84 81 67 151 64 30 120 69 74 52 99 155 28 42 81 81 60 105 47 63 98 110 131 121 89 95 105 66 109 63 87 72 81 134 83 112 47 54 76 50 111 86 65 110 85 78 141 67 94 140 39 102 28 71 73 89 91 99 76 39 117 144 8 67 75 68 88 100 47 94 53 116 70 69 65 60 92 65 115 77 98 72 125 52 59 66 94 77 45 11 60 98 94 70 114 113 134 109 130 92 180 90 109 27 61 88 81 106 108 42 208 61 114 74 97 135 114 113 104 111 87 75 73 49 88 112 74 75 100 93 182 64 75 98 156 160 23 60 82 66 151 66 47 122 205 83 61 44 47 134 92 145 109 118 74 81 92 100 60 72 104 46 133 47 106 67 112 37 132 107 28 86 47 110 61 83 103 81 85 56 135 45 70 43 105 84 54 54 98 22 153 69 67 77 107 97 100 49 118 132 78 59 125 176 77 125 105 14 102 61 65 137 110 86 155 37 101 93 167 75 91 54 90 120 82 108 106 110 26 97 31 88 64 37 200 95 98 105 130 80 89 37 31 45 89 74 40 96 177 54 80 85 30 66 85 100 98 99 65 86 113 36 44 122 56 110 113 36 158 70 109 111 53 88 119 115 58 48 66 123 128 116 148 73 76 88 128 72 53 139 19 81 49 49 61 95 76 93 91 82 92 78 25 83 50 120 47 29 126 140 95 67 63 70 102 75 38 65 152 97 81 67 100 141 120 67 66 51 50 78 106 162 65 134 85 83 134 86 94 34 19 95 72 78 144 63 59 53 82 63 63 60 146 63 43 71 76 112 76 71 35 97 11 19 58 76 182 154 58 109 119 91 98 69 82 67 45 51 81 76 119 89 41 44 63 40 155 80 77 88 118 120 113 121 35 78 124 114 18 79 164 59 126 138 74 20 115 97 76 106 37 100 37 45 52 88 37 112 69 79 68 68 128 90 62 44 44 106 41 60 146 99 160 88 54 92 60 26 107 177 83 23 129 43 117 104 91 97 71 82 39 106 89 96 122 125 59 39 65 59 74 94 48 49 90 94 63 75 126 36 27 77 39 76 70 47 139 75 90 32 95 84 132 119 96 72 74 53 78 208 50 106 61 149 120 96 78 62 129 55 130 68 96 49 99 51 71 162 107 44 75 70 108 94 92 50 165 70 27 81 147 12 103 92 95 25 78 61 34 98 59 23 23 66 54 64 98 84 55 57 58 179 102 57 179 82 -1 79 48 76 52 155 45 107 81 71 62 109 83 98 98 92 94 156 72 62 123 55 58 93 73 87 41 27 79 82 87 139 145 55 80 104 105 57 123 98 61 82 91 53 79 63 35 56 54 111 113 72 64 52 77 35 176 99 142 140 85 106 48 94 113 77 43 25 79 88 109 71 47 56 32 70 46 115 108 90 98 106 83 54 57 88 35 114 23 92 120 100 31 177 53 68 64 34 87 67 161 58 27 88 169 147 33 42 89 116 42 117 86 98 108 93 97 39 74 117 43 81 82 105 118 105 95 91 89 90 132 44 81 160 43 122 66 73 133 21 27 99 52 106 125 129 117 110 69 76 123 125 122 105 53 58 80 156 99 83 89 126 73 144 59 151 102 72 78 137 107 76 147 111 71 139 97 49 162 94 78 27 176 86 40 40 46 163 73 107 97 76 69 48 73 39 82 112 102 145 23 92 107 26 58 69 131 99 85 134 135 90 150 168 88 86 65 73 68 68 56 91 120 83 86 66 57 103 101 65 42 129 79 66 69 80 118 48 144 44 117 100 44 62 66 48 84 45 95 63 112 126 160 75 94 41 185 116 133 115 79 59 50 91 107 114 124 124 132 83 112 119 22 83 64 72 73 106 105 117 38 100 38 145 43 58 100 58 48 119 72 78 116 94 156 65 93 33 79 112 95 30 65 76 191 114 157 116 41 70 59 144 61 9 131 57 97 60 73 25 120 94 115 85 77 123 50 93 166 93 129 96 104 31 134 54 119 81 66 55 84 80 68 125 82 97 112 110 101 65 63 118 42 121 96 96 89 79 73 21 112 48 91 95 145 37 82 141 36 76 51 61 85 91 7 86 119 36 67 77 157 79 138 47 15 72 127 113 76 61 104 38 39 36 94 58 80 39 115 52 68 80 50 102 211 53 13 62 136 141 129 74 105 86 76 26 129 107 41 63 94 117 108 98 79 132 81 95 134 118 33 110 66 106 40 50 88 38 52 33 76 125 133 114 31 68 57 54 88 100 55 138 96 120 40 128 38 69 113 62 76 66 134 85 69 88 117 43 57 62 123 92 124 116 159 98 125 46 104 77 135 60 16 57 59 43 79 156 120 101 85 27 98 117 115 145 31 27 41 34 91 55 134 99 49 166 68 98 51 106 55 107 14 145 74 91 124 60 55 66 69 99 71 97 57 86 74 92 94 100 93 17 58 88 112 129 103 106 131 21 90 128 37 119 57 39 31 90 127 90 104 83 61 45 120 41 75 49 51 115 58 93 85 129 104 34 31 155 174 102 98 84 76 114 116 80 86 17 126 22 19 109 52 114 79 132 59 11 60 129 109 125 68 92 35 90 85 68 95 71 54 66 92 51 107 134 57 40 98 105 119 54 74 104 89 128 124 67 99 50 97 78 52 191 131 58 95 154 66 20 90 70 64 133 101 26 114 77 82 75 27 82 99 53 107 98 50 155 115 67 71 50 91 118 133 120 171 73 65 81 150 105 77 117 82 75 75 104 146 135 31 22 83 130 77 73 121 96 93 86 82 114 138 74 63 83 91 34 80 136 83 120 124 77 81 79 112 117 84 85 96 69 66 87 48 83 94 113 88 66 94 95 106 74 23 79 99 65 122 104 105 110 16 109 64 57 7 59 99 44 76 182 121 118 84 131 78 61 53 136 99 188 36 99 97 17 99 85 76 79 151 153 60 100 92 123 49 116 77 74 112 74 47 121 19 80 94 104 51 56 110 32 72 75 125 96 59 44 93 177 131 99 103 93 87 43 73 87 70 19 63 101 70 96 100 48 93 90 98 54 87 91 61 89 109 35 106 87 127 49 106 99 88 99 219 67 94 132 61 35 111 40 80 62 140 96 61 42 109 83 116 106 96 21 125 80 110 121 82 73 83 76 104 90 77 109 71 185 69 61 131 57 128 92 53 63 86 93 84 134 49 75 91 56 128 176 107 32 48 95 77 128 115 141 86 80 94 97 38 85 121 119 107 167 161 93 34 94 91 114 132 71 125 </t>
-  </si>
-  <si>
-    <t>GAM(0.5144495278086031, -1.2086634188409416e-27, 0.6403134671807095)</t>
-  </si>
-  <si>
-    <t>0 2 0 3 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 2 2 1 0 0 0 0 1 0 2 1 0 1 0 1 0 0 1 2 1 0 2 1 1 0 2 0 0 0 1 0 0 1 0 0 0 2 2 2 1 0 1 0 0 0 0 0 2 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 2 1 1 1 0 1 1 0 0 1 1 0 0 1 0 0 1 3 0 1 0 1 0 0 1 2 0 0 0 1 0 0 0 0 2 0 0 1 2 0 1 0 1 0 1 1 0 1 2 1 0 0 0 0 1 0 0 0 0 0 1 0 1 3 0 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 1 1 0 1 1 1 0 2 0 1 0 2 1 1 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 1 1 1 0 1 1 0 1 1 0 1 0 1 1 1 1 0 2 0 1 0 0 1 0 1 0 0 0 0 0 2 0 0 2 0 0 0 0 0 1 0 0 1 0 0 0 1 3 0 0 0 0 0 0 0 1 2 1 1 1 0 0 1 1 2 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 1 0 0 0 1 1 0 0 1 1 0 1 1 0 0 0 1 2 0 0 0 0 1 0 0 0 2 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 2 0 1 0 2 3 0 2 0 0 0 2 1 0 0 0 1 2 0 0 2 0 3 0 0 4 0 0 1 1 1 0 0 1 0 0 2 1 0 0 0 0 0 1 0 0 0 1 2 0 0 0 1 2 0 0 1 0 1 1 0 0 0 0 1 0 0 2 3 1 0 1 1 0 1 2 2 0 0 5 1 0 0 2 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 2 0 1 0 0 0 0 1 2 0 1 0 0 1 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 2 1 0 1 0 0 1 1 1 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 2 1 2 1 1 2 0 0 1 0 0 1 1 1 0 1 0 1 0 2 1 0 1 2 1 1 1 0 0 1 3 0 0 1 2 0 0 0 3 0 1 0 1 1 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 1 1 1 0 1 1 0 0 1 1 1 0 0 1 1 1 1 0 0 1 0 0 1 0 0 0 0 2 0 0 0 0 0 1 1 0 0 1 0 1 2 1 0 1 0 0 0 0 1 1 1 0 0 0 0 2 1 0 0 1 1 1 1 0 0 0 2 0 2 1 0 1 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 1 0 1 1 1 1 0 0 0 0 1 1 0 1 0 1 1 0 1 0 1 0 2 0 1 0 0 0 0 2 2 0 1 1 1 1 1 1 0 1 2 0 0 0 2 0 1 0 0 1 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 0 1 1 1 1 1 0 0 0 2 0 1 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 1 1 1 0 0 1 0 2 1 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 2 2 2 0 1 2 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 1 2 1 0 0 0 0 0 0 1 0 0 0 2 0 1 1 1 1 0 1 0 0 0 0 0 2 0 0 0 0 0 1 1 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 1 2 0 0 0 0 0 0 0 0 1 0 1 1 1 1 1 0 0 0 1 1 2 0 1 0 0 0 3 0 0 0 1 1 1 1 0 0 0 1 0 1 1 0 1 0 1 0 1 1 0 1 1 1 1 0 0 0 0 1 1 0 0 1 0 0 1 1 1 0 0 1 2 0 0 0 0 1 0 0 0 0 0 0 2 1 0 0 1 1 1 1 1 2 0 0 2 0 1 1 0 1 1 2 1 0 1 0 0 0 1 0 1 0 1 0 0 2 2 1 0 1 1 0 1 0 0 1 2 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 2 0 0 2 2 0 1 0 1 0 0 1 0 1 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 3 0 3 0 2 0 0 1 0 0 2 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 2 0 0 1 4 1 3 1 2 0 1 0 1 1 2 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 2 0 2 0 0 0 0 0 3 0 0 0 0 2 1 1 1 0 0 1 1 1 1 1 0 2 0 1 0 0 1 1 1 0 0 1 0 0 3 1 0 3 1 0 0 0 0 1 0 0 0 0 1 1 1 0 0 1 1 1 0 1 1 0 1 1 0 0 0 0 0 1 4 0 0 1 1 0 0 1 2 1 0 0 0 2 1 0 3 0 0 0 0 0 1 0 0 0 2 0 1 0 0 1 1 1 1 0 1 3 0 0 1 1 1 2 0 1 1 0 0 1 1 0 0 1 1 0 0 1 1 1 0 2 0 0 1 1 0 1 1 3 1 0 1 2 0 1 2 1 0 0 0 1 1 0 0 2 0 0 0 0 0 1 0 0 1 0 1 3 1 2 0 0 2 1 0 0 1 1 2 0 2 0 2 0 0 1 0 1 2 0 0 0 1 0 1 1 1 0 2 0 0 1 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 2 1 1 0 0 1 0 3 0 0 2 1 2 1 1 0 0 1 1 0 0 0 2 1 1 0 0 1 0 2 0 0 0 2 2 2 0 0 0 0 0 1 0 0 2 1 0 1 0 0 1 0 0 0 1 0 3 1 1 0 0 0 0 1 1 0 0 0 1 1 0 2 1 1 1 0 1 2 2 0 0 0 0 0 2 1 0 0 1 0 0 0 0 0 1 1 1 0 0 1 0 0 2 0 0 0 0 0 0 1 0 0 0 3 0 2 0 0 0 0 1 2 1 1 0 0 1 2 0 0 1 0 0 0 0 0 0 1 3 2 0 1 2 0 0 2 2 2 0 0 0 0 0 0 0 2 0 1 0 1 1 0 1 0 1 1 1 0 0 0 0 0 0 1 0 4 1 0 1 0 0 1 0 0 0 1 1 0 0 1 2 0 1 0 0 2 0 1 1 1 1 0 0 1 0 0 0 0 0 1 0 1 0 1 3 0 0 1 1 1 1 1 1 0 0 0 1 2 0 0 0 1 0 0 0 0 0 2 2 0 1 0 1 1 0 2 0 1 0 0 1 0 2 1 0 0 1 1 1 0 0 1 0 1 0 1 0 0 1 2 0 1 0 0 0 1 1 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 2 1 1 1 0 0 1 0 1 0 0 0 2 0 0 0 0 1 0 0 0 0 1 1 0 0 0 2 1 0 0 0 2 0 0 1 0 1 0 3 0 1 0 0 1 1 1 1 0 1 1 0 2 0 2 0 0 0 1 1 0 2 0 0 2 1 0 0 0 1 1 2 1 1 0 1 0 3 0 1 0 0 0 0 1 0 1 0 0 0 1 1 0 1 1 0 0 0 1 1 1 1 1 2 1 0 2 2 1 0 0 0 3 0 0 0 0 1 0 1 1 0 1 0 0 0 2 0 1 0 2 2 1 1 0 0 0 0 1 2 1 0 0 0 1 0 0 0 1 0 1 0 2 1 1 1 0 0 0 0 0 0 0 0 1 2 0 1 0 0 3 0 0 1 0 1 0 0 0 1 0 0 1 0 0 2 1 0 0 0 1 1 4 0 1 1 1 1 0 0 2 0 1 0 0 1 0 0 2 0 0 1 0 1 2 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 1 1 2 0 2 0 0 0 1 0 0 2 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 1 1 0 0 1 0 1 1 1 0 1 0 0 1 0 0 0 2 0 1 2 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 1 0 0 1 0 0 1 1 1 1 0 0 0 0 0 1 0 1 0 0 0 1 1 2 1 0 0 0 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 2 0 1 2 1 1 0 0 1 0 1 0 1 0 0 1 1 0 2 0 0 0 0 0 0 1 2 0 1 0 1 0 0 1 1 2 0 0 0 0 1 0 0 1 0 1 2 0 2 1 1 1 1 1 0 1 1 2 1 1 0 0 0 0 0 0 1 0 0 2 1 0 2 1 1 0 0 0 0 0 0 1 0 0 1 1 3 0 1 0 1 2 0 0 1 0 0 1 0 0 1 2 0 0 1 0 1 3 1 1 2 2 0 1 0 0 1 1 2 1 2 0 0 0 1 1 2 0 1 1 1 0 2 0 2 0 0 0 0 2 2 0 0 2 0 0 0 0 0 1 1 1 0 1 1 0 0 0 1 1 0 3 1 0 3 0 1 0 0 0 1 1 0 0 0 3 0 0 0 0 0 1 0 1 1 0 1 0 0 2 2 0 0 0 4 1 0 0 0 0 2 1 0 1 0 4 0 0 1 1 1 0 0 0 0 0 0 0 0 1 2 2 0 0 1 0 0 0 2 0 0 0 2 1 1 0 0 0 0 1 2 1 1 2 1 0 2 0 1 0 0 0 1 2 0 1 0 1 1 1 0 0 1 0 0 0 0 0 0 2 0 1 2 0 0 0 1 0 0 1 2 0 0 1 2 0 1 1 1 0 0 1 2 0 0 0 2 1 2 0 2 2 1 0 0 0 1 1 0 3 1 0 0 0 2 1 0 1 0 0 0 1 0 1 0 1 1 1 1 0 0 2 1 0 2 2 0 0 1 1 0 3 2 1 0 0 2 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 0 0 0 1 0 0 2 1 1 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 3 1 2 0 0 0 0 1 0 0 0 1 1 1 1 0 1 0 0 2 0 0 0 0 0 0 0 0 2 3 0 0 0 0 2 1 1 1 1 1 1 1 1 2 0 0 2 0 0 1 2 0 0 0 1 0 2 1 3 0 2 0 1 0 0 0 1 2 0 0 2 0 0 0 2 0 1 1 2 0 1 1 1 0 0 1 0 3 1 1 1 0 1 1 0 0 0 1 1 1 0 1 1 0 1 0 1 2 1 1 0 0 0 0 0 1 1 1 0 0 1 2 2 1 2 1 1 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 2 2 0 0 1 0 2 0 0 1 0 2 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 2 2 1 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 3 0 2 1 0 0 0 1 1 0 0 0 1 0 0 2 1 0 0 2 1 0 0 1 1 1 0 0 0 2 0 0 2 0 0 1 1 1 0 1 0 1 3 0 1 0 2 0 0 0 1 3 2 0 0 0 0 1 2 2 1 0 0 1 1 0 0 1 0 1 0 1 1 0 0 1 0 0 0 1 0 1 2 0 0 0 0 1 1 1 0 0 0 1 0 0 2 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 2 0 1 2 0 0 0 1 1 0 1 1 0 1 0 2 0 0 2 2 2 2 1 1 1 0 1 0 0 0 0 0 2 0 0 0 0 2 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 1 2 0 0 1 0 2 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 1 0 0 0 0 1 2 1 2 0 1 1 1 0 0 0 0 0 1 3 1 1 0 1 0 0 0 0 0 2 0 2 1 0 1 0 1 1 0 0 1 0 3 0 0 1 0 0 0 0 1 1 0 2 1 1 1 1 0 0 0 1 1 0 1 0 2 0 1 1 1 0 0 1 0 0 0 0 2 0 2 1 0 2 1 1 3 0 0 1 0 0 1 0 1 0 0 3 1 0 0 0 0 0 0 0 0 0 0 1 0 3 1 1 0 0 0 0 0 2 0 0 0 1 0 1 1 0 1 1 0 0 0 0 0 0 2 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 1 1 3 0 0 1 0 0 0 0 1 2 0 1 0 1 2 2 0 0 0 0 0 1 1 0 1 1 0 1 0 0 1 0 1 0 1 0 1 2 1 2 0 1 0 3 0 1 0 0 0 0 1 0 1 1 0 1 2 0 0 0 0 0 0 0 1 1 0 1 1 2 0 0 2 0 1 1 0 1 1 1 1 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 1 0 2 0 1 1 1 0 1 2 1 0 2 0 0 0 0 0 0 0 0 0 0 1 0 1 0 2 0 0 1 0 0 1 0 0 2 1 0 1 1 0 0 1 0 1 0 0 0 0 1 0 1 1 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 2 0 0 1 2 1 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 2 0 0 0 1 0 1 1 0 0 0 1 1 0 0 0 1 0 2 2 1 3 0 0 0 0 0 0 2 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 1 1 0 2 2 0 1 0 1 0 2 1 1 0 0 0 0 0 0 2 1 3 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 2 1 2 0 1 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 1 1 0 2 0 0 1 0 1 0 1 1 0 1 0 1 0 1 1 1 0 0 0 0 0 0 0 2 0 1 0 1 1 0 0 1 1 1 2 1 1 1 0 0 1 0 1 1 0 0 1 0 0 2 1 0 1 0 1 1 0 3 1 1 1 0 3 0 0 2 0 1 0 0 1 1 0 1 1 0 0 2 1 0 1 0 1 1 0 0 2 0 2 0 1 0 2 0 0 1 0 0 0 0 0 2 0 0 0 1 0 0 1 1 1 1 1 1 1 1 0 0 0 1 0 0 0 0 1 1 0 0 0 2 1 1 1 0 0 1 0 0 1 0 0 2 0 0 1 0 0 0 1 1 1 1 0 1 1 1 0 1 1 2 0 1 0 0 2 2 0 2 1 2 0 1 0 0 0 1 1 0 2 0 1 1 1 0 0 2 0 3 0 1 1 2 2 0 0 0 0 0 1 0 1 1 0 0 1 1 1 1 1 1 2 0 2 0 2 1 1 0 1 2 1 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 1 1 3 0 1 1 0 1 0 0 0 0 1 0 1 0 2 0 0 0 2 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 2 0 1 0 0 1 0 0 1 1 0 1 0 0 1 0 0 1 0 2 2 2 0 2 0 0 0 1 0 1 0 0 1 1 0 0 1 0 0 2 0 1 1 1 1 1 1 0 0 0 1 0 1 1 0 1 1 0 0 0 1 1 0 2 1 0 1 0 0 1 0 1 2 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 1 0 0 1 1 1 0 1 1 1 0 0 1 1 0 2 0 0 1 1 0 0 0 1 1 2 0 0 0 0 1 3 0 1 0 1 0 1 1 1 1 1 1 2 1 0 0 3 0 0 0 0 0 0 0 3 1 1 0 1 0 1 1 0 0 2 0 0 0 0 1 0 1 1 2 1 2 0 2 1 0 0 0 0 0 2 0 1 0 1 0 0 1 1 0 0 0 1 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 1 1 1 2 0 0 1 2 0 1 1 0 2 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 1 0 0 1 1 0 0 0 0 2 0 1 1 0 1 1 1 0 2 0 0 1 0 1 2 0 0 1 0 1 1 0 0 1 0 0 0 1 0 0 0 0 2 1 0 0 0 0 0 1 1 0 2 0 1 0 1 0 1 0 1 0 2 1 1 0 0 1 1 0 0 1 1 0 0 1 1 1 0 1 0 0 0 0 0 1 0 1 0 3 1 0 0 0 1 0 0 1 0 0 0 1 0 1 2 1 0 0 2 2 1 2 0 0 2 0 2 1 0 1 0 1 0 1 0 1 3 4 0 1 0 1 1 1 1 0 2 1 0 2 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 1 1 1 1 2 0 0 0 0 0 2 0 0 0 0 0 0 2 0 0 1 0 0 2 0 2 2 0 0 0 1 0 4 0 1 2 0 1 1 0 2 1 1 1 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 1 2 0 0 0 1 0 1 2 1 1 0 0 0 0 1 0 1 1 0 0 1 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 1 2 1 2 0 0 0 1 0 0 2 2 2 1 1 3 2 1 0 1 0 1 0 0 3 0 1 0 0 0 1 1 0 0 1 0 0 1 0 0 1 2 0 0 0 0 0 2 1 0 0 1 1 0 2 0 3 0 0 0 0 0 2 0 0 3 0 1 0 0 0 1 0 0 0 0 0 1 1 0 2 2 0 0 1 0 1 1 2 0 0 0 2 2 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 2 1 0 0 0 1 1 0 1 0 0 2 1 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 1 1 1 0 1 0 0 1 0 2 2 0 0 1 0 0 0 1 1 0 0 0 1 0 3 0 0 0 0 1 1 0 2 0 1 0 0 1 0 0 0 1 4 1 0 1 1 0 2 1 0 0 0 1 0 1 0 0 0 1 1 0 0 0 1 0 1 0 1 0 2 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 2 0 1 0 0 2 1 2 0 1 1 1 2 0 2 0 0 1 0 0 1 0 0 0 0 0 0 0 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 2 0 0 1 0 3 0 1 0 0 1 0 0 1 1 1 0 2 0 2 0 1 1 1 1 3 0 0 1 0 0 1 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 2 1 0 1 0 1 1 0 0 1 0 0 1 2 0 0 0 0 1 0 3 1 1 0 1 1 1 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 1 1 0 1 0 1 0 0 0 0 1 0 3 0 0 0 0 0 2 1 1 2 0 1 2 0 0 0 0 0 0 1 0 2 1 0 0 0 0 1 0 0 0 1 0 0 1 0 2 0 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 1 1 1 1 3 0 0 0 0 1 0 0 1 0 0 2 0 1 0 1 0 0 1 1 1 0 1 0 0 0 0 0 0 1 1 1 2 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 2 0 0 1 1 0 1 0 1 1 0 1 1 0 0 0 0 1 1 1 2 0 0 2 1 0 0 0 1 3 0 0 1 1 1 2 2 0 1 1 0 1 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 2 0 1 0 0 0 2 0 0 0 0 0 3 0 0 2 2 1 1 2 1 1 0 1 1 1 1 0 2 1 1 1 1 1 0 1 0 0 1 1 1 0 0 2 0 0 2 2 0 1 1 1 0 0 0 1 0 0 0 1 2 0 0 1 1 0 0 0 0 0 2 1 0 0 0 1 0 1 1 1 1 0 2 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 1 0 0 1 0 0 0 1 0 0 0 2 0 1 0 1 2 0 0 1 0 1 0 1 1 1 1 0 0 0 1 1 0 0 0 0 1 1 0 0 1 0 2 0 0 0 1 1 0 1 1 1 0 1 1 0 1 1 2 0 1 1 1 0 0 1 1 0 0 3 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 2 1 0 0 0 2 2 2 0 0 0 1 2 1 2 0 0 0 0 2 1 0 1 1 0 1 1 0 0 0 1 0 1 0 1 1 2 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 0 1 0 0 2 0 0 1 2 1 3 0 0 0 0 1 0 1 0 2 3 0 1 0 0 0 0 1 0 0 0 2 0 1 0 2 0 2 0 2 0 0 2 1 0 0 0 0 0 0 0 0 0 1 2 1 0 1 1 0 0 0 0 1 0 0 0 0 2 0 1 0 1 2 0 0 0 2 0 1 0 0 0 0 0 1 2 0 0 1 2 1 1 0 0 2 2 1 1 0 1 0 3 1 0 1 3 3 2 0 1 0 1 0 2 0 1 0 3 0 0 0 1 0 0 0 1 1 0 0 1 1 1 0 0 1 1 0 0 0 1 0 1 1 0 0 1 0 0 0 0 2 0 0 2 0 1 2 1 0 2 1 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 2 1 0 0 1 1 0 1 2 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 1 2 1 1 0 2 0 0 1 0 0 3 0 0 1 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 1 0 1 0 3 1 0 1 0 0 1 0 0 1 1 1 1 0 0 0 1 1 1 0 3 0 0 0 0 2 0 0 0 0 1 1 0 0 2 1 0 3 2 2 0 2 0 0 2 1 3 0 0 0 1 1 0 0 0 2 0 1 0 0 0 0 0 0 1 1 0 0 1 0 2 1 1 0 1 1 0 0 0 1 0 1 0 0 1 1 0 1 0 0 0 0 0 1 1 0 1 0 1 1 0 0 0 0 2 2 1 3 0 1 1 0 1 1 1 0 0 1 1 0 0 0 3 0 0 0 1 0 2 0 0 0 0 0 0 1 1 0 0 1 0 1 0 1 0 0 0 0 0 1 1 1 0 1 3 0 1 0 0 1 1 2 0 0 0 0 0 1 1 1 1 0 0 0 1 1 1 1 1 1 0 0 0 0 2 2 0 1 0 0 2 0 0 0 1 1 1 0 1 1 0 0 1 0 2 3 1 0 0 0 1 0 0 0 0 1 0 1 2 0 2 0 2 0 0 1 0 2 0 0 0 0 0 1 0 1 1 2 1 0 1 1 0 0 3 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1 1 0 0 1 2 1 0 0 2 0 0 1 0 0 1 0 0 0 1 1 0 2 1 2 1 0 0 0 1 1 0 0 0 0 1 0 3 0 0 1 0 1 0 0 0 0 1 1 2 1 1 0 1 1 1 2 0 1 1 1 0 0 0 0 0 0 2 0 2 0 1 0 1 1 0 1 2 0 1 2 0 2 0 0 0 1 0 1 0 0 1 0 0 1 1 1 0 0 1 0 1 0 0 0 0 2 1 1 0 0 0 0 1 0 0 1 1 1 0 0 0 0 1 1 1 1 1 1 0 2 0 0 1 0 0 2 0 0 2 0 1 1 0 0 2 0 0 0 1 1 1 0 1 0 1 0 1 0 1 0 1 1 0 0 0 1 0 3 0 1 0 1 0 1 1 1 0 0 0 0 2 1 0 0 0 1 3 1 0 1 2 1 0 0 0 0 0 0 0 3 0 0 1 0 1 0 0 1 0 0 0 0 0 3 0 0 0 2 1 0 0 0 0 1 0 1 0 2 0 0 1 2 1 0 0 0 1 2 0 1 1 0 0 1 0 1 0 0 1 1 0 1 1 0 0 0 1 2 0 0 2 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 2 1 1 0 0 1 1 0 1 0 0 0 2 0 1 1 0 0 1 1 0 1 0 2 0 0 0 1 1 0 0 0 0 1 2 1 0 0 0 0 0 0 1 1 1 0 2 0 1 0 1 0 0 1 2 1 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 3 1 0 0 1 0 0 1 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 2 1 0 0 1 1 0 1 1 0 0 0 0 0 1 1 0 1 0 1 0 1 0 1 0 1 1 0 0 1 0 2 2 1 0 1 0 1 0 0 0 0 1 0 1 1 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 1 0 1 2 0 2 0 1 0 0 0 0 1 0 1 2 0 0 0 0 0 2 2 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 1 0 1 1 2 1 1 0 0 1 2 0 0 0 1 1 0 0 0 0 2 1 0 1 1 1 0 1 0 1 0 1 1 1 1 1 0 1 2 0 0 0 0 0 2 1 1 1 0 2 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 2 0 2 0 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 0 1 1 2 0 0 0 0 0 1 0 0 1 2 2 0 0 0 0 2 0 2 1 0 1 0 2 1 1 1 0 0 0 1 2 1 0 1 0 0 0 0 1 2 1 0 1 1 1 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 2 0 2 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 2 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 1 2 2 0 1 1 0 0 0 0 1 0 1 1 0 2 0 1 0 1 0 1 0 0 2 0 2 1 1 0 2 1 0 1 1 1 0 1 1 0 2 0 2 1 0 1 1 1 1 2 1 1 0 1 1 0 1 0 0 0 0 0 0 2 1 1 1 1 0 1 0 0 1 0 0 0 0 2 1 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 1 1 1 1 1 0 0 2 0 1 0 1 1 0 0 1 0 0 1 1 1 1 0 0 0 0 1 2 0 1 0 2 1 0 0 0 2 1 3 1 1 0 1 2 1 0 1 0 0 0 0 1 0 2 0 1 2 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 3 0 0 0 0 0 0 3 0 0 0 1 2 0 2 0 0 0 0 1 1 0 0 2 1 1 1 0 2 1 0 0 0 1 1 2 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 1 0 1 0 3 0 0 0 0 0 3 1 0 0 0 0 0 0 1 1 2 0 0 1 0 0 2 0 0 1 1 0 1 0 1 1 0 0 2 0 0 1 1 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 4 0 0 2 1 1 1 1 1 1 1 0 0 1 0 0 0 0 0 0 0 0 1 1 2 1 0 0 0 0 0 1 0 0 0 1 2 1 2 1 0 1 2 0 1 0 0 1 0 0 2 1 0 1 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 0 1 1 0 1 1 0 1 0 1 1 2 1 2 0 1 0 1 1 1 0 1 1 0 1 0 0 0 1 0 1 1 1 1 1 0 1 0 2 0 0 0 0 1 1 1 0 1 0 1 1 0 0 1 1 1 1 0 2 0 3 0 0 0 0 0 1 0 2 0 1 0 0 2 0 2 1 1 0 1 1 2 0 0 0 1 0 1 1 1 1 1 0 0 0 0 3 2 0 2 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 2 0 1 0 1 1 3 2 1 0 0 1 1 0 1 1 0 0 2 1 1 0 1 1 1 1 2 1 1 0 2 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 2 0 1 0 0 0 2 1 0 0 2 0 1 1 0 0 0 3 0 2 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1 0 0 1 2 0 1 0 1 0 0 0 1 1 0 0 0 1 0 1 1 0 0 2 1 1 1 1 3 0 0 1 2 0 0 1 0 1 0 0 0 3 0 0 1 0 1 0 2 1 0 0 0 1 0 1 0 0 1 1 0 0 2 1 0 1 0 0 0 0 1 1 0 0 1 0 1 0 0 1 1 0 0 1 1 1 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 1 1 0 1 3 0 0 1 0 1 0 0 0 1 0 1 1 0 2 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 1 3 1 1 0 0 2 1 0 0 1 0 0 2 0 0 1 0 1 0 1 0 0 1 0 1 2 0 1 0 0 3 1 1 0 0 0 0 0 1 2 1 1 1 0 0 2 0 0 1 1 2 3 1 0 0 0 0 1 0 0 0 0 0 1 0 1 2 0 1 0 0 1 0 0 3 0 1 0 0 1 0 0 0 1 0 0 1 1 1 0 0 0 0 1 1 0 0 3 0 1 0 1 0 0 2 1 0 0 0 1 0 1 1 1 0 0 1 0 2 0 1 0 1 0 0 1 3 0 0 1 2 1 0 2 1 1 2 1 0 0 0 1 0 0 0 1 1 0 0 0 0 1 2 1 1 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 1 0 0 0 0 3 0 1 0 2 0 0 1 1 1 1 3 1 0 0 0 0 0 0 1 1 0 2 1 0 1 0 0 1 1 2 1 2 2 1 1 1 1 0 2 1 1 0 0 1 0 0 0 0 1 1 0 0 0 1 1 0 0 1 1 1 1 0 1 0 2 0 1 1 1 1 2 1 0 1 1 0 0 2 1 1 1 0 0 0 1 0 1 0 0 2 0 0 0 1 0 1 1 1 1 4 0 1 0 1 1 0 2 1 0 2 1 1 1 0 2 0 0 1 0 3 2 0 0 1 1 1 1 0 2 0 1 2 1 1 0 1 0 1 1 0 0 0 1 1 0 1 2 0 0 0 3 0 1 0 0 1 0 0 0 1 1 2 0 0 1 0 0 0 1 0 1 0 0 2 0 1 1 1 2 1 0 0 1 0 0 3 1 0 1 0 1 0 0 0 1 0 0 2 0 0 0 2 1 2 0 2 2 0 1 1 1 1 2 0 1 2 0 0 0 1 2 0 0 0 2 0 0 0 0 0 3 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 2 1 0 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 0 0 0 1 0 1 0 1 2 1 0 0 0 0 1 0 1 1 1 0 1 3 0 2 0 0 2 1 1 1 0 0 1 1 0 1 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 2 1 0 0 0 0 1 2 0 1 1 0 0 0 0 0 2 0 1 2 0 1 0 0 0 1 1 0 1 0 2 0 1 0 0 0 2 0 0 1 1 0 1 3 0 1 0 3 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 1 1 0 1 1 0 2 1 0 0 0 1 0 0 1 0 0 0 1 0 0 3 0 2 1 0 0 1 1 0 1 1 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 2 0 2 0 1 1 1 0 1 2 1 1 0 1 0 0 0 1 0 0 0 0 2 2 1 1 0 2 1 2 0 1 2 0 0 0 2 0 0 1 0 0 1 2 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 1 1 2 0 1 0 0 1 0 0 0 0 0 0 0 2 0 1 0 1 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 0 0 1 2 0 2 1 0 1 1 0 2 0 0 0 0 3 0 0 2 1 3 1 0 1 1 1 0 0 1 0 0 1 0 0 0 2 1 1 0 1 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 2 0 0 2 1 0 0 1 1 2 1 1 0 1 0 0 0 1 2 1 2 2 0 0 0 0 1 0 0 0 0 0 1 2 0 0 2 1 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 1 0 2 0 0 2 0 0 0 1 0 2 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 2 0 0 0 1 0 0 1 0 1 0 0 1 1 1 0 3 0 1 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 2 1 1 5 0 0 0 0 0 0 1 0 3 0 0 0 0 0 0 1 1 1 0 1 0 1 0 0 0 0 1 0 0 2 1 0 1 1 1 0 1 0 1 0 1 0 0 0 2 0 2 0 0 0 0 2 0 0 0 0 0 2 0 1 0 0 0 1 2 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 1 1 0 1 0 2 1 0 0 0 2 1 0 0 0 0 1 2 0 0 1 1 2 0 0 1 0 0 1 1 0 0 1 0 0 2 0 1 0 0 0 0 0 1 0 0 1 3 0 0 0 1 0 1 0 1 1 1 0 0 2 1 2 0 1 1 0 2 1 1 0 2 1 1 0 0 2 0 0 2 0 1 0 1 1 0 1 0 0 0 0 1 1 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 1 0 1 0 1 0 2 1 0 0 0 3 0 2 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 1 0 1 0 0 0 1 2 0 0 0 0 0 0 1 0 2 1 0 1 1 0 0 0 2 1 0 0 0 0 0 1 1 1 0 1 1 0 1 2 0 0 2 0 2 1 1 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 1 0 0 1 0 3 2 0 2 0 2 1 0 0 1 2 2 2 1 0 1 0 0 2 1 0 1 1 2 1 0 3 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 2 1 0 0 0 1 2 0 2 0 2 1 0 1 1 0 1 1 0 1 0 0 0 0 0 3 1 0 0 1 0 2 2 2 2 1 1 0 0 0 1 0 0 1 0 0 2 1 1 2 1 0 0 0 1 0 0 0 0 1 3 1 0 1 0 0 1 1 2 0 0 1 1 0 0 1 1 0 0 0 2 1 0 1 1 0 0 1 0 0 0 3 1 0 1 0 0 1 0 0 3 0 2 0 1 1 0 0 0 1 1 1 1 1 0 0 1 0 0 0 2 0 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 2 0 1 0 1 0 1 1 0 1 0 1 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 1 3 1 2 1 0 1 1 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 2 0 1 1 0 1 0 2 0 0 1 1 4 0 0 0 0 0 0 1 1 1 1 1 1 1 1 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 2 0 1 0 1 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 1 0 1 0 2 0 0 1 0 1 0 0 0 0 2 1 1 0 0 3 0 0 0 0 1 1 1 1 2 1 1 1 0 1 1 1 1 1 1 1 0 0 0 1 1 0 0 0 1 0 0 0 2 2 1 0 1 0 0 2 2 1 0 2 2 0 3 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 3 1 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 2 1 0 0 1 1 0 0 1 1 2 0 0 2 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 1 1 0 0 1 0 1 0 0 1 3 0 1 2 0 0 2 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 1 2 0 0 0 1 0 0 0 1 0 0 2 2 0 0 0 1 0 2 1 0 1 0 0 0 1 1 1 0 1 1 0 0 0 0 0 0 0 2 2 0 1 1 3 1 0 0 1 0 0 1 0 0 1 1 1 0 0 1 0 0 2 0 0 0 0 1 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 1 2 0 0 2 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 1 0 0 0 1 0 0 1 3 2 0 1 2 0 1 0 0 0 1 0 1 0 0 2 1 0 0 0 0 1 1 0 1 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 2 0 1 0 0 1 0 1 0 0 1 0 3 1 1 1 0 0 0 1 2 0 1 0 1 3 0 0 0 2 0 0 1 0 1 0 0 2 1 0 0 0 2 0 0 0 0 1 0 0 2 1 0 0 0 1 1 0 0 0 0 5 1 0 0 1 0 0 0 1 0 0 0 1 1 1 0 1 0 0 1 2 0 0 1 3 0 0 1 0 1 0 0 0 1 0 3 1 0 1 1 0 0 1 0 1 1 0 1 1 1 0 0 0 1 0 1 0 0 1 0 3 0 1 1 1 0 0 0 0 0 0 1 0 1 0 1 2 2 1 1 0 1 0 1 1 0 0 1 0 0 2 0 2 1 0 0 0 0 2 0 0 0 0 0 2 1 2 0 1 2 2 1 0 0 0 0 0 0 0 0 0 1 0 2 1 1 0 1 0 0 0 0 0 0 0 2 0 2 0 3 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 2 1 0 1 0 0 1 0 1 1 0 0 0 1 1 3 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 1 1 1 0 1 1 1 1 0 1 0 1 1 1 1 1 1 0 0 2 0 4 1 2 1 2 1 1 1 1 0 2 0 0 2 0 0 0 2 0 0 0 0 2 0 1 0 1 0 0 1 0 1 1 1 0 0 1 1 0 0 0 3 0 0 1 0 1 0 1 0 0 1 0 0 0 1 2 1 0 0 0 0 1 2 0 1 3 0 0 1 0 2 0 1 0 0 1 0 0 1 0 1 0 1 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 0 1 1 1 0 0 1 1 0 1 1 0 0 0 1 2 1 0 0 0 0 2 0 0 2 2 2 0 0 0 0 0 1 0 1 0 1 0 1 1 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 1 0 2 1 0 1 1 1 0 2 0 1 0 0 0 0 0 0 0 0 2 1 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 1 1 0 1 0 1 0 0 0 0 0 0 1 1 0 1 2 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 2 1 0 0 0 1 1 0 1 0 1 2 0 2 3 1 1 1 2 1 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 1 1 2 1 0 1 0 0 1 1 0 0 1 1 0 1 0 1 0 1 1 0 2 0 0 1 0 0 0 0 0 0 0 2 1 0 0 1 0 1 2 0 0 0 0 0 2 1 2 0 2 0 0 0 0 1 0 0 0 0 2 0 0 0 0 1 1 0 0 3 3 0 0 1 1 1 1 0 1 1 0 1 1 1 0 0 1 0 1 0 0 0 0 1 0 0 2 2 1 0 0 0 0 1 1 0 0 1 0 1 2 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 2 1 0 0 0 1 1 1 0 0 1 1 0 0 0 0 0 2 0 0 0 1 1 1 0 0 0 0 0 0 0 3 1 0 0 0 1 0 2 0 0 0 0 0 2 0 0 0 1 0 0 1 0 1 1 1 0 1 1 1 1 0 0 2 0 0 1 0 0 0 0 0 0 0 1 1 0 1 1 0 0 2 0 0 0 1 1 0 1 0 0 0 0 2 3 0 1 1 0 0 1 1 0 0 0 0 0 0 0 1 1 1 0 2 0 0 0 0 0 2 0 0 0 0 1 2 2 0 2 0 0 2 1 0 1 0 1 1 1 1 1 1 0 1 0 0 0 1 0 1 1 0 3 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 2 1 0 0 1 1 0 0 0 0 0 2 2 0 1 1 0 1 0 0 1 0 0 2 0 0 0 2 0 0 1 0 1 0 1 0 1 0 0 0 3 1 0 1 1 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 0 1 3 2 1 1 0 1 0 2 0 0 0 0 1 0 1 0 0 1 2 0 0 0 1 1 1 0 0 0 1 1 0 2 0 0 2 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 3 1 2 0 1 0 0 1 0 1 1 0 1 0 2 1 0 0 0 0 0 0 1 0 1 0 0 1 1 0 1 2 1 1 1 0 0 1 0 0 0 0 3 0 0 1 0 0 0 0 0 1 0 0 1 1 2 0 0 1 0 2 2 1 0 0 0 1 0 1 2 1 2 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 2 0 0 0 0 1 2 0 1 1 3 0 0 0 0 1 0 2 2 1 1 1 0 0 0 0 2 1 1 1 1 1 2 0 1 1 0 0 0 1 1 0 0 0 1 1 0 1 0 0 1 1 0 0 0 0</t>
+    <t>N(16.4985, 7.53876632812027)</t>
+  </si>
+  <si>
+    <t>17 18 13 31 17 14 16 17 14 17 16 17 13 20 10 17 11 10 10 24 17 22 28 9 19 16 19 19 28 22 20 17 31 10 17 14 17 19 14 15 10 21 10 14 26 24 23 10 3 17 13 12 10 8 14 19 13 17 15 20 11 27 17 23 24 6 6 20 13 13 19 7 21 17 10 30 23 10 16 14 10 17 16 18 10 10 23 16 3 17 24 28 28 17 21 21 6 27 16 24 16 28 10 13 14 10 24 3 20 13 10 30 13 22 7 10 7 21 12 17 13 28 10 3 24 16 6 17 14 7 27 19 30 19 23 31 20 10 17 10 8 6 35 10 10 7 16 20 17 16 17 23 9 10 13 13 40 15 23 33 9 42 10 22 13 20 14 14 6 16 28 7 13 16 13 16 24 24 26 13 14 16 12 19 24 12 10 23 3 17 17 28 21 17 13 6 20 26 13 10 10 13 10 23 13 13 21 10 13 10 16 20 10 23 30 21 31 11 3 25 13 27 3 34 20 10 24 13 26 23 6 18 31 24 24 19 30 13 14 20 3 31 27 22 17 34 17 6 30 13 16 21 3 20 13 30 13 17 20 9 24 17 28 10 13 10 3 3 20 17 12 23 24 21 22 20 13 3 13 24 23 21 20 8 31 10 13 17 6 20 10 10 17 3 31 6 6 16 30 21 6 10 21 22 30 30 21 23 27 26 3 21 23 20 7 3 10 34 7 13 13 13 22 13 20 15 14 17 17 23 23 33 13 16 6 18 26 27 21 18 14 17 16 14 24 26 20 15 19 16 6 13 24 14 24 6 3 17 17 24 15 9 10 27 21 17 10 20 17 14 17 17 6 9 13 15 13 10 13 19 13 23 34 24 17 9 24 20 26 6 13 17 10 26 7 23 40 13 17 9 33 20 9 24 17 9 14 17 24 26 21 33 6 16 7 10 19 24 13 22 10 30 17 20 24 24 7 14 16 3 19 13 20 10 20 20 35 23 17 13 21 23 16 14 6 20 6 48 18 11 21 9 10 10 16 17 17 13 28 13 14 21 10 13 17 10 24 16 14 9 25 13 10 6 24 7 9 10 27 7 10 17 20 9 21 14 7 13 24 3 13 35 10 14 13 12 31 6 3 13 24 12 13 22 10 28 16 9 23 17 7 16 24 14 22 16 14 24 17 12 24 0 16 19 10 6 6 13 8 9 14 20 25 24 9 22 9 16 16 9 10 26 10 19 20 24 10 10 13 6 13 6 6 20 13 17 17 7 9 22 17 7 17 14 34 14 31 10 17 24 11 17 17 17 14 3 20 13 17 13 17 13 21 22 20 6 24 21 10 27 17 3 13 6 17 9 10 10 9 10 24 21 18 13 6 7 20 23 0 8 31 10 6 14 16 28 34 13 17 6 10 7 3 20 13 9 11 34 19 22 14 11 24 27 13 23 13 13 10 0 20 20 16 21 33 20 23 10 19 14 17 20 20 13 10 0 0 20 34 14 16 21 28 3 16 23 20 13 23 17 27 31 14 20 28 6 3 6 17 20 26 38 24 17 24 16 14 20 27 21 14 13 10 16 17 22 12 21 17 13 13 17 27 14 9 24 17 0 13 20 27 23 31 16 6 25 16 19 14 10 28 20 0 24 19 14 17 10 24 7 27 12 10 31 28 9 10 13 7 29 14 20 10 30 12 38 20 10 31 34 17 27 6 14 27 12 7 22 16 19 27 24 13 14 9 30 13 12 10 13 17 10 28 24 21 3 6 24 4 17 10 6 13 16 3 10 27 6 12 17 16 13 21 10 12 24 16 13 9 5 12 18 7 13 3 3 14 31 3 30 27 24 10 17 17 38 14 26 6 23 14 24 9 25 15 45 10 24 14 29 20 20 27 3 17 10 26 21 14 19 24 26 15 16 24 17 14 7 10 3 24 10 10 13 23 18 19 13 20 41 10 31 19 20 27 21 10 13 21 35 7 13 14 14 31 35 23 9 19 17 19 16 9 20 14 17 9 16 28 12 16 27 20 19 9 16 0 17 17 23 6 10 7 17 26 34 10 17 16 27 24 30 6 17 20 21 10 24 20 13 23 12 14 9 14 20 15 30 10 13 16 26 14 9 7 27 18 14 27 10 17 11 13 24 24 7 34 20 10 14 14 13 10 10 10 24 7 24 24 12 20 18 16 15 10 24 24 23 23 20 22 26 28 24 24 18 6 14 6 15 19 22 20 3 20 12 24 9 14 28 31 17 20 14 15 30 23 7 28 10 12 13 23 3 13 10 13 21 16 20 19 27 24 16 20 13 19 6 18 19 17 6 27 11 35 34 14 24 17 20 7 23 13 17 27 16 10 16 22 23 20 23 27 9 13 14 14 19 6 24 7 31 26 20 24 17 8 7 37 22 3 17 23 11 7 31 14 7 16 10 11 16 6 6 14 16 8 23 15 16 24 23 20 23 14 15 10 10 24 13 20 8 11 21 10 17 6 21 13 17 21 10 16 13 20 28 23 13 19 10 24 20 14 28 14 13 20 19 23 16 22 20 26 3 12 31 26 19 3 21 17 20 16 13 22 24 3 19 27 17 3 30 16 3 31 14 23 23 21 14 3 23 3 13 17 19 23 17 21 24 27 17 16 21 13 30 10 9 12 14 10 10 20 12 20 21 24 13 3 13 7 3 20 13 14 9 17 16 26 14 28 18 30 37 17 19 18 6 17 9 6 10 21 20 37 13 13 10 16 10 13 10 9 3 16 19 10 14 21 16 17 31 23 27 6 26 24 6 13 12 10 20 13 13 17 20 3 37 30 23 13 20 10 16 22 12 14 19 13 23 9 16 13 17 10 16 10 13 2 16 19 27 28 17 17 18 12 12 10 13 20 19 10 17 23 7 6 16 9 24 24 10 13 6 20 18 13 12 19 16 6 31 7 13 17 17 17 17 27 27 14 16 20 3 18 20 20 19 21 18 16 16 6 19 17 20 6 16 14 16 10 14 16 10 6 6 21 9 16 23 20 9 16 23 13 19 14 9 24 6 12 31 6 26 18 10 28 20 10 17 28 20 30 27 13 21 10 27 14 23 21 14 16 16 20 19 17 13 17 37 23 6 13 13 10 23 20 12 16 13 10 13 17 13 20 13 7 12 15 14 14 10 30 16 29 20 24 10 10 10 16 9 13 21 10 20 3 13 13 19 24 17 6 0 19 38 14 17 21 17 7 17 6 17 16 13 20 13 14 20 6 6 13 13 3 20 13 28 20 21 8 27 3 17 7 7 20 10 14 20 20 6 10 17 31 10 30 16 16 7 19 28 10 22 10 13 27 24 6 9 12 14 20 20 13 36 13 13 13 27 13 28 3 24 20 10 16 20 16 30 14 28 6 34 34 37 28 26 10 23 18 20 28 14 24 31 20 10 20 13 9 15 17 19 20 17 21 7 17 16 11 26 33 14 0 10 18 7 16 4 24 13 20 7 21 19 6 17 10 13 6 10 0 13 10 22 17 20 27 16 6 14 13 17 24 6 37 27 0 0 13 10 3 14 16 27 10 0 27 10 0 22 7 20 14 14 31 27 26 6 10 16 9 21 21 34 10 21 34 10 24 38 23 24 12 10 10 27 20 31 27 24 10 14 20 17 7 13 10 28 20 12 27 7 3 14 21 7 13 16 9 24 17 24 17 23 22 2 24 14 18 17 7 7 21 23 17 14 26 17 20 30 21 25 7 17 26 37 21 27 13 21 14 17 9 9 17 17 16 16 21 20 16 23 21 3 7 9 20 16 7 31 13 7 14 12 20 9 34 15 16 24 29 13 35 13 8 17 17 20 35 9 31 16 24 21 25 20 28 10 19 10 19 21 20 20 16 17 13 3 10 26 16 14 17 20 27 16 17 14 10 7 8 16 17 16 9 16 16 27 28 16 20 13 24 27 9 16 7 28 20 10 7 20 13 7 13 13 15 6 34 10 14 14 10 28 17 13 23 22 6 20 23 20 34 23 16 24 19 14 17 21 20 3 13 20 24 14 11 22 16 31 16 14 24 22 16 23 31 10 9 0 16 13 21 10 24 3 15 10 20 18 17 24 27 27 21 17 10 3 17 10 23 17 7 21 10 14 27 21 20 31 21 9 20 17 0 26 10 27 12 23 24 17 26 16 10 20 13 26 13 20 13 13 13 14 13 14 13 14 24 28 14 26 17 13 27 16 10 18 7 11 12 13 6 10 8 6 13 35 24 23 23 14 12 24 14 10 17 16 10 16 9 20 10 51 16 41 10 7 24 24 8 16 13 27 21 17 7 14 6 12 13 10 7 15 17 10 24 16 7 21 24 16 23 3 13 34 13 21 13 22 23 6 20 14 34 13 21 17 10 25 10 7 24 21 7 21 27 23 18 20 7 27 19 19 10 17 31 16 13 20 17 9 13 20 15 20 3 14 24 21 3 21 9 17 9 9 9 19 31 23 17 21 17 13 21 23 16 6 21 17 24 5 24 15 13 7 3 24 20 23 34 14 23 13 16 35 21 9 14 14 10 9 14 17 22 13 38 16 9 10 26 17 7 16 9 23 13 9 12 13 24 12 3 11 30 21 24 16 27 6 16 31 17 17 13 38 21 15 16 9 3 21 27 31 7 10 23 27 10 19 0 3 10 7 13 23 0 0 12 17 20 10 7 20 35 14 23 22 30 21 13 9 6 17 27 13 18 20 6 24 17 0 21 24 21 9 7 16 20 36 17 13 24 12 14 9 20 18 17 16 3 20 6 22 16 22 27 17 21 17 12 14 17 10 13 3 19 13 24 16 16 10 30 14 6 17 17 14 23 13 26 10 27 24 3 10 21 12 13 21 34 20 22 28 9 7 24 24 38 17 34 20 22 13 7 10 13 16 24 7 20 17 15 6 10 10 13 16 17 6 24 10 27 38 6 10 13 12 23 24 6 27 9 19 26 10 13 13 10 9 20 0 10 17 13 16 15 17 14 31 23 12 13 37 29 17 16 20 3 20 13 24 23 24 3 21 0 14 17 24 3 21 16 27 17 21 22 24 20 19 11 13 13 24 30 13 7 16 23 13 13 24 7 13 10 10 13 16 14 31 14 10 16 14 26 20 10 13 16 18 28 17 12 19 21 26 17 14 0 16 20 10 10 7 19 13 17 13 10 17 16 13 23 30 26 3 11 17 14 10 26 10 20 13 27 13 18 20 16 26 18 24 16 13 10 21 16 13 17 14 7 20 17 7 20 19 17 24 20 19 27 24 28 16 19 16 23 17 16 24 3 24 16 15 24 17 6 7 3 16 27 12 10 24 16 22 27 12 10 7 34 26 15 7 21 16 20 17 7 28 10 32 17 3 21 23 10 33 6 14 9 16 9 14 17 13 10 19 7 20 10 20 21 17 14 7 16 26 6 10 13 24 10 9 23 10 17 23 14 3 14 20 23 17 13 23 14 6 6 3 25 12 14 13 7 13 23 7 19 10 12 10 7 10 31 22 21 3 7 21 27 22 22 31 12 14 21 10 10 13 20 7 35 16 20 17 20 13 20 25 10 35 27 21 3 8 10 28 13 21 20 27 17 21 7 20 26 13 17 14 20 21 35 21 21 24 26 7 21 13 12 6 10 16 21 23 16 20 17 10 21 15 17 17 17 20 22 4 17 7 15 7 21 13 20 17 13 11 6 23 33 17 17 17 3 13 23 20 9 21 19 30 13 20 16 10 30 14 20 3 16 10 21 30 10 13 20 19 10 20 14 22 17 24 15 17 32 13 3 21 16 9 6 17 27 21 14 16 6 14 21 17 20 14 17 10 9 23 17 13 25 10 13 9 14 14 17 21 41 13 14 16 6 16 17 26 21 9 17 20 21 19 20 12 19 10 7 20 13 17 23 31 17 14 23 31 20 17 9 30 31 33 16 17 31 14 17 0 16 10 7 17 20 17 7 3 13 16 6 33 26 7 10 14 7 20 9 19 14 17 20 9 20 19 0 17 31 15 3 13 14 21 20 12 16 14 7 17 14 10 10 13 20 23 37 24 21 19 13 20 21 28 17 3 16 27 26 13 21 6 15 13 24 6 17 10 10 20 24 6 23 20 13 24 14 13 24 16 28 10 20 13 7 16 22 14 0 20 20 17 6 17 21 17 10 6 3 13 0 24 12 3 16 17 0 20 6 13 19 13 27 24 3 18 17 23 21 17 13 14 9 3 9 13 17 13 28 17 20 10 27 12 10 41 10 28 9 21 10 14 18 22 14 24 23 27 16 9 13 30 17 21 10 13 13 19 19 21 23 14 3 21 6 24 14 31 10 31 23 10 17 14 19 27 9 13 20 8 24 13 15 28 29 16 3 10 0 10 17 18 13 13 14 19 19 10 13 3 20 7 26 17 20 3 27 24 17 12 28 6 14 10 20 17 30 10 25 13 17 24 7 26 27 18 9 7 24 18 13 17 8 6 7 16 6 12 29 16 13 14 22 24 3 17 24 19 17 17 17 7 27 27 3 17 13 10 13 14 13 23 21 13 14 17 6 27 17 15 20 24 9 10 21 17 31 20 18 27 20 10 16 17 14 13 12 23 11 28 24 10 13 10 16 6 28 20 13 3 16 14 7 10 13 17 23 18 10 17 21 6 7 34 17 7 10 7 13 19 26 20 27 13 21 14 17 16 21 7 22 25 16 16 13 23 23 20 21 29 24 10 24 10 13 3 24 20 24 13 17 13 13 27 9 13 24 16 27 33 21 17 31 16 17 24 14 14 10 6 3 19 14 28 10 7 9 28 32 24 19 31 14 17 14 6 7 14 14 0 13 17 21 23 17 10 20 23 19 23 6 13 24 3 6 7 27 18 9 9 9 10 17 16 23 24 19 20 16 13 14 0 20 13 24 13 0 17 20 21 3 27 7 3 16 20 13 13 0 31 22 9 26 16 19 20 27 6 17 12 16 20 20 15 3 16 38 14 31 27 26 19 10 6 16 17 26 13 3 16 20 10 9 16 6 13 17 17 19 21 7 6 13 24 8 34 16 16 13 12 6 31 13 13 6 16 15 3 6 20 17 17 10 14 9 10 23 3 27 28 27 24 33 23 6 16 30 16 19 34 9 10 24 28 28 13 6 13 16 17 12 25 23 22 26 27 22 20 16 10 7 17 20 3 28 31 30 14 10 3 20 21 12 20 17 9 31 11 6 17 10 13 13 13 20 16 20 9 32 27 9 22 10 17 9 22 13 7 17 12 9 3 26 21 10 20 10 9 13 20 6 3 21 15 9 17 16 20 13 16 19 12 27 14 17 18 16 16 10 21 11 14 24 30 17 22 14 15 7 34 27 31 10 7 20 14 26 7 12 28 6 23 16 9 13 34 31 10 13 20 26 27 17 14 19 17 3 3 22 10 19 13 21 13 29 27 13 29 14 23 7 20 21 21 34 10 19 21 17 24 9 9 20 20 14 9 3 20 23 13 13 13 23 13 13 14 17 16 17 7 13 24 9 20 33 20 23 14 15 13 16 28 20 18 14 27 9 19 9 13 16 28 17 17 7 0 34 34 13 10 3 20 16 14 10 10 21 17 16 24 10 14 20 17 3 24 22 16 22 21 16 18 17 21 30 17 6 6 27 17 16 7 16 6 14 24 17 21 9 20 9 11 17 18 37 13 16 3 24 31 6 9 11 3 17 20 27 27 13 14 21 13 27 10 17 9 17 7 6 23 29 14 6 25 21 7 6 20 24 17 10 17 10 25 14 0 12 20 13 19 38 30 9 27 6 14 18 23 22 20 16 16 30 6 19 8 24 21 23 23 9 14 19 20 9 10 24 7 31 24 13 17 7 13 13 13 17 17 34 27 16 6 26 13 27 3 14 13 34 14 14 14 17 14 9 14 21 22 17 21 14 17 8 20 16 14 31 8 17 10 16 10 12 13 10 24 14 9 0 23 17 0 21 15 12 19 19 16 10 10 27 33 17 3 14 20 15 15 31 3 20 11 6 17 21 17 9 10 10 40 36 0 21 27 0 20 3 9 30 15 18 17 17 19 0 13 21 7 17 10 16 9 10 14 17 13 15 20 18 12 28 16 10 10 9 22 20 10 13 17 9 17 19 13 18 27 20 28 20 3 27 17 21 27 20 7 16 19 19 15 37 20 13 10 10 6 10 11 20 13 28 10 12 23 16 30 24 3 17 31 20 10 22 0 15 6 23 14 20 3 17 12 17 7 20 9 13 17 20 9 20 12 3 13 13 23 9 21 31 10 17 17 13 9 3 3 22 10 20 22 13 14 6 13 38 14 13 10 0 17 34 3 21 20 28 11 14 24 6 7 19 13 28 10 20 20 28 24 16 23 23 6 15 12 3 9 9 10 7 7 38 17 17 16 23 10 24 10 17 10 20 19 21 13 24 3 7 17 16 14 23 10 24 13 13 24 20 14 0 21 17 7 22 16 15 12 27 14 31 20 19 11 30 19 19 21 9 6 17 13 3 24 14 13 3 0 24 19 20 13 17 19 14 34 24 24 10 10 16 21 24 20 10 6 16 14 6 10 24 10 3 10 9 31 15 6 10 0 14 23 18 23 18 17 6 9 20 16 24 21 23 17 20 17 17 17 14 10 20 18 24 7 13 19 21 3 28 19 30 17 16 16 16 0 20 3 22 6 3 31 19 27 6 12 20 13 14 10 22 12 17 10 18 30 24 30 20 12 27 23 3 3 19 7 14 27 10 13 12 14 24 14 11 10 29 23 24 27 10 27 16 14 34 16 8 13 22 10 28 24 20 6 20 24 14 27 14 10 17 18 10 16 3 9 9 3 0 10 9 20 20 13 24 26 23 20 14 26 20 18 7 3 21 23 18 24 17 17 17 10 21 16 13 16 13 16 12 14 21 19 20 11 27 6 21 9 8 13 26 12 13 7 23 3 6 31 27 24 27 12 21 6 13 7 10 13 25 13 13 17 17 24 17 13 23 14 20 22 6 9 17 16 20 7 23 18 20 24 14 10 6 7 9 9 22 20 17 24 35 23 20 14 18 20 23 38 12 13 17 23 27 17 24 17 9 24 13 10 7 21 20 31 15 20 19 6 17 3 14 3 20 15 10 14 19 13 20 13 13 14 20 10 16 16 6 3 0 10 9 24 20 23 14 10 22 26 15 23 13 17 16 10 3 21 20 16 17 12 20 15 24 13 19 16 14 33 29 27 17 13 3 24 10 19 21 14 15 10 13 3 20 3 3 21 24 16 10 13 16 13 6 23 17 34 18 14 17 27 20 27 13 10 24 10 0 27 6 7 10 23 23 34 17 12 18 26 17 13 23 34 24 20 14 12 14 18 23 10 3 17 9 6 10 9 7 7 23 20 13 14 13 17 10 8 31 14 13 17 21 12 34 24 10 27 28 11 20 18 10 13 13 31 7 18 20 16 33 3 15 6 24 10 20 13 7 24 28 6 16 9 17 30 20 20 16 21 19 17 16 0 17 19 10 14 10 23 20 6 19 10 13 13 24 19 6 17 14 19 13 23 22 21 23 26 23 9 17 27 0 12 8 9 27 23 19 12 17 10 17 21 7 27 14 7 17 3 10 20 17 18 6 16 5 17 10 20 14 28 24 3 19 12 10 17 24 13 16 23 14 24 20 25 13 16 21 9 17 28 16 17 10 13 13 10 19 17 17 15 10 20 18 7 24 20 3 18 26 34 27 20 19 23 13 12 17 6 26 44 10 15 16 3 20 27 14 6 6 22 27 20 0 25 14 16 12 9 26 31 7 24 24 3 19 23 15 9 25 6 17 19 26 13 13 23 0 16 10 24 10 16 28 17 13 3 12 23 20 20 34 20 21 21 22 3 3 13 20 24 10 13 13 13 17 13 20 20 12 20 6 24 24 23 9 20 27 13 31 13 21 6 10 27 31 7 17 36 10 14 20 27 13 10 14 13 14 13 10 14 10 24 20 17 13 23 23 17 9 10 15 16 13 9 17 19 10 23 10 17 17 16 9 24 3 16 17 20 14 17 15 16 17 27 20 20 20 10 13 10 23 6 14 17 10 17 23 17 10 15 13 16 20 3 22 20 13 6 0 12 13 14 0 13 27 10 20 3 9 20 17 6 17 13 12 10 10 12 12 12 16 16 34 13 23 19 6 17 34 14 19 24 13 16 17 31 0 13 21 6 16 16 17 18 13 17 12 10 13 31 11 0 7 17 13 10 13 20 7 10 19 13 9 10 26 12 14 20 24 20 14 14 20 24 27 23 14 14 15 12 7 20 13 17 21 13 3 15 7 42 3 3 34 7 24 13 7 12 10 14 16 23 23 27 46 24 24 20 10 3 8 14 22 23 21 7 7 20 16 14 19 20 16 23 28 14 20 27 28 16 17 17 17 7 6 10 10 17 7 28 28 13 16 13 24 24 13 28 21 14 19 13 26 20 13 34 7 17 14 23 21 6 6 6 7 17 9 23 29 14 3 25 10 24 3 14 20 18 20 15 21 10 26 27 20 16 22 22 21 19 28 16 14 3 27 16 13 3 31 25 16 9 10 0 16 13 24 30 27 24 3 21 23 25 17 16 16 17 13 24 19 13 14 21 6 13 22 24 7 3 3 19 6 24 24 16 13 12 34 3 25 19 16 16 6 6 21 28 9 25 16 13 16 22 21 7 17 20 18 16 23 19 29 9 7 13 7 0 6 24 16 9 13 0 20 10 13 6 10 16 16 18 0 14 13 22 20 17 17 16 10 20 16 10 24 6 16 9 23 17 6 15 13 17 19 22 10 20 20 9 17 24 30 3 27 12 28 24 20 10 7 3 20 27 13 14 12 0 19 20 34 24 10 3 24 7 12 14 3 26 6 17 17 24 48 16 10 3 10 38 13 14 24 20 10 9 28 20 23 24 10 7 15 24 17 20 20 24 20 17 30 27 27 19 21 10 13 21 0 19 13 10 7 24 12 20 17 23 17 13 14 6 17 20 3 16 10 27 19 16 7 15 13 17 28 6 15 27 23 17 20 6 21 17 14 6 19 17 6 6 19 3 20 11 19 24 34 24 10 14 7 12 17 16 21 10 35 28 10 6 27 16 23 21 22 30 26 15 6 10 9 23 27 10 13 13 31 37 27 27 20 16 21 18 10 16 16 13 23 20 24 3 21 28 6 7 20 18 9 10 20 19 38 10 13 26 30 24 17 20 20 23 17 27 10 6 3 14 16 17 14 20 7 14 12 27 16 16 23 13 30 27 10 24 13 35 20 17 0 19 13 20 17 23 13 12 10 23 20 16 17 17 0 22 23 10 24 20 13 24 6 16 7 10 20 17 20 24 26 18 19 24 26 13 3 13 14 7 22 10 0 10 23 10 23 7 6 20 6 3 24 24 23 27 10 28 14 23 10 14 13 10 18 17 31 31 14 24 17 17 17 21 3 10 10 21 19 9 6 11 9 27 7 26 25 22 31 13 12 22 23 17 21 31 13 27 13 10 17 23 11 17 10 31 17 7 17 15 20 20 3 23 14 13 22 24 10 14 0 6 24 6 6 13 9 7 26 10 23 16 17 4 21 17 13 30 15 14 17 24 26 17 13 16 24 12 31 18 6 48 10 0 13 7 38 21 14 19 14 21 20 24 22 10 20 27 13 6 10 10 13 10 14 21 13 9 6 21 19 16 20 24 16 7 12 20 21 20 16 24 9 19 21 6 3 24 26 20 10 21 12 14 24 19 6 23 14 14 20 12 24 40 19 31 16 17 14 9 13 24 16 27 3 24 23 16 18 31 20 26 14 13 23 10 17 17 19 17 20 10 21 22 20 27 21 17 30 20 24 17 22 9 20 7 22 3 14 21 20 27 16 20 19 9 7 15 21 27 10 12 17 7 14 7 17 24 19 12 15 13 27 17 13 23 24 12 20 13 17 35 13 19 23 9 20 20 13 13 22 9 10 8 10 21 23 14 9 26 6 17 22 29 6 24 13 13 12 17 20 10 9 10 12 8 24 12 10 23 6 14 14 17 19 21 19 2 13 16 22 26 21 14 23 31 20 20 19 19 6 24 20 19 15 24 23 21 29 17 13 12 31 14 21 17 13 16 26 27 27 14 20 21 13 23 14 7 21 21 17 20 20 10 0 16 13 20 27 10 24 13 10 17 13 13 13 13 17 17 9 20 21 21 3 10 13 17 13 13 17 6 19 29 24 7 14 17 10 16 20 23 17 10 28 5 14 6 20 13 6 28 24 16 19 27 25 18 22 13 10 13 7 14 17 16 10 11 13 6 17 0 10 14 3 6 13 13 17 31 22 19 15 17 14 24 20 13 10 16 16 10 23 9 17 13 27 16 17 13 13 17 0 6 23 6 21 9 25 12 25 10 17 14 24 21 6 7 28 19 19 3 30 15 24 17 17 27 17 19 20 15 20 13 13 24 9 17 7 6 3 31 10 21 14 13 31 6 3 25 10 10 14 7 9 10 17 3 7 14 17 21 3 6 17 10 21 16 14 33 17 18 10 20 16 23 21 18 17 17 20 13 7 10 14 10 20 17 7 14 13 3 34 17 17 27 24 6 15 21 8 17 16 20 12 23 14 18 17 28 10 13 3 11 20 38 27 14 20 16 34 9 17 19 3 21 0 3 17 24 16 38 34 11 22 22 10 14 19 6 24 13 23 16 10 17 45 7 28 13 16 13 13 32 9 7 24 6 7 6 13 14 13 14 20 17 12 16 7 23 24 24 10 7 28 17 16 13 33 20 9 23 13 7 27 13 31 20 6 16 23 9 10 17 6 17 17 17 10 20 20 16 16 20 23 11 3 22 20 21 17 17 15 7 6 17 10 9 9 33 26 22 14 24 10 10 18 20 6 13 13 6 41 14 10 21 27 20 16 13 17 9 21 7 23 13 23 24 21 20 27 17 17 14 18 13 30 23 25 24 14 17 16 16 14 12 23 21 13 13 24 10 7 15 14 9 23 17 23 20 19 30 19 16 10 14 31 17 6 3 14 22 17 10 22 3 3 23 17 13 14 7 20 17 21 25 13 20 15 20 19 24 25 16 20 21 24 6 21 20 38 17 14 10 24 0 35 13 16 9 38 10 21 10 20 19 17 14 13 17 17 31 14 21 13 9 17 6 16 27 20 6 28 17 19 10 28 16 26 10 23 6 19 30 27 28 6 6 3 13 9 11 10 3 21 3 10 7 26 17 21 14 21 13 26 12 6 16 17 23 15 6 24 13 19 7 37 13 20 9 19 17 12 7 8 17 16 13 22 26 21 16 10 24 13 23 30 20 21 17 10 23 16 15 20 10 14 24 21 24 15 7 14 34 11 16 17 7 7 16 10 9 16 16 7 9 13 19 19 7 21 24 6 13 27 3 23 16 21 10 10 3 23 23 20 12 20 13 21 7 7 28 24 13 24 24 13 10 17 14 18 19 6 34 23 21 31 6 7 20 13 24 16 10 17 6 15 6 13 17 13 6 18 7 17 3 23 26 34 20 19 10 13 20 24 14 10 3 7 16 21 15 17 14 13 19 22 17 16 27 19 24 17 17 20 16 7 10 23 13 14 13 0 13 10 16 14 3 12 7 23 11 3 16 17 16 27 13 3 13 17 17 9 9 19 3 17 6 11 12 24 3 10 7 20 12 22 6 23 23 16 9 13 18 30 10 17 16 36 17 16 7 35 16 21 17 31 10 13 7 16 18 7 30 23 12 14 10 10 18 14 0 20 6 19 21 34 12 30 6 22 14 33 6 14 14 26 20 21 17 14 13 13 23 27 10 31 10 13 9 18 10 23 20 30 25 24 29 14 24 20 24 23 34 26 24 9 14 16 6 16 0 18 29 24 16 3 20 14 13 7 23 6 10 16 24 21 19 31 21 19 19 17 0 6 13 31 20 10 9 15 13 24 14 28 17 5 17 31 20 17 7 20 21 27 16 28 22 20 16 13 6 17 27 19 13 20 10 14 20 0 13 27 26 10 20 18 24 13 23 6 20 20 19 20 19 24 16 17 10 17 6 20 17 7 16 27 9 7 13 17 13 24 21 14 12 34 21 17 21 21 9 17 10 19 10 28 6 19 9 21 23 6 19 13 20 23 13 24 10 20 13 7 24 12 15 7 16 3 31 0 25 10 23 14 17 31 34 17 7 6 16 19 13 20 3 16 7 31 16 15 14 15 17 13 21 13 36 0 24 3 10 13 23 17 7 10 16 21 19 13 10 17 17 21 17 6 21 13 10 9 21 3 8 23 14 12 30 18 7 31 30 21 3 10 3 20 27 24 10 17 17 9 22 14 27 10 13 30 23 13 17 13 0 6 10 9 3 17 24 13 3 3 6 14 13 10 18 13 14 23 17 28 14 17 24 17 14 14 24 13 10 17 17 0 16 13 17 17 10 3 9 16 20 9 20 31 34 10 13 23 10 13 21 13 9 23 14 6 7 41 17 17 23 23 16 16 14 26 21 3 27 12 27 6 31 13 19 12 3 24 20 28 9 13 21 24 17 10 25 13 25 3 3 17 17 7 19 20 24 10 16 23 0 24 14 16 20 13 23 6 6 20 13 13 20 19 21 20 6 12 7 20 13 19 24 28 28 24 30 17 6 10 3 10 10 14 3 19 15 9 9 21 23 23 3 24 24 13 20 14 26 3 41 19 9 31 21 20 13 20 20 24 0 23 28 26 16 20 0 10 14 15 20 20 21 27 24 20 7 20 20 10 17 7 14 14 12 17 6 3 27 14 16 17 22 13 30 16 9 10 16 14 10 24 12 14 19 13 3 16 12 13 20 10 15 3 29 8 23 24 24 13 9 16 21 17 13 3 8 24 27 14 30 23 21 23 20 13 17 10 17 16 20 13 21 20 17 32 16 7 19 3 6 12 22 20 12 23 19 24 24 3 27 16 14 11 10 24 6 7 14 22 6 21 19 34 20 17 35 22 26 3 13 17 16 3 17 11 13 24 14 17 3 22 16 19 6 38 20 13 13 24 16 16 10 21 12 24 13 18 10 31 23 14 10 3 33 26 13 17 37 14 17 0 14 0 20 10 22 14 16 27 13 0 12 10 22 16 24 15 20 12 27 16 19 13 8 27 13 20 20 0 20 14 38 21 26 20 10 18 18 9 13 18 20 22 23 31 9 9 17 30 15 16 17 10 6 27 16 21 24 27 17 16 15 31 20 23 31 13 12 30 6 13 13 28 13 6 13 19 13 22 21 0 20 13 28 17 19 10 10 16 28 20 27 6 3 22 9 19 13 17 31 20 17 31 27 10 24 6 9 24 14 18 6 10 17 16 23 21 16 13 17 3 17 10 10 31 22 27 22 3 23 28 27 9 14 14 12 20 9 7 24 13 0 7 16 24 10 13 10 13 6 22 10 20 25 13 13 24 17 17 14 7 3 16 14 20 18 14 12 18 23 38 22 13 9 25 19 17 7 22 9 17 6 16 7 31 13 9 26 6 11 14 16 17 30 23 30 27 13 21 13 27 26 10 20 26 21 10 18 31 21 18 9 10 16 4 14 16 18 27 17 9 30 30 25 6 10 27 9 17 10 20 12 14 14 7 14 13 13 14 3 16 16 20 17 13 10 21 16 17 9 22 7 16 26 9 19 13 6 20 17 7 20 18 22 16 20 13 20 10 9 13 10 6 18 12 17 21 3 20 13 14 31 0 13 25 24 10 19 28 0 30 17 26 18 17 23 13 30 13 10 11 9 14 14 15 14 27 31 8 22 24 28 16 20 21 10 24 19 17 26 23 20 32 20 17 24 19 30 28 17 19 27 13 17 13 14 21 16 41 17 7 21 12 16 16 21 20 6 30 14 10 16 9 20 14 21 21 16 12 20 23 17 20 0 19 10 19 24 15 14 13 3 13 28 3 20 28 19 17 20 27 24 10 20 40 22 10 6 26 14 21 14 18 12 27 9 14 27 25 35 17 12 13 7 29 10 20 6 11 13 9 27 13 20 27 16 16 7 19 15 17 27 24 11 26 6 17 20 22 20 11 16 6 14 7 9 6 17 11 7 22 24 3 10 7 24 17 23 13 24 19 16 19 23 15 12 38 10 13 10 12 17 20 22 19 17 17 13 0 19 27 16 10 19 10 14 27 20 6 17 10 21 16 23 16 12 7 21 19 7 23 26 12 14 20 34 15 14 23 9 9 16 0 15 14 10 15 10 23 24 0 31 10 6 23 10 10 22 10 13 22 20 18 17 13 20 14 6 20 11 30 30 31 3 20 20 14 14 27 20 7 3 23 13 17 21 20 24 3 27 19 3 13 6 23 17 6 26 13 10 7 13 9 17 9 10 6 14 17 17 3 17 9 9 18 17 24 17 16 17 17 20 12 16 20 20 31 17 17 19 10 13 23 9 3 13 13 10 20 21 13 17 22 0 21 23 9 16 9 3 24 20 7 7 7 28 30 13 17 11 18 7 19 20 28 24 21 24 15 14 9 21 31 14 13 7 13 31 20 13 31 14 27 16 24 20 17 10 27 10 10 14 20 13 21 26 7 15 10 17 14 7 10 27 17 14 6 16 24 16 10 14 14 13 20 20 30 19 21 35 10 24 14 20 24 23 16 6 24 14 33 22 13 7 6 27 15 13 23 3 14 21 23 3 21 17 14 8 20 3 16 7 10 20 23 20 10 13 23 16 9 23 3 17 24 24 21 17 23 13 27 27 23 12 24 31 13 17 7 26 3 10 9 16 13 13 16 20 20 26 13 27 13 17 27 17 21 21 20 3 10 18 17 6 7 17 24 21 27 16 10 20 16 23 24 8 19 18 13 26 9 8 35 17 8 20 10 20 3 21 21 12 17 6 23 10 3 17 7 24 20 18 11 13 20 10 0 7 27 23 10 7 6 16 29 23 23 3 9 13 15 9 10 18 14 15 0 20 11 24 23 20 13 16 26 31 10 10 13 9 14 18 14 16 28 3 14 31 31 16 13 23 14 15 13 17 3 14 10 10 18 16 20 16 22 31 13 17 16 16 21 10 10 7 19 33 14 24 27 14 12 17 14 23 15 0 33 24 0 17 14 14 22 21 14 16 29 23 9 27 9 14 0 17 14 19 13 13 16 21 21 9 23 15 17 21 17 26 7 6 16 9 3 18 0 7 27 21 24 15 23 16 28 10 16 20 18 8 19 14 7 21 27 15 32 18 13 10 10 3 25 20 9 13 19 22 10 21 17 3 21 23 13 24 14 30 16 20 21 20 16 5 15 10 17 20 14 28 28 23 24 17 23 20 23 13 10 21 26 6 12 20 10 18 12 10 11 19 10 28 14 20 20 21 18 11 20 3 28 8 17 16 13 3 10 24 9 3 26 16 17 0 13 19 16 14 12 38 17 17 18 27 3 13 6 10 19 7 13 28 22 22 26 34 14 13 17 17 17 13 32 20 17 27 19 17 34 3 21 23 6 17 13 13 17 10 13 25 6 16 14 23 34 31 23 6 23 16 23 16 38 16 9 21 12 10 26 20 9 23 31 23 13 6 10 23 14 20 17 13 6 10 26 17 6 21 17 11 23 28 7 17 14 31 13 14 15 24 16 23 17 12 7 6 0 31 17 20 10 6 13 27 15 24 10 10 10 24 24 17 31 13 24 23 10 23 34 13 0 22 13 22 19 13 7 33 17 10 20 16 17 14 22 17 13 24 30 9 20 29 10 17 13 6 27 16 3 24 24 17 13 24 20 7 14 10 3 3 24 13 14 13 6 13 13 16 3 13 16 6 13 16 10 12 14 9 13 13 23 23 16 20 17 13 20 6 10 3 19 13 6 26 20 20 31 24 17 20 15 10 10 16 24 9 20 10 16 7 13 0 31 7 17 16 16 23 12 16 16 3 16 6 24 20 13 12 16 10 5 20 30 25 20 10 12 17 16 13 3 21 23 23 13 10 16 13 23 3 17 22 7 14 19 20 20 17 20 17 16 20 16 15 15 7 14 20 28 16 22 19 17 22 20 19 14 13 20 9 13 6 33 19 20 13 13 31 13 17 13 15 13 24 10 22 20 20 21 8 13 7 17 6 28 6 22 14 16 13 16 27 17 19 15 21 14 42 20 17 10 21 24 21 10 24 13 17 21 7 21 24 23 10 20 3 19 13 10 23 7 6 24 21 34 23 15 0 3 10 10 17 17 20 21 27 17 14 27 7 12 10 20 16 10 0 25 13 13 17 10 29 27 14 16 13 19 3 10 28 14 30 30 26 31 16 11 20 8 10 14 10 14 6 10 31 24 17 14 29 20 30 14 23 17 14 27 6 9 13 24 19 10 17 31 13 26 6 13 13 16 6 7 26 15 16 20 19 20 21 23 27 24 16 10 24 3 7 7 7 17 24 11 13 24 13 7 23 16 24 25 11 7 24 40 14 12 14 17 6 20 16 3 33 23 33 12 6 30 6 16 12 17 19 14 20 22 20 20 21 10 22 13 14 24 9 13 12 0 17 12 20 17 20 14 27 24 7 16 10 7 3 15 6 17 7 21 20 16 16 17 6 10 9 16 19 24 27 21 10 21 18 13 14 24 37 23 24 14 34 15 17 6 12 17 7 32 6 7 13 7 13 20 13 17 16 13 31 16 6 21 6 20 8 10 14 16 17 17 16 16 6 30 20 16 24 20 0 9 19 21 17 17 12 12 24 20 16 16 20 10 23 7 13 10 17 30 16 3 33 10 14 16 23 6 13 3 12 10 27 14 10 20 14 10 6 27 27 17 15 20 13 3 27 32 13 14 20 3 17 10 16 15 6 19 22 17 31 19 13 23 24 22 40 7 21 23 33 6 14 10 31 20 9 13 27 3 22 10 13 21 12 7 23 20 24 10 19 24 10 21 28 27 31 14 23 31 7 17 13 26 14 13 24 3 20 13 16 13 21 7 13 16 23 21 17 17 17 14 21 14 10 23 3 24 31 14 9 10 9 14 12 23 27 12 9 17 10 20 23 14 16 7 21 20 31 20 31 12 17 17 13 16 13 18 6 22 16 6 10 0 10 21 7 15 10 7 3 35 0 7 30 39 35 7 16 10 17 15 15 6 6 27 22 16 10 26 9 16 28 34 9 17 19 21 13 27 19 6 35 18 24 34 14 31 3 10 30 19 16 14 17 23 18 21 17 21 7 26 26 20 3 20 20 13 10 13 13 27 10 17 17 10 17 19 27 13 3 12 10 9 8 10 7 20 23 10 20 13 20 13 20 13 21 3 7 38 16 15 14 24 20 10 25 17 16 14 31 28 10 20 20 13 16 24 13 14 16 6 13 24 10 13 20 20 19 10 15 14 14 20 27 38 24 17 23 27 31 24 9 0 24 13 17 3 14 17 17 19 16 27 13 15 20 0 17 23 20 14 10 16 16 13 17 17 23 22 34 6 24 13 19 17 7 28 27 7 12 13 24 15 18 20 16 20 13 21 17 13 27 20 27 19 10 12 8 9 17 10 21 13 20 11 23 16 17 17 21 28 3 16 14 20 21 7 30 27 24 10 23 17 13 10 0 28 10 17 10 17 14 10 10 6 20 6 3 17 13 20 13 29 13 16 24 7 24 11 6 24 20 21 9 14 24 24 7 6 22 15 24 6 6 16 20 9 24 10 14 10 14 24 33 3 7 17 25 16 6 27 28 25 19 19 10 10 9 17 21 13 22 14 20 23 7 10 27 10 12 13 31 23 17 10 20 30 21 17 10 13 13 19 3 27 13 10 34 16 14 0 21 31 16 31 17 19 31 10 13 31 14 24 21 17 7 28 20 13 16 20 14 7 14 23 10 10 10 9 17 17 33 28 9 15 0 6 16 17 17 21 20 7 17 13 10 13 51 17 7 7 16 27 14 3 9 21 16 13 34 3 13 13 10 14 10 13 13 13 24 6 27 14 13 16 14 17 18 14 28 34 20 13 17 20 3 7 20 7 9 27 6 13 16 27 23 7 3 7 3 28 10 12 15 27 13 3 31 21 6 13 17 9 9 15 16 31 23 17 14 17 16 14 28 10 20 29 24 21 34 10 24 3 20 17 16 14 10 38 13 16 23 7 26 20 16 14 20 19 13 17 26 3 30 6 20 3 22 14 10 14 14 14 10 20 23 10 23 30 20 27 24 12 16 17 22 13 13 21 10 27 7 41 0 10 27 28 17 16 24 7 27 24 15 21 8 6 21 20 19 27 13 36 34 21 17 23 25 24 17 9 17 36 20 38 10 13 9 20 15 19 15 16 9 13 20 19 9 31 17 13 7 27 10 9 6 6 21 10 14 16 22 27 31 17 10 2 13 11 20 19 13 18 9 24 0 35 24 16 29 24 21 17 23 30 26 7 18 17 26 16 3 6 6 6 6 23 17 14 13 13 13 24 19 7 17 3 21 13 17 14 16 10 14 16 31 12 23 16 9 13 17 7 9 24 18 10 23 3 20 17 20 10 13 24 14 27 18 23 3 24 24 9 18 21 7 13 31 6 9 24 7 7 20 16 26 30 10 10 17 20 30 21 20 14 6 21 31 13 17 12 6 6 14 10 24 14 0 13 26 9 16 16 6 14 21 19 21 15 17 22 3 9 24 17 20 31 10 7 7 28 8 17 13 13 19 15 14 13 21 17 13 21 20 9 10 31 20 9 10 14 18 13 12 10 20 16 17 7 23 26 15 14 20 15 29 6 10 16 14 12 27 31 14 21 14 6 13 23 17 9 3 16 22 8 16 20 17 17 13 17 17 9 30 16 15 20 27 19 13 8 17 14 15 9 9 26 17 11 32 13 21 27 6 9 10 24 21 19 13 17 6 19 17 13 22 13 16 20 24 20 13 20 17 17 19 21 10 22 20 20 17 13 13 28 14 17 16 16 0 24 23 28 15 17 31 35 11 9 16 20 24 9 10 31 7 10 23 7 21 13 7 24 24 34 10 7 26 18 15 31 3 17 19 6 20 13 10 16 12 24 26 12 12 11 15 21 6 13 20 27 20 3 21 19 13 10 6 21 29 14 14 21 9 17 35 23 23 21 27 7 3 24 10 24 7 24 19 7 9 13 27 17 19 17 27 6 21 26 10 0 31 38 6 27 31 24 21 24 10 21 14 16 30 19 13 12 19 20 24 10 26 14 23 21 16 20 20 17 7 16 23 13 17 18 21 17 13 10 21 14 6 20 25 9 13 13 17 17 16 17 20 9 16 33 17 11 20 9 13 20 29 6 8 13 21 17 13 14 7 7 10 23 27 27 24 10 20 10 17 17 0 6 17 10 22 16 24 20 23 10 27 23 13 13 15 17 10 20 10 13 21 17 11 21 34 13 13 17 24 13 17 21 17 13 23 24 6 3 18 26 6 20 30 6 13 14 3 6 9 17 13 29 16 6 14 19 24 10 26 12 23 14 28 17 13 16 25 17 14 14 13 20 23 31 10 17 17 20 17 10 6 33 10 9 3 9 17 13 3 16 13 27 31 19 17 20 16 17 16 19 20 23 13 3 13 19 7 19 3 28 17 20 17 0 20 10 23 10 13 17 31 20 10 15 14 24 13 20 13 17 30 28 20 20 31 20 16 16 3 11 20 14 14 3 20 27 7 19 13 6 26 27 27 14 17 10 13 10 16 13 10 10 16 23 17 19 14 7 10 14 11 17 13 6 26 16 16 21 16 17 23 21 21 7 17 7 6 14 16 10 14 9 24 7 27 17 12 14 21 14 16 17 23 23 7 14 17 0 13 31 14 10 12 3 21 17 31 16 27 13 20 22 12 14 15 24 25 15 9 26 16 35 21 14 13 17 17 17 12 10 10 17 10 13 6 16 30 17 17 7 14 10 33 17 12 24 19 15 23 13 16 6 23 12 16 21 21 23 3 23 25 10 27 19 16 13 16 0 10 30 22 14 3 24 24 10 9 3 10 16 26 13 24 19 14 9 10 3 28 17 20 18 7 21 31 31 14 10 9 14 9 26 19 17 13 19 18 15 27 21 3 16 9 11 24 23 7 3 17 10 21 20 13 13 14 14 24 20 26 13 17 31 12 27 0 6 29 18 31 20 16 20 14 28 17 10 16 38 31 10 7 17 10 14 19 20 10 23 10 24 13 13 19 21 9 6 16 24 18 13 13 18 9 17 10 6 28 20 21 20 17 18 27 17 14 7 20 23 27 7 23 20 10 14 13 19 24 6 20 14 7 6 20 29 22 19 15 21 25 23 6 17 18 19 23 38 13 19 10 21 27 9 37 16 3 16 34 14 21 18 17 20 14 15 23 24 9 14 14 9 19 17 7 3 0 17 15 32 23 10 20 6 17 21 17 13 21 7 18 0 17 17 34 6 9 10 22 7 9 17 7 10 16 20 20 14 24 26 30 17 16 8 21 27 12 20 3 14 22 20 12 24 14 24 23 14 14 25 17 3 16 16 22 7 29 6 10 10 27 12 0 24 10 21 8 16 20 17 7 25 13 9 3 13 14 7 30 17 17 26 6 21 20 6 31 10 6 14 22 17 20 16 14 17 14 3 15 24 35 21 21 23 16 19 24 21 10 23 20 26 19 23 38 10 20 27 26 13 27 9 15 19 13 27 9 20 16 23 15 19 3 28 13 10 17 17 20 12 19 16 17 22 24</t>
+  </si>
+  <si>
+    <t>MIE(6.701240411895602, 11.413806292463118, -0.10925337760260997, 25.229932353110865)</t>
+  </si>
+  <si>
+    <t>28 21 32 31 27 21 20 18 22 27 19 21 22 24 15 17 20 18 19 20 17 22 23 25 27 18 23 22 32 27 17 25 31 21 22 26 23 24 20 22 19 29 28 26 29 19 26 17 17 17 28 21 20 18 12 23 15 26 20 22 21 24 12 23 23 17 28 26 24 21 24 25 26 25 26 23 27 21 25 22 22 24 23 18 26 20 31 21 17 23 20 28 19 34 24 24 16 25 29 25 28 23 23 22 21 16 24 16 24 27 18 26 20 25 19 28 22 26 22 29 26 34 22 15 32 19 25 27 28 20 27 21 23 23 25 33 16 21 20 21 26 23 25 21 22 27 20 25 21 27 26 19 21 15 19 28 32 19 33 28 29 22 16 37 22 21 25 25 20 26 25 23 30 19 24 26 26 15 27 37 23 16 14 28 28 20 15 19 17 30 28 21 32 20 21 18 20 24 21 24 29 19 15 20 28 12 21 30 21 20 17 25 25 20 24 23 31 32 30 30 23 22 31 26 23 19 27 19 27 32 19 21 32 26 25 29 28 24 16 25 22 22 28 21 22 29 27 18 19 23 25 25 13 20 16 26 23 16 26 28 23 18 28 16 23 20 23 24 24 22 22 23 20 26 32 24 23 31 21 29 32 24 30 19 23 25 24 22 18 27 23 24 23 21 25 29 28 21 27 30 20 27 24 29 23 22 24 27 26 29 14 25 21 30 22 22 22 34 22 15 27 16 23 24 21 22 24 26 26 23 24 28 27 21 24 23 26 22 23 27 25 20 23 22 24 31 27 18 19 30 14 15 20 23 25 18 19 25 22 27 35 22 16 24 23 20 25 30 23 22 25 18 27 19 21 26 23 25 24 25 20 22 18 21 24 18 23 16 22 20 24 21 20 23 20 23 26 25 23 24 25 25 34 26 26 17 21 18 22 29 28 27 19 28 17 24 21 21 22 21 22 29 21 25 21 21 23 23 19 29 26 23 26 18 24 22 27 26 29 18 31 25 27 27 18 22 21 28 18 23 18 17 22 23 29 25 25 21 27 22 24 22 16 23 22 20 24 24 26 29 20 24 24 19 26 19 19 29 25 23 20 25 26 18 18 29 26 21 38 25 29 23 21 20 25 17 22 23 20 25 29 17 21 24 19 32 32 19 24 24 17 30 23 23 20 22 19 20 22 21 33 18 22 26 18 13 17 15 20 24 14 26 24 26 27 35 16 30 26 20 27 25 22 25 26 25 20 23 18 27 22 26 21 24 19 28 27 25 25 27 22 27 23 19 37 21 27 15 22 26 22 20 20 22 26 13 20 23 27 24 18 23 31 25 31 21 30 24 16 23 21 19 30 26 22 24 22 22 21 24 12 24 27 22 21 22 22 25 21 32 23 29 24 23 20 30 25 31 18 23 16 26 20 16 17 25 16 22 23 31 20 29 22 27 22 23 27 22 18 16 22 21 22 30 31 26 28 22 23 24 29 32 27 19 17 23 18 30 29 15 19 25 26 23 22 24 16 25 27 27 28 27 23 17 26 23 21 21 23 21 22 31 31 25 20 22 26 33 26 32 22 21 21 28 26 24 23 23 20 21 19 24 25 25 27 25 25 24 25 22 21 24 30 24 19 27 30 37 25 16 23 23 16 14 26 21 25 18 20 22 21 22 21 30 31 19 23 20 23 30 21 20 23 28 17 31 27 28 27 25 21 25 22 20 28 23 22 22 25 27 20 32 23 23 30 29 27 28 19 22 19 26 22 30 21 22 21 18 15 25 21 19 27 20 18 11 25 19 25 18 18 22 22 25 24 27 29 25 20 25 21 29 31 24 29 24 25 32 24 29 27 30 30 23 20 26 20 23 25 25 18 25 18 24 24 29 20 27 21 31 27 18 24 20 24 35 25 32 29 24 29 27 18 27 22 21 33 14 26 21 23 26 29 21 19 19 28 26 29 26 14 26 22 22 25 18 24 19 22 24 13 21 18 24 22 25 19 21 18 25 24 20 20 31 26 22 22 29 26 16 23 26 22 22 21 23 19 26 22 35 24 21 17 26 27 30 19 18 16 28 29 22 16 18 18 22 26 21 22 24 22 26 24 25 25 21 28 19 15 18 26 26 26 18 17 25 23 17 23 21 24 25 30 28 27 18 33 26 18 25 25 30 28 21 13 25 20 30 28 22 13 30 18 27 16 23 28 22 25 25 28 21 22 25 28 25 19 27 14 24 23 20 24 17 24 27 35 22 26 33 19 16 27 26 21 20 26 17 26 24 21 20 25 19 17 14 33 27 29 29 29 30 25 26 33 23 19 22 26 26 17 32 28 14 26 27 26 22 26 24 15 27 23 20 28 23 16 24 23 25 22 23 27 15 16 28 27 31 22 17 25 19 30 25 27 27 21 22 30 20 21 20 17 21 29 24 27 24 27 13 15 26 19 18 29 23 21 20 23 28 29 23 27 23 18 25 26 22 21 25 28 24 21 22 20 27 22 26 23 24 26 25 22 25 23 22 27 24 24 23 27 21 19 26 22 25 28 24 22 27 30 20 25 13 21 36 34 27 15 21 28 26 15 27 27 31 22 23 25 25 17 34 23 31 36 25 30 20 27 23 29 19 28 15 18 25 34 27 22 29 33 19 24 26 21 32 26 22 20 29 27 24 23 22 32 23 21 16 22 21 14 26 21 20 22 18 22 26 29 31 19 20 25 25 21 20 22 23 27 23 18 16 22 25 28 20 19 17 29 17 28 17 25 25 17 27 24 24 23 21 21 25 23 28 20 31 22 15 18 27 22 20 28 28 25 21 18 35 31 21 26 22 29 21 23 18 24 23 20 24 21 23 26 24 17 22 17 12 18 18 17 22 32 21 22 25 15 17 17 27 28 25 17 19 24 22 27 20 20 24 27 22 27 27 30 26 24 20 19 22 24 31 20 23 23 23 17 23 21 26 23 18 24 17 25 18 30 24 25 25 22 23 25 27 26 24 23 18 22 19 15 21 22 20 20 22 30 30 22 28 28 27 22 25 24 22 29 19 28 24 14 24 20 27 26 22 29 23 21 23 20 23 31 24 23 28 25 25 20 29 26 20 22 29 14 23 16 25 23 31 30 13 28 19 19 22 24 28 22 32 22 28 19 31 32 23 21 24 23 20 18 20 26 20 23 26 27 23 20 19 22 17 20 27 15 24 26 23 25 28 25 15 24 13 30 32 18 20 26 27 16 19 22 20 26 26 28 24 26 25 31 14 17 19 21 19 23 35 26 21 17 23 17 20 24 16 21 24 17 23 30 26 22 22 21 18 29 22 31 25 20 26 19 27 20 27 23 24 12 22 24 28 28 19 19 34 24 20 21 18 30 22 16 22 20 24 18 22 28 23 25 28 20 24 25 21 27 23 20 21 29 29 19 24 24 23 22 21 25 22 17 29 21 16 31 23 16 17 21 31 21 27 22 27 21 25 26 15 21 20 26 24 19 29 26 29 20 17 17 30 27 18 21 25 21 29 28 24 28 25 18 18 25 21 25 16 26 25 22 20 26 17 26 27 25 25 22 18 27 19 23 20 19 28 28 31 25 25 24 15 30 24 25 25 28 28 19 26 28 24 24 28 26 30 29 26 31 32 17 25 26 27 21 25 20 30 22 12 22 23 20 20 24 20 23 17 23 18 18 18 25 20 22 28 25 22 21 12 29 16 28 20 21 25 25 25 25 20 22 23 29 22 24 21 26 23 23 28 28 22 25 22 29 25 21 24 27 23 21 24 27 22 24 25 30 14 20 20 25 25 19 31 23 17 27 17 22 18 24 26 20 28 28 19 32 27 22 26 27 22 24 26 23 25 17 34 32 21 17 25 21 20 20 27 23 25 28 21 19 24 21 21 32 22 20 31 23 28 22 23 19 14 26 21 27 19 25 23 29 27 28 28 30 24 22 28 25 22 22 29 28 21 18 24 16 13 30 19 32 20 27 22 16 25 20 28 22 17 27 23 29 31 22 25 24 28 23 24 25 19 23 23 29 10 25 20 23 18 18 24 19 27 30 25 23 22 30 22 32 27 23 19 23 20 23 16 27 19 19 21 22 25 19 32 24 25 22 24 27 17 26 19 20 25 25 27 25 25 32 25 18 35 24 21 28 23 18 27 21 19 21 31 31 25 25 22 18 19 24 22 17 23 18 32 28 21 22 13 15 25 31 25 18 18 26 22 25 26 25 27 19 25 23 20 22 20 20 20 22 29 25 24 20 24 18 26 23 22 26 24 20 24 18 25 16 34 25 26 22 27 33 26 26 21 26 24 24 18 24 29 13 23 24 21 26 25 19 17 29 17 19 29 20 24 26 19 28 23 22 30 22 21 24 28 29 14 26 28 24 17 19 29 17 26 24 27 22 28 33 27 24 26 26 27 27 18 21 18 26 23 17 29 18 24 24 23 39 20 26 26 27 23 22 23 24 21 29 15 22 30 25 20 22 24 26 26 23 23 21 16 27 22 27 22 27 23 34 20 26 27 21 20 31 23 33 22 19 30 31 24 21 22 26 22 21 29 28 25 31 21 25 16 20 24 25 26 27 22 35 24 16 22 29 19 18 26 25 25 19 29 24 24 22 21 26 20 29 25 23 16 27 25 20 27 29 33 21 21 34 23 19 19 24 22 19 15 26 23 21 22 20 15 29 23 19 21 30 23 29 28 27 29 22 27 21 23 25 27 27 26 21 25 26 14 24 29 20 21 29 33 25 32 20 25 21 23 25 25 21 19 20 23 18 25 22 24 16 21 25 20 26 25 19 24 20 20 21 17 21 18 22 23 26 23 30 16 19 30 21 18 27 17 26 26 27 26 22 11 18 17 16 25 29 26 26 23 18 24 17 27 31 14 22 29 28 21 17 19 17 18 30 25 25 22 21 27 25 18 29 27 25 17 26 27 27 31 21 25 19 28 25 32 16 27 25 28 24 17 24 18 20 23 18 27 24 28 22 17 29 26 27 20 24 23 15 25 25 28 26 22 23 20 14 20 28 23 20 22 20 23 24 28 20 19 23 29 27 20 26 29 21 18 23 19 26 20 24 28 18 23 22 24 26 20 30 14 30 27 25 24 21 24 23 19 21 20 25 27 30 25 28 22 25 24 24 17 32 33 17 24 19 20 31 12 18 26 25 26 25 21 10 29 24 24 24 28 31 17 24 24 19 28 24 19 24 21 29 26 23 32 23 21 31 31 24 15 24 24 22 26 27 33 16 23 20 32 18 31 26 31 30 24 16 23 26 21 27 25 22 19 28 25 16 24 19 19 18 18 19 26 31 24 23 25 23 29 24 24 25 23 20 24 30 21 18 25 19 28 24 22 21 25 27 32 23 25 24 33 14 22 21 21 25 28 26 29 24 29 24 23 21 30 17 21 24 29 22 25 29 22 14 20 19 24 30 18 19 22 24 31 25 10 27 21 28 24 17 27 25 26 24 25 23 35 22 23 17 16 28 18 23 12 24 19 25 24 23 23 19 22 21 20 33 24 22 25 20 18 22 14 19 26 26 22 25 23 25 20 25 19 20 30 19 31 19 22 17 17 19 27 18 29 22 19 21 19 32 30 29 21 19 24 20 26 28 22 21 20 27 19 26 25 18 25 22 21 24 29 20 24 25 21 19 21 19 17 18 20 21 21 25 21 20 26 27 32 29 25 25 18 13 28 26 24 25 24 21 25 20 23 24 28 18 30 26 32 21 23 24 21 19 18 30 18 23 30 25 22 21 27 23 15 18 21 22 31 22 17 29 26 21 25 25 15 24 30 17 23 21 17 20 19 23 24 20 27 27 26 20 26 24 23 24 18 18 22 15 21 16 26 21 29 18 23 28 31 23 26 19 28 22 20 27 19 24 21 25 21 14 20 29 25 28 27 26 20 25 25 21 27 29 26 31 25 19 21 27 21 21 24 24 22 23 22 24 26 26 12 22 24 24 26 24 23 20 24 20 20 26 26 24 25 27 26 25 19 17 24 33 35 25 15 24 27 27 24 22 25 15 22 25 20 21 19 18 22 25 29 25 11 32 24 27 18 29 16 12 25 24 18 23 20 26 26 21 22 22 19 18 18 25 20 30 26 17 22 25 21 18 27 26 22 18 24 20 19 21 29 26 32 24 30 18 22 20 21 27 20 25 28 24 26 25 23 23 20 24 23 22 24 22 28 31 27 21 32 30 23 27 23 25 17 27 22 21 22 26 17 27 30 25 19 31 22 31 30 22 27 27 23 24 19 28 26 25 24 19 22 27 22 25 24 31 23 25 20 27 27 28 24 23 24 12 23 24 21 18 21 28 29 24 26 25 20 15 26 24 29 23 16 22 24 26 20 28 25 11 21 19 14 27 33 21 21 23 29 18 21 25 25 22 13 22 19 24 15 20 24 19 20 34 16 23 29 23 26 21 17 27 21 25 30 22 24 28 25 21 24 24 26 20 18 24 19 21 28 19 31 30 20 22 27 24 25 27 24 29 24 23 27 19 19 27 29 13 17 22 12 15 16 32 29 27 19 24 20 17 28 14 18 27 21 21 32 19 25 27 22 22 24 28 24 21 18 27 23 19 27 24 32 21 39 24 19 21 22 29 19 26 19 26 21 17 21 29 26 26 22 29 26 29 20 20 29 21 25 19 26 10 23 24 21 23 20 29 21 24 33 32 29 31 28 23 24 26 30 26 35 26 26 22 21 32 24 24 18 24 17 23 24 33 25 26 28 22 19 22 25 25 24 21 30 31 20 14 18 21 21 22 25 13 18 21 23 15 25 29 34 28 25 21 29 25 20 18 16 21 19 20 18 29 24 26 20 24 22 25 27 23 30 19 21 21 16 22 24 28 25 25 22 25 24 18 20 23 25 23 21 18 23 26 15 23 33 20 23 23 27 21 24 21 18 12 22 25 19 29 24 20 31 16 22 25 33 25 26 24 25 25 22 21 27 27 21 24 27 23 24 31 26 27 22 26 19 22 17 25 21 24 18 28 24 19 18 23 24 23 29 20 23 23 21 25 26 25 25 29 23 18 20 20 25 17 27 24 23 23 20 17 23 26 24 26 25 21 18 29 31 21 20 23 27 32 24 27 23 25 25 21 24 26 25 20 28 24 28 20 14 33 22 25 24 28 31 22 23 22 19 20 18 26 18 27 16 27 28 24 15 22 24 21 20 18 26 25 26 25 27 20 28 23 18 18 26 20 25 18 26 33 23 25 20 23 27 17 18 25 20 22 30 26 16 25 18 19 18 19 20 18 32 19 12 17 24 22 15 21 21 25 26 24 24 28 32 23 22 25 26 20 28 24 19 26 25 22 26 21 21 27 26 24 25 17 24 22 28 28 20 29 29 22 23 25 24 24 20 24 25 19 26 28 25 20 22 21 16 19 16 12 22 31 28 29 12 24 24 23 30 21 29 20 20 30 26 24 24 25 19 20 20 24 22 21 27 17 28 22 21 25 16 19 26 21 24 21 22 28 21 21 22 24 30 20 20 26 22 23 28 28 22 20 21 31 22 31 24 26 24 20 18 19 28 13 15 23 22 29 31 26 23 17 28 23 29 22 24 32 20 19 22 14 28 20 18 20 28 27 22 25 21 27 23 30 25 24 19 17 23 28 23 26 25 19 27 22 20 17 21 15 18 22 21 21 27 27 18 24 21 23 28 26 24 20 14 23 20 23 28 19 21 26 16 31 21 26 25 20 16 20 25 23 27 16 30 17 21 20 27 20 22 21 22 29 24 23 19 20 27 24 29 28 24 21 23 22 18 21 25 25 28 26 24 28 17 26 26 31 24 30 31 23 20 26 23 19 15 26 20 17 29 24 25 28 24 30 20 20 31 33 25 20 22 23 27 26 21 23 21 27 24 19 19 21 24 22 24 30 23 21 26 21 20 24 20 23 26 22 19 20 27 15 19 28 26 31 26 28 18 26 23 20 32 28 20 16 26 29 24 22 26 32 28 19 25 21 24 21 19 23 14 25 24 16 13 23 22 23 20 29 30 24 14 25 25 15 25 16 23 33 28 16 28 25 24 22 31 26 26 26 20 23 30 19 26 22 26 24 30 30 22 27 26 15 20 20 27 26 18 26 19 23 20 22 24 22 28 27 21 23 24 28 31 23 27 19 23 26 24 20 20 35 22 18 27 23 19 13 23 19 31 25 21 20 30 25 32 18 20 22 25 20 24 25 26 27 22 20 16 21 20 28 19 30 23 26 22 27 30 26 27 25 19 20 21 23 24 28 27 26 22 23 30 18 23 19 20 28 23 28 23 21 21 26 22 33 25 16 22 19 24 31 18 23 23 26 24 16 31 27 18 19 24 25 21 24 21 25 23 23 26 27 22 31 23 21 20 23 21 17 21 31 24 21 20 27 18 20 24 28 33 21 31 25 20 23 20 18 19 18 32 28 17 24 17 23 22 26 25 19 23 28 17 21 26 22 19 30 20 25 21 25 20 26 24 22 19 19 20 19 24 28 28 22 14 24 22 30 34 21 19 24 26 25 22 23 23 38 20 22 20 23 26 20 20 27 18 26 18 25 28 17 23 20 29 26 19 15 26 22 19 21 26 25 19 23 30 22 19 20 18 25 23 24 13 24 32 28 17 18 27 28 17 28 24 28 14 22 27 18 25 20 23 22 20 15 22 28 21 23 28 26 20 24 21 23 26 21 21 28 21 26 23 22 30 23 29 35 28 25 29 17 18 25 21 30 32 19 22 25 22 28 24 17 19 32 26 29 20 21 26 31 16 22 26 26 22 32 20 25 19 28 25 25 23 19 25 21 27 19 23 27 27 28 26 17 20 18 22 24 22 33 26 22 28 27 32 25 26 31 25 16 17 29 26 24 27 25 19 19 20 29 24 20 25 21 29 27 21 28 29 27 25 27 20 21 28 19 24 26 24 21 28 14 27 23 29 27 26 16 26 25 21 26 34 20 21 23 25 16 20 24 32 19 21 32 24 27 18 24 21 23 27 29 16 32 15 26 28 20 21 22 26 20 23 25 27 25 22 32 22 15 23 26 26 25 26 22 22 20 23 32 31 19 27 27 27 16 21 23 21 19 25 21 29 22 23 23 23 16 22 20 20 23 22 19 21 25 20 22 20 22 22 27 20 19 16 21 15 21 27 21 30 21 21 22 21 25 25 29 27 17 17 17 24 15 30 29 19 21 24 24 19 21 20 28 25 27 21 17 25 24 27 33 18 25 21 25 24 20 14 21 27 13 24 22 24 20 33 25 14 30 30 30 31 17 23 27 29 23 29 19 19 25 26 14 31 23 17 23 27 21 27 24 27 22 19 23 29 27 30 23 20 20 24 17 26 20 15 16 28 18 29 14 33 22 22 25 22 23 26 29 23 17 24 26 16 25 31 31 20 25 24 21 22 24 29 19 17 18 37 20 19 16 32 21 22 33 21 21 22 22 32 27 21 16 24 23 18 25 20 27 29 39 15 20 28 30 26 19 20 24 22 28 31 31 26 34 19 28 13 15 28 23 18 23 23 27 22 16 27 23 23 29 29 19 22 25 24 24 25 21 21 34 23 22 15 26 26 20 23 26 29 23 23 22 22 18 25 23 23 15 21 23 24 27 20 23 27 26 21 29 19 13 28 26 21 25 26 18 27 29 26 19 25 35 20 27 21 24 29 24 22 23 18 25 24 30 23 19 22 30 23 31 28 26 30 25 24 22 25 39 24 24 24 23 23 20 22 19 19 27 22 23 23 17 18 21 19 35 23 23 20 19 23 26 23 25 24 21 28 24 28 21 32 37 22 19 19 21 30 22 26 21 19 30 31 22 26 16 22 30 23 22 26 24 27 25 23 13 18 19 21 19 13 20 26 30 26 22 19 30 22 23 21 23 23 20 27 29 27 29 24 14 29 22 24 28 20 25 20 29 33 25 23 24 28 24 30 22 23 25 25 18 26 26 19 22 23 21 20 25 26 22 19 22 27 21 25 24 22 26 23 21 17 23 36 22 22 29 20 14 22 12 24 28 26 12 15 20 24 16 24 24 23 23 22 27 28 23 31 19 22 24 26 23 33 21 24 27 21 23 19 24 22 28 26 14 27 20 20 19 18 31 25 26 15 20 28 24 21 18 20 16 25 13 22 33 27 18 28 33 26 23 20 22 25 31 27 20 28 21 31 22 22 16 24 30 25 18 19 25 28 18 23 18 18 19 32 21 18 21 21 18 22 17 25 17 25 28 25 21 25 21 24 33 23 23 17 21 22 20 18 25 23 25 23 22 29 20 17 21 16 21 20 17 32 24 28 24 16 39 22 17 23 25 26 22 22 33 25 25 31 29 26 18 21 19 21 29 13 19 21 23 26 28 29 26 24 23 21 24 26 26 19 26 20 29 28 23 22 25 28 20 18 21 20 24 36 26 26 27 24 21 25 25 27 25 30 27 29 22 24 24 20 23 20 26 25 16 21 16 20 19 19 22 25 27 24 16 29 21 29 21 25 28 21 22 21 25 20 24 29 27 13 26 22 28 26 24 22 18 25 25 28 23 22 29 33 21 26 18 24 20 16 27 36 35 27 22 20 25 23 22 28 24 25 27 25 17 22 29 24 20 23 30 21 22 15 23 26 18 21 24 28 34 26 27 27 26 24 26 24 24 21 20 22 24 31 21 24 19 20 30 12 26 26 29 19 23 28 25 25 27 29 21 18 15 28 18 17 24 23 25 24 25 27 22 21 23 20 14 25 25 20 29 26 23 28 27 20 25 20 22 21 23 19 26 27 21 18 21 20 22 21 18 18 22 21 22 19 28 15 27 26 25 23 26 25 21 25 23 32 19 20 23 12 22 33 32 24 19 18 29 20 25 18 21 24 13 16 28 24 26 24 27 23 20 32 28 23 26 22 31 28 28 25 22 27 26 21 27 34 23 22 32 20 26 25 25 27 20 18 25 10 22 28 28 31 24 16 18 25 24 31 26 29 16 21 30 25 25 27 19 21 16 24 23 21 21 27 27 24 26 19 24 29 21 20 24 18 17 22 19 18 15 27 21 25 24 21 22 21 27 26 30 27 26 23 24 21 17 23 22 24 27 24 28 14 29 27 26 28 20 27 29 30 26 20 22 24 32 23 20 18 28 25 25 26 30 23 23 20 24 19 21 20 21 36 19 18 30 34 18 23 28 31 20 24 22 28 26 20 24 25 24 22 21 24 24 22 27 25 27 19 16 25 21 19 21 23 20 22 17 28 30 23 25 22 29 21 21 28 22 30 27 30 25 28 26 20 27 24 28 21 24 27 22 23 24 24 21 23 24 14 28 31 21 22 20 26 22 28 24 24 24 29 23 32 21 23 33 19 18 20 20 22 24 24 21 19 29 25 26 20 24 25 19 28 31 25 24 23 25 25 18 25 17 24 32 18 21 26 22 28 31 30 32 26 22 25 16 21 21 26 22 22 22 26 20 23 12 27 33 22 31 16 28 22 26 27 18 26 28 27 22 22 23 26 23 23 21 34 26 21 30 29 19 17 17 24 22 27 23 26 24 19 18 22 30 14 20 20 23 21 27 20 23 27 24 23 19 25 15 28 25 26 25 20 27 31 21 25 24 20 33 28 14 26 25 23 19 28 32 24 26 29 17 30 23 29 31 31 22 23 28 24 16 12 22 19 23 31 23 24 30 22 25 23 23 21 28 22 23 24 24 18 23 25 13 38 30 28 13 28 26 25 22 24 24 21 22 23 25 20 18 26 19 26 28 27 23 31 16 18 21 23 17 18 18 32 15 24 30 19 25 26 31 28 24 29 27 19 19 17 30 21 24 29 28 23 25 30 22 23 33 31 24 28 28 19 25 27 21 25 20 22 20 26 28 25 22 21 21 27 27 24 21 27 33 16 27 24 30 18 24 16 30 17 18 22 25 25 31 22 24 31 22 24 27 25 27 29 28 24 24 30 30 17 26 21 31 21 24 27 26 18 22 24 31 32 20 26 26 23 20 22 27 18 19 19 25 20 21 22 25 26 28 25 27 25 24 23 28 22 28 27 19 25 34 28 23 27 20 18 24 27 28 20 16 29 23 25 25 22 24 24 19 23 23 16 26 24 17 21 32 30 24 19 28 21 25 25 21 21 25 33 26 26 21 21 14 34 22 19 22 19 18 29 18 19 21 28 31 25 23 23 23 26 26 21 22 25 29 26 27 28 21 22 26 32 25 25 23 19 18 23 18 31 26 23 25 19 19 20 28 20 19 28 19 24 20 30 20 27 24 23 22 16 17 21 25 22 15 21 23 32 19 23 13 21 17 21 17 28 26 25 29 28 37 20 24 27 23 22 24 20 23 23 22 13 23 19 29 24 22 18 15 18 21 26 27 23 23 26 23 25 28 32 19 19 31 27 20 22 27 23 31 16 24 24 20 29 26 23 30 28 24 32 22 21 19 23 27 18 19 20 28 23 23 32 14 26 33 22 18 18 31 26 17 21 23 23 35 20 27 27 18 24 23 10 26 20 25 22 20 27 19 21 29 23 30 23 21 27 19 21 21 24 22 18 22 21 21 18 27 28 21 18 17 31 20 26 26 21 26 25 26 22 20 23 25 22 26 24 24 24 17 20 12 28 26 21 25 22 28 23 25 27 21 25 23 22 23 15 21 28 19 22 33 26 19 18 29 20 28 35 28 29 16 21 24 24 27 19 26 12 30 25 24 30 34 18 29 24 20 27 25 24 24 22 26 27 24 27 27 22 22 31 18 19 25 22 24 24 27 22 22 22 23 25 24 27 20 22 25 31 34 23 24 23 22 31 20 21 22 18 22 19 25 18 22 21 21 23 17 26 21 21 19 26 21 25 17 21 20 28 28 21 30 26 14 25 23 26 19 22 18 14 33 30 21 29 27 29 18 19 25 18 29 17 25 15 19 25 26 35 27 21 20 21 17 25 24 20 30 16 20 27 31 22 27 22 26 21 15 19 28 22 17 32 24 20 29 23 22 23 28 21 23 25 19 29 24 25 23 20 33 24 20 20 22 22 25 25 27 21 23 22 27 27 25 22 27 24 24 29 22 26 20 23 19 21 23 28 27 33 23 19 17 18 24 22 24 25 32 23 29 17 24 20 29 18 23 27 24 26 21 23 24 26 18 21 22 19 18 23 28 18 30 20 23 36 27 29 28 19 22 18 23 28 22 30 11 19 14 30 23 29 19 17 23 29 24 19 25 13 27 17 24 27 25 17 18 21 19 24 34 22 25 17 23 22 32 30 24 18 24 22 24 21 21 22 26 22 30 16 16 26 24 20 21 21 19 23 32 27 22 24 24 17 25 25 28 23 23 23 16 23 25 36 17 23 18 19 20 22 19 20 25 29 15 26 22 21 24 13 30 23 17 19 15 21 22 23 23 15 26 21 29 34 18 25 22 22 22 27 23 28 27 26 20 23 22 17 18 18 33 31 22 24 23 31 25 33 24 23 24 19 23 30 19 27 22 20 25 22 18 21 30 17 25 20 21 24 26 17 21 18 24 23 26 16 22 24 27 16 26 22 19 15 23 14 24 24 25 23 25 26 23 17 21 17 19 19 16 21 22 18 21 17 23 20 21 19 25 23 22 24 23 23 20 26 28 16 27 19 25 23 24 25 31 19 19 22 22 24 35 20 25 25 22 22 25 29 23 19 16 23 14 19 22 21 25 20 19 20 27 19 19 19 27 19 26 23 20 20 21 25 23 23 32 27 20 21 22 26 25 11 25 17 25 34 30 20 27 20 25 21 20 20 23 23 26 21 30 31 24 16 31 23 22 23 27 23 19 20 20 22 20 18 27 19 30 31 25 33 34 25 27 29 29 33 17 31 23 31 25 23 24 30 32 19 23 23 23 28 26 18 26 21 25 31 27 23 25 25 19 24 34 17 19 23 34 27 30 27 26 25 27 27 19 27 20 23 29 23 22 22 26 22 21 23 21 28 26 26 28 21 24 23 27 16 26 25 22 20 16 18 24 24 24 26 20 24 24 25 17 27 18 26 34 30 26 22 19 19 20 18 19 25 20 24 23 23 21 16 18 21 26 24 25 19 32 21 16 19 24 25 27 22 18 13 22 20 21 19 22 25 28 32 18 22 33 25 21 20 26 22 22 20 23 25 14 23 23 24 22 24 21 30 23 22 22 24 19 22 24 24 25 17 21 20 26 18 26 26 21 26 22 24 20 26 20 33 20 21 27 17 20 30 19 30 19 25 24 17 20 22 23 23 23 17 17 24 21 18 19 25 22 23 24 18 25 25 26 24 24 29 26 17 21 27 28 24 26 16 24 22 19 21 25 25 22 20 24 37 16 28 25 17 12 20 19 24 34 34 24 25 22 15 24 18 21 25 24 26 25 26 27 15 21 26 25 18 25 27 21 29 30 26 17 26 21 30 25 25 31 24 23 21 26 18 35 30 21 29 22 25 30 20 22 24 24 19 25 16 31 21 27 28 17 24 27 25 15 20 29 23 15 24 18 26 19 23 16 17 22 19 25 27 28 26 28 24 20 22 17 31 18 24 27 13 24 33 27 23 19 19 30 21 21 28 24 27 26 29 18 25 32 26 22 16 24 17 25 19 28 19 27 24 24 22 27 21 31 16 26 18 22 21 26 19 21 22 20 32 19 16 32 26 23 19 22 29 21 29 26 35 17 26 24 20 29 28 31 21 23 23 28 16 21 29 27 28 25 17 24 27 20 22 22 27 24 19 25 20 30 14 20 20 24 30 28 28 25 27 28 19 25 29 18 22 23 29 18 20 16 18 28 24 21 19 21 33 20 22 20 33 28 23 19 21 17 31 19 20 22 31 25 18 24 22 15 23 22 29 30 24 16 21 25 26 29 24 25 27 25 19 29 19 26 23 24 26 24 20 18 23 23 16 20 22 17 18 29 27 19 22 15 29 30 21 26 12 26 13 23 22 26 22 21 19 25 23 22 24 24 23 21 18 21 20 22 28 24 17 27 25 25 14 28 16 27 20 22 18 30 25 29 21 24 24 22 25 26 17 18 27 26 28 15 19 18 28 31 22 18 28 19 22 24 15 21 26 14 21 12 21 24 24 24 27 19 24 28 32 32 23 14 21 22 27 20 19 21 19 24 24 15 21 27 22 20 29 15 20 22 19 18 20 21 23 26 26 27 26 28 20 23 22 24 23 20 22 19 30 25 25 22 21 22 21 31 23 28 22 30 19 28 15 24 27 28 27 24 28 18 25 23 21 10 24 22 18 22 19 22 23 31 20 28 29 18 19 25 20 29 17 19 31 25 30 22 27 26 28 25 26 26 30 26 24 33 25 21 28 18 27 25 18 22 20 23 11 24 29 25 20 28 23 26 26 32 21 15 28 23 20 16 28 28 20 22 19 33 21 24 22 25 25 31 19 29 23 18 20 22 21 19 17 17 19 31 29 22 29 24 13 22 19 30 16 23 22 31 27 32 15 22 26 33 25 20 20 28 23 19 25 27 17 28 23 30 26 24 28 28 21 30 27 31 29 19 33 25 20 26 19 26 24 15 19 19 22 23 19 23 29 21 14 19 23 24 23 25 26 28 20 24 23 24 22 22 22 24 20 23 24 19 17 26 26 23 16 21 24 31 22 22 16 26 25 27 23 29 32 23 24 27 33 24 24 17 22 18 23 23 18 26 21 24 20 22 24 22 27 29 26 22 26 21 24 23 29 24 28 21 30 21 27 29 17 25 23 19 28 32 25 21 22 21 24 18 22 31 16 31 26 27 25 19 22 32 22 22 24 25 19 24 33 21 22 32 25 10 31 21 30 25 18 31 25 25 32 32 22 29 25 35 24 14 28 19 25 20 23 17 20 22 18 20 16 17 29 28 22 23 23 17 25 25 20 21 20 25 26 15 18 30 27 24 23 20 28 24 30 27 24 25 30 27 21 21 20 30 27 25 18 30 20 26 21 40 27 21 24 17 23 23 22 24 22 24 23 25 17 21 23 25 19 25 20 23 28 30 23 20 15 25 25 29 28 23 25 27 19 21 19 30 30 20 32 20 21 20 13 25 24 31 12 32 22 20 25 20 28 21 30 13 23 27 23 23 18 26 32 27 16 33 17 17 16 21 25 22 23 24 20 22 19 19 27 21 29 29 19 28 33 24 28 27 22 31 21 26 26 20 21 22 21 21 29 23 19 23 22 20 32 26 16 21 19 14 16 26 23 24 31 19 25 21 28 19 22 17 16 24 24 17 23 27 19 28 22 22 21 18 16 22 26 25 25 27 29 19 25 20 22 29 25 18 21 27 29 28 22 26 24 26 26 23 23 21 21 25 25 34 26 25 25 18 21 18 26 28 19 19 27 21 23 21 26 18 30 22 26 24 29 23 30 19 30 29 24 25 20 27 24 19 18 22 22 27 22 8 20 26 26 26 25 28 21 28 17 35 22 18 25 22 16 24 21 22 25 20 22 15 21 23 22 25 27 25 24 29 25 21 26 25 26 21 19 27 25 24 18 14 30 21 24 22 24 18 22 24 22 24 25 35 20 26 24 24 27 25 31 28 26 22 20 27 28 27 26 26 20 24 24 28 27 20 22 22 22 28 18 23 19 24 27 29 27 23 21 20 26 24 25 31 21 33 27 16 12 11 23 29 23 27 18 25 25 23 11 22 22 20 21 29 12 22 25 20 25 18 31 18 26 27 20 24 23 17 21 20 21 21 19 22 24 22 25 20 22 24 24 23 22 18 30 17 30 21 29 21 24 20 28 29 23 26 26 24 25 36 22 20 27 21 20 21 21 19 24 21 28 27 22 27 26 30 25 21 24 19 23 29 22 21 30 22 19 24 19 19 24 18 27 22 24 24 26 25 21 22 23 21 24 23 26 24 27 22 36 24 27 14 10 26 30 24 35 23 25 27 23 21 33 24 20 26 24 21 27 31 25 28 26 18 23 25 19 16 26 22 24 16 28 29 16 21 28 29 19 27 18 20 29 25 24 21 29 28 26 23 19 25 22 24 16 25 20 22 19 28 24 24 21 24 21 30 23 25 19 21 35 23 26 27 22 32 21 21 30 27 21 32 18 20 23 20 25 26 25 22 23 28 20 20 26 27 29 30 24 27 25 27 16 33 24 20 24 18 20 23 27 21 26 18 17 25 25 20 30 16 24 30 11 28 22 22 23 30 31 26 20 18 13 24 24 21 14 26 27 26 20 22 18 30 14 26 28 24 16 23 24 15 26 28 15 18 32 21 27 19 25 31 23 28 19 21 16 21 19 26 19 20 22 23 28 22 20 17 27 27 24 22 21 23 14 19 25 19 26 17 17 22 28 26 17 19 22 21 20 23 24 24 14 29 22 29 28 20 25 27 28 16 15 23 25 29 19 28 22 23 22 18 29 18 22 30 21 21 19 26 21 26 13 25 26 20 24 26 28 28 22 22 25 18 30 29 27 22 28 23 25 30 21 22 27 31 19 23 18 22 20 22 22 21 18 18 18 23 23 20 20 22 20 27 26 33 19 18 27 39 17 28 22 22 25 29 26 23 21 18 21 15 22 26 27 13 22 30 28 28 25 24 25 23 31 22 22 30 25 28 27 23 18 23 26 25 19 20 20 15 28 25 26 28 16 19 27 19 22 25 19 27 32 20 25 27 20 24 27 14 20 23 15 19 28 22 21 19 28 25 30 28 28 24 24 23 19 26 23 20 24 28 30 31 28 23 22 20 22 23 34 18 17 17 20 19 25 17 16 18 17 18 22 27 29 28 23 21 24 20 29 20 20 30 29 17 27 19 21 19 18 23 22 20 29 21 22 34 22 30 21 18 20 21 20 30 19 22 25 28 27 21 27 21 21 30 26 26 17 27 23 21 18 25 17 26 21 31 21 23 29 23 24 27 21 28 21 28 25 24 26 14 18 20 20 26 29 20 21 24 24 28 20 16 24 28 28 22 15 18 18 23 14 22 21 25 27 26 24 25 25 24 24 22 25 28 26 26 21 26 22 25 21 18 33 19 36 19 24 21 25 26 28 29 17 28 25 27 28 23 28 16 20 14 20 16 24 25 30 28 24 27 26 25 21 21 20 22 21 28 24 14 22 14 23 22 23 26 25 22 30 24 22 24 27 29 25 20 28 23 21 25 28 21 28 30 22 27 22 21 24 26 20 21 22 30 22 28 19 25 23 25 18 23 24 19 26 28 29 21 25 25 26 26 20 29 19 28 20 27 18 28 25 24 25 22 28 20 27 21 22 24 25 20 26 28 29 29 31 27 33 28 22 19 26 21 25 25 28 32 22 25 18 27 30 26 29 24 20 24 24 23 19 18 23 26 22 27 21 32 18 17 27 25 25 25 22 20 26 28 21 30 22 28 28 27 23 18 27 24 27 16 12 32 27 15 21 23 16 17 28 26 17 24 24 17 22 27 19 24 22 25 20 22 20 23 19 26 23 16 22 30 26 28 26 21 27 25 26 24 25 17 25 21 30 20 24 19 22 33 20 24 25 22 23 23 24 15 26 22 21 17 16 19 21 29 24 17 21 22 25 23 25 31 21 24 18 20 25 29 26 26 22 27 32 36 28 31 32 18 25 24 27 26 23 21 21 27 23 24 28 22 17 24 21 23 16 21 24 24 27 19 18 22 17 25 22 28 18 28 19 23 23 34 24 25 24 27 32 24 23 19 20 33 24 21 22 25 30 24 15 26 31 17 32 22 22 19 26 20 16 20 31 19 26 26 23 12 26 21 23 26 31 18 14 18 27 25 7 29 26 22 17 29 21 15 24 40 31 29 27 18 19 30 21 25 22 24 34 26 24 28 26 30 23 25 31 14 22 20 31 28 28 27 26 24 15 24 34 18 22 13 23 18 20 19 20 24 29 26 29 24 22 23 23 24 28 26 24 30 15 19 27 26 22 23 24 25 17 26 26 21 26 18 25 26 15 28 24 26 19 21 28 23 19 25 18 21 26 22 26 20 24 17 26 19 30 26 23 21 20 26 22 17 25 16 25 17 26 20 34 22 18 31 20 30 26 20 22 21 22 22 20 24 28 23 19 23 21 23 18 30 25 20 28 27 25 25 21 25 18 24 29 22 31 20 25 23 16 18 22 26 30 23 27 24 23 27 22 25 24 20 34 21 25 22 20 26 19 26 26 19 24 19 26 26 34 25 27 24 18 21 25 31 22 23 23 20 26 19 18 24 20 24 26 22 14 19 28 10 16 28 23 14 30 17 29 21 27 21 24 21 22 26 17 20 16 18 19 35 19 23 20 23 19 25 28 20 23 28 35 23 21 20 22 20 15 24 20 23 27 27 27 22 21 16 26 20 30 27 23 31 35 25 28 32 28 25 23 21 28 28 22 21 23 25 24 24 24 25 25 27 18 25 23 21 25 22 21 32 27 22 29 31 30 24 29 21 20 34 26 26 22 21 26 33 23 25 23 24 14 15 20 23 19 21 20 28 25 25 24 28 21 26 18 29 19 29 17 20 25 18 20 22 23 14 23 19 29 15 21 21 20 24 16 25 27 23 27 24 24 23 26 22 17 18 14 20 18 33 28 19 23 23 26 21 30 21 17 16 30 20 27 26 25 25 18 19 30 21 27 20 19 28 18 26 30 24 23 24 30 23 22 27 23 27 24 14 22 16 28 27 18 28 24 25 29 22 20 26 12 25 30 24 19 22 24 25 22 17 25 23 26 29 26 23 29 16 27 21 23 20 25 16 27 29 26 29 21 32 23 23 23 20 19 25 17 16 31 17 21 16 25 30 14 27 15 25 28 23 24 35 23 27 29 22 19 20 23 18 27 26 27 17 16 30 20 22 16 19 23 26 26 28 21 25 19 31 23 20 21 17 25 23 17 22 25 26 32 26 20 18 27 24 24 16 24 21 25 20 29 25 29 25 21 28 29 20 16 26 17 21 25 22 24 18 20 24 24 18 29 31 26 25 27 22 18 29 27 23 16 30 31 27 24 27 16 21 26 16 19 19 17 21 17 27 23 22 34 20 21 25 26 25 17 24 18 30 25 27 22 34 18 26 24 18 28 32 27 23 26 20 24 17 17 24 19 25 21 21 30 25 24 21 22 19 23 27 30 22 17 18 25 15 29 28 22 19 21 27 24 24 23 19 23 28 29 22 22 33 27 22 21 18 27 22 22 25 18 31 23 27 23 30 24 25 26 25 19 18 21 15 32 23 33 29 21 20 26 26 22 29 20 36 25 21 24 24 27 19 25 20 33 36 23 29 20 23 25 20 28 26 24 26 21 18 23 27 16 28 23 28 29 26 16 19 18 27 31 18 27 23 24 20 27 20 24 25 22 26 23 20 32 19 23 30 27 22 28 22 26 27 20 27 17 30 20 28 28 25 30 21 18 24 16 28 15 28 27 26 19 28 15 23 25 28 34 18 27 26 27 24 28 24 22 20 20 21 24 18 21 17 25 26 30 25 25 20 20 18 23 22 19 22 25 20 27 29 26 24 15 24 22 13 23 23 23 19 27 21 21 21 24 26 31 27 18 22 28 24 24 27 20 17 29 23 24 20 31 18 27 29 22 25 20 19 27 21 22 15 22 24 27 24 24 23 22 15 29 25 29 27 28 20 24 26 20 24 22 23 19 25 16 24 25 24 20 19 25 23 20 28 16 20 28 12 20 28 20 21 19 22 22 26 23 21 18 25 23 23 22 24 23 23 22 26 22 21 25 17 18 21 22 27 26 22 18 18 24 21 27 23 31 24 24 21 23 23 19 24 24 29 22 30 28 22 18 22 24 26 25 19 24 24 23 23 23 25 15 15 35 22 28 30 12 26 21 29 21 23 18 23 19 25 17 19 31 29 21 26 23 19 24 14 25 21 23 21 30 23 28 23 28 23 14 30 22 24 25 29 24 22 25 28 19 25 27 32 25 21 24 17 29 19 20 30 22 21 28 20 32 21 22 20 20 30 23 15 28 28 25 25 17 23 32 20 26 23 20 24 30 29 24 21 20 22 26 25 22 31 22 26 21 20 22 27 19 27 22 34 23 21 16 24 16 26 34 22 27 24 20 18 17 24 19 25 27 27 22 20 14 30 21 28 13 20 29 25 27 23 22 19 30 32 18 22 20 28 20 23 20 25 24 24 17 31 23 20 27 23 28 27 21 23 23 22 32 28 24 31 21 18 19 22 16 21 25 23 23 19 26 20 13 25 29 23 26 16 17 31 25 23 28 20 24 25 24 26 23 19 22 31 27 18 27 23 32 20 13 16 18 21 14 27 29 24 29 16 21 29 22 26 16 26 20 31 20 24 22 24 21 15 29 20 23 21 23 23 23 28 22 29 22 21 18 30 28 14 25 34 27 25 15 24 24 22 30 32 17 15 28 28 22 19 31 17 19 22 21 22 22 21 27 29 32 13 22 19 20 11 25 18 22 17 24 29 30 18 30 15 21 19 21 30 27 23 17 30 24 27 25 28 21 41 17 23 23 28 21 23 20 20 18 27 23 22 31 32 24 18 30 26 24 20 21 16 26 21 18 15 25 25 21 22 26 19 25 25 20 19 19 15 31 25 29 22 21 28 24 21 28 28 23 19 22 17 24 21 21 24 23 21 17 20 23 18 25 28 22 27 16 21 28 21 24 14 22 17 22 20 19 17 19 20 20 21 24 24 24 21 27 21 26 22 26 17 29 28 29 27 23 23 23 25 21 19 23 19 17 17 28 23 19 26 21 25 22 21 21 20 22 19 25 27 25 26 24 34 26 20 15 32 18 20 23 23 29 17 28 24 21 17 22 15 16 25 31 27 19 26 19 26 13 32 24 16 18 26 29 17 17 17 28 18 22 19 13 23 22 28 22 18 23 21 28 22 17 21 26 22 23 27 20 13 24 29 27 24 25 25 17 25 36 26 23 20 27 31 28 20 22 27 22 29 24 24 20 22 19 16 30 25 31 22 32 24 18 19 24 17 21 31 20 25 26 28 20 30 19 26 14 17 19 22 20 26 24 24 29 22 21 28 16 26 28 26 28 22 27 22 22 25 29 19 18 20 23 33 22 21 29 19 23 29 23 30 19 19 34 29 24 31 20 25 20 21 25 26 25 22 26 25 17 24 23 24 31 21 23 22 25 18 23 22 22 21 25 21 19 23 29 19 28 19 23 24 25 26 24 24 19 30 26 18 18 23 28 22 31 29 29 15 22 23 28 23 26 31 26 23 25 25 16 19 29 26 23 37 24 28 23 12 18 25 25 29 27 35 17 26 14 27 23 19 30 21 19 23 29 23 19 26 23 24 26 22 20 29 19 25 16 30 15 24 30 20 25 22 29 38 32 21 25 20 22 16 23 25 28 26 18 23 30 21 31 22 31 16 20 24 33 19 24 20 21 27 23 9 20 20 30 24 30 27 24 24 28 24 24 20 30 23 26 24 27 25 34 28 30 25 27 28 25 23 28 19 31 21 20 21 28 22 21 26 23 21 22 28 29 27 18 26 13 31 19 21 16 26 26 23 21 27 14 27 22 19 28 24 12 18 24 26 16 31 24 17 23 26 21 24 21 26 22 27 19 23 21 25 23 19 17 36 25 27 31 22 29 30 23 17 21 24 26 20 24 30 22 23 27 25 31 27 16 22 18 22 19 32 19 27 22 22 17 27 24</t>
+  </si>
+  <si>
+    <t>JSU(-2.543751053920471, 5.8927141376083085, 21.510304240448605, 31.35890522323791)</t>
+  </si>
+  <si>
+    <t>40 32 50 33 38 28 25 25 31 41 27 32 33 37 29 27 32 33 33 27 28 31 29 43 39 24 29 26 38 40 31 39 48 29 32 47 30 41 31 34 36 40 47 37 48 34 38 26 30 31 32 33 33 30 17 34 28 38 36 32 34 41 27 33 30 33 32 40 40 32 36 37 43 36 39 33 39 32 36 34 32 42 32 32 37 32 36 31 22 33 32 39 36 45 41 39 31 44 42 39 41 31 37 40 36 29 30 32 35 43 34 35 34 32 37 41 37 45 35 40 43 44 35 37 42 36 39 36 34 35 36 33 33 32 35 42 27 37 31 29 38 33 32 36 36 46 29 32 30 46 39 29 37 28 34 44 44 32 54 46 46 37 27 50 35 28 32 34 39 41 37 32 41 33 44 49 33 22 42 53 35 24 26 35 36 29 30 30 34 43 39 30 45 27 36 34 26 40 34 37 51 36 26 29 41 24 31 44 36 32 31 35 34 35 34 32 39 40 47 40 37 32 47 40 40 35 36 30 33 43 27 32 43 38 40 43 37 42 25 37 32 31 40 35 42 38 40 30 28 41 40 38 29 31 29 37 43 24 39 44 33 27 37 31 39 36 35 39 34 33 35 34 29 36 47 32 38 51 35 36 40 30 39 32 32 39 44 37 39 35 40 38 36 36 35 47 51 35 42 48 31 39 35 40 33 34 34 36 41 42 27 33 38 42 33 36 35 47 36 31 41 32 31 35 32 41 43 39 41 34 31 38 42 38 34 41 34 33 29 40 41 33 31 32 32 44 38 33 26 42 26 26 32 31 32 32 40 34 39 39 53 47 32 32 34 30 37 41 35 30 36 23 48 32 37 42 45 35 36 40 33 39 32 26 32 35 33 28 34 35 39 31 35 44 34 35 41 41 30 41 36 42 44 42 40 31 34 23 31 40 47 41 32 48 23 36 35 31 35 36 31 45 35 44 28 37 36 28 28 47 36 38 43 25 38 33 37 35 43 30 49 37 39 37 35 29 35 33 38 40 28 30 35 31 44 36 37 39 37 31 35 29 28 32 33 31 35 47 38 42 28 42 33 33 34 31 37 41 34 35 31 42 37 31 27 43 38 30 52 34 43 34 29 32 41 29 32 36 32 38 35 30 30 28 29 41 46 32 38 34 29 50 29 39 38 33 30 29 30 35 43 36 38 38 26 24 24 27 35 36 25 35 35 35 46 47 25 39 40 37 38 42 34 33 35 36 32 31 30 38 33 43 31 36 34 46 42 36 34 49 32 39 40 33 49 35 31 28 33 45 39 29 36 34 38 23 26 35 37 40 27 34 40 37 45 33 44 42 28 33 31 34 39 42 31 35 30 43 29 36 18 34 39 36 31 30 30 38 38 51 36 37 36 31 36 37 38 50 25 33 29 39 32 33 28 40 30 33 41 41 27 47 38 35 35 32 46 30 37 32 36 40 36 42 40 33 44 33 36 37 35 42 42 27 32 41 26 46 37 22 29 37 33 45 37 32 25 35 38 48 40 36 31 25 33 40 33 36 35 32 34 51 45 35 35 31 38 50 43 48 37 39 36 42 38 30 33 35 35 28 25 36 36 32 48 33 37 44 43 33 32 36 42 37 29 37 38 47 41 33 38 31 32 25 30 30 37 33 31 33 31 40 29 40 50 30 45 31 32 37 35 29 29 41 27 43 39 40 34 43 30 31 42 34 39 38 35 36 34 46 30 41 36 39 48 42 39 40 30 35 33 40 32 37 35 32 36 26 29 38 34 21 37 37 41 21 33 46 40 28 29 40 29 39 36 34 40 40 36 40 37 40 42 36 36 38 36 46 41 42 36 45 43 36 29 36 28 37 35 39 27 38 27 32 38 38 36 39 31 45 41 36 34 38 38 53 38 43 42 38 39 35 31 38 34 32 52 24 37 32 32 37 39 34 31 30 36 32 46 29 28 37 30 39 33 30 33 28 30 30 27 29 26 33 35 32 32 34 24 37 38 29 31 44 34 35 33 45 38 26 32 38 26 38 31 38 32 39 34 50 35 32 33 38 41 35 28 28 31 41 38 31 36 33 27 29 43 31 37 34 33 47 36 43 36 34 42 25 23 27 31 37 35 26 26 40 40 34 33 37 32 52 46 36 39 34 42 38 22 45 38 46 40 38 27 35 32 42 41 36 25 36 23 42 31 29 37 32 32 36 33 35 31 33 37 40 32 39 28 35 28 37 35 35 34 43 44 33 36 41 34 28 33 41 33 31 41 31 34 41 36 40 36 32 24 31 53 40 43 37 41 43 33 43 45 33 31 32 38 35 28 48 38 19 38 37 41 39 38 39 31 35 33 30 33 39 34 38 36 46 39 39 39 22 29 41 43 39 35 28 37 30 42 38 44 36 27 36 46 38 41 36 34 34 42 38 41 33 44 25 29 41 26 34 39 41 36 31 33 37 41 30 38 34 28 32 35 38 35 41 42 42 30 30 28 40 38 34 40 34 32 44 32 42 31 38 40 38 36 37 33 27 33 40 32 40 39 35 31 35 38 30 39 20 33 44 44 37 24 31 46 37 28 36 42 38 37 36 36 33 36 45 30 47 47 35 41 30 41 43 47 31 34 22 33 33 52 35 32 47 43 26 39 40 31 45 38 37 30 39 45 38 33 35 42 29 31 29 35 32 26 47 36 33 41 38 30 41 42 46 28 31 43 38 35 31 31 41 40 30 33 28 38 37 36 33 29 37 37 26 40 33 43 42 32 35 40 36 29 34 36 31 33 35 24 41 32 22 32 38 31 38 36 37 40 30 32 40 35 31 40 28 53 30 37 29 45 30 33 31 36 39 41 39 31 34 27 20 35 27 28 34 39 32 31 30 23 30 31 37 37 37 34 32 35 37 43 28 37 38 36 40 38 46 38 47 42 31 30 37 39 38 35 32 38 31 27 37 30 44 38 30 32 29 32 26 40 40 36 37 31 31 39 41 33 32 41 24 38 36 26 38 35 33 31 38 46 40 37 38 40 45 33 35 40 33 43 31 43 38 34 37 34 36 38 42 38 36 33 30 26 33 40 33 35 39 36 39 32 37 32 36 34 45 22 37 26 36 40 44 46 29 43 30 33 32 34 50 33 48 34 37 27 39 47 36 36 32 31 35 31 29 37 25 31 36 41 39 34 28 33 26 32 35 26 31 36 36 43 39 38 23 39 25 43 46 30 34 36 35 30 23 36 31 42 39 37 37 39 34 41 23 30 35 37 26 31 42 38 34 30 38 30 31 43 28 32 36 31 32 46 40 30 35 29 28 44 38 44 36 29 32 37 45 31 43 34 32 17 38 35 47 33 35 35 46 39 34 32 29 40 28 34 33 27 37 32 29 40 37 35 39 34 36 36 41 38 29 31 41 43 37 23 33 29 40 30 34 33 35 35 45 34 26 40 33 28 26 29 42 34 35 32 35 34 43 40 27 26 40 40 37 28 44 38 44 32 23 34 43 53 31 29 35 30 42 46 35 41 36 35 24 34 33 37 28 37 36 33 29 39 28 46 31 39 32 37 31 34 29 36 29 32 40 38 45 38 32 36 26 42 35 38 35 36 43 29 38 38 30 35 39 40 40 40 34 44 46 23 29 36 33 26 35 33 40 30 27 33 36 29 27 34 32 36 27 39 28 29 28 52 26 39 40 33 30 30 38 33 28 41 41 30 33 39 38 37 32 31 32 40 33 36 38 43 41 35 36 38 28 46 39 42 32 35 37 40 35 35 38 35 32 44 36 31 28 33 30 36 35 31 46 37 30 41 29 32 39 33 36 31 37 34 28 43 32 37 39 49 34 27 41 29 32 28 50 45 27 23 40 35 31 28 51 32 38 42 30 33 45 35 29 44 36 35 48 33 42 34 35 32 25 41 29 42 31 40 31 37 38 41 40 40 37 31 41 40 33 36 38 40 30 32 32 26 21 46 28 42 35 34 38 26 36 39 45 35 31 43 39 48 48 30 34 33 36 33 31 42 35 37 34 36 31 35 29 33 31 26 33 35 32 44 41 30 26 36 36 46 45 41 35 37 32 35 26 38 35 31 33 36 41 32 48 37 33 30 38 39 25 38 31 32 40 41 36 36 34 45 36 35 43 39 34 40 31 35 41 40 30 35 43 41 31 34 36 28 33 37 34 24 34 30 43 42 35 34 21 31 36 41 35 32 36 43 35 35 39 32 42 28 38 33 30 39 31 32 34 33 34 39 39 30 36 29 39 37 35 39 34 33 42 28 39 28 40 42 48 32 44 46 35 41 30 41 32 36 28 35 47 17 42 30 37 42 42 24 35 41 29 33 41 29 39 41 33 35 27 37 37 35 35 37 45 42 24 36 45 36 31 39 44 27 34 34 34 30 37 41 40 34 34 38 37 34 33 34 29 33 32 28 37 27 37 37 42 53 37 43 35 35 35 37 32 35 33 48 23 37 39 32 34 27 39 38 40 30 38 36 33 33 33 31 36 33 37 50 36 44 37 34 33 40 39 45 28 29 38 53 41 29 34 42 31 36 35 43 42 46 36 42 28 26 31 37 39 35 44 52 33 27 37 42 27 34 38 33 40 30 44 39 34 33 31 36 32 39 34 30 22 38 44 33 41 44 43 36 30 43 31 28 32 41 37 35 30 45 36 34 40 34 24 38 36 33 33 40 35 37 42 34 46 33 45 33 31 35 34 39 35 31 40 42 31 35 40 31 36 43 47 38 40 32 38 28 28 43 41 32 29 32 28 31 40 35 40 38 33 35 32 41 42 29 35 34 32 36 32 28 32 27 37 33 40 44 31 28 41 25 32 41 28 40 39 39 41 38 25 28 29 31 40 40 36 35 40 35 32 27 41 41 25 32 35 43 30 26 37 27 32 42 35 36 31 23 39 38 33 42 37 39 38 39 47 39 39 39 37 26 43 37 46 29 42 40 39 38 29 32 29 39 35 29 45 40 42 39 32 40 36 43 29 33 40 23 34 37 42 39 35 34 40 28 31 49 31 34 39 38 32 42 39 35 32 42 37 39 29 33 41 28 26 37 33 39 32 34 42 32 32 37 40 38 31 45 25 41 44 33 46 32 31 36 32 34 32 37 37 47 34 52 36 43 33 33 26 48 42 29 37 37 33 41 17 24 40 39 36 39 38 16 37 34 36 32 40 44 32 36 33 28 49 33 37 33 27 42 42 43 49 30 37 45 41 41 25 39 36 29 38 40 42 23 33 34 45 26 51 33 43 40 36 24 28 36 36 42 40 32 21 37 34 39 34 26 25 31 31 36 45 49 42 28 37 40 45 36 37 34 38 32 32 38 33 22 41 33 42 34 29 36 42 41 43 34 42 42 46 31 31 34 31 40 43 37 43 37 41 32 34 32 41 29 28 35 48 28 37 40 34 23 31 29 33 46 28 30 31 33 46 39 24 39 30 37 38 31 33 35 31 46 32 35 53 33 37 27 28 42 39 37 18 41 36 37 37 29 39 32 37 34 25 39 37 36 36 40 39 33 22 31 34 36 34 31 48 38 28 35 34 32 38 34 40 33 31 25 22 31 38 34 39 37 33 36 28 44 50 39 34 32 48 28 37 38 36 32 34 42 27 34 38 28 46 31 31 35 42 28 36 35 30 30 37 27 25 30 30 34 40 36 38 29 42 41 44 40 39 35 34 23 42 35 32 35 33 37 38 41 33 37 47 27 44 33 42 35 40 36 27 24 35 43 32 39 43 36 40 32 37 35 27 23 31 39 47 35 25 44 43 36 34 37 27 45 38 26 32 39 34 38 32 39 36 31 47 33 35 27 33 37 37 36 29 24 34 26 36 26 37 31 45 24 34 45 40 32 37 30 40 34 32 42 35 37 36 34 28 26 31 43 34 43 35 36 42 35 35 34 40 42 40 37 30 37 35 29 27 39 44 40 35 32 35 32 38 38 24 43 32 40 36 36 45 34 37 32 24 37 40 37 30 40 35 34 31 30 30 42 57 49 25 37 39 40 34 40 33 22 30 31 36 31 32 27 31 34 39 38 20 49 35 45 26 43 32 31 33 34 31 32 27 35 39 29 36 34 33 25 26 32 34 43 39 30 36 44 36 29 37 36 36 27 33 31 33 26 37 37 46 42 38 36 29 29 32 40 35 41 40 36 31 39 42 35 27 42 38 35 32 35 39 45 34 38 47 43 35 35 30 34 23 40 33 38 35 40 26 39 46 35 27 44 32 46 38 33 36 41 34 31 31 45 38 34 35 31 29 35 33 40 35 41 40 36 30 45 36 34 33 29 47 22 29 39 31 27 29 43 37 40 38 43 34 27 39 39 45 35 28 36 36 41 30 38 30 27 35 29 23 42 50 33 30 37 43 28 34 44 39 36 22 35 30 37 31 32 34 29 28 45 28 32 42 40 41 36 27 41 35 35 48 32 34 38 37 36 37 35 42 31 28 35 38 36 41 34 44 38 28 31 38 30 42 40 43 42 34 41 40 32 41 39 39 22 22 31 20 33 27 40 39 35 40 30 33 32 34 24 32 40 31 40 51 31 35 40 40 35 35 37 50 30 32 39 36 33 38 37 47 28 53 34 32 37 37 39 27 43 31 36 32 32 27 40 41 40 31 49 42 44 35 31 40 35 38 33 39 29 35 31 31 35 31 37 31 37 44 43 43 49 40 30 34 42 52 36 47 38 35 31 31 40 40 37 32 34 29 32 44 47 39 34 36 34 44 34 34 36 36 28 42 42 34 21 28 37 32 37 39 24 30 31 33 25 38 45 46 41 29 29 37 38 26 28 26 34 28 40 35 41 38 41 30 31 36 40 36 35 37 32 34 28 32 46 36 43 34 43 33 39 33 28 35 32 33 35 35 33 34 38 27 32 46 38 33 38 35 31 32 32 30 23 40 37 26 40 36 35 39 29 40 39 56 45 36 29 41 31 36 31 43 41 36 41 36 28 36 41 29 37 29 38 29 36 26 40 34 42 31 42 35 34 31 35 33 34 43 25 39 36 37 36 45 36 39 40 39 31 33 27 30 29 37 36 32 35 33 29 35 38 39 38 31 32 37 43 43 30 24 33 45 47 39 42 36 42 39 35 29 36 34 33 39 33 48 36 26 45 36 36 33 41 48 34 33 37 33 27 30 42 29 37 32 36 39 28 31 33 40 35 32 32 39 33 45 32 42 33 42 33 27 36 46 31 39 31 37 38 32 38 36 33 34 28 32 38 39 44 43 44 36 34 33 31 24 27 37 29 55 29 24 26 42 36 27 35 38 37 37 34 44 36 48 38 36 39 36 39 40 32 29 33 31 27 37 32 29 42 34 31 37 31 40 34 47 43 33 50 36 40 31 36 34 35 29 31 38 35 45 37 34 28 31 34 24 27 27 22 36 42 46 49 21 41 30 40 46 38 37 35 30 45 39 33 39 39 24 27 28 34 39 30 32 28 46 43 32 35 31 39 39 32 38 30 31 41 36 36 38 39 39 28 28 40 32 36 41 42 31 32 34 46 32 51 30 38 35 40 31 35 44 25 22 30 39 38 38 38 40 27 42 40 48 32 37 36 30 28 28 28 44 31 31 37 40 43 37 36 37 39 39 41 34 36 24 27 34 38 35 41 39 32 47 33 23 26 31 30 31 49 36 30 37 35 35 44 35 30 40 42 36 33 28 35 34 34 37 33 28 37 33 39 29 38 35 26 27 35 37 28 40 34 36 28 35 33 36 32 31 35 31 44 41 37 37 39 37 38 36 32 38 32 36 42 29 37 29 40 43 35 36 35 36 35 43 44 35 46 48 38 31 39 33 31 29 34 26 25 39 33 39 45 33 42 25 32 44 47 34 28 40 34 39 35 35 36 33 40 34 28 42 34 43 34 35 44 27 38 40 30 30 38 35 37 44 32 35 32 41 28 29 51 42 46 32 42 30 39 38 36 49 44 32 27 42 45 35 48 42 38 36 28 34 32 34 38 30 32 23 34 46 37 23 32 43 29 25 49 47 38 32 37 38 30 37 29 39 44 49 29 41 44 34 39 50 37 37 41 35 37 50 32 40 34 48 33 42 49 42 36 39 35 31 33 40 37 25 39 34 34 33 35 37 40 46 38 27 35 42 40 40 31 36 34 38 37 34 34 28 49 36 26 44 39 30 29 41 34 40 40 39 30 35 49 41 30 40 44 35 29 39 34 36 46 35 39 32 36 31 39 34 42 30 37 34 38 44 33 47 37 33 30 37 28 42 40 37 34 34 40 41 27 40 32 34 43 37 40 32 30 34 35 32 46 35 34 37 36 39 38 26 40 34 36 32 30 44 46 28 29 39 33 31 29 36 34 35 35 39 38 37 45 44 29 32 42 29 31 26 43 38 33 32 37 32 28 39 34 48 40 43 33 25 29 36 30 28 29 48 43 27 41 26 30 32 32 30 30 28 38 22 35 37 33 33 37 32 31 40 34 32 34 34 41 35 30 39 28 34 42 40 35 18 42 36 37 44 30 33 38 33 35 30 34 35 58 33 36 35 27 34 29 29 37 26 51 36 40 37 29 33 34 45 34 32 22 39 33 27 32 34 43 33 38 47 32 36 32 25 35 33 31 23 30 47 41 27 31 38 36 31 48 40 39 27 34 45 29 36 33 44 43 46 21 33 45 34 35 39 42 32 34 31 35 40 37 29 37 30 42 37 37 53 36 40 46 44 33 39 32 33 39 31 44 46 35 32 38 38 36 40 27 42 41 52 37 31 27 41 45 28 34 44 39 33 44 37 33 24 36 37 31 35 27 34 32 38 29 32 45 39 44 42 32 41 32 37 46 34 38 44 40 40 35 50 33 35 41 33 36 34 43 39 39 39 35 32 28 31 45 36 37 35 29 44 41 32 40 43 38 36 41 35 36 44 38 32 39 37 32 42 22 48 40 37 31 32 28 42 37 33 38 48 33 40 31 40 33 27 35 46 32 33 45 37 34 30 45 42 35 39 42 25 43 25 37 38 34 34 38 34 30 32 39 34 40 33 44 30 27 37 44 41 32 32 35 32 33 34 42 49 30 36 41 36 31 30 38 31 27 35 28 35 33 39 36 40 31 34 33 33 35 29 26 33 34 37 36 33 36 41 40 33 33 30 31 27 28 39 35 38 37 37 37 31 35 40 41 39 30 25 25 36 21 45 37 34 30 39 38 35 34 35 36 36 40 35 20 33 39 39 47 33 44 34 31 34 33 23 36 43 25 27 30 33 32 44 39 32 43 40 42 36 30 32 39 39 36 39 32 35 32 34 26 41 35 27 38 37 28 34 34 41 36 34 33 43 36 42 36 32 33 33 28 41 33 26 35 33 33 57 20 48 30 40 39 32 37 47 39 30 30 39 37 29 36 52 40 35 37 36 33 31 38 38 31 30 35 58 42 30 28 47 30 35 47 36 30 35 38 44 40 32 32 37 36 32 32 36 42 39 55 22 35 35 37 40 28 33 37 36 48 38 56 46 45 41 43 32 24 45 31 27 36 33 43 31 25 44 40 38 40 39 27 38 41 39 43 37 35 37 42 31 37 21 32 38 31 32 43 42 33 34 33 32 29 35 32 31 30 35 37 43 45 38 32 35 35 33 44 37 26 40 36 32 38 38 25 36 45 41 30 37 48 36 40 31 39 40 30 36 37 37 34 30 44 43 32 29 34 38 41 44 36 42 33 40 36 31 55 37 39 40 43 37 30 39 32 30 43 34 40 33 31 35 39 30 44 36 40 25 24 33 37 35 34 34 36 34 38 41 38 44 50 34 25 39 30 39 31 35 39 31 45 48 28 42 30 35 38 31 36 37 42 44 37 33 25 25 24 29 36 28 40 37 50 35 32 32 46 36 34 34 38 33 28 37 44 39 38 34 26 40 33 37 37 29 41 35 38 44 39 29 33 37 35 47 30 33 38 39 23 36 43 35 39 35 30 25 40 39 33 30 34 36 29 42 37 39 42 34 34 26 41 53 40 32 37 34 32 31 35 41 37 37 23 24 32 35 30 35 37 41 32 36 34 41 39 57 34 34 36 37 31 50 36 40 41 31 34 30 37 35 44 40 29 38 30 37 31 29 38 37 37 30 31 37 37 33 29 32 32 45 25 35 53 43 30 35 48 42 39 29 39 38 37 39 27 38 33 42 31 29 28 36 44 42 30 27 46 37 30 32 31 28 35 38 35 34 35 35 23 38 24 41 31 42 40 46 31 37 33 30 47 33 31 26 40 33 31 23 42 36 33 35 30 43 34 29 35 28 29 28 23 41 37 38 41 33 57 35 26 39 41 40 39 38 46 31 33 38 44 38 27 38 32 31 40 21 33 32 38 41 40 44 43 35 33 35 37 39 32 31 42 31 35 37 36 32 48 43 35 35 37 32 39 45 38 39 39 40 31 34 41 33 37 45 45 40 30 34 35 24 39 29 41 38 29 35 31 31 42 35 37 38 41 32 27 38 33 45 38 35 48 29 37 34 33 34 35 41 40 26 37 34 32 41 36 34 39 35 40 51 38 41 42 46 29 40 37 40 31 33 38 45 46 30 44 31 36 31 34 41 31 34 38 30 28 30 40 37 37 44 41 32 39 33 39 38 33 32 34 42 48 45 41 47 35 31 39 37 37 33 29 32 38 44 34 45 27 36 48 26 40 39 39 27 35 50 38 39 45 43 33 36 31 35 30 35 37 34 35 39 42 41 32 32 34 31 31 36 36 30 39 36 39 47 47 34 40 34 31 41 44 32 39 44 32 31 37 34 30 32 31 29 31 32 32 33 36 31 38 40 33 32 35 37 38 44 37 46 36 35 43 20 34 44 40 33 27 34 39 33 34 29 34 33 29 33 36 35 34 39 46 35 35 43 40 44 41 28 42 52 42 39 37 39 43 37 36 50 29 30 42 24 41 40 31 36 35 28 32 23 34 41 42 41 28 29 34 41 32 50 36 39 31 35 41 43 32 43 40 32 25 42 35 30 31 37 39 35 36 31 33 39 30 30 33 30 27 35 32 36 23 41 31 43 41 33 34 34 38 37 43 37 40 33 43 29 26 33 30 34 38 36 43 23 39 39 36 37 38 46 37 44 41 27 42 31 45 37 30 25 33 34 33 38 40 36 28 33 29 35 39 29 31 57 32 27 37 47 34 31 35 46 27 42 31 39 31 40 36 39 40 35 36 35 35 41 32 37 41 37 32 36 33 40 37 33 35 32 30 47 41 42 36 38 38 30 35 39 36 45 37 43 45 35 41 30 40 39 46 35 36 41 32 35 37 35 33 37 37 21 39 52 34 27 29 37 41 37 34 35 36 45 33 53 34 35 45 38 35 32 34 35 33 40 39 39 47 38 32 34 44 39 33 45 58 33 34 36 33 33 29 37 29 41 50 27 31 40 35 32 51 36 39 39 36 32 36 31 30 37 29 36 36 40 35 28 22 36 50 31 40 31 41 32 43 39 26 35 38 41 31 35 34 38 33 32 29 42 32 34 49 44 26 32 31 29 32 39 32 38 37 24 28 30 40 26 39 30 36 36 37 33 41 43 32 43 29 35 27 38 40 41 41 29 37 39 33 35 31 31 42 38 23 38 38 45 37 40 41 36 36 42 31 44 29 35 41 43 29 35 38 45 25 29 34 30 31 37 41 37 47 26 46 31 34 36 50 33 35 40 33 31 37 36 25 64 42 46 24 38 36 35 41 34 38 31 27 30 43 28 30 36 34 45 44 37 34 40 34 33 32 37 35 29 34 51 28 34 42 33 38 38 47 37 36 50 41 31 26 25 39 29 38 40 40 35 43 45 42 34 41 46 38 41 40 34 38 38 31 41 32 30 33 33 38 33 32 29 30 43 39 35 29 40 52 26 42 44 52 31 31 27 37 33 25 32 37 41 41 36 29 51 29 38 44 38 39 44 39 35 31 44 39 31 46 32 44 36 48 42 49 31 36 34 38 55 37 37 37 38 33 38 37 28 33 28 40 30 28 41 38 38 36 37 42 45 36 38 39 40 42 41 29 31 45 42 35 33 30 26 38 34 42 35 24 41 39 34 37 37 37 38 26 35 33 23 42 34 27 34 41 36 31 27 41 30 38 39 38 31 37 44 37 40 32 34 32 45 35 28 35 30 34 42 34 30 32 42 42 35 34 32 37 37 37 33 32 33 39 47 37 44 31 41 39 48 37 44 37 26 26 34 30 48 35 31 32 32 27 32 45 29 34 39 26 40 31 39 27 43 34 41 40 24 33 37 30 34 27 35 32 50 35 33 27 30 32 39 34 42 37 35 42 46 50 32 37 41 42 37 36 34 36 37 34 22 33 32 33 38 38 30 31 30 33 38 42 38 29 40 32 38 42 45 32 37 41 37 29 34 35 38 42 22 31 34 34 42 38 30 48 46 39 49 37 32 28 36 39 27 36 38 38 27 34 46 24 40 45 30 28 24 43 31 30 36 39 43 58 33 45 36 35 37 46 25 37 35 33 34 35 35 27 29 46 39 40 36 37 42 30 39 34 34 32 30 34 34 33 34 37 36 31 33 27 43 29 36 37 40 41 38 37 31 30 31 44 39 34 37 38 32 28 33 29 43 37 27 34 30 35 34 37 39 33 38 38 33 31 27 35 39 28 27 44 39 34 30 41 35 40 45 37 38 26 31 41 37 34 36 33 33 38 38 39 42 56 37 38 40 37 44 33 37 38 30 38 42 35 35 36 32 33 44 28 29 32 34 33 38 44 35 37 31 33 41 37 37 29 32 36 43 45 37 42 38 38 48 32 32 28 25 32 33 38 32 35 38 32 40 33 37 35 24 37 34 34 31 30 31 41 42 34 39 42 36 22 38 38 44 31 35 32 26 44 44 36 42 43 41 33 34 36 27 38 29 34 26 29 38 40 53 40 28 27 42 33 36 35 33 44 25 32 38 40 34 45 34 41 30 36 43 36 30 31 42 41 38 43 40 28 33 37 34 42 37 26 40 28 39 51 32 50 32 28 30 32 34 38 41 38 33 34 32 38 42 38 35 38 37 41 39 43 36 29 34 35 29 33 47 46 43 31 28 33 29 30 37 35 42 42 34 32 31 41 29 41 31 37 45 34 34 30 35 39 39 29 39 34 33 28 36 34 28 50 34 31 53 39 43 41 30 30 31 32 35 33 36 24 35 27 48 31 48 28 29 32 47 41 31 33 27 38 35 31 42 36 30 35 34 36 41 51 36 38 26 37 31 45 42 36 32 39 34 31 33 36 32 35 35 36 24 27 36 31 30 38 34 30 32 49 40 36 39 32 29 32 38 49 32 32 34 29 37 40 47 32 32 29 32 32 35 35 38 39 42 26 36 34 34 36 24 43 31 28 30 22 37 30 39 32 28 36 41 40 40 27 41 30 40 31 41 39 41 33 38 24 36 38 29 31 24 41 52 40 36 34 42 32 56 42 31 34 27 36 38 31 42 36 36 28 30 26 38 44 28 34 37 28 31 39 25 29 30 37 35 37 33 40 41 41 25 41 35 31 22 34 21 33 36 34 36 32 34 36 33 31 29 34 27 30 28 33 33 40 29 34 36 33 41 36 34 33 36 34 40 31 37 42 27 45 32 31 42 39 39 38 33 27 41 38 42 46 30 42 37 29 36 30 41 34 34 28 36 27 28 39 32 37 33 27 33 38 35 32 34 31 27 35 37 36 38 31 37 35 34 49 45 29 33 31 34 37 20 35 31 39 39 42 29 39 33 38 35 36 26 38 34 37 32 49 47 36 25 53 34 36 37 43 40 30 27 25 41 29 32 33 28 39 40 39 50 48 35 36 43 35 45 26 52 34 48 34 37 36 37 43 30 41 30 37 46 43 38 40 40 45 44 39 43 35 42 31 41 43 36 33 36 47 43 43 46 42 36 33 41 27 38 38 32 42 31 27 32 43 39 29 34 27 44 42 44 43 36 30 28 44 29 42 37 38 30 36 33 38 43 35 44 39 39 35 34 30 38 29 37 48 40 37 32 29 30 33 26 32 38 35 40 33 37 33 29 28 34 39 39 37 32 46 32 25 32 33 42 47 34 26 27 30 41 33 36 33 34 42 42 27 39 39 44 28 31 37 35 39 29 34 38 24 40 36 36 37 39 36 40 28 32 31 39 26 39 41 34 38 26 36 31 36 30 39 40 31 38 33 32 36 37 30 49 32 28 47 29 29 42 38 52 33 37 36 30 33 35 32 37 31 26 26 33 30 30 27 33 41 40 31 24 35 31 38 42 32 42 32 30 38 47 40 33 37 28 37 34 32 36 35 32 37 37 34 50 34 40 39 25 26 33 32 39 43 45 40 39 39 32 37 31 33 32 37 37 36 39 39 23 30 40 38 28 38 41 31 42 39 41 34 42 37 39 32 43 44 37 36 31 38 38 45 34 35 40 29 40 41 29 31 35 37 28 44 28 45 29 47 43 27 34 45 30 27 27 44 32 27 36 34 35 32 35 31 30 27 32 34 43 36 34 38 39 42 29 28 42 31 34 40 22 39 46 39 30 33 29 45 36 29 48 40 38 41 41 33 37 44 39 30 24 36 29 39 30 39 37 35 32 36 35 35 30 41 30 34 33 37 35 40 28 33 43 31 50 34 30 45 35 38 40 31 38 33 39 44 44 35 35 37 30 35 45 40 38 38 43 36 36 32 41 40 37 44 28 44 44 36 32 32 33 38 30 41 36 41 26 35 27 38 38 41 38 35 50 44 27 33 40 37 40 36 45 30 39 28 24 41 39 29 30 33 51 40 29 35 46 42 40 33 37 28 37 32 34 34 39 35 33 34 36 31 42 37 48 42 36 29 24 34 37 44 34 47 38 35 28 43 26 39 37 35 40 33 30 28 41 28 31 37 32 29 25 41 46 31 27 22 41 44 28 41 28 36 23 43 26 37 43 34 31 34 30 29 29 36 35 34 25 27 33 36 50 36 28 38 47 34 32 38 25 40 34 34 29 52 41 38 33 42 47 35 39 35 40 31 41 32 45 31 37 33 42 43 33 32 35 34 28 41 34 33 39 21 30 21 29 31 36 47 41 37 34 41 42 45 32 28 29 35 39 30 34 31 37 37 30 21 34 40 29 31 42 29 31 31 30 26 32 33 28 33 34 38 39 41 30 36 33 36 30 37 40 25 50 34 37 34 34 30 33 48 33 35 29 43 29 36 26 33 46 37 46 37 40 35 39 31 35 18 35 37 26 37 34 36 37 41 29 44 41 30 32 34 39 40 29 32 43 37 44 32 42 41 37 39 36 29 39 41 43 37 35 30 37 28 34 37 26 37 32 33 27 32 40 34 32 43 31 35 33 46 29 30 42 30 33 33 36 40 30 35 30 42 35 39 38 33 44 45 33 38 37 29 32 31 29 32 26 29 34 47 40 34 49 42 27 29 25 39 30 32 39 44 42 44 22 38 46 47 38 30 39 46 33 33 32 38 33 45 39 42 33 33 39 37 38 41 34 40 42 38 40 34 28 40 28 31 36 32 28 31 43 43 29 33 46 29 24 33 33 40 39 43 46 39 35 29 36 39 34 35 40 35 36 35 33 30 35 38 33 35 21 36 37 44 36 32 30 42 44 42 34 42 44 36 43 34 56 36 36 33 31 26 33 34 27 45 34 38 33 32 40 30 38 46 34 43 39 30 33 38 50 37 44 31 39 28 47 43 29 30 36 28 38 50 32 34 36 36 35 30 28 45 25 43 37 45 40 30 29 45 34 31 32 40 26 35 45 26 31 42 36 20 43 35 40 38 27 46 35 45 49 51 35 41 45 47 37 26 44 31 34 30 35 33 34 40 26 28 24 33 37 39 33 39 34 24 41 33 29 36 31 35 42 26 31 42 42 43 39 32 39 39 49 42 36 33 46 37 27 29 34 39 35 39 28 43 35 33 30 57 43 41 35 31 32 33 36 31 32 38 37 34 32 33 36 39 30 44 32 33 47 39 42 39 29 41 35 43 46 37 36 40 27 39 24 43 49 41 42 27 35 38 28 35 35 49 22 45 34 36 38 36 40 28 41 26 30 34 34 41 32 32 49 38 26 49 25 32 22 30 40 32 35 44 33 43 36 34 36 35 40 49 27 41 46 34 41 53 27 39 29 37 34 33 36 32 37 31 38 30 31 32 36 28 44 35 27 32 33 29 31 41 40 31 40 33 35 39 38 35 44 26 36 41 35 33 38 35 29 39 33 34 32 34 25 36 45 38 36 33 49 33 41 34 37 35 33 35 35 32 43 49 34 43 39 42 35 36 40 35 34 36 41 50 34 49 44 24 27 35 42 44 31 34 39 33 36 34 41 36 48 36 39 38 44 37 36 29 39 49 32 42 30 35 34 31 31 35 34 40 40 21 35 43 44 40 35 38 31 35 25 49 32 28 44 31 34 36 32 32 45 32 33 23 31 36 28 37 42 36 38 39 37 26 42 39 39 45 29 37 35 36 39 22 34 28 37 28 36 26 33 31 33 37 35 49 37 44 37 38 47 38 45 45 37 36 32 36 42 45 36 38 25 35 27 41 36 36 33 29 32 37 27 26 28 38 38 38 34 39 34 31 37 40 35 40 29 39 35 28 23 24 36 45 37 39 30 37 35 32 26 33 39 26 33 44 25 29 42 31 31 32 41 34 43 37 31 35 36 26 31 29 35 42 31 30 35 34 36 28 32 40 41 35 35 31 46 29 45 34 41 25 41 29 39 48 38 33 35 36 33 47 40 31 40 30 37 40 33 34 34 38 36 44 31 39 39 47 40 38 34 23 35 35 40 33 38 39 34 35 24 31 35 26 40 39 31 31 39 39 38 35 36 38 30 36 38 28 34 31 53 31 37 27 22 33 40 36 47 38 37 43 38 29 46 40 34 42 39 31 40 40 40 43 38 28 35 39 31 27 38 36 34 26 48 39 25 36 44 38 26 32 30 33 38 33 42 44 38 37 43 32 31 38 38 35 31 39 34 35 35 40 34 36 25 36 29 45 36 41 30 34 42 40 42 39 34 40 31 33 40 38 44 41 26 30 40 31 36 44 40 32 36 43 33 32 33 46 39 37 38 40 43 42 24 48 40 33 40 25 33 38 45 36 36 27 30 36 36 27 41 29 38 41 23 35 36 32 32 43 49 39 36 24 23 37 40 28 23 38 37 35 33 38 35 44 32 32 39 40 33 30 30 25 39 47 33 40 40 34 35 26 32 39 34 40 27 32 31 31 29 38 28 30 30 33 42 31 28 28 34 40 40 35 34 36 28 38 37 27 34 23 29 38 42 35 28 35 32 36 30 45 43 38 29 39 30 45 36 30 45 45 38 32 25 29 38 44 35 44 35 35 41 31 41 32 31 42 30 32 29 40 39 40 21 44 41 27 34 36 37 45 35 33 42 33 53 36 37 36 34 30 35 41 32 39 41 45 28 33 33 32 31 34 34 39 35 25 30 40 31 27 37 36 29 36 39 43 29 38 37 54 29 34 39 28 30 35 36 38 35 28 28 22 35 39 36 30 30 40 37 42 38 36 42 35 43 33 33 42 38 50 37 33 29 38 40 39 32 34 30 22 47 39 39 40 35 31 33 28 30 46 39 39 43 35 38 41 37 34 35 23 33 35 21 28 38 34 31 31 42 45 42 37 42 32 34 33 25 40 32 34 33 34 45 45 43 36 35 35 36 36 45 33 23 23 40 29 39 25 28 37 26 36 36 42 45 50 37 32 36 34 41 40 33 42 46 32 43 35 31 28 42 35 32 27 37 35 32 49 33 46 36 38 32 32 29 42 30 26 32 37 32 35 44 33 36 51 42 31 27 40 36 31 27 32 30 39 36 43 38 34 38 34 32 35 38 41 43 37 34 34 40 26 32 32 30 40 40 31 36 35 28 36 31 33 39 42 33 30 29 22 34 29 28 32 34 38 41 41 31 40 38 36 35 27 34 43 41 37 34 36 34 35 34 32 46 25 56 25 33 31 45 35 42 43 29 38 29 35 50 38 35 24 32 30 36 28 37 44 39 41 35 41 39 32 43 32 35 29 39 42 37 25 36 20 35 36 31 34 43 31 35 31 34 34 36 37 38 29 38 33 40 38 44 28 43 51 35 33 44 35 36 44 35 25 42 38 32 44 32 38 41 46 35 37 37 27 42 41 38 34 37 30 44 41 35 42 28 34 33 36 27 46 37 39 35 36 44 31 37 31 32 43 35 33 39 39 40 38 43 43 53 47 35 33 42 35 41 34 38 48 32 35 28 39 41 44 37 35 31 40 36 41 29 30 37 31 28 34 35 39 32 34 41 37 46 37 31 30 39 38 40 44 30 46 39 38 34 36 36 43 39 30 23 48 30 29 26 36 32 26 42 34 28 35 37 29 34 44 34 32 27 38 37 31 33 40 29 36 35 30 34 38 44 39 43 34 36 39 34 34 34 25 34 34 46 36 31 25 34 45 36 34 34 36 33 32 34 25 36 30 36 26 32 32 43 49 44 30 31 29 34 41 32 42 40 42 34 35 34 41 35 37 33 34 45 46 48 38 46 35 35 37 42 42 36 39 36 37 39 35 39 39 35 34 31 32 30 36 39 28 37 32 32 36 27 32 37 41 30 35 24 39 35 45 35 37 36 39 41 35 43 30 34 46 28 27 30 41 42 30 38 44 42 29 37 37 33 30 35 36 25 40 37 30 30 44 27 23 40 42 32 40 38 30 24 32 38 39 17 36 33 33 35 40 30 28 34 53 46 34 35 31 25 36 33 39 37 30 46 38 37 36 39 42 36 35 40 30 43 29 41 42 35 39 42 38 24 34 48 29 37 30 32 22 35 31 30 36 42 38 47 34 36 40 33 37 42 39 39 33 34 31 42 36 43 44 36 47 28 38 36 29 37 31 35 34 31 47 37 33 27 34 47 34 36 36 39 28 35 35 43 35 34 37 42 33 38 39 41 33 29 30 30 27 43 26 38 27 34 31 37 33 27 47 39 45 36 33 38 36 33 37 25 43 48 32 39 38 30 40 32 39 34 36 38 35 33 39 34 43 36 34 41 35 45 27 43 34 26 29 42 39 39 33 40 41 44 37 38 29 40 32 46 35 40 30 29 41 34 40 38 34 29 29 38 33 51 35 45 31 35 30 35 44 40 31 29 28 41 31 32 28 32 42 35 30 27 32 38 23 23 43 41 24 49 34 43 31 38 26 37 35 38 41 31 31 24 37 43 39 30 43 27 36 35 33 44 32 36 38 44 32 33 30 33 28 26 29 30 42 38 43 38 31 31 30 37 33 40 38 36 48 56 34 39 46 35 38 30 36 38 37 34 44 35 36 29 35 37 36 31 35 34 34 31 33 39 38 25 49 36 30 40 56 37 39 38 26 31 49 39 34 32 31 39 45 35 37 33 40 31 31 28 35 34 31 32 42 39 32 36 42 29 37 25 40 32 44 29 37 35 26 23 44 36 23 38 37 42 27 32 28 33 35 25 32 33 34 40 44 34 35 41 34 25 32 21 31 36 40 39 29 38 38 44 40 39 29 29 32 38 37 45 36 38 35 26 30 39 39 40 28 24 40 30 40 47 31 32 42 41 36 31 46 37 38 36 22 25 31 42 38 24 45 36 33 51 36 31 39 28 35 48 35 36 31 38 39 42 25 43 37 44 42 42 32 54 26 35 31 40 28 34 25 40 47 34 39 33 44 34 33 39 28 28 34 30 24 47 27 28 30 42 45 26 38 30 39 42 38 36 42 42 43 39 27 28 25 32 26 38 41 38 25 23 45 32 38 29 33 33 37 39 39 35 36 36 47 34 27 36 27 38 35 24 32 28 45 38 32 32 25 43 34 38 35 41 34 42 39 38 40 45 43 38 47 48 39 29 36 24 29 33 30 32 31 35 34 37 31 35 44 38 35 39 25 39 44 40 36 26 38 53 38 43 38 27 34 43 26 32 28 28 33 28 37 36 38 46 39 34 37 39 40 25 47 36 39 36 37 35 44 34 39 28 26 41 41 33 33 37 37 37 30 31 34 29 36 37 25 45 44 37 34 33 32 37 38 41 31 32 36 41 26 40 42 31 29 36 40 36 34 39 26 37 36 40 37 30 46 39 31 31 32 39 37 33 44 26 46 37 35 36 42 40 32 32 32 24 35 27 31 42 35 45 41 41 43 43 40 36 36 33 43 34 27 33 37 32 30 37 33 51 51 32 42 31 36 36 33 45 39 46 40 39 40 28 45 28 39 40 43 45 33 23 31 27 42 45 28 41 34 39 30 34 28 42 38 36 43 33 31 43 32 35 43 41 29 43 37 36 39 35 38 30 45 31 45 42 46 36 30 27 46 32 50 25 38 44 34 32 39 27 35 39 43 44 34 40 37 40 35 40 45 33 29 33 36 37 31 32 29 42 51 42 38 37 32 35 29 30 33 31 34 34 31 34 38 40 43 27 32 30 30 33 35 36 27 38 31 30 31 40 35 48 39 29 35 39 41 38 37 33 26 39 32 44 37 37 35 40 43 44 36 33 28 34 38 41 25 32 46 42 32 35 42 39 24 35 37 46 50 41 33 32 39 27 33 40 32 28 37 31 39 40 32 35 30 33 37 34 39 28 28 45 31 36 41 45 32 26 30 30 39 33 44 30 37 33 32 35 30 39 33 36 39 32 30 41 27 33 35 32 42 35 30 30 34 33 29 40 36 51 34 38 37 36 31 31 43 39 40 37 42 44 31 29 30 34 37 34 32 41 36 36 38 34 37 36 24 40 31 42 41 23 44 37 45 26 43 35 33 28 37 22 32 43 39 36 36 35 29 38 25 36 34 35 27 48 33 41 34 39 34 28 41 34 38 33 41 43 28 36 37 31 41 44 43 42 34 33 29 39 33 27 42 33 34 38 35 44 29 39 29 27 43 34 36 39 41 36 37 32 34 47 31 38 32 34 31 49 42 46 41 37 34 44 40 38 49 29 37 36 37 35 39 28 43 40 46 31 32 30 38 34 34 40 36 43 38 24 27 32 36 33 37 51 42 31 32 26 43 37 35 24 27 46 43 40 41 43 33 39 47 33 31 34 40 29 35 35 37 34 38 26 50 33 29 37 37 38 37 31 35 31 31 40 42 36 46 34 30 29 31 19 33 45 35 34 30 38 29 25 31 39 40 41 29 29 44 42 31 39 31 44 36 38 38 39 34 29 42 35 28 40 34 42 31 27 29 25 31 26 35 39 34 36 36 32 45 33 36 29 39 32 44 28 33 30 34 33 22 42 33 38 39 35 44 33 42 27 49 30 32 32 38 40 24 39 45 41 34 25 36 36 35 41 46 32 24 43 38 32 34 38 30 34 36 27 34 38 38 43 38 51 30 32 32 26 15 35 33 31 27 32 39 41 26 41 23 29 37 26 39 35 34 33 43 32 42 32 39 37 51 26 39 38 43 35 37 46 33 35 31 31 39 46 44 35 32 44 43 37 28 39 26 38 35 31 26 41 30 30 35 36 31 41 43 35 30 34 26 40 39 40 30 35 38 40 28 38 52 34 29 34 26 34 32 39 34 40 35 23 31 37 29 32 34 33 38 24 33 34 31 39 25 33 29 33 25 30 25 27 33 28 32 32 34 36 40 45 36 41 33 34 31 40 41 45 34 35 33 32 40 26 39 31 24 32 26 38 42 29 40 29 38 26 38 32 27 32 33 38 42 37 33 32 54 33 34 20 40 33 36 40 38 46 28 34 39 30 27 40 25 28 36 45 40 23 43 35 36 27 41 37 25 32 41 45 31 25 25 39 37 37 33 27 39 36 38 31 40 34 36 35 28 34 29 40 40 39 37 34 22 34 44 39 35 45 31 30 38 55 34 33 42 40 44 42 40 31 39 37 38 39 35 25 36 40 29 39 39 42 38 41 39 30 34 42 30 27 46 30 31 44 36 36 38 32 42 29 30 35 29 31 36 30 33 42 39 31 44 31 45 38 38 40 31 38 42 35 37 44 29 34 29 39 47 31 35 38 31 28 38 34 36 34 30 45 38 31 44 30 29 34 31 31 34 34 34 34 34 29 40 35 42 50 31 39 28 35 32 35 39 36 37 45 35 28 35 42 28 41 29 39 31 39 41 31 33 29 36 40 30 21 31 43 39 42 39 43 25 35 33 39 32 39 41 39 30 33 38 32 34 38 37 37 48 35 36 29 26 29 41 39 41 39 42 29 38 27 38 31 36 42 38 33 31 36 39 27 41 32 39 41 33 30 42 41 35 27 49 24 35 44 29 41 38 45 53 50 35 36 32 32 24 34 41 40 38 33 35 43 33 37 41 49 31 30 42 44 26 36 35 28 33 36 21 36 36 35 40 44 43 42 37 37 33 46 24 35 36 39 34 43 37 47 39 37 39 47 50 35 30 43 30 43 41 31 37 35 31 33 42 36 33 37 40 39 37 26 34 26 48 38 33 29 40 37 36 30 37 34 35 30 37 36 35 24 29 35 37 27 45 39 31 29 40 36 39 28 33 33 39 33 28 30 33 34 37 36 51 36 39 37 35 43 40 36 36 30 44 40 32 38 40 39 34 34 34 42 42 31 31 28 33 32 44 24 44 40 34 27 45 35</t>
+  </si>
+  <si>
+    <t>JSU(-15.518754520619652, 21.60559388117754, -386.0924152043051, 794.5149838359064)</t>
+  </si>
+  <si>
+    <t>301 232 310 318 302 215 207 195 240 264 177 231 246 236 177 162 187 217 199 215 163 226 240 251 274 174 212 231 340 244 179 259 296 200 212 259 238 243 183 223 185 297 269 268 328 194 233 163 177 170 260 224 232 173 102 244 178 265 206 220 192 258 132 204 235 170 300 261 283 202 237 268 264 243 270 265 259 211 250 206 239 250 213 169 261 191 319 221 159 226 181 275 215 340 291 287 153 247 283 270 297 246 229 221 245 146 244 152 261 268 184 253 195 241 191 277 219 225 213 276 303 336 218 156 310 195 260 270 273 171 250 189 252 238 262 346 189 202 213 220 248 252 248 202 251 266 216 256 232 266 242 187 207 159 192 289 300 194 299 286 347 226 164 376 218 220 287 227 196 256 234 234 317 174 226 245 259 129 247 359 245 183 131 275 267 178 138 194 163 318 238 219 337 182 203 181 220 247 197 230 290 192 154 210 297 117 203 267 231 187 157 240 259 201 278 209 308 319 329 320 232 208 281 275 255 197 291 189 240 302 192 243 343 269 229 263 251 255 167 252 224 207 280 206 244 302 256 177 184 242 294 226 133 207 173 236 213 178 290 282 227 185 292 139 228 175 222 228 232 218 245 233 219 228 342 248 234 275 224 309 276 231 340 178 248 273 243 230 153 300 226 260 231 216 263 291 275 198 301 279 210 271 256 269 208 245 234 241 271 326 157 255 238 308 222 233 265 387 226 169 252 154 254 228 235 219 235 274 261 251 246 327 289 206 250 224 235 217 236 267 245 238 225 235 276 301 273 194 196 318 145 154 209 241 253 146 187 237 227 243 350 236 151 232 239 201 228 261 235 221 228 169 285 183 201 259 216 232 238 253 191 234 213 214 221 208 242 146 206 226 275 226 211 266 201 239 272 250 212 247 236 259 307 268 269 172 200 189 253 316 314 273 190 284 151 226 208 213 219 211 192 269 221 244 199 213 169 245 230 315 259 248 263 183 227 203 337 282 292 174 325 256 268 279 172 220 209 292 202 228 181 186 231 236 267 258 270 223 258 202 221 208 158 235 225 227 245 252 267 263 210 245 215 209 254 190 168 317 255 241 193 250 281 179 164 273 250 207 375 267 271 211 197 194 248 158 240 230 183 254 298 171 208 240 185 312 314 164 208 253 161 312 262 227 198 215 193 190 243 214 314 156 226 258 191 150 176 161 185 209 141 260 253 276 273 368 171 273 233 187 245 249 223 263 226 276 219 243 194 274 211 244 219 264 181 266 256 269 256 302 196 288 224 193 383 199 272 188 246 290 234 196 202 236 238 127 230 222 277 246 183 227 334 262 325 218 292 261 161 237 214 190 274 251 208 274 223 216 183 255 135 251 274 222 214 254 198 288 213 329 249 275 239 256 189 341 243 310 182 233 184 263 182 165 140 233 181 223 226 305 200 269 245 285 201 237 269 232 169 168 231 190 249 290 329 269 281 226 244 237 274 363 303 216 178 209 178 294 282 171 226 290 271 209 229 260 164 295 259 278 272 289 260 165 247 262 231 200 243 217 233 332 283 233 200 240 246 302 257 321 206 238 215 286 259 262 261 207 199 219 203 233 242 263 252 252 229 234 274 213 222 293 320 210 167 295 304 384 228 167 229 228 150 134 288 233 231 165 217 221 256 243 192 314 307 187 180 209 238 276 217 195 223 285 173 316 274 266 267 261 199 263 233 205 280 202 188 247 252 261 225 286 219 201 297 282 289 297 187 255 183 267 225 291 233 196 188 194 150 241 218 210 280 199 189 114 243 217 246 194 163 220 200 232 278 299 300 276 221 263 212 274 297 261 289 261 261 291 254 320 271 329 326 251 192 277 209 242 251 273 165 248 180 240 243 296 170 271 185 288 283 173 213 212 239 316 240 300 305 261 285 297 179 264 211 207 318 128 242 214 233 265 294 200 195 177 284 237 328 241 135 251 209 237 227 182 211 202 232 267 136 211 188 253 239 275 176 216 191 257 259 200 189 324 247 247 203 297 253 153 227 282 217 243 224 228 188 257 220 339 234 216 167 261 243 349 178 190 165 286 273 206 185 174 166 216 260 239 241 248 235 260 225 246 243 206 280 200 174 182 238 258 274 178 173 243 216 171 249 204 228 246 293 279 268 190 320 227 191 287 273 316 293 211 140 258 196 290 258 222 129 292 182 268 180 243 269 228 237 275 286 234 224 294 257 249 189 225 119 234 238 210 227 156 261 280 359 220 243 319 230 144 295 252 189 220 282 166 282 225 236 216 260 202 179 101 317 249 279 260 314 289 254 245 375 237 208 218 298 262 182 314 299 147 272 280 270 240 255 253 151 255 246 217 303 200 174 238 231 245 220 250 271 155 167 229 247 305 220 189 243 201 301 271 305 268 210 229 304 237 217 177 186 180 272 239 236 252 275 148 168 268 183 172 264 231 202 189 248 288 281 234 302 228 215 252 250 230 243 278 287 223 183 218 177 263 234 265 228 241 283 274 253 252 250 237 277 266 230 205 278 211 204 281 199 245 261 222 204 278 290 262 248 129 227 360 347 267 144 223 293 243 147 253 241 335 232 261 257 259 179 328 217 292 363 250 326 205 241 223 279 214 303 144 191 281 313 272 221 293 341 198 250 287 231 347 239 215 237 289 232 238 241 237 278 224 225 178 216 230 151 236 205 161 229 174 213 294 291 286 206 231 263 269 237 202 204 237 255 238 173 152 226 284 284 240 199 182 283 164 288 176 268 266 150 277 271 268 226 200 216 261 242 248 220 305 213 132 190 264 219 179 320 282 239 187 168 375 306 241 277 229 259 196 237 190 248 223 190 226 213 215 235 229 162 212 177 120 202 187 188 234 323 183 209 234 155 166 160 276 293 273 181 187 258 233 255 194 178 234 278 217 274 240 300 254 239 210 196 247 225 308 175 248 233 251 193 208 210 256 238 180 237 179 280 180 294 224 243 245 232 228 255 255 232 234 220 175 235 198 176 240 244 195 208 197 286 283 226 272 279 244 188 266 281 237 288 170 298 264 128 278 220 272 263 220 299 261 207 239 221 219 302 248 242 273 295 253 202 284 262 199 194 275 121 226 163 264 248 302 297 139 280 200 201 212 264 241 224 273 214 273 182 315 293 230 206 233 209 230 178 227 242 174 227 267 275 249 174 164 209 165 209 251 133 252 260 219 229 280 277 155 263 166 272 314 175 201 255 281 144 220 225 187 245 289 290 248 246 248 281 113 166 192 231 184 230 317 265 196 174 261 162 202 244 144 208 215 165 213 297 293 214 227 232 199 306 198 343 255 195 263 177 285 197 292 219 264 99 190 237 269 313 196 179 338 241 193 204 181 290 196 162 229 179 264 211 222 280 214 258 294 202 236 275 194 276 249 190 231 279 304 222 246 246 217 222 186 242 210 200 272 192 164 334 207 147 168 200 292 244 302 218 257 214 254 297 152 226 193 251 262 197 281 232 308 209 180 178 291 267 196 187 241 171 302 252 263 263 266 171 186 220 240 251 170 292 226 187 205 236 155 243 242 229 292 202 153 285 186 231 201 204 281 266 326 222 238 230 145 263 249 257 252 281 308 176 267 280 216 225 297 259 298 324 280 325 330 160 262 253 279 198 235 192 299 227 131 235 226 198 209 229 172 231 161 238 198 174 175 262 207 206 275 195 226 216 108 281 169 272 205 208 275 238 292 226 185 221 237 288 197 218 193 265 218 227 245 276 229 233 216 267 227 209 242 248 233 253 226 246 233 246 256 268 164 184 215 252 256 179 356 232 176 266 178 211 175 229 270 207 286 271 187 304 282 221 264 234 213 277 263 262 257 175 306 270 242 171 240 192 203 218 260 256 285 265 220 208 242 197 250 288 228 205 326 235 291 210 223 192 138 251 226 256 199 240 230 276 282 269 283 297 253 217 283 253 261 223 273 294 257 181 249 174 118 295 185 297 204 301 203 169 216 202 277 211 150 274 242 290 331 214 236 257 286 214 290 272 211 207 255 266 108 269 192 239 153 191 230 196 276 305 255 215 197 274 244 331 262 224 170 236 179 240 173 286 186 187 205 244 235 189 304 248 251 238 255 298 167 258 193 194 258 225 271 258 256 306 271 217 341 252 205 284 238 204 315 205 189 218 283 337 273 266 233 183 199 247 234 175 233 182 316 243 233 228 133 158 224 329 260 173 198 247 251 259 281 266 266 175 256 245 189 225 199 189 227 223 306 228 258 188 242 204 279 253 225 287 274 204 246 173 254 150 320 241 286 210 255 302 270 244 214 255 244 247 185 233 275 115 236 204 183 280 291 189 153 244 155 171 260 188 235 235 209 292 217 240 257 197 204 248 265 308 137 257 250 252 158 236 282 168 273 222 264 216 310 330 258 221 256 283 298 273 180 183 168 253 264 175 278 167 239 257 219 370 212 271 267 283 223 207 225 241 196 304 171 196 310 235 175 252 237 235 262 246 228 240 148 265 232 283 216 283 216 339 199 257 273 224 200 327 243 350 215 204 310 297 242 186 247 265 226 198 281 264 228 344 216 230 161 185 226 287 236 267 247 318 270 152 226 278 205 170 244 262 219 214 269 297 248 227 236 255 206 285 245 221 161 262 261 180 252 278 361 198 233 308 238 164 171 243 226 186 151 260 223 190 230 161 151 286 235 175 188 295 226 273 305 261 282 204 297 213 228 249 223 303 274 205 244 261 128 240 285 207 187 281 306 271 341 203 233 216 255 239 211 214 190 203 238 186 206 256 219 164 256 228 194 251 247 162 247 204 207 235 168 203 202 207 253 269 236 301 139 174 283 217 172 263 191 259 268 270 252 186 126 171 151 181 280 300 263 266 233 184 269 168 235 294 149 225 265 258 214 159 185 169 178 319 250 256 200 220 233 260 197 289 303 237 199 254 256 265 318 214 267 160 343 232 295 168 285 254 301 235 189 218 196 194 251 159 273 244 276 207 163 283 258 313 229 260 269 128 273 251 259 268 228 209 235 115 191 291 236 182 229 188 224 256 304 183 195 220 297 302 217 259 305 207 236 217 185 290 202 224 290 152 252 221 243 284 206 325 149 325 270 239 238 230 211 243 194 218 238 281 285 296 236 268 223 255 246 248 194 364 365 160 249 163 208 289 131 215 272 240 244 240 238 98 284 262 241 225 288 304 145 231 262 199 261 239 202 237 190 254 299 235 292 216 225 322 305 273 164 253 226 215 289 251 305 156 231 194 292 189 318 247 289 287 236 155 242 227 203 294 231 209 199 282 233 174 247 185 209 198 161 168 241 347 246 258 269 231 272 239 234 224 244 197 232 286 191 195 255 193 290 229 227 221 266 278 330 229 238 213 311 118 236 223 224 225 297 231 319 254 293 251 209 210 289 177 224 279 256 208 247 281 216 141 211 192 242 300 193 189 240 243 305 248 108 264 210 286 266 152 270 243 250 248 254 242 330 228 239 157 149 276 162 253 105 270 203 253 236 251 250 206 237 210 209 321 252 221 266 190 196 224 149 177 290 253 196 256 247 287 220 227 188 221 302 185 298 189 200 167 143 219 277 175 315 222 223 213 190 303 291 290 224 173 288 200 245 280 234 194 177 264 196 261 259 182 211 213 210 255 306 197 257 218 254 183 205 183 164 194 210 214 218 270 207 204 263 251 310 295 256 259 190 129 297 251 252 235 230 220 244 199 247 269 263 199 295 253 315 199 251 223 260 168 174 322 185 246 299 257 216 244 257 264 165 158 192 202 322 224 177 277 283 191 274 258 158 286 300 157 245 212 185 192 199 228 265 218 275 259 325 182 219 229 261 232 180 179 211 120 209 187 258 244 265 171 223 283 308 211 263 203 296 219 219 276 185 261 240 266 210 145 192 277 262 291 253 234 214 250 230 205 238 267 279 317 292 203 211 267 219 207 251 248 209 234 248 246 250 246 128 216 253 238 257 259 210 215 256 196 238 243 255 235 274 246 263 236 227 166 257 342 344 272 157 244 269 281 251 248 220 127 232 245 215 230 186 193 246 282 279 234 100 287 245 292 175 318 157 129 280 271 183 246 191 295 252 211 252 230 192 180 191 288 218 285 231 176 233 249 177 178 261 257 219 181 239 206 190 223 273 262 316 249 312 184 186 224 237 285 180 252 295 272 246 255 249 205 220 217 197 206 226 214 266 318 261 219 326 283 249 262 242 262 178 264 227 204 231 245 178 287 314 228 195 340 225 313 305 221 233 293 259 267 165 262 262 272 266 207 224 272 202 247 265 312 225 269 200 255 321 268 227 195 249 133 231 225 179 207 212 271 290 220 276 270 183 167 239 246 302 241 165 215 222 240 209 262 273 101 190 183 156 273 342 223 206 242 257 187 216 268 245 236 135 226 179 254 173 208 230 191 237 350 153 214 281 224 271 254 146 274 193 234 306 235 276 275 226 217 227 254 258 219 166 221 163 212 308 219 294 360 213 224 290 254 245 300 216 290 211 247 281 169 179 255 310 136 209 216 133 164 188 328 292 250 185 233 208 168 297 128 175 250 183 209 329 205 229 285 225 231 240 255 267 202 202 240 240 193 278 235 338 207 389 218 187 220 217 289 219 220 203 271 207 178 178 282 284 261 195 268 262 298 205 178 310 206 211 191 219 114 239 233 222 251 191 310 195 227 337 343 268 311 296 215 257 244 275 241 350 272 259 217 201 313 231 265 188 256 178 218 234 324 258 261 288 224 207 185 258 245 236 243 311 321 210 133 180 223 199 206 266 121 166 186 232 137 251 286 342 283 284 198 312 265 177 176 172 209 161 202 156 287 233 273 178 227 221 248 267 234 274 189 238 206 146 206 271 304 233 237 212 245 227 167 164 276 281 240 223 170 245 271 146 257 340 212 241 253 288 225 245 217 176 133 213 245 197 292 226 206 298 171 222 262 357 261 259 302 246 254 223 199 234 264 186 253 262 252 221 325 253 262 240 271 223 227 183 281 221 239 173 289 230 185 175 245 228 216 283 183 239 192 189 238 281 290 320 294 194 169 223 200 256 186 269 238 251 216 174 167 248 292 233 261 262 212 166 280 321 217 208 223 335 316 225 262 251 259 274 229 247 266 248 216 275 250 283 182 145 310 202 266 232 297 314 207 229 206 186 175 190 273 190 277 191 271 268 228 161 213 223 209 197 187 248 243 239 282 272 192 274 230 192 172 280 196 232 187 283 333 216 243 198 238 238 155 185 237 226 208 322 279 161 232 184 152 197 207 215 167 294 192 127 174 235 201 158 244 204 255 275 267 229 288 357 254 210 264 267 217 245 228 201 284 252 202 275 199 200 236 287 244 276 156 218 224 255 317 224 308 292 193 243 250 249 240 217 222 236 170 271 265 257 176 191 234 151 184 164 120 199 300 274 291 119 230 237 246 313 193 263 179 218 310 272 266 240 274 194 169 210 235 208 234 284 167 273 221 215 259 159 211 258 231 256 234 209 299 231 204 217 221 287 235 182 256 213 253 291 314 211 193 235 290 219 356 191 246 251 205 161 157 277 139 140 217 234 304 300 245 255 183 303 216 303 235 247 305 180 192 225 117 296 214 172 221 312 271 245 265 220 293 222 280 249 237 220 167 253 300 207 277 255 187 260 211 205 174 211 142 161 220 212 249 250 277 177 238 211 238 283 251 257 187 123 251 222 217 271 203 201 269 164 303 229 250 253 185 173 221 273 234 268 177 263 168 209 232 285 203 264 215 228 272 224 221 182 215 265 231 285 327 285 205 222 214 172 224 255 243 295 276 246 288 193 240 252 312 243 272 314 227 201 283 230 195 152 259 214 164 292 239 267 273 260 294 227 203 300 326 267 223 203 231 285 283 237 219 193 272 269 189 201 223 221 202 238 293 214 237 268 231 211 224 184 239 280 224 190 200 284 185 189 263 265 326 265 315 181 232 243 201 317 307 199 160 248 293 225 220 277 339 286 216 225 265 247 184 173 247 138 267 237 167 111 214 232 261 168 290 329 251 121 224 260 145 248 183 201 310 246 214 295 234 266 236 295 292 263 253 220 226 304 187 251 240 275 241 280 291 246 277 255 129 174 182 274 246 208 266 166 231 202 245 253 231 283 281 230 231 255 271 308 232 288 185 242 243 231 227 196 363 261 160 257 237 200 143 220 185 327 299 187 218 308 272 320 167 199 220 266 212 265 256 262 265 210 206 160 196 184 290 200 297 215 277 247 262 293 274 267 251 187 172 197 228 270 267 246 239 235 212 291 170 230 208 186 318 225 287 252 197 210 232 213 338 240 157 208 179 240 327 185 252 216 261 240 169 313 282 212 197 258 281 199 227 215 245 247 269 278 289 204 344 264 196 220 205 220 173 206 318 233 229 193 248 181 194 274 275 342 196 324 272 172 228 233 162 197 164 328 272 179 238 171 220 199 253 263 187 211 270 200 213 240 199 207 322 189 238 229 237 225 275 279 218 221 181 219 182 264 284 293 208 140 239 218 294 331 214 188 277 251 243 250 215 221 366 197 214 210 241 276 200 217 249 187 271 181 233 315 162 217 207 276 225 197 138 234 229 192 198 289 240 228 235 267 219 179 187 208 248 214 237 125 237 314 262 144 196 274 277 153 321 263 296 127 244 288 222 234 219 267 232 172 150 205 278 172 239 291 258 219 216 190 229 281 220 215 282 216 262 242 205 286 223 275 349 266 288 261 166 167 245 206 284 338 191 249 238 229 261 225 184 202 311 267 274 192 162 243 303 150 217 259 257 225 309 179 247 193 261 283 261 251 223 239 229 283 212 204 238 246 288 237 185 176 162 218 261 204 285 249 217 284 258 336 258 244 271 268 155 166 281 274 237 284 239 188 204 206 266 236 194 235 192 301 296 210 255 305 260 240 290 213 230 276 212 240 284 220 187 250 148 290 197 345 219 242 161 247 288 210 267 330 186 235 244 266 161 197 212 308 204 207 362 238 266 180 261 213 214 274 270 155 354 142 246 275 186 223 202 277 209 243 249 231 231 239 313 228 137 215 255 259 257 279 206 237 214 242 313 305 179 286 259 287 167 209 222 172 210 249 212 295 208 239 258 246 136 205 162 205 215 238 204 204 243 241 232 193 218 233 267 191 221 149 201 139 198 255 215 326 232 235 228 194 254 234 252 277 193 172 165 257 147 284 320 181 212 220 246 204 218 195 298 256 261 187 190 255 231 291 338 164 238 200 266 242 178 146 180 274 141 231 226 255 192 318 285 158 284 312 292 331 153 226 257 301 226 299 177 166 235 242 147 296 253 158 212 254 202 259 244 234 219 204 244 295 266 307 234 256 188 278 155 226 191 148 158 275 187 267 119 352 231 225 239 232 219 241 297 238 136 216 265 170 214 317 300 205 263 256 209 204 222 285 199 186 149 377 198 213 150 321 209 252 315 210 226 216 218 338 255 252 171 217 226 181 278 187 261 322 372 175 215 256 296 235 185 165 243 218 307 317 337 262 367 196 269 138 189 277 239 181 211 225 261 223 143 268 246 236 271 312 222 213 238 254 251 245 230 228 339 242 225 147 261 243 220 214 227 270 230 219 253 227 191 261 235 211 139 212 224 238 269 199 250 284 244 195 329 175 116 289 292 178 287 251 190 257 277 271 193 253 344 204 266 240 240 287 243 204 222 174 263 235 301 267 211 216 297 217 303 278 240 279 245 228 211 240 357 266 245 267 249 211 202 242 185 192 257 200 230 273 164 199 213 185 333 214 235 220 188 243 275 262 264 234 198 287 230 306 225 297 378 211 189 186 236 336 207 236 215 195 274 261 214 277 154 252 300 238 227 240 230 287 273 254 160 199 168 238 171 127 202 233 298 228 220 177 299 229 228 210 229 241 203 281 313 254 302 264 142 292 234 273 313 204 259 190 290 346 267 242 279 277 233 283 212 260 247 230 174 269 228 209 215 234 231 189 263 257 222 198 227 309 201 279 227 233 273 202 219 156 217 317 214 234 296 210 128 196 129 257 283 261 109 166 217 267 170 221 261 238 267 219 268 244 227 319 197 250 253 264 231 369 195 249 255 182 207 213 246 221 230 277 136 269 202 172 172 192 318 234 249 155 196 291 218 197 174 202 167 251 159 214 302 250 190 301 342 230 242 220 209 249 323 276 218 329 218 341 221 214 157 248 326 241 190 187 247 271 167 235 185 191 196 331 200 169 201 238 172 184 167 229 184 283 255 257 220 230 198 242 313 231 236 197 198 253 186 151 261 286 244 237 208 256 226 169 209 161 217 205 172 298 219 270 235 133 392 208 157 216 224 283 233 223 310 260 262 269 267 253 192 196 203 223 266 122 198 229 235 273 265 289 258 239 254 216 286 238 262 190 275 235 267 279 236 213 226 247 197 191 231 191 256 359 241 269 259 241 213 244 236 295 256 300 290 299 216 219 247 209 236 200 251 248 160 220 148 196 187 196 234 282 302 235 149 305 224 281 218 289 253 205 233 199 247 216 255 293 290 121 252 244 292 262 250 191 170 238 237 303 269 252 313 317 175 274 160 249 190 167 252 372 320 283 237 197 242 237 215 271 217 243 270 268 160 211 293 266 181 242 281 219 197 120 219 249 182 215 243 250 330 248 291 253 282 237 234 250 245 198 206 215 253 347 183 258 201 186 332 124 303 275 307 189 218 302 232 255 270 302 209 166 138 268 192 159 241 243 262 249 210 281 216 219 235 208 123 246 240 200 277 257 227 272 259 210 264 209 227 201 248 191 261 240 227 175 215 218 233 239 185 166 221 228 218 188 267 159 272 266 262 228 282 257 210 258 270 326 207 183 228 110 234 330 280 224 220 178 290 197 263 174 203 250 149 153 259 257 315 253 284 235 189 316 264 213 271 226 330 281 278 267 213 253 259 230 279 338 231 237 311 232 294 236 266 265 221 178 254 97 199 297 275 311 227 153 195 236 217 299 272 305 176 211 291 237 229 254 192 185 131 250 258 214 192 254 264 231 297 166 228 305 225 197 228 217 156 206 197 177 154 249 225 262 246 218 242 204 257 267 276 265 269 251 236 219 189 245 221 234 289 258 301 151 286 277 258 271 224 242 305 337 256 193 224 232 327 246 201 200 284 231 206 288 302 258 227 220 250 196 231 204 201 320 154 196 306 374 217 245 272 314 210 237 256 297 239 194 271 269 221 232 211 230 255 247 269 228 273 185 155 233 203 193 213 235 203 240 195 267 281 234 246 223 292 211 219 280 219 321 269 281 271 291 290 198 285 235 290 196 227 255 229 245 235 252 211 223 239 124 288 337 172 220 184 277 244 297 275 244 208 314 248 342 199 238 347 170 167 208 223 248 245 242 198 187 310 239 262 206 211 253 208 249 312 252 233 234 247 231 165 294 154 229 320 172 212 258 194 268 308 259 350 280 222 247 174 177 194 262 213 248 219 256 206 258 95 221 333 221 328 175 249 202 245 245 179 252 267 274 209 236 221 270 215 196 200 317 238 215 337 289 187 191 214 252 222 265 260 248 256 196 179 245 286 136 206 205 234 211 274 198 242 289 254 244 207 242 170 288 244 243 250 216 268 283 237 253 258 191 340 282 141 265 249 219 201 274 339 214 250 303 176 250 251 300 338 311 227 218 255 217 193 147 223 198 251 347 238 268 291 232 274 237 244 224 286 229 235 252 231 175 215 243 135 377 302 233 127 307 284 264 187 257 257 194 224 234 250 210 194 251 193 261 301 279 224 311 173 222 185 229 191 216 179 337 157 238 307 183 249 252 303 240 234 273 291 180 197 194 295 215 239 330 254 251 254 282 240 233 313 322 237 275 276 202 263 275 223 257 197 251 231 261 287 270 211 196 209 284 249 262 225 290 361 156 258 226 307 169 250 178 282 181 189 223 252 234 329 217 261 293 229 251 267 279 300 303 259 263 252 306 334 148 238 199 319 211 257 257 266 156 233 292 291 308 200 245 259 244 200 239 253 160 190 203 242 208 206 222 259 271 250 230 258 281 247 219 291 212 267 242 199 263 321 298 276 280 223 200 258 306 240 210 165 279 263 255 239 239 249 208 189 237 260 172 257 248 180 227 325 298 247 189 314 226 263 246 259 215 266 319 247 248 228 237 136 343 224 215 208 194 191 284 187 201 220 274 317 247 208 200 251 235 270 236 203 255 291 248 299 283 219 214 275 322 314 236 214 202 160 221 171 307 250 236 262 226 208 198 268 202 179 271 199 237 220 324 217 274 248 239 202 159 186 203 244 214 168 207 203 317 214 244 133 222 179 208 176 288 243 261 301 315 360 208 231 248 201 202 208 203 244 216 224 133 224 210 287 259 245 179 144 215 185 283 275 247 214 257 243 246 321 299 203 210 331 262 209 230 267 257 351 139 253 248 212 294 265 215 308 321 259 344 208 192 164 250 268 160 214 202 266 268 228 323 130 229 362 209 157 188 306 263 166 188 226 245 342 209 262 286 174 254 227 113 254 205 240 204 203 281 185 204 285 248 294 227 214 270 181 209 231 219 264 200 249 171 198 171 271 253 227 158 187 292 211 267 253 210 279 257 246 246 200 261 250 218 256 202 252 259 195 193 138 280 303 209 248 221 247 247 289 273 219 256 227 203 209 132 222 280 177 209 316 256 210 180 335 208 256 373 253 307 153 207 225 229 321 195 233 118 357 271 264 298 321 154 268 237 177 283 249 236 242 217 254 284 246 273 281 235 209 281 182 199 246 197 251 291 295 202 209 203 237 215 261 257 223 208 238 267 363 211 248 231 250 297 178 235 202 173 226 201 277 165 230 219 198 229 181 260 235 218 170 246 164 261 163 206 223 287 260 213 293 269 140 256 224 257 209 205 183 149 299 248 230 286 285 316 202 184 261 172 306 184 266 154 197 229 255 362 236 204 212 188 192 245 255 224 335 158 239 266 300 210 240 225 259 258 144 201 261 201 170 302 236 203 315 215 197 227 264 218 213 268 195 291 268 253 210 187 281 242 209 204 220 219 252 231 276 208 215 199 243 252 229 236 284 247 256 291 235 246 201 219 227 176 247 282 273 333 236 192 178 191 242 197 271 239 310 233 295 184 244 191 290 170 233 282 250 292 192 218 246 269 176 227 256 192 193 240 229 186 295 219 241 400 269 282 288 197 195 186 224 320 223 281 87 181 140 272 242 263 198 186 222 342 238 198 264 126 296 193 213 246 226 158 190 222 217 258 360 216 222 173 255 211 315 283 219 184 246 209 243 206 208 230 284 209 286 152 166 248 289 223 205 186 226 201 298 265 223 260 261 140 251 236 272 222 224 238 152 249 246 323 198 224 183 200 201 224 170 197 269 297 124 229 212 187 247 153 275 230 182 161 168 209 214 242 231 176 257 192 264 328 171 262 224 235 243 254 233 280 294 244 196 253 229 165 201 175 346 289 221 242 227 297 278 339 204 234 240 201 225 298 214 264 228 196 264 243 156 192 314 177 222 196 216 229 310 188 191 199 255 233 244 146 231 246 249 153 249 226 219 146 229 150 236 221 240 264 235 271 222 161 213 190 210 200 162 198 226 172 222 195 234 180 199 177 217 202 210 203 229 225 199 263 257 187 268 177 246 239 266 231 303 202 192 222 214 245 388 220 237 252 240 214 257 279 222 159 185 234 122 198 215 226 250 183 191 213 231 201 223 172 239 184 277 267 188 212 224 250 258 237 319 268 171 223 211 241 241 113 257 169 251 333 313 199 281 190 247 230 195 203 221 232 248 222 299 317 219 137 317 238 230 237 279 229 211 208 209 240 199 208 284 193 343 334 275 348 360 234 259 296 288 335 176 297 189 296 228 230 255 294 288 204 249 218 226 282 252 194 240 218 277 314 246 233 245 250 224 241 340 175 196 224 374 283 300 286 262 250 299 284 165 264 197 231 308 214 211 213 260 225 218 211 221 272 287 254 292 214 236 262 267 161 292 252 204 190 174 172 227 261 248 260 210 270 235 260 155 279 188 302 354 287 239 196 195 191 218 203 205 236 185 224 250 202 202 149 213 213 309 201 208 207 324 220 165 207 257 258 260 239 193 127 210 159 197 194 209 227 287 342 201 215 342 247 250 183 252 229 194 193 215 235 134 235 240 258 212 272 201 316 264 215 247 272 202 219 216 228 265 168 224 191 261 162 252 244 205 238 220 211 166 250 185 366 210 198 261 195 217 290 174 306 180 254 246 189 197 194 254 245 229 183 170 235 214 170 231 260 211 219 252 183 271 256 280 213 259 327 276 192 226 279 278 250 333 144 236 219 184 214 248 264 207 196 250 369 172 297 226 155 134 196 193 252 364 352 200 259 214 133 254 184 229 244 221 314 243 240 264 168 213 264 221 186 249 284 194 270 290 258 151 268 187 280 267 263 307 217 261 205 276 200 327 294 213 295 225 298 292 195 208 246 248 176 258 174 325 231 300 310 176 238 224 211 172 193 247 223 143 253 176 292 198 253 178 153 235 167 216 289 296 262 295 216 214 225 158 304 190 248 287 112 238 327 232 210 179 200 318 224 206 250 236 263 257 289 170 251 308 263 259 176 207 144 271 205 296 190 299 225 213 224 267 197 335 153 242 204 230 203 255 198 215 196 190 300 184 172 347 284 212 188 216 297 211 283 221 335 174 250 245 209 283 250 326 193 252 263 281 125 216 283 252 301 248 157 241 265 193 224 220 284 238 200 236 209 281 158 199 191 232 281 281 252 233 278 326 191 235 279 218 203 234 300 160 200 146 190 276 226 222 193 215 310 228 206 192 321 310 235 193 234 195 322 184 197 232 287 272 161 229 208 132 247 233 358 305 231 160 209 262 297 319 230 242 289 270 190 305 185 260 246 231 259 226 177 179 240 247 155 200 220 150 218 285 261 203 204 130 255 281 158 235 135 264 119 231 218 299 199 198 195 249 251 215 257 205 272 202 193 213 192 205 246 239 162 281 229 260 147 302 166 240 225 218 157 306 251 273 193 229 250 201 249 277 184 185 287 284 256 143 166 171 297 291 223 181 314 165 230 205 153 214 240 137 212 129 213 302 265 231 256 171 259 290 280 311 266 144 217 229 272 192 214 225 200 242 269 140 239 273 226 201 316 166 221 246 180 166 200 204 227 273 257 262 262 271 206 231 235 233 222 181 207 202 290 231 246 238 206 207 193 324 236 291 218 311 208 284 182 205 251 289 250 245 280 194 259 228 177 94 255 210 189 188 179 240 204 317 201 260 273 174 196 230 211 268 164 229 315 239 296 259 287 286 298 250 271 265 301 227 232 294 259 201 281 179 296 248 195 229 176 238 112 258 292 206 214 260 245 257 259 304 183 155 271 230 179 168 273 280 187 219 205 347 245 251 222 253 258 292 191 295 231 197 228 231 241 207 163 182 189 315 301 226 301 233 157 230 208 279 138 259 216 293 261 317 152 230 267 345 274 198 197 274 219 192 238 275 165 291 240 271 277 246 271 273 215 293 255 305 300 180 324 263 232 255 192 275 241 163 183 195 217 208 175 249 302 227 144 199 202 259 261 237 271 262 199 233 239 258 235 214 237 232 191 231 242 178 170 261 257 237 156 239 232 310 237 228 150 285 238 285 247 286 341 239 236 249 359 183 257 175 214 220 221 245 182 243 204 227 213 201 201 202 239 311 257 242 265 229 236 209 282 203 265 229 354 194 254 276 163 235 219 195 312 316 238 224 223 195 254 163 219 297 156 298 265 273 251 201 206 325 213 231 236 258 236 259 348 213 231 321 258 100 290 221 345 277 191 285 259 244 351 328 224 289 246 338 230 138 283 185 251 197 223 190 183 255 190 208 161 158 297 265 231 272 223 190 250 247 228 214 203 284 237 147 174 338 240 241 210 211 313 248 313 255 248 289 299 269 240 191 200 309 271 278 191 300 229 282 239 378 291 205 240 181 260 213 226 254 231 261 233 279 193 224 200 244 217 243 183 222 291 272 220 196 158 249 258 281 299 226 253 281 191 206 165 307 305 199 298 235 178 197 133 285 226 318 103 297 236 180 263 199 298 211 307 153 268 311 242 247 175 230 347 322 176 309 181 189 190 197 252 233 219 228 233 230 210 225 266 214 297 323 186 312 342 207 280 296 230 305 211 285 265 188 197 194 208 214 290 208 193 219 230 197 327 264 137 198 188 152 184 281 226 222 281 179 254 188 304 196 231 158 170 226 260 170 223 272 202 294 226 214 197 197 156 221 251 251 272 272 289 216 255 192 224 308 284 173 244 259 290 274 194 270 249 221 273 238 250 205 209 235 248 328 275 266 280 189 219 211 247 309 199 191 259 189 252 221 280 168 322 230 235 241 293 219 289 176 305 268 206 290 195 277 212 200 153 239 235 295 223 82 186 266 243 278 232 291 203 302 164 340 222 159 235 231 188 252 216 192 249 186 228 187 229 230 210 247 263 275 248 303 263 231 278 255 285 206 203 296 258 211 208 146 317 200 231 233 266 181 221 270 184 252 271 339 186 263 272 246 289 245 324 291 243 198 214 259 260 264 273 256 187 234 241 287 266 210 202 224 223 283 195 235 178 240 274 275 265 214 223 208 261 229 269 282 201 310 288 157 124 100 240 299 241 292 198 251 216 242 103 219 224 183 231 307 126 240 244 179 243 184 325 176 239 261 207 223 249 158 207 206 224 238 187 188 215 191 230 219 239 210 257 239 229 153 311 183 304 226 323 244 226 223 287 271 261 277 293 249 268 330 227 226 260 212 197 176 244 197 232 187 276 287 190 279 302 296 295 235 245 209 222 308 229 221 344 231 188 266 223 209 257 170 285 206 272 233 283 245 227 207 233 230 214 225 267 276 271 213 335 224 277 116 93 278 296 230 349 232 243 278 213 209 310 230 206 244 226 214 314 280 259 276 302 180 208 252 208 166 268 241 253 171 274 270 178 214 292 276 167 297 177 198 278 266 255 183 303 262 261 246 179 270 209 263 152 245 195 213 201 312 253 249 210 229 207 306 213 265 173 225 336 217 304 237 211 314 227 228 310 253 214 290 172 184 222 194 251 243 231 245 264 304 198 229 251 296 300 273 243 256 293 276 187 341 220 197 237 178 174 260 281 233 238 201 160 249 232 177 302 150 227 309 112 313 255 203 235 282 301 265 210 196 125 240 235 212 164 260 288 271 210 244 176 280 161 257 278 226 176 231 249 160 280 286 155 179 343 202 241 172 249 332 241 283 193 207 156 215 199 263 185 184 252 252 284 219 183 155 300 296 225 220 195 253 141 203 256 187 261 185 160 230 279 255 180 223 225 200 216 234 250 240 147 299 223 291 269 206 254 237 276 174 153 237 263 280 203 304 239 235 201 179 287 209 254 279 233 202 207 243 212 260 137 268 283 215 223 273 256 256 217 217 223 157 301 307 299 209 285 217 237 299 211 225 289 291 208 234 200 227 201 234 221 228 173 187 184 181 217 231 202 221 186 318 241 344 181 162 260 354 181 301 230 238 233 281 265 213 223 189 216 150 202 297 270 145 213 298 248 238 238 226 243 261 321 214 217 263 253 260 252 235 190 254 256 267 186 208 177 157 285 266 284 272 141 187 257 224 219 243 160 255 359 204 276 257 201 262 260 144 197 203 162 208 305 248 194 203 273 228 287 264 252 286 210 243 202 260 253 209 226 305 309 304 274 247 262 183 203 250 319 201 170 208 213 216 242 178 146 195 182 184 214 272 299 276 251 203 231 190 345 201 174 324 274 188 261 207 237 161 227 262 251 202 278 205 242 317 202 315 203 181 205 210 184 278 173 218 247 273 274 190 264 184 217 343 254 255 148 282 260 247 178 241 173 251 218 353 215 261 297 230 254 255 206 269 195 279 257 243 281 125 188 189 202 260 307 194 197 243 235 256 186 141 249 289 247 229 150 161 210 237 145 203 207 225 262 274 267 231 268 242 247 223 243 309 273 246 198 249 209 261 211 206 308 187 364 160 226 226 220 273 278 285 192 258 256 264 287 243 294 144 233 147 178 166 246 266 271 265 264 296 267 234 228 190 163 212 239 268 258 147 205 143 221 230 215 272 265 219 314 264 230 231 256 299 244 223 284 258 249 250 274 213 284 279 228 287 233 197 255 294 199 228 207 319 251 286 170 246 197 246 174 218 237 198 265 283 297 206 241 249 264 257 197 277 182 273 164 267 174 291 270 221 263 235 282 185 258 227 238 224 255 217 277 285 303 294 321 284 345 273 200 174 272 201 250 258 269 379 197 247 177 253 286 265 313 268 205 229 234 238 189 241 226 256 219 286 217 317 200 167 281 255 235 267 258 183 252 303 191 324 225 297 281 307 231 186 297 268 273 148 110 320 235 152 224 248 159 165 291 233 159 235 239 167 235 310 189 217 192 252 185 226 205 208 218 257 233 187 193 324 249 249 254 230 265 232 268 225 275 166 234 188 341 196 277 206 203 332 184 250 252 227 243 214 237 153 276 212 213 171 181 184 232 272 243 169 214 273 245 216 267 275 201 222 181 207 240</t>
+  </si>
+  <si>
+    <t>MIE(0.5590602218447611, 1.906971372923128, -2.98884961455186e-31, 1.3291967150704649)</t>
+  </si>
+  <si>
+    <t>1 2 2 1 1 2 1 0 1 2 1 2 0 2 0 2 0 0 0 2 1 1 2 0 1 1 2 1 4 2 1 1 3 1 2 1 2 1 1 0 0 3 1 2 0 1 1 1 0 0 2 1 0 1 0 1 1 1 2 1 1 2 1 2 1 0 0 2 0 0 1 1 2 1 0 2 2 1 2 2 1 2 2 2 1 0 2 2 0 1 0 3 2 2 2 2 0 2 1 0 1 1 1 1 1 1 1 0 2 1 1 2 0 2 0 1 0 2 1 1 1 4 1 0 3 2 0 0 2 1 3 0 1 1 3 3 1 1 1 1 1 0 3 1 1 1 0 0 2 1 1 1 0 1 1 1 4 2 3 3 0 2 1 1 2 1 2 2 0 0 3 1 2 1 1 2 2 3 1 0 2 1 1 2 3 0 1 1 0 2 2 2 2 0 1 0 0 2 1 0 0 0 0 2 1 1 1 0 1 1 2 3 1 2 0 1 3 1 0 2 1 3 0 3 2 1 0 0 3 1 0 1 4 0 3 2 4 1 1 1 0 4 3 1 2 3 2 0 1 0 1 2 0 1 1 4 0 0 2 0 2 0 2 1 1 1 0 0 2 2 1 2 2 3 2 2 0 0 1 2 2 2 1 0 1 0 2 2 1 2 1 1 1 0 3 0 0 1 3 2 0 1 2 3 2 2 2 2 0 2 0 2 1 2 1 0 1 3 1 0 0 1 2 1 2 2 0 1 0 1 2 1 0 1 0 2 2 1 3 1 2 1 1 0 3 2 0 1 0 1 0 1 1 2 2 1 0 1 2 2 2 0 0 2 3 2 1 1 2 1 1 1 0 1 0 2 1 1 1 1 1 1 2 2 2 0 2 1 1 0 1 2 1 2 1 1 3 1 0 1 3 2 1 2 2 0 1 2 3 3 1 1 0 2 0 1 0 1 1 1 1 2 1 2 2 2 1 2 0 0 2 1 2 0 2 1 3 1 1 0 3 2 1 2 0 1 0 3 1 1 2 0 0 0 1 1 1 0 4 1 2 3 0 1 1 0 2 2 1 1 1 1 0 0 3 1 1 1 2 1 1 2 3 0 2 2 0 1 2 0 1 5 1 1 0 0 4 0 0 1 2 0 1 2 1 3 1 0 2 2 0 2 1 2 1 0 2 2 1 0 1 0 1 0 0 0 0 1 1 0 1 2 2 2 0 2 0 2 0 1 1 0 1 1 0 3 0 1 0 0 1 0 0 2 0 1 1 1 0 0 1 0 2 1 4 2 2 0 1 2 1 2 0 2 1 0 1 0 1 0 1 0 2 1 1 0 3 2 0 2 2 0 0 0 1 0 1 0 1 0 1 2 2 1 1 1 3 2 0 1 1 0 0 2 1 3 4 1 1 0 1 0 0 0 1 0 1 3 0 3 1 1 0 3 1 1 1 0 1 0 2 1 0 2 3 0 2 1 0 1 0 2 1 0 1 0 0 2 1 1 0 1 0 0 1 0 1 1 1 2 3 3 1 2 2 0 0 0 1 2 1 4 2 2 2 1 2 1 2 1 1 1 1 2 2 0 1 3 2 1 0 2 1 1 1 3 2 0 0 2 2 2 2 1 0 2 2 1 1 1 1 2 0 1 0 1 2 1 2 1 2 1 0 4 3 0 1 1 1 2 2 1 0 3 0 3 2 1 3 2 2 1 0 0 4 0 1 1 1 2 1 3 0 2 0 4 1 0 1 0 2 1 3 3 2 0 0 2 0 2 1 0 1 1 0 1 2 0 1 2 0 1 2 1 1 1 2 1 0 0 0 1 1 1 0 0 2 4 0 2 3 2 1 2 2 5 0 1 0 1 1 2 0 2 0 3 1 2 2 2 2 2 1 0 1 1 1 3 2 1 1 1 2 2 2 1 1 1 1 0 0 1 1 0 2 1 2 1 2 2 1 2 1 2 1 1 1 1 1 3 0 1 1 1 1 3 2 0 1 2 1 0 0 2 2 1 0 1 3 0 1 1 1 0 0 1 0 2 2 3 0 0 1 0 3 1 1 1 1 2 2 2 0 2 2 1 1 3 0 1 2 0 1 1 1 1 1 3 0 1 2 1 2 1 1 0 2 2 2 0 2 1 1 1 2 1 2 2 1 1 2 0 1 1 0 2 1 2 3 1 2 2 0 2 1 1 2 1 3 1 2 1 2 1 1 2 0 2 0 2 0 1 0 0 1 1 3 1 1 2 2 1 2 2 1 1 1 0 3 1 0 0 2 0 0 0 1 2 1 2 1 2 2 1 1 1 0 1 1 2 2 0 1 0 2 2 1 2 2 2 0 0 1 1 2 1 0 1 1 3 2 2 2 0 0 2 1 0 1 1 0 1 1 1 3 1 1 1 2 2 0 1 0 1 1 3 1 0 1 0 1 2 0 1 2 1 0 2 1 2 2 1 1 2 1 1 0 1 2 1 0 0 0 1 0 1 0 2 1 0 1 1 0 0 2 2 2 1 2 1 2 1 1 2 2 2 3 1 0 1 2 1 1 0 1 4 2 2 0 3 2 1 1 1 1 2 0 2 2 2 0 1 0 0 2 2 1 2 2 2 0 1 0 0 0 1 2 2 2 0 3 0 2 1 1 2 0 1 1 2 1 1 2 0 2 2 1 1 0 0 0 0 1 1 1 0 1 1 1 0 1 1 0 2 1 1 1 0 2 0 0 0 2 1 3 1 1 1 0 1 1 1 1 0 1 2 0 1 1 1 1 3 1 2 0 2 3 0 1 1 0 1 1 1 2 0 0 3 4 1 1 1 1 1 3 0 1 1 1 1 0 1 1 1 1 2 1 0 0 1 1 2 4 1 2 2 1 0 1 1 2 0 0 2 1 0 0 0 0 1 2 1 0 0 1 1 1 1 0 0 0 4 1 1 1 2 0 2 2 2 1 2 0 0 1 0 1 1 2 1 0 1 1 1 1 1 0 1 2 0 1 1 1 1 1 0 2 1 1 2 1 1 1 2 0 1 1 0 2 0 0 1 0 2 2 1 1 1 1 1 2 1 1 3 1 3 0 2 1 2 1 0 0 0 1 2 1 1 0 4 3 0 2 0 0 1 2 1 0 1 1 1 1 0 2 0 1 1 2 2 1 0 1 1 2 2 3 1 1 0 1 0 1 3 1 0 0 1 2 1 1 1 1 0 2 3 1 2 3 1 0 2 0 1 1 1 2 1 1 2 0 0 1 1 0 2 1 3 2 2 1 2 0 1 0 0 0 0 2 2 2 0 1 1 1 1 3 0 2 1 0 4 1 1 1 1 3 0 0 0 1 2 2 2 1 3 1 1 1 1 1 1 0 1 2 0 1 1 1 2 1 2 1 3 3 2 3 0 1 2 2 3 3 1 2 4 1 0 1 1 0 2 0 0 1 2 1 1 1 0 1 0 3 2 0 1 1 1 1 0 2 1 2 1 3 1 0 1 0 1 1 1 0 2 0 1 2 1 1 1 0 1 1 2 1 0 3 1 0 0 1 1 0 0 1 3 1 0 3 0 0 0 0 2 2 2 3 1 2 0 1 1 0 1 2 2 0 1 3 1 2 2 1 2 0 1 1 2 1 1 1 3 1 1 3 1 0 0 0 1 1 0 3 1 0 1 2 1 1 1 0 2 2 2 2 1 2 0 1 2 2 1 1 1 2 1 2 0 0 2 2 2 3 2 1 2 2 2 2 1 2 1 1 0 0 0 2 2 1 2 3 1 1 2 3 0 1 1 2 1 1 2 1 1 2 0 2 0 3 1 0 2 2 1 3 0 1 2 2 2 4 0 1 2 1 3 1 0 3 1 1 1 1 2 2 0 2 1 0 0 0 1 1 0 0 1 3 2 1 2 1 1 1 0 1 1 0 2 1 2 3 0 2 1 2 2 0 1 0 4 1 1 1 2 1 0 1 1 2 0 1 1 2 1 1 3 1 1 2 3 1 2 1 2 2 3 1 1 1 2 2 2 0 0 0 1 2 2 1 2 1 2 1 1 3 1 1 1 2 1 0 0 1 0 1 1 3 0 2 0 2 1 2 2 1 2 2 2 0 0 1 1 2 1 1 3 0 2 2 2 1 3 1 1 2 1 0 0 0 1 0 2 3 1 2 0 0 0 1 1 0 1 1 1 1 1 1 1 0 1 2 3 2 1 2 1 2 2 1 2 1 1 2 1 0 1 1 0 1 3 1 2 1 0 0 1 2 1 1 1 0 1 0 2 0 5 1 1 0 1 3 3 0 1 1 1 2 2 1 1 0 0 1 1 1 1 1 1 3 0 0 2 2 1 1 0 1 2 2 2 1 3 1 0 2 2 3 2 0 1 0 1 1 0 3 0 1 1 3 2 2 2 1 2 2 1 1 2 0 1 0 1 1 0 1 2 2 1 0 0 3 2 0 1 0 2 0 0 1 1 1 1 0 3 2 1 0 2 2 1 3 2 2 0 2 1 2 1 0 3 1 1 2 1 1 1 1 3 2 0 1 1 0 1 2 2 2 1 4 1 0 1 2 2 0 2 0 2 1 0 0 1 1 1 0 1 2 3 2 2 0 0 2 2 2 2 1 3 0 1 2 0 0 3 1 3 0 1 2 2 1 2 0 0 1 1 0 1 0 0 1 1 2 1 1 1 3 2 2 3 2 2 0 0 0 2 3 1 2 2 0 3 2 0 2 1 0 1 0 2 1 4 2 1 1 0 2 1 0 0 1 1 0 1 0 2 1 1 3 0 2 2 1 1 1 0 0 0 2 2 1 1 1 1 1 2 0 1 1 0 2 1 2 1 2 2 0 1 1 1 0 2 1 2 0 2 1 1 2 2 3 2 2 1 2 1 1 1 1 1 2 1 1 1 0 0 0 1 1 0 0 0 3 1 3 3 1 0 1 0 2 3 1 2 0 1 2 0 2 1 0 0 2 0 0 1 1 1 1 1 2 3 0 1 0 2 1 2 1 2 0 2 1 2 1 2 0 1 0 2 2 2 0 1 2 2 2 2 2 1 3 0 1 1 1 0 3 0 1 2 1 1 1 2 0 1 1 1 2 2 1 3 1 1 1 1 3 2 1 1 1 1 2 1 0 2 2 1 2 1 0 1 2 1 1 1 0 1 2 1 1 1 1 1 2 2 2 0 1 1 1 1 2 1 2 0 3 1 2 2 1 1 2 2 1 1 1 3 2 0 1 1 1 2 1 1 1 1 2 2 1 1 2 1 4 1 0 0 2 0 2 2 0 0 0 0 0 2 0 1 0 1 2 0 0 2 1 2 3 0 0 1 3 2 0 1 1 0 1 2 1 3 1 2 1 0 2 2 0 2 0 0 0 2 1 2 1 1 1 1 0 2 1 2 2 2 2 1 1 1 0 1 2 1 1 0 2 0 1 2 2 0 0 0 2 0 0 2 2 0 0 0 1 1 2 1 0 1 2 1 1 1 1 1 1 1 1 1 2 0 1 3 1 2 1 2 0 1 0 0 1 1 2 1 3 1 2 0 1 1 2 3 1 5 1 2 0 1 0 3 1 3 1 3 2 3 0 0 2 0 1 1 2 1 3 2 3 1 2 1 2 0 0 0 1 0 1 2 0 2 2 1 2 1 1 1 1 2 2 0 2 1 1 0 1 1 1 0 1 0 0 3 2 2 2 2 0 1 2 1 0 2 2 2 1 1 1 1 3 1 2 0 1 0 2 2 1 2 1 1 1 0 2 1 1 2 0 2 3 1 0 2 1 0 0 2 2 1 2 0 0 2 1 2 1 2 2 0 0 2 2 0 2 1 0 1 1 0 1 3 3 1 1 1 0 2 1 1 2 0 2 1 3 1 2 1 1 0 0 2 1 1 3 3 2 2 2 4 2 2 1 3 4 3 0 2 4 2 1 0 1 1 1 1 1 2 1 0 0 0 0 1 1 0 1 0 1 1 1 1 2 1 2 0 1 1 0 2 3 2 0 1 2 3 0 1 1 1 1 1 2 0 1 1 2 1 2 2 2 1 2 2 2 1 1 0 0 2 3 1 1 0 1 1 1 1 0 0 0 1 1 1 3 2 0 2 1 1 1 1 1 0 0 1 1 1 2 2 0 2 1 2 0 1 2 1 1 1 0 1 0 2 1 0 2 1 0 2 0 1 1 0 2 2 0 1 1 0 1 2 1 1 0 0 0 0 2 0 1 2 2 0 2 1 0 4 1 4 0 1 1 0 2 2 0 1 0 2 1 0 0 0 1 3 1 1 1 1 1 1 2 0 0 2 0 3 2 1 0 1 1 1 1 1 2 2 0 1 2 1 2 0 2 2 0 1 0 1 0 0 1 2 0 0 1 1 1 1 1 0 2 1 2 0 1 0 2 2 1 0 4 0 1 1 1 2 2 0 1 1 2 3 1 2 2 2 0 1 1 2 1 2 1 0 1 1 0 1 0 1 0 1 2 2 0 2 2 1 1 1 0 0 2 3 0 1 1 1 1 1 1 2 3 1 1 2 0 1 1 2 2 1 0 0 0 1 1 1 1 2 1 1 1 1 1 2 0 2 1 4 2 1 1 1 1 0 2 1 1 0 1 2 0 1 0 0 1 2 1 2 2 1 0 3 2 1 1 1 1 1 1 1 2 1 3 2 2 1 1 1 1 3 2 1 2 2 2 3 2 2 2 1 2 1 1 0 1 1 3 1 1 0 1 3 0 2 2 1 2 2 2 2 2 2 2 2 1 2 1 0 0 1 1 2 1 1 1 3 2 2 1 2 1 0 0 0 1 2 2 0 1 2 3 2 2 1 2 2 1 2 0 0 3 0 0 0 2 2 0 0 0 1 2 1 2 1 0 1 1 1 2 0 2 1 3 2 0 1 0 0 0 1 1 0 2 2 0 1 0 3 1 1 1 1 1 2 3 0 1 1 0 2 2 1 0 2 2 1 3 2 1 2 1 0 1 1 2 1 0 1 1 1 0 1 0 1 2 2 1 3 1 0 1 2 1 3 1 1 1 0 0 2 1 0 1 1 2 0 0 2 2 2 1 1 0 1 0 0 2 1 3 1 2 1 0 1 1 1 1 2 1 0 2 2 2 1 0 0 1 2 0 1 0 3 2 1 1 1 1 0 1 0 1 0 2 3 2 2 1 0 2 0 0 1 1 1 2 1 0 1 0 2 0 1 1 0 1 0 3 3 1 1 1 0 1 1 0 0 1 0 1 0 3 2 0 1 0 0 1 1 1 0 2 0 0 1 0 0 1 2 1 1 1 1 2 2 1 1 1 3 1 1 1 3 2 0 1 1 1 2 2 3 1 1 1 1 3 1 0 3 0 1 2 0 1 3 3 1 1 1 4 3 1 2 0 1 0 0 1 1 2 1 1 1 1 1 1 4 0 3 1 2 2 2 3 1 1 3 1 2 1 1 0 1 2 1 0 2 0 0 1 0 2 1 1 1 1 1 1 1 1 2 0 1 1 1 1 1 1 1 0 2 1 1 1 2 0 1 0 1 1 3 1 1 0 0 1 4 1 0 0 2 1 2 1 1 1 0 2 2 1 2 1 0 0 2 1 0 2 0 1 2 1 2 2 2 0 0 1 1 2 1 1 0 1 2 2 2 0 1 0 0 1 1 2 1 2 0 2 1 0 0 1 0 1 2 2 0 2 1 3 0 3 1 2 0 2 0 1 1 1 1 0 2 1 1 0 1 1 2 1 0 1 1 0 0 0 1 1 0 4 2 0 0 0 0 2 3 1 2 0 1 3 0 1 0 1 0 3 3 0 1 2 2 0 1 2 1 4 2 0 1 1 1 1 1 2 2 3 1 0 0 3 0 2 0 1 0 2 1 1 1 2 2 0 2 2 1 2 0 1 0 1 2 1 1 3 1 2 1 0 1 1 1 1 2 1 0 0 1 1 0 3 2 0 2 1 1 1 0 2 2 2 0 1 0 1 1 1 0 0 1 1 1 2 0 0 1 0 3 3 0 3 1 0 2 0 0 2 2 2 2 2 2 0 1 2 0 1 0 1 0 1 2 2 1 0 2 2 2 3 1 1 0 1 2 1 1 1 2 0 1 0 1 1 1 1 3 1 0 1 2 1 2 2 1 0 1 1 1 3 1 1 1 1 0 1 0 1 1 1 1 0 2 1 1 2 0 1 1 2 0 0 0 2 0 1 1 2 0 1 1 2 0 2 0 1 1 1 1 2 1 0 0 1 1 1 3 3 0 1 1 1 0 0 0 0 0 2 2 1 1 0 1 3 2 1 1 0 2 1 0 2 2 1 1 0 3 0 0 1 0 2 1 3 2 1 1 2 1 1 0 2 1 0 0 0 1 0 1 3 1 0 0 2 1 3 1 1 0 2 2 2 1 1 0 1 2 1 1 1 1 3 2 2 3 1 1 0 3 1 1 1 1 2 0 3 1 3 2 1 0 3 1 1 2 0 0 2 1 0 3 2 1 0 0 3 0 1 1 0 1 2 2 3 3 1 0 1 3 3 1 0 0 1 0 0 0 3 1 0 1 0 3 1 0 1 0 1 2 2 1 2 1 0 1 3 1 2 3 0 1 1 2 1 2 1 1 1 2 3 1 1 1 3 0 3 1 2 2 1 0 0 0 0 0 2 0 0 0 1 2 0 1 1 0 2 1 0 0 0 1 0 3 3 2 2 1 1 1 0 0 1 1 1 2 0 1 0 2 3 1 0 0 3 2 3 2 1 1 0 1 1 1 1 0 2 1 1 2 1 0 0 1 0 2 2 1 2 0 0 0 0 0 1 0 0 1 0 1 2 1 2 1 2 2 0 2 1 2 1 0 1 2 2 1 1 0 2 1 2 1 1 1 0 2 0 1 1 2 2 1 2 0 2 0 1 1 2 1 1 1 1 0 0 3 4 3 2 0 3 0 1 1 0 1 2 0 1 1 1 2 1 0 3 2 1 1 1 0 1 2 1 1 3 0 1 2 2 1 1 0 0 0 0 2 2 2 4 1 0 2 2 2 2 4 0 2 2 1 3 2 0 1 0 3 0 1 1 2 0 3 0 2 1 0 2 0 0 0 2 0 1 2 1 0 1 1 1 1 0 1 2 1 0 0 0 0 1 0 0 2 0 1 1 2 0 1 1 1 0 1 0 2 1 1 2 1 2 1 2 0 1 1 0 1 2 2 0 0 0 0 0 2 2 1 1 1 1 0 3 0 0 2 1 1 1 1 2 1 0 2 2 3 0 2 1 2 1 2 0 0 2 1 0 2 0 1 1 2 0 3 1 0 2 0 1 1 3 1 2 1 1 0 0 2 2 1 0 1 0 0 1 0 1 1 2 1 1 2 2 2 1 1 2 0 1 2 1 1 3 1 1 3 1 1 2 0 1 1 1 2 0 2 1 1 4 0 2 0 2 0 1 0 1 2 0 0 1 0 2 1 2 1 1 3 2 2 1 0 2 0 1 2 1 2 1 0 1 1 0 2 1 0 0 1 2 1 0 1 3 3 2 2 1 0 2 2 0 1 1 0 1 1 1 0 2 1 2 2 1 3 2 1 1 0 0 2 2 1 0 1 0 0 0 1 0 2 1 0 2 0 1 1 2 1 1 2 2 3 2 1 1 0 2 1 1 2 2 2 1 1 0 1 2 2 0 0 0 0 2 1 2 2 0 2 2 3 1 2 2 2 1 0 1 1 2 3 0 2 1 0 2 1 2 0 0 2 2 2 0 1 2 0 1 0 1 2 1 2 2 0 1 3 2 0 3 0 0 1 1 1 1 1 0 1 0 2 1 0 3 2 0 0 1 1 2 2 2 2 2 1 1 0 0 1 1 2 1 1 1 1 2 1 2 1 1 2 0 2 2 1 0 2 2 1 3 1 2 0 1 3 3 1 1 4 1 0 2 1 1 1 2 1 1 0 1 2 1 0 1 2 2 3 1 2 0 0 1 0 1 1 2 1 1 3 0 1 1 1 0 1 0 1 2 1 1 1 1 1 1 1 1 2 1 1 0 1 2 0 2 1 1 2 2 2 1 0 0 0 1 0 2 1 1 0 0 0 0 2 0 0 0 1 1 0 1 3 2 0 2 0 0 1 0 0 1 1 1 0 2 1 2 1 0 2 2 1 0 2 1 2 1 2 0 1 3 1 1 0 2 1 0 1 0 0 2 2 1 0 1 1 1 1 1 1 0 1 2 1 0 1 2 0 2 1 2 1 1 2 2 2 3 1 2 0 0 0 1 2 1 2 3 0 0 2 1 3 0 0 3 0 1 1 1 0 1 2 2 1 2 3 3 2 1 1 1 0 1 1 1 2 1 1 1 2 1 2 2 2 1 3 3 1 1 0 4 2 1 1 1 1 0 1 0 1 1 3 0 1 2 1 2 1 1 4 2 2 1 2 0 1 2 2 0 0 2 1 2 0 0 0 1 2 1 1 0 1 0 3 0 3 0 1 2 2 2 0 1 1 2 3 1 1 1 1 2 1 3 0 0 0 2 0 2 0 3 3 2 0 1 0 2 0 2 2 1 2 0 2 3 0 0 0 2 2 1 2 2 1 1 0 0 0 2 2 1 0 0 2 0 2 1 1 2 1 3 0 3 1 1 1 0 0 1 2 0 2 1 1 2 2 2 0 1 2 2 0 1 1 4 0 0 1 1 0 0 1 0 1 1 0 2 0 1 0 1 0 0 0 0 2 1 0 1 2 2 1 1 2 1 1 2 0 1 0 1 1 0 0 1 1 1 1 1 1 2 1 2 1 1 0 1 2 4 2 2 1 1 0 2 1 1 1 1 0 2 3 3 3 0 0 2 1 0 2 0 2 0 2 2 1 4 2 1 0 1 3 1 1 3 1 1 0 2 1 1 2 0 1 2 3 2 2 3 2 1 2 1 3 2 1 2 1 1 2 0 1 0 1 0 3 1 2 1 2 0 1 2 0 1 1 0 1 1 1 1 2 1 2 1 0 1 0 1 3 0 2 1 0 2 1 1 0 1 1 0 1 1 0 2 1 1 3 4 3 0 1 0 1 2 1 2 1 3 1 0 0 2 1 1 2 3 3 1 1 1 0 0 2 3 1 1 1 4 4 3 3 1 1 2 2 1 1 1 0 2 2 1 0 3 3 0 1 1 2 0 1 0 2 3 0 1 2 3 1 2 2 2 1 2 1 1 0 0 2 1 1 0 1 1 2 1 2 1 2 1 1 3 1 1 3 1 3 1 1 0 2 0 1 1 1 1 1 1 2 1 2 1 0 0 1 0 0 3 2 1 3 0 1 0 1 2 1 1 3 0 2 0 1 2 1 0 1 1 1 1 1 0 0 3 0 1 1 0 2 0 0 3 2 0 2 1 1 2 2 1 2 1 0 0 1 4 2 2 2 2 2 2 2 0 1 1 1 1 0 0 0 1 1 1 2 3 1 3 0 0 2 0 2 3 3 1 1 0 1 1 3 0 2 1 3 1 0 2 1 2 2 0 2 1 1 2 3 0 2 0 0 2 0 0 1 0 1 0 1 2 0 1 0 3 2 1 2 1 2 1 2 1 2 0 1 2 1 4 1 0 2 0 0 1 1 3 2 1 1 2 2 1 1 3 1 1 1 2 0 1 0 0 1 1 2 1 0 0 2 0 2 1 2 1 1 1 3 1 2 2 1 0 2 2 0 0 2 2 1 1 3 0 1 2 2 0 1 1 2 0 0 3 2 0 3 0 0 1 0 1 3 1 2 0 2 3 1 2 1 3 1 1 0 1 1 1 1 1 0 2 1 1 2 1 3 1 1 3 1 2 1 2 0 1 1 2 0 1 1 2 0 0 1 2 1 1 0 2 2 0 0 2 0 1 1 1 1 2 1 2 1 2 1 0 3 1 1 2 1 1 2 0 1 1 0 0 2 1 1 1 1 1 1 1 0 1 0 0 3 1 1 1 2 0 2 1 0 1 1 3 1 0 0 0 1 1 1 1 0 0 1 2 1 0 2 1 0 1 2 2 2 2 1 2 2 1 2 2 2 0 2 0 1 1 2 1 3 2 1 1 1 3 1 3 1 1 0 3 3 2 1 2 1 0 2 1 1 2 2 2 2 1 1 0 1 1 2 2 1 2 1 1 2 1 1 2 1 2 1 1 1 0 3 0 1 1 2 0 1 2 0 1 2 3 1 1 1 1 1 1 2 1 1 2 0 0 0 2 1 0 4 1 1 0 3 2 2 1 1 1 1 1 1 1 1 0 1 1 0 0 0 1 1 0 0 1 1 0 2 3 1 2 1 1 3 1 1 1 1 1 1 1 0 2 0 2 1 2 1 1 0 0 0 1 0 1 0 3 0 1 1 1 0 2 3 0 1 3 1 1 0 1 2 2 2 2 2 2 1 1 1 0 0 1 1 0 1 1 0 0 2 1 2 2 1 2 0 0 2 1 1 2 1 0 1 1 0 0 2 2 1 0 0 1 0 2 1 2 3 2 2 1 2 1 1 3 1 2 1 2 0 0 0 1 1 2 2 0 2 0 0 3 2 2 1 1 0 1 2 1 1 1 0 1 1 1 2 2 1 0 0 0 1 2 2 3 2 2 1 3 0 1 0 0 1 0 0 1 3 1 2 4 1 1 1 1 1 1 1 0 1 2 2 1 2 4 1 2 1 1 1 1 4 1 0 3 0 0 0 1 2 1 1 2 1 1 0 1 2 0 2 1 1 3 1 0 1 4 3 0 2 1 0 1 1 1 0 0 2 3 0 1 2 0 1 2 1 0 0 2 1 1 1 1 1 0 2 1 1 1 1 2 1 0 2 0 0 1 2 3 0 2 2 1 1 2 1 0 0 1 0 4 2 0 3 2 2 1 1 2 1 1 1 1 1 1 2 2 2 2 2 0 1 2 0 0 1 1 3 0 0 0 0 1 1 2 1 1 0 2 1 1 2 1 1 1 2 2 2 1 2 1 2 1 1 0 2 0 0 1 3 2 1 2 0 0 2 2 0 0 1 1 2 3 3 1 1 0 2 1 2 3 1 0 3 2 0 2 1 3 1 1 1 1 0 4 2 2 1 4 0 2 1 2 2 1 1 2 1 2 1 2 1 1 0 2 0 1 1 2 0 2 0 0 1 1 2 1 1 2 0 1 1 3 3 0 0 0 0 0 1 1 0 2 0 0 0 3 1 1 0 1 1 2 0 0 0 1 1 2 1 2 1 0 1 2 1 2 0 1 0 1 1 1 2 1 1 3 3 1 1 1 2 1 2 2 2 1 2 0 2 0 0 1 0 1 3 1 3 0 0 0 4 1 1 1 1 1 1 0 0 1 1 1 1 1 1 2 1 2 1 0 0 1 0 2 1 1 0 1 0 2 3 2 1 2 1 2 1 1 3 1 0 1 1 1 1 2 2 2 0 0 2 2 1 3 1 1 2 1 1 1 1 0 0 1 0 0 0 0 0 0 1 2 0 0 1 4 2 2 0 0 2 3 0 1 0 0 1 3 0 1 2 1 0 1 2 1 3 1 1 0 2 2 1 1 1 0 1 2 0 0 2 1 2 1 0 0 1 1 1 0 0 1 0 2 1 0 1 1 1 0 0 2 0 2 0 1 0 2 0 1 1 1 1 1 0 1 2 0 0 1 2 2 0 1 1 2 0 1 0 2 0 1 1 4 0 1 1 1 2 1 2 3 1 2 1 0 2 2 0 1 0 1 3 4 0 2 0 1 2 2 0 2 2 2 1 1 2 1 1 1 0 3 1 3 1 1 0 1 1 2 1 3 3 2 1 2 2 1 2 2 3 1 2 0 2 2 0 2 0 2 2 1 2 0 1 2 1 1 1 0 1 1 2 1 1 2 0 1 3 2 0 0 1 2 1 1 1 0 0 1 1 4 2 0 1 3 2 2 1 2 2 1 2 3 2 1 1 1 1 0 2 0 1 2 1 1 1 0 0 1 1 1 0 0 3 1 3 0 3 1 2 3 3 2 1 2 1 2 0 1 2 0 2 1 0 1 1 1 1 1 2 2 0 3 3 0 2 2 1 2 1 1 0 3 0 1 0 3 1 0 2 0 1 1 1 2 1 2 1 1 3 1 1 1 1 0 3 0 1 0 2 2 2 3 1 0 0 1 2 2 1 2 0 1 0 4 1 0 2 0 1 1 1 1 4 0 3 0 0 0 2 1 1 0 2 0 1 1 0 2 1 3 1 1 2 1 1 0 3 0 1 2 2 1 3 2 0 1 3 2 0 1 0 1 2 1 1 1 0 0 2 1 2 1 1 2 3 0 1 2 0 0 0 1 0 2 2 1 0 0 0 2 1 0 1 1 1 2 2 3 2 2 2 2 1 1 3 1 1 1 2 0 1 0 2 1 1 0 0 1 3 0 1 4 3 0 1 0 1 1 2 1 1 2 1 0 0 2 2 1 0 0 1 1 2 2 0 0 3 0 1 0 2 0 1 1 0 3 0 3 1 0 3 2 2 0 1 1 1 0 0 1 2 0 1 3 1 1 1 1 0 2 1 1 2 0 2 0 0 3 1 1 1 1 3 1 0 1 0 2 0 2 1 3 4 2 0 1 0 1 0 1 1 1 0 1 1 0 0 3 3 2 0 2 3 0 2 2 1 0 3 3 0 2 1 0 1 1 1 1 0 2 1 3 2 1 0 0 2 2 0 1 3 1 1 2 1 1 0 0 2 1 1 2 1 2 0 0 4 1 1 1 1 1 2 1 0 1 0 1 1 1 1 1 1 1 0 0 0 1 1 0 0 0 2 1 1 3 1 0 0 1 0 2 0 0 0 2 2 1 3 2 1 0 0 1 2 1 2 0 3 1 2 3 1 2 2 1 0 0 0 0 1 0 0 2 1 2 2 0 3 2 1 1 1 3 0 0 1 3 0 2 0 3 1 1 0 2 2 0 1 0 1 0 1 1 1 3 2 2 0 2 1 2 0 2 1 1 1 3 1 0 1 2 0 2 0 2 1 4 0 2 1 0 2 2 0 2 3 2 1 0 1 0 2 0 3 1 1 1 1 0 1 0 2 1 2 0 1 0 2 2 1 1 1 2 0 1 1 0 2 1 3 0 1 0 1 1 1 0 0 1 2 3 2 4 0 1 2 0 2 1 1 1 0 2 1 2 2 2 1 0 0 2 1 2 3 2 1 4 0 0 2 2 0 1 2 2 1 1 1 0 1 1 1 1 1 1 1 2 2 2 1 0 0 1 0 2 0 1 4 2 1 3 3 1 2 0 0 3 2 1 0 1 1 1 2 3 1 0 2 0 2 1 1 1 2 3 1 0 2 4 3 1 1 1 1 2 1 0 3 1 0 1 1 3 1 0 0 1 0 2 1 2 1 0 1 2 1 2 2 1 0 0 2 1 2 1 1 0 2 5 1 1 0 1 1 1 1 2 0 1 0 2 0 2 1 1 0 0 1 1 2 2 3 1 4 1 1 3 0 1 2 1 2 2 1 1 0 2 1 1 0 1 0 0 0 0 2 3 1 1 4 2 2 0 1 1 0 1 1 1 0 2 2 1 1 1 1 1 0 1 0 1 0 1 0 0 0 0 0 1 1 2 0 0 2 0 0 2 1 1 1 0 2 1 1 2 1 1 0 2 1 1 2 1 1 2 0 2 1 1 3 0 1 0 3 1 0 2 0 0 1 1 0 2 2 1 4 1 0 1 0 1 1 1 1 3 2 1 3 2 4 0 3 2 1 3 2 1 2 2 2 2 1 1 3 2 3 2 0 2 3 1 1 2 1 3 2 4 1 1 3 0 1 0 3 1 0 2 0 1 1 1 1 1 2 1 2 1 1 1 1 2 0 0 1 1 1 1 2 1 0 1 2 0 3 3 2 1 1 3 2 1 2 3 2 1 0 3 2 3 1 1 0 2 0 1 1 2 2 1 0 1 0 1 0 1 1 1 1 0 1 1 1 1 1 0 1 1 2 2 2 3 1 1 0 1 2 1 2 1 2 0 1 0 0 1 2 1 1 1 1 0 1 0 2 1 0 1 2 1 1 1 1 1 1 1 0 1 1 1 1 2 1 1 1 2 1 0 0 2 1 0 0 1 0 2 3 1 2 0 3 1 2 1 0 1 3 1 0 2 2 0 1 2 4 0 2 1 0 0 0 0 0 0 1 2 1 0 0 0 3 1 0 2 0 0 0 1 0 2 1 1 2 1 1 2 0 2 0 3 3 3 0 0 1 2 1 1 3 1 0 1 0 2 3 0 2 0 2 1 0 1 0 2 1 0 2 1 1 0 1 0 2 0 0 0 1 1 2 0 1 0 1 2 1 2 2 0 1 1 2 1 0 1 1 2 2 2 1 0 1 2 0 0 1 1 1 1 2 1 1 3 0 1 2 0 1 0 0 1 1 1 1 0 4 2 2 2 1 2 0 1 2 3 2 2 3 2 1 0 2 4 1 1 0 1 2 2 0 3 2 1 0 2 2 2 1 2 1 1 1 0 1 1 3 1 1 0 0 1 1 1 1 2 1 0 2 1 0 1 2 2 2 2 1 3 1 3 3 1 3 1 1 2 3 1 0 2 1 1 3 0 1 0 3 2 1 2 0 1 2 0 0 1 1 2 1 0 0 0 0 0 1 2 2 1 2 2 1 1 2 0 2 2 2 1 1 2 0 3 1 2 0 2 3 1 2 1 3 0 1 0 0 1 1 1 1 1 1 1 3 0 1 3 1 2 3 1 0 1 1 1 0 1 2 2 3 4 2 1 1 1 1 2 0 2 1 1 1 0 1 2 0 1 2 0 1 0 2 2 1 1 0 2 1 0 1 1 3 1 0 1 1 2 0 0 0 1 2 1 1 0 1 3 0 1 0 0 1 2 0 1 1 1 0 0 2 1 2 2 2 1 2 2 3 1 1 0 0 1 1 2 2 3 0 2 3 3 1 1 1 1 2 1 1 0 1 1 1 2 1 1 0 2 2 1 1 1 1 3 0 1 0 2 3 1 3 2 2 0 0 1 2 2 0 2 3 0 2 1 0 1 1 1 1 2 1 0 2 0 1 0 1 1 2 1 0 1 0 1 0 0 0 2 1 1 2 1 0 0 1 0 1 0 0 3 0 1 1 2 1 2 0 0 1 1 1 1 2 1 2 3 2 1 1 0 1 1 0 3 2 1 0 0 0 1 2 2 0 1 3 0 2 2 3 1 0 1 1 1 0 2 1 0 2 2 2 2 1 2 2 2 2 3 1 1 1 0 0 1 0 0 2 0 1 1 2 1 2 2 3 2 0 2 1 2 0 2 1 2 1 1 0 1 0 1 0 1 1 2 0 1 2 1 1 0 4 0 1 2 2 0 1 0 1 1 1 1 2 1 2 3 3 1 1 2 2 1 1 3 1 2 2 1 1 3 0 2 1 1 0 0 0 2 1 0 1 0 1 1 0 2 1 1 0 3 1 1 1 3 0 0 1 0 0 2 3 0 1 3 1 1 0 1 2 1 1 2 0 0 0 2 1 0 1 2 1 1 4 1 2 1 4 2 1 0 2 1 3 1 2 1 1 0 3 1 2 1 0 1 2 1 2 1 1 1 2 2 2 3 1 2 2 1 2 2 1 0 1 1 2 1 1 1 2 1 1 2 1 0 1 3 2 2 2 3 0 2 1 1 2 2 0 2 1 0 2 0 1 0 3 2 1 2 1 0 0 2 0 1 1 0 1 1 0 0 1 1 0 0 1 1 1 2 1 1 0 2 2 1 1 1 1 1 1 1 0 1 0 0 1 0 1 3 2 1 3 2 1 1 0 2 0 2 1 1 0 1 0 4 1 2 2 1 3 1 1 1 0 2 1 2 2 1 1 2 1 0 2 3 2 2 1 2 2 1 2 0 3 1 1 0 1 1 0 2 0 2 1 1 0 1 2 1 2 2 2 1 2 2 2 1 1 1 1 1 1 1 1 1 3 3 1 2 1 2 0 1 0 3 1 2 1 2 4 0 2 1 1 0 2 0 2 2 1 2 1 1 1 1 0 3 0 3 2 1 1 1 1 1 2 0 2 1 3 2 1 1 2 2 1 0 2 0 2 3 1 2 2 1 1 1 0 1 1 0 1 1 0 3 1 3 1 2 0 0 1 0 0 1 3 2 3 2 1 3 0 0 0 2 0 1 0 1 1 1 0 1 1 1 2 1 1 2 0 1 3 2 1 3 0 3 1 1 2 1 1 2 1 2 0 1 4 2 2 1 3 2 2 2 2 1 1 1 0 0 1 1 1 0 2 2 1 2 0 1 0 1 0 1 1 1 2 1 0 0 2 2 1 3 0 0 1 0 1 1 0 1 2 1 1 3 0 0 2 2 2 3 1 1 2 2 0 1 1 0 0 0 1 0 0 3 3 0 1 4 1 1 1 1 2 1 1 2 1 2 1 1 1 1 1 1 1 2 1 0 2 1 2 2 0 2 2 1 1 1 0 1 0 2 0 1 0 3 2 1 2 1 0 1 0 1 1 2 3 3 1 3 1 1 2 3 4 2 2 1 1 2 0 1 1 2 1 3 0 1 0 1 0 2 1 1 1 0 1 0 0 3 0 0 1 1 0 2 1 1 1 1 0 0 1 1 1 1 0 1 1 1 1 1 0 2 3 2 0 0 2 1 2 0 0 1 2 2 1 0 1 0 2 2 2 0 1 0 1 1 2 0 1 1 2 1 0 2 2 2 0 1 0 0 3 4 1 2 2 0 2 0 1 2 0 0 1 1 2 1 1 2 3 1 3 0 3 1 4 0 2 1 3 2 0 1 2 0 1 1 1 0 1 1 0 2 2 1 1 1 0 2 3 2 3 0 1 2 1 0 0 1 2 0 1 0 2 0 1 1 1 1 1 1 1 1 0 2 2 2 2 1 1 0 0 3 2 2 0 1 1 1 0 0 3 0 0 2 1 2 2 1 1 1 0 1 3 2 2 1 0 1 1 1 1 1 0 2 0 0 1 0 1 2 1 2 1 1 0 2 0 1 1 3 2 1 1 1 1 2 1 0 1 1 0 2 0 0 0 1 3 2 0 2 1 3 1 2 2 0 2 1 2 2 2 3 0 1 3 2 1 2 2 1 2 2 1 2 1 1 2 2 0 0 2 0 0 1 1 1 0 1 2 0 0 1 2 1 0 1 1 0 1 0 0 2 3 0 2 1 0 0 2 0 1 0 1 4 2 2 1 1 1 1 3 2 0 2 3 4 1 2 2 1 2 1 0 1 1 0 1 1 0 1 1 1 1 1 2 1 1 1 1 3 2 0 2 2 3 3 0 0 2 0 1 0 2 0 1 2 1 2 1 0 1 0 1 2 1 1 1 0 1 0 0 1 1 2 3 0 3 0 2 2 0 3 3 1 0 1 2 1 2 1 2 2 1 2 2 1 2 2 2 2 1 0 1 0 1 0 0 1 2 0 2 0 2 2 3 3 0 1 1 1 3 1 0 1 2 1 1 1 1 1 0 3 0 2 1 1 1 1 0 0 2 0 0 1 1 1 0 0 1 1 3 1 2 1 0 3 2 2 0 2 3 2 0 0 2 1 2 0 0 2 1 1 1 0 2 0 1 1 3 0 1 1 3 2 0 1 3 1 1 1 1 1 0 0 2 0 1 2 2 3 1 1 3 0 0 1 3 2 2 1 1 2 2 1 1 1 1 0 0 3 1 0 2 1 2 0 2 2 1 4 0 1 0 1 1 3 2 2 1 1 1 3 1 1 1 1 2 0 2 2 1 1 1 0 1 1 1 0 0 1 0 1 0 1 1 2 1 1 0 1 1 1 4 2 1 1 1 3 2 0 1 3 2 1 3 0 1 1 0 2 1 1 1 1 3 0 3 2 1 1 1 2 2 2 4 3 1 1 2 2 0 1 1 0 0 4 0 2 2 3 2 1 0 0 0 2 1 0 1 3 1 0 3 2 0 1 1 0 0 2 1 3 1 2 1 2 0 0 4 0 1 3 3 1 3 1 3 0 1 2 0 2 1 2 1 0 2 1 1 2 1 2 2 2 0 1 3 0 2 0 2 0 1 1 1 1 1 2 1 2 2 1 0 2 1 4 2 1 1 2 1 1 1 2 1 3 1 5 0 1 3 2 0 1 1 0 2 2 1 2 1 0 2 2 1 2 1 2 3 1 2 1 3 3 2 0 1 2 1 3 0 1 1 2 2 0 2 1 0 1 3 1 0 1 1 0 1 2 1 1 0 0 2 1 1 0 2 1 2 2 1 0 1 0 2 1 0 2 0 2 0 4 3 0 1 1 2 1 2 2 1 1 2 1 3 0 0 0 0 0 0 2 1 2 1 1 0 3 1 1 1 0 2 1 1 2 0 1 1 1 2 1 0 1 1 1 2 1 0 3 1 1 1 0 0 0 1 0 1 3 1 3 1 2 0 3 2 0 0 3 1 0 4 0 0 2 1 1 2 2 1 1 1 1 2 1 1 1 2 1 0 2 3 1 1 1 0 0 1 1 1 2 0 1 1 1 1 0 0 2 0 1 2 1 2 2 0 0 2 1 1 3 1 1 1 3 1 2 0 1 0 0 2 1 2 1 1 2 1 0 0 2 2 0 1 1 1 1 1 0 1 1 1 1 2 1 1 1 2 2 3 0 0 0 1 0 2 1 1 1 1 0 1 2 0 1 0 1 1 1 1 1 2 2 1 2 2 1 3 1 0 2 4 2 1 1 0 1 1 1 0 3 0 1 1 1 2 2 0 1 1 1 1 1 1 1 0 0 1 1 2 2 1 2 1 1 0 1 1 1 2 2 1 2 1 1 1 1 1 3 1 1 2 2 0 0 1 2 2 1 2 1 1 1 1 0 2 0 1 3 1 1 2 1 3 1 1 1 2 3 0 1 4 2 1 2 0 2 1 0 3 1 1 1 1 2 2 0 0 1 1 2 0 0 2 2 1 0 2 1 1 1 1 2 3 0 2 1 0 2 4 2 2 1 2 1 0 3 1 2 0 2 0 0 0 2 3 0 1 1 1 1 2 2 1 0 1 2 0 1 2 2 1 1 1 1 2 0 3 2 0 1 1 0 2 1 2 1 2 3 2 1 1 2 0 0 1 1 1 1 1 1 1 0 2 2 0 1 2 0 1 0 2 1 1 2 2 0 0 1 2 1 2 0 0 2 2 0 1 1 3 2 0 2 1 0 1 1 2 2 1 0 1 1 2 1 0 0 2 1 3 1 2 2 1 1 3 3 1 2 1 1 0 2 0 1 1 2 1 3 0 0 1 2 2 1 0 3 1 1 1 3 1 0 2 2 0 2 4 0 0 2 0 0 0 1 1 3 2 0 2 1 2 1 1 1 1 1 2 1 2 2 2 1 2 2 1 1 1 3 1 2 1 2 2 1 0 2 0 0 0 0 2 0 0 1 1 1 3 1 1 2 0 1 2 2 2 0 2 0 1 1 1 1 0 2 0 0 0 0 2 1 1 1 0 1 4 2 0 0 0 2 1 2 1 2 3 1 1 2 3 2 1 1 0 1 3 1 2 0 0 3 0 1 1 0 2 3 2 2 1 1 0 1 1 1 0 1 1 1 2 0 2 0 0 1 1 2 2 0 2 1 1 2 1 2 1 3 2 0 1 1 0 1 2 0 2 0 3 1 3 2 1 2 2 1 1 2 1 2 1 2 2 0 0 3 1 1 1 0 2 1 1 2 0 1 1 0 0 0 2 1 2 0 1 3 0 3 0 1 1 2 2 0 1 1 0 2 1 1 1 2 0 1 2 1 2 0 2 2 1 1 1 1 2 1 1 0 1 0 2 3 2 2 0 2 3 1 2 1 2 1 1 0 0 3 0 2 0 1 1 0 0 0 1 1 3 1 2 1 1 0 0 0 3 1 1 2 1 1 0 2 2 1 0 1 0 2 1 1 1 1 2 2 3 3 0 1 1 1 3 1 1 0 1 1 2 2 1 0 2 2 2 1 3 0 1 3 1 3 0 0 3 2 4 2 0 2 1 3 1 1 1 2 3 1 0 2 1 1 0 1 1 0 0 3 0 0 2 1 0 1 1 2 1 1 0 1 0 1 0 0 2 1 1 2 1 0 1 2 1 1 2 2 3 0 1 0 1 2 2 2 1 0 2 1 1 0 2 2 3 2 1 2 2 0 0 2 2 2 1 5 1 1 0 2 2 0 3 1 0 0 3 2 2 0 2 0 2 1 2 3 0 1 1 1 1 1 1 0 0 2 1 4 2 1 2 0 2 1 1 1 2 1 1 0 1 2 3 1 1 1 1 1 1 0 1 1 1 1 3 0 0 0 3 1 0 1 3 1 1 1 0 1 3 2 1 1 0 3 2 1 2 2 2 0 1 1 2 1 2 0 1 0 1 1 0 2 1 1 1 1 2 2 1 2 1 0 0 1 2 1 2 2 1 3 0 3 2 0 0 1 0 1 3 2 0 2 1 1 0 0 0 2 4 2 2 2 1 0 3 2 1 0 0 4 1 3 2 0 2 1 2 1 1 0 2 1 1 3 0 1 1 2 2 3 0 4 1 0 0 2 2 0 0 1 1 1 3</t>
+  </si>
+  <si>
+    <t>GAM(0.15188389193290844, -1.136125089575141e-30, 0.7258321316427554)</t>
+  </si>
+  <si>
+    <t>0 0 2 0 1 1 1 0 2 1 1 1 0 2 1 0 1 0 2 0 0 0 0 0 1 1 1 1 1 2 2 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 1 0 1 0 0 0 2 1 0 1 0 0 0 0 0 0 1 1 2 1 0 1 1 0 0 0 2 0 0 0 0 1 2 1 1 0 1 1 1 0 3 1 2 3 0 2 1 0 1 0 2 1 1 0 0 1 0 2 1 0 2 0 1 0 2 1 1 0 1 1 0 0 1 0 1 0 0 1 1 0 0 0 1 1 1 1 0 2 1 0 0 0 1 1 0 2 0 0 1 2 2 2 1 1 0 1 2 1 1 0 1 2 1 0 0 1 2 0 0 1 0 0 1 1 0 1 1 0 3 0 0 0 1 0 0 2 0 1 1 1 1 0 0 0 2 2 2 1 1 0 0 2 0 0 0 0 2 1 0 0 1 1 0 0 1 1 1 1 2 0 0 0 1 2 1 1 0 0 0 2 1 1 0 1 0 0 0 2 0 0 0 1 0 0 1 0 0 3 0 1 1 3 1 0 0 0 3 1 0 2 1 0 1 1 3 3 0 1 0 0 0 0 1 1 1 3 2 0 1 0 3 0 0 0 2 0 1 1 0 0 0 1 0 2 1 0 0 2 0 0 2 1 0 0 1 0 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 2 0 2 0 2 0 1 0 0 0 0 2 1 1 0 0 0 2 1 0 0 0 0 2 0 1 1 0 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 1 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 2 1 1 0 3 1 0 1 0 1 1 0 0 0 0 0 0 0 2 1 0 0 1 3 1 2 0 0 1 0 0 1 0 0 1 1 2 2 0 0 1 0 0 2 1 0 0 0 0 0 0 2 0 1 0 1 1 0 2 1 1 2 0 0 0 2 0 0 0 1 1 1 2 0 0 0 1 1 1 0 0 0 0 1 1 0 1 1 0 1 0 2 1 0 1 0 0 0 0 0 3 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 2 0 0 1 1 1 0 2 2 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 0 0 1 0 1 0 2 1 2 0 0 1 2 2 0 0 0 2 1 0 0 0 1 1 0 0 2 0 0 0 0 2 1 2 0 1 0 0 0 0 2 0 0 0 0 0 1 1 1 0 0 1 1 0 3 0 0 1 1 1 0 1 0 0 1 0 0 1 1 1 1 2 1 0 1 1 0 0 4 1 0 0 2 2 1 0 2 0 0 1 1 2 1 0 0 1 0 0 0 0 1 1 1 2 1 0 1 1 1 0 1 1 0 1 0 1 0 1 0 1 0 0 0 1 0 0 1 1 1 1 0 1 1 0 0 1 3 0 1 2 1 2 0 0 0 3 0 1 0 0 2 1 0 0 1 1 0 0 1 0 1 0 0 0 2 0 1 1 1 1 0 1 2 1 0 0 0 0 1 0 0 0 0 0 0 0 2 0 1 0 2 0 2 0 1 2 1 3 0 0 0 0 1 1 1 1 1 0 1 2 1 2 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 2 0 0 0 2 0 0 2 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 1 2 0 1 2 1 2 2 1 0 1 0 0 0 0 1 3 1 0 1 1 1 1 1 1 1 0 1 0 0 1 0 1 1 0 1 1 1 1 0 1 0 0 0 1 1 1 0 1 1 2 0 0 1 1 0 0 0 0 1 1 0 1 0 1 2 1 1 2 1 0 0 0 0 1 1 0 0 0 0 0 1 1 0 2 1 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 1 0 0 1 1 2 1 0 0 0 1 0 0 2 2 0 0 0 1 0 1 0 1 4 0 1 1 0 0 1 1 2 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 2 1 3 0 1 0 1 0 1 1 0 0 1 0 0 0 1 1 0 1 0 1 0 0 0 0 2 0 1 0 2 0 1 1 1 0 0 0 1 0 0 0 1 0 1 1 1 0 0 0 0 1 1 2 0 0 0 2 1 1 0 0 0 1 2 0 1 1 0 1 0 2 0 1 1 3 0 0 1 0 1 1 0 2 2 0 1 0 1 0 0 2 0 1 0 1 1 1 2 1 1 1 1 0 4 2 0 0 0 1 0 2 0 0 1 1 1 0 1 2 1 0 0 0 1 0 1 0 1 1 1 1 2 0 0 2 0 0 0 0 0 0 0 1 1 1 1 0 1 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 1 0 2 0 2 1 1 0 3 0 0 0 1 1 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 1 2 1 0 1 1 1 0 0 0 0 0 1 0 1 2 2 1 0 2 0 0 1 0 0 1 1 0 0 1 0 0 1 0 0 1 0 0 1 1 2 0 0 1 0 3 0 1 2 0 0 1 2 1 1 1 0 0 2 0 0 1 0 1 1 0 0 2 0 0 0 1 1 1 3 0 0 0 0 0 2 1 1 1 1 1 0 0 1 0 0 0 0 0 2 1 1 1 0 1 0 0 0 1 0 2 2 1 0 0 2 0 0 1 0 0 2 0 0 1 0 1 0 1 1 0 1 1 1 0 2 1 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 3 0 0 0 0 0 0 1 0 0 1 1 1 1 0 1 2 0 1 3 0 1 1 0 1 1 0 2 2 0 1 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 2 3 1 1 1 1 0 0 0 2 4 4 0 1 0 1 2 1 0 0 0 0 0 0 0 0 1 0 1 2 0 1 0 0 0 2 4 1 1 0 0 0 0 1 0 2 0 0 0 1 1 2 0 0 0 0 2 0 0 0 0 2 0 1 2 1 0 0 1 0 0 0 0 0 1 0 1 0 0 2 1 1 2 1 2 0 1 1 2 0 0 0 0 0 0 0 1 0 2 0 0 0 1 1 1 1 0 0 0 1 2 0 2 1 0 0 0 0 0 0 0 1 2 0 0 2 0 1 2 0 1 1 0 0 1 1 0 2 2 1 1 0 2 0 0 0 0 0 0 4 2 1 0 1 1 2 1 1 0 1 0 1 0 1 1 0 0 1 1 0 0 0 1 0 1 0 0 1 0 3 0 2 1 1 1 1 0 2 0 0 0 0 1 0 0 0 1 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 1 1 1 0 3 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 1 1 1 1 1 0 1 1 2 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 3 0 1 0 0 0 1 0 1 0 0 1 0 4 1 2 0 1 1 1 0 1 1 0 1 0 1 0 0 0 0 0 1 1 1 2 1 0 1 1 1 0 1 0 0 0 0 0 0 2 0 0 0 0 2 1 1 0 0 2 0 0 1 0 2 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 2 0 0 2 0 1 0 0 1 0 0 0 2 0 0 0 1 0 2 0 0 1 0 0 0 1 0 1 0 0 0 1 1 1 1 2 0 0 0 1 2 0 1 0 1 1 1 0 0 0 0 0 0 0 1 3 0 0 0 0 1 1 0 0 0 2 0 0 0 1 1 1 0 0 0 1 1 2 1 0 0 0 0 3 0 1 0 1 1 0 1 0 1 0 0 0 1 0 0 1 0 0 1 0 1 2 0 0 0 0 0 0 3 1 1 0 0 0 0 1 0 1 1 0 1 1 0 2 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 2 1 3 3 0 0 0 0 1 0 0 0 2 1 0 4 0 1 1 1 0 0 2 0 1 0 1 3 1 0 0 0 1 0 0 0 0 0 0 3 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 1 1 0 0 1 0 0 2 0 4 2 0 2 0 0 0 1 0 0 2 0 0 0 0 1 0 0 0 0 2 0 2 0 0 0 2 0 0 1 0 1 0 1 0 2 2 1 1 2 0 0 0 0 1 0 1 0 1 1 0 0 1 0 0 0 2 1 1 0 2 2 0 3 0 1 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 2 1 1 0 0 0 1 3 1 1 2 0 2 0 1 0 0 0 1 1 0 2 0 0 1 0 0 1 0 0 1 0 3 2 0 1 3 1 0 0 0 0 1 0 1 0 1 0 1 0 0 1 0 3 0 0 0 1 1 0 1 2 2 0 1 1 0 1 1 0 0 1 0 1 0 0 0 1 1 0 1 1 0 0 0 0 0 1 1 0 1 0 1 0 3 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 3 2 2 0 1 1 0 0 1 1 0 0 1 1 1 0 0 2 0 1 1 0 1 2 1 1 2 1 0 0 0 0 0 1 1 1 0 1 0 0 2 0 2 0 0 2 2 0 2 0 0 0 0 1 0 0 0 0 0 2 0 1 0 1 1 0 0 2 0 1 1 0 1 1 1 0 0 1 0 1 2 0 0 0 0 1 0 0 2 0 0 0 0 1 0 1 2 1 1 1 4 0 1 1 1 0 1 1 0 0 1 0 0 0 0 1 2 0 1 2 0 2 0 0 1 0 1 0 1 2 0 1 0 0 0 0 0 2 0 1 1 0 1 1 0 0 1 0 0 1 0 1 2 0 1 1 0 1 0 0 1 0 0 1 0 2 0 1 1 0 1 0 0 0 1 0 0 0 2 0 1 2 1 2 1 2 0 1 0 0 0 2 1 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 2 0 1 0 0 0 0 0 1 0 0 0 0 0 1 3 1 1 0 1 0 0 0 1 1 1 0 0 3 1 0 0 1 0 1 0 0 0 0 1 1 2 2 0 0 1 0 0 0 1 1 0 0 2 1 0 2 0 1 0 0 1 1 0 0 0 0 1 1 2 1 1 0 1 1 0 0 0 2 0 0 1 0 0 0 0 2 1 2 0 0 1 0 1 0 2 1 1 3 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 1 0 1 2 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 0 2 0 0 1 1 1 0 0 0 1 4 0 1 0 1 1 0 0 0 0 0 0 2 3 1 0 1 1 0 1 2 0 3 0 3 1 1 1 0 1 0 0 0 0 0 0 0 1 1 1 0 0 2 1 0 1 1 1 0 2 2 0 1 1 1 2 0 1 0 0 0 0 3 0 0 0 1 2 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 1 2 0 1 2 1 1 1 0 0 1 0 0 0 2 0 0 0 0 1 0 0 0 0 0 2 0 0 1 0 0 0 1 0 2 1 0 1 0 0 0 2 0 2 0 0 0 0 0 0 0 0 1 1 0 1 0 1 1 2 0 0 0 1 0 1 2 0 0 0 0 1 0 0 0 1 0 0 1 1 0 1 1 0 1 1 1 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 2 0 1 0 0 0 1 0 0 0 0 0 0 0 0 2 1 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 1 1 0 1 2 1 1 0 0 1 0 1 0 2 1 0 1 1 0 0 1 1 0 0 1 0 2 2 0 1 0 0 0 0 0 0 2 1 1 0 0 0 1 0 0 1 1 1 0 0 1 1 1 0 1 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 1 2 1 0 0 0 0 0 1 0 0 1 0 0 1 0 1 1 2 0 0 1 1 1 0 0 0 2 0 1 1 1 2 0 0 0 0 0 1 0 1 0 2 1 1 1 0 0 2 0 0 0 0 3 0 0 0 1 1 1 0 0 0 2 1 1 1 0 0 0 1 1 0 0 0 0 0 2 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 2 1 1 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 1 0 1 1 1 1 4 0 1 0 2 0 1 1 0 0 0 0 1 0 1 0 1 1 1 0 1 0 0 0 0 0 1 1 1 0 1 2 0 1 0 0 1 0 0 2 1 0 0 1 0 0 3 0 0 1 0 1 0 1 0 2 0 2 0 2 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 1 0 1 0 0 0 0 1 1 0 1 1 0 1 0 0 0 1 2 1 0 1 1 0 0 2 0 0 1 2 3 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 1 1 1 0 1 0 1 1 0 1 0 1 1 0 1 2 1 1 1 0 1 0 1 1 1 2 0 0 1 0 0 0 0 1 1 0 2 0 2 1 1 0 0 0 0 1 0 1 1 0 1 0 0 0 0 1 0 0 1 1 0 2 0 1 0 0 0 1 0 0 0 2 1 0 2 1 1 0 0 0 0 0 0 1 0 1 1 2 0 0 1 0 0 3 0 0 2 1 2 1 0 1 0 0 1 0 1 0 0 0 1 1 1 3 2 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 3 3 1 1 1 0 0 0 1 0 0 1 1 0 1 1 1 0 1 1 0 3 0 1 0 1 1 1 0 1 0 0 0 0 1 0 1 0 1 0 0 1 0 1 0 2 3 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 1 0 1 1 1 1 1 0 2 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 2 1 1 0 0 1 0 1 2 1 0 0 2 1 0 2 0 0 0 0 1 0 0 1 0 0 2 0 1 0 0 0 0 1 0 0 1 1 0 0 2 0 0 0 1 0 2 1 0 1 3 1 0 0 0 1 1 0 2 2 2 2 0 0 0 2 0 0 1 0 1 1 1 0 1 0 0 3 1 1 0 0 0 0 1 2 2 1 0 0 3 1 0 2 0 1 0 0 0 0 2 2 2 2 0 1 1 0 1 1 0 0 0 2 1 0 3 1 0 0 0 2 2 0 1 1 0 0 0 1 2 1 1 1 1 0 1 1 0 0 2 2 1 1 3 1 1 1 0 0 0 1 3 2 2 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 1 0 1 0 1 2 0 0 2 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 2 1 2 0 4 0 1 1 1 1 0 0 0 2 2 0 1 0 1 0 0 0 0 0 0 2 0 0 0 1 0 2 1 0 1 0 1 0 0 1 2 1 0 0 0 0 2 0 1 1 1 0 0 0 0 1 1 0 0 1 1 1 1 1 0 0 2 1 2 1 2 1 0 1 2 0 0 3 0 1 0 0 0 1 0 0 0 0 1 0 2 2 0 0 1 1 0 0 1 0 2 1 0 0 0 0 2 0 2 1 0 0 2 1 0 1 0 0 0 0 0 1 1 0 1 1 2 0 3 0 1 1 0 0 0 2 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 2 0 2 0 0 0 3 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 2 0 1 0 0 0 2 0 0 1 0 0 0 1 0 1 1 1 1 0 2 0 2 0 0 1 0 0 0 0 0 0 0 3 1 1 1 0 1 0 1 0 0 2 1 2 1 1 0 0 0 0 1 0 1 0 0 1 1 0 0 0 1 0 0 0 0 1 3 1 0 2 0 0 0 0 1 0 3 2 0 0 0 1 1 0 1 1 0 1 2 3 1 0 1 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 2 1 2 1 1 0 1 1 2 0 1 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 1 2 2 1 0 1 0 1 1 2 1 1 2 0 0 0 1 0 0 1 0 0 0 2 0 0 0 1 0 1 2 0 1 1 0 0 0 0 0 1 2 1 2 1 0 1 0 3 0 2 0 2 0 0 0 0 0 0 0 3 0 2 1 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 2 3 1 0 1 2 2 0 0 1 0 0 1 1 0 1 0 0 2 0 1 0 0 1 0 0 1 1 2 0 0 1 1 0 0 0 1 0 0 1 0 1 1 2 0 1 0 0 2 0 0 0 0 0 1 0 0 0 1 0 1 1 1 1 1 0 1 0 0 0 1 2 1 1 0 0 2 0 0 1 0 1 0 0 0 1 0 2 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 1 2 0 0 0 0 2 2 1 0 1 1 0 0 1 1 0 1 1 0 0 2 1 0 0 2 1 0 0 3 3 0 0 0 0 1 3 2 0 0 1 0 0 0 1 0 0 2 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 1 1 1 0 0 0 0 0 1 1 2 1 0 0 0 1 1 1 0 1 2 1 0 0 0 1 1 3 0 2 0 1 0 0 0 0 0 0 1 3 0 0 1 2 1 0 1 0 0 1 0 0 1 3 0 1 0 2 2 0 0 1 0 3 0 0 2 2 1 0 0 2 1 0 0 2 0 0 1 1 2 0 0 1 1 0 0 3 1 0 0 0 0 2 0 1 0 1 0 0 0 1 1 1 0 0 1 0 1 1 0 3 0 0 3 2 1 1 1 1 1 0 0 2 0 0 1 1 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 1 0 2 0 0 1 1 0 3 0 1 0 0 1 0 0 0 0 0 1 2 2 2 1 0 1 0 1 1 2 1 1 0 1 0 1 1 0 0 0 1 1 1 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 3 0 1 0 0 2 1 1 0 0 0 3 1 0 0 0 1 1 0 0 1 2 0 0 2 1 0 0 0 2 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 1 1 0 0 0 1 2 0 2 0 2 0 0 0 0 0 1 0 0 0 2 3 0 0 0 0 0 0 1 1 2 1 0 0 0 0 1 0 0 0 1 0 1 1 0 0 1 1 0 1 0 2 1 0 0 1 0 0 0 0 1 3 1 2 1 1 0 0 1 2 1 0 0 0 0 2 0 1 2 0 0 0 0 2 0 1 0 2 1 1 2 3 0 1 2 0 1 1 1 0 0 0 0 2 0 0 1 1 0 0 1 1 0 2 1 1 1 0 0 3 0 0 1 1 0 0 1 1 0 1 0 0 1 0 0 1 2 1 1 2 0 2 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 1 2 1 0 0 1 0 2 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 0 2 0 2 0 0 0 1 1 0 0 0 4 1 0 0 0 2 0 1 1 0 0 0 0 0 0 1 0 1 2 0 1 2 2 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 0 1 1 1 1 0 1 2 4 0 0 1 1 1 1 0 1 0 0 0 0 0 0 1 1 2 0 0 1 0 2 1 0 0 1 2 0 1 1 0 0 1 0 1 1 1 1 0 2 0 2 0 0 1 1 2 0 0 1 0 0 0 0 1 0 0 2 1 1 1 1 1 0 1 1 1 0 0 0 0 0 2 0 0 0 0 0 1 0 2 0 1 0 1 1 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 2 0 2 4 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 2 0 2 0 0 0 1 0 1 1 2 0 0 2 0 1 0 1 0 0 2 0 2 0 0 1 0 0 0 0 1 1 0 0 0 0 1 1 0 1 2 0 2 1 1 1 0 1 1 1 1 2 0 2 1 0 0 1 0 0 2 1 1 0 0 0 0 1 1 0 0 1 0 1 1 1 1 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 3 1 0 0 1 0 0 0 0 1 1 1 0 3 2 1 1 0 1 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 1 2 0 0 0 1 2 1 1 1 0 1 0 0 3 1 0 1 0 1 1 0 0 1 3 0 1 1 0 0 0 0 0 1 1 0 0 1 0 0 0 5 0 0 0 1 0 2 1 0 0 0 0 2 0 1 0 1 0 0 1 0 0 1 1 1 0 1 2 1 1 1 0 0 0 0 0 2 2 2 0 0 3 0 1 1 2 2 0 0 1 1 0 0 1 2 0 1 0 1 1 3 0 2 0 0 1 0 2 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 3 1 1 0 1 1 1 1 0 1 1 0 0 1 1 1 0 1 0 0 0 1 1 1 1 5 1 1 1 1 1 1 0 1 4 0 2 2 1 2 1 0 0 0 0 0 0 0 0 1 0 0 2 1 2 0 0 3 1 1 0 0 0 1 0 0 0 2 1 0 0 1 1 0 0 0 0 0 0 0 2 1 2 1 0 0 0 1 1 1 0 1 0 1 1 0 0 1 1 0 0 0 0 1 4 0 0 1 1 0 2 2 1 1 0 0 0 1 1 0 0 0 1 1 2 1 1 0 0 1 0 1 0 0 1 1 0 0 0 1 1 1 0 1 1 0 1 0 1 0 1 0 1 0 1 1 0 1 0 0 1 3 0 1 0 0 2 2 0 2 1 0 0 2 0 0 0 1 0 2 0 1 1 0 2 2 1 1 0 0 0 1 0 0 0 0 2 2 3 0 0 2 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 2 0 0 1 0 0 3 1 0 0 3 1 0 0 1 2 0 1 0 2 1 0 1 0 0 0 1 0 0 1 0 1 0 1 2 0 0 1 0 1 0 1 2 0 1 0 0 1 0 1 1 1 0 2 2 0 0 0 0 0 3 0 0 0 0 0 0 1 1 0 0 1 4 1 2 0 0 0 1 1 0 1 0 0 2 1 0 0 0 0 0 0 1 1 2 0 3 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 3 1 1 1 2 1 0 1 0 0 1 0 1 3 0 2 1 1 1 1 0 0 1 1 0 3 0 0 0 0 1 0 0 1 1 1 1 0 0 0 1 0 2 0 0 0 1 0 0 0 1 2 1 0 1 0 0 0 2 1 0 0 1 1 0 1 0 1 1 0 2 1 1 0 1 0 3 0 0 0 0 2 1 1 0 2 1 0 1 2 0 1 1 0 0 1 1 0 1 0 0 1 0 0 1 1 0 0 2 0 1 1 0 1 1 1 1 2 3 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 1 0 1 1 1 1 0 1 1 1 1 1 0 0 1 0 0 0 2 2 1 1 1 0 0 0 0 1 1 1 0 1 1 0 4 0 0 1 1 0 1 0 2 1 0 1 1 0 2 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 2 0 1 0 1 1 0 0 0 3 3 0 0 1 1 0 0 0 0 0 1 2 0 0 0 2 0 0 1 1 0 1 0 2 0 0 1 0 0 3 1 0 1 1 1 0 0 0 0 1 0 0 1 1 0 0 1 0 2 1 1 2 0 0 1 0 0 0 1 2 1 1 0 0 1 0 0 1 0 1 0 1 1 0 0 0 2 0 1 1 1 1 1 2 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 1 0 1 1 0 1 0 0 2 0 0 0 1 0 0 1 2 0 0 2 0 1 0 0 4 2 0 0 1 1 1 0 1 0 2 0 0 0 0 0 1 0 1 1 0 1 0 0 0 1 0 1 1 0 2 0 0 1 0 1 1 0 1 0 2 2 0 0 0 0 0 1 1 2 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 1 0 2 1 0 0 1 2 2 0 1 0 0 0 1 1 0 2 0 1 2 0 1 1 1 0 3 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 1 0 0 0 1 0 1 0 0 1 1 0 1 1 1 0 0 3 1 0 0 0 2 1 2 0 0 0 1 1 2 1 1 0 0 1 0 1 0 0 0 1 0 0 1 1 1 0 1 0 0 1 1 0 1 0 0 1 0 2 3 2 1 2 3 1 1 3 0 2 1 0 2 1 0 0 1 0 0 0 1 0 1 1 0 1 1 0 0 0 2 0 0 2 1 0 0 0 0 0 1 0 1 0 0 0 2 0 0 1 1 0 1 1 0 1 1 0 1 1 0 0 1 1 0 0 0 1 2 2 0 0 0 2 2 0 0 0 0 0 1 1 0 2 1 0 0 0 1 0 1 1 1 1 0 1 1 0 2 0 0 0 0 1 1 3 0 1 1 0 1 1 1 1 1 0 0 1 1 0 0 1 1 0 0 1 1 0 2 0 0 0 1 0 1 1 1 1 0 0 1 0 1 0 1 0 2 0 0 1 1 0 1 2 0 0 0 0 0 0 1 2 1 2 0 0 0 1 1 1 2 1 0 1 1 2 2 0 1 0 1 0 0 1 1 0 1 0 2 0 0 1 0 0 0 1 1 1 3 2 1 2 0 0 1 1 0 0 1 1 0 2 1 0 1 1 0 1 0 0 2 1 0 0 0 1 0 1 0 1 1 1 0 1 2 0 1 1 1 0 1 0 1 0 0 1 0 0 2 1 0 1 1 0 0 0 0 0 0 1 0 2 1 0 2 0 0 0 0 1 0 1 1 0 2 0 0 1 2 1 0 1 1 2 1 0 0 0 2 4 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 2 1 0 2 2 1 0 0 0 1 0 1 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 1 1 1 0 0 0 1 3 0 1 1 2 0 1 1 0 0 0 0 1 1 0 2 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 2 1 0 1 0 0 0 2 0 0 1 0 0 1 1 2 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 3 3 0 1 0 1 0 1 0 1 2 1 0 1 0 2 0 1 2 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 2 1 1 1 4 3 1 0 0 1 1 0 0 0 1 0 1 1 0 0 2 0 0 1 0 0 1 0 3 1 0 2 1 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 2 0 0 1 2 2 1 0 1 1 0 0 2 1 0 0 0 0 1 0 0 0 2 0 1 0 0 1 1 0 0 1 1 0 1 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 1 1 2 1 3 0 1 1 0 1 0 0 1 2 0 1 0 2 0 0 0 1 0 0 0 0 1 2 0 1 0 1 1 0 0 0 2 2 0 0 1 0 0 0 1 0 1 0 0 0 0 2 1 0 0 0 0 1 1 1 0 1 1 0 1 1 3 1 0 2 0 0 0 0 0 0 0 1 2 0 1 0 1 0 0 1 0 0 0 0 0 0 1 1 2 1 1 0 1 0 0 1 0 2 0 1 0 0 0 0 1 1 0 0 0 0 1 1 0 1 1 0 1 0 0 0 2 2 0 0 0 1 0 0 0 2 1 1 1 2 1 0 2 1 0 2 1 1 2 1 0 0 2 0 1 0 2 0 2 0 0 0 0 2 0 0 1 0 1 0 0 0 0 0 1 0 2 1 2 0 1 3 0 0 0 0 1 0 0 1 0 1 1 2 1 0 0 0 0 1 1 4 2 1 1 0 0 0 1 1 0 0 2 0 1 2 2 0 1 1 0 0 0 0 1 0 1 0 3 1 1 1 0 0 1 0 1 1 0 0 1 0 0 1 0 1 2 1 0 1 1 0 0 0 0 0 0 1 0 1 1 1 1 0 1 0 1 1 1 1 0 0 1 0 1 1 0 1 1 0 0 1 0 1 2 1 0 0 1 1 1 0 1 0 2 1 1 0 2 0 1 1 0 0 1 1 0 0 0 0 0 1 1 1 2 1 0 1 0 1 0 0 2 0 1 0 0 0 1 1 1 2 1 0 0 1 2 1 0 0 0 0 1 1 0 0 0 1 1 1 0 1 0 0 0 1 2 0 2 0 0 0 0 0 1 1 0 0 1 0 1 1 1 1 0 0 1 0 0 1 4 1 1 1 0 0 1 1 0 2 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 1 1 0 2 0 0 1 0 1 0 1 2 0 0 0 0 0 1 1 0 1 1 0 0 1 3 1 0 0 0 1 0 1 0 0 0 0 2 0 0 1 0 0 0 0 5 0 1 0 1 0 1 0 2 0 3 0 1 1 3 1 1 1 0 0 0 1 0 2 0 0 0 1 0 0 3 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 2 0 1 0 0 1 1 1 0 1 0 0 0 0 1 0 0 1 1 0 0 2 0 1 0 1 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 3 3 0 1 0 1 2 1 1 1 0 1 0 1 1 0 0 0 0 0 0 2 1 1 0 0 3 0 0 0 1 0 2 1 2 1 3 0 1 0 0 1 0 3 0 0 0 2 1 1 1 1 0 0 1 1 0 0 3 1 1 0 1 0 0 1 1 2 0 0 1 1 1 0 1 0 1 0 1 1 0 1 2 0 0 0 0 0 0 0 1 0 0 1 0 3 2 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 2 0 1 2 1 1 3 0 1 0 0 0 2 1 0 0 1 1 0 1 0 0 2 1 0 0 1 1 1 0 2 0 0 0 1 2 1 0 0 1 1 1 2 1 0 1 0 0 1 1 1 0 1 1 0 0 0 0 0 1 0 0 0 3 0 1 0 1 0 1 1 0 0 0 0 0 0 2 0 1 0 0 0 0 1 5 0 0 0 1 0 0 0 1 1 1 0 0 2 2 2 1 1 1 0 0 1 1 1 0 1 0 0 1 2 0 0 1 0 1 1 0 0 2 3 0 0 0 0 1 0 0 0 1 0 0 0 1 2 0 1 1 0 0 1 1 1 0 1 0 0 1 0 1 2 0 2 0 0 1 0 1 1 0 0 1 0 1 1 1 0 0 1 1 0 1 0 3 1 3 0 0 0 0 0 1 1 2 0 1 0 1 0 0 1 0 3 1 1 1 0 0 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 1 1 0 1 1 1 0 1 0 3 0 1 0 3 0 0 0 0 1 1 0 0 0 1 0 1 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 1 0 1 0 2 0 0 0 0 0 2 0 1 0 0 0 1 0 0 2 0 2 0 1 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 2 0 1 1 1 0 0 1 1 2 0 0 0 0 0 0 1 0 0 1 1 1 1 1 2 0 1 1 1 1 1 1 1 0 1 1 1 1 0 1 0 1 0 0 0 2 0 1 1 3 1 1 0 1 1 0 0 0 2 0 0 1 0 0 0 2 0 0 0 1 1 1 2 1 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 2 1 1 0 1 1 0 1 0 1 0 2 1 1 1 1 1 1 0 0 0 1 0 2 0 0 0 1 1 1 0 1 0 0 2 1 1 0 1 0 1 1 0 0 0 0 1 1 1 0 0 1 0 0 0 4 2 1 0 0 0 0 0 2 1 1 0 0 0 1 0 2 0 1 2 0 0 0 1 2 0 2 2 1 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 1 0 1 0 0 1 0 0 2 3 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 2 0 1 0 0 0 0 1 0 3 0 2 0 0 0 1 2 0 0 1 0 0 0 1 2 2 1 2 0 0 3 1 0 1 2 0 0 0 1 1 1 1 0 0 1 0 1 2 0 0 0 0 0 1 2 1 1 1 1 0 1 0 0 0 1 0 0 0 0 1 0 1 0 2 1 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 2 0 0 0 1 0 0 1 0 1 2 1 0 1 1 1 0 0 3 0 0 1 0 1 2 1 1 2 0 1 1 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 2 1 0 1 0 2 1 1 0 0 1 1 0 0 0 0 0 2 0 1 1 0 4 0 1 2 0 0 1 1 3 2 1 1 3 0 1 2 1 1 1 0 0 2 0 0 0 0 0 1 0 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 3 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 2 1 1 0 1 0 1 1 1 0 0 0 0 1 0 2 0 0 0 1 1 1 1 1 0 0 0 0 2 0 0 1 0 0 0 1 0 1 1 1 0 2 1 0 1 0 0 0 0 1 1 0 2 0 0 0 0 3 0 0 0 0 0 1 0 2 0 1 0 0 3 0 2 1 0 2 3 0 3 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 1 0 0 0 0 1 2 0 0 0 1 0 0 0 1 0 0 0 2 2 0 1 0 0 0 2 0 2 1 0 0 1 1 2 0 1 2 0 0 0 0 0 1 0 0 2 0 0 0 1 0 0 1 0 1 1 0 2 1 0 2 0 1 0 1 1 1 0 1 1 2 1 0 0 0 1 0 1 0 2 1 0 2 0 1 2 0 2 0 0 0 1 1 1 2 1 0 0 1 1 0 1 0 0 1 0 0 0 2 1 0 2 1 3 0 0 0 5 1 0 1 1 1 1 0 0 2 0 0 1 0 0 0 0 1 3 3 0 0 4 0 0 0 1 0 0 2 0 1 1 1 0 2 0 1 0 0 1 0 0 1 0 0 0 1 3 3 0 0 0 0 1 0 0 0 0 2 0 0 2 0 0 1 1 1 1 0 0 1 2 1 2 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 0 0 1 1 0 1 0 1 3 0 1 1 0 0 1 0 0 0 0 0 2 1 0 0 1 1 1 1 1 1 0 0 0 0 0 0 0 3 0 1 0 0 0 0 2 0 1 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 3 1 0 0 0 1 1 0 1 0 0 1 0 0 2 1 1 0 0 0 1 1 1 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 1 3 1 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 2 0 0 0 1 1 1 1 1 0 0 0 1 1 0 1 0 2 0 0 0 0 0 0 0 1 1 0 2 0 0 0 1 1 0 0 1 0 1 0 1 0 0 0 0 0 0 3 0 0 0 0 1 0 1 0 1 0 0 1 0 1 0 0 0 0 1 1 1 0 0 1 1 3 2 1 1 1 0 1 1 0 0 1 0 1 0 1 1 0 2 3 1 2 1 1 0 0 2 0 0 0 0 0 1 1 0 0 1 0 2 0 2 0 1 0 1 1 0 2 0 0 0 2 0 0 3 1 0 1 3 0 1 0 1 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 2 1 1 1 0 0 0 0 1 1 1 2 0 0 1 1 0 1 1 2 0 1 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 0 2 1 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 1 1 0 1 0 1 1 0 0 1 2 0 1 2 0 0 0 1 1 0 0 1 0 0 0 1 1 1 1 0 1 0 0 1 0 0 1 0 0 0 0 0 2 2 0 0 0 0 0 2 1 1 2 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 2 1 0 2 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 1 1 0 0 1 1 1 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 1 1 1 0 1 1 1 0 1 0 1 0 0 0 1 1 0 3 1 0 0 2 1 0 0 0 0 0 0 3 0 1 1 0 0 1 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 2 1 0 1 2 1 2 0 0 1 0 1 1 1 0 3 1 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 0 2 0 2 1 0 1 0 0 2 0 2 0 4 2 2 1 0 2 0 0 0 0 1 0 1 1 1 0 2 0 0 0 3 1 1 1 0 1 0 0 1 0 1 1 1 0 0 1 0 0 1 0 0 1 0 0 3 0 0 1 0 0 0 1 1 0 0 1 2 1 0 0 1 1 0 1 0 1 0 0 1 0 0 2 4 1 0 0 1 1 0 0 1 0 0 1 1 1 1 0 0 1 0 0 2 0 0 0 0 2 1 0 0 1 0 1 0 0 0 0 1 0 0 2 0 0 1 0 0 2 1 0 0 0 0 0 0 0 0 0 2 0 1 2 2 1 0 1 0 0 1 0 0 0 0 1 0 1 2 0 0 0 1 0 1 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 0 1 2 0 1 0 1 0 1 0 0 1 0 0 2 0 0 0 1 1 0 1 0 0 1 1 0 0 0 0 2 1 0 1 1 0 1 0 0 1 1 1 0 0 1 0 1 0 0 1 0 0 1 1 2 1 0 1 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 2 1 0 0 2 2 1 0 1 2 0 0 0 0 0 0 0 1 0 0 1 2 0 0 1 1 0 1 0 2 0 0 0 0 0 2 3 0 0 2 0 0 0 0 1 0 2 0 0 0 1 1 1 1 1 1 0 0 1 0 0 1 1 0 2 1 0 2 0 0 0 2 1 0 1 0 0 2 1 1 0 1 0 0 0 2 0 1 0 1 2 0 1 0 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 1 2 0 1 1 0 1 3 0 0 2 1 0 1 0 1 1 0 1 2 1 1 0 0 3 0 0 1 2 1 0 0 0 0 0 2 0 0 3 0 0 0 2 0 1 1 0 0 1 0 0 0 2 0 0 1 1 1 1 0 1 1 0 0 1 1 0 1 0 2 0 1 0 1 0 0 0 3 0 1 1 0 0 0 1 0 1 0 2 1 0 1 0 0 1 0 2 0 1 0 0 0 1 1 0 1 1 2 0 1 0 1 0 1 1 0 0 0 0 0 0 1 1 2 0 0 1 2 0 2 0 0 0 1 0 0 1 3 2 0 0 0 1 1 0 1 1 1 1 1 0 0 0 1 2 0 3 0 0 2 1 2 2 1 0 0 0 4 3 0 2 1 0 0 1 0 0 1 2 0 1 1 0 0 1 0 0 1 2 0 1 0 0 0 0 0 0 2 0 0 0 2 0 2 0 2 0 1 0 0 0 1 0 0 0 1 0 0 1 3 0 0 0 2 0 0 1 0 0 0 0 1 0 0 1 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 2 2 0 0 0 1 1 0 0 2 1 0 0 1 0 0 1 0 0 1 2 0 0 0 0 1 0 1 1 1 0 0 1 1 0 0 1 1 1 1 1 2 2 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 2 1 0 1 0 1 1 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 1 2 1 2 0 1 3 1 0 1 0 2 1 1 0 3 2 1 1 1 1 1 0 1 0 0 0 1 0 0 1 2 3 2 0 2 0 0 1 0 0 0 0 2 0 0 0 2 0 0 0 0 1 1 0 1 2 2 0 1 0 0 0 0 0 1 0 0 0 0 1 2 0 0 1 0 0 0 1 1 0 1 0 2 2 1 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 1 1 1 0 1 5 0 0 0 0 0 0 1 0 0 0 0 0 1 2 1 0 1 0 2 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 2 1 1 2 0 1 1 1 0 0 0 0 1 0 0 1 2 1 0 0 1 2 1 1 0 0 1 1 0 0 1 1 0 2 1 1 1 1 0 0 1 0 1 1 1 1 3 1 3 0 1 0 0 2 0 0 2 0 0 0 0 1 0 0 1 1 1 0 0 1 0 1 0 0 0 0 1 0 1 0 1 0 1 0 1 0 0 1 3 1 3 1 2 1 0 1 1 0 0 1 0 0 0 1 0 0 0 0 2 2 0 0 0 1 1 0 1 0 0 0 0 1 1 1 0 0 1 1 1 0 0 0 0 1 0 1 1 1 1 0 0 0 0 0 0 1 2 0 1 0 0 1 0 3 0 0 0 0 1 2 0 0 0 1 0 1 4 0 1 0 1 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 2 1 0 0 0 3 0 0 0 1 0 0 0 0 1 1 0 1 1 1 0 0 2 1 2 0 0 1 1 0 3 0 0 0 0 0 0 2 1 0 1 0 0 0 0 0 0 1 2 0 1 1 1 0 0 1 0 0 1 1 1 1 1 0 0 1 0 0 1 0 0 0 1 3 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 1 1 2 0 0 0 1 0 0 0 1 2 0 1 1 1 0 0 1 0 0 0 0 1</t>
+  </si>
+  <si>
+    <t>F(164.20918025229193, 268.5904014628502, -162.49368185232112, 245.8478809204083)</t>
+  </si>
+  <si>
+    <t>120 132 23 135 53 66 73 98 65 116 113 33 56 85 77 104 64 14 64 120 103 150 148 65 100 65 184 118 91 90 125 88 109 74 124 71 118 100 94 94 70 114 54 63 104 102 168 63 66 114 29 64 31 14 95 73 68 82 65 110 65 189 89 124 183 70 28 59 85 135 137 38 83 100 71 162 68 55 39 85 108 112 112 91 73 61 118 82 80 110 168 106 170 42 72 66 88 111 141 127 65 137 26 63 56 86 133 18 97 115 41 56 90 84 75 69 29 75 49 79 57 52 105 20 74 73 35 78 112 80 91 169 136 114 102 114 175 85 93 45 65 62 159 46 77 63 73 69 89 83 97 129 69 68 157 70 195 100 95 89 73 177 44 116 85 88 33 145 53 79 108 88 60 181 60 66 60 94 88 94 95 98 76 85 86 61 53 184 44 79 29 138 39 136 34 79 152 109 81 71 31 100 85 133 128 161 100 67 138 140 98 65 119 119 179 169 143 53 50 74 77 48 83 155 97 108 93 80 104 83 42 73 90 100 68 99 119 117 60 98 48 125 78 93 75 75 93 32 165 175 60 68 40 132 85 86 92 100 52 77 77 113 81 98 35 63 78 32 67 56 53 148 95 45 74 143 126 29 59 97 132 105 58 54 132 57 55 114 71 77 94 75 82 21 193 56 35 108 97 112 65 74 82 71 142 82 68 134 124 87 54 88 149 66 65 122 64 81 26 150 53 106 119 60 92 97 75 89 118 84 93 129 49 114 25 55 93 157 90 115 69 81 73 97 62 44 55 111 165 40 75 37 165 101 123 104 114 52 103 75 52 77 130 91 102 99 68 115 67 90 87 125 33 98 56 6 63 36 54 36 70 120 122 76 105 85 97 163 56 104 98 120 95 161 109 150 128 98 109 128 176 71 48 100 89 95 33 122 103 71 110 134 78 60 86 98 121 102 93 102 115 130 88 143 125 117 33 29 108 51 90 136 59 139 61 136 126 68 16 58 60 137 79 86 47 151 85 188 66 32 143 105 58 50 48 99 86 46 89 84 82 83 105 69 122 70 178 68 56 53 126 72 57 48 92 65 78 37 123 78 72 23 77 28 77 87 134 105 110 58 56 143 47 60 98 110 97 102 87 131 122 74 74 99 63 55 63 88 160 88 101 73 101 57 122 124 89 145 98 42 78 51 98 93 119 54 94 69 32 141 124 71 85 81 56 24 108 13 107 46 59 151 112 76 123 110 57 67 74 48 65 49 37 53 54 91 112 25 117 133 94 46 58 66 62 81 119 50 125 96 127 109 65 115 106 69 36 78 61 58 127 90 66 125 13 62 68 88 70 103 50 53 32 40 139 72 63 66 42 39 172 113 70 132 19 41 120 107 53 27 171 90 137 87 128 78 145 55 150 47 41 60 92 169 67 19 12 116 110 33 106 32 78 179 58 87 54 78 75 32 50 101 117 126 110 92 85 51 101 124 63 69 87 25 92 43 103 100 122 101 161 72 177 43 143 96 105 71 102 53 49 103 27 67 138 58 53 56 100 151 112 126 42 103 123 147 42 84 124 48 87 66 95 6 43 89 33 118 103 69 73 70 161 53 25 119 100 23 75 155 164 98 100 42 78 88 46 64 39 61 165 55 44 139 68 40 140 95 115 66 164 79 69 127 41 70 59 106 39 133 86 136 104 100 58 127 91 34 124 129 126 105 34 136 129 94 48 102 63 69 91 103 83 64 76 130 32 76 75 44 112 56 77 73 86 28 16 80 114 109 63 28 128 74 87 48 163 59 55 88 92 82 103 95 89 99 146 60 78 54 127 47 84 53 85 16 76 113 65 142 119 110 20 99 130 140 96 122 89 105 125 102 85 101 83 142 118 51 74 73 82 140 147 29 63 52 136 93 77 89 59 119 53 50 152 77 33 70 65 51 84 69 29 110 122 87 67 182 63 133 53 105 122 41 117 59 75 30 151 102 84 89 129 37 106 114 106 23 88 62 104 57 90 106 48 87 59 61 94 89 102 126 70 100 76 90 56 52 100 72 73 69 72 97 93 113 76 55 115 106 97 169 61 70 87 68 142 130 72 56 115 64 63 32 8 34 73 93 110 122 85 68 70 74 64 77 110 124 124 64 68 33 60 65 73 65 102 90 77 78 84 73 61 64 46 120 72 95 70 64 159 67 148 34 92 147 78 109 30 140 87 197 136 74 69 49 104 86 80 116 85 136 86 64 93 21 62 52 65 64 145 154 83 93 103 134 80 34 139 28 133 88 72 42 62 124 80 86 69 117 91 86 89 82 60 104 62 58 63 93 151 74 132 49 117 77 70 120 117 101 57 101 124 70 94 109 56 106 97 97 92 95 100 36 137 122 36 55 76 97 67 111 94 90 29 73 66 18 155 103 52 83 100 66 27 102 49 115 79 56 54 60 81 75 83 95 59 75 59 68 60 81 103 104 109 51 102 30 85 62 101 42 87 95 108 115 58 37 91 57 95 46 87 74 75 80 64 115 98 86 63 189 162 111 55 73 110 46 171 105 79 116 58 42 101 73 95 75 59 92 40 86 140 128 88 68 54 74 145 104 31 100 115 94 131 23 106 51 82 46 55 126 55 101 61 105 129 39 129 71 64 153 94 84 100 86 80 61 100 121 28 58 68 99 128 63 117 78 73 91 79 19 193 67 57 88 96 56 117 43 109 62 127 66 163 87 58 59 69 73 104 97 126 69 77 88 74 2 77 80 79 107 53 36 66 86 58 37 114 61 82 148 97 220 48 126 151 93 135 75 41 104 48 60 72 84 25 114 93 122 88 88 15 106 141 114 33 85 92 84 72 75 78 86 39 104 90 90 64 62 88 62 92 75 124 109 121 75 69 57 114 103 85 88 115 50 17 128 117 130 137 73 44 47 91 41 85 133 105 81 40 128 55 98 59 146 111 46 82 107 68 121 111 29 49 95 59 65 44 98 128 68 25 56 53 111 62 110 41 120 119 74 79 91 42 24 90 55 74 125 53 75 121 93 58 89 104 83 64 103 111 131 107 125 45 58 123 96 58 69 124 94 82 189 84 90 89 72 93 114 64 112 131 58 94 104 127 62 108 84 49 36 86 110 75 140 75 25 147 15 68 47 86 77 72 11 53 53 71 107 103 124 137 126 61 71 39 89 85 71 109 64 96 101 41 118 26 107 27 131 102 71 52 41 87 111 69 92 87 65 103 185 55 109 97 72 126 57 60 74 56 85 15 106 52 95 82 91 57 57 11 146 54 122 37 56 90 69 96 108 60 52 2 49 90 132 131 30 39 82 149 142 87 81 81 53 123 104 62 66 49 89 109 102 107 113 62 29 109 107 99 109 26 95 140 62 113 72 50 101 110 99 29 163 142 173 140 78 68 95 28 33 194 104 151 107 80 63 115 63 90 52 104 95 71 78 104 111 98 64 26 110 108 109 19 38 104 77 71 52 128 92 137 60 99 55 61 106 99 39 31 78 27 33 83 87 67 118 86 112 100 91 95 85 84 116 136 113 44 42 84 78 30 82 87 87 63 31 77 42 26 74 124 138 62 63 106 108 109 35 51 80 78 92 73 134 100 26 98 30 55 150 145 65 87 68 55 75 66 126 194 122 71 92 141 140 75 126 82 108 123 65 112 36 74 70 118 141 63 96 22 200 82 98 159 118 55 83 141 55 72 87 95 41 58 36 68 83 161 130 66 123 78 98 73 44 112 202 87 240 29 53 76 70 77 118 67 115 52 86 105 82 39 58 54 119 15 88 66 43 53 138 33 34 43 104 89 118 158 65 118 126 107 68 95 66 43 44 35 81 179 28 171 127 149 45 137 85 145 55 139 76 96 98 72 92 19 121 69 39 95 106 87 67 84 68 91 25 71 92 37 75 38 66 89 127 94 55 55 85 68 87 86 48 210 91 19 35 43 46 55 119 72 142 138 66 48 118 39 22 83 72 61 120 36 61 84 80 105 31 45 46 137 121 154 60 97 98 64 87 31 23 79 79 70 104 61 85 79 111 120 109 49 92 121 99 115 79 70 50 97 27 83 91 100 50 72 26 85 98 68 35 167 106 143 103 145 112 50 54 147 64 103 103 95 102 103 43 97 80 58 82 66 52 52 97 34 88 34 84 74 126 91 92 83 66 98 106 125 136 76 100 118 99 80 130 109 51 79 65 143 58 112 127 85 66 147 18 53 88 59 20 21 58 59 49 50 51 97 145 173 135 93 81 128 113 25 56 51 98 61 103 82 146 76 129 86 120 65 39 91 57 30 80 67 112 110 89 38 26 103 87 82 61 37 59 91 141 131 112 63 82 107 145 124 63 75 128 48 79 108 121 116 92 95 64 77 44 76 106 104 60 83 84 131 131 23 113 44 63 102 98 57 131 76 87 54 82 181 94 118 105 145 72 79 95 22 102 49 88 77 151 126 82 72 209 48 73 28 99 132 111 111 116 118 66 101 104 94 101 56 55 58 39 137 108 39 79 79 86 116 180 84 31 104 108 55 126 57 33 107 80 67 106 105 91 61 81 97 115 74 70 172 71 58 17 86 62 60 76 51 32 66 119 48 58 152 78 163 76 110 55 43 117 72 65 95 155 131 98 52 76 37 92 171 78 99 65 73 154 108 166 37 129 108 46 68 89 54 61 98 112 89 130 39 137 140 56 84 60 106 131 113 28 32 96 83 71 42 59 71 69 73 19 60 89 84 15 67 55 31 93 65 87 138 150 112 103 134 132 89 98 35 94 119 115 118 53 131 74 109 81 89 112 82 164 112 22 88 47 132 120 111 74 105 106 23 90 58 125 133 89 162 73 103 93 92 57 169 78 59 86 148 188 123 113 128 67 126 68 95 58 155 112 54 112 121 68 71 60 39 62 161 159 122 97 117 73 102 73 70 69 127 49 68 157 23 92 69 96 105 119 23 104 54 78 93 71 25 92 41 105 104 44 89 84 111 119 65 131 61 143 112 90 73 137 140 101 98 79 36 55 118 178 117 109 53 74 25 69 137 84 22 85 26 92 44 64 113 72 124 119 32 96 64 122 132 91 78 62 98 83 67 95 60 79 55 22 59 70 79 129 87 88 60 145 80 83 15 74 99 79 60 66 102 82 58 85 79 87 54 103 59 101 56 103 154 53 82 49 61 80 176 54 168 158 110 86 135 76 86 35 135 68 112 90 110 36 27 82 105 116 26 66 120 76 19 59 50 119 63 47 60 70 105 41 128 123 123 72 78 101 212 72 153 108 69 116 85 88 70 108 22 150 71 32 70 130 64 62 59 96 134 78 33 111 61 86 78 61 64 117 134 150 113 46 115 121 84 98 102 134 50 148 160 68 113 56 99 122 64 68 50 46 88 37 104 108 100 72 138 95 89 105 96 46 87 116 118 107 82 118 60 112 48 123 114 113 104 54 76 94 30 115 120 78 113 79 76 54 40 50 87 80 49 58 1 83 76 52 98 149 70 76 85 110 148 85 54 8 67 74 89 67 48 97 81 32 111 147 88 72 80 64 160 85 105 52 79 65 122 112 74 158 140 133 74 86 53 71 8 48 134 105 59 91 72 24 136 103 99 55 58 162 152 123 66 83 140 42 91 95 92 24 66 80 102 69 83 87 142 42 117 58 141 86 126 125 108 91 85 94 66 42 76 80 140 63 90 90 49 78 123 57 94 88 68 69 134 68 101 79 57 136 150 92 108 58 99 103 98 29 51 101 96 98 72 70 125 73 59 106 94 121 146 136 73 127 109 98 70 131 92 38 50 90 168 128 56 85 28 105 64 59 141 28 69 53 107 129 109 92 56 103 62 73 108 108 200 69 154 105 100 88 122 56 87 81 99 99 90 109 48 56 68 87 78 66 108 86 113 62 46 171 66 46 63 141 136 73 46 126 72 88 90 99 99 92 70 29 84 69 94 63 109 88 34 96 78 110 130 144 88 88 112 124 76 130 77 36 73 65 101 76 138 109 19 89 73 43 38 94 124 79 92 69 61 51 90 89 102 73 40 85 116 88 207 108 87 123 30 105 19 151 135 28 123 102 132 45 69 70 35 42 95 70 89 119 130 111 118 57 92 93 95 108 49 73 86 48 113 124 105 73 71 71 126 30 45 88 108 13 28 93 107 91 40 54 17 84 90 100 98 35 107 100 32 79 29 100 87 85 95 122 74 58 41 108 98 82 73 96 48 41 70 84 81 101 100 65 78 113 83 50 81 129 94 198 63 88 79 66 53 85 86 154 159 100 69 80 60 119 52 75 46 119 84 103 67 159 76 91 54 126 37 67 89 187 41 126 119 26 79 91 83 98 32 99 68 92 137 89 24 103 85 96 50 66 65 83 64 16 43 83 124 83 126 64 48 42 62 39 92 73 135 53 113 133 123 90 53 26 88 61 46 90 89 136 69 78 46 82 74 98 99 77 69 47 134 122 49 60 27 113 37 89 89 29 87 187 52 43 136 93 98 74 30 111 9 47 122 78 150 98 49 97 58 96 84 67 95 30 104 66 132 111 82 104 90 86 81 122 34 37 105 78 141 67 83 119 95 56 66 124 94 134 68 104 8 69 100 47 88 52 87 84 109 97 49 90 83 53 99 82 59 77 71 123 3 49 61 69 33 101 80 45 93 64 95 97 111 81 141 105 134 124 57 79 120 73 102 64 95 86 109 46 85 74 77 86 71 63 77 76 29 39 128 108 97 89 74 73 90 100 91 35 75 109 125 128 73 108 80 90 129 57 63 65 43 41 23 89 112 80 88 44 70 66 139 67 58 112 72 106 53 59 101 44 50 39 44 90 151 97 80 7 108 97 126 102 71 138 135 59 35 47 111 110 66 47 50 63 68 138 64 99 92 88 114 105 90 95 70 58 90 81 42 57 135 126 93 105 49 16 100 110 38 71 45 131 147 36 94 25 18 114 97 126 78 96 78 118 122 109 52 56 119 85 91 85 70 75 34 51 62 92 136 74 35 147 53 98 80 101 44 37 152 26 121 92 37 92 34 86 86 104 92 84 73 53 41 58 96 81 86 97 94 58 58 131 104 73 105 76 76 129 133 51 82 99 113 99 117 162 40 62 135 76 84 121 70 16 116 72 142 -4 95 77 54 43 99 86 116 59 139 125 70 93 36 78 65 99 85 65 56 175 134 45 69 64 96 125 124 105 64 127 159 49 81 129 81 38 49 105 87 123 93 81 109 110 31 99 47 129 85 99 131 52 78 49 33 33 114 100 146 69 42 78 63 91 70 101 140 116 53 111 80 115 80 126 102 46 118 46 111 107 37 84 61 56 59 84 117 97 94 90 91 67 79 124 106 88 53 67 108 11 68 52 23 83 13 96 87 67 143 138 120 60 72 98 93 104 44 105 153 104 124 48 148 90 65 20 41 130 117 152 78 35 48 103 81 99 42 96 123 29 110 128 111 90 65 49 114 83 60 64 69 72 148 73 96 52 123 52 91 76 81 49 68 25 142 116 45 130 123 80 107 52 16 37 127 125 151 90 34 174 107 68 79 117 100 91 98 98 28 78 183 138 67 80 75 74 152 37 46 45 69 94 59 114 60 96 135 85 43 110 45 115 131 62 52 65 85 79 129 65 70 29 97 101 70 84 118 52 65 67 35 122 62 183 84 46 64 91 147 78 108 16 134 168 27 103 64 84 103 141 117 72 31 104 82 172 102 59 66 85 73 112 21 124 91 113 99 50 100 52 42 95 168 50 97 86 61 122 64 28 76 122 31 89 84 100 72 136 56 82 25 163 66 60 56 54 70 113 93 96 128 83 63 102 105 84 93 54 79 77 64 66 171 131 108 53 43 106 67 70 72 60 103 145 107 68 152 86 136 40 90 132 166 90 103 79 99 83 61 125 17 86 91 118 87 124 52 77 18 45 134 13 112 29 103 53 24 86 51 76 63 50 24 118 61 52 95 106 120 72 31 106 41 89 62 102 81 60 113 117 81 112 116 60 90 9 47 190 111 95 108 166 82 89 116 78 126 78 67 93 116 69 152 46 81 110 41 62 35 40 149 71 54 42 65 113 76 90 67 41 65 67 13 42 93 118 25 117 84 87 108 127 94 82 48 109 98 95 95 86 85 143 70 33 88 70 108 116 127 26 63 108 114 114 121 103 70 25 73 64 104 73 56 90 67 89 80 88 47 133 115 83 35 94 67 113 98 33 31 148 81 100 37 42 153 96 30 93 88 90 50 80 103 93 75 53 30 86 72 72 44 64 132 67 70 68 98 98 84 52 132 87 77 114 142 59 81 55 193 48 104 60 4 68 97 42 98 54 107 26 97 81 37 100 136 49 95 62 62 92 118 131 79 100 130 32 30 120 11 62 54 22 105 39 131 106 105 84 96 22 160 84 74 62 119 89 132 89 133 49 65 129 114 97 35 51 89 57 46 102 102 73 27 132 59 86 94 126 69 72 83 98 116 92 105 54 98 68 162 76 74 82 100 82 59 20 82 172 38 30 109 96 143 79 114 118 97 109 153 64 61 93 97 95 77 117 74 140 62 57 51 64 144 49 85 108 117 89 90 83 79 25 76 85 74 24 66 79 41 39 99 78 154 90 75 75 138 135 69 38 72 75 111 84 82 96 30 128 84 30 86 103 103 53 84 89 38 18 168 41 72 123 75 135 92 87 104 82 96 88 100 48 110 86 86 85 97 113 52 115 87 52 114 71 116 37 92 41 125 135 140 105 104 94 133 76 54 96 112 41 72 116 121 125 146 83 84 89 33 83 47 128 84 116 141 19 57 115 89 111 19 57 93 96 61 96 87 44 41 13 67 46 63 84 36 97 106 74 74 110 95 166 78 63 68 34 70 58 55 104 128 78 97 56 118 84 109 130 61 117 37 120 84 35 63 67 123 99 60 58 32 143 75 53 111 21 161 51 81 113 110 115 147 149 43 44 78 69 89 75 137 61 79 136 117 48 77 114 118 28 65 114 22 65 113 76 145 73 76 134 118 121 63 67 53 51 40 102 96 136 64 95 77 84 181 39 50 70 128 107 77 93 58 118 108 96 139 76 85 105 109 78 28 178 97 73 117 156 83 63 72 19 128 30 134 75 63 117 114 72 88 83 72 107 36 63 71 110 84 77 35 92 22 118 144 106 52 56 96 121 163 57 81 63 94 90 66 26 162 75 35 74 66 97 126 99 37 35 92 146 105 98 150 84 63 88 58 76 70 134 41 68 114 65 60 36 76 98 125 128 62 57 47 110 40 101 30 105 88 44 72 125 113 117 58 21 147 82 27 57 60 78 30 90 171 128 109 71 83 116 67 64 76 104 173 126 94 60 105 77 170 66 30 116 50 57 79 36 57 25 71 58 109 69 39 101 56 34 100 90 74 42 88 88 93 81 105 78 126 74 73 140 70 57 47 148 78 34 82 119 90 70 58 65 87 17 116 80 39 74 111 62 68 61 115 142 71 81 60 69 81 83 176 16 62 117 81 102 66 81 79 24 47 41 68 36 126 79 55 52 49 76 117 47 90 86 56 101 159 113 82 115 26 82 25 165 63 71 74 71 70 50 87 70 99 76 43 25 84 42 69 115 77 163 32 83 115 79 90 45 37 163 167 71 95 70 129 96 93 106 30 139 102 112 81 107 95 105 31 32 91 83 48 96 43 64 66 78 67 74 38 68 68 135 60 73 92 31 22 43 91 80 98 61 48 65 59 50 62 32 128 206 101 66 71 49 106 119 135 77 37 144 114 75 72 111 73 161 102 39 121 137 28 113 99 16 145 60 68 78 108 55 117 32 100 37 78 158 48 111 59 83 112 63 150 68 64 87 56 47 76 90 120 102 154 104 146 35 26 110 82 119 74 108 37 113 115 19 112 130 59 76 20 94 72 93 79 89 118 105 141 60 66 68 37 103 86 21 145 63 61 77 128 88 36 62 211 56 126 80 42 80 84 152 143 58 59 130 100 74 58 47 101 139 125 34 76 96 71 97 48 83 115 13 123 117 98 83 97 88 99 95 83 119 92 150 70 139 82 121 83 22 126 26 71 65 61 59 115 51 67 189 73 68 100 121 99 85 80 25 82 25 68 81 29 89 124 30 143 50 50 83 104 85 131 73 95 86 48 72 80 73 70 72 165 107 63 99 50 69 151 53 90 146 93 67 107 75 77 55 17 41 96 99 77 26 88 117 142 78 62 65 27 42 19 93 68 80 164 72 124 53 77 113 55 16 115 69 84 174 85 91 117 87 118 100 80 145 31 73 86 43 45 109 104 106 90 75 72 77 90 167 98 74 78 114 161 66 76 96 41 87 130 116 108 122 143 126 114 91 29 57 7 162 86 87 69 80 113 168 83 73 84 107 66 106 123 71 97 107 121 54 101 99 86 73 65 82 84 121 18 47 121 46 14 112 100 110 33 105 73 127 101 45 162 85 48 207 29 74 80 153 149 72 57 44 35 99 112 123 99 33 53 51 40 115 99 58 63 55 47 46 115 51 131 115 82 117 101 105 104 93 83 138 101 46 125 57 22 75 73 89 37 46 74 61 82 64 71 87 118 109 25 141 70 123 93 64 102 83 65 56 173 57 105 73 69 35 82 77 36 82 49 68 37 133 98 49 46 63 137 33 86 141 69 75 104 52 110 137 58 113 74 83 121 126 74 87 114 191 70 106 130 80 131 59 66 73 112 6 53 98 116 52 72 39 88 93 104 63 51 66 85 140 47 77 77 114 65 70 37 26 37 87 98 81 71 48 97 117 120 87 56 110 67 63 67 125 66 131 49 49 76 191 136 58 82 86 68 102 65 36 27 23 86 99 83 81 23 27 101 86 127 120 95 66 119 46 43 59 87 110 85 125 104 125 146 135 66 44 47 103 72 61 73 70 62 154 109 27 108 107 50 46 22 108 75 62 49 126 145 121 92 85 150 74 80 85 87 93 82 26 45 79 65 132 41 66 86 68 121 115 11 44 141 104 62 146 77 77 60 41 44 22 91 104 83 51 88 73 141 76 108 47 176 136 67 71 62 72 79 39 95 44 109 47 100 65 80 65 92 74 136 92 88 119 93 79 97 138 81 138 60 44 159 119 95 97 111 55 68 68 95 158 136 61 157 109 78 124 94 114 32 102 93 73 101 74 46 92 119 53 170 40 77 85 73 52 69 55 81 57 105 97 170 70 72 58 119 56 108 117 98 105 62 145 36 116 67 106 108 62 92 119 40 99 56 102 75 51 77 64 123 133 72 124 118 120 105 49 14 86 112 84 100 113 68 31 41 84 65 40 45 91 62 146 127 101 78 88 41 160 67 34 61 29 120 35 98 66 104 32 68 97 99 49 71 74 100 17 97 55 44 106 94 64 47 42 35 77 84 98 58 121 103 98 118 72 111 153 51 65 132 110 128 82 137 127 58 159 68 101 127 55 77 86 60 74 87 48 81 117 72 150 111 75 71 132 87 117 81 61 59 117 100 91 98 88 71 84 115 125 33 129 111 84 81 75 103 47 94 76 35 68 70 75 106 151 96 110 10 78 83 56 51 102 66 58 105 58 103 129 149 33 111 90 134 103 59 56 84 97 161 119 76 42 101 86 109 71 36 195 101 54 56 100 105 88 76 50 67 64 65 89 19 47 102 94 65 60 79 49 55 58 69 99 83 75 69 109 108 73 101 94 57 52 136 64 104 100 83 85 108 4 20 101 90 64 129 74 48 62 136 84 109 54 59 139 78 73 124 70 65 90 84 89 109 30 134 59 57 103 98 59 11 75 125 101 63 139 30 95 93 70 73 67 91 158 94 111 96 33 58 77 112 95 115 75 71 75 112 38 97 64 109 90 89 44 111 43 146 111 99 112 91 120 87 42 73 113 72 52 60 24 108 24 72 119 102 50 16 143 91 88 81 77 82 111 115 59 52 177 132 108 122 57 74 58 77 58 72 53 34 51 113 152 143 95 75 200 82 63 91 164 69 114 22 90 78 75 128 87 42 127 117 8 130 80 118 109 104 97 104 47 69 86 60 43 58 65 93 83 32 52 105 152 86 71 74 28 44 149 156 118 40 72 85 96 98 122 77 72 75 66 70 80 89 95 81 87 120 114 47 99 31 118 64 99 16 35 74 83 137 45 21 127 86 144 138 45 76 137 43 72 57 123 47 125 92 108 68 90 154 65 56 69 94 87 62 69 53 69 133 94 89 26 90 99 84 161 80 63 81 57 148 133 130 91 67 105 46 113 136 90 157 118 141 85 93 112 35 148 110 49 89 88 65 31 117 28 71 -1 102 93 48 29 80 46 40 93 67 87 10 59 100 120 182 62 9 104 36 60 170 66 115 73 141 55 54 109 81 72 42 21 64 91 79 73 114 92 118 66 115 74 131 85 88 51 87 98 25 35 146 62 104 48 66 97 31 107 76 31 119 119 83 168 44 97 14 36 19 110 72 36 148 81 99 59 42 133 13 61 84 71 70 41 76 64 76 88 93 76 43 97 74 105 68 99 62 98 135 100 58 116 63 162 36 62 82 107 100 102 108 93 45 101 137 99 86 33 84 29 221 118 74 111 100 29 107 41 76 52 99 105 6 101 92 94 67 99 107 73 89 33 71 140 167 89 55 112 131 87 57 81 75 81 18 35 82 65 90 110 123 47 109 72 70 64 80 35 118 63 130 142 41 103 99 81 73 138 86 35 80 137 46 32 48 32 22 25 68 58 33 121 96 118 61 106 89 126 123 80 57 51 122 89 77 50 105 105 50 123 53 47 99 44 151 89 83 57 91 45 49 77 35 61 137 119 76 133 78 79 65 110 104 55 101 55 152 90 90 90 148 52 72 77 81 120 49 102 100 152 35 89 58 9 49 55 66 93 98 35 111 107 84 110 141 79 99 60 92 80 71 97 113 116 133 102 33 81 118 41 89 99 39 12 106 152 84 135 85 89 61 115 87 35 66 62 70 99 104 44 61 103 86 42 150 90 119 112 59 83 79 81 60 74 175 115 59 79 44 105 66 40 118 76 64 86 81 112 47 66 63 63 103 129 76 153 83 100 83 101 104 76 79 117 131 89 78 34 142 130 89 92 111 39 141 20 11 60 130 98 42 105 87 98 126 56 50 88 141 145 68 116 111 42 102 50 149 83 95 134 73 42 64 46 125 80 135 56 70 85 111 181 60 99 129 46 79 120 94 14 86 101 110 80 53 94 53 124 88 42 57 96 159 105 78 78 80 143 18 20 86 109 131 76 120 55 128 75 86 133 42 62 9 125 87 172 15 115 112 66 65 114 104 88 95 94 30 29 78 103 121 102 95 50 71 74 161 65 117 49 104 84 92 93 121 107 44 113 70 53 89 132 56 62 84 95 76 26 115 102 53 100 146 92 141 115 148 134 13 49 148 92 102 87 65 35 138 2 71 99 45 134 121 151 103 58 101 53 51 154 42 184 104 48 77 24 42 113 62 79 113 87 120 30 37 99 103 90 127 40 49 45 62 57 93 94 71 119 144 65 88 59 101 83 29 13 111 60 20 109 111 116 27 90 109 92 80 93 97 125 123 59 102 89 31 96 118 128 32 90 29 38 40 65 88 89 78 54 97 53 88 67 96 117 67 74 51 122 87 121 77 92 102 76 105 62 55 91 87 74 80 27 88 47 128 62 136 67 85 46 127 46 197 61 139 42 203 87 86 55 138 77 99 126 114 67 77 52 44 71 90 223 87 46 81 102 116 24 57 99 65 27 78 76 113 126 116 60 139 67 215 49 51 73 217 151 98 57 80 134 32 214 117 100 120 35 84 131 86 51 181 97 66 116 116 76 75 113 74 113 119 110 138 61 66 61 59 44 89 44 96 98 70 90 87 126 87 25 60 119 89 63 66 51 80 121 118 131 74 74 39 62 59 89 58 86 64 72 29 86 64 97 135 104 89 85 58 131 76 112 137 76 137 73 150 68 76 63 38 25 76 86 103 90 83 73 66 154 52 69 129 157 72 99 170 99 60 74 57 31 76 71 39 46 121 92 46 67 96 8 125 104 38 102 85 73 56 95 111 78 163 86 82 70 168 60 157 107 96 26 61 77 65 64 115 55 124 64 70 119 72 66 103 77 75 46 136 112 38 59 40 138 117 76 56 71 69 92 36 134 81 107 33 51 86 93 158 109 55 107 55 92 131 31 99 110 100 54 96 37 99 86 85 48 105 84 66 104 41 96 81 63 120 72 36 80 73 63 58 116 47 132 37 77 25 97 49 67 113 86 70 28 86 101 49 137 44 77 195 87 160 -1 42 48 83 158 109 123 101 104 54 103 80 103 53 43 125 39 99 114 38 52 54 59 142 105 45 26 48 26 66 67 62 106 80 68 125 16 83 16 87 90 98 120 45 131 97 89 113 86 96 72 116 98 77 75 81 74 18 69 33 109 71 81 138 118 110 89 152 76 84 132 76 10 59 90 23 40 102 82 54 65 155 58 86 106 155 104 83 140 90 104 76 92 114 113 89 66 80 131 113 26 129 168 62 13 72 88 141 78 47 43 64 104 91 66 93 138 94 110 94 14 124 54 60 72 86 102 50 80 51 26 58 101 74 53 80 85 73 154 106 96 133 81 109 109 118 186 107 59 32 101 94 70 63 47 66 63 82 67 49 105 92 107 78 124 87 91 48 117 29 212 72 97 152 148 90 110 52 112 114 44 41 83 49 121 142 39 72 67 29 82 86 66 85 120 60 47 77 163 68 134 62 98 54 95 65 46 40 78 113 81 93 150 87 135 95 97 88 118 53 88 110 91 86 107 42 96 82 43 76 69 59 105 35 122 81 98 83 203 97 93 131 124 60 63 87 74 64 130 49 132 81 83 139 132 67 52 111 69 88 122 62 82 67 156 117 73 78 88 76 64 93 99 116 81 151 122 103 106 84 130 77 87 16 44 130 116 51 85 126 107 73 97 124 55 103 100 122 80 63 132 139 94 50 134 53 79 69 75 98 43 123 80 85 51 176 93 87 86 122 61 49 45 122 69 65 23 51 106 77 150 35 56 50 101 91 132 103 100 73 107 16 99 34 107 66 131 59 101 111 143 40 62 98 104 60 66 66 71 104 73 73 98 111 62 205 104 71 76 28 100 67 138 169 108 136 46 73 70 174 128 107 124 80 77 119 56 52 147 122 25 84 118 90 111 66 35 57 104 81 80 116 64 74 79 133 128 68 101 145 68 92 61 125 81 63 24 130 27 85 110 72 124 85 178 97 68 79 46 74 125 63 104 75 17 114 76 67 86 118 113 120 56 75 114 46 58 35 111 72 46 94 67 57 60 110 94 96 137 59 105 76 71 57 101 143 39 96 103 47 174 111 86 14 72 47 41 119 55 67 115 71 53 59 110 74 45 71 79 58 34 83 42 77 128 153 70 66 102 89 124 68 80 68 30 82 22 71 45 78 121 113 145 76 84 81 104 25 73 86 86 34 63 66 66 88 134 90 65 36 88 55 45 105 108 85 126 129 109 61 59 67 96 45 63 138 68 73 98 113 149 106 68 122 63 48 70 134 12 132 93 72 137 100 109 52 55 38 55 99 34 127 101 58 79 24 100 117 48 87 34 45 104 123 112 128 91 63 84 88 76 48 39 41 77 89 101 73 28 75 56 42 98 67 95 116 91 70 80 51 65 142 59 46 119 75 106 71 78 79 34 122 138 24 83 142 96 140 59 128 36 133 83 152 68 69 93 70 144 56 95 62 34 97 154 75 119 123 88 42 71 89 159 58 111 75 75 115 48 96 124 133 91 97 104 122 81 51 59 58 65 115 128 43 85 46 75 82 59 112 161 133 107 95 91 81 78 98 69 143 69 36 163 20 49 94 31 103 66 68 83 90 90 52 32 83 30 101 158 67 102 82 42 107 112 103 40 111 90 51 82 93 100 105 59 109 97 78 54 79 53 89 62 13 73 124 62 121 119 115 186 123 122 66 103 75 75 118 70 52 57 60 153 149 68 59 68 102 64 49 46 32 105 121 73 127 126 97 142 80 114 30 83 93 60 64 51 57 67 30 106 91 95 22 32 62 75 93 98 90 152 115 105 80 106 69 25 128 127 63 56 39 56 116 68 97 97 33 95 16 130 145 107 60 113 73 76 45 50 39 61 43 83 81 86 105 50 38 100 60 118 140 73 113 78 140 123 153 46 142 145 52 56 52 151 69 60 63 65 132 100 78 116 72 54 173 82 59 149 105 131 92 66 46 63 74 71 46 188 53 74 91 111 168 30 139 143 43 64 100 128 49 45 112 78 77 127 130 129 36 115 59 29 68 83 86 88 51 99 32 55 89 57 74 85 49 96 52 117 82 49 40 53 45 47 96 82 126 93 94 88 123 91 34 105 74 121 123 85 63 139 99 70 81 58 61 71 60 71 80 63 39 140 110 35 61 93 125 69 97 98 87 86 56 9 69 108 128 78 78 48 41 76 79 134 48 102 133 119 57 76 71 61 56 147 127 42 33 77 85 69 100 88 188 67 48 63 42 52 84 44 44 112 81 58 125 76 34 33 53 130 68 18 36 140 107 113 50 128 119 76 71 92 119 84 79 104 90 92 76 180 80 91 94 103 94 124 42 80 50 68 97 99 98 31 85 95 111 48 84 37 128 87 155 142 68 37 76 35 124 49 76 70 134 109 119 161 101 32 120 77 56 92 80 62 139 69 102 124 133 54 130 150 84 51 150 99 116 62 102 127 72 57 91 90 92 53 72 113 56 74 56 140 70 63 99 123 134 34 43 69 50 68 44 79 46 59 114 144 102 62 41 75 85 77 125 60 61 109 114 107 32 59 159 68 44 121 63 72 92 83 127 67 55 80 120 65 73 85 28 105 105 77 77 65 65 66 4 81 81 73 71 46 45 122 59 92 138 70 82 111 85 93 50 85 76 97 49 122 68 88 52 66 69 38 75 105 73 63 78 95 76 61 78 85 43 59 79 111 99 62 33 75 35 40 60 61 77 79 59 79 33 71 97 121 102 119 83 134 78 59 34 67 83 77 46 86 41 66 69 109 126 66 57 80 60 58 141 122 72 104 55 54 68 96 96 110 124 114 64 136 45 74 70 94 87 117 77 111 45 74 76 59 100 102 125 30 46 124 43 43 95 35 62 91 65 80 82 109 75 40 159 85 103 38 106 72 113 72 85 94 55 83 146 40 109 105 55 86 40 92 94 111 56 117 86 54 59 58 84 89 35 68 86 66 90 100 62 135 106 146 128 50 73 42 65 140 75 91 113 71 95 99 98 90 93 103 135 115 69 124 40 155 81 89 52 86 26 58 81 152 31 81 109 98 104 16 129 74 134 44 105 63 109 33 27 80 66 95 130 77 26 43 84 59 67 23 177 88 120 66 62 157 97 97 50 36 90 50 55 137 184 108 119 93 52 82 61 76 105 66 38 48 38 85 121 98 122 31 52 104 32 120 94 123 117 78 118 93 64 67 87 182 117 106 100 89 113 78 70 78 62 159 102 99 86 105 113 87 85 118 97 125 99 86 82 187 30 142 106 104 63 44 119 86 14 80 30 69 118 42 45 32 39 103 32 96 72 78 95 90 133 73 79 65 39 126 111 118 70 71 93 118 71 96 46 72 44 64 126 62 99 105 145 126 98 98 139 82 48 63 34 119 89 41 39 79 86 95 105 83 68 89 119 76 140 126 89 55 57 91 19 60 42 76 65 103 107 148 117 98 100 137 58 115 62 50 81 68 136 122 57 66 107 76 90 88 8 67 84 87 109 48 122 92 74 45 113 65 124 81 68 116 32 31 129 80 19 48 77 75 56 138 144 127 79 101 143 26 107 74 26 25 88 78 57 120 89 29 99 1 86 47 85 106 84 99 66 49 62 46 117 88 151 84 87 77 120 95 66 110 97 85 134 7 51 70 135 40 68 33 144 109 133 81 58 115 137 95 90 126 28 114 81 65 82 84 104 70 144 157 61 42 127 36 25 106 122 158 73 101 90 21 88 114 33 59 123 100 112 19 181 153 100 78 14 92 59 107 89 102 148 127 56 48 110 42 62 105 44 30 113 52 100 63 16 18 109 78 72 80 65 96 159 34 50 167 76 126 23 115 111 97 65 73 125 67 97 2 101 117 144 66 55 37 98 64 62 108 106 50 33 87 151 100 53 15 57 38 122 111 136 8 91 95 125 80 131 56 129 76 139 94 104 49 82 113 46 69 65 126 139 82 80 52 114 30 99 151 63 162 54 106 91 117 65 53 26 47 74 33 81 61 57 130 101 82 128 148 109 73 29 90 60 87 103 127 76 67 107 95 78 80 98 62 135 32 71 71 92 49 54 121 103 46 92 145 50 92 135 105 97 78 75 67 34 40 55 128 113 170 81 88 138 84 86 89 61 127 86 97 67 88 125 79 84 140 151 75 90 72 38 95 89 137 109 17 83 36 52 34 66 120 56 98 71 90 101 141 39 58 90 75 119 69 24 122 43 80 51 83 122 90 92 117 56 114 94 94 63 19 8 27 92 144 120 117 99 87 47 103 21 57 89 55 66 118 119 84 78 48 80 23 99 58 90 99 79 130 48 52 18 75 70 46 48 133 77 85 31 88 91 117 103 86 57 104 134 50 79 80 119 39 49 109 97 74 77 97 82 35 85 126 89 137 116 19 31 153 58 49 54 70 24 83 111 102 67 85 125 104 77 99 83 53 110 59 41 50 119 71 94 93 49 102 23 18 55 111 119 94 88 83 52 76 126 112 75 86 76 81 107 134 38 82 87 77 118 150 62 87 19 58 116 90 91 94 76 75 116 94 112 99 26 36 64 112 18 95 76 70 125 56 36 88 43 109 86 71 91 46 78 74 128 74 74 73 97 72 60 101 127 66 40 79 112 49 126 104 103 56 47 99 25 148 121 45 97 113 47 87 110 102 9 177 78 136 165 91 103 23 86 33 115 126 42 94 145 51 33 58 82 112 108 76 80 62 77 76 60 80 82 123 82 206 89 82 118 117 38 32 30 78 119 62 107 115 43 104 39 39 100 41 105 28 46 53 171 18 20 67 127 145 13 115 52 95 65 108 23 10 93 111 46 82 141 70 59 113 147 16 70 99 86 92 60 57 45 86 86 105 158 97 100 16 44 69 119 100 104 40 74 91 104 90 98 58 89 97 86 95 107 79 119 69 62 38 130 148 112 81 36 92 140 104 117 72 88 45 126 36 108 53 117 117 49 95 92 68 70 82 64 85 46 78 100 88 39 101 135 95 68 61 72 35 65 113 87 55 136 103 54 83 157 92 84 74 81 97 92 124 31 100 141 60 40 99 76 41 146 109 131 102 125 142 85 102 120 12 48 43 67 121 23 84 90 108 94 66 55 76 103 70 29 86 83 84 102 51 73 128 120 106 62 108 65 146 61 79 106 65 65 36 116 118 55 55 68 122 94 66 138 85 66 93 72 76 15 107 87 122 22 95 38 53 101 108 93 91 86 130 87 112 79 17 171 140 103 42 104 79 110 80 113 90 71 97 97 92 90 89 128 38 124 31 45 119 158 44 122 108 45 69 76 73 79 118 108 77 99 59 81 134 51 101 42 70 71 136 69 80 18 39 96 47 36 152 97 88 40 111 70 72 47 108 92 51 71 90 28 126 90 22 48 84 103 48 86 150 64 81 64 68 73 68 62 106 62 84 48 98 116 43 82 90 42 80 74 128 106 50 62 106 124 70 49 33 76 117 57 48 55 69 66 81 133 55 25 110 80 128 102 91 72 115 89 34 95 57 108 71 107 56 74 105 50 41 100 28 54 123 104 41 137 89 77 105 93 137 139 88 51 29 34 80 69 106 158 149 96 145 108 69 60 116 62 72 69 100 64 50 55 42 39 68 35 118 22 67 49 79 42 6 36 88 102 117 92 98 58 83 97 42 105 24 75 86 119 103 98 87 91 37 55 55 78 113 62 46 70 26 74 138 73 66 127 39 137 101 80 93 76 87 48 119 125 73 101 85 43 25 26 73 102 106 62 63 83 105 42 91 78 129 53 136 91 97 64 133 52 98 59 115 72 113 204 19 83 63 64 125 135 60 62 82 70 75 100 107 65 129 84 84 60 102 56 88 65 70 120 75 59 154 54 210 82 106 105 128 96 144 133 82 128 49 105 41 132 84 127 52 75 85 74 117 92 171 80 84 144 24 78 51 108 78 56 89 100 72 113 128 54 59 104 137 97 86 73 140 86 108 117 101 157 46 68 40 125 89 68 65 83 73 107 43 187 83 71 34 88 108 70 88 58 63 62 48 124 74 135 134 99 82 24 113 65 56 76 72 43 42 80 5 106 111 83 119 73 44 111 126 130 159 14 78 93 92 157 30 25 117 11 51 53 57 55 121 112 129 123 82 60 26 76 87 98 100 94 49 87 87 86 164 104 72 98 116 147 28 23 119 90 69 116 207 43 140 88 132 83 43 155 96 101 88 93 68 94 165 84 65 65 77 86 138 59 135 98 53 71 50 92 160 167 39 34 84 121 173 121 45 107 66 67 121 71 56 74 84 66 146 23 77 63 67 105 136 83 142 63 18 70 129 143 54 49 64 38 6 79 67 100 65 143 4 101 47 146 23 81 135 54 95 102 95 78 86 85 67 133 99 52 85 84 75 72 64 79 81 50 80 93 117 94 61 59 95 136 61 109 53 98 88 77 44 79 125 104 132 67 95 149 84 111 70 120 125 52 51 89 97 41 105 81 79 60 85 64 40 41 89 82 76 62 81 64 102 19 102 108 107 47 50 144 127 14 90 143 46 47 62 36 77 94 89 100 60 130 110 92 74 90 123 78 105 108 161 56 49 95 101 114 95 95 40 127 117 127 62 54 93 122 69 83 74 96 17 93 98 83 60 59 140 93 49 72 81 138 91 90 89 111 47 70 161 55 57 59 60 87 105 79 74 40 144 41 25 106 59 107 84 32 49 67 70 43 77 113 124 71 40 52 37 74 75 67 66 119 99 65 78 88 79 31 28 78 55 72 100 92 79 169 129 96 94 117 145 99 65 86 34 61 52 68 96 83 138 29 77 142 160 127 111 52 137 63 83 68 113 69 96 122 151 140 115 127 46 105 107 87 164 62 82 108 154 92 113 162 85 103 86 41 43 127 56 66 60 141 81 88 132 129 60 117 84 33 78 66 47 108 85 20 63 118 80 87 103 140 63 113 114 142 65 53 90 37 46 59 121 42 58 71 115 118 130 68 63 56 80 84 87 108 72 79 107 46 74 105 41 106 92 86 123 158 97 107 133 61 69 63 52 29 86 105 58 141 80 43 79 158 58 79 129 109 75 80 111 81 121 49 132 60 97 62 28 57 80 84 135 184 123 81 92 83 90 34 100 86 53 124 25 23 84 104 168 101 102 41 132 121 114 63 51 46 100 197 122 73 56 83 91 169 52 61 110 113 89 97 27 99 60 91 86 46 87 76 95 116 119 34 70 103 160 91 94 108 51 48 52 141 92 29 94 110 58 152 35 157 35 124 115 50 49 42 137 53 70 120 103 93 55 59 97 83 45 87 58 41 76 120 74 95 134 102 85 75 63 28 85 69 59 0 55 94 132 110 129 62 121 99 77 128 66 81 82 69 85 67 113 35 74 129 80 119 86 60 67 39 37 119 69 60 110 73 38 72 80 101 142 97 97 99 112 66 56 103 78 41 111 77 99 67 198 35 88 61 54 73 133 48 82 122 94 39 51 15 137 77 84 93 69 100 104 64 122 85 154 127 102 148 115 86 80 84 148 89 67 121 131 85 108 121 67 56 47 57 59 118 35 77 55 104 41 118 87 94 55 19 80 31 159 90 74 187 55 80 106 68 126 73 145 93 84 42 82 79 56 110 48 109 96 91 67 32 109 38 94 114 125 105 89 131 143 119 46 51 53 131 71 61 67 103 89 113 93 35 183 89 121 89 33 117 179 96 113 4 51 62 81 122 64 68 54 126 55 37 138 102 86 18 30 122 129 124 61 49 64 75 72 113 107 122 71 40 104 42 69 94 109 91 131 96 33 47 99 57 141 65 84 133 87 95 79 101 95 160 96 27 83 79 38 96 54 147 48 124 98 135 112 82 100 53 38 66 76 94 69 105 99 112 56 142 76 56 121 80 49 129 83 133 151 78 31 80 90 67 77 62 125 104 70 138 113 94 130 40 72 53 105 31 108 78 120 23 54 94 125 127 67 58 76 74 84 159 55 71 117 90 113 125 197 77 36 86 70 58 96 87 119 105 67 98 144 47 55 57 67 82 100 86 94 59 60 47 26 47 94 60 82 78 81 94 114 138 80 36 97 65 71 101 177 47 2</t>
+  </si>
+  <si>
+    <t>GAM(0.5158030537992027, -1.5847361662429052e-27, 0.6382169808631921)</t>
+  </si>
+  <si>
+    <t>1 0 0 3 1 0 0 2 0 0 1 0 1 0 1 0 1 1 1 1 1 1 2 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 3 2 2 0 0 2 0 0 1 0 1 1 0 1 0 1 0 1 1 1 2 0 0 0 1 1 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 3 0 1 0 1 1 0 0 0 2 0 3 0 0 1 0 2 0 0 0 0 2 1 1 1 0 1 1 0 1 0 0 0 0 0 0 0 2 0 0 1 2 2 0 0 0 1 0 1 0 0 0 2 0 0 0 1 2 0 0 1 1 0 0 0 0 1 0 0 0 0 2 0 1 0 1 0 0 0 1 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 2 1 2 0 0 3 0 0 1 1 1 1 0 0 0 2 1 0 0 0 0 0 0 3 2 1 0 0 1 1 0 0 1 0 0 3 1 0 1 0 1 0 3 0 0 0 0 1 2 0 0 1 2 0 1 0 0 2 1 0 1 0 1 0 0 1 2 1 0 1 2 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 1 1 3 1 0 0 0 0 0 0 1 0 1 0 1 1 0 1 0 0 1 0 1 1 1 0 3 1 0 1 1 0 0 0 0 1 0 1 1 0 1 0 0 0 2 1 2 2 1 3 1 0 0 0 0 2 0 0 0 1 0 2 0 0 2 0 2 0 0 0 1 0 1 0 0 1 0 1 0 0 1 1 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 1 1 1 0 1 1 1 1 0 1 0 0 1 0 1 2 0 2 0 1 0 0 1 0 0 1 0 0 0 1 4 0 0 1 0 1 2 0 1 0 2 1 0 1 1 0 0 1 0 0 1 0 1 0 2 2 1 1 2 0 0 1 0 0 1 0 3 1 0 1 0 1 1 1 1 0 1 0 0 0 0 1 0 1 1 0 0 0 0 2 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 1 1 1 0 0 1 0 0 1 0 0 0 2 0 0 1 0 1 1 0 2 0 0 1 1 0 0 0 0 0 1 0 0 1 1 1 0 0 1 0 0 2 0 1 2 0 1 0 1 0 0 0 0 0 1 1 1 0 0 2 0 1 0 1 0 0 2 1 1 1 0 0 2 0 1 0 1 1 1 1 1 1 1 1 1 0 0 1 1 1 0 0 1 0 1 0 0 1 0 1 2 1 0 0 0 0 0 1 0 0 3 1 0 0 0 1 0 0 1 0 0 1 0 2 1 1 0 1 2 0 1 0 3 0 0 1 0 1 0 0 1 1 1 1 1 2 1 0 1 1 2 0 2 1 0 0 0 0 3 1 2 1 4 0 0 2 1 0 1 0 0 1 0 0 2 0 0 0 1 0 2 1 1 0 1 0 0 1 1 2 1 0 0 0 0 1 0 0 0 0 1 0 2 1 0 0 0 0 1 0 1 0 2 0 0 1 0 1 0 0 2 0 0 2 1 1 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 1 1 1 0 2 0 0 1 2 0 2 0 1 0 0 0 1 0 0 2 0 1 0 1 0 0 1 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 2 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 2 1 0 1 1 1 0 1 0 3 0 1 0 0 0 0 2 0 1 0 1 0 0 0 1 2 0 0 1 1 0 0 0 0 3 0 0 1 1 0 0 0 0 3 0 1 1 0 2 2 0 0 0 2 1 0 1 1 3 1 0 1 1 0 0 1 0 0 0 1 1 1 1 0 0 2 1 1 0 0 0 0 0 0 0 1 0 2 0 3 0 1 0 1 1 1 0 0 0 2 0 0 2 0 0 0 1 0 1 1 1 0 1 0 0 2 0 0 0 3 0 0 1 1 0 0 0 2 0 0 2 1 0 1 0 1 0 0 1 1 0 1 0 0 0 0 1 0 0 2 1 1 0 1 0 1 1 1 2 0 0 0 0 0 2 0 2 0 1 0 0 0 1 2 2 1 0 0 1 2 1 1 1 0 1 1 0 0 1 1 0 0 0 0 1 1 1 0 1 0 1 0 1 0 0 0 2 1 2 2 1 0 0 0 1 2 0 1 1 0 1 0 1 0 1 1 1 1 1 0 1 2 0 2 1 3 1 1 0 1 0 0 3 1 0 1 2 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 2 1 0 0 1 1 0 1 0 2 1 0 1 1 1 0 1 0 1 2 0 1 1 0 2 0 0 0 0 1 1 1 2 0 0 0 1 2 1 0 1 1 0 0 0 1 0 0 0 0 1 1 0 2 1 0 0 1 0 0 2 1 0 2 0 1 0 0 0 0 1 0 1 2 0 0 0 1 3 0 2 0 2 0 1 1 0 0 0 0 0 0 0 0 1 2 1 0 1 1 0 1 0 0 0 1 0 1 1 1 1 4 3 1 0 1 0 0 0 0 1 1 1 1 0 0 0 2 0 0 0 0 0 0 0 1 1 2 0 1 1 1 1 0 1 0 0 0 0 1 1 0 0 0 2 0 2 0 1 0 1 0 1 0 0 0 1 0 2 0 1 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 1 1 0 2 1 0 2 1 1 1 0 1 0 1 0 0 0 1 1 0 0 0 0 1 0 2 0 1 1 1 0 2 0 1 3 1 1 0 1 1 1 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 3 0 0 0 0 3 1 0 1 2 1 2 0 0 0 1 1 0 0 2 2 2 1 1 0 1 0 2 1 0 0 0 1 1 1 0 0 1 0 0 0 1 1 0 1 0 0 0 0 1 1 2 1 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 2 1 0 0 0 2 1 0 0 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 1 1 2 1 0 0 0 0 0 1 3 0 1 1 0 0 1 0 0 0 0 0 1 3 0 0 0 0 0 0 0 1 0 0 0 2 0 3 0 2 1 1 0 1 0 2 1 1 0 1 1 2 0 2 0 1 0 0 1 1 1 0 1 1 1 1 0 0 2 2 1 0 1 0 1 1 0 3 1 0 0 0 1 0 1 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 1 1 0 1 3 0 0 1 0 0 2 0 2 2 0 0 0 0 0 2 0 0 0 0 0 1 0 3 1 0 0 0 1 2 1 1 0 0 0 1 1 2 1 1 1 0 0 3 1 1 1 0 0 1 1 3 2 0 0 1 0 1 1 1 1 2 1 1 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 2 0 0 1 0 0 1 1 0 2 2 0 0 1 0 1 0 0 1 3 1 3 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 1 1 0 1 1 0 0 2 1 0 0 0 1 1 0 3 0 2 0 2 2 1 0 1 0 0 0 1 2 0 1 1 0 1 2 0 2 2 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 1 1 0 0 1 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 3 0 0 1 0 1 1 0 0 0 0 0 1 0 2 0 0 2 1 0 0 1 3 0 1 1 1 0 0 1 0 2 0 1 0 1 0 1 2 0 0 0 1 1 2 0 0 0 0 1 1 1 0 1 2 1 1 0 1 0 1 0 0 1 0 0 1 0 1 1 1 1 1 0 0 1 0 2 1 2 0 1 0 1 1 2 1 2 0 2 1 1 0 0 0 1 0 1 1 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 2 2 0 1 2 1 2 0 0 1 1 1 0 0 0 1 2 0 4 1 0 0 0 1 1 0 2 1 0 0 1 0 1 0 0 0 0 1 0 0 1 1 1 0 0 1 0 0 2 0 1 0 0 1 0 0 0 1 0 3 1 1 1 0 1 0 3 0 1 0 0 0 0 0 1 0 1 0 0 4 0 1 1 1 1 0 0 0 1 0 1 0 1 0 2 1 0 1 1 0 1 3 1 2 0 0 0 3 0 0 0 0 0 1 0 1 1 0 0 0 0 1 1 3 1 1 0 1 2 1 0 1 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 1 0 2 0 0 0 1 0 1 0 3 0 0 2 0 0 0 2 2 1 0 0 0 0 2 1 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 2 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 2 3 0 1 0 1 0 0 0 2 0 0 0 2 1 1 0 0 1 0 0 0 1 0 2 1 0 0 1 1 1 1 0 0 0 2 0 0 0 2 0 0 1 1 1 0 0 1 0 1 1 0 0 2 0 1 1 3 1 1 1 0 0 1 1 1 0 2 1 1 0 0 0 1 0 1 0 1 1 0 0 1 0 1 1 2 0 0 0 0 1 0 1 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 1 2 0 1 2 1 0 0 0 0 0 0 1 0 1 0 2 0 0 0 1 0 2 0 1 0 1 0 2 0 1 0 0 0 3 1 1 0 0 1 0 0 1 1 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 2 1 0 0 1 1 0 1 0 1 1 0 0 0 0 0 2 0 1 0 0 0 0 0 1 1 1 0 0 1 0 1 1 0 1 1 1 1 2 0 0 1 1 0 2 0 1 0 3 2 0 3 0 0 0 0 0 1 0 1 1 0 1 1 0 1 0 1 0 0 0 2 2 1 0 0 1 0 1 1 0 1 1 1 1 1 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 2 0 0 0 1 1 1 0 0 1 2 0 2 1 1 0 0 0 0 2 0 0 0 1 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 2 0 2 2 1 1 3 1 0 0 0 0 2 0 0 2 2 0 0 0 0 0 2 1 0 0 1 1 0 0 1 1 0 0 1 2 1 1 1 1 0 2 2 0 0 2 0 0 1 1 1 0 0 1 1 0 1 0 0 0 1 1 1 1 1 0 0 0 0 0 0 1 2 0 1 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 2 0 1 1 1 0 0 1 0 0 1 0 0 0 0 1 1 0 1 0 0 2 0 1 0 0 1 0 1 0 1 1 0 1 0 0 2 0 0 2 0 1 0 0 0 1 2 1 0 0 1 0 1 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 1 1 0 0 0 1 1 0 2 1 1 0 1 0 1 0 0 0 0 1 0 2 0 0 0 1 0 0 0 0 0 2 0 0 1 0 1 0 1 0 0 0 1 2 1 1 1 0 0 0 3 1 0 1 1 0 0 2 0 1 1 2 0 2 1 1 1 2 0 0 0 1 1 0 0 2 0 3 1 2 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 1 0 0 1 3 2 0 0 1 0 0 0 1 0 1 2 0 0 1 1 0 1 2 0 0 0 1 0 2 0 0 2 1 2 1 0 0 1 3 1 0 0 0 0 0 0 2 0 2 0 1 0 0 0 3 1 3 1 0 1 1 0 1 0 0 0 0 1 1 0 2 3 0 0 0 0 1 1 0 1 1 1 1 1 0 0 0 0 0 1 2 1 0 1 1 1 0 0 0 0 0 1 0 2 1 0 0 0 0 0 1 1 0 0 0 2 0 0 0 0 0 0 0 0 0 3 1 2 0 0 1 0 0 1 0 1 1 2 1 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 2 1 0 0 2 0 1 1 1 3 1 1 1 1 0 0 1 1 0 0 1 0 0 1 0 1 0 0 0 1 1 0 0 0 0 1 0 1 2 1 1 0 0 1 0 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 2 0 1 0 0 0 0 1 1 0 1 1 1 0 1 0 0 0 2 1 0 0 1 1 0 1 0 0 1 0 1 1 1 0 2 0 0 0 1 0 0 0 0 0 1 2 0 0 0 1 2 1 0 2 1 2 2 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 0 0 1 2 3 0 2 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 3 1 1 1 1 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 0 0 1 0 0 2 0 1 3 0 2 2 2 0 0 2 0 1 3 0 1 1 2 2 0 0 1 0 0 0 2 2 0 0 2 0 1 0 1 0 2 1 0 2 1 1 0 0 0 0 3 1 1 1 0 1 0 0 0 1 0 1 0 1 2 1 0 0 0 0 0 0 2 0 0 1 1 1 0 0 0 0 1 1 1 1 0 0 2 0 0 1 0 0 1 1 2 0 0 0 0 2 1 0 0 0 0 0 0 0 0 2 1 0 2 1 0 0 2 1 1 0 0 1 0 1 0 0 1 0 1 0 0 0 1 1 0 0 1 0 0 1 0 2 1 0 0 2 0 0 1 1 0 2 3 0 0 2 0 0 0 1 1 1 0 0 0 1 1 0 0 2 1 0 0 0 0 2 1 0 1 0 0 1 1 1 0 1 0 0 1 0 1 2 1 1 0 0 0 1 2 1 1 0 1 0 0 0 0 1 1 1 1 1 0 3 0 0 1 0 1 0 0 0 0 2 2 0 1 0 0 1 2 0 1 1 1 0 2 0 0 1 1 1 0 0 0 2 1 0 0 0 0 1 1 0 1 0 1 0 0 1 1 2 0 0 0 1 3 0 0 0 0 1 0 1 3 0 1 0 1 0 0 0 0 0 1 0 1 2 1 0 1 1 0 0 1 2 0 0 2 0 1 1 0 0 1 0 2 1 1 0 3 0 2 0 0 0 0 1 0 1 0 0 0 2 3 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 2 1 0 0 1 1 0 1 1 2 1 1 0 0 0 0 0 0 1 0 2 1 2 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 0 1 2 0 0 3 0 3 0 0 1 1 2 0 0 1 1 1 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 0 1 2 1 1 1 0 2 0 2 1 0 0 1 0 1 0 1 1 1 0 0 0 0 1 1 0 3 0 1 1 1 2 1 0 0 3 0 1 2 0 0 0 1 1 0 0 1 0 0 1 0 0 0 1 1 0 1 0 0 1 1 1 0 0 1 1 0 1 0 0 0 0 1 1 0 1 0 1 0 0 2 0 0 0 0 0 3 0 1 0 2 0 2 0 0 1 1 1 2 0 0 0 2 2 0 1 1 0 0 0 0 0 0 0 1 0 2 1 1 1 0 0 0 0 1 1 1 0 1 1 2 0 0 0 0 1 2 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 1 1 0 1 0 2 1 0 0 0 0 0 0 0 0 0 0 0 2 1 0 2 1 0 3 0 0 0 1 0 0 0 1 1 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 2 1 1 0 1 0 1 0 1 0 0 0 0 1 0 0 1 1 1 0 0 1 1 0 2 0 0 0 0 4 1 1 0 0 1 1 0 0 2 0 2 0 0 0 0 1 0 0 2 1 0 0 1 0 1 1 1 0 0 0 0 1 1 1 0 0 0 1 0 1 1 1 3 1 0 1 0 0 3 1 1 0 2 2 2 1 0 0 0 2 1 1 0 1 0 0 0 0 0 1 0 0 1 1 1 0 2 1 1 0 0 0 1 1 0 2 1 2 0 0 1 0 0 0 1 0 0 1 2 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 1 1 1 1 1 0 0 1 1 0 0 1 0 1 0 0 0 1 1 0 0 0 1 1 0 1 0 0 1 1 1 2 0 0 0 0 1 0 0 0 2 0 0 3 1 0 0 1 0 0 1 2 1 0 0 1 0 0 0 2 0 0 1 0 0 1 1 1 0 0 1 2 0 0 0 0 0 0 1 0 3 1 0 2 0 1 1 1 1 0 1 1 0 0 0 1 0 0 0 1 0 1 1 0 1 2 3 1 1 2 1 0 3 1 0 1 1 1 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 1 2 0 1 2 1 1 2 1 1 0 0 1 0 0 0 0 3 1 1 0 0 3 1 0 0 3 1 1 1 1 2 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 2 2 0 0 2 0 1 2 0 1 3 0 1 2 0 0 0 2 1 0 1 0 0 0 0 0 1 1 1 1 0 1 3 0 0 1 0 2 0 1 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 2 1 0 1 0 1 1 1 0 0 1 1 1 0 0 1 0 0 0 0 2 2 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 1 0 0 0 2 1 1 2 1 2 0 0 0 0 1 1 0 1 1 0 0 0 1 1 1 0 0 1 2 0 0 0 0 1 0 0 0 1 1 1 2 0 0 1 0 0 0 1 1 2 0 0 0 0 1 1 0 1 2 1 0 1 0 0 2 0 0 0 1 1 0 0 2 0 1 0 0 2 2 0 1 1 0 1 0 0 0 0 0 2 0 2 0 0 2 0 1 1 1 0 1 1 0 1 0 0 1 0 0 2 0 1 2 2 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 1 1 1 0 0 1 0 1 0 1 0 0 1 1 0 1 0 0 0 1 2 0 0 0 0 1 1 0 0 0 3 1 0 0 0 1 0 1 1 0 1 0 0 0 1 0 0 1 1 1 1 1 2 0 0 0 1 1 1 0 1 1 2 1 0 2 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 0 1 3 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 2 0 0 1 0 0 2 1 1 0 0 0 1 2 0 0 0 0 0 2 0 1 1 1 0 1 0 2 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 1 1 1 1 0 0 1 0 2 0 2 1 0 0 0 0 0 0 1 0 0 0 3 0 0 1 1 2 0 0 0 0 0 0 2 0 0 3 1 2 1 0 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 1 1 1 3 0 0 1 1 1 0 0 0 1 1 0 1 3 0 0 0 1 2 0 0 0 0 0 0 3 1 0 2 1 2 0 1 1 0 0 0 0 0 0 1 4 1 0 0 1 0 0 1 0 0 0 1 2 0 0 0 1 0 1 1 1 0 1 1 1 0 0 1 0 0 1 0 0 0 0 0 0 2 1 1 2 1 0 1 0 2 2 1 0 0 0 1 0 0 0 3 0 1 0 1 0 0 0 0 0 1 2 0 0 0 2 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 1 1 0 0 1 1 1 0 1 1 0 0 0 0 2 2 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1 2 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 1 0 1 0 0 0 2 2 0 2 0 0 1 0 0 0 0 0 2 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 2 2 0 0 0 0 2 0 1 0 1 0 0 1 1 1 1 1 0 0 0 0 0 0 1 1 0 2 0 1 1 1 0 0 1 0 0 1 0 1 0 0 0 1 0 2 0 0 0 1 1 0 0 0 2 0 0 0 0 0 2 1 0 1 0 2 0 1 0 1 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 1 0 2 3 1 0 1 1 1 1 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 1 1 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 2 0 2 1 0 0 1 1 0 0 0 1 0 2 0 0 0 0 0 1 2 1 0 0 0 1 1 0 1 0 0 2 0 0 0 2 1 1 0 0 1 1 1 1 0 0 0 0 1 0 1 2 0 1 2 1 0 0 0 0 0 0 1 0 0 1 1 0 2 0 1 2 1 0 0 0 1 0 1 0 0 1 0 1 2 0 0 0 0 0 0 1 2 1 0 2 0 1 0 0 0 1 1 1 0 2 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 3 0 0 0 2 1 1 0 0 2 0 0 1 0 2 1 0 1 0 1 0 0 1 1 1 0 1 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 2 0 0 2 1 0 0 0 0 1 0 0 1 1 1 0 1 0 1 0 0 1 0 5 1 0 0 0 2 1 1 0 0 0 1 2 0 0 1 2 0 0 0 1 1 0 1 1 0 1 0 1 1 0 1 1 0 0 0 0 1 0 0 2 0 0 1 0 0 1 1 1 0 0 0 0 1 1 0 1 0 0 2 0 0 3 1 1 1 2 1 0 0 0 0 2 0 1 0 0 0 3 0 1 1 1 1 0 1 1 1 2 0 0 1 1 1 0 2 1 1 1 1 0 0 0 1 0 0 0 1 2 0 3 1 1 0 0 0 1 0 1 1 0 0 1 1 0 1 2 0 0 0 0 2 1 1 0 2 0 0 0 1 3 1 0 1 0 2 0 1 0 1 0 0 0 0 2 1 2 0 0 0 1 1 0 0 1 0 1 0 1 0 0 0 1 0 0 2 0 0 2 0 1 0 1 1 1 0 0 0 0 0 1 0 1 0 2 1 1 1 0 0 0 2 0 0 1 1 0 1 1 0 0 1 1 0 1 0 1 0 1 1 1 0 2 1 1 1 0 1 1 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 3 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 1 0 1 0 2 0 2 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 2 0 0 1 0 0 0 0 2 2 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 2 0 0 1 0 2 0 0 0 2 0 1 2 1 0 0 0 1 0 0 0 2 0 1 0 0 1 0 0 1 1 2 1 0 2 0 1 0 0 0 2 0 1 0 0 2 0 0 1 0 0 0 0 0 0 1 0 1 0 0 2 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 1 1 0 1 0 1 0 1 0 1 0 0 2 2 0 0 0 0 1 0 2 0 1 0 0 0 3 1 1 0 0 0 3 1 0 0 1 1 0 1 2 0 1 0 0 1 0 0 3 0 0 2 1 0 1 0 0 3 0 0 0 0 0 2 0 2 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 3 1 0 0 1 1 1 0 0 0 0 1 0 1 2 0 3 2 0 0 0 0 0 0 0 0 0 1 1 2 0 0 0 1 1 0 0 0 1 2 1 1 0 0 0 0 1 0 0 2 1 1 0 1 0 0 0 1 1 1 0 0 1 0 1 0 1 0 1 0 0 0 2 0 1 0 1 1 1 0 1 0 2 0 0 1 2 1 2 0 2 2 1 2 1 0 0 2 0 1 1 0 0 0 0 0 1 0 1 0 1 1 1 0 0 0 4 0 0 0 1 0 0 0 0 0 0 0 0 1 2 0 1 0 0 0 0 1 1 0 0 1 0 0 2 0 1 0 1 1 2 1 0 0 2 0 1 0 0 0 1 1 0 0 0 0 1 1 0 1 0 3 0 1 1 0 0 0 0 2 0 0 1 2 2 0 3 0 1 0 0 0 1 3 0 1 0 0 0 1 0 0 0 0 1 0 1 1 0 1 2 1 1 1 1 1 0 1 1 1 0 0 1 0 2 0 2 0 0 0 0 2 0 0 0 0 0 0 0 0 2 0 0 1 0 0 1 0 2 0 1 1 1 1 1 1 0 0 2 0 1 1 2 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 2 0 1 1 0 1 0 2 1 0 0 1 0 0 0 0 0 1 0 0 1 2 1 2 2 0 0 0 0 0 1 0 2 0 2 1 0 0 1 0 2 0 0 2 0 1 0 1 2 1 0 1 0 0 0 2 2 0 0 0 1 1 0 0 2 0 0 1 0 0 0 1 0 0 2 2 0 0 0 0 2 2 0 1 1 0 0 2 0 0 1 0 0 0 0 1 0 1 0 1 0 0 1 1 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 2 0 1 0 1 0 0 0 2 1 1 1 2 2 0 1 3 1 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 1 1 2 0 1 0 0 2 1 0 0 0 0 0 1 0 1 2 1 0 1 2 0 1 1 1 0 1 2 1 0 0 0 0 0 0 0 2 2 0 0 1 0 0 0 1 0 0 0 1 1 1 2 2 0 0 0 0 0 0 2 2 0 0 0 1 2 1 0 0 0 1 1 0 0 0 0 0 2 0 1 1 1 0 0 0 2 1 1 0 0 0 1 1 0 1 2 1 0 2 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 2 0 0 1 1 0 2 0 0 0 1 0 2 1 1 0 0 0 1 1 1 0 1 0 0 2 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 1 3 2 1 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 2 0 0 0 0 0 1 1 0 0 0 1 0 3 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 3 1 1 0 0 0 1 1 2 0 1 2 0 0 1 1 0 0 1 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 1 1 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 1 0 1 1 0 1 0 0 1 0 0 1 1 0 1 3 0 1 2 2 0 1 0 1 3 0 0 0 2 0 2 1 0 0 0 0 2 1 0 1 0 1 0 1 2 0 2 0 0 1 0 1 0 0 1 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 1 1 0 2 1 0 1 3 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 0 2 0 0 2 1 2 0 1 1 2 0 0 2 0 0 1 0 1 0 0 3 1 0 2 2 0 0 1 2 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 2 0 0 1 0 0 1 1 0 1 1 0 0 2 0 1 0 2 1 0 0 3 0 1 0 0 1 1 1 1 0 2 3 2 0 0 0 0 1 0 0 1 0 1 2 0 0 1 0 0 0 2 2 0 1 0 1 1 0 0 0 1 0 0 0 0 1 1 0 0 0 1 1 1 1 4 1 1 0 1 2 1 0 1 0 0 0 0 0 0 0 0 0 0 3 1 0 1 0 0 1 0 1 0 1 1 0 0 0 2 0 0 0 1 1 1 0 2 0 1 0 1 0 0 1 0 1 1 3 0 0 1 1 0 0 1 1 1 1 1 0 1 0 0 2 1 2 1 0 0 1 2 1 1 2 0 1 1 1 1 0 0 0 0 0 0 0 0 4 0 1 1 0 0 1 1 1 1 1 1 1 0 2 1 0 1 0 0 0 0 1 0 1 1 0 0 0 0 1 2 0 1 0 2 1 1 0 0 0 2 0 2 0 0 1 0 0 1 1 0 0 1 1 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 3 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 2 1 0 1 1 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 1 1 0 1 0 0 0 0 1 2 0 0 2 0 0 1 0 0 1 2 0 2 0 0 1 2 0 0 0 1 2 0 1 2 2 0 0 0 1 0 1 2 0 0 1 0 0 1 1 0 0 3 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 1 2 0 1 2 2 2 0 0 0 0 2 0 0 1 0 0 1 0 1 1 1 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 2 0 0 1 2 0 4 1 2 1 0 0 0 0 0 1 0 0 1 0 0 1 0 2 0 0 1 0 1 0 1 0 0 0 1 1 0 0 2 1 1 0 0 1 2 2 0 0 0 1 0 1 0 0 1 1 0 0 0 0 1 0 1 0 1 2 0 1 0 1 1 1 0 0 0 1 1 1 0 0 1 0 0 1 1 0 0 0 0 2 0 0 1 0 1 1 0 1 0 0 2 0 0 0 1 0 0 1 1 0 1 0 0 2 1 3 1 1 0 1 1 1 0 0 0 0 0 2 0 1 2 0 1 0 1 0 0 1 0 0 1 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 2 0 0 1 1 1 2 0 1 1 0 1 1 1 0 4 1 0 0 0 1 0 1 1 1 0 0 0 1 1 0 1 1 0 2 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 1 1 0 0 1 0 1 0 0 1 0 2 2 0 0 0 2 3 0 1 0 0 0 1 1 1 0 1 0 1 0 0 0 1 0 0 0 0 0 1 1 0 2 1 0 1 1 0 0 0 1 1 0 0 2 1 0 1 1 0 0 0 0 1 1 1 1 0 1 0 0 0 0 1 0 1 1 0 0 1 0 0 0 1 1 0 1 1 1 1 0 1 1 1 2 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 1 0 0 0 2 1 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 0 1 0 1 0 1 0 1 0 2 0 1 1 0 2 1 1 0 0 0 1 0 0 1 2 0 2 1 0 0 1 2 1 0 0 2 0 1 0 0 2 1 0 0 0 0 0 2 0 0 0 2 0 0 1 0 1 0 0 0 1 1 2 0 1 0 0 0 0 0 0 0 1 1 2 0 2 1 0 0 2 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 1 1 2 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 2 1 0 1 1 0 1 0 0 1 1 0 0 0 1 0 0 0 0 1 0 1 1 0 0 1 0 2 0 0 3 2 0 0 1 1 0 1 1 0 1 0 0 0 0 1 0 0 1 1 0 0 0 1 0 1 2 0 0 0 0 1 1 2 2 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 1 1 1 0 0 0 1 0 0 1 1 0 0 1 0 0 0 1 0 1 0 0 0 0 1 1 1 2 0 1 0 0 0 1 0 1 0 1 1 0 1 0 0 2 1 1 0 0 1 0 0 0 1 2 1 2 1 0 0 2 1 1 0 1 0 1 1 0 0 1 0 2 2 0 2 0 0 1 1 0 0 0 1 0 0 1 0 1 1 3 2 0 0 0 2 1 1 1 1 0 1 0 0 1 0 0 2 1 1 0 0 0 0 1 0 1 1 2 0 1 0 0 1 0 1 1 0 0 0 1 1 1 0 0 0 0 1 0 0 2 2 2 1 0 0 0 0 0 0 2 2 0 0 2 1 0 0 0 0 0 0 2 0 0 0 3 0 0 0 0 2 0 0 0 0 0 0 3 0 0 1 0 0 0 0 0 0 1 1 1 2 1 0 2 0 0 0 0 1 0 0 2 1 1 0 1 1 0 0 0 1 0 1 1 0 1 0 1 1 0 1 1 0 2 1 1 0 0 1 0 0 1 1 2 2 3 1 0 0 0 1 1 2 1 0 2 1 1 1 0 1 1 1 2 1 0 0 0 1 1 0 1 0 1 1 1 0 2 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 2 0 1 0 0 0 1 1 0 1 0 1 1 0 0 2 0 0 2 0 1 0 0 0 2 1 0 0 0 2 1 0 0 0 1 1 0 0 1 0 0 0 0 1 1 0 1 3 1 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 0 2 2 1 1 1 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 2 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 3 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 1 1 1 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 2 1 0 1 1 1 3 0 1 0 0 1 2 1 1 1 0 0 0 1 1 1 0 1 0 1 0 1 1 0 0 0 1 1 1 0 0 0 0 1 2 1 0 0 0 0 1 0 1 0 1 0 1 0 0 2 0 0 2 0 3 2 0 0 1 0 0 0 1 0 2 1 2 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 1 1 2 0 0 0 2 1 1 0 1 1 1 0 0 1 0 0 0 1 0 0 1 1 2 1 0 2 0 1 1 2 0 0 0 1 1 1 0 0 0 1 1 1 0 1 0 0 0 1 2 2 0 1 2 0 2 0 0 4 0 1 1 0 0 0 0 0 1 0 0 1 0 1 0 2 0 0 0 1 2 0 0 0 0 0 0 0 0 2 0 1 2 0 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 3 0 2 0 0 0 0 0 0 0 1 0 1 0 0 1 1 1 3 1 0 0 0 2 0 0 2 0 1 1 0 0 0 3 1 0 2 1 0 0 0 1 1 1 1 0 0 0 1 1 0 0 1 1 1 0 0 1 0 0 2 1 0 0 0 0 0 0 0 0 1 2 0 1 0 0 1 1 1 0 0 2 1 0 0 0 1 0 0 0 0 1 1 0 0 1 1 1 2 1 0 0 0 1 2 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 3 0 0 2 0 1 0 0 2 1 1 1 1 1 2 1 2 0 2 1 1 0 1 2 0 1 1 0 0 0 0 0 0 1 1 2 0 0 0 0 1 0 2 0 0 2 0 0 0 0 0 0 2 1 0 0 0 0 0 0 1 1 0 2 0 1 1 2 0 2 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 3 0 0 2 2 2 0 1 0 1 0 1 0 0 3 1 0 1 3 0 0 1 2 0 0 0 0 0 1 0 0 3 1 1 2 0 1 0 0 1 0 1 0 0 1 0 1 1 1 0 2 1 0 0 2 0 1 1 0 0 2 1 1 0 1 2 0 1 0 0 0 0 1 0 1 1 0 0 1 0 0 2 1 1 1 2 0 0 1 0 0 1 2 1 0 0 0 1 0 1 0 0 0 0 0 0 2 1 1 0 0 0 2 1 0 1 1 1 0 0 0 0 1 1 2 1 2 1 1 1 0 1 0 1 1 1 0 0 1 1 0 0 1 0 0 1 0 1 0 1 1 0 1 1 1 1 1 1 0 1 0 0 1 1 0 1 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 1 3 0 0 1 0 2 0 0 0 1 0 0 1 1 0 0 3 2 1 0 1 1 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 0 1 1 3 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 2 1 0 1 1 1 0 0 0 1 0 0 0 2 0 1 1 0 0 0 1 2 1 1 1 0 0 0 0 0 0 1 0 0 1 1 0 0 1 1 0 1 0 0 0 1 0 1 0 1 2 0 0 0 1 1 0 0 2 1 4 0 0 1 0 1 2 1 0 1 1 0 0 1 0 1 0 1 0 0 0 0 1 1 2 4 0 0 0 0 1 1 1 1 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 2 0 0 1 0 1 0 1 1 0 1 1 1 0 0 0 0 1 0 1 0 2 2 0 1 1 1 0 2 1 0 0 0 1 0 1 0 0 3 0 1 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 2 1 0 1 0 0 0 0 0 0 3 1 1 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 2 2 0 1 1 1 1 0 1 0 0 1 0 0 1 0 2 1 2 0 1 0 0 0 0 1 1 1 2 1 1 0 1 0 1 0 0 0 0 0 0 0 3 1 1 0 1 0 0 0 0 1 0 1 1 1 2 2 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 2 2 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 1 1 2 0 2 0 0 0 0 0 0 0 1 0 1 0 2 1 1 1 1 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 2 3 0 0 0 1 2 2 1 1 0 0 1 0 0 0 0 0 1 0 2 0 0 0 1 0 0 1 0 0 0 1 1 1 0 1 0 0 1 1 1 1 0 0 0 1 0 0 1 1 1 1 0 0 1 1 0 1 1 0 1 2 0 0 0 1 1 1 0 1 1 0 1 0 0 2 1 1 0 0 0 0 1 1 1 0 1 3 1 2 1 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 2 0 2 0 0 1 0 0 0 1 2 1 0 1 0 1 1 0 0 0 0 0 2 1 1 0 1 1 0 1 0 0 1 1 1 0 0 1 0 1 0 0 0 2 1 2 0 1 2 4 0 0 1 2 1 0 0 1 0 0 0 0 0 0 0 2 1 1 1 0 0 0 1 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 0 0 1 0 2 0 2 0 0 1 0 1 1 1 0 0 0 0 1 1 1 1 1 0 0 0 2 1 1 2 0 1 0 0 0 3 3 0 2 2 1 2 2 0 2 0 1 1 0 1 0 0 2 1 0 1 1 1 0 0 1 1 0 1 2 1 0 1 1 1 1 0 1 0 0 0 1 1 0 0 1 0 1 0 0 0 0 1 2 0 0 1 0 2 0 0 0 0 0 0 0 1 0 0 1 0 1 1 1 2 1 1 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 1 1 0 1 0 2 0 0 0 4 1 0 0 1 0 2 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 0 1 0 1 1 1 1 0 0 1 1 0 0 0 1 1 1 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 0 2 1 0 1 0 1 1 0 0 0 2 0 0 0 0 0 1 0 1 2 2 2 0 0 0 1 0 1 1 0 0 1 1 1 1 0 0 0 0 1 3 1 0 1 0 1 0 0 0 0 1 0 0 2 0 1 1 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 1 3 0 3 0 1 1 1 1 0 2 0 1 0 0 1 2 1 1 0 0 0 2 0 0 1 0 0 0 0 0 3 1 0 0 0 1 1 0 0 2 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 2 0 0 2 2 1 0 0 0 0 0 0 1 0 1 0 1 0 1 1 1 0 0 1 4 2 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 1 1 0 1 1 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 3 1 0 1 0 0 1 1 1 0 3 1 0 1 1 0 2 0 0 0 1 1 0 1 1 0 1 1 0 2 1 1 0 1 2 2 0 0 0 0 1 0 1 1 2 0 0 0 0 2 1 0 0 0 0 0 2 0 0 1 1 1 2 0 0 0 1 1 0 0 1 1 1 1 0 1 0 0 1 1 0 0 1 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 0 1 0 1 0 0 0 1 0 0 2 0 0 0 1 0 2 3 2 1 1 1 0 0 2 0 1 0 0 0 1 0 2 2 0 1 1 0 0 0 0 0 1 0 0 2 0 0 1 2 0 0 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 4 0 0 0 0 0 2 0 1 0 2 0 0 1 1 1 1 0 0 1 0 0 0 2 2 0 1 0 3 1 0 2 0 0 2 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 2 0 0 0 1 0 1 2 0</t>
   </si>
   <si>
     <t>C.Newton</t>
@@ -764,16 +764,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65.8</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C2">
-        <v>33.5</v>
+        <v>32.7</v>
       </c>
       <c r="D2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -782,7 +782,7 @@
         <v>12</v>
       </c>
       <c r="H2">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -791,10 +791,10 @@
         <v>14</v>
       </c>
       <c r="K2">
-        <v>6.63</v>
+        <v>6.66</v>
       </c>
       <c r="L2">
-        <v>4.4</v>
+        <v>4.37</v>
       </c>
     </row>
   </sheetData>
@@ -844,25 +844,25 @@
         <v>21.6</v>
       </c>
       <c r="C2">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="D2">
         <v>35.4</v>
       </c>
       <c r="E2">
-        <v>256.27</v>
+        <v>256.04</v>
       </c>
       <c r="F2">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="G2">
         <v>0.37</v>
       </c>
       <c r="H2">
-        <v>104.96</v>
+        <v>105.25</v>
       </c>
       <c r="I2">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -982,16 +982,16 @@
         <v>47</v>
       </c>
       <c r="C2">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="D2">
         <v>35.4</v>
       </c>
       <c r="E2">
-        <v>256.27</v>
+        <v>256.04</v>
       </c>
       <c r="F2">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="G2">
         <v>0.37</v>
@@ -1003,16 +1003,16 @@
         <v>1.9</v>
       </c>
       <c r="J2">
-        <v>5.04</v>
+        <v>5</v>
       </c>
       <c r="K2">
         <v>0.05</v>
       </c>
       <c r="L2">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="M2">
-        <v>16.75</v>
+        <v>16.81</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1153,22 +1153,22 @@
         <v>55</v>
       </c>
       <c r="C2">
-        <v>7.4</v>
+        <v>7.42</v>
       </c>
       <c r="D2">
-        <v>77.53</v>
+        <v>77.56</v>
       </c>
       <c r="E2">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="G2">
         <v>0.1</v>
       </c>
       <c r="H2">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>17.91</v>
+        <v>17.94</v>
       </c>
       <c r="L2">
-        <v>10.51</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1191,22 +1191,22 @@
         <v>56</v>
       </c>
       <c r="C3">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="D3">
-        <v>21.46</v>
+        <v>21.56</v>
       </c>
       <c r="E3">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F3">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="G3">
         <v>15.7</v>
       </c>
       <c r="H3">
-        <v>67.76000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="I3">
         <v>0.53</v>
@@ -1215,10 +1215,10 @@
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>14.31</v>
+        <v>14.37</v>
       </c>
       <c r="L3">
-        <v>12.2</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1232,7 +1232,7 @@
         <v>3.82</v>
       </c>
       <c r="D4">
-        <v>40.52</v>
+        <v>40.72</v>
       </c>
       <c r="E4">
         <v>0.26</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K4">
-        <v>9.289999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="L4">
-        <v>5.48</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="C5">
-        <v>3.01</v>
+        <v>2.99</v>
       </c>
       <c r="D5">
-        <v>30.78</v>
+        <v>30.53</v>
       </c>
       <c r="E5">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F5">
         <v>0.05</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.17</v>
+        <v>7.07</v>
       </c>
       <c r="L5">
-        <v>4.16</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1305,13 +1305,13 @@
         <v>59</v>
       </c>
       <c r="C6">
-        <v>2.53</v>
+        <v>2.48</v>
       </c>
       <c r="D6">
-        <v>26.07</v>
+        <v>25.55</v>
       </c>
       <c r="E6">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F6">
         <v>0.05</v>
@@ -1320,7 +1320,7 @@
         <v>0.1</v>
       </c>
       <c r="H6">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1329,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6.08</v>
+        <v>6</v>
       </c>
       <c r="L6">
-        <v>3.54</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1343,10 +1343,10 @@
         <v>60</v>
       </c>
       <c r="C7">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="D7">
-        <v>18.45</v>
+        <v>18.76</v>
       </c>
       <c r="E7">
         <v>0.12</v>
@@ -1358,7 +1358,7 @@
         <v>0.3</v>
       </c>
       <c r="H7">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="I7">
         <v>0.01</v>
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.48</v>
+        <v>4.58</v>
       </c>
       <c r="L7">
-        <v>2.67</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1384,7 +1384,7 @@
         <v>0.14</v>
       </c>
       <c r="D8">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="E8">
         <v>0.01</v>
@@ -1396,19 +1396,19 @@
         <v>6.2</v>
       </c>
       <c r="H8">
-        <v>26.77</v>
+        <v>26.99</v>
       </c>
       <c r="I8">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="L8">
-        <v>3.93</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1419,13 +1419,13 @@
         <v>62</v>
       </c>
       <c r="C9">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="D9">
-        <v>15.07</v>
+        <v>14.93</v>
       </c>
       <c r="E9">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F9">
         <v>0.03</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.48</v>
+        <v>3.45</v>
       </c>
       <c r="L9">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1460,13 +1460,13 @@
         <v>1.29</v>
       </c>
       <c r="D10">
-        <v>13.41</v>
+        <v>13.32</v>
       </c>
       <c r="E10">
         <v>0.08</v>
       </c>
       <c r="F10">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1481,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.1</v>
+        <v>3.07</v>
       </c>
       <c r="L10">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1495,10 +1495,10 @@
         <v>64</v>
       </c>
       <c r="C11">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="D11">
-        <v>5.99</v>
+        <v>6.07</v>
       </c>
       <c r="E11">
         <v>0.04</v>
@@ -1510,7 +1510,7 @@
         <v>0.7</v>
       </c>
       <c r="H11">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
       <c r="I11">
         <v>0.03</v>
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="L11">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1536,7 +1536,7 @@
         <v>0.51</v>
       </c>
       <c r="D12">
-        <v>5.41</v>
+        <v>5.46</v>
       </c>
       <c r="E12">
         <v>0.04</v>
@@ -1548,7 +1548,7 @@
         <v>0.1</v>
       </c>
       <c r="H12">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>0.01</v>
       </c>
       <c r="D13">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>2.27</v>
       </c>
       <c r="D2">
-        <v>2.37</v>
+        <v>2.36</v>
       </c>
       <c r="E2">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="F2">
         <v>1.31</v>
@@ -1818,7 +1818,7 @@
         <v>0.67</v>
       </c>
       <c r="I2">
-        <v>7.23</v>
+        <v>7.26</v>
       </c>
     </row>
   </sheetData>
@@ -1865,25 +1865,25 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="C2">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="D2">
-        <v>35.5</v>
+        <v>35.7</v>
       </c>
       <c r="E2">
-        <v>234.93</v>
+        <v>235.6</v>
       </c>
       <c r="F2">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="G2">
         <v>0.59</v>
       </c>
       <c r="H2">
-        <v>85.91</v>
+        <v>85.15000000000001</v>
       </c>
       <c r="I2">
         <v>0.5600000000000001</v>
@@ -2006,28 +2006,28 @@
         <v>94</v>
       </c>
       <c r="C2">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="D2">
-        <v>35.5</v>
+        <v>35.7</v>
       </c>
       <c r="E2">
-        <v>234.93</v>
+        <v>235.6</v>
       </c>
       <c r="F2">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="G2">
         <v>0.59</v>
       </c>
       <c r="H2">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I2">
         <v>7.4</v>
       </c>
       <c r="J2">
-        <v>28.48</v>
+        <v>28.27</v>
       </c>
       <c r="K2">
         <v>0.19</v>
@@ -2036,7 +2036,7 @@
         <v>0.06</v>
       </c>
       <c r="M2">
-        <v>16.87</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2068,7 +2068,7 @@
         <v>0.7</v>
       </c>
       <c r="J3">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="K3">
         <v>0.02</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2177,13 +2177,13 @@
         <v>97</v>
       </c>
       <c r="C2">
-        <v>7.41</v>
+        <v>7.42</v>
       </c>
       <c r="D2">
-        <v>75.02</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="E2">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="F2">
         <v>0.13</v>
@@ -2192,7 +2192,7 @@
         <v>0.5</v>
       </c>
       <c r="H2">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="I2">
         <v>0.01</v>
@@ -2201,10 +2201,10 @@
         <v>0.02</v>
       </c>
       <c r="K2">
-        <v>17.32</v>
+        <v>17.26</v>
       </c>
       <c r="L2">
-        <v>9.9</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2215,10 +2215,10 @@
         <v>98</v>
       </c>
       <c r="C3">
-        <v>5.27</v>
+        <v>5.26</v>
       </c>
       <c r="D3">
-        <v>53.03</v>
+        <v>52.81</v>
       </c>
       <c r="E3">
         <v>0.28</v>
@@ -2230,7 +2230,7 @@
         <v>0.3</v>
       </c>
       <c r="H3">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="I3">
         <v>0.01</v>
@@ -2239,10 +2239,10 @@
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>12.25</v>
+        <v>12.2</v>
       </c>
       <c r="L3">
-        <v>6.98</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2253,22 +2253,22 @@
         <v>99</v>
       </c>
       <c r="C4">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="D4">
-        <v>11.9</v>
+        <v>12.07</v>
       </c>
       <c r="E4">
         <v>0.06</v>
       </c>
       <c r="F4">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="G4">
         <v>6.9</v>
       </c>
       <c r="H4">
-        <v>28.72</v>
+        <v>28.39</v>
       </c>
       <c r="I4">
         <v>0.18</v>
@@ -2277,10 +2277,10 @@
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>6.43</v>
+        <v>6.48</v>
       </c>
       <c r="L4">
-        <v>5.23</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2291,10 +2291,10 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="D5">
-        <v>19.37</v>
+        <v>19.42</v>
       </c>
       <c r="E5">
         <v>0.1</v>
@@ -2306,7 +2306,7 @@
         <v>3.7</v>
       </c>
       <c r="H5">
-        <v>15.26</v>
+        <v>15.18</v>
       </c>
       <c r="I5">
         <v>0.1</v>
@@ -2315,10 +2315,10 @@
         <v>0.01</v>
       </c>
       <c r="K5">
-        <v>6.42</v>
+        <v>6.41</v>
       </c>
       <c r="L5">
-        <v>4.48</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2332,10 +2332,10 @@
         <v>1.7</v>
       </c>
       <c r="D6">
-        <v>16.96</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F6">
         <v>0.03</v>
@@ -2344,7 +2344,7 @@
         <v>0.2</v>
       </c>
       <c r="H6">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2353,10 +2353,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.97</v>
+        <v>3.92</v>
       </c>
       <c r="L6">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2367,10 +2367,10 @@
         <v>102</v>
       </c>
       <c r="C7">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="D7">
-        <v>16.38</v>
+        <v>16.69</v>
       </c>
       <c r="E7">
         <v>0.08</v>
@@ -2382,7 +2382,7 @@
         <v>0.1</v>
       </c>
       <c r="H7">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2391,10 +2391,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.77</v>
+        <v>3.83</v>
       </c>
       <c r="L7">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2405,10 +2405,10 @@
         <v>103</v>
       </c>
       <c r="C8">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="D8">
-        <v>15.87</v>
+        <v>15.97</v>
       </c>
       <c r="E8">
         <v>0.08</v>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.62</v>
+        <v>3.63</v>
       </c>
       <c r="L8">
         <v>2.04</v>
@@ -2443,10 +2443,10 @@
         <v>104</v>
       </c>
       <c r="C9">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="D9">
-        <v>12.8</v>
+        <v>12.92</v>
       </c>
       <c r="E9">
         <v>0.06</v>
@@ -2467,10 +2467,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="L9">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2481,10 +2481,10 @@
         <v>105</v>
       </c>
       <c r="C10">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="D10">
-        <v>4.38</v>
+        <v>4.42</v>
       </c>
       <c r="E10">
         <v>0.02</v>
@@ -2496,7 +2496,7 @@
         <v>1.3</v>
       </c>
       <c r="H10">
-        <v>5.47</v>
+        <v>5.5</v>
       </c>
       <c r="I10">
         <v>0.03</v>
@@ -2505,10 +2505,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="L10">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2522,7 +2522,7 @@
         <v>0.3</v>
       </c>
       <c r="D11">
-        <v>2.98</v>
+        <v>3.01</v>
       </c>
       <c r="E11">
         <v>0.02</v>
@@ -2534,7 +2534,7 @@
         <v>0.1</v>
       </c>
       <c r="H11">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2543,10 +2543,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="L11">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2557,16 +2557,16 @@
         <v>107</v>
       </c>
       <c r="C12">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="D12">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="E12">
         <v>0.02</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2581,10 +2581,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L12">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2595,10 +2595,10 @@
         <v>108</v>
       </c>
       <c r="C13">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="D13">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="E13">
         <v>0.01</v>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="L13">
         <v>0.2</v>
@@ -2636,7 +2636,7 @@
         <v>0.08</v>
       </c>
       <c r="D14">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2657,10 +2657,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="L14">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2674,7 +2674,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="D15">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2695,10 +2695,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="L15">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2786,25 +2786,25 @@
         <v>112</v>
       </c>
       <c r="C2">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="D2">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="E2">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F2">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="G2">
         <v>0.39</v>
       </c>
       <c r="H2">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="I2">
-        <v>6.59</v>
+        <v>6.61</v>
       </c>
     </row>
   </sheetData>
